--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2169DCF7-8570-4400-9099-4C89B4AF9771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF3F502-599A-4A80-BA79-F4764872DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="849">
   <si>
     <t>预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2683,14 +2683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>row=7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>din</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>addr(7,1)</t>
   </si>
   <si>
@@ -2824,10 +2816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addr(8,1)=2+8=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>state(12,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2975,11 +2963,63 @@
     <t>cov(15,14)</t>
   </si>
   <si>
-    <t>addr(15,1)=2+8+9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3(end)</t>
+    <t>en/addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(4,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(8,1)=2+8*1=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(15,1)=10+8*1+1=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(16,1)=19+8*2=35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(end)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(23,1)=35+8*2+1=52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(24,1)=52+8*3=76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(7,1)+1=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(7,1)+2=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addra_new(din)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addrb_new(din)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prd_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_cnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3399,7 +3439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4039,60 +4079,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4108,10 +4157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4438,11 +4484,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="212" t="s">
+      <c r="W1" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
+      <c r="X1" s="215"/>
+      <c r="Y1" s="215"/>
       <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -4457,11 +4503,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="212" t="s">
+      <c r="W3" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="212"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
       <c r="Z3" s="24" t="s">
         <v>57</v>
       </c>
@@ -5243,8 +5289,8 @@
       </c>
       <c r="D1" s="220"/>
       <c r="E1" s="220"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="226" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="222" t="s">
         <v>111</v>
       </c>
       <c r="H1" s="220"/>
@@ -5255,13 +5301,13 @@
       </c>
       <c r="L1" s="220"/>
       <c r="M1" s="220"/>
-      <c r="N1" s="223"/>
+      <c r="N1" s="221"/>
       <c r="O1" s="219" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="220"/>
       <c r="Q1" s="220"/>
-      <c r="R1" s="223"/>
+      <c r="R1" s="221"/>
     </row>
     <row r="2" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -5318,27 +5364,27 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="224" t="s">
+      <c r="C3" s="223" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="224"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="227"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="225"/>
       <c r="K3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="224" t="s">
+      <c r="S3" s="223" t="s">
         <v>414</v>
       </c>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="227"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="225"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -6511,25 +6557,25 @@
       </c>
       <c r="D1" s="220"/>
       <c r="E1" s="220"/>
-      <c r="F1" s="223"/>
+      <c r="F1" s="221"/>
       <c r="G1" s="219" t="s">
         <v>111</v>
       </c>
       <c r="H1" s="220"/>
       <c r="I1" s="220"/>
-      <c r="J1" s="223"/>
+      <c r="J1" s="221"/>
       <c r="K1" s="219" t="s">
         <v>454</v>
       </c>
       <c r="L1" s="220"/>
       <c r="M1" s="220"/>
-      <c r="N1" s="223"/>
+      <c r="N1" s="221"/>
       <c r="O1" s="219" t="s">
         <v>189</v>
       </c>
       <c r="P1" s="220"/>
       <c r="Q1" s="220"/>
-      <c r="R1" s="223"/>
+      <c r="R1" s="221"/>
       <c r="S1" s="48"/>
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
@@ -6627,12 +6673,12 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="224" t="s">
+      <c r="S3" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="227"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="225"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="72" t="s">
@@ -6804,12 +6850,12 @@
         <v>290</v>
       </c>
       <c r="R8" s="41"/>
-      <c r="S8" s="234" t="s">
+      <c r="S8" s="237" t="s">
         <v>390</v>
       </c>
-      <c r="T8" s="235"/>
-      <c r="U8" s="235"/>
-      <c r="V8" s="235"/>
+      <c r="T8" s="238"/>
+      <c r="U8" s="238"/>
+      <c r="V8" s="238"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="72" t="s">
@@ -9296,8 +9342,8 @@
       </c>
       <c r="C1" s="220"/>
       <c r="D1" s="220"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="226" t="s">
+      <c r="E1" s="221"/>
+      <c r="F1" s="222" t="s">
         <v>111</v>
       </c>
       <c r="G1" s="220"/>
@@ -9308,13 +9354,13 @@
       </c>
       <c r="K1" s="220"/>
       <c r="L1" s="220"/>
-      <c r="M1" s="223"/>
+      <c r="M1" s="221"/>
       <c r="N1" s="219" t="s">
         <v>189</v>
       </c>
       <c r="O1" s="220"/>
       <c r="P1" s="220"/>
-      <c r="Q1" s="223"/>
+      <c r="Q1" s="221"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
@@ -9400,12 +9446,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="224" t="s">
+      <c r="R3" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="225"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="227"/>
+      <c r="S3" s="224"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="225"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
@@ -11048,8 +11094,8 @@
       </c>
       <c r="C1" s="220"/>
       <c r="D1" s="220"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="226" t="s">
+      <c r="E1" s="221"/>
+      <c r="F1" s="222" t="s">
         <v>111</v>
       </c>
       <c r="G1" s="220"/>
@@ -11060,13 +11106,13 @@
       </c>
       <c r="K1" s="220"/>
       <c r="L1" s="220"/>
-      <c r="M1" s="223"/>
+      <c r="M1" s="221"/>
       <c r="N1" s="219" t="s">
         <v>189</v>
       </c>
       <c r="O1" s="220"/>
       <c r="P1" s="220"/>
-      <c r="Q1" s="223"/>
+      <c r="Q1" s="221"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
@@ -11152,12 +11198,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="224" t="s">
+      <c r="R3" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="225"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="227"/>
+      <c r="S3" s="224"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="225"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
@@ -12760,8 +12806,8 @@
       </c>
       <c r="C1" s="220"/>
       <c r="D1" s="220"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="226" t="s">
+      <c r="E1" s="221"/>
+      <c r="F1" s="222" t="s">
         <v>111</v>
       </c>
       <c r="G1" s="220"/>
@@ -12772,13 +12818,13 @@
       </c>
       <c r="K1" s="220"/>
       <c r="L1" s="220"/>
-      <c r="M1" s="223"/>
+      <c r="M1" s="221"/>
       <c r="N1" s="219" t="s">
         <v>189</v>
       </c>
       <c r="O1" s="220"/>
       <c r="P1" s="220"/>
-      <c r="Q1" s="223"/>
+      <c r="Q1" s="221"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
@@ -12865,12 +12911,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="224" t="s">
+      <c r="R3" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="225"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="227"/>
+      <c r="S3" s="224"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="225"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
@@ -15559,7 +15605,7 @@
         <v>18</v>
       </c>
       <c r="B43" s="101" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C43" s="102" t="s">
         <v>571</v>
@@ -15575,11 +15621,11 @@
       <c r="A44" s="24">
         <v>19</v>
       </c>
-      <c r="B44" s="237" t="s">
+      <c r="B44" s="214" t="s">
         <v>483</v>
       </c>
       <c r="C44" s="101" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D44" s="102" t="s">
         <v>575</v>
@@ -15592,14 +15638,14 @@
       <c r="A45" s="24">
         <v>20</v>
       </c>
-      <c r="B45" s="237" t="s">
+      <c r="B45" s="214" t="s">
         <v>484</v>
       </c>
-      <c r="C45" s="237" t="s">
+      <c r="C45" s="214" t="s">
         <v>480</v>
       </c>
       <c r="D45" s="101" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E45" s="102" t="s">
         <v>580</v>
@@ -15609,67 +15655,67 @@
       <c r="A46" s="209">
         <v>21</v>
       </c>
-      <c r="B46" s="237" t="s">
+      <c r="B46" s="214" t="s">
         <v>485</v>
       </c>
-      <c r="C46" s="237" t="s">
+      <c r="C46" s="214" t="s">
         <v>481</v>
       </c>
-      <c r="D46" s="237" t="s">
+      <c r="D46" s="214" t="s">
         <v>477</v>
       </c>
       <c r="E46" s="101" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="209">
         <v>22</v>
       </c>
-      <c r="B47" s="237" t="s">
-        <v>822</v>
-      </c>
-      <c r="C47" s="237" t="s">
+      <c r="B47" s="214" t="s">
+        <v>819</v>
+      </c>
+      <c r="C47" s="214" t="s">
         <v>482</v>
       </c>
-      <c r="D47" s="237" t="s">
+      <c r="D47" s="214" t="s">
         <v>478</v>
       </c>
-      <c r="E47" s="237" t="s">
-        <v>790</v>
+      <c r="E47" s="214" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="209">
         <v>23</v>
       </c>
-      <c r="B48" s="237" t="s">
-        <v>823</v>
-      </c>
-      <c r="C48" s="237" t="s">
-        <v>812</v>
-      </c>
-      <c r="D48" s="237" t="s">
+      <c r="B48" s="214" t="s">
+        <v>820</v>
+      </c>
+      <c r="C48" s="214" t="s">
+        <v>809</v>
+      </c>
+      <c r="D48" s="214" t="s">
         <v>479</v>
       </c>
-      <c r="E48" s="237" t="s">
-        <v>791</v>
+      <c r="E48" s="214" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="209">
         <v>24</v>
       </c>
-      <c r="B49" s="237" t="s">
-        <v>824</v>
-      </c>
-      <c r="C49" s="237" t="s">
-        <v>813</v>
-      </c>
-      <c r="D49" s="237" t="s">
-        <v>802</v>
-      </c>
-      <c r="E49" s="237" t="s">
+      <c r="B49" s="214" t="s">
+        <v>821</v>
+      </c>
+      <c r="C49" s="214" t="s">
+        <v>810</v>
+      </c>
+      <c r="D49" s="214" t="s">
+        <v>799</v>
+      </c>
+      <c r="E49" s="214" t="s">
         <v>270</v>
       </c>
     </row>
@@ -15677,153 +15723,153 @@
       <c r="A50" s="209">
         <v>25</v>
       </c>
-      <c r="B50" s="237" t="s">
-        <v>825</v>
-      </c>
-      <c r="C50" s="237" t="s">
-        <v>814</v>
-      </c>
-      <c r="D50" s="237" t="s">
-        <v>803</v>
-      </c>
-      <c r="E50" s="237" t="s">
-        <v>792</v>
+      <c r="B50" s="214" t="s">
+        <v>822</v>
+      </c>
+      <c r="C50" s="214" t="s">
+        <v>811</v>
+      </c>
+      <c r="D50" s="214" t="s">
+        <v>800</v>
+      </c>
+      <c r="E50" s="214" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="209">
         <v>26</v>
       </c>
-      <c r="B51" s="237" t="s">
-        <v>826</v>
-      </c>
-      <c r="C51" s="237" t="s">
-        <v>815</v>
-      </c>
-      <c r="D51" s="237" t="s">
-        <v>804</v>
-      </c>
-      <c r="E51" s="237" t="s">
-        <v>793</v>
+      <c r="B51" s="214" t="s">
+        <v>823</v>
+      </c>
+      <c r="C51" s="214" t="s">
+        <v>812</v>
+      </c>
+      <c r="D51" s="214" t="s">
+        <v>801</v>
+      </c>
+      <c r="E51" s="214" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="209">
         <v>27</v>
       </c>
-      <c r="B52" s="237" t="s">
-        <v>827</v>
-      </c>
-      <c r="C52" s="237" t="s">
-        <v>816</v>
-      </c>
-      <c r="D52" s="237" t="s">
-        <v>805</v>
-      </c>
-      <c r="E52" s="237" t="s">
-        <v>794</v>
+      <c r="B52" s="214" t="s">
+        <v>824</v>
+      </c>
+      <c r="C52" s="214" t="s">
+        <v>813</v>
+      </c>
+      <c r="D52" s="214" t="s">
+        <v>802</v>
+      </c>
+      <c r="E52" s="214" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="209">
         <v>28</v>
       </c>
-      <c r="B53" s="237" t="s">
-        <v>828</v>
-      </c>
-      <c r="C53" s="237" t="s">
-        <v>817</v>
-      </c>
-      <c r="D53" s="237" t="s">
-        <v>806</v>
-      </c>
-      <c r="E53" s="237" t="s">
-        <v>795</v>
+      <c r="B53" s="214" t="s">
+        <v>825</v>
+      </c>
+      <c r="C53" s="214" t="s">
+        <v>814</v>
+      </c>
+      <c r="D53" s="214" t="s">
+        <v>803</v>
+      </c>
+      <c r="E53" s="214" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="209">
         <v>29</v>
       </c>
-      <c r="B54" s="237" t="s">
-        <v>829</v>
-      </c>
-      <c r="C54" s="237" t="s">
-        <v>818</v>
-      </c>
-      <c r="D54" s="237" t="s">
-        <v>807</v>
-      </c>
-      <c r="E54" s="237" t="s">
-        <v>796</v>
+      <c r="B54" s="214" t="s">
+        <v>826</v>
+      </c>
+      <c r="C54" s="214" t="s">
+        <v>815</v>
+      </c>
+      <c r="D54" s="214" t="s">
+        <v>804</v>
+      </c>
+      <c r="E54" s="214" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="209">
         <v>30</v>
       </c>
-      <c r="B55" s="237" t="s">
-        <v>834</v>
-      </c>
-      <c r="C55" s="237" t="s">
-        <v>819</v>
-      </c>
-      <c r="D55" s="237" t="s">
-        <v>808</v>
-      </c>
-      <c r="E55" s="237" t="s">
-        <v>797</v>
+      <c r="B55" s="214" t="s">
+        <v>831</v>
+      </c>
+      <c r="C55" s="214" t="s">
+        <v>816</v>
+      </c>
+      <c r="D55" s="214" t="s">
+        <v>805</v>
+      </c>
+      <c r="E55" s="214" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="209">
         <v>31</v>
       </c>
-      <c r="B56" s="237" t="s">
-        <v>835</v>
-      </c>
-      <c r="C56" s="237" t="s">
+      <c r="B56" s="214" t="s">
         <v>832</v>
       </c>
-      <c r="D56" s="237" t="s">
-        <v>809</v>
-      </c>
-      <c r="E56" s="237" t="s">
-        <v>798</v>
+      <c r="C56" s="214" t="s">
+        <v>829</v>
+      </c>
+      <c r="D56" s="214" t="s">
+        <v>806</v>
+      </c>
+      <c r="E56" s="214" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="209">
         <v>32</v>
       </c>
-      <c r="B57" s="237" t="s">
-        <v>836</v>
-      </c>
-      <c r="C57" s="237" t="s">
+      <c r="B57" s="214" t="s">
         <v>833</v>
       </c>
-      <c r="D57" s="237" t="s">
-        <v>831</v>
-      </c>
-      <c r="E57" s="237" t="s">
-        <v>799</v>
+      <c r="C57" s="214" t="s">
+        <v>830</v>
+      </c>
+      <c r="D57" s="214" t="s">
+        <v>828</v>
+      </c>
+      <c r="E57" s="214" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="209">
         <v>33</v>
       </c>
-      <c r="B58" s="237" t="s">
-        <v>830</v>
-      </c>
-      <c r="C58" s="237" t="s">
-        <v>820</v>
-      </c>
-      <c r="D58" s="237" t="s">
-        <v>810</v>
-      </c>
-      <c r="E58" s="237" t="s">
-        <v>800</v>
+      <c r="B58" s="214" t="s">
+        <v>827</v>
+      </c>
+      <c r="C58" s="214" t="s">
+        <v>817</v>
+      </c>
+      <c r="D58" s="214" t="s">
+        <v>807</v>
+      </c>
+      <c r="E58" s="214" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -16285,67 +16331,67 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="228" t="s">
+      <c r="B6" s="226" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="229"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="228" t="s">
+      <c r="C6" s="227"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="226" t="s">
         <v>527</v>
       </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="230"/>
+      <c r="F6" s="227"/>
+      <c r="G6" s="228"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="228" t="s">
+      <c r="B7" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="229"/>
-      <c r="P7" s="230"/>
-      <c r="Q7" s="228" t="s">
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="227"/>
+      <c r="M7" s="227"/>
+      <c r="N7" s="227"/>
+      <c r="O7" s="227"/>
+      <c r="P7" s="228"/>
+      <c r="Q7" s="226" t="s">
         <v>221</v>
       </c>
-      <c r="R7" s="229"/>
-      <c r="S7" s="229"/>
-      <c r="T7" s="229"/>
-      <c r="U7" s="229"/>
-      <c r="V7" s="229"/>
-      <c r="W7" s="229"/>
-      <c r="X7" s="229"/>
-      <c r="Y7" s="229"/>
-      <c r="Z7" s="229"/>
-      <c r="AA7" s="230"/>
-      <c r="AB7" s="228" t="s">
+      <c r="R7" s="227"/>
+      <c r="S7" s="227"/>
+      <c r="T7" s="227"/>
+      <c r="U7" s="227"/>
+      <c r="V7" s="227"/>
+      <c r="W7" s="227"/>
+      <c r="X7" s="227"/>
+      <c r="Y7" s="227"/>
+      <c r="Z7" s="227"/>
+      <c r="AA7" s="228"/>
+      <c r="AB7" s="226" t="s">
         <v>222</v>
       </c>
-      <c r="AC7" s="229"/>
-      <c r="AD7" s="229"/>
-      <c r="AE7" s="229"/>
-      <c r="AF7" s="229"/>
-      <c r="AG7" s="229"/>
-      <c r="AH7" s="229"/>
-      <c r="AI7" s="229"/>
-      <c r="AJ7" s="229"/>
-      <c r="AK7" s="229"/>
-      <c r="AL7" s="229"/>
-      <c r="AM7" s="229"/>
-      <c r="AN7" s="229"/>
-      <c r="AO7" s="229"/>
-      <c r="AP7" s="229"/>
-      <c r="AQ7" s="229"/>
-      <c r="AR7" s="230"/>
+      <c r="AC7" s="227"/>
+      <c r="AD7" s="227"/>
+      <c r="AE7" s="227"/>
+      <c r="AF7" s="227"/>
+      <c r="AG7" s="227"/>
+      <c r="AH7" s="227"/>
+      <c r="AI7" s="227"/>
+      <c r="AJ7" s="227"/>
+      <c r="AK7" s="227"/>
+      <c r="AL7" s="227"/>
+      <c r="AM7" s="227"/>
+      <c r="AN7" s="227"/>
+      <c r="AO7" s="227"/>
+      <c r="AP7" s="227"/>
+      <c r="AQ7" s="227"/>
+      <c r="AR7" s="228"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="E9" s="48"/>
@@ -16389,9 +16435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431E16EB-4173-4BB0-A744-4BFFE60D57DA}">
   <dimension ref="A1:AZ82"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ61" sqref="AJ61:AM80"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -16436,11 +16482,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="C1" s="224" t="s">
+      <c r="C1" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
       <c r="F1" s="67"/>
       <c r="G1" s="63"/>
       <c r="H1" s="97"/>
@@ -16503,7 +16549,7 @@
       </c>
       <c r="D6" s="220"/>
       <c r="E6" s="220"/>
-      <c r="F6" s="223"/>
+      <c r="F6" s="221"/>
       <c r="G6" s="136"/>
       <c r="H6" s="99"/>
       <c r="I6" s="99"/>
@@ -16517,13 +16563,13 @@
       </c>
       <c r="P6" s="220"/>
       <c r="Q6" s="220"/>
-      <c r="R6" s="223"/>
+      <c r="R6" s="221"/>
       <c r="AE6" s="219" t="s">
         <v>1</v>
       </c>
       <c r="AF6" s="220"/>
       <c r="AG6" s="220"/>
-      <c r="AH6" s="223"/>
+      <c r="AH6" s="221"/>
       <c r="AI6" s="167"/>
       <c r="AJ6" s="219" t="s">
         <v>663</v>
@@ -16532,7 +16578,7 @@
       <c r="AL6" s="220"/>
       <c r="AM6" s="220"/>
       <c r="AN6" s="220"/>
-      <c r="AO6" s="223"/>
+      <c r="AO6" s="221"/>
     </row>
     <row r="7" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C7" s="35" t="s">
@@ -16610,11 +16656,11 @@
       <c r="I8" s="99"/>
       <c r="J8" s="99"/>
       <c r="K8" s="99"/>
-      <c r="L8" s="221" t="s">
+      <c r="L8" s="230" t="s">
         <v>548</v>
       </c>
-      <c r="M8" s="221"/>
-      <c r="N8" s="221"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
       <c r="O8" s="132"/>
       <c r="P8" s="133"/>
       <c r="Q8" s="133"/>
@@ -16652,11 +16698,11 @@
       <c r="I9" s="135"/>
       <c r="J9" s="135"/>
       <c r="K9" s="135"/>
-      <c r="L9" s="222" t="s">
+      <c r="L9" s="232" t="s">
         <v>549</v>
       </c>
-      <c r="M9" s="222"/>
-      <c r="N9" s="213"/>
+      <c r="M9" s="232"/>
+      <c r="N9" s="231"/>
       <c r="O9" s="132"/>
       <c r="P9" s="133"/>
       <c r="Q9" s="133"/>
@@ -16698,9 +16744,9 @@
       <c r="I10" s="135"/>
       <c r="J10" s="135"/>
       <c r="K10" s="135"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="214"/>
+      <c r="L10" s="229"/>
+      <c r="M10" s="229"/>
+      <c r="N10" s="229"/>
       <c r="O10" s="132"/>
       <c r="P10" s="133"/>
       <c r="Q10" s="133"/>
@@ -16796,11 +16842,11 @@
       <c r="I12" s="99"/>
       <c r="J12" s="99"/>
       <c r="K12" s="99"/>
-      <c r="L12" s="215" t="s">
+      <c r="L12" s="233" t="s">
         <v>547</v>
       </c>
-      <c r="M12" s="215"/>
-      <c r="N12" s="215"/>
+      <c r="M12" s="233"/>
+      <c r="N12" s="233"/>
       <c r="O12" s="132"/>
       <c r="P12" s="133"/>
       <c r="Q12" s="133"/>
@@ -16911,9 +16957,9 @@
       <c r="AP13" s="216" t="s">
         <v>655</v>
       </c>
-      <c r="AQ13" s="212"/>
-      <c r="AR13" s="212"/>
-      <c r="AS13" s="212"/>
+      <c r="AQ13" s="215"/>
+      <c r="AR13" s="215"/>
+      <c r="AS13" s="215"/>
       <c r="AU13" s="21" t="s">
         <v>659</v>
       </c>
@@ -17590,11 +17636,11 @@
       </c>
       <c r="AN30" s="173"/>
       <c r="AO30" s="175"/>
-      <c r="AQ30" s="213"/>
-      <c r="AR30" s="213"/>
+      <c r="AQ30" s="231"/>
+      <c r="AR30" s="231"/>
     </row>
     <row r="31" spans="1:51" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="236" t="s">
+      <c r="A31" s="213" t="s">
         <v>99</v>
       </c>
       <c r="B31" s="28"/>
@@ -18016,8 +18062,8 @@
         <v>90</v>
       </c>
       <c r="AN40" s="173"/>
-      <c r="AQ40" s="214"/>
-      <c r="AR40" s="214"/>
+      <c r="AQ40" s="229"/>
+      <c r="AR40" s="229"/>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A41" s="165" t="s">
@@ -18233,8 +18279,8 @@
         <v>678</v>
       </c>
       <c r="AO46" s="175"/>
-      <c r="AQ46" s="214"/>
-      <c r="AR46" s="214"/>
+      <c r="AQ46" s="229"/>
+      <c r="AR46" s="229"/>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A47" s="165" t="s">
@@ -18327,7 +18373,7 @@
         <v>667</v>
       </c>
       <c r="K49" s="161" t="s">
-        <v>722</v>
+        <v>834</v>
       </c>
       <c r="L49" s="177" t="s">
         <v>690</v>
@@ -18382,7 +18428,7 @@
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A50" s="165" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B50" s="192" t="s">
         <v>543</v>
@@ -18436,7 +18482,7 @@
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A51" s="165" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
@@ -18467,7 +18513,7 @@
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A52" s="165" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
@@ -18504,7 +18550,7 @@
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A53" s="165" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C53" s="132"/>
       <c r="D53" s="133"/>
@@ -18539,7 +18585,7 @@
     </row>
     <row r="54" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="165" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C54" s="190"/>
       <c r="D54" s="86"/>
@@ -18577,7 +18623,7 @@
     </row>
     <row r="55" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="165" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C55" s="190"/>
       <c r="D55" s="86"/>
@@ -18617,7 +18663,7 @@
     </row>
     <row r="56" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="165" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C56" s="190"/>
       <c r="D56" s="83" t="s">
@@ -18659,7 +18705,7 @@
     </row>
     <row r="57" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="165" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C57" s="83" t="s">
         <v>240</v>
@@ -18705,7 +18751,7 @@
     </row>
     <row r="58" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="165" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C58" s="83" t="s">
         <v>242</v>
@@ -18747,7 +18793,7 @@
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A59" s="165" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C59" s="83" t="s">
         <v>245</v>
@@ -18777,7 +18823,7 @@
     </row>
     <row r="60" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="165" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C60" s="190"/>
       <c r="D60" s="86"/>
@@ -18819,7 +18865,7 @@
     </row>
     <row r="61" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="165" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C61" s="190"/>
       <c r="D61" s="86"/>
@@ -18868,7 +18914,7 @@
     </row>
     <row r="62" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="165" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C62" s="190"/>
       <c r="D62" s="83" t="s">
@@ -18931,7 +18977,7 @@
     </row>
     <row r="63" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="165" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C63" s="83" t="s">
         <v>252</v>
@@ -18994,7 +19040,7 @@
     </row>
     <row r="64" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="165" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C64" s="83" t="s">
         <v>254</v>
@@ -19048,7 +19094,7 @@
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A65" s="165" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C65" s="83" t="s">
         <v>257</v>
@@ -19098,7 +19144,7 @@
     </row>
     <row r="66" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="165" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C66" s="26"/>
       <c r="D66" s="86"/>
@@ -19145,7 +19191,7 @@
     </row>
     <row r="67" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="165" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C67" s="190"/>
       <c r="D67" s="86"/>
@@ -19195,7 +19241,7 @@
     </row>
     <row r="68" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="165" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C68" s="190"/>
       <c r="D68" s="83" t="s">
@@ -19244,7 +19290,7 @@
     </row>
     <row r="69" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="165" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C69" s="83" t="s">
         <v>475</v>
@@ -19565,6 +19611,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AQ40:AR40"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="AJ13:AM13"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AP11:AS11"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="O49:Q49"/>
     <mergeCell ref="AQ46:AR46"/>
@@ -19581,12 +19633,6 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AQ40:AR40"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="AJ13:AM13"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AP11:AS11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19596,696 +19642,940 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34ECBBF-B660-41D9-BDE6-91AF01412A2C}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="10.86328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.33203125" style="209" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.86328125" style="209" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.06640625" style="21"/>
-    <col min="13" max="13" width="9.06640625" style="21" customWidth="1"/>
-    <col min="14" max="15" width="10.86328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.06640625" style="21"/>
-    <col min="19" max="22" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.06640625" style="21"/>
+    <col min="2" max="3" width="10.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.33203125" style="209" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.06640625" style="209" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.06640625" style="212"/>
+    <col min="13" max="13" width="10.73046875" style="212" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.06640625" style="21" customWidth="1"/>
+    <col min="16" max="17" width="10.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.06640625" style="21"/>
+    <col min="21" max="24" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.19921875" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.06640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="212" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B1" s="215" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="E2" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="209" t="s">
+      <c r="G2" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="209" t="s">
+      <c r="H2" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="209" t="s">
+      <c r="I2" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="209" t="s">
+      <c r="J2" s="209" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="209" t="s">
+      <c r="K2" s="209" t="s">
+        <v>845</v>
+      </c>
+      <c r="L2" s="212" t="s">
+        <v>847</v>
+      </c>
+      <c r="M2" s="212" t="s">
+        <v>848</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="209" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="209" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="209" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="209" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="212" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A3" s="21"/>
+      <c r="K3" s="214" t="s">
+        <v>543</v>
+      </c>
+      <c r="L3" s="212">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A4" s="21"/>
+      <c r="K4" s="209" t="s">
+        <v>785</v>
+      </c>
+      <c r="L4" s="212">
+        <v>1</v>
+      </c>
+      <c r="M4" s="212">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A5" s="21"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="84" t="s">
+        <v>742</v>
+      </c>
+      <c r="J5" s="209" t="s">
+        <v>742</v>
+      </c>
+      <c r="K5" s="212" t="s">
+        <v>843</v>
+      </c>
+      <c r="L5" s="212">
+        <v>2</v>
+      </c>
+      <c r="N5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="21"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="83" t="s">
         <v>743</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="E6" s="84" t="s">
+        <v>744</v>
+      </c>
+      <c r="I6" s="209" t="s">
+        <v>745</v>
+      </c>
+      <c r="J6" s="209" t="s">
+        <v>745</v>
+      </c>
+      <c r="K6" s="212" t="s">
+        <v>844</v>
+      </c>
+      <c r="L6" s="212">
+        <v>3</v>
+      </c>
+      <c r="N6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="83" t="s">
+        <v>746</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>747</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>748</v>
+      </c>
+      <c r="H7" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="I7" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="J7" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="L7" s="212">
+        <v>4</v>
+      </c>
+      <c r="N7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8" s="21"/>
+      <c r="B8" s="83" t="s">
+        <v>750</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>751</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>752</v>
+      </c>
+      <c r="E8" s="86"/>
+      <c r="G8" s="209" t="s">
+        <v>753</v>
+      </c>
+      <c r="H8" s="209" t="s">
+        <v>753</v>
+      </c>
+      <c r="I8" s="209" t="s">
+        <v>753</v>
+      </c>
+      <c r="L8" s="212">
+        <v>5</v>
+      </c>
+      <c r="N8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" s="21"/>
+      <c r="B9" s="83" t="s">
+        <v>754</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>755</v>
+      </c>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="G9" s="209" t="s">
+        <v>756</v>
+      </c>
+      <c r="H9" s="209" t="s">
+        <v>756</v>
+      </c>
+      <c r="L9" s="212">
         <v>6</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="N9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="83" t="s">
+        <v>757</v>
+      </c>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="G10" s="209" t="s">
+        <v>758</v>
+      </c>
+      <c r="K10" s="209" t="s">
+        <v>836</v>
+      </c>
+      <c r="L10" s="212">
+        <v>1</v>
+      </c>
+      <c r="M10" s="212">
+        <v>1</v>
+      </c>
+      <c r="N10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="84" t="s">
+        <v>759</v>
+      </c>
+      <c r="J11" s="209" t="s">
+        <v>759</v>
+      </c>
+      <c r="K11" s="212" t="s">
+        <v>762</v>
+      </c>
+      <c r="L11" s="212">
+        <v>2</v>
+      </c>
+      <c r="N11" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="212" t="s">
+        <v>742</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="83" t="s">
+        <v>760</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>761</v>
+      </c>
+      <c r="I12" s="209" t="s">
+        <v>759</v>
+      </c>
+      <c r="J12" s="209" t="s">
+        <v>762</v>
+      </c>
+      <c r="K12" s="212" t="s">
+        <v>766</v>
+      </c>
+      <c r="L12" s="212">
+        <v>3</v>
+      </c>
+      <c r="N12" s="21">
+        <v>1</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="83" t="s">
+        <v>742</v>
+      </c>
+      <c r="U12" s="209"/>
+      <c r="V12" s="209"/>
+      <c r="W12" s="209"/>
+      <c r="X12" s="209" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13" s="21"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="83" t="s">
+        <v>763</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>764</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>765</v>
+      </c>
+      <c r="H13" s="209" t="s">
+        <v>759</v>
+      </c>
+      <c r="I13" s="209" t="s">
+        <v>762</v>
+      </c>
+      <c r="J13" s="209" t="s">
+        <v>766</v>
+      </c>
+      <c r="L13" s="212">
+        <v>4</v>
+      </c>
+      <c r="N13" s="21">
+        <v>1</v>
+      </c>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="83" t="s">
+        <v>743</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="U13" s="209"/>
+      <c r="V13" s="209"/>
+      <c r="W13" s="209" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y13" s="212" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A14" s="21"/>
+      <c r="B14" s="83" t="s">
+        <v>767</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>768</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>769</v>
+      </c>
+      <c r="E14" s="86"/>
+      <c r="G14" s="209" t="s">
+        <v>759</v>
+      </c>
+      <c r="H14" s="209" t="s">
+        <v>762</v>
+      </c>
+      <c r="I14" s="209" t="s">
+        <v>766</v>
+      </c>
+      <c r="L14" s="212">
         <v>5</v>
       </c>
-      <c r="P2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="S2" s="209" t="s">
+      <c r="N14" s="21">
+        <v>1</v>
+      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="83" t="s">
+        <v>746</v>
+      </c>
+      <c r="R14" s="26"/>
+      <c r="S14" s="83" t="s">
+        <v>744</v>
+      </c>
+      <c r="U14" s="209"/>
+      <c r="V14" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="X14" s="209" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A15" s="21"/>
+      <c r="B15" s="83" t="s">
+        <v>770</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>771</v>
+      </c>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="G15" s="209" t="s">
+        <v>762</v>
+      </c>
+      <c r="H15" s="209" t="s">
+        <v>766</v>
+      </c>
+      <c r="L15" s="212">
         <v>6</v>
       </c>
-      <c r="T2" s="209" t="s">
-        <v>5</v>
-      </c>
-      <c r="U2" s="209" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="209" t="s">
-        <v>109</v>
-      </c>
-      <c r="W2" s="209" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="E3" s="21" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="J7" s="209" t="s">
-        <v>787</v>
-      </c>
-      <c r="K7" s="21">
+      <c r="N15" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="190"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="84" t="s">
-        <v>744</v>
-      </c>
-      <c r="I8" s="209" t="s">
-        <v>744</v>
-      </c>
-      <c r="K8" s="21">
+      <c r="P15" s="83" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="83" t="s">
+        <v>747</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="U15" s="209" t="s">
+        <v>753</v>
+      </c>
+      <c r="W15" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y15" s="212" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="83" t="s">
+        <v>772</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="G16" s="209" t="s">
+        <v>766</v>
+      </c>
+      <c r="K16" s="209" t="s">
+        <v>837</v>
+      </c>
+      <c r="L16" s="212">
+        <v>1</v>
+      </c>
+      <c r="M16" s="212">
+        <v>10</v>
+      </c>
+      <c r="N16" s="21">
+        <v>1</v>
+      </c>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="83" t="s">
+        <v>751</v>
+      </c>
+      <c r="R16" s="26"/>
+      <c r="S16" s="83" t="s">
+        <v>748</v>
+      </c>
+      <c r="V16" s="209" t="s">
+        <v>753</v>
+      </c>
+      <c r="X16" s="209" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y16" s="212"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A17" s="21"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="J17" s="239" t="s">
+        <v>779</v>
+      </c>
+      <c r="K17" s="212" t="s">
+        <v>780</v>
+      </c>
+      <c r="L17" s="212">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A9" s="190"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="83" t="s">
-        <v>745</v>
-      </c>
-      <c r="D9" s="84" t="s">
-        <v>746</v>
-      </c>
-      <c r="H9" s="209" t="s">
-        <v>747</v>
-      </c>
-      <c r="I9" s="209" t="s">
-        <v>747</v>
-      </c>
-      <c r="K9" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A10" s="190"/>
-      <c r="B10" s="83" t="s">
-        <v>748</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>749</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>750</v>
-      </c>
-      <c r="G10" s="209" t="s">
-        <v>751</v>
-      </c>
-      <c r="H10" s="209" t="s">
-        <v>751</v>
-      </c>
-      <c r="I10" s="209" t="s">
-        <v>751</v>
-      </c>
-      <c r="K10" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" s="83" t="s">
+      <c r="N17" s="21">
+        <v>1</v>
+      </c>
+      <c r="P17" s="83" t="s">
+        <v>835</v>
+      </c>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="83" t="s">
         <v>752</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="S17" s="26"/>
+      <c r="U17" s="209" t="s">
+        <v>756</v>
+      </c>
+      <c r="W17" s="209" t="s">
         <v>753</v>
       </c>
-      <c r="C11" s="83" t="s">
-        <v>754</v>
-      </c>
-      <c r="D11" s="86"/>
-      <c r="F11" s="209" t="s">
-        <v>755</v>
-      </c>
-      <c r="G11" s="209" t="s">
-        <v>755</v>
-      </c>
-      <c r="H11" s="209" t="s">
-        <v>755</v>
-      </c>
-      <c r="K11" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A12" s="83" t="s">
-        <v>756</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>757</v>
-      </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="F12" s="209" t="s">
-        <v>758</v>
-      </c>
-      <c r="G12" s="209" t="s">
-        <v>758</v>
-      </c>
-      <c r="K12" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A13" s="83" t="s">
+      <c r="X17" s="209"/>
+      <c r="Y17" s="212" t="s">
         <v>759</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="F13" s="209" t="s">
-        <v>760</v>
-      </c>
-      <c r="J13" s="209" t="s">
-        <v>788</v>
-      </c>
-      <c r="K13" s="21">
-        <v>1</v>
-      </c>
-      <c r="L13" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A14" s="190"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="84" t="s">
-        <v>761</v>
-      </c>
-      <c r="I14" s="209" t="s">
-        <v>761</v>
-      </c>
-      <c r="K14" s="21">
-        <v>2</v>
-      </c>
-      <c r="W14" s="209" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A15" s="190"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="83" t="s">
-        <v>762</v>
-      </c>
-      <c r="D15" s="84" t="s">
-        <v>763</v>
-      </c>
-      <c r="H15" s="209" t="s">
-        <v>761</v>
-      </c>
-      <c r="I15" s="209" t="s">
-        <v>764</v>
-      </c>
-      <c r="K15" s="21">
-        <v>3</v>
-      </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="83" t="s">
-        <v>744</v>
-      </c>
-      <c r="S15" s="209"/>
-      <c r="T15" s="209"/>
-      <c r="U15" s="209"/>
-      <c r="V15" s="209" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A16" s="190"/>
-      <c r="B16" s="83" t="s">
-        <v>765</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>766</v>
-      </c>
-      <c r="D16" s="84" t="s">
-        <v>767</v>
-      </c>
-      <c r="G16" s="209" t="s">
-        <v>761</v>
-      </c>
-      <c r="H16" s="209" t="s">
-        <v>764</v>
-      </c>
-      <c r="I16" s="209" t="s">
-        <v>768</v>
-      </c>
-      <c r="K16" s="21">
-        <v>4</v>
-      </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="83" t="s">
-        <v>745</v>
-      </c>
-      <c r="Q16" s="26"/>
-      <c r="S16" s="209"/>
-      <c r="T16" s="209"/>
-      <c r="U16" s="209" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A17" s="83" t="s">
-        <v>769</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>770</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>771</v>
-      </c>
-      <c r="D17" s="86"/>
-      <c r="F17" s="209" t="s">
-        <v>761</v>
-      </c>
-      <c r="G17" s="209" t="s">
-        <v>764</v>
-      </c>
-      <c r="H17" s="209" t="s">
-        <v>768</v>
-      </c>
-      <c r="K17" s="21">
-        <v>5</v>
-      </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="83" t="s">
-        <v>748</v>
-      </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="83" t="s">
-        <v>746</v>
-      </c>
-      <c r="S17" s="209"/>
-      <c r="T17" s="209" t="s">
-        <v>751</v>
-      </c>
-      <c r="V17" s="209" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A18" s="83" t="s">
-        <v>772</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>773</v>
-      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A18" s="21"/>
+      <c r="B18" s="190"/>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
-      <c r="F18" s="209" t="s">
+      <c r="E18" s="86"/>
+      <c r="I18" s="239" t="s">
+        <v>780</v>
+      </c>
+      <c r="J18" s="239" t="s">
+        <v>780</v>
+      </c>
+      <c r="K18" s="212" t="s">
+        <v>781</v>
+      </c>
+      <c r="L18" s="212">
+        <v>3</v>
+      </c>
+      <c r="N18" s="21">
+        <v>1</v>
+      </c>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="83" t="s">
+        <v>755</v>
+      </c>
+      <c r="R18" s="26"/>
+      <c r="S18" s="83" t="s">
+        <v>759</v>
+      </c>
+      <c r="V18" s="209" t="s">
+        <v>756</v>
+      </c>
+      <c r="X18" s="209" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="83" t="s">
+        <v>773</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="H19" s="209" t="s">
+        <v>781</v>
+      </c>
+      <c r="I19" s="239" t="s">
+        <v>781</v>
+      </c>
+      <c r="J19" s="239" t="s">
+        <v>781</v>
+      </c>
+      <c r="L19" s="212">
+        <v>4</v>
+      </c>
+      <c r="N19" s="21">
+        <v>1</v>
+      </c>
+      <c r="P19" s="83" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="83" t="s">
+        <v>760</v>
+      </c>
+      <c r="S19" s="26"/>
+      <c r="U19" s="209" t="s">
+        <v>758</v>
+      </c>
+      <c r="W19" s="209" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y19" s="212" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="83" t="s">
+        <v>774</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>775</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="G20" s="209" t="s">
+        <v>782</v>
+      </c>
+      <c r="H20" s="209" t="s">
+        <v>782</v>
+      </c>
+      <c r="I20" s="239" t="s">
+        <v>782</v>
+      </c>
+      <c r="L20" s="212">
+        <v>5</v>
+      </c>
+      <c r="N20" s="21">
+        <v>1</v>
+      </c>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="83" t="s">
+        <v>763</v>
+      </c>
+      <c r="R20" s="26"/>
+      <c r="S20" s="83" t="s">
+        <v>761</v>
+      </c>
+      <c r="V20" s="209" t="s">
+        <v>759</v>
+      </c>
+      <c r="X20" s="209" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="83" t="s">
+        <v>776</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>777</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="G21" s="209" t="s">
+        <v>783</v>
+      </c>
+      <c r="H21" s="209" t="s">
+        <v>783</v>
+      </c>
+      <c r="L21" s="212">
+        <v>6</v>
+      </c>
+      <c r="N21" s="21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="83" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="83" t="s">
         <v>764</v>
       </c>
-      <c r="G18" s="209" t="s">
+      <c r="S21" s="26"/>
+      <c r="U21" s="209" t="s">
+        <v>759</v>
+      </c>
+      <c r="W21" s="209" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y21" s="212" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="83" t="s">
+        <v>778</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="G22" s="209" t="s">
+        <v>784</v>
+      </c>
+      <c r="K22" s="212" t="s">
+        <v>838</v>
+      </c>
+      <c r="L22" s="212">
+        <v>1</v>
+      </c>
+      <c r="M22" s="212" t="s">
+        <v>839</v>
+      </c>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="83" t="s">
         <v>768</v>
       </c>
-      <c r="K18" s="21">
+      <c r="R22" s="26"/>
+      <c r="S22" s="83" t="s">
+        <v>765</v>
+      </c>
+      <c r="V22" s="209" t="s">
+        <v>762</v>
+      </c>
+      <c r="X22" s="209" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="L23" s="212">
+        <v>2</v>
+      </c>
+      <c r="P23" s="83" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="83" t="s">
+        <v>769</v>
+      </c>
+      <c r="S23" s="86"/>
+      <c r="U23" s="209" t="s">
+        <v>762</v>
+      </c>
+      <c r="W23" s="209" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A24" s="21"/>
+      <c r="L24" s="212">
+        <v>3</v>
+      </c>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="83" t="s">
+        <v>771</v>
+      </c>
+      <c r="R24" s="26"/>
+      <c r="S24" s="86"/>
+      <c r="V24" s="209" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25" s="21"/>
+      <c r="L25" s="212">
+        <v>4</v>
+      </c>
+      <c r="P25" s="83" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="U25" s="209" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A26" s="21"/>
+      <c r="L26" s="212">
+        <v>5</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="83" t="s">
+        <v>773</v>
+      </c>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="V26" s="212" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A27" s="21"/>
+      <c r="L27" s="212">
         <v>6</v>
       </c>
-      <c r="N18" s="83" t="s">
-        <v>752</v>
-      </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="83" t="s">
-        <v>749</v>
-      </c>
-      <c r="Q18" s="26"/>
-      <c r="S18" s="209" t="s">
-        <v>755</v>
-      </c>
-      <c r="U18" s="209" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A19" s="83" t="s">
+      <c r="P27" s="83" t="s">
         <v>774</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="F19" s="209" t="s">
-        <v>768</v>
-      </c>
-      <c r="J19" s="209" t="s">
-        <v>837</v>
-      </c>
-      <c r="K19" s="21">
+      <c r="Q27" s="26"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="U27" s="212" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A28" s="21"/>
+      <c r="K28" s="212" t="s">
+        <v>840</v>
+      </c>
+      <c r="L28" s="212">
         <v>1</v>
       </c>
-      <c r="L19" s="21">
+      <c r="M28" s="212">
+        <v>100</v>
+      </c>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="83" t="s">
+        <v>775</v>
+      </c>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="V28" s="212" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A29" s="21"/>
+      <c r="L29" s="212">
         <v>2</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="83" t="s">
-        <v>753</v>
-      </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="83" t="s">
-        <v>750</v>
-      </c>
-      <c r="T19" s="209" t="s">
-        <v>755</v>
-      </c>
-      <c r="V19" s="209" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A20" s="26"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="I20" s="209" t="s">
-        <v>781</v>
-      </c>
-      <c r="K20" s="21">
+      <c r="P29" s="83" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="U29" s="212" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A30" s="21"/>
+      <c r="L30" s="212">
+        <v>3</v>
+      </c>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="83" t="s">
+        <v>777</v>
+      </c>
+      <c r="R30" s="86"/>
+      <c r="S30" s="26"/>
+      <c r="V30" s="212" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A31" s="21"/>
+      <c r="L31" s="212">
+        <v>4</v>
+      </c>
+      <c r="P31" s="83" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="26"/>
+      <c r="U31" s="212" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A32" s="21"/>
+      <c r="L32" s="212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L33" s="212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="21"/>
+      <c r="K34" s="212" t="s">
+        <v>841</v>
+      </c>
+      <c r="L34" s="212">
+        <v>1</v>
+      </c>
+      <c r="M34" s="212">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="L35" s="212">
         <v>2</v>
       </c>
-      <c r="N20" s="83" t="s">
-        <v>756</v>
-      </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="83" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q20" s="26"/>
-      <c r="S20" s="209" t="s">
-        <v>758</v>
-      </c>
-      <c r="U20" s="209" t="s">
-        <v>755</v>
-      </c>
-      <c r="V20" s="209"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A21" s="190"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="H21" s="209" t="s">
-        <v>782</v>
-      </c>
-      <c r="I21" s="209" t="s">
-        <v>782</v>
-      </c>
-      <c r="K21" s="21">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="21"/>
+      <c r="L36" s="212">
         <v>3</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="83" t="s">
-        <v>757</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="83" t="s">
-        <v>761</v>
-      </c>
-      <c r="T21" s="209" t="s">
-        <v>758</v>
-      </c>
-      <c r="V21" s="209" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A22" s="190"/>
-      <c r="B22" s="83" t="s">
-        <v>775</v>
-      </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="G22" s="209" t="s">
-        <v>783</v>
-      </c>
-      <c r="H22" s="209" t="s">
-        <v>783</v>
-      </c>
-      <c r="I22" s="209" t="s">
-        <v>783</v>
-      </c>
-      <c r="K22" s="21">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L37" s="212">
         <v>4</v>
       </c>
-      <c r="N22" s="83" t="s">
-        <v>759</v>
-      </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="83" t="s">
-        <v>762</v>
-      </c>
-      <c r="Q22" s="26"/>
-      <c r="S22" s="209" t="s">
-        <v>760</v>
-      </c>
-      <c r="U22" s="209" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A23" s="83" t="s">
-        <v>776</v>
-      </c>
-      <c r="B23" s="83" t="s">
-        <v>777</v>
-      </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="F23" s="209" t="s">
-        <v>784</v>
-      </c>
-      <c r="G23" s="209" t="s">
-        <v>784</v>
-      </c>
-      <c r="H23" s="209" t="s">
-        <v>784</v>
-      </c>
-      <c r="K23" s="21">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L38" s="212">
         <v>5</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="83" t="s">
-        <v>765</v>
-      </c>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="83" t="s">
-        <v>763</v>
-      </c>
-      <c r="T23" s="209" t="s">
-        <v>761</v>
-      </c>
-      <c r="V23" s="209" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A24" s="83" t="s">
-        <v>778</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>779</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="F24" s="209" t="s">
-        <v>785</v>
-      </c>
-      <c r="G24" s="209" t="s">
-        <v>785</v>
-      </c>
-      <c r="K24" s="21">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L39" s="212">
         <v>6</v>
       </c>
-      <c r="N24" s="83" t="s">
-        <v>769</v>
-      </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="83" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q24" s="26"/>
-      <c r="S24" s="209" t="s">
-        <v>761</v>
-      </c>
-      <c r="U24" s="209" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A25" s="83" t="s">
-        <v>780</v>
-      </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="F25" s="209" t="s">
-        <v>786</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>838</v>
-      </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="83" t="s">
-        <v>770</v>
-      </c>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="83" t="s">
-        <v>767</v>
-      </c>
-      <c r="T25" s="209" t="s">
-        <v>764</v>
-      </c>
-      <c r="V25" s="209" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="N26" s="83" t="s">
-        <v>772</v>
-      </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="83" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q26" s="86"/>
-      <c r="S26" s="209" t="s">
-        <v>764</v>
-      </c>
-      <c r="U26" s="209" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="N27" s="26"/>
-      <c r="O27" s="83" t="s">
-        <v>773</v>
-      </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="86"/>
-      <c r="T27" s="209" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="N28" s="83" t="s">
-        <v>774</v>
-      </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="S28" s="209" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="N29" s="26"/>
-      <c r="O29" s="83" t="s">
-        <v>775</v>
-      </c>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="N30" s="83" t="s">
-        <v>776</v>
-      </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="N31" s="26"/>
-      <c r="O31" s="83" t="s">
-        <v>777</v>
-      </c>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="N32" s="83" t="s">
-        <v>778</v>
-      </c>
-      <c r="O32" s="26"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-    </row>
-    <row r="33" spans="14:17" x14ac:dyDescent="0.4">
-      <c r="N33" s="26"/>
-      <c r="O33" s="83" t="s">
-        <v>779</v>
-      </c>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="26"/>
-    </row>
-    <row r="34" spans="14:17" x14ac:dyDescent="0.4">
-      <c r="N34" s="83" t="s">
-        <v>780</v>
-      </c>
-      <c r="O34" s="26"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20342,8 +20632,8 @@
       </c>
       <c r="C1" s="220"/>
       <c r="D1" s="220"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="226" t="s">
+      <c r="E1" s="221"/>
+      <c r="F1" s="222" t="s">
         <v>111</v>
       </c>
       <c r="G1" s="220"/>
@@ -20354,13 +20644,13 @@
       </c>
       <c r="K1" s="220"/>
       <c r="L1" s="220"/>
-      <c r="M1" s="223"/>
+      <c r="M1" s="221"/>
       <c r="N1" s="219" t="s">
         <v>189</v>
       </c>
       <c r="O1" s="220"/>
       <c r="P1" s="220"/>
-      <c r="Q1" s="223"/>
+      <c r="Q1" s="221"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -20469,11 +20759,11 @@
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="224" t="s">
+      <c r="R3" s="223" t="s">
         <v>264</v>
       </c>
-      <c r="S3" s="225"/>
-      <c r="T3" s="225"/>
+      <c r="S3" s="224"/>
+      <c r="T3" s="224"/>
       <c r="U3" s="45"/>
       <c r="W3" t="s">
         <v>676</v>
@@ -20647,12 +20937,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="231" t="s">
+      <c r="R6" s="234" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="232"/>
-      <c r="T6" s="232"/>
-      <c r="U6" s="233"/>
+      <c r="S6" s="235"/>
+      <c r="T6" s="235"/>
+      <c r="U6" s="236"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39" t="s">
@@ -20681,9 +20971,9 @@
       <c r="R7" s="216" t="s">
         <v>617</v>
       </c>
-      <c r="S7" s="212"/>
-      <c r="T7" s="212"/>
-      <c r="U7" s="212"/>
+      <c r="S7" s="215"/>
+      <c r="T7" s="215"/>
+      <c r="U7" s="215"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
@@ -20707,9 +20997,9 @@
       <c r="R8" s="216" t="s">
         <v>616</v>
       </c>
-      <c r="S8" s="212"/>
-      <c r="T8" s="212"/>
-      <c r="U8" s="212"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="215"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A9" s="39" t="s">

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF3F502-599A-4A80-BA79-F4764872DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA2C99-85AC-47F8-865F-98D67DC5B8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="852">
   <si>
     <t>预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3020,6 +3020,18 @@
   </si>
   <si>
     <t>group_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prd_cnt_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGD_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3439,7 +3451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4088,6 +4100,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4155,9 +4173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4484,11 +4499,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="215" t="s">
+      <c r="W1" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="215"/>
-      <c r="Y1" s="215"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
       <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -4503,11 +4518,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="215" t="s">
+      <c r="W3" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
       <c r="Z3" s="24" t="s">
         <v>57</v>
       </c>
@@ -5284,30 +5299,30 @@
   <sheetData>
     <row r="1" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="219" t="s">
+      <c r="C1" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="222" t="s">
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="219" t="s">
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="221" t="s">
         <v>454</v>
       </c>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="219" t="s">
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="221"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="223"/>
     </row>
     <row r="2" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -5364,27 +5379,27 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="223" t="s">
+      <c r="C3" s="225" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="225"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="227"/>
       <c r="K3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="223" t="s">
+      <c r="S3" s="225" t="s">
         <v>414</v>
       </c>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="227"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -5437,12 +5452,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="216" t="s">
+      <c r="S5" s="218" t="s">
         <v>514</v>
       </c>
-      <c r="T5" s="217"/>
-      <c r="U5" s="217"/>
-      <c r="V5" s="218"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="219"/>
+      <c r="V5" s="220"/>
       <c r="W5" s="89" t="s">
         <v>516</v>
       </c>
@@ -5468,12 +5483,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="216" t="s">
+      <c r="S6" s="218" t="s">
         <v>431</v>
       </c>
-      <c r="T6" s="217"/>
-      <c r="U6" s="217"/>
-      <c r="V6" s="218"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="219"/>
+      <c r="V6" s="220"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B7" s="39" t="s">
@@ -6552,30 +6567,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="72"/>
-      <c r="C1" s="219" t="s">
+      <c r="C1" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="220"/>
-      <c r="E1" s="220"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="219" t="s">
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="221" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="219" t="s">
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="221" t="s">
         <v>454</v>
       </c>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="219" t="s">
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="221" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="221"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="222"/>
+      <c r="R1" s="223"/>
       <c r="S1" s="48"/>
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
@@ -6673,12 +6688,12 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="223" t="s">
+      <c r="S3" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="224"/>
-      <c r="U3" s="224"/>
-      <c r="V3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="227"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="72" t="s">
@@ -6743,12 +6758,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="216" t="s">
+      <c r="S5" s="218" t="s">
         <v>288</v>
       </c>
-      <c r="T5" s="217"/>
-      <c r="U5" s="217"/>
-      <c r="V5" s="218"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="219"/>
+      <c r="V5" s="220"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="72" t="s">
@@ -6778,12 +6793,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="216" t="s">
+      <c r="S6" s="218" t="s">
         <v>289</v>
       </c>
-      <c r="T6" s="217"/>
-      <c r="U6" s="217"/>
-      <c r="V6" s="218"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="219"/>
+      <c r="V6" s="220"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="72" t="s">
@@ -6850,12 +6865,12 @@
         <v>290</v>
       </c>
       <c r="R8" s="41"/>
-      <c r="S8" s="237" t="s">
+      <c r="S8" s="239" t="s">
         <v>390</v>
       </c>
-      <c r="T8" s="238"/>
-      <c r="U8" s="238"/>
-      <c r="V8" s="238"/>
+      <c r="T8" s="240"/>
+      <c r="U8" s="240"/>
+      <c r="V8" s="240"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="72" t="s">
@@ -9337,30 +9352,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="222" t="s">
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="219" t="s">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="221" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="219" t="s">
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="221" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="221"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="223"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
@@ -9446,12 +9461,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="223" t="s">
+      <c r="R3" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="225"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="227"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
@@ -9513,12 +9528,12 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="216" t="s">
+      <c r="R5" s="218" t="s">
         <v>288</v>
       </c>
-      <c r="S5" s="217"/>
-      <c r="T5" s="217"/>
-      <c r="U5" s="218"/>
+      <c r="S5" s="219"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="220"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="71" t="s">
@@ -9547,12 +9562,12 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="41"/>
-      <c r="R6" s="216" t="s">
+      <c r="R6" s="218" t="s">
         <v>289</v>
       </c>
-      <c r="S6" s="217"/>
-      <c r="T6" s="217"/>
-      <c r="U6" s="218"/>
+      <c r="S6" s="219"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="220"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="71" t="s">
@@ -11089,30 +11104,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="222" t="s">
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="219" t="s">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="221" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="219" t="s">
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="221" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="221"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="223"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
@@ -11198,12 +11213,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="223" t="s">
+      <c r="R3" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="225"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="227"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
@@ -11265,12 +11280,12 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="216" t="s">
+      <c r="R5" s="218" t="s">
         <v>288</v>
       </c>
-      <c r="S5" s="217"/>
-      <c r="T5" s="217"/>
-      <c r="U5" s="218"/>
+      <c r="S5" s="219"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="220"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="71" t="s">
@@ -11299,12 +11314,12 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="41"/>
-      <c r="R6" s="216" t="s">
+      <c r="R6" s="218" t="s">
         <v>289</v>
       </c>
-      <c r="S6" s="217"/>
-      <c r="T6" s="217"/>
-      <c r="U6" s="218"/>
+      <c r="S6" s="219"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="220"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="71" t="s">
@@ -12801,30 +12816,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="222" t="s">
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="219" t="s">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="221" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="219" t="s">
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="221" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="221"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="223"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
@@ -12911,12 +12926,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="223" t="s">
+      <c r="R3" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
-      <c r="U3" s="225"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="227"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
@@ -12969,12 +12984,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="216" t="s">
+      <c r="R5" s="218" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="217"/>
-      <c r="T5" s="217"/>
-      <c r="U5" s="218"/>
+      <c r="S5" s="219"/>
+      <c r="T5" s="219"/>
+      <c r="U5" s="220"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
@@ -12996,12 +13011,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="216" t="s">
+      <c r="R6" s="218" t="s">
         <v>268</v>
       </c>
-      <c r="S6" s="217"/>
-      <c r="T6" s="217"/>
-      <c r="U6" s="218"/>
+      <c r="S6" s="219"/>
+      <c r="T6" s="219"/>
+      <c r="U6" s="220"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
@@ -16331,67 +16346,67 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="226" t="s">
+      <c r="B6" s="228" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="227"/>
-      <c r="D6" s="228"/>
-      <c r="E6" s="226" t="s">
+      <c r="C6" s="229"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="228" t="s">
         <v>527</v>
       </c>
-      <c r="F6" s="227"/>
-      <c r="G6" s="228"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="230"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="226" t="s">
+      <c r="B7" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="227"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="227"/>
-      <c r="M7" s="227"/>
-      <c r="N7" s="227"/>
-      <c r="O7" s="227"/>
-      <c r="P7" s="228"/>
-      <c r="Q7" s="226" t="s">
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="230"/>
+      <c r="Q7" s="228" t="s">
         <v>221</v>
       </c>
-      <c r="R7" s="227"/>
-      <c r="S7" s="227"/>
-      <c r="T7" s="227"/>
-      <c r="U7" s="227"/>
-      <c r="V7" s="227"/>
-      <c r="W7" s="227"/>
-      <c r="X7" s="227"/>
-      <c r="Y7" s="227"/>
-      <c r="Z7" s="227"/>
-      <c r="AA7" s="228"/>
-      <c r="AB7" s="226" t="s">
+      <c r="R7" s="229"/>
+      <c r="S7" s="229"/>
+      <c r="T7" s="229"/>
+      <c r="U7" s="229"/>
+      <c r="V7" s="229"/>
+      <c r="W7" s="229"/>
+      <c r="X7" s="229"/>
+      <c r="Y7" s="229"/>
+      <c r="Z7" s="229"/>
+      <c r="AA7" s="230"/>
+      <c r="AB7" s="228" t="s">
         <v>222</v>
       </c>
-      <c r="AC7" s="227"/>
-      <c r="AD7" s="227"/>
-      <c r="AE7" s="227"/>
-      <c r="AF7" s="227"/>
-      <c r="AG7" s="227"/>
-      <c r="AH7" s="227"/>
-      <c r="AI7" s="227"/>
-      <c r="AJ7" s="227"/>
-      <c r="AK7" s="227"/>
-      <c r="AL7" s="227"/>
-      <c r="AM7" s="227"/>
-      <c r="AN7" s="227"/>
-      <c r="AO7" s="227"/>
-      <c r="AP7" s="227"/>
-      <c r="AQ7" s="227"/>
-      <c r="AR7" s="228"/>
+      <c r="AC7" s="229"/>
+      <c r="AD7" s="229"/>
+      <c r="AE7" s="229"/>
+      <c r="AF7" s="229"/>
+      <c r="AG7" s="229"/>
+      <c r="AH7" s="229"/>
+      <c r="AI7" s="229"/>
+      <c r="AJ7" s="229"/>
+      <c r="AK7" s="229"/>
+      <c r="AL7" s="229"/>
+      <c r="AM7" s="229"/>
+      <c r="AN7" s="229"/>
+      <c r="AO7" s="229"/>
+      <c r="AP7" s="229"/>
+      <c r="AQ7" s="229"/>
+      <c r="AR7" s="230"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="E9" s="48"/>
@@ -16482,11 +16497,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="C1" s="223" t="s">
+      <c r="C1" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
       <c r="F1" s="67"/>
       <c r="G1" s="63"/>
       <c r="H1" s="97"/>
@@ -16544,12 +16559,12 @@
     </row>
     <row r="5" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="219" t="s">
+      <c r="C6" s="221" t="s">
         <v>664</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="221"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="223"/>
       <c r="G6" s="136"/>
       <c r="H6" s="99"/>
       <c r="I6" s="99"/>
@@ -16558,27 +16573,27 @@
       <c r="L6" s="99"/>
       <c r="M6" s="99"/>
       <c r="N6" s="99"/>
-      <c r="O6" s="219" t="s">
+      <c r="O6" s="221" t="s">
         <v>665</v>
       </c>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="221"/>
-      <c r="AE6" s="219" t="s">
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="223"/>
+      <c r="AE6" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="AF6" s="220"/>
-      <c r="AG6" s="220"/>
-      <c r="AH6" s="221"/>
+      <c r="AF6" s="222"/>
+      <c r="AG6" s="222"/>
+      <c r="AH6" s="223"/>
       <c r="AI6" s="167"/>
-      <c r="AJ6" s="219" t="s">
+      <c r="AJ6" s="221" t="s">
         <v>663</v>
       </c>
-      <c r="AK6" s="220"/>
-      <c r="AL6" s="220"/>
-      <c r="AM6" s="220"/>
-      <c r="AN6" s="220"/>
-      <c r="AO6" s="221"/>
+      <c r="AK6" s="222"/>
+      <c r="AL6" s="222"/>
+      <c r="AM6" s="222"/>
+      <c r="AN6" s="222"/>
+      <c r="AO6" s="223"/>
     </row>
     <row r="7" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C7" s="35" t="s">
@@ -16656,11 +16671,11 @@
       <c r="I8" s="99"/>
       <c r="J8" s="99"/>
       <c r="K8" s="99"/>
-      <c r="L8" s="230" t="s">
+      <c r="L8" s="232" t="s">
         <v>548</v>
       </c>
-      <c r="M8" s="230"/>
-      <c r="N8" s="230"/>
+      <c r="M8" s="232"/>
+      <c r="N8" s="232"/>
       <c r="O8" s="132"/>
       <c r="P8" s="133"/>
       <c r="Q8" s="133"/>
@@ -16681,12 +16696,12 @@
       <c r="AK8" s="168"/>
       <c r="AL8" s="168"/>
       <c r="AM8" s="168"/>
-      <c r="AP8" s="216" t="s">
+      <c r="AP8" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="AQ8" s="217"/>
-      <c r="AR8" s="217"/>
-      <c r="AS8" s="218"/>
+      <c r="AQ8" s="219"/>
+      <c r="AR8" s="219"/>
+      <c r="AS8" s="220"/>
     </row>
     <row r="9" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="40"/>
@@ -16698,11 +16713,11 @@
       <c r="I9" s="135"/>
       <c r="J9" s="135"/>
       <c r="K9" s="135"/>
-      <c r="L9" s="232" t="s">
+      <c r="L9" s="234" t="s">
         <v>549</v>
       </c>
-      <c r="M9" s="232"/>
-      <c r="N9" s="231"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="233"/>
       <c r="O9" s="132"/>
       <c r="P9" s="133"/>
       <c r="Q9" s="133"/>
@@ -16744,9 +16759,9 @@
       <c r="I10" s="135"/>
       <c r="J10" s="135"/>
       <c r="K10" s="135"/>
-      <c r="L10" s="229"/>
-      <c r="M10" s="229"/>
-      <c r="N10" s="229"/>
+      <c r="L10" s="231"/>
+      <c r="M10" s="231"/>
+      <c r="N10" s="231"/>
       <c r="O10" s="132"/>
       <c r="P10" s="133"/>
       <c r="Q10" s="133"/>
@@ -16771,12 +16786,12 @@
       <c r="AK10" s="168"/>
       <c r="AL10" s="168"/>
       <c r="AM10" s="168"/>
-      <c r="AP10" s="216" t="s">
+      <c r="AP10" s="218" t="s">
         <v>56</v>
       </c>
-      <c r="AQ10" s="217"/>
-      <c r="AR10" s="217"/>
-      <c r="AS10" s="218"/>
+      <c r="AQ10" s="219"/>
+      <c r="AR10" s="219"/>
+      <c r="AS10" s="220"/>
     </row>
     <row r="11" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C11" s="40"/>
@@ -16812,12 +16827,12 @@
       <c r="AK11" s="168"/>
       <c r="AL11" s="168"/>
       <c r="AM11" s="168"/>
-      <c r="AP11" s="216" t="s">
+      <c r="AP11" s="218" t="s">
         <v>662</v>
       </c>
-      <c r="AQ11" s="217"/>
-      <c r="AR11" s="217"/>
-      <c r="AS11" s="218"/>
+      <c r="AQ11" s="219"/>
+      <c r="AR11" s="219"/>
+      <c r="AS11" s="220"/>
       <c r="AT11" s="26" t="s">
         <v>269</v>
       </c>
@@ -16842,11 +16857,11 @@
       <c r="I12" s="99"/>
       <c r="J12" s="99"/>
       <c r="K12" s="99"/>
-      <c r="L12" s="233" t="s">
+      <c r="L12" s="235" t="s">
         <v>547</v>
       </c>
-      <c r="M12" s="233"/>
-      <c r="N12" s="233"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="235"/>
       <c r="O12" s="132"/>
       <c r="P12" s="133"/>
       <c r="Q12" s="133"/>
@@ -16860,12 +16875,12 @@
       <c r="AK12" s="168"/>
       <c r="AL12" s="168"/>
       <c r="AM12" s="168"/>
-      <c r="AP12" s="216" t="s">
+      <c r="AP12" s="218" t="s">
         <v>546</v>
       </c>
-      <c r="AQ12" s="217"/>
-      <c r="AR12" s="217"/>
-      <c r="AS12" s="218"/>
+      <c r="AQ12" s="219"/>
+      <c r="AR12" s="219"/>
+      <c r="AS12" s="220"/>
       <c r="AU12" s="21" t="s">
         <v>658</v>
       </c>
@@ -16880,12 +16895,12 @@
       <c r="B13" s="145" t="s">
         <v>541</v>
       </c>
-      <c r="C13" s="219" t="s">
+      <c r="C13" s="221" t="s">
         <v>550</v>
       </c>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="222"/>
       <c r="G13" s="181" t="s">
         <v>676</v>
       </c>
@@ -16908,11 +16923,11 @@
       <c r="N13" s="194" t="s">
         <v>680</v>
       </c>
-      <c r="O13" s="219" t="s">
+      <c r="O13" s="221" t="s">
         <v>551</v>
       </c>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="220"/>
+      <c r="P13" s="222"/>
+      <c r="Q13" s="222"/>
       <c r="R13" s="170"/>
       <c r="S13" s="184" t="s">
         <v>717</v>
@@ -16948,18 +16963,18 @@
       <c r="AG13" s="63"/>
       <c r="AH13" s="46"/>
       <c r="AI13" s="167"/>
-      <c r="AJ13" s="216" t="s">
+      <c r="AJ13" s="218" t="s">
         <v>550</v>
       </c>
-      <c r="AK13" s="217"/>
-      <c r="AL13" s="217"/>
-      <c r="AM13" s="217"/>
-      <c r="AP13" s="216" t="s">
+      <c r="AK13" s="219"/>
+      <c r="AL13" s="219"/>
+      <c r="AM13" s="219"/>
+      <c r="AP13" s="218" t="s">
         <v>655</v>
       </c>
-      <c r="AQ13" s="215"/>
-      <c r="AR13" s="215"/>
-      <c r="AS13" s="215"/>
+      <c r="AQ13" s="217"/>
+      <c r="AR13" s="217"/>
+      <c r="AS13" s="217"/>
       <c r="AU13" s="21" t="s">
         <v>659</v>
       </c>
@@ -17636,8 +17651,8 @@
       </c>
       <c r="AN30" s="173"/>
       <c r="AO30" s="175"/>
-      <c r="AQ30" s="231"/>
-      <c r="AR30" s="231"/>
+      <c r="AQ30" s="233"/>
+      <c r="AR30" s="233"/>
     </row>
     <row r="31" spans="1:51" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="213" t="s">
@@ -18062,8 +18077,8 @@
         <v>90</v>
       </c>
       <c r="AN40" s="173"/>
-      <c r="AQ40" s="229"/>
-      <c r="AR40" s="229"/>
+      <c r="AQ40" s="231"/>
+      <c r="AR40" s="231"/>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A41" s="165" t="s">
@@ -18279,8 +18294,8 @@
         <v>678</v>
       </c>
       <c r="AO46" s="175"/>
-      <c r="AQ46" s="229"/>
-      <c r="AR46" s="229"/>
+      <c r="AQ46" s="231"/>
+      <c r="AR46" s="231"/>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A47" s="165" t="s">
@@ -18354,12 +18369,12 @@
         <v>346</v>
       </c>
       <c r="B49" s="165"/>
-      <c r="C49" s="219" t="s">
+      <c r="C49" s="221" t="s">
         <v>550</v>
       </c>
-      <c r="D49" s="220"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="220"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="222"/>
       <c r="G49" s="181" t="s">
         <v>676</v>
       </c>
@@ -18382,11 +18397,11 @@
       <c r="N49" s="194" t="s">
         <v>680</v>
       </c>
-      <c r="O49" s="219" t="s">
+      <c r="O49" s="221" t="s">
         <v>551</v>
       </c>
-      <c r="P49" s="220"/>
-      <c r="Q49" s="220"/>
+      <c r="P49" s="222"/>
+      <c r="Q49" s="222"/>
       <c r="R49" s="203"/>
       <c r="S49" s="184" t="s">
         <v>717</v>
@@ -19611,12 +19626,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AQ40:AR40"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="AJ13:AM13"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AP11:AS11"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="O49:Q49"/>
     <mergeCell ref="AQ46:AR46"/>
@@ -19633,6 +19642,12 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AQ40:AR40"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="AJ13:AM13"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AP11:AS11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19642,10 +19657,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34ECBBF-B660-41D9-BDE6-91AF01412A2C}">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -19655,32 +19670,34 @@
     <col min="6" max="6" width="7.3984375" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12.33203125" style="209" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.06640625" style="209" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.06640625" style="212"/>
-    <col min="13" max="13" width="10.73046875" style="212" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.06640625" style="21" customWidth="1"/>
-    <col min="16" max="17" width="10.86328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.06640625" style="21"/>
-    <col min="21" max="24" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.19921875" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.06640625" style="21"/>
+    <col min="12" max="12" width="16.19921875" style="215" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.06640625" style="212"/>
+    <col min="14" max="14" width="10.73046875" style="212" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.06640625" style="21" customWidth="1"/>
+    <col min="17" max="18" width="10.86328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.06640625" style="21"/>
+    <col min="22" max="25" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.19921875" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.06640625" style="215"/>
+    <col min="28" max="16384" width="9.06640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="B1" s="215" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="B1" s="217" t="s">
         <v>741</v>
       </c>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -19708,68 +19725,75 @@
       <c r="K2" s="209" t="s">
         <v>845</v>
       </c>
-      <c r="L2" s="212" t="s">
+      <c r="L2" s="215" t="s">
+        <v>850</v>
+      </c>
+      <c r="M2" s="212" t="s">
         <v>847</v>
       </c>
-      <c r="M2" s="212" t="s">
+      <c r="N2" s="212" t="s">
         <v>848</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="U2" s="209" t="s">
+      <c r="V2" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="209" t="s">
+      <c r="W2" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="209" t="s">
+      <c r="X2" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="209" t="s">
+      <c r="Y2" s="209" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="212" t="s">
+      <c r="Z2" s="212" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA2" s="215" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="21"/>
       <c r="K3" s="214" t="s">
         <v>543</v>
       </c>
-      <c r="L3" s="212">
+      <c r="M3" s="212">
         <v>0</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="21" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="21"/>
-      <c r="K4" s="209" t="s">
+      <c r="K4" s="214" t="s">
         <v>785</v>
       </c>
-      <c r="L4" s="212">
+      <c r="L4" s="211"/>
+      <c r="M4" s="212">
         <v>1</v>
       </c>
-      <c r="M4" s="212">
+      <c r="N4" s="212">
         <v>0</v>
       </c>
-      <c r="N4" s="21">
+      <c r="O4" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="21"/>
       <c r="B5" s="190"/>
       <c r="C5" s="86"/>
@@ -19783,14 +19807,15 @@
       <c r="K5" s="212" t="s">
         <v>843</v>
       </c>
-      <c r="L5" s="212">
+      <c r="L5" s="211"/>
+      <c r="M5" s="212">
         <v>2</v>
       </c>
-      <c r="N5" s="21">
+      <c r="O5" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="21"/>
       <c r="B6" s="190"/>
       <c r="C6" s="86"/>
@@ -19809,14 +19834,17 @@
       <c r="K6" s="212" t="s">
         <v>844</v>
       </c>
-      <c r="L6" s="212">
+      <c r="L6" s="214" t="s">
+        <v>851</v>
+      </c>
+      <c r="M6" s="212">
         <v>3</v>
       </c>
-      <c r="N6" s="21">
+      <c r="O6" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="21"/>
       <c r="B7" s="190"/>
       <c r="C7" s="83" t="s">
@@ -19837,14 +19865,17 @@
       <c r="J7" s="209" t="s">
         <v>749</v>
       </c>
-      <c r="L7" s="212">
+      <c r="L7" s="214" t="s">
+        <v>851</v>
+      </c>
+      <c r="M7" s="212">
         <v>4</v>
       </c>
-      <c r="N7" s="21">
+      <c r="O7" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="21"/>
       <c r="B8" s="83" t="s">
         <v>750</v>
@@ -19865,14 +19896,15 @@
       <c r="I8" s="209" t="s">
         <v>753</v>
       </c>
-      <c r="L8" s="212">
+      <c r="L8" s="211"/>
+      <c r="M8" s="212">
         <v>5</v>
       </c>
-      <c r="N8" s="21">
+      <c r="O8" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9" s="21"/>
       <c r="B9" s="83" t="s">
         <v>754</v>
@@ -19888,14 +19920,17 @@
       <c r="H9" s="209" t="s">
         <v>756</v>
       </c>
-      <c r="L9" s="212">
+      <c r="L9" s="214" t="s">
+        <v>836</v>
+      </c>
+      <c r="M9" s="212">
         <v>6</v>
       </c>
-      <c r="N9" s="21">
+      <c r="O9" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A10" s="21"/>
       <c r="B10" s="83" t="s">
         <v>757</v>
@@ -19906,20 +19941,27 @@
       <c r="G10" s="209" t="s">
         <v>758</v>
       </c>
-      <c r="K10" s="209" t="s">
+      <c r="K10" s="214" t="s">
         <v>836</v>
       </c>
-      <c r="L10" s="212">
-        <v>1</v>
-      </c>
+      <c r="L10" s="211"/>
       <c r="M10" s="212">
         <v>1</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="212">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="O10" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="214" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA10" s="215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="21"/>
       <c r="B11" s="190"/>
       <c r="C11" s="86"/>
@@ -19933,20 +19975,21 @@
       <c r="K11" s="212" t="s">
         <v>762</v>
       </c>
-      <c r="L11" s="212">
+      <c r="L11" s="211"/>
+      <c r="M11" s="212">
         <v>2</v>
       </c>
-      <c r="N11" s="21">
+      <c r="O11" s="21">
         <v>1</v>
       </c>
-      <c r="Y11" s="212" t="s">
+      <c r="Z11" s="214" t="s">
         <v>742</v>
       </c>
-      <c r="Z11" s="21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA11" s="215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="21"/>
       <c r="B12" s="190"/>
       <c r="C12" s="86"/>
@@ -19965,26 +20008,32 @@
       <c r="K12" s="212" t="s">
         <v>766</v>
       </c>
-      <c r="L12" s="212">
+      <c r="L12" s="214" t="s">
+        <v>851</v>
+      </c>
+      <c r="M12" s="212">
         <v>3</v>
       </c>
-      <c r="N12" s="21">
+      <c r="O12" s="21">
         <v>1</v>
       </c>
-      <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="83" t="s">
+      <c r="S12" s="26"/>
+      <c r="T12" s="83" t="s">
         <v>742</v>
       </c>
-      <c r="U12" s="209"/>
       <c r="V12" s="209"/>
       <c r="W12" s="209"/>
-      <c r="X12" s="209" t="s">
+      <c r="X12" s="209"/>
+      <c r="Y12" s="209" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA12" s="215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="21"/>
       <c r="B13" s="190"/>
       <c r="C13" s="83" t="s">
@@ -20005,28 +20054,34 @@
       <c r="J13" s="209" t="s">
         <v>766</v>
       </c>
-      <c r="L13" s="212">
+      <c r="L13" s="214" t="s">
+        <v>851</v>
+      </c>
+      <c r="M13" s="212">
         <v>4</v>
       </c>
-      <c r="N13" s="21">
+      <c r="O13" s="21">
         <v>1</v>
       </c>
-      <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
-      <c r="R13" s="83" t="s">
+      <c r="R13" s="26"/>
+      <c r="S13" s="83" t="s">
         <v>743</v>
       </c>
-      <c r="S13" s="26"/>
-      <c r="U13" s="209"/>
+      <c r="T13" s="26"/>
       <c r="V13" s="209"/>
-      <c r="W13" s="209" t="s">
+      <c r="W13" s="209"/>
+      <c r="X13" s="209" t="s">
         <v>745</v>
       </c>
-      <c r="Y13" s="212" t="s">
+      <c r="Z13" s="212" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA13" s="215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="21"/>
       <c r="B14" s="83" t="s">
         <v>767</v>
@@ -20047,29 +20102,33 @@
       <c r="I14" s="209" t="s">
         <v>766</v>
       </c>
-      <c r="L14" s="212">
+      <c r="L14" s="211"/>
+      <c r="M14" s="212">
         <v>5</v>
       </c>
-      <c r="N14" s="21">
+      <c r="O14" s="21">
         <v>1</v>
       </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="83" t="s">
+      <c r="Q14" s="26"/>
+      <c r="R14" s="83" t="s">
         <v>746</v>
       </c>
-      <c r="R14" s="26"/>
-      <c r="S14" s="83" t="s">
+      <c r="S14" s="26"/>
+      <c r="T14" s="83" t="s">
         <v>744</v>
       </c>
-      <c r="U14" s="209"/>
-      <c r="V14" s="209" t="s">
+      <c r="V14" s="209"/>
+      <c r="W14" s="209" t="s">
         <v>749</v>
       </c>
-      <c r="X14" s="209" t="s">
+      <c r="Y14" s="209" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA14" s="215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="21"/>
       <c r="B15" s="83" t="s">
         <v>770</v>
@@ -20085,31 +20144,37 @@
       <c r="H15" s="209" t="s">
         <v>766</v>
       </c>
-      <c r="L15" s="212">
+      <c r="L15" s="214" t="s">
+        <v>837</v>
+      </c>
+      <c r="M15" s="212">
         <v>6</v>
       </c>
-      <c r="N15" s="21">
+      <c r="O15" s="21">
         <v>1</v>
       </c>
-      <c r="P15" s="83" t="s">
+      <c r="Q15" s="83" t="s">
         <v>750</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="83" t="s">
+      <c r="R15" s="26"/>
+      <c r="S15" s="83" t="s">
         <v>747</v>
       </c>
-      <c r="S15" s="26"/>
-      <c r="U15" s="209" t="s">
+      <c r="T15" s="26"/>
+      <c r="V15" s="209" t="s">
         <v>753</v>
       </c>
-      <c r="W15" s="209" t="s">
+      <c r="X15" s="209" t="s">
         <v>749</v>
       </c>
-      <c r="Y15" s="212" t="s">
+      <c r="Z15" s="212" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="AA15" s="215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="21"/>
       <c r="B16" s="83" t="s">
         <v>772</v>
@@ -20120,108 +20185,120 @@
       <c r="G16" s="209" t="s">
         <v>766</v>
       </c>
-      <c r="K16" s="209" t="s">
+      <c r="K16" s="214" t="s">
         <v>837</v>
       </c>
-      <c r="L16" s="212">
+      <c r="L16" s="211"/>
+      <c r="M16" s="212">
         <v>1</v>
       </c>
-      <c r="M16" s="212">
+      <c r="N16" s="212">
         <v>10</v>
       </c>
-      <c r="N16" s="21">
+      <c r="O16" s="21">
         <v>1</v>
       </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="83" t="s">
+      <c r="Q16" s="26"/>
+      <c r="R16" s="83" t="s">
         <v>751</v>
       </c>
-      <c r="R16" s="26"/>
-      <c r="S16" s="83" t="s">
+      <c r="S16" s="26"/>
+      <c r="T16" s="83" t="s">
         <v>748</v>
       </c>
-      <c r="V16" s="209" t="s">
+      <c r="W16" s="209" t="s">
         <v>753</v>
       </c>
-      <c r="X16" s="209" t="s">
+      <c r="Y16" s="209" t="s">
         <v>749</v>
       </c>
-      <c r="Y16" s="212"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Z16" s="212"/>
+      <c r="AA16" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A17" s="21"/>
       <c r="B17" s="26"/>
       <c r="C17" s="86"/>
       <c r="D17" s="86"/>
       <c r="E17" s="86"/>
-      <c r="J17" s="239" t="s">
+      <c r="J17" s="216" t="s">
         <v>779</v>
       </c>
       <c r="K17" s="212" t="s">
         <v>780</v>
       </c>
-      <c r="L17" s="212">
+      <c r="L17" s="211"/>
+      <c r="M17" s="212">
         <v>2</v>
       </c>
-      <c r="N17" s="21">
+      <c r="O17" s="21">
         <v>1</v>
       </c>
-      <c r="P17" s="83" t="s">
+      <c r="Q17" s="83" t="s">
         <v>835</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="83" t="s">
+      <c r="R17" s="26"/>
+      <c r="S17" s="83" t="s">
         <v>752</v>
       </c>
-      <c r="S17" s="26"/>
-      <c r="U17" s="209" t="s">
+      <c r="T17" s="26"/>
+      <c r="V17" s="209" t="s">
         <v>756</v>
       </c>
-      <c r="W17" s="209" t="s">
+      <c r="X17" s="209" t="s">
         <v>753</v>
       </c>
-      <c r="X17" s="209"/>
-      <c r="Y17" s="212" t="s">
+      <c r="Y17" s="209"/>
+      <c r="Z17" s="214" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA17" s="215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A18" s="21"/>
       <c r="B18" s="190"/>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
       <c r="E18" s="86"/>
-      <c r="I18" s="239" t="s">
+      <c r="I18" s="216" t="s">
         <v>780</v>
       </c>
-      <c r="J18" s="239" t="s">
+      <c r="J18" s="216" t="s">
         <v>780</v>
       </c>
       <c r="K18" s="212" t="s">
         <v>781</v>
       </c>
-      <c r="L18" s="212">
+      <c r="L18" s="211"/>
+      <c r="M18" s="212">
         <v>3</v>
       </c>
-      <c r="N18" s="21">
+      <c r="O18" s="21">
         <v>1</v>
       </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="83" t="s">
+      <c r="Q18" s="26"/>
+      <c r="R18" s="83" t="s">
         <v>755</v>
       </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="83" t="s">
+      <c r="S18" s="26"/>
+      <c r="T18" s="83" t="s">
         <v>759</v>
       </c>
-      <c r="V18" s="209" t="s">
+      <c r="W18" s="209" t="s">
         <v>756</v>
       </c>
-      <c r="X18" s="209" t="s">
+      <c r="Y18" s="209" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA18" s="215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A19" s="21"/>
       <c r="B19" s="190"/>
       <c r="C19" s="83" t="s">
@@ -20232,37 +20309,41 @@
       <c r="H19" s="209" t="s">
         <v>781</v>
       </c>
-      <c r="I19" s="239" t="s">
+      <c r="I19" s="216" t="s">
         <v>781</v>
       </c>
-      <c r="J19" s="239" t="s">
+      <c r="J19" s="216" t="s">
         <v>781</v>
       </c>
-      <c r="L19" s="212">
+      <c r="L19" s="211"/>
+      <c r="M19" s="212">
         <v>4</v>
       </c>
-      <c r="N19" s="21">
+      <c r="O19" s="21">
         <v>1</v>
       </c>
-      <c r="P19" s="83" t="s">
+      <c r="Q19" s="83" t="s">
         <v>757</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="83" t="s">
+      <c r="R19" s="26"/>
+      <c r="S19" s="83" t="s">
         <v>760</v>
       </c>
-      <c r="S19" s="26"/>
-      <c r="U19" s="209" t="s">
+      <c r="T19" s="26"/>
+      <c r="V19" s="209" t="s">
         <v>758</v>
       </c>
-      <c r="W19" s="209" t="s">
+      <c r="X19" s="209" t="s">
         <v>759</v>
       </c>
-      <c r="Y19" s="212" t="s">
+      <c r="Z19" s="212" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA19" s="215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A20" s="21"/>
       <c r="B20" s="83" t="s">
         <v>774</v>
@@ -20278,31 +20359,35 @@
       <c r="H20" s="209" t="s">
         <v>782</v>
       </c>
-      <c r="I20" s="239" t="s">
+      <c r="I20" s="216" t="s">
         <v>782</v>
       </c>
-      <c r="L20" s="212">
+      <c r="L20" s="211"/>
+      <c r="M20" s="212">
         <v>5</v>
       </c>
-      <c r="N20" s="21">
+      <c r="O20" s="21">
         <v>1</v>
       </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="83" t="s">
+      <c r="Q20" s="26"/>
+      <c r="R20" s="83" t="s">
         <v>763</v>
       </c>
-      <c r="R20" s="26"/>
-      <c r="S20" s="83" t="s">
+      <c r="S20" s="26"/>
+      <c r="T20" s="83" t="s">
         <v>761</v>
       </c>
-      <c r="V20" s="209" t="s">
+      <c r="W20" s="209" t="s">
         <v>759</v>
       </c>
-      <c r="X20" s="209" t="s">
+      <c r="Y20" s="209" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA20" s="215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A21" s="21"/>
       <c r="B21" s="83" t="s">
         <v>776</v>
@@ -20318,31 +20403,35 @@
       <c r="H21" s="209" t="s">
         <v>783</v>
       </c>
-      <c r="L21" s="212">
+      <c r="L21" s="211"/>
+      <c r="M21" s="212">
         <v>6</v>
       </c>
-      <c r="N21" s="21">
+      <c r="O21" s="21">
         <v>1</v>
       </c>
-      <c r="P21" s="83" t="s">
+      <c r="Q21" s="83" t="s">
         <v>767</v>
       </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="83" t="s">
+      <c r="R21" s="26"/>
+      <c r="S21" s="83" t="s">
         <v>764</v>
       </c>
-      <c r="S21" s="26"/>
-      <c r="U21" s="209" t="s">
+      <c r="T21" s="26"/>
+      <c r="V21" s="209" t="s">
         <v>759</v>
       </c>
-      <c r="W21" s="209" t="s">
+      <c r="X21" s="209" t="s">
         <v>762</v>
       </c>
-      <c r="Y21" s="212" t="s">
+      <c r="Z21" s="212" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA21" s="215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A22" s="21"/>
       <c r="B22" s="83" t="s">
         <v>778</v>
@@ -20356,220 +20445,310 @@
       <c r="K22" s="212" t="s">
         <v>838</v>
       </c>
-      <c r="L22" s="212">
+      <c r="L22" s="211"/>
+      <c r="M22" s="212">
         <v>1</v>
       </c>
-      <c r="M22" s="212" t="s">
+      <c r="N22" s="212" t="s">
         <v>839</v>
       </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="83" t="s">
+      <c r="Q22" s="26"/>
+      <c r="R22" s="83" t="s">
         <v>768</v>
       </c>
-      <c r="R22" s="26"/>
-      <c r="S22" s="83" t="s">
+      <c r="S22" s="26"/>
+      <c r="T22" s="83" t="s">
         <v>765</v>
       </c>
-      <c r="V22" s="209" t="s">
+      <c r="W22" s="209" t="s">
         <v>762</v>
       </c>
-      <c r="X22" s="209" t="s">
+      <c r="Y22" s="209" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA22" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A23" s="21"/>
-      <c r="L23" s="212">
+      <c r="M23" s="212">
         <v>2</v>
       </c>
-      <c r="P23" s="83" t="s">
+      <c r="Q23" s="83" t="s">
         <v>770</v>
       </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="83" t="s">
+      <c r="R23" s="26"/>
+      <c r="S23" s="83" t="s">
         <v>769</v>
       </c>
-      <c r="S23" s="86"/>
-      <c r="U23" s="209" t="s">
+      <c r="T23" s="86"/>
+      <c r="V23" s="209" t="s">
         <v>762</v>
       </c>
-      <c r="W23" s="209" t="s">
+      <c r="X23" s="209" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA23" s="215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
-      <c r="L24" s="212">
+      <c r="M24" s="212">
         <v>3</v>
       </c>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="83" t="s">
+      <c r="Q24" s="26"/>
+      <c r="R24" s="83" t="s">
         <v>771</v>
       </c>
-      <c r="R24" s="26"/>
-      <c r="S24" s="86"/>
-      <c r="V24" s="209" t="s">
+      <c r="S24" s="26"/>
+      <c r="T24" s="86"/>
+      <c r="W24" s="209" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA24" s="215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" s="21"/>
-      <c r="L25" s="212">
+      <c r="M25" s="212">
         <v>4</v>
       </c>
-      <c r="P25" s="83" t="s">
+      <c r="Q25" s="83" t="s">
         <v>772</v>
       </c>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="86"/>
+      <c r="R25" s="26"/>
       <c r="S25" s="86"/>
-      <c r="U25" s="209" t="s">
+      <c r="T25" s="86"/>
+      <c r="V25" s="209" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA25" s="215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A26" s="21"/>
-      <c r="L26" s="212">
+      <c r="M26" s="212">
         <v>5</v>
       </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="83" t="s">
+      <c r="Q26" s="26"/>
+      <c r="R26" s="83" t="s">
         <v>773</v>
       </c>
-      <c r="R26" s="86"/>
       <c r="S26" s="86"/>
-      <c r="V26" s="212" t="s">
+      <c r="T26" s="86"/>
+      <c r="W26" s="212" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA26" s="215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A27" s="21"/>
-      <c r="L27" s="212">
+      <c r="M27" s="212">
         <v>6</v>
       </c>
-      <c r="P27" s="83" t="s">
+      <c r="Q27" s="83" t="s">
         <v>774</v>
       </c>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="86"/>
+      <c r="R27" s="26"/>
       <c r="S27" s="86"/>
-      <c r="U27" s="212" t="s">
+      <c r="T27" s="86"/>
+      <c r="V27" s="212" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA27" s="215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A28" s="21"/>
       <c r="K28" s="212" t="s">
         <v>840</v>
       </c>
-      <c r="L28" s="212">
+      <c r="M28" s="212">
         <v>1</v>
       </c>
-      <c r="M28" s="212">
+      <c r="N28" s="212">
         <v>100</v>
       </c>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="83" t="s">
+      <c r="Q28" s="26"/>
+      <c r="R28" s="83" t="s">
         <v>775</v>
       </c>
-      <c r="R28" s="86"/>
       <c r="S28" s="86"/>
-      <c r="V28" s="212" t="s">
+      <c r="T28" s="86"/>
+      <c r="W28" s="212" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA28" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A29" s="21"/>
-      <c r="L29" s="212">
+      <c r="M29" s="212">
         <v>2</v>
       </c>
-      <c r="P29" s="83" t="s">
+      <c r="Q29" s="83" t="s">
         <v>776</v>
       </c>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="86"/>
+      <c r="R29" s="26"/>
       <c r="S29" s="86"/>
-      <c r="U29" s="212" t="s">
+      <c r="T29" s="86"/>
+      <c r="V29" s="212" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA29" s="215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A30" s="21"/>
-      <c r="L30" s="212">
+      <c r="M30" s="212">
         <v>3</v>
       </c>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="83" t="s">
+      <c r="Q30" s="26"/>
+      <c r="R30" s="83" t="s">
         <v>777</v>
       </c>
-      <c r="R30" s="86"/>
-      <c r="S30" s="26"/>
-      <c r="V30" s="212" t="s">
+      <c r="S30" s="86"/>
+      <c r="T30" s="26"/>
+      <c r="W30" s="212" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA30" s="215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A31" s="21"/>
-      <c r="L31" s="212">
+      <c r="M31" s="212">
         <v>4</v>
       </c>
-      <c r="P31" s="83" t="s">
+      <c r="Q31" s="83" t="s">
         <v>778</v>
       </c>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="26"/>
-      <c r="U31" s="212" t="s">
+      <c r="R31" s="26"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="26"/>
+      <c r="V31" s="212" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="AA31" s="215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A32" s="21"/>
-      <c r="L32" s="212">
+      <c r="M32" s="212">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L33" s="212">
+      <c r="AA32" s="215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M33" s="212">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="AA33" s="215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A34" s="21"/>
       <c r="K34" s="212" t="s">
         <v>841</v>
       </c>
-      <c r="L34" s="212">
+      <c r="M34" s="212">
         <v>1</v>
       </c>
-      <c r="M34" s="212">
+      <c r="N34" s="212">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="AA34" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A35" s="21"/>
-      <c r="L35" s="212">
+      <c r="M35" s="212">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="AA35" s="215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A36" s="21"/>
-      <c r="L36" s="212">
+      <c r="M36" s="212">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L37" s="212">
+      <c r="AA36" s="215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M37" s="212">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L38" s="212">
+      <c r="AA37" s="215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M38" s="212">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L39" s="212">
+      <c r="AA38" s="215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="M39" s="212">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA40" s="215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA41" s="215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA42" s="215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA43" s="215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA44" s="215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA45" s="215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AA46" s="215">
         <v>6</v>
       </c>
     </row>
@@ -20627,30 +20806,30 @@
   <sheetData>
     <row r="1" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="219" t="s">
+      <c r="B1" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="222" t="s">
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="220"/>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="219" t="s">
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="221" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="219" t="s">
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="221" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="220"/>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="221"/>
+      <c r="O1" s="222"/>
+      <c r="P1" s="222"/>
+      <c r="Q1" s="223"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -20759,11 +20938,11 @@
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="223" t="s">
+      <c r="R3" s="225" t="s">
         <v>264</v>
       </c>
-      <c r="S3" s="224"/>
-      <c r="T3" s="224"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="226"/>
       <c r="U3" s="45"/>
       <c r="W3" t="s">
         <v>676</v>
@@ -20937,12 +21116,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="234" t="s">
+      <c r="R6" s="236" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="235"/>
-      <c r="T6" s="235"/>
-      <c r="U6" s="236"/>
+      <c r="S6" s="237"/>
+      <c r="T6" s="237"/>
+      <c r="U6" s="238"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39" t="s">
@@ -20968,12 +21147,12 @@
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="34"/>
-      <c r="R7" s="216" t="s">
+      <c r="R7" s="218" t="s">
         <v>617</v>
       </c>
-      <c r="S7" s="215"/>
-      <c r="T7" s="215"/>
-      <c r="U7" s="215"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="217"/>
+      <c r="U7" s="217"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
@@ -20994,12 +21173,12 @@
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="34"/>
-      <c r="R8" s="216" t="s">
+      <c r="R8" s="218" t="s">
         <v>616</v>
       </c>
-      <c r="S8" s="215"/>
-      <c r="T8" s="215"/>
-      <c r="U8" s="215"/>
+      <c r="S8" s="217"/>
+      <c r="T8" s="217"/>
+      <c r="U8" s="217"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A9" s="39" t="s">
@@ -21017,12 +21196,12 @@
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="34"/>
-      <c r="R9" s="216" t="s">
+      <c r="R9" s="218" t="s">
         <v>545</v>
       </c>
-      <c r="S9" s="217"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="218"/>
+      <c r="S9" s="219"/>
+      <c r="T9" s="219"/>
+      <c r="U9" s="220"/>
     </row>
     <row r="10" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="39" t="s">

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA2C99-85AC-47F8-865F-98D67DC5B8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3807AC16-B404-4E6C-A422-1D538F660265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
@@ -19626,6 +19626,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AQ40:AR40"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="AJ13:AM13"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AP11:AS11"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="O49:Q49"/>
     <mergeCell ref="AQ46:AR46"/>
@@ -19642,12 +19648,6 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AQ40:AR40"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="AJ13:AM13"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AP11:AS11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19660,7 +19660,7 @@
   <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3807AC16-B404-4E6C-A422-1D538F660265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09578229-C099-4BE6-9C52-3BEE52712D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="852">
   <si>
     <t>预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3451,7 +3451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4101,6 +4101,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4499,11 +4502,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="217" t="s">
+      <c r="W1" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
       <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -4518,11 +4521,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="217" t="s">
+      <c r="W3" s="218" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
+      <c r="X3" s="218"/>
+      <c r="Y3" s="218"/>
       <c r="Z3" s="24" t="s">
         <v>57</v>
       </c>
@@ -5299,30 +5302,30 @@
   <sheetData>
     <row r="1" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="221" t="s">
+      <c r="C1" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="224" t="s">
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="221" t="s">
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="222" t="s">
         <v>454</v>
       </c>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="223"/>
-      <c r="O1" s="221" t="s">
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="224"/>
     </row>
     <row r="2" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -5379,27 +5382,27 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="225" t="s">
+      <c r="C3" s="226" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="228"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="228"/>
       <c r="K3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="225" t="s">
+      <c r="S3" s="226" t="s">
         <v>414</v>
       </c>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="228"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -5452,12 +5455,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="218" t="s">
+      <c r="S5" s="219" t="s">
         <v>514</v>
       </c>
-      <c r="T5" s="219"/>
-      <c r="U5" s="219"/>
-      <c r="V5" s="220"/>
+      <c r="T5" s="220"/>
+      <c r="U5" s="220"/>
+      <c r="V5" s="221"/>
       <c r="W5" s="89" t="s">
         <v>516</v>
       </c>
@@ -5483,12 +5486,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="218" t="s">
+      <c r="S6" s="219" t="s">
         <v>431</v>
       </c>
-      <c r="T6" s="219"/>
-      <c r="U6" s="219"/>
-      <c r="V6" s="220"/>
+      <c r="T6" s="220"/>
+      <c r="U6" s="220"/>
+      <c r="V6" s="221"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B7" s="39" t="s">
@@ -6567,30 +6570,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="72"/>
-      <c r="C1" s="221" t="s">
+      <c r="C1" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="221" t="s">
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="222" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="221" t="s">
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="222" t="s">
         <v>454</v>
       </c>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
-      <c r="N1" s="223"/>
-      <c r="O1" s="221" t="s">
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="224"/>
+      <c r="O1" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="222"/>
-      <c r="R1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="224"/>
       <c r="S1" s="48"/>
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
@@ -6688,12 +6691,12 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="225" t="s">
+      <c r="S3" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="228"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="72" t="s">
@@ -6758,12 +6761,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="218" t="s">
+      <c r="S5" s="219" t="s">
         <v>288</v>
       </c>
-      <c r="T5" s="219"/>
-      <c r="U5" s="219"/>
-      <c r="V5" s="220"/>
+      <c r="T5" s="220"/>
+      <c r="U5" s="220"/>
+      <c r="V5" s="221"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="72" t="s">
@@ -6793,12 +6796,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="218" t="s">
+      <c r="S6" s="219" t="s">
         <v>289</v>
       </c>
-      <c r="T6" s="219"/>
-      <c r="U6" s="219"/>
-      <c r="V6" s="220"/>
+      <c r="T6" s="220"/>
+      <c r="U6" s="220"/>
+      <c r="V6" s="221"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="72" t="s">
@@ -6865,12 +6868,12 @@
         <v>290</v>
       </c>
       <c r="R8" s="41"/>
-      <c r="S8" s="239" t="s">
+      <c r="S8" s="240" t="s">
         <v>390</v>
       </c>
-      <c r="T8" s="240"/>
-      <c r="U8" s="240"/>
-      <c r="V8" s="240"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="241"/>
+      <c r="V8" s="241"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="72" t="s">
@@ -9352,30 +9355,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="224" t="s">
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="221" t="s">
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="222" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="221" t="s">
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="224"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
@@ -9461,12 +9464,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="225" t="s">
+      <c r="R3" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="226"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
@@ -9528,12 +9531,12 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="218" t="s">
+      <c r="R5" s="219" t="s">
         <v>288</v>
       </c>
-      <c r="S5" s="219"/>
-      <c r="T5" s="219"/>
-      <c r="U5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="220"/>
+      <c r="U5" s="221"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="71" t="s">
@@ -9562,12 +9565,12 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="41"/>
-      <c r="R6" s="218" t="s">
+      <c r="R6" s="219" t="s">
         <v>289</v>
       </c>
-      <c r="S6" s="219"/>
-      <c r="T6" s="219"/>
-      <c r="U6" s="220"/>
+      <c r="S6" s="220"/>
+      <c r="T6" s="220"/>
+      <c r="U6" s="221"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="71" t="s">
@@ -11104,30 +11107,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="224" t="s">
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="221" t="s">
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="222" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="221" t="s">
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="224"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
@@ -11213,12 +11216,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="225" t="s">
+      <c r="R3" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="226"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
@@ -11280,12 +11283,12 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="218" t="s">
+      <c r="R5" s="219" t="s">
         <v>288</v>
       </c>
-      <c r="S5" s="219"/>
-      <c r="T5" s="219"/>
-      <c r="U5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="220"/>
+      <c r="U5" s="221"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="71" t="s">
@@ -11314,12 +11317,12 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="41"/>
-      <c r="R6" s="218" t="s">
+      <c r="R6" s="219" t="s">
         <v>289</v>
       </c>
-      <c r="S6" s="219"/>
-      <c r="T6" s="219"/>
-      <c r="U6" s="220"/>
+      <c r="S6" s="220"/>
+      <c r="T6" s="220"/>
+      <c r="U6" s="221"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="71" t="s">
@@ -12816,30 +12819,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="224" t="s">
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="221" t="s">
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="222" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="221" t="s">
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="224"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
@@ -12926,12 +12929,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="225" t="s">
+      <c r="R3" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="226"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="227"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="228"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
@@ -12984,12 +12987,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="218" t="s">
+      <c r="R5" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="219"/>
-      <c r="T5" s="219"/>
-      <c r="U5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="220"/>
+      <c r="U5" s="221"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
@@ -13011,12 +13014,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="218" t="s">
+      <c r="R6" s="219" t="s">
         <v>268</v>
       </c>
-      <c r="S6" s="219"/>
-      <c r="T6" s="219"/>
-      <c r="U6" s="220"/>
+      <c r="S6" s="220"/>
+      <c r="T6" s="220"/>
+      <c r="U6" s="221"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
@@ -14500,7 +14503,7 @@
   <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B58" sqref="B43:B58"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -15310,6 +15313,18 @@
       <c r="E24" s="24" t="s">
         <v>6</v>
       </c>
+      <c r="H24" s="217" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="217" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="217" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="217" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="24">
@@ -15324,6 +15339,9 @@
       </c>
       <c r="E25" s="101" t="s">
         <v>554</v>
+      </c>
+      <c r="H25" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
@@ -16346,67 +16364,67 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="228" t="s">
+      <c r="B6" s="229" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="229"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="228" t="s">
+      <c r="C6" s="230"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="229" t="s">
         <v>527</v>
       </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="230"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="231"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="228" t="s">
+      <c r="B7" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="229"/>
-      <c r="P7" s="230"/>
-      <c r="Q7" s="228" t="s">
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="231"/>
+      <c r="Q7" s="229" t="s">
         <v>221</v>
       </c>
-      <c r="R7" s="229"/>
-      <c r="S7" s="229"/>
-      <c r="T7" s="229"/>
-      <c r="U7" s="229"/>
-      <c r="V7" s="229"/>
-      <c r="W7" s="229"/>
-      <c r="X7" s="229"/>
-      <c r="Y7" s="229"/>
-      <c r="Z7" s="229"/>
-      <c r="AA7" s="230"/>
-      <c r="AB7" s="228" t="s">
+      <c r="R7" s="230"/>
+      <c r="S7" s="230"/>
+      <c r="T7" s="230"/>
+      <c r="U7" s="230"/>
+      <c r="V7" s="230"/>
+      <c r="W7" s="230"/>
+      <c r="X7" s="230"/>
+      <c r="Y7" s="230"/>
+      <c r="Z7" s="230"/>
+      <c r="AA7" s="231"/>
+      <c r="AB7" s="229" t="s">
         <v>222</v>
       </c>
-      <c r="AC7" s="229"/>
-      <c r="AD7" s="229"/>
-      <c r="AE7" s="229"/>
-      <c r="AF7" s="229"/>
-      <c r="AG7" s="229"/>
-      <c r="AH7" s="229"/>
-      <c r="AI7" s="229"/>
-      <c r="AJ7" s="229"/>
-      <c r="AK7" s="229"/>
-      <c r="AL7" s="229"/>
-      <c r="AM7" s="229"/>
-      <c r="AN7" s="229"/>
-      <c r="AO7" s="229"/>
-      <c r="AP7" s="229"/>
-      <c r="AQ7" s="229"/>
-      <c r="AR7" s="230"/>
+      <c r="AC7" s="230"/>
+      <c r="AD7" s="230"/>
+      <c r="AE7" s="230"/>
+      <c r="AF7" s="230"/>
+      <c r="AG7" s="230"/>
+      <c r="AH7" s="230"/>
+      <c r="AI7" s="230"/>
+      <c r="AJ7" s="230"/>
+      <c r="AK7" s="230"/>
+      <c r="AL7" s="230"/>
+      <c r="AM7" s="230"/>
+      <c r="AN7" s="230"/>
+      <c r="AO7" s="230"/>
+      <c r="AP7" s="230"/>
+      <c r="AQ7" s="230"/>
+      <c r="AR7" s="231"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="E9" s="48"/>
@@ -16450,7 +16468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431E16EB-4173-4BB0-A744-4BFFE60D57DA}">
   <dimension ref="A1:AZ82"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A32" sqref="A32"/>
     </sheetView>
@@ -16497,11 +16515,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="C1" s="225" t="s">
+      <c r="C1" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
       <c r="F1" s="67"/>
       <c r="G1" s="63"/>
       <c r="H1" s="97"/>
@@ -16559,12 +16577,12 @@
     </row>
     <row r="5" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="221" t="s">
+      <c r="C6" s="222" t="s">
         <v>664</v>
       </c>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="224"/>
       <c r="G6" s="136"/>
       <c r="H6" s="99"/>
       <c r="I6" s="99"/>
@@ -16573,27 +16591,27 @@
       <c r="L6" s="99"/>
       <c r="M6" s="99"/>
       <c r="N6" s="99"/>
-      <c r="O6" s="221" t="s">
+      <c r="O6" s="222" t="s">
         <v>665</v>
       </c>
-      <c r="P6" s="222"/>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="223"/>
-      <c r="AE6" s="221" t="s">
+      <c r="P6" s="223"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="224"/>
+      <c r="AE6" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="AF6" s="222"/>
-      <c r="AG6" s="222"/>
-      <c r="AH6" s="223"/>
+      <c r="AF6" s="223"/>
+      <c r="AG6" s="223"/>
+      <c r="AH6" s="224"/>
       <c r="AI6" s="167"/>
-      <c r="AJ6" s="221" t="s">
+      <c r="AJ6" s="222" t="s">
         <v>663</v>
       </c>
-      <c r="AK6" s="222"/>
-      <c r="AL6" s="222"/>
-      <c r="AM6" s="222"/>
-      <c r="AN6" s="222"/>
-      <c r="AO6" s="223"/>
+      <c r="AK6" s="223"/>
+      <c r="AL6" s="223"/>
+      <c r="AM6" s="223"/>
+      <c r="AN6" s="223"/>
+      <c r="AO6" s="224"/>
     </row>
     <row r="7" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C7" s="35" t="s">
@@ -16671,11 +16689,11 @@
       <c r="I8" s="99"/>
       <c r="J8" s="99"/>
       <c r="K8" s="99"/>
-      <c r="L8" s="232" t="s">
+      <c r="L8" s="233" t="s">
         <v>548</v>
       </c>
-      <c r="M8" s="232"/>
-      <c r="N8" s="232"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="233"/>
       <c r="O8" s="132"/>
       <c r="P8" s="133"/>
       <c r="Q8" s="133"/>
@@ -16696,12 +16714,12 @@
       <c r="AK8" s="168"/>
       <c r="AL8" s="168"/>
       <c r="AM8" s="168"/>
-      <c r="AP8" s="218" t="s">
+      <c r="AP8" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="AQ8" s="219"/>
-      <c r="AR8" s="219"/>
-      <c r="AS8" s="220"/>
+      <c r="AQ8" s="220"/>
+      <c r="AR8" s="220"/>
+      <c r="AS8" s="221"/>
     </row>
     <row r="9" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" s="40"/>
@@ -16713,11 +16731,11 @@
       <c r="I9" s="135"/>
       <c r="J9" s="135"/>
       <c r="K9" s="135"/>
-      <c r="L9" s="234" t="s">
+      <c r="L9" s="235" t="s">
         <v>549</v>
       </c>
-      <c r="M9" s="234"/>
-      <c r="N9" s="233"/>
+      <c r="M9" s="235"/>
+      <c r="N9" s="234"/>
       <c r="O9" s="132"/>
       <c r="P9" s="133"/>
       <c r="Q9" s="133"/>
@@ -16759,9 +16777,9 @@
       <c r="I10" s="135"/>
       <c r="J10" s="135"/>
       <c r="K10" s="135"/>
-      <c r="L10" s="231"/>
-      <c r="M10" s="231"/>
-      <c r="N10" s="231"/>
+      <c r="L10" s="232"/>
+      <c r="M10" s="232"/>
+      <c r="N10" s="232"/>
       <c r="O10" s="132"/>
       <c r="P10" s="133"/>
       <c r="Q10" s="133"/>
@@ -16786,12 +16804,12 @@
       <c r="AK10" s="168"/>
       <c r="AL10" s="168"/>
       <c r="AM10" s="168"/>
-      <c r="AP10" s="218" t="s">
+      <c r="AP10" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="AQ10" s="219"/>
-      <c r="AR10" s="219"/>
-      <c r="AS10" s="220"/>
+      <c r="AQ10" s="220"/>
+      <c r="AR10" s="220"/>
+      <c r="AS10" s="221"/>
     </row>
     <row r="11" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C11" s="40"/>
@@ -16827,12 +16845,12 @@
       <c r="AK11" s="168"/>
       <c r="AL11" s="168"/>
       <c r="AM11" s="168"/>
-      <c r="AP11" s="218" t="s">
+      <c r="AP11" s="219" t="s">
         <v>662</v>
       </c>
-      <c r="AQ11" s="219"/>
-      <c r="AR11" s="219"/>
-      <c r="AS11" s="220"/>
+      <c r="AQ11" s="220"/>
+      <c r="AR11" s="220"/>
+      <c r="AS11" s="221"/>
       <c r="AT11" s="26" t="s">
         <v>269</v>
       </c>
@@ -16857,11 +16875,11 @@
       <c r="I12" s="99"/>
       <c r="J12" s="99"/>
       <c r="K12" s="99"/>
-      <c r="L12" s="235" t="s">
+      <c r="L12" s="236" t="s">
         <v>547</v>
       </c>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
+      <c r="M12" s="236"/>
+      <c r="N12" s="236"/>
       <c r="O12" s="132"/>
       <c r="P12" s="133"/>
       <c r="Q12" s="133"/>
@@ -16875,12 +16893,12 @@
       <c r="AK12" s="168"/>
       <c r="AL12" s="168"/>
       <c r="AM12" s="168"/>
-      <c r="AP12" s="218" t="s">
+      <c r="AP12" s="219" t="s">
         <v>546</v>
       </c>
-      <c r="AQ12" s="219"/>
-      <c r="AR12" s="219"/>
-      <c r="AS12" s="220"/>
+      <c r="AQ12" s="220"/>
+      <c r="AR12" s="220"/>
+      <c r="AS12" s="221"/>
       <c r="AU12" s="21" t="s">
         <v>658</v>
       </c>
@@ -16895,12 +16913,12 @@
       <c r="B13" s="145" t="s">
         <v>541</v>
       </c>
-      <c r="C13" s="221" t="s">
+      <c r="C13" s="222" t="s">
         <v>550</v>
       </c>
-      <c r="D13" s="222"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="222"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
       <c r="G13" s="181" t="s">
         <v>676</v>
       </c>
@@ -16923,11 +16941,11 @@
       <c r="N13" s="194" t="s">
         <v>680</v>
       </c>
-      <c r="O13" s="221" t="s">
+      <c r="O13" s="222" t="s">
         <v>551</v>
       </c>
-      <c r="P13" s="222"/>
-      <c r="Q13" s="222"/>
+      <c r="P13" s="223"/>
+      <c r="Q13" s="223"/>
       <c r="R13" s="170"/>
       <c r="S13" s="184" t="s">
         <v>717</v>
@@ -16963,18 +16981,18 @@
       <c r="AG13" s="63"/>
       <c r="AH13" s="46"/>
       <c r="AI13" s="167"/>
-      <c r="AJ13" s="218" t="s">
+      <c r="AJ13" s="219" t="s">
         <v>550</v>
       </c>
-      <c r="AK13" s="219"/>
-      <c r="AL13" s="219"/>
-      <c r="AM13" s="219"/>
-      <c r="AP13" s="218" t="s">
+      <c r="AK13" s="220"/>
+      <c r="AL13" s="220"/>
+      <c r="AM13" s="220"/>
+      <c r="AP13" s="219" t="s">
         <v>655</v>
       </c>
-      <c r="AQ13" s="217"/>
-      <c r="AR13" s="217"/>
-      <c r="AS13" s="217"/>
+      <c r="AQ13" s="218"/>
+      <c r="AR13" s="218"/>
+      <c r="AS13" s="218"/>
       <c r="AU13" s="21" t="s">
         <v>659</v>
       </c>
@@ -17651,8 +17669,8 @@
       </c>
       <c r="AN30" s="173"/>
       <c r="AO30" s="175"/>
-      <c r="AQ30" s="233"/>
-      <c r="AR30" s="233"/>
+      <c r="AQ30" s="234"/>
+      <c r="AR30" s="234"/>
     </row>
     <row r="31" spans="1:51" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="213" t="s">
@@ -18077,8 +18095,8 @@
         <v>90</v>
       </c>
       <c r="AN40" s="173"/>
-      <c r="AQ40" s="231"/>
-      <c r="AR40" s="231"/>
+      <c r="AQ40" s="232"/>
+      <c r="AR40" s="232"/>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A41" s="165" t="s">
@@ -18294,8 +18312,8 @@
         <v>678</v>
       </c>
       <c r="AO46" s="175"/>
-      <c r="AQ46" s="231"/>
-      <c r="AR46" s="231"/>
+      <c r="AQ46" s="232"/>
+      <c r="AR46" s="232"/>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A47" s="165" t="s">
@@ -18369,12 +18387,12 @@
         <v>346</v>
       </c>
       <c r="B49" s="165"/>
-      <c r="C49" s="221" t="s">
+      <c r="C49" s="222" t="s">
         <v>550</v>
       </c>
-      <c r="D49" s="222"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="222"/>
+      <c r="D49" s="223"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="223"/>
       <c r="G49" s="181" t="s">
         <v>676</v>
       </c>
@@ -18397,11 +18415,11 @@
       <c r="N49" s="194" t="s">
         <v>680</v>
       </c>
-      <c r="O49" s="221" t="s">
+      <c r="O49" s="222" t="s">
         <v>551</v>
       </c>
-      <c r="P49" s="222"/>
-      <c r="Q49" s="222"/>
+      <c r="P49" s="223"/>
+      <c r="Q49" s="223"/>
       <c r="R49" s="203"/>
       <c r="S49" s="184" t="s">
         <v>717</v>
@@ -19626,12 +19644,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AQ40:AR40"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="AJ13:AM13"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AP11:AS11"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="O49:Q49"/>
     <mergeCell ref="AQ46:AR46"/>
@@ -19648,6 +19660,12 @@
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AQ40:AR40"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="AJ13:AM13"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AP11:AS11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19657,10 +19675,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34ECBBF-B660-41D9-BDE6-91AF01412A2C}">
-  <dimension ref="A1:AA46"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -19683,21 +19701,21 @@
     <col min="28" max="16384" width="9.06640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="B1" s="217" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B1" s="218" t="s">
         <v>741</v>
       </c>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
@@ -19765,7 +19783,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="21"/>
       <c r="K3" s="214" t="s">
         <v>543</v>
@@ -19777,7 +19795,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="21"/>
       <c r="K4" s="214" t="s">
         <v>785</v>
@@ -19793,7 +19811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="21"/>
       <c r="B5" s="190"/>
       <c r="C5" s="86"/>
@@ -19815,7 +19833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="21"/>
       <c r="B6" s="190"/>
       <c r="C6" s="86"/>
@@ -19844,7 +19862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="21"/>
       <c r="B7" s="190"/>
       <c r="C7" s="83" t="s">
@@ -19875,7 +19893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="21"/>
       <c r="B8" s="83" t="s">
         <v>750</v>
@@ -19904,7 +19922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="21"/>
       <c r="B9" s="83" t="s">
         <v>754</v>
@@ -19930,7 +19948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="21"/>
       <c r="B10" s="83" t="s">
         <v>757</v>
@@ -19960,8 +19978,11 @@
       <c r="AA10" s="215">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB10" s="217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="21"/>
       <c r="B11" s="190"/>
       <c r="C11" s="86"/>
@@ -19988,8 +20009,11 @@
       <c r="AA11" s="215">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB11" s="217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="21"/>
       <c r="B12" s="190"/>
       <c r="C12" s="86"/>
@@ -20032,8 +20056,11 @@
       <c r="AA12" s="215">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB12" s="217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="21"/>
       <c r="B13" s="190"/>
       <c r="C13" s="83" t="s">
@@ -20080,8 +20107,11 @@
       <c r="AA13" s="215">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB13" s="217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="21"/>
       <c r="B14" s="83" t="s">
         <v>767</v>
@@ -20127,8 +20157,11 @@
       <c r="AA14" s="215">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB14" s="217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="21"/>
       <c r="B15" s="83" t="s">
         <v>770</v>
@@ -20173,8 +20206,11 @@
       <c r="AA15" s="215">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB15" s="217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="21"/>
       <c r="B16" s="83" t="s">
         <v>772</v>
@@ -20216,8 +20252,11 @@
       <c r="AA16" s="215">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB16" s="217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="21"/>
       <c r="B17" s="26"/>
       <c r="C17" s="86"/>
@@ -20257,8 +20296,11 @@
       <c r="AA17" s="215">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB17" s="217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" s="21"/>
       <c r="B18" s="190"/>
       <c r="C18" s="86"/>
@@ -20297,8 +20339,11 @@
       <c r="AA18" s="215">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB18" s="217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" s="21"/>
       <c r="B19" s="190"/>
       <c r="C19" s="83" t="s">
@@ -20342,8 +20387,11 @@
       <c r="AA19" s="215">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB19" s="217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="21"/>
       <c r="B20" s="83" t="s">
         <v>774</v>
@@ -20386,8 +20434,11 @@
       <c r="AA20" s="215">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB20" s="217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="21"/>
       <c r="B21" s="83" t="s">
         <v>776</v>
@@ -20430,8 +20481,11 @@
       <c r="AA21" s="215">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB21" s="217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="21"/>
       <c r="B22" s="83" t="s">
         <v>778</v>
@@ -20469,8 +20523,11 @@
       <c r="AA22" s="215">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB22" s="217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="21"/>
       <c r="M23" s="212">
         <v>2</v>
@@ -20492,8 +20549,11 @@
       <c r="AA23" s="215">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB23" s="217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" s="21"/>
       <c r="M24" s="212">
         <v>3</v>
@@ -20510,8 +20570,11 @@
       <c r="AA24" s="215">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB24" s="217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" s="21"/>
       <c r="M25" s="212">
         <v>4</v>
@@ -20528,8 +20591,11 @@
       <c r="AA25" s="215">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB25" s="217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="21"/>
       <c r="M26" s="212">
         <v>5</v>
@@ -20546,8 +20612,11 @@
       <c r="AA26" s="215">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB26" s="217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="21"/>
       <c r="M27" s="212">
         <v>6</v>
@@ -20564,8 +20633,11 @@
       <c r="AA27" s="215">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="AB27" s="217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" s="21"/>
       <c r="K28" s="212" t="s">
         <v>840</v>
@@ -20589,7 +20661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" s="21"/>
       <c r="M29" s="212">
         <v>2</v>
@@ -20607,7 +20679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" s="21"/>
       <c r="M30" s="212">
         <v>3</v>
@@ -20625,7 +20697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" s="21"/>
       <c r="M31" s="212">
         <v>4</v>
@@ -20643,7 +20715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" s="21"/>
       <c r="M32" s="212">
         <v>5</v>
@@ -20806,30 +20878,30 @@
   <sheetData>
     <row r="1" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="224" t="s">
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="225" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="221" t="s">
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="222" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="221" t="s">
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="222" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="222"/>
-      <c r="P1" s="222"/>
-      <c r="Q1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="224"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -20938,11 +21010,11 @@
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="225" t="s">
+      <c r="R3" s="226" t="s">
         <v>264</v>
       </c>
-      <c r="S3" s="226"/>
-      <c r="T3" s="226"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="227"/>
       <c r="U3" s="45"/>
       <c r="W3" t="s">
         <v>676</v>
@@ -21116,12 +21188,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="236" t="s">
+      <c r="R6" s="237" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="237"/>
-      <c r="T6" s="237"/>
-      <c r="U6" s="238"/>
+      <c r="S6" s="238"/>
+      <c r="T6" s="238"/>
+      <c r="U6" s="239"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39" t="s">
@@ -21147,12 +21219,12 @@
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="34"/>
-      <c r="R7" s="218" t="s">
+      <c r="R7" s="219" t="s">
         <v>617</v>
       </c>
-      <c r="S7" s="217"/>
-      <c r="T7" s="217"/>
-      <c r="U7" s="217"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="218"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
@@ -21173,12 +21245,12 @@
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="34"/>
-      <c r="R8" s="218" t="s">
+      <c r="R8" s="219" t="s">
         <v>616</v>
       </c>
-      <c r="S8" s="217"/>
-      <c r="T8" s="217"/>
-      <c r="U8" s="217"/>
+      <c r="S8" s="218"/>
+      <c r="T8" s="218"/>
+      <c r="U8" s="218"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A9" s="39" t="s">
@@ -21196,12 +21268,12 @@
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="34"/>
-      <c r="R9" s="218" t="s">
+      <c r="R9" s="219" t="s">
         <v>545</v>
       </c>
-      <c r="S9" s="219"/>
-      <c r="T9" s="219"/>
-      <c r="U9" s="220"/>
+      <c r="S9" s="220"/>
+      <c r="T9" s="220"/>
+      <c r="U9" s="221"/>
     </row>
     <row r="10" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="39" t="s">

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09578229-C099-4BE6-9C52-3BEE52712D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B591F90D-B888-47F1-B1C5-186BE033AF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="6" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -3451,7 +3451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4109,6 +4109,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4177,6 +4180,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4502,11 +4508,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="218" t="s">
+      <c r="W1" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="218"/>
-      <c r="Y1" s="218"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="219"/>
       <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -4521,11 +4527,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="218" t="s">
+      <c r="W3" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="219"/>
       <c r="Z3" s="24" t="s">
         <v>57</v>
       </c>
@@ -5302,30 +5308,30 @@
   <sheetData>
     <row r="1" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="222" t="s">
+      <c r="C1" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="225" t="s">
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="222" t="s">
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="223" t="s">
         <v>454</v>
       </c>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="222" t="s">
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-      <c r="R1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="225"/>
     </row>
     <row r="2" spans="2:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -5382,27 +5388,27 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="226" t="s">
+      <c r="C3" s="227" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="229"/>
       <c r="K3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="226" t="s">
+      <c r="S3" s="227" t="s">
         <v>414</v>
       </c>
-      <c r="T3" s="227"/>
-      <c r="U3" s="227"/>
-      <c r="V3" s="228"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="229"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -5455,12 +5461,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="219" t="s">
+      <c r="S5" s="220" t="s">
         <v>514</v>
       </c>
-      <c r="T5" s="220"/>
-      <c r="U5" s="220"/>
-      <c r="V5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="221"/>
+      <c r="V5" s="222"/>
       <c r="W5" s="89" t="s">
         <v>516</v>
       </c>
@@ -5486,12 +5492,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="219" t="s">
+      <c r="S6" s="220" t="s">
         <v>431</v>
       </c>
-      <c r="T6" s="220"/>
-      <c r="U6" s="220"/>
-      <c r="V6" s="221"/>
+      <c r="T6" s="221"/>
+      <c r="U6" s="221"/>
+      <c r="V6" s="222"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B7" s="39" t="s">
@@ -6570,30 +6576,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="72"/>
-      <c r="C1" s="222" t="s">
+      <c r="C1" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="222" t="s">
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="223" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="222" t="s">
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="223" t="s">
         <v>454</v>
       </c>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="224"/>
-      <c r="O1" s="222" t="s">
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="225"/>
+      <c r="O1" s="223" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="223"/>
-      <c r="R1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="225"/>
       <c r="S1" s="48"/>
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
@@ -6691,12 +6697,12 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="226" t="s">
+      <c r="S3" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="227"/>
-      <c r="U3" s="227"/>
-      <c r="V3" s="228"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="229"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="72" t="s">
@@ -6761,12 +6767,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="219" t="s">
+      <c r="S5" s="220" t="s">
         <v>288</v>
       </c>
-      <c r="T5" s="220"/>
-      <c r="U5" s="220"/>
-      <c r="V5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="221"/>
+      <c r="V5" s="222"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="72" t="s">
@@ -6796,12 +6802,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="219" t="s">
+      <c r="S6" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="T6" s="220"/>
-      <c r="U6" s="220"/>
-      <c r="V6" s="221"/>
+      <c r="T6" s="221"/>
+      <c r="U6" s="221"/>
+      <c r="V6" s="222"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="72" t="s">
@@ -6868,12 +6874,12 @@
         <v>290</v>
       </c>
       <c r="R8" s="41"/>
-      <c r="S8" s="240" t="s">
+      <c r="S8" s="241" t="s">
         <v>390</v>
       </c>
-      <c r="T8" s="241"/>
-      <c r="U8" s="241"/>
-      <c r="V8" s="241"/>
+      <c r="T8" s="242"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="242"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="72" t="s">
@@ -9355,30 +9361,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="225" t="s">
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="222" t="s">
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="222" t="s">
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="223" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="225"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
@@ -9464,12 +9470,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="226" t="s">
+      <c r="R3" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="227"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="228"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="229"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
@@ -9531,12 +9537,12 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="219" t="s">
+      <c r="R5" s="220" t="s">
         <v>288</v>
       </c>
-      <c r="S5" s="220"/>
-      <c r="T5" s="220"/>
-      <c r="U5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="222"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="71" t="s">
@@ -9565,12 +9571,12 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="41"/>
-      <c r="R6" s="219" t="s">
+      <c r="R6" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="S6" s="220"/>
-      <c r="T6" s="220"/>
-      <c r="U6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="221"/>
+      <c r="U6" s="222"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="71" t="s">
@@ -11107,30 +11113,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="225" t="s">
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="222" t="s">
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="222" t="s">
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="223" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="225"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
@@ -11216,12 +11222,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="226" t="s">
+      <c r="R3" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="227"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="228"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="229"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
@@ -11283,12 +11289,12 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="219" t="s">
+      <c r="R5" s="220" t="s">
         <v>288</v>
       </c>
-      <c r="S5" s="220"/>
-      <c r="T5" s="220"/>
-      <c r="U5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="222"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="71" t="s">
@@ -11317,12 +11323,12 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="41"/>
-      <c r="R6" s="219" t="s">
+      <c r="R6" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="S6" s="220"/>
-      <c r="T6" s="220"/>
-      <c r="U6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="221"/>
+      <c r="U6" s="222"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="71" t="s">
@@ -12819,30 +12825,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="225" t="s">
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="222" t="s">
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="222" t="s">
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="223" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="225"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
@@ -12929,12 +12935,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="226" t="s">
+      <c r="R3" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="227"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="228"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="229"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
@@ -12987,12 +12993,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="219" t="s">
+      <c r="R5" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="220"/>
-      <c r="T5" s="220"/>
-      <c r="U5" s="221"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="222"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
@@ -13014,12 +13020,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="219" t="s">
+      <c r="R6" s="220" t="s">
         <v>268</v>
       </c>
-      <c r="S6" s="220"/>
-      <c r="T6" s="220"/>
-      <c r="U6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="221"/>
+      <c r="U6" s="222"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
@@ -14500,10 +14506,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0BD24-CD79-4B6D-BA74-24783A8ACECA}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -15343,6 +15349,15 @@
       <c r="H25" s="24">
         <v>0</v>
       </c>
+      <c r="I25" s="24">
+        <v>0</v>
+      </c>
+      <c r="J25" s="24">
+        <v>0</v>
+      </c>
+      <c r="K25" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="24">
@@ -15360,6 +15375,18 @@
       <c r="E26" s="102" t="s">
         <v>96</v>
       </c>
+      <c r="H26" s="24">
+        <v>0</v>
+      </c>
+      <c r="I26" s="24">
+        <v>1</v>
+      </c>
+      <c r="J26" s="24">
+        <v>0</v>
+      </c>
+      <c r="K26" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="24">
@@ -15377,6 +15404,18 @@
       <c r="E27" s="102" t="s">
         <v>180</v>
       </c>
+      <c r="H27" s="24">
+        <v>1</v>
+      </c>
+      <c r="I27" s="24">
+        <v>0</v>
+      </c>
+      <c r="J27" s="24">
+        <v>1</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="24">
@@ -15394,6 +15433,18 @@
       <c r="E28" s="102" t="s">
         <v>42</v>
       </c>
+      <c r="H28" s="24">
+        <v>2</v>
+      </c>
+      <c r="I28" s="218">
+        <v>1</v>
+      </c>
+      <c r="J28" s="24">
+        <v>0</v>
+      </c>
+      <c r="K28" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="24">
@@ -15411,6 +15462,18 @@
       <c r="E29" s="101" t="s">
         <v>581</v>
       </c>
+      <c r="H29" s="218">
+        <v>3</v>
+      </c>
+      <c r="I29" s="218">
+        <v>2</v>
+      </c>
+      <c r="J29" s="218">
+        <v>1</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="24">
@@ -15428,6 +15491,18 @@
       <c r="E30" s="102" t="s">
         <v>116</v>
       </c>
+      <c r="H30" s="218">
+        <v>4</v>
+      </c>
+      <c r="I30" s="218">
+        <v>3</v>
+      </c>
+      <c r="J30" s="218">
+        <v>2</v>
+      </c>
+      <c r="K30" s="218">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="24">
@@ -15445,6 +15520,18 @@
       <c r="E31" s="102" t="s">
         <v>242</v>
       </c>
+      <c r="H31" s="218">
+        <v>5</v>
+      </c>
+      <c r="I31" s="218">
+        <v>4</v>
+      </c>
+      <c r="J31" s="218">
+        <v>3</v>
+      </c>
+      <c r="K31" s="218">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="24">
@@ -15462,8 +15549,20 @@
       <c r="E32" s="102" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H32" s="218">
+        <v>6</v>
+      </c>
+      <c r="I32" s="218">
+        <v>5</v>
+      </c>
+      <c r="J32" s="218">
+        <v>4</v>
+      </c>
+      <c r="K32" s="218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="24">
         <v>8</v>
       </c>
@@ -15479,8 +15578,20 @@
       <c r="E33" s="102" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H33" s="218">
+        <v>7</v>
+      </c>
+      <c r="I33" s="218">
+        <v>6</v>
+      </c>
+      <c r="J33" s="218">
+        <v>5</v>
+      </c>
+      <c r="K33" s="218">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="24">
         <v>9</v>
       </c>
@@ -15496,8 +15607,20 @@
       <c r="E34" s="101" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H34" s="218">
+        <v>8</v>
+      </c>
+      <c r="I34" s="218">
+        <v>7</v>
+      </c>
+      <c r="J34" s="218">
+        <v>6</v>
+      </c>
+      <c r="K34" s="218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="24">
         <v>10</v>
       </c>
@@ -15513,8 +15636,20 @@
       <c r="E35" s="102" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H35" s="218">
+        <v>9</v>
+      </c>
+      <c r="I35" s="218">
+        <v>8</v>
+      </c>
+      <c r="J35" s="218">
+        <v>7</v>
+      </c>
+      <c r="K35" s="218">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="24">
         <v>11</v>
       </c>
@@ -15530,8 +15665,20 @@
       <c r="E36" s="102" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H36" s="218">
+        <v>10</v>
+      </c>
+      <c r="I36" s="218">
+        <v>9</v>
+      </c>
+      <c r="J36" s="218">
+        <v>8</v>
+      </c>
+      <c r="K36" s="218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="24">
         <v>12</v>
       </c>
@@ -15547,8 +15694,20 @@
       <c r="E37" s="102" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H37" s="218">
+        <v>11</v>
+      </c>
+      <c r="I37" s="218">
+        <v>10</v>
+      </c>
+      <c r="J37" s="218">
+        <v>9</v>
+      </c>
+      <c r="K37" s="218">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="24">
         <v>13</v>
       </c>
@@ -15564,8 +15723,20 @@
       <c r="E38" s="102" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H38" s="218">
+        <v>12</v>
+      </c>
+      <c r="I38" s="218">
+        <v>11</v>
+      </c>
+      <c r="J38" s="218">
+        <v>10</v>
+      </c>
+      <c r="K38" s="218">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="24">
         <v>14</v>
       </c>
@@ -15581,8 +15752,20 @@
       <c r="E39" s="102" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H39" s="218">
+        <v>13</v>
+      </c>
+      <c r="I39" s="218">
+        <v>12</v>
+      </c>
+      <c r="J39" s="218">
+        <v>11</v>
+      </c>
+      <c r="K39" s="218">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="24">
         <v>15</v>
       </c>
@@ -15598,8 +15781,20 @@
       <c r="E40" s="102" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H40" s="218">
+        <v>14</v>
+      </c>
+      <c r="I40" s="218">
+        <v>13</v>
+      </c>
+      <c r="J40" s="218">
+        <v>12</v>
+      </c>
+      <c r="K40" s="218">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="24">
         <v>16</v>
       </c>
@@ -15615,8 +15810,20 @@
       <c r="E41" s="102" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H41" s="218">
+        <v>15</v>
+      </c>
+      <c r="I41" s="218">
+        <v>14</v>
+      </c>
+      <c r="J41" s="218">
+        <v>13</v>
+      </c>
+      <c r="K41" s="218">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="24">
         <v>17</v>
       </c>
@@ -15632,8 +15839,20 @@
       <c r="E42" s="102" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H42" s="218">
+        <v>16</v>
+      </c>
+      <c r="I42" s="218">
+        <v>15</v>
+      </c>
+      <c r="J42" s="218">
+        <v>14</v>
+      </c>
+      <c r="K42" s="218">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="24">
         <v>18</v>
       </c>
@@ -15649,8 +15868,20 @@
       <c r="E43" s="102" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H43" s="218">
+        <v>17</v>
+      </c>
+      <c r="I43" s="218">
+        <v>16</v>
+      </c>
+      <c r="J43" s="218">
+        <v>15</v>
+      </c>
+      <c r="K43" s="218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="24">
         <v>19</v>
       </c>
@@ -15666,8 +15897,20 @@
       <c r="E44" s="102" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H44" s="218">
+        <v>18</v>
+      </c>
+      <c r="I44" s="218">
+        <v>17</v>
+      </c>
+      <c r="J44" s="218">
+        <v>16</v>
+      </c>
+      <c r="K44" s="218">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="24">
         <v>20</v>
       </c>
@@ -15683,8 +15926,20 @@
       <c r="E45" s="102" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H45" s="218">
+        <v>19</v>
+      </c>
+      <c r="I45" s="218">
+        <v>18</v>
+      </c>
+      <c r="J45" s="218">
+        <v>17</v>
+      </c>
+      <c r="K45" s="218">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="209">
         <v>21</v>
       </c>
@@ -15700,8 +15955,20 @@
       <c r="E46" s="101" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H46" s="218">
+        <v>20</v>
+      </c>
+      <c r="I46" s="218">
+        <v>19</v>
+      </c>
+      <c r="J46" s="218">
+        <v>18</v>
+      </c>
+      <c r="K46" s="218">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="209">
         <v>22</v>
       </c>
@@ -15717,8 +15984,20 @@
       <c r="E47" s="214" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H47" s="218">
+        <v>21</v>
+      </c>
+      <c r="I47" s="218">
+        <v>20</v>
+      </c>
+      <c r="J47" s="218">
+        <v>19</v>
+      </c>
+      <c r="K47" s="218">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="209">
         <v>23</v>
       </c>
@@ -15734,8 +16013,20 @@
       <c r="E48" s="214" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H48" s="218">
+        <v>22</v>
+      </c>
+      <c r="I48" s="218">
+        <v>21</v>
+      </c>
+      <c r="J48" s="218">
+        <v>20</v>
+      </c>
+      <c r="K48" s="218">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="209">
         <v>24</v>
       </c>
@@ -15751,8 +16042,20 @@
       <c r="E49" s="214" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H49" s="218">
+        <v>23</v>
+      </c>
+      <c r="I49" s="218">
+        <v>22</v>
+      </c>
+      <c r="J49" s="218">
+        <v>21</v>
+      </c>
+      <c r="K49" s="218">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="209">
         <v>25</v>
       </c>
@@ -15768,8 +16071,20 @@
       <c r="E50" s="214" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H50" s="218">
+        <v>24</v>
+      </c>
+      <c r="I50" s="218">
+        <v>23</v>
+      </c>
+      <c r="J50" s="218">
+        <v>22</v>
+      </c>
+      <c r="K50" s="218">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="209">
         <v>26</v>
       </c>
@@ -15785,8 +16100,20 @@
       <c r="E51" s="214" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H51" s="218">
+        <v>25</v>
+      </c>
+      <c r="I51" s="218">
+        <v>24</v>
+      </c>
+      <c r="J51" s="218">
+        <v>23</v>
+      </c>
+      <c r="K51" s="218">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="209">
         <v>27</v>
       </c>
@@ -15802,8 +16129,20 @@
       <c r="E52" s="214" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H52" s="218">
+        <v>26</v>
+      </c>
+      <c r="I52" s="218">
+        <v>25</v>
+      </c>
+      <c r="J52" s="218">
+        <v>24</v>
+      </c>
+      <c r="K52" s="218">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="209">
         <v>28</v>
       </c>
@@ -15819,8 +16158,20 @@
       <c r="E53" s="214" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H53" s="218">
+        <v>27</v>
+      </c>
+      <c r="I53" s="218">
+        <v>26</v>
+      </c>
+      <c r="J53" s="218">
+        <v>25</v>
+      </c>
+      <c r="K53" s="218">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="209">
         <v>29</v>
       </c>
@@ -15836,8 +16187,20 @@
       <c r="E54" s="214" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H54" s="218">
+        <v>28</v>
+      </c>
+      <c r="I54" s="218">
+        <v>27</v>
+      </c>
+      <c r="J54" s="218">
+        <v>26</v>
+      </c>
+      <c r="K54" s="218">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="209">
         <v>30</v>
       </c>
@@ -15853,8 +16216,20 @@
       <c r="E55" s="214" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H55" s="218">
+        <v>29</v>
+      </c>
+      <c r="I55" s="218">
+        <v>28</v>
+      </c>
+      <c r="J55" s="218">
+        <v>27</v>
+      </c>
+      <c r="K55" s="218">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="209">
         <v>31</v>
       </c>
@@ -15870,8 +16245,20 @@
       <c r="E56" s="214" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H56" s="218">
+        <v>30</v>
+      </c>
+      <c r="I56" s="218">
+        <v>29</v>
+      </c>
+      <c r="J56" s="218">
+        <v>28</v>
+      </c>
+      <c r="K56" s="218">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="209">
         <v>32</v>
       </c>
@@ -15887,8 +16274,20 @@
       <c r="E57" s="214" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="H57" s="218">
+        <v>31</v>
+      </c>
+      <c r="I57" s="218">
+        <v>30</v>
+      </c>
+      <c r="J57" s="218">
+        <v>29</v>
+      </c>
+      <c r="K57" s="218">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="209">
         <v>33</v>
       </c>
@@ -15904,6 +16303,30 @@
       <c r="E58" s="214" t="s">
         <v>797</v>
       </c>
+      <c r="H58" s="218">
+        <v>32</v>
+      </c>
+      <c r="I58" s="218">
+        <v>31</v>
+      </c>
+      <c r="J58" s="218">
+        <v>30</v>
+      </c>
+      <c r="K58" s="218">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I59" s="218"/>
+      <c r="J59" s="218"/>
+      <c r="K59" s="218"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J60" s="218"/>
+      <c r="K60" s="218"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K61" s="218"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16364,67 +16787,67 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="230" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="230"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="229" t="s">
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="230" t="s">
         <v>527</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="231"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="232"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="229" t="s">
+      <c r="B7" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="230"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="230"/>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
-      <c r="O7" s="230"/>
-      <c r="P7" s="231"/>
-      <c r="Q7" s="229" t="s">
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="231"/>
+      <c r="L7" s="231"/>
+      <c r="M7" s="231"/>
+      <c r="N7" s="231"/>
+      <c r="O7" s="231"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="230" t="s">
         <v>221</v>
       </c>
-      <c r="R7" s="230"/>
-      <c r="S7" s="230"/>
-      <c r="T7" s="230"/>
-      <c r="U7" s="230"/>
-      <c r="V7" s="230"/>
-      <c r="W7" s="230"/>
-      <c r="X7" s="230"/>
-      <c r="Y7" s="230"/>
-      <c r="Z7" s="230"/>
-      <c r="AA7" s="231"/>
-      <c r="AB7" s="229" t="s">
+      <c r="R7" s="231"/>
+      <c r="S7" s="231"/>
+      <c r="T7" s="231"/>
+      <c r="U7" s="231"/>
+      <c r="V7" s="231"/>
+      <c r="W7" s="231"/>
+      <c r="X7" s="231"/>
+      <c r="Y7" s="231"/>
+      <c r="Z7" s="231"/>
+      <c r="AA7" s="232"/>
+      <c r="AB7" s="230" t="s">
         <v>222</v>
       </c>
-      <c r="AC7" s="230"/>
-      <c r="AD7" s="230"/>
-      <c r="AE7" s="230"/>
-      <c r="AF7" s="230"/>
-      <c r="AG7" s="230"/>
-      <c r="AH7" s="230"/>
-      <c r="AI7" s="230"/>
-      <c r="AJ7" s="230"/>
-      <c r="AK7" s="230"/>
-      <c r="AL7" s="230"/>
-      <c r="AM7" s="230"/>
-      <c r="AN7" s="230"/>
-      <c r="AO7" s="230"/>
-      <c r="AP7" s="230"/>
-      <c r="AQ7" s="230"/>
-      <c r="AR7" s="231"/>
+      <c r="AC7" s="231"/>
+      <c r="AD7" s="231"/>
+      <c r="AE7" s="231"/>
+      <c r="AF7" s="231"/>
+      <c r="AG7" s="231"/>
+      <c r="AH7" s="231"/>
+      <c r="AI7" s="231"/>
+      <c r="AJ7" s="231"/>
+      <c r="AK7" s="231"/>
+      <c r="AL7" s="231"/>
+      <c r="AM7" s="231"/>
+      <c r="AN7" s="231"/>
+      <c r="AO7" s="231"/>
+      <c r="AP7" s="231"/>
+      <c r="AQ7" s="231"/>
+      <c r="AR7" s="232"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="E9" s="48"/>
@@ -16466,2058 +16889,2134 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431E16EB-4173-4BB0-A744-4BFFE60D57DA}">
-  <dimension ref="A1:AZ82"/>
+  <dimension ref="A1:BA82"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A32" sqref="A32"/>
+      <selection pane="topRight" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="21"/>
-    <col min="3" max="3" width="9.06640625" style="33"/>
-    <col min="4" max="6" width="9.06640625" style="26"/>
-    <col min="7" max="7" width="8.9296875" style="26" customWidth="1"/>
-    <col min="8" max="8" width="11.9296875" style="86" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.9296875" style="86" customWidth="1"/>
-    <col min="10" max="10" width="9.06640625" style="86"/>
-    <col min="11" max="11" width="14" style="86" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.9296875" style="142" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.9296875" style="173" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" style="98"/>
-    <col min="15" max="15" width="10.3984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.3984375" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.796875" style="34" customWidth="1"/>
-    <col min="19" max="19" width="15.796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.86328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.53125" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" style="26" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.3984375" style="26" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" style="34" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.265625" style="207" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.1328125" style="207" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.53125" style="207" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.265625" style="207" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.265625" style="205" customWidth="1"/>
-    <col min="31" max="31" width="9.06640625" style="33"/>
-    <col min="32" max="33" width="9.06640625" style="26"/>
-    <col min="34" max="34" width="9.06640625" style="34"/>
-    <col min="35" max="35" width="9.796875" style="33" customWidth="1"/>
-    <col min="36" max="36" width="8.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="10.53125" style="26" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.33203125" style="168" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.265625" style="169" customWidth="1"/>
-    <col min="42" max="46" width="9.06640625" style="21"/>
-    <col min="47" max="47" width="12.1328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="9.06640625" style="21"/>
+    <col min="1" max="3" width="9.06640625" style="21"/>
+    <col min="4" max="4" width="9.06640625" style="33"/>
+    <col min="5" max="7" width="9.06640625" style="26"/>
+    <col min="8" max="8" width="8.9296875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.9296875" style="86" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.9296875" style="86" customWidth="1"/>
+    <col min="11" max="11" width="9.06640625" style="86"/>
+    <col min="12" max="12" width="14" style="86" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.9296875" style="142" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.9296875" style="173" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" style="98"/>
+    <col min="16" max="16" width="10.3984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.3984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.796875" style="34" customWidth="1"/>
+    <col min="20" max="20" width="15.796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.86328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.53125" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.3984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" style="34" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.265625" style="207" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1328125" style="207" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.53125" style="207" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.265625" style="207" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.265625" style="205" customWidth="1"/>
+    <col min="32" max="32" width="9.06640625" style="33"/>
+    <col min="33" max="34" width="9.06640625" style="26"/>
+    <col min="35" max="35" width="9.06640625" style="34"/>
+    <col min="36" max="36" width="9.796875" style="33" customWidth="1"/>
+    <col min="37" max="37" width="8.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="10.53125" style="26" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.33203125" style="168" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.265625" style="169" customWidth="1"/>
+    <col min="43" max="47" width="9.06640625" style="21"/>
+    <col min="48" max="48" width="12.1328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9.06640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="C1" s="226" t="s">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="D1" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="97"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="97"/>
       <c r="J1" s="97"/>
       <c r="K1" s="97"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60"/>
+      <c r="L1" s="97"/>
+      <c r="P1" s="59"/>
       <c r="Q1" s="60"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="59"/>
       <c r="W1" s="60"/>
       <c r="X1" s="60"/>
-      <c r="Y1" s="61"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AF1" s="59"/>
       <c r="AG1" s="60"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="59"/>
       <c r="AK1" s="60"/>
       <c r="AL1" s="60"/>
       <c r="AM1" s="60"/>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="172"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="C2" s="40" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="172"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="D2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.4">
-      <c r="C3" s="62" t="s">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="D3" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="63"/>
       <c r="E3" s="63"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="133"/>
-      <c r="H3" s="135"/>
+      <c r="H3" s="133"/>
       <c r="I3" s="135"/>
       <c r="J3" s="135"/>
       <c r="K3" s="135"/>
-    </row>
-    <row r="5" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="222" t="s">
+      <c r="L3" s="135"/>
+    </row>
+    <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D6" s="223" t="s">
         <v>664</v>
       </c>
-      <c r="D6" s="223"/>
-      <c r="E6" s="223"/>
+      <c r="E6" s="224"/>
       <c r="F6" s="224"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="99"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="99"/>
       <c r="J6" s="99"/>
       <c r="K6" s="99"/>
       <c r="L6" s="99"/>
       <c r="M6" s="99"/>
       <c r="N6" s="99"/>
-      <c r="O6" s="222" t="s">
+      <c r="O6" s="99"/>
+      <c r="P6" s="223" t="s">
         <v>665</v>
       </c>
-      <c r="P6" s="223"/>
-      <c r="Q6" s="223"/>
+      <c r="Q6" s="224"/>
       <c r="R6" s="224"/>
-      <c r="AE6" s="222" t="s">
+      <c r="S6" s="225"/>
+      <c r="AF6" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="AF6" s="223"/>
-      <c r="AG6" s="223"/>
+      <c r="AG6" s="224"/>
       <c r="AH6" s="224"/>
-      <c r="AI6" s="167"/>
-      <c r="AJ6" s="222" t="s">
+      <c r="AI6" s="225"/>
+      <c r="AJ6" s="167"/>
+      <c r="AK6" s="223" t="s">
         <v>663</v>
       </c>
-      <c r="AK6" s="223"/>
-      <c r="AL6" s="223"/>
-      <c r="AM6" s="223"/>
-      <c r="AN6" s="223"/>
+      <c r="AL6" s="224"/>
+      <c r="AM6" s="224"/>
+      <c r="AN6" s="224"/>
       <c r="AO6" s="224"/>
-    </row>
-    <row r="7" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="35" t="s">
+      <c r="AP6" s="225"/>
+    </row>
+    <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="F7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="G7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="136"/>
-      <c r="H7" s="99"/>
+      <c r="H7" s="136"/>
       <c r="I7" s="99"/>
       <c r="J7" s="99"/>
       <c r="K7" s="99"/>
       <c r="L7" s="99"/>
       <c r="M7" s="99"/>
       <c r="N7" s="99"/>
-      <c r="O7" s="47" t="s">
+      <c r="O7" s="99"/>
+      <c r="P7" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="136" t="s">
+      <c r="Q7" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="136" t="s">
+      <c r="R7" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="137" t="s">
+      <c r="S7" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="167"/>
-      <c r="T7" s="169"/>
-      <c r="U7" s="167"/>
-      <c r="V7" s="168"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="167"/>
       <c r="W7" s="168"/>
       <c r="X7" s="168"/>
-      <c r="Y7" s="169"/>
-      <c r="AE7" s="47" t="s">
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="169"/>
+      <c r="AF7" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AF7" s="143" t="s">
+      <c r="AG7" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="AG7" s="143" t="s">
+      <c r="AH7" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="AH7" s="144" t="s">
+      <c r="AI7" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="AI7" s="167"/>
-      <c r="AJ7" s="168" t="s">
+      <c r="AJ7" s="167"/>
+      <c r="AK7" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="168" t="s">
+      <c r="AL7" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="AL7" s="168" t="s">
+      <c r="AM7" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="AM7" s="168" t="s">
+      <c r="AN7" s="168" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="40"/>
-      <c r="D8" s="38"/>
+    <row r="8" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="40"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="99"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="136"/>
       <c r="I8" s="99"/>
       <c r="J8" s="99"/>
       <c r="K8" s="99"/>
-      <c r="L8" s="233" t="s">
+      <c r="L8" s="99"/>
+      <c r="M8" s="234" t="s">
         <v>548</v>
       </c>
-      <c r="M8" s="233"/>
-      <c r="N8" s="233"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="133"/>
+      <c r="N8" s="234"/>
+      <c r="O8" s="234"/>
+      <c r="P8" s="132"/>
       <c r="Q8" s="133"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="167"/>
-      <c r="T8" s="169"/>
-      <c r="U8" s="167"/>
-      <c r="V8" s="168"/>
+      <c r="R8" s="133"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="169"/>
+      <c r="V8" s="167"/>
       <c r="W8" s="168"/>
       <c r="X8" s="168"/>
-      <c r="Y8" s="169"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="140"/>
+      <c r="Y8" s="168"/>
+      <c r="Z8" s="169"/>
+      <c r="AF8" s="139"/>
       <c r="AG8" s="140"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="168"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="141"/>
+      <c r="AJ8" s="167"/>
       <c r="AK8" s="168"/>
       <c r="AL8" s="168"/>
       <c r="AM8" s="168"/>
-      <c r="AP8" s="219" t="s">
+      <c r="AN8" s="168"/>
+      <c r="AQ8" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="AQ8" s="220"/>
-      <c r="AR8" s="220"/>
+      <c r="AR8" s="221"/>
       <c r="AS8" s="221"/>
-    </row>
-    <row r="9" spans="1:48" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="40"/>
-      <c r="D9" s="38"/>
+      <c r="AT8" s="222"/>
+    </row>
+    <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="40"/>
       <c r="E9" s="38"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="135"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="133"/>
       <c r="I9" s="135"/>
       <c r="J9" s="135"/>
       <c r="K9" s="135"/>
-      <c r="L9" s="235" t="s">
+      <c r="L9" s="135"/>
+      <c r="M9" s="236" t="s">
         <v>549</v>
       </c>
-      <c r="M9" s="235"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
+      <c r="N9" s="236"/>
+      <c r="O9" s="235"/>
+      <c r="P9" s="132"/>
       <c r="Q9" s="133"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="167"/>
-      <c r="T9" s="169"/>
-      <c r="U9" s="167"/>
-      <c r="V9" s="168"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="134"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="169"/>
+      <c r="V9" s="167"/>
       <c r="W9" s="168"/>
       <c r="X9" s="168"/>
-      <c r="Y9" s="169"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="140"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="169"/>
+      <c r="AF9" s="139"/>
       <c r="AG9" s="140"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="168"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="141"/>
+      <c r="AJ9" s="167"/>
       <c r="AK9" s="168"/>
       <c r="AL9" s="168"/>
       <c r="AM9" s="168"/>
-      <c r="AP9" s="64" t="s">
+      <c r="AN9" s="168"/>
+      <c r="AQ9" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="AQ9" s="38" t="s">
+      <c r="AR9" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AR9" s="38" t="s">
+      <c r="AS9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AS9" s="34"/>
-    </row>
-    <row r="10" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="40"/>
-      <c r="D10" s="38"/>
+      <c r="AT9" s="34"/>
+    </row>
+    <row r="10" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="40"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="135"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="133"/>
       <c r="I10" s="135"/>
       <c r="J10" s="135"/>
       <c r="K10" s="135"/>
-      <c r="L10" s="232"/>
-      <c r="M10" s="232"/>
-      <c r="N10" s="232"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="133"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="233"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="132"/>
       <c r="Q10" s="133"/>
-      <c r="R10" s="134"/>
-      <c r="S10" s="183"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="183"/>
-      <c r="V10" s="173"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="183"/>
       <c r="W10" s="173"/>
       <c r="X10" s="173"/>
-      <c r="Y10" s="175"/>
-      <c r="Z10" s="205"/>
+      <c r="Y10" s="173"/>
+      <c r="Z10" s="175"/>
       <c r="AA10" s="205"/>
       <c r="AB10" s="205"/>
       <c r="AC10" s="205"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="140"/>
+      <c r="AD10" s="205"/>
+      <c r="AF10" s="139"/>
       <c r="AG10" s="140"/>
-      <c r="AH10" s="141"/>
-      <c r="AI10" s="167"/>
-      <c r="AJ10" s="168"/>
+      <c r="AH10" s="140"/>
+      <c r="AI10" s="141"/>
+      <c r="AJ10" s="167"/>
       <c r="AK10" s="168"/>
       <c r="AL10" s="168"/>
       <c r="AM10" s="168"/>
-      <c r="AP10" s="219" t="s">
+      <c r="AN10" s="168"/>
+      <c r="AQ10" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="AQ10" s="220"/>
-      <c r="AR10" s="220"/>
+      <c r="AR10" s="221"/>
       <c r="AS10" s="221"/>
-    </row>
-    <row r="11" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="40"/>
-      <c r="D11" s="38"/>
+      <c r="AT10" s="222"/>
+    </row>
+    <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D11" s="40"/>
       <c r="E11" s="38"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="135"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="133"/>
       <c r="I11" s="135"/>
       <c r="J11" s="135"/>
       <c r="K11" s="135"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
+      <c r="L11" s="135"/>
+      <c r="P11" s="132"/>
       <c r="Q11" s="133"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="183"/>
-      <c r="T11" s="175"/>
-      <c r="U11" s="183"/>
-      <c r="V11" s="173"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="183"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="183"/>
       <c r="W11" s="173"/>
       <c r="X11" s="173"/>
-      <c r="Y11" s="175"/>
-      <c r="Z11" s="205"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="175"/>
       <c r="AA11" s="205"/>
       <c r="AB11" s="205"/>
       <c r="AC11" s="205"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="140"/>
+      <c r="AD11" s="205"/>
+      <c r="AF11" s="139"/>
       <c r="AG11" s="140"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="167"/>
-      <c r="AJ11" s="168"/>
+      <c r="AH11" s="140"/>
+      <c r="AI11" s="141"/>
+      <c r="AJ11" s="167"/>
       <c r="AK11" s="168"/>
       <c r="AL11" s="168"/>
       <c r="AM11" s="168"/>
-      <c r="AP11" s="219" t="s">
+      <c r="AN11" s="168"/>
+      <c r="AQ11" s="220" t="s">
         <v>662</v>
       </c>
-      <c r="AQ11" s="220"/>
-      <c r="AR11" s="220"/>
+      <c r="AR11" s="221"/>
       <c r="AS11" s="221"/>
-      <c r="AT11" s="26" t="s">
+      <c r="AT11" s="222"/>
+      <c r="AU11" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="AU11" s="21" t="s">
+      <c r="AV11" s="21" t="s">
         <v>657</v>
       </c>
-      <c r="AV11" s="21" t="s">
+      <c r="AW11" s="21" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="131" t="s">
         <v>661</v>
       </c>
       <c r="B12" s="88"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="136"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="136"/>
       <c r="F12" s="136"/>
       <c r="G12" s="136"/>
-      <c r="H12" s="99"/>
+      <c r="H12" s="136"/>
       <c r="I12" s="99"/>
       <c r="J12" s="99"/>
       <c r="K12" s="99"/>
-      <c r="L12" s="236" t="s">
+      <c r="L12" s="99"/>
+      <c r="M12" s="237" t="s">
         <v>547</v>
       </c>
-      <c r="M12" s="236"/>
-      <c r="N12" s="236"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="237"/>
+      <c r="P12" s="132"/>
       <c r="Q12" s="133"/>
-      <c r="R12" s="134"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="140"/>
+      <c r="R12" s="133"/>
+      <c r="S12" s="134"/>
+      <c r="AF12" s="139"/>
       <c r="AG12" s="140"/>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="167"/>
-      <c r="AJ12" s="168"/>
+      <c r="AH12" s="140"/>
+      <c r="AI12" s="141"/>
+      <c r="AJ12" s="167"/>
       <c r="AK12" s="168"/>
       <c r="AL12" s="168"/>
       <c r="AM12" s="168"/>
-      <c r="AP12" s="219" t="s">
+      <c r="AN12" s="168"/>
+      <c r="AQ12" s="220" t="s">
         <v>546</v>
       </c>
-      <c r="AQ12" s="220"/>
-      <c r="AR12" s="220"/>
+      <c r="AR12" s="221"/>
       <c r="AS12" s="221"/>
-      <c r="AU12" s="21" t="s">
+      <c r="AT12" s="222"/>
+      <c r="AV12" s="21" t="s">
         <v>658</v>
       </c>
-      <c r="AV12" s="21">
+      <c r="AW12" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="163">
         <v>0</v>
       </c>
       <c r="B13" s="145" t="s">
         <v>541</v>
       </c>
-      <c r="C13" s="222" t="s">
+      <c r="C13" s="145"/>
+      <c r="D13" s="223" t="s">
         <v>550</v>
       </c>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="181" t="s">
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="181" t="s">
         <v>676</v>
       </c>
-      <c r="H13" s="161" t="s">
+      <c r="I13" s="161" t="s">
         <v>668</v>
       </c>
-      <c r="I13" s="161" t="s">
+      <c r="J13" s="161" t="s">
         <v>675</v>
       </c>
-      <c r="J13" s="161" t="s">
+      <c r="K13" s="161" t="s">
         <v>667</v>
       </c>
-      <c r="K13" s="161" t="s">
+      <c r="L13" s="161" t="s">
         <v>722</v>
       </c>
-      <c r="L13" s="177" t="s">
+      <c r="M13" s="177" t="s">
         <v>690</v>
       </c>
-      <c r="M13" s="201"/>
-      <c r="N13" s="194" t="s">
+      <c r="N13" s="201"/>
+      <c r="O13" s="194" t="s">
         <v>680</v>
       </c>
-      <c r="O13" s="222" t="s">
+      <c r="P13" s="223" t="s">
         <v>551</v>
       </c>
-      <c r="P13" s="223"/>
-      <c r="Q13" s="223"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="184" t="s">
+      <c r="Q13" s="224"/>
+      <c r="R13" s="224"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="184" t="s">
         <v>717</v>
       </c>
-      <c r="T13" s="185" t="s">
+      <c r="U13" s="185" t="s">
         <v>688</v>
       </c>
-      <c r="U13" s="198" t="s">
+      <c r="V13" s="198" t="s">
         <v>681</v>
       </c>
-      <c r="V13" s="161" t="s">
+      <c r="W13" s="161" t="s">
         <v>687</v>
       </c>
-      <c r="W13" s="184" t="s">
+      <c r="X13" s="184" t="s">
         <v>691</v>
       </c>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="199" t="s">
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="199" t="s">
         <v>677</v>
       </c>
-      <c r="Z13" s="151" t="s">
+      <c r="AA13" s="151" t="s">
         <v>692</v>
       </c>
-      <c r="AA13" s="151" t="s">
+      <c r="AB13" s="151" t="s">
         <v>693</v>
       </c>
-      <c r="AB13" s="151" t="s">
+      <c r="AC13" s="151" t="s">
         <v>694</v>
       </c>
-      <c r="AC13" s="151"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="63"/>
+      <c r="AD13" s="151"/>
+      <c r="AF13" s="62"/>
       <c r="AG13" s="63"/>
-      <c r="AH13" s="46"/>
-      <c r="AI13" s="167"/>
-      <c r="AJ13" s="219" t="s">
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="167"/>
+      <c r="AK13" s="220" t="s">
         <v>550</v>
       </c>
-      <c r="AK13" s="220"/>
-      <c r="AL13" s="220"/>
-      <c r="AM13" s="220"/>
-      <c r="AP13" s="219" t="s">
+      <c r="AL13" s="221"/>
+      <c r="AM13" s="221"/>
+      <c r="AN13" s="221"/>
+      <c r="AQ13" s="220" t="s">
         <v>655</v>
       </c>
-      <c r="AQ13" s="218"/>
-      <c r="AR13" s="218"/>
-      <c r="AS13" s="218"/>
-      <c r="AU13" s="21" t="s">
+      <c r="AR13" s="219"/>
+      <c r="AS13" s="219"/>
+      <c r="AT13" s="219"/>
+      <c r="AV13" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="AV13" s="21">
+      <c r="AW13" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A14" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="132"/>
-      <c r="D14" s="133"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="133"/>
       <c r="F14" s="133"/>
       <c r="G14" s="133"/>
-      <c r="H14" s="135"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="135"/>
       <c r="J14" s="135"/>
       <c r="K14" s="135"/>
-      <c r="L14" s="191" t="s">
+      <c r="L14" s="135"/>
+      <c r="M14" s="191" t="s">
         <v>714</v>
       </c>
-      <c r="M14" s="191">
+      <c r="N14" s="191">
         <v>0</v>
       </c>
-      <c r="N14" s="156"/>
-      <c r="O14" s="26"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="175"/>
-      <c r="U14" s="183"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="117" t="s">
+      <c r="O14" s="156"/>
+      <c r="P14" s="26"/>
+      <c r="T14" s="183"/>
+      <c r="U14" s="175"/>
+      <c r="V14" s="183"/>
+      <c r="W14" s="173"/>
+      <c r="X14" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="X14" s="191">
+      <c r="Y14" s="191">
         <v>0</v>
       </c>
-      <c r="Y14" s="175">
+      <c r="Z14" s="175">
         <v>0</v>
       </c>
-      <c r="Z14" s="205"/>
       <c r="AA14" s="205"/>
       <c r="AB14" s="205"/>
       <c r="AC14" s="205"/>
-      <c r="AE14" s="139"/>
-      <c r="AF14" s="140"/>
+      <c r="AD14" s="205"/>
+      <c r="AF14" s="139"/>
       <c r="AG14" s="140"/>
-      <c r="AH14" s="141"/>
-      <c r="AJ14" s="168"/>
+      <c r="AH14" s="140"/>
+      <c r="AI14" s="141"/>
       <c r="AK14" s="168"/>
       <c r="AL14" s="168"/>
       <c r="AM14" s="168"/>
-      <c r="AU14" s="21" t="s">
+      <c r="AN14" s="168"/>
+      <c r="AV14" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="AV14" s="21">
+      <c r="AW14" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="165" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="165"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="132"/>
       <c r="E15" s="133"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="135"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="133"/>
       <c r="I15" s="135"/>
       <c r="J15" s="135"/>
-      <c r="K15" s="148" t="s">
+      <c r="K15" s="135"/>
+      <c r="L15" s="148" t="s">
         <v>669</v>
       </c>
-      <c r="L15" s="191" t="s">
+      <c r="M15" s="191" t="s">
         <v>715</v>
       </c>
-      <c r="M15" s="191"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="133"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="168"/>
       <c r="Q15" s="133"/>
-      <c r="R15" s="134"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="109" t="s">
+      <c r="R15" s="133"/>
+      <c r="S15" s="134"/>
+      <c r="V15" s="183"/>
+      <c r="W15" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="W15" s="117" t="s">
+      <c r="X15" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="175"/>
-      <c r="Z15" s="205"/>
+      <c r="Y15" s="191"/>
+      <c r="Z15" s="175"/>
       <c r="AA15" s="205"/>
       <c r="AB15" s="205"/>
       <c r="AC15" s="205"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="140"/>
+      <c r="AD15" s="205"/>
+      <c r="AF15" s="139"/>
       <c r="AG15" s="140"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="167"/>
-      <c r="AJ15" s="168"/>
+      <c r="AH15" s="140"/>
+      <c r="AI15" s="141"/>
+      <c r="AJ15" s="167"/>
       <c r="AK15" s="168"/>
       <c r="AL15" s="168"/>
       <c r="AM15" s="168"/>
-    </row>
-    <row r="16" spans="1:48" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AN15" s="168"/>
+    </row>
+    <row r="16" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="165" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="165"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="133"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="133"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="152">
+      <c r="F16" s="133"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="152">
         <v>0</v>
       </c>
-      <c r="J16" s="148" t="s">
+      <c r="K16" s="148" t="s">
         <v>669</v>
       </c>
-      <c r="K16" s="148" t="s">
+      <c r="L16" s="148" t="s">
         <v>670</v>
       </c>
-      <c r="L16" s="191" t="s">
+      <c r="M16" s="191" t="s">
         <v>716</v>
       </c>
-      <c r="M16" s="191" t="s">
+      <c r="N16" s="191" t="s">
         <v>718</v>
       </c>
-      <c r="N16" s="117"/>
-      <c r="O16" s="168"/>
-      <c r="P16" s="133"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="168"/>
       <c r="Q16" s="133"/>
-      <c r="R16" s="134"/>
-      <c r="S16" s="183"/>
-      <c r="T16" s="116" t="s">
+      <c r="R16" s="133"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="183"/>
+      <c r="U16" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="U16" s="191" t="s">
+      <c r="V16" s="191" t="s">
         <v>111</v>
       </c>
-      <c r="V16" s="152"/>
-      <c r="W16" s="117" t="s">
+      <c r="W16" s="152"/>
+      <c r="X16" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="X16" s="191" t="s">
+      <c r="Y16" s="191" t="s">
         <v>718</v>
       </c>
-      <c r="Y16" s="175"/>
-      <c r="Z16" s="205"/>
+      <c r="Z16" s="175"/>
       <c r="AA16" s="205"/>
       <c r="AB16" s="205"/>
       <c r="AC16" s="205"/>
-      <c r="AE16" s="139"/>
-      <c r="AF16" s="140"/>
+      <c r="AD16" s="205"/>
+      <c r="AF16" s="139"/>
       <c r="AG16" s="140"/>
-      <c r="AH16" s="141"/>
-      <c r="AI16" s="167"/>
-      <c r="AJ16" s="168"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="141"/>
+      <c r="AJ16" s="167"/>
       <c r="AK16" s="168"/>
       <c r="AL16" s="168"/>
       <c r="AM16" s="168"/>
-      <c r="AN16" s="173" t="s">
+      <c r="AN16" s="168"/>
+      <c r="AO16" s="173" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="165" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="165"/>
-      <c r="D17" s="133"/>
+      <c r="C17" s="165"/>
       <c r="E17" s="133"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="152">
+      <c r="F17" s="133"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="152">
         <v>0</v>
       </c>
-      <c r="H17" s="148" t="s">
+      <c r="I17" s="148" t="s">
         <v>669</v>
       </c>
-      <c r="I17" s="152"/>
-      <c r="J17" s="148" t="s">
+      <c r="J17" s="152"/>
+      <c r="K17" s="148" t="s">
         <v>670</v>
       </c>
-      <c r="K17" s="148" t="s">
+      <c r="L17" s="148" t="s">
         <v>671</v>
       </c>
-      <c r="L17" s="191"/>
       <c r="M17" s="191"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="133"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="168"/>
       <c r="Q17" s="133"/>
-      <c r="R17" s="134"/>
-      <c r="S17" s="186" t="s">
+      <c r="R17" s="133"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="T17" s="187"/>
-      <c r="U17" s="186"/>
-      <c r="V17" s="152"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="175"/>
-      <c r="Z17" s="205"/>
+      <c r="U17" s="187"/>
+      <c r="V17" s="186"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="175"/>
       <c r="AA17" s="205"/>
       <c r="AB17" s="205"/>
       <c r="AC17" s="205"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="140"/>
+      <c r="AD17" s="205"/>
+      <c r="AF17" s="139"/>
       <c r="AG17" s="140"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="167"/>
-      <c r="AJ17" s="168"/>
+      <c r="AH17" s="140"/>
+      <c r="AI17" s="141"/>
+      <c r="AJ17" s="167"/>
       <c r="AK17" s="168"/>
       <c r="AL17" s="168"/>
       <c r="AM17" s="168"/>
-      <c r="AO17" s="175"/>
-      <c r="AP17" s="26"/>
+      <c r="AN17" s="168"/>
+      <c r="AP17" s="175"/>
       <c r="AQ17" s="26"/>
       <c r="AR17" s="26"/>
       <c r="AS17" s="26"/>
-    </row>
-    <row r="18" spans="1:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AT17" s="26"/>
+    </row>
+    <row r="18" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="165" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="165"/>
-      <c r="F18" s="80" t="s">
+      <c r="C18" s="165"/>
+      <c r="G18" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="148" t="s">
+      <c r="H18" s="152"/>
+      <c r="I18" s="148" t="s">
         <v>670</v>
       </c>
-      <c r="I18" s="152"/>
-      <c r="J18" s="148" t="s">
+      <c r="J18" s="152"/>
+      <c r="K18" s="148" t="s">
         <v>671</v>
       </c>
-      <c r="K18" s="148" t="s">
+      <c r="L18" s="148" t="s">
         <v>672</v>
       </c>
-      <c r="L18" s="191"/>
       <c r="M18" s="191"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="94" t="s">
+      <c r="N18" s="191"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="S18" s="186"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="186"/>
-      <c r="V18" s="176"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="205"/>
+      <c r="T18" s="186"/>
+      <c r="U18" s="187"/>
+      <c r="V18" s="186"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="87"/>
       <c r="AA18" s="205"/>
       <c r="AB18" s="205"/>
       <c r="AC18" s="205"/>
-      <c r="AI18" s="167"/>
-      <c r="AN18" s="173"/>
-      <c r="AO18" s="175"/>
-    </row>
-    <row r="19" spans="1:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AD18" s="205"/>
+      <c r="AJ18" s="167"/>
+      <c r="AO18" s="173"/>
+      <c r="AP18" s="175"/>
+    </row>
+    <row r="19" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="165" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="165"/>
-      <c r="E19" s="80" t="s">
+      <c r="C19" s="165"/>
+      <c r="F19" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="G19" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="152"/>
-      <c r="H19" s="148" t="s">
+      <c r="H19" s="152"/>
+      <c r="I19" s="148" t="s">
         <v>671</v>
       </c>
-      <c r="I19" s="176"/>
-      <c r="J19" s="148" t="s">
+      <c r="J19" s="176"/>
+      <c r="K19" s="148" t="s">
         <v>672</v>
       </c>
-      <c r="K19" s="148" t="s">
+      <c r="L19" s="148" t="s">
         <v>673</v>
       </c>
-      <c r="L19" s="191"/>
       <c r="M19" s="191"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="94" t="s">
+      <c r="N19" s="191"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="P19" s="94" t="s">
+      <c r="Q19" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="S19" s="186"/>
-      <c r="T19" s="188"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="205"/>
+      <c r="T19" s="186"/>
+      <c r="U19" s="188"/>
+      <c r="V19" s="190"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="87"/>
       <c r="AA19" s="205"/>
       <c r="AB19" s="205"/>
       <c r="AC19" s="205"/>
-      <c r="AO19" s="175"/>
-    </row>
-    <row r="20" spans="1:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AD19" s="205"/>
+      <c r="AP19" s="175"/>
+    </row>
+    <row r="20" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="165" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="165"/>
-      <c r="D20" s="80" t="s">
+      <c r="C20" s="165"/>
+      <c r="E20" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="F20" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="G20" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="176"/>
-      <c r="H20" s="148" t="s">
+      <c r="H20" s="176"/>
+      <c r="I20" s="148" t="s">
         <v>672</v>
       </c>
-      <c r="I20" s="176"/>
-      <c r="J20" s="148" t="s">
+      <c r="J20" s="176"/>
+      <c r="K20" s="148" t="s">
         <v>673</v>
       </c>
-      <c r="K20" s="148" t="s">
+      <c r="L20" s="148" t="s">
         <v>674</v>
       </c>
-      <c r="L20" s="183"/>
       <c r="M20" s="183"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="94" t="s">
+      <c r="N20" s="183"/>
+      <c r="O20" s="178"/>
+      <c r="P20" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="P20" s="94" t="s">
+      <c r="Q20" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="Q20" s="94" t="s">
+      <c r="R20" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="W20" s="86"/>
       <c r="X20" s="86"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="205"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="87"/>
       <c r="AA20" s="205"/>
       <c r="AB20" s="205"/>
       <c r="AC20" s="205"/>
-      <c r="AM20" s="86"/>
-      <c r="AO20" s="175"/>
-    </row>
-    <row r="21" spans="1:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AD20" s="205"/>
+      <c r="AN20" s="86"/>
+      <c r="AP20" s="175"/>
+    </row>
+    <row r="21" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="165" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="165"/>
-      <c r="D21" s="80" t="s">
+      <c r="C21" s="165"/>
+      <c r="E21" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="F21" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="176"/>
-      <c r="H21" s="148" t="s">
+      <c r="H21" s="176"/>
+      <c r="I21" s="148" t="s">
         <v>673</v>
       </c>
-      <c r="I21" s="176"/>
-      <c r="J21" s="148" t="s">
+      <c r="J21" s="176"/>
+      <c r="K21" s="148" t="s">
         <v>674</v>
       </c>
-      <c r="L21" s="183"/>
       <c r="M21" s="183"/>
-      <c r="N21" s="178"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="94" t="s">
+      <c r="N21" s="183"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="Q21" s="94" t="s">
+      <c r="R21" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="S21" s="189"/>
-      <c r="T21" s="188"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="86"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="34"/>
-    </row>
-    <row r="22" spans="1:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T21" s="189"/>
+      <c r="U21" s="188"/>
+      <c r="V21" s="190"/>
+      <c r="W21" s="86"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="34"/>
+    </row>
+    <row r="22" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="165" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="165"/>
-      <c r="D22" s="80" t="s">
+      <c r="C22" s="165"/>
+      <c r="E22" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="176"/>
-      <c r="H22" s="148" t="s">
+      <c r="H22" s="176"/>
+      <c r="I22" s="148" t="s">
         <v>674</v>
       </c>
-      <c r="L22" s="183"/>
       <c r="M22" s="183"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="26"/>
-      <c r="Q22" s="94" t="s">
+      <c r="N22" s="183"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="26"/>
+      <c r="R22" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="S22" s="189"/>
-      <c r="T22" s="188"/>
-      <c r="U22" s="190"/>
-      <c r="V22" s="86"/>
-      <c r="AL22" s="86"/>
-      <c r="AN22" s="173"/>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="T22" s="189"/>
+      <c r="U22" s="188"/>
+      <c r="V22" s="190"/>
+      <c r="W22" s="86"/>
+      <c r="AM22" s="86"/>
+      <c r="AO22" s="173"/>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A23" s="165" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="88"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="167"/>
+      <c r="C23" s="88"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="167"/>
-      <c r="N23" s="195"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="190"/>
-      <c r="AI23" s="33" t="s">
+      <c r="N23" s="167"/>
+      <c r="O23" s="195"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="190"/>
+      <c r="AJ23" s="33" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:52" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="165" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="165"/>
-      <c r="H24" s="26"/>
+      <c r="C24" s="165"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
-      <c r="L24" s="167"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="167"/>
-      <c r="N24" s="196"/>
-      <c r="O24" s="26"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="190"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="202" t="s">
+      <c r="N24" s="167"/>
+      <c r="O24" s="196"/>
+      <c r="P24" s="26"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="190"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="202" t="s">
         <v>71</v>
       </c>
-      <c r="X24" s="152" t="s">
+      <c r="Y24" s="152" t="s">
         <v>737</v>
       </c>
-      <c r="AN24" s="173" t="s">
+      <c r="AO24" s="173" t="s">
         <v>678</v>
       </c>
-      <c r="AO24" s="175"/>
-    </row>
-    <row r="25" spans="1:51" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AP24" s="175"/>
+    </row>
+    <row r="25" spans="1:52" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="165" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="165"/>
-      <c r="H25" s="26"/>
+      <c r="C25" s="165"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="167"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="167"/>
-      <c r="N25" s="196"/>
-      <c r="O25" s="26"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="190"/>
-      <c r="V25" s="202" t="s">
+      <c r="N25" s="167"/>
+      <c r="O25" s="196"/>
+      <c r="P25" s="26"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="190"/>
+      <c r="W25" s="202" t="s">
         <v>71</v>
       </c>
-      <c r="W25" s="168"/>
       <c r="X25" s="168"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="205"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="87"/>
       <c r="AA25" s="205"/>
       <c r="AB25" s="205"/>
       <c r="AC25" s="205"/>
-      <c r="AK25" s="86"/>
-      <c r="AM25" s="79" t="s">
+      <c r="AD25" s="205"/>
+      <c r="AL25" s="86"/>
+      <c r="AN25" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="AN25" s="173" t="s">
+      <c r="AO25" s="173" t="s">
         <v>679</v>
       </c>
-      <c r="AO25" s="175"/>
-    </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="AP25" s="175"/>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A26" s="165" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="165"/>
-      <c r="H26" s="26"/>
+      <c r="C26" s="165"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
-      <c r="L26" s="167"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="167"/>
-      <c r="N26" s="196"/>
-      <c r="O26" s="26"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="190"/>
-      <c r="W26" s="202" t="s">
+      <c r="N26" s="167"/>
+      <c r="O26" s="196"/>
+      <c r="P26" s="26"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="190"/>
+      <c r="X26" s="202" t="s">
         <v>72</v>
       </c>
-      <c r="X26" s="152" t="s">
+      <c r="Y26" s="152" t="s">
         <v>738</v>
       </c>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="205"/>
+      <c r="Z26" s="87"/>
       <c r="AA26" s="205"/>
       <c r="AB26" s="205"/>
       <c r="AC26" s="205"/>
-      <c r="AL26" s="79" t="s">
+      <c r="AD26" s="205"/>
+      <c r="AM26" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="AN26" s="173" t="s">
+      <c r="AO26" s="173" t="s">
         <v>678</v>
       </c>
-      <c r="AO26" s="175"/>
-      <c r="AY26" s="146"/>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="AP26" s="175"/>
+      <c r="AZ26" s="146"/>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A27" s="165" t="s">
         <v>84</v>
       </c>
       <c r="B27" s="165"/>
-      <c r="H27" s="26"/>
+      <c r="C27" s="165"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="167"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="167"/>
-      <c r="N27" s="196"/>
-      <c r="O27" s="26"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="190"/>
-      <c r="V27" s="202" t="s">
+      <c r="N27" s="167"/>
+      <c r="O27" s="196"/>
+      <c r="P27" s="26"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="190"/>
+      <c r="W27" s="202" t="s">
         <v>72</v>
       </c>
-      <c r="W27" s="168"/>
       <c r="X27" s="168"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="205"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="87"/>
       <c r="AA27" s="205"/>
       <c r="AB27" s="205"/>
       <c r="AC27" s="205"/>
-      <c r="AK27" s="79" t="s">
+      <c r="AD27" s="205"/>
+      <c r="AL27" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="AM27" s="79" t="s">
+      <c r="AN27" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="AN27" s="173" t="s">
+      <c r="AO27" s="173" t="s">
         <v>679</v>
       </c>
-      <c r="AO27" s="175"/>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="AP27" s="175"/>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A28" s="165" t="s">
         <v>82</v>
       </c>
       <c r="B28" s="165"/>
-      <c r="H28" s="26"/>
+      <c r="C28" s="165"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
-      <c r="L28" s="167"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="167"/>
-      <c r="N28" s="196"/>
-      <c r="O28" s="26"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="190"/>
-      <c r="W28" s="202" t="s">
+      <c r="N28" s="167"/>
+      <c r="O28" s="196"/>
+      <c r="P28" s="26"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="190"/>
+      <c r="X28" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="X28" s="152" t="s">
+      <c r="Y28" s="152" t="s">
         <v>739</v>
       </c>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="205"/>
+      <c r="Z28" s="87"/>
       <c r="AA28" s="205"/>
       <c r="AB28" s="205"/>
       <c r="AC28" s="205"/>
-      <c r="AL28" s="79" t="s">
+      <c r="AD28" s="205"/>
+      <c r="AM28" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="AN28" s="173" t="s">
+      <c r="AO28" s="173" t="s">
         <v>678</v>
       </c>
-      <c r="AO28" s="175"/>
-    </row>
-    <row r="29" spans="1:51" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AP28" s="175"/>
+    </row>
+    <row r="29" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="165" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="88"/>
-      <c r="C29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
-      <c r="L29" s="167"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="167"/>
-      <c r="N29" s="196"/>
-      <c r="O29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="202" t="s">
+      <c r="N29" s="167"/>
+      <c r="O29" s="196"/>
+      <c r="P29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="205"/>
+      <c r="Z29" s="87"/>
       <c r="AA29" s="205"/>
       <c r="AB29" s="205"/>
       <c r="AC29" s="205"/>
-      <c r="AK29" s="79" t="s">
+      <c r="AD29" s="205"/>
+      <c r="AL29" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="AM29" s="79" t="s">
+      <c r="AN29" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="AN29" s="173" t="s">
+      <c r="AO29" s="173" t="s">
         <v>679</v>
       </c>
-      <c r="AO29" s="169" t="s">
+      <c r="AP29" s="169" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="30" spans="1:51" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="165" t="s">
+    <row r="30" spans="1:52" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="168"/>
+      <c r="D30" s="167"/>
       <c r="E30" s="168"/>
       <c r="F30" s="168"/>
       <c r="G30" s="168"/>
-      <c r="H30" s="173"/>
+      <c r="H30" s="168"/>
       <c r="I30" s="173"/>
       <c r="J30" s="173"/>
       <c r="K30" s="173"/>
-      <c r="L30" s="168"/>
+      <c r="L30" s="173"/>
       <c r="M30" s="168"/>
-      <c r="O30" s="168"/>
+      <c r="N30" s="168"/>
       <c r="P30" s="168"/>
       <c r="Q30" s="168"/>
-      <c r="R30" s="34"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="190"/>
-      <c r="W30" s="86"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="34"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="190"/>
       <c r="X30" s="86"/>
       <c r="Y30" s="86"/>
-      <c r="Z30" s="205"/>
+      <c r="Z30" s="86"/>
       <c r="AA30" s="205"/>
       <c r="AB30" s="205"/>
       <c r="AC30" s="205"/>
       <c r="AD30" s="205"/>
-      <c r="AE30" s="33"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="33"/>
-      <c r="AL30" s="79" t="s">
+      <c r="AE30" s="205"/>
+      <c r="AF30" s="33"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="33"/>
+      <c r="AM30" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="AN30" s="173"/>
-      <c r="AO30" s="175"/>
-      <c r="AQ30" s="234"/>
-      <c r="AR30" s="234"/>
-    </row>
-    <row r="31" spans="1:51" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AO30" s="173"/>
+      <c r="AP30" s="175"/>
+      <c r="AR30" s="235"/>
+      <c r="AS30" s="235"/>
+    </row>
+    <row r="31" spans="1:52" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="213" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="210"/>
+      <c r="B31" s="200" t="s">
+        <v>542</v>
+      </c>
+      <c r="C31" s="200"/>
       <c r="D31" s="210"/>
       <c r="E31" s="210"/>
       <c r="F31" s="210"/>
       <c r="G31" s="210"/>
-      <c r="H31" s="99"/>
+      <c r="H31" s="210"/>
       <c r="I31" s="99"/>
       <c r="J31" s="99"/>
       <c r="K31" s="99"/>
-      <c r="L31" s="210"/>
+      <c r="L31" s="99"/>
       <c r="M31" s="210"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="210"/>
+      <c r="N31" s="210"/>
+      <c r="O31" s="28"/>
       <c r="P31" s="210"/>
       <c r="Q31" s="210"/>
-      <c r="R31" s="28"/>
+      <c r="R31" s="210"/>
       <c r="S31" s="28"/>
-      <c r="T31" s="119"/>
+      <c r="T31" s="28"/>
       <c r="U31" s="119"/>
       <c r="V31" s="119"/>
       <c r="W31" s="119"/>
       <c r="X31" s="119"/>
       <c r="Y31" s="119"/>
-      <c r="Z31" s="205"/>
+      <c r="Z31" s="119"/>
       <c r="AA31" s="205"/>
       <c r="AB31" s="205"/>
       <c r="AC31" s="205"/>
       <c r="AD31" s="205"/>
-      <c r="AK31" s="80" t="s">
+      <c r="AE31" s="205"/>
+      <c r="AL31" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="AL31" s="28"/>
       <c r="AM31" s="28"/>
-      <c r="AN31" s="174"/>
-      <c r="AO31" s="99"/>
-      <c r="AQ31" s="205"/>
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="174"/>
+      <c r="AP31" s="99"/>
       <c r="AR31" s="205"/>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="AS31" s="205"/>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A32" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="200" t="s">
-        <v>542</v>
-      </c>
-      <c r="L32" s="191" t="s">
+      <c r="B32" s="88">
+        <v>1</v>
+      </c>
+      <c r="C32" s="88"/>
+      <c r="M32" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="M32" s="191">
+      <c r="N32" s="191">
         <v>0</v>
       </c>
-      <c r="N32" s="197"/>
-      <c r="O32" s="26"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="190"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="117" t="s">
+      <c r="O32" s="197"/>
+      <c r="P32" s="26"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="190"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="X32" s="191">
+      <c r="Y32" s="191">
         <v>0</v>
       </c>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="205"/>
+      <c r="Z32" s="87"/>
       <c r="AA32" s="205"/>
       <c r="AB32" s="205"/>
       <c r="AC32" s="205"/>
-      <c r="AI32" s="33" t="s">
+      <c r="AD32" s="205"/>
+      <c r="AJ32" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="AO32" s="175"/>
-      <c r="AQ32" s="98"/>
+      <c r="AP32" s="175"/>
       <c r="AR32" s="98"/>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AS32" s="98"/>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A33" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="K33" s="148" t="s">
+      <c r="B33" s="88">
+        <v>2</v>
+      </c>
+      <c r="C33" s="88"/>
+      <c r="L33" s="148" t="s">
         <v>669</v>
       </c>
-      <c r="L33" s="191" t="s">
+      <c r="M33" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="M33" s="191"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="26"/>
-      <c r="S33" s="21"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="26"/>
       <c r="T33" s="21"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="109" t="s">
+      <c r="U33" s="21"/>
+      <c r="V33" s="183"/>
+      <c r="W33" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="W33" s="117" t="s">
+      <c r="X33" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="X33" s="191"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="205"/>
+      <c r="Y33" s="191"/>
+      <c r="Z33" s="87"/>
       <c r="AA33" s="205"/>
       <c r="AB33" s="205"/>
       <c r="AC33" s="205"/>
-      <c r="AQ33" s="98"/>
+      <c r="AD33" s="205"/>
       <c r="AR33" s="98"/>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AS33" s="98"/>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A34" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="D34" s="33"/>
-      <c r="I34" s="152">
+      <c r="B34" s="165">
+        <v>3</v>
+      </c>
+      <c r="C34" s="165"/>
+      <c r="E34" s="33"/>
+      <c r="J34" s="152">
         <v>0</v>
       </c>
-      <c r="J34" s="148" t="s">
+      <c r="K34" s="148" t="s">
         <v>669</v>
       </c>
-      <c r="K34" s="148" t="s">
+      <c r="L34" s="148" t="s">
         <v>670</v>
       </c>
-      <c r="L34" s="191" t="s">
+      <c r="M34" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="M34" s="191" t="s">
+      <c r="N34" s="191" t="s">
         <v>718</v>
       </c>
-      <c r="N34" s="117"/>
-      <c r="O34" s="26"/>
-      <c r="S34" s="190"/>
-      <c r="T34" s="116" t="s">
+      <c r="O34" s="117"/>
+      <c r="P34" s="26"/>
+      <c r="T34" s="190"/>
+      <c r="U34" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="U34" s="191" t="s">
+      <c r="V34" s="191" t="s">
         <v>111</v>
       </c>
-      <c r="V34" s="152"/>
-      <c r="W34" s="117" t="s">
+      <c r="W34" s="152"/>
+      <c r="X34" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="X34" s="191" t="s">
+      <c r="Y34" s="191" t="s">
         <v>718</v>
       </c>
-      <c r="Y34" s="87"/>
-      <c r="Z34" s="205"/>
+      <c r="Z34" s="87"/>
       <c r="AA34" s="205"/>
       <c r="AB34" s="205"/>
       <c r="AC34" s="205"/>
-      <c r="AQ34" s="98"/>
+      <c r="AD34" s="205"/>
       <c r="AR34" s="98"/>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AS34" s="98"/>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A35" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="165"/>
-      <c r="G35" s="152">
+      <c r="B35" s="88">
+        <v>4</v>
+      </c>
+      <c r="C35" s="88"/>
+      <c r="H35" s="152">
         <v>0</v>
       </c>
-      <c r="H35" s="148" t="s">
+      <c r="I35" s="148" t="s">
         <v>669</v>
       </c>
-      <c r="I35" s="152"/>
-      <c r="J35" s="148" t="s">
+      <c r="J35" s="152"/>
+      <c r="K35" s="148" t="s">
         <v>670</v>
       </c>
-      <c r="K35" s="148" t="s">
+      <c r="L35" s="148" t="s">
         <v>671</v>
       </c>
-      <c r="L35" s="191"/>
       <c r="M35" s="191"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="26"/>
-      <c r="S35" s="186" t="s">
+      <c r="N35" s="191"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="26"/>
+      <c r="T35" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="T35" s="187"/>
-      <c r="U35" s="186"/>
-      <c r="V35" s="152"/>
-      <c r="W35" s="117"/>
-      <c r="X35" s="116"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="205"/>
+      <c r="U35" s="187"/>
+      <c r="V35" s="186"/>
+      <c r="W35" s="152"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="87"/>
       <c r="AA35" s="205"/>
       <c r="AB35" s="205"/>
       <c r="AC35" s="205"/>
-      <c r="AQ35" s="98"/>
+      <c r="AD35" s="205"/>
       <c r="AR35" s="98"/>
-    </row>
-    <row r="36" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AS35" s="98"/>
+    </row>
+    <row r="36" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="165"/>
-      <c r="F36" s="80" t="s">
+      <c r="B36" s="88">
+        <v>5</v>
+      </c>
+      <c r="C36" s="88"/>
+      <c r="G36" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="152"/>
-      <c r="H36" s="148" t="s">
+      <c r="H36" s="152"/>
+      <c r="I36" s="148" t="s">
         <v>670</v>
       </c>
-      <c r="I36" s="152"/>
-      <c r="J36" s="148" t="s">
+      <c r="J36" s="152"/>
+      <c r="K36" s="148" t="s">
         <v>671</v>
       </c>
-      <c r="K36" s="148" t="s">
+      <c r="L36" s="148" t="s">
         <v>672</v>
       </c>
-      <c r="L36" s="191" t="s">
+      <c r="M36" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="186" t="s">
+      <c r="N36" s="186" t="s">
         <v>719</v>
       </c>
-      <c r="N36" s="117"/>
-      <c r="O36" s="95" t="s">
+      <c r="O36" s="117"/>
+      <c r="P36" s="95" t="s">
         <v>528</v>
       </c>
-      <c r="S36" s="186"/>
-      <c r="T36" s="187"/>
-      <c r="U36" s="186"/>
-      <c r="V36" s="176"/>
-      <c r="W36" s="117"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="87"/>
-      <c r="Z36" s="205"/>
+      <c r="T36" s="186"/>
+      <c r="U36" s="187"/>
+      <c r="V36" s="186"/>
+      <c r="W36" s="176"/>
+      <c r="X36" s="117"/>
+      <c r="Y36" s="116"/>
+      <c r="Z36" s="87"/>
       <c r="AA36" s="205"/>
       <c r="AB36" s="205"/>
       <c r="AC36" s="205"/>
-      <c r="AQ36" s="98"/>
+      <c r="AD36" s="205"/>
       <c r="AR36" s="98"/>
-    </row>
-    <row r="37" spans="1:44" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AS36" s="98"/>
+    </row>
+    <row r="37" spans="1:45" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="165"/>
-      <c r="E37" s="80" t="s">
+      <c r="B37" s="165">
+        <v>6</v>
+      </c>
+      <c r="C37" s="165"/>
+      <c r="F37" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="79" t="s">
+      <c r="G37" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="152"/>
-      <c r="H37" s="148" t="s">
+      <c r="H37" s="152"/>
+      <c r="I37" s="148" t="s">
         <v>671</v>
       </c>
-      <c r="I37" s="152"/>
-      <c r="J37" s="148" t="s">
+      <c r="J37" s="152"/>
+      <c r="K37" s="148" t="s">
         <v>672</v>
       </c>
-      <c r="K37" s="148" t="s">
+      <c r="L37" s="148" t="s">
         <v>673</v>
       </c>
-      <c r="L37" s="193"/>
       <c r="M37" s="193"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="95" t="s">
+      <c r="N37" s="193"/>
+      <c r="O37" s="179"/>
+      <c r="P37" s="95" t="s">
         <v>529</v>
       </c>
-      <c r="P37" s="95" t="s">
+      <c r="Q37" s="95" t="s">
         <v>530</v>
       </c>
-      <c r="S37" s="186"/>
-      <c r="T37" s="188"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="117"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="87"/>
-      <c r="Z37" s="205"/>
+      <c r="T37" s="186"/>
+      <c r="U37" s="188"/>
+      <c r="W37" s="86"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="116"/>
+      <c r="Z37" s="87"/>
       <c r="AA37" s="205"/>
       <c r="AB37" s="205"/>
       <c r="AC37" s="205"/>
-      <c r="AQ37" s="98"/>
+      <c r="AD37" s="205"/>
       <c r="AR37" s="98"/>
-    </row>
-    <row r="38" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AS37" s="98"/>
+    </row>
+    <row r="38" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="165"/>
-      <c r="D38" s="80" t="s">
+      <c r="B38" s="88">
+        <v>7</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="E38" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="80" t="s">
+      <c r="F38" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="79" t="s">
+      <c r="G38" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="152"/>
-      <c r="H38" s="148" t="s">
+      <c r="H38" s="152"/>
+      <c r="I38" s="148" t="s">
         <v>672</v>
       </c>
-      <c r="I38" s="152"/>
-      <c r="J38" s="148" t="s">
+      <c r="J38" s="152"/>
+      <c r="K38" s="148" t="s">
         <v>673</v>
       </c>
-      <c r="K38" s="148" t="s">
+      <c r="L38" s="148" t="s">
         <v>674</v>
       </c>
-      <c r="L38" s="191" t="s">
+      <c r="M38" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="M38" s="186" t="s">
+      <c r="N38" s="186" t="s">
         <v>720</v>
       </c>
-      <c r="N38" s="196"/>
-      <c r="O38" s="95" t="s">
+      <c r="O38" s="196"/>
+      <c r="P38" s="95" t="s">
         <v>531</v>
       </c>
-      <c r="P38" s="95" t="s">
+      <c r="Q38" s="95" t="s">
         <v>532</v>
       </c>
-      <c r="Q38" s="96" t="s">
+      <c r="R38" s="96" t="s">
         <v>533</v>
       </c>
-      <c r="S38" s="189"/>
-      <c r="T38" s="81" t="s">
+      <c r="T38" s="189"/>
+      <c r="U38" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="W38" s="86"/>
       <c r="X38" s="86"/>
-      <c r="Y38" s="87"/>
-      <c r="Z38" s="205"/>
+      <c r="Y38" s="86"/>
+      <c r="Z38" s="87"/>
       <c r="AA38" s="205"/>
       <c r="AB38" s="205"/>
       <c r="AC38" s="205"/>
-      <c r="AQ38" s="98"/>
+      <c r="AD38" s="205"/>
       <c r="AR38" s="98"/>
-    </row>
-    <row r="39" spans="1:44" ht="12.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AS38" s="98"/>
+    </row>
+    <row r="39" spans="1:45" ht="12.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="165"/>
-      <c r="D39" s="80" t="s">
+      <c r="B39" s="88">
+        <v>8</v>
+      </c>
+      <c r="C39" s="88"/>
+      <c r="E39" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="79" t="s">
+      <c r="F39" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="152"/>
-      <c r="H39" s="148" t="s">
+      <c r="H39" s="152"/>
+      <c r="I39" s="148" t="s">
         <v>673</v>
       </c>
-      <c r="I39" s="152"/>
-      <c r="J39" s="148" t="s">
+      <c r="J39" s="152"/>
+      <c r="K39" s="148" t="s">
         <v>674</v>
       </c>
-      <c r="K39" s="26"/>
-      <c r="L39" s="191"/>
+      <c r="L39" s="26"/>
       <c r="M39" s="191"/>
-      <c r="N39" s="196"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="94" t="s">
+      <c r="N39" s="191"/>
+      <c r="O39" s="196"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="94" t="s">
         <v>534</v>
       </c>
-      <c r="Q39" s="182" t="s">
+      <c r="R39" s="182" t="s">
         <v>535</v>
       </c>
-      <c r="S39" s="186" t="s">
+      <c r="T39" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="W39" s="86"/>
       <c r="X39" s="86"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="205"/>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="87"/>
       <c r="AA39" s="205"/>
       <c r="AB39" s="205"/>
       <c r="AC39" s="205"/>
-      <c r="AQ39" s="98"/>
+      <c r="AD39" s="205"/>
       <c r="AR39" s="98"/>
-    </row>
-    <row r="40" spans="1:44" ht="12.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AS39" s="98"/>
+    </row>
+    <row r="40" spans="1:45" ht="12.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="80" t="s">
+      <c r="B40" s="165">
+        <v>9</v>
+      </c>
+      <c r="C40" s="165"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="152"/>
-      <c r="H40" s="148" t="s">
+      <c r="H40" s="152"/>
+      <c r="I40" s="148" t="s">
         <v>674</v>
       </c>
-      <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
-      <c r="L40" s="191" t="s">
+      <c r="L40" s="26"/>
+      <c r="M40" s="191" t="s">
         <v>92</v>
       </c>
-      <c r="M40" s="186" t="s">
+      <c r="N40" s="186" t="s">
         <v>721</v>
       </c>
-      <c r="N40" s="196"/>
-      <c r="O40" s="26"/>
-      <c r="Q40" s="94" t="s">
+      <c r="O40" s="196"/>
+      <c r="P40" s="26"/>
+      <c r="R40" s="94" t="s">
         <v>536</v>
       </c>
-      <c r="R40" s="26"/>
-      <c r="S40" s="189"/>
-      <c r="T40" s="81" t="s">
+      <c r="S40" s="26"/>
+      <c r="T40" s="189"/>
+      <c r="U40" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="U40" s="26"/>
-      <c r="W40" s="86"/>
+      <c r="V40" s="26"/>
       <c r="X40" s="86"/>
-      <c r="Y40" s="87"/>
-      <c r="Z40" s="205"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="87"/>
       <c r="AA40" s="205"/>
       <c r="AB40" s="205"/>
       <c r="AC40" s="205"/>
-      <c r="AH40" s="81" t="s">
+      <c r="AD40" s="205"/>
+      <c r="AI40" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="AN40" s="173"/>
-      <c r="AQ40" s="232"/>
-      <c r="AR40" s="232"/>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AO40" s="173"/>
+      <c r="AR40" s="233"/>
+      <c r="AS40" s="233"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="165"/>
-      <c r="D41" s="21"/>
+      <c r="B41" s="88">
+        <v>10</v>
+      </c>
+      <c r="C41" s="88"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
-      <c r="L41" s="191"/>
+      <c r="K41" s="21"/>
       <c r="M41" s="191"/>
-      <c r="N41" s="196"/>
-      <c r="O41" s="21"/>
+      <c r="N41" s="191"/>
+      <c r="O41" s="196"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
-      <c r="S41" s="152" t="s">
+      <c r="R41" s="21"/>
+      <c r="T41" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="T41" s="26"/>
-      <c r="W41" s="86"/>
+      <c r="U41" s="26"/>
       <c r="X41" s="86"/>
       <c r="Y41" s="86"/>
-      <c r="Z41" s="205"/>
+      <c r="Z41" s="86"/>
       <c r="AA41" s="205"/>
       <c r="AB41" s="205"/>
       <c r="AC41" s="205"/>
-      <c r="AG41" s="79" t="s">
+      <c r="AD41" s="205"/>
+      <c r="AH41" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="AK41" s="21"/>
       <c r="AL41" s="21"/>
       <c r="AM41" s="21"/>
       <c r="AN41" s="21"/>
       <c r="AO41" s="21"/>
-      <c r="AQ41" s="98"/>
+      <c r="AP41" s="21"/>
       <c r="AR41" s="98"/>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AS41" s="98"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A42" s="165" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="165"/>
-      <c r="L42" s="183"/>
+      <c r="B42" s="88">
+        <v>11</v>
+      </c>
+      <c r="C42" s="88"/>
       <c r="M42" s="183"/>
-      <c r="N42" s="178"/>
-      <c r="O42" s="26"/>
-      <c r="T42" s="81" t="s">
+      <c r="N42" s="183"/>
+      <c r="O42" s="178"/>
+      <c r="P42" s="26"/>
+      <c r="U42" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="W42" s="202" t="s">
+      <c r="X42" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="X42" s="152" t="s">
+      <c r="Y42" s="152" t="s">
         <v>740</v>
       </c>
-      <c r="Y42" s="87"/>
-      <c r="Z42" s="205"/>
+      <c r="Z42" s="87"/>
       <c r="AA42" s="205"/>
       <c r="AB42" s="205"/>
       <c r="AC42" s="205"/>
-      <c r="AF42" s="79" t="s">
+      <c r="AD42" s="205"/>
+      <c r="AG42" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="AH42" s="81" t="s">
+      <c r="AI42" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="AN42" s="173" t="s">
+      <c r="AO42" s="173" t="s">
         <v>678</v>
       </c>
-      <c r="AO42" s="175"/>
-      <c r="AQ42" s="98"/>
+      <c r="AP42" s="175"/>
       <c r="AR42" s="98"/>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AS42" s="98"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A43" s="165" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="165"/>
-      <c r="L43" s="183"/>
+      <c r="B43" s="165">
+        <v>12</v>
+      </c>
+      <c r="C43" s="165"/>
       <c r="M43" s="183"/>
-      <c r="N43" s="178"/>
-      <c r="O43" s="26"/>
-      <c r="S43" s="186" t="s">
+      <c r="N43" s="183"/>
+      <c r="O43" s="178"/>
+      <c r="P43" s="26"/>
+      <c r="T43" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="T43" s="188"/>
-      <c r="V43" s="202" t="s">
+      <c r="U43" s="188"/>
+      <c r="W43" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="X43" s="168"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="205"/>
+      <c r="Y43" s="168"/>
+      <c r="Z43" s="87"/>
       <c r="AA43" s="205"/>
       <c r="AB43" s="205"/>
       <c r="AC43" s="205"/>
-      <c r="AG43" s="79" t="s">
+      <c r="AD43" s="205"/>
+      <c r="AH43" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="AK43" s="86"/>
-      <c r="AM43" s="79" t="s">
+      <c r="AL43" s="86"/>
+      <c r="AN43" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="AN43" s="173" t="s">
+      <c r="AO43" s="173" t="s">
         <v>679</v>
       </c>
-      <c r="AO43" s="175"/>
-      <c r="AQ43" s="98"/>
+      <c r="AP43" s="175"/>
       <c r="AR43" s="98"/>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AS43" s="98"/>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A44" s="165" t="s">
         <v>169</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="L44" s="183"/>
+      <c r="B44" s="88">
+        <v>13</v>
+      </c>
+      <c r="C44" s="88"/>
       <c r="M44" s="183"/>
-      <c r="N44" s="178"/>
-      <c r="O44" s="26"/>
-      <c r="S44" s="21"/>
+      <c r="N44" s="183"/>
+      <c r="O44" s="178"/>
+      <c r="P44" s="26"/>
       <c r="T44" s="21"/>
-      <c r="W44" s="202" t="s">
+      <c r="U44" s="21"/>
+      <c r="X44" s="202" t="s">
         <v>162</v>
       </c>
-      <c r="X44" s="152" t="s">
+      <c r="Y44" s="152" t="s">
         <v>738</v>
       </c>
-      <c r="Y44" s="87"/>
-      <c r="Z44" s="205"/>
+      <c r="Z44" s="87"/>
       <c r="AA44" s="205"/>
       <c r="AB44" s="205"/>
       <c r="AC44" s="205"/>
-      <c r="AF44" s="79" t="s">
+      <c r="AD44" s="205"/>
+      <c r="AG44" s="79" t="s">
         <v>682</v>
       </c>
-      <c r="AH44" s="81" t="s">
+      <c r="AI44" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="AL44" s="79" t="s">
+      <c r="AM44" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="AN44" s="173" t="s">
+      <c r="AO44" s="173" t="s">
         <v>678</v>
       </c>
-      <c r="AO44" s="175"/>
-      <c r="AQ44" s="98"/>
+      <c r="AP44" s="175"/>
       <c r="AR44" s="98"/>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AS44" s="98"/>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A45" s="165" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="165"/>
-      <c r="L45" s="183"/>
+      <c r="B45" s="88">
+        <v>14</v>
+      </c>
+      <c r="C45" s="88"/>
       <c r="M45" s="183"/>
-      <c r="N45" s="178"/>
-      <c r="O45" s="26"/>
-      <c r="V45" s="202" t="s">
+      <c r="N45" s="183"/>
+      <c r="O45" s="178"/>
+      <c r="P45" s="26"/>
+      <c r="W45" s="202" t="s">
         <v>162</v>
       </c>
-      <c r="X45" s="168"/>
-      <c r="Y45" s="87"/>
-      <c r="Z45" s="205"/>
+      <c r="Y45" s="168"/>
+      <c r="Z45" s="87"/>
       <c r="AA45" s="205"/>
       <c r="AB45" s="205"/>
       <c r="AC45" s="205"/>
-      <c r="AG45" s="79" t="s">
+      <c r="AD45" s="205"/>
+      <c r="AH45" s="79" t="s">
         <v>684</v>
       </c>
-      <c r="AK45" s="79" t="s">
+      <c r="AL45" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="AM45" s="79" t="s">
+      <c r="AN45" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="AN45" s="173" t="s">
+      <c r="AO45" s="173" t="s">
         <v>679</v>
       </c>
-      <c r="AO45" s="175"/>
-      <c r="AQ45" s="98"/>
+      <c r="AP45" s="175"/>
       <c r="AR45" s="98"/>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AS45" s="98"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A46" s="165" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="165"/>
-      <c r="L46" s="183"/>
+      <c r="B46" s="165">
+        <v>15</v>
+      </c>
+      <c r="C46" s="165"/>
       <c r="M46" s="183"/>
-      <c r="N46" s="178"/>
-      <c r="O46" s="26"/>
-      <c r="W46" s="202" t="s">
+      <c r="N46" s="183"/>
+      <c r="O46" s="178"/>
+      <c r="P46" s="26"/>
+      <c r="X46" s="202" t="s">
         <v>154</v>
       </c>
-      <c r="X46" s="152" t="s">
+      <c r="Y46" s="152" t="s">
         <v>739</v>
       </c>
-      <c r="Y46" s="87"/>
-      <c r="Z46" s="205"/>
+      <c r="Z46" s="87"/>
       <c r="AA46" s="205"/>
       <c r="AB46" s="205"/>
       <c r="AC46" s="205"/>
-      <c r="AF46" s="79" t="s">
+      <c r="AD46" s="205"/>
+      <c r="AG46" s="79" t="s">
         <v>683</v>
       </c>
-      <c r="AL46" s="79" t="s">
+      <c r="AM46" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="AN46" s="173" t="s">
+      <c r="AO46" s="173" t="s">
         <v>678</v>
       </c>
-      <c r="AO46" s="175"/>
-      <c r="AQ46" s="232"/>
-      <c r="AR46" s="232"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AP46" s="175"/>
+      <c r="AR46" s="233"/>
+      <c r="AS46" s="233"/>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A47" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="L47" s="183"/>
+      <c r="B47" s="88">
+        <v>16</v>
+      </c>
+      <c r="C47" s="88"/>
+      <c r="D47" s="26"/>
       <c r="M47" s="183"/>
-      <c r="N47" s="178"/>
-      <c r="O47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="202" t="s">
+      <c r="N47" s="183"/>
+      <c r="O47" s="178"/>
+      <c r="P47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="202" t="s">
         <v>154</v>
       </c>
-      <c r="W47" s="21"/>
       <c r="X47" s="21"/>
-      <c r="Y47" s="87"/>
-      <c r="Z47" s="205"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="87"/>
       <c r="AA47" s="205"/>
       <c r="AB47" s="205"/>
       <c r="AC47" s="205"/>
-      <c r="AF47" s="21"/>
+      <c r="AD47" s="205"/>
       <c r="AG47" s="21"/>
       <c r="AH47" s="21"/>
-      <c r="AK47" s="79" t="s">
+      <c r="AI47" s="21"/>
+      <c r="AL47" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="AM47" s="79" t="s">
+      <c r="AN47" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="AN47" s="173" t="s">
+      <c r="AO47" s="173" t="s">
         <v>679</v>
       </c>
-      <c r="AO47" s="169" t="s">
+      <c r="AP47" s="169" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="48" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="165" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="L48" s="205"/>
+      <c r="B48" s="88">
+        <v>17</v>
+      </c>
+      <c r="C48" s="88"/>
+      <c r="D48" s="26"/>
       <c r="M48" s="205"/>
       <c r="N48" s="205"/>
-      <c r="O48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="U48" s="21"/>
+      <c r="O48" s="205"/>
+      <c r="P48" s="26"/>
+      <c r="S48" s="26"/>
       <c r="V48" s="21"/>
-      <c r="W48" s="86"/>
+      <c r="W48" s="21"/>
       <c r="X48" s="86"/>
       <c r="Y48" s="86"/>
-      <c r="Z48" s="205"/>
+      <c r="Z48" s="86"/>
       <c r="AA48" s="205"/>
       <c r="AB48" s="205"/>
       <c r="AC48" s="205"/>
-      <c r="AF48" s="21"/>
+      <c r="AD48" s="205"/>
       <c r="AG48" s="21"/>
       <c r="AH48" s="21"/>
-      <c r="AK48" s="86"/>
-      <c r="AL48" s="79" t="s">
+      <c r="AI48" s="21"/>
+      <c r="AL48" s="86"/>
+      <c r="AM48" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="AM48" s="86"/>
-      <c r="AN48" s="205"/>
-      <c r="AO48" s="208"/>
-    </row>
-    <row r="49" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AN48" s="86"/>
+      <c r="AO48" s="205"/>
+      <c r="AP48" s="208"/>
+    </row>
+    <row r="49" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="164" t="s">
         <v>346</v>
       </c>
-      <c r="B49" s="165"/>
-      <c r="C49" s="222" t="s">
+      <c r="B49" s="192" t="s">
+        <v>543</v>
+      </c>
+      <c r="C49" s="192"/>
+      <c r="D49" s="223" t="s">
         <v>550</v>
       </c>
-      <c r="D49" s="223"/>
-      <c r="E49" s="223"/>
-      <c r="F49" s="223"/>
-      <c r="G49" s="181" t="s">
+      <c r="E49" s="224"/>
+      <c r="F49" s="224"/>
+      <c r="G49" s="224"/>
+      <c r="H49" s="181" t="s">
         <v>676</v>
       </c>
-      <c r="H49" s="161" t="s">
+      <c r="I49" s="161" t="s">
         <v>726</v>
       </c>
-      <c r="I49" s="161" t="s">
+      <c r="J49" s="161" t="s">
         <v>693</v>
       </c>
-      <c r="J49" s="161" t="s">
+      <c r="K49" s="161" t="s">
         <v>667</v>
       </c>
-      <c r="K49" s="161" t="s">
+      <c r="L49" s="161" t="s">
         <v>834</v>
       </c>
-      <c r="L49" s="177" t="s">
+      <c r="M49" s="177" t="s">
         <v>690</v>
       </c>
-      <c r="M49" s="201"/>
-      <c r="N49" s="194" t="s">
+      <c r="N49" s="201"/>
+      <c r="O49" s="194" t="s">
         <v>680</v>
       </c>
-      <c r="O49" s="222" t="s">
+      <c r="P49" s="223" t="s">
         <v>551</v>
       </c>
-      <c r="P49" s="223"/>
-      <c r="Q49" s="223"/>
-      <c r="R49" s="203"/>
-      <c r="S49" s="184" t="s">
+      <c r="Q49" s="224"/>
+      <c r="R49" s="224"/>
+      <c r="S49" s="203"/>
+      <c r="T49" s="184" t="s">
         <v>717</v>
       </c>
-      <c r="T49" s="185" t="s">
+      <c r="U49" s="185" t="s">
         <v>688</v>
       </c>
-      <c r="U49" s="198" t="s">
+      <c r="V49" s="198" t="s">
         <v>681</v>
       </c>
-      <c r="V49" s="161" t="s">
+      <c r="W49" s="161" t="s">
         <v>687</v>
       </c>
-      <c r="W49" s="184" t="s">
+      <c r="X49" s="184" t="s">
         <v>691</v>
       </c>
-      <c r="X49" s="160"/>
-      <c r="Y49" s="199" t="s">
+      <c r="Y49" s="160"/>
+      <c r="Z49" s="199" t="s">
         <v>677</v>
       </c>
-      <c r="Z49" s="198" t="s">
+      <c r="AA49" s="198" t="s">
         <v>692</v>
       </c>
-      <c r="AA49" s="161" t="s">
+      <c r="AB49" s="161" t="s">
         <v>728</v>
-      </c>
-      <c r="AB49" s="184" t="s">
-        <v>727</v>
       </c>
       <c r="AC49" s="184" t="s">
         <v>727</v>
       </c>
-      <c r="AK49" s="80" t="s">
+      <c r="AD49" s="184" t="s">
+        <v>727</v>
+      </c>
+      <c r="AL49" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="AL49" s="21"/>
-      <c r="AN49" s="173"/>
-      <c r="AO49" s="175"/>
-    </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="AM49" s="21"/>
+      <c r="AO49" s="173"/>
+      <c r="AP49" s="175"/>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A50" s="165" t="s">
         <v>347</v>
       </c>
-      <c r="B50" s="192" t="s">
-        <v>543</v>
-      </c>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="21">
+        <v>1</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="E50" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="F50" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="G50" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
-      <c r="L50" s="155">
+      <c r="L50" s="21"/>
+      <c r="M50" s="155">
         <v>1</v>
       </c>
-      <c r="M50" s="149"/>
-      <c r="N50" s="154"/>
-      <c r="U50" s="190"/>
-      <c r="V50" s="86"/>
-      <c r="W50" s="117" t="s">
+      <c r="N50" s="149"/>
+      <c r="O50" s="154"/>
+      <c r="V50" s="190"/>
+      <c r="W50" s="86"/>
+      <c r="X50" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="Z50" s="183"/>
-      <c r="AA50" s="205"/>
+      <c r="AA50" s="183"/>
       <c r="AB50" s="205"/>
-      <c r="AC50" s="178"/>
-      <c r="AD50" s="183"/>
-      <c r="AJ50" s="26" t="s">
+      <c r="AC50" s="205"/>
+      <c r="AD50" s="178"/>
+      <c r="AE50" s="183"/>
+      <c r="AK50" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AK50" s="26" t="s">
+      <c r="AL50" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AL50" s="26" t="s">
+      <c r="AM50" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AM50" s="26" t="s">
+      <c r="AN50" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="AN50" s="26"/>
-      <c r="AO50" s="34"/>
-    </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="AO50" s="26"/>
+      <c r="AP50" s="34"/>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A51" s="165" t="s">
         <v>348</v>
       </c>
-      <c r="C51" s="21"/>
+      <c r="B51" s="21">
+        <v>2</v>
+      </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
@@ -18525,929 +19024,1031 @@
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
-      <c r="K51" s="150" t="s">
+      <c r="K51" s="21"/>
+      <c r="L51" s="150" t="s">
         <v>669</v>
       </c>
-      <c r="L51" s="155">
+      <c r="M51" s="155">
         <v>1</v>
       </c>
-      <c r="M51" s="149"/>
       <c r="N51" s="149"/>
-      <c r="U51" s="21"/>
+      <c r="O51" s="149"/>
       <c r="V51" s="21"/>
-      <c r="W51" s="117" t="s">
+      <c r="W51" s="21"/>
+      <c r="X51" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="Z51" s="204"/>
       <c r="AA51" s="204"/>
       <c r="AB51" s="204"/>
-      <c r="AC51" s="178"/>
-      <c r="AD51" s="183"/>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="AC51" s="204"/>
+      <c r="AD51" s="178"/>
+      <c r="AE51" s="183"/>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A52" s="165" t="s">
         <v>349</v>
       </c>
-      <c r="C52" s="21"/>
+      <c r="B52" s="21">
+        <v>3</v>
+      </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="162">
+      <c r="I52" s="21"/>
+      <c r="J52" s="162">
         <v>0</v>
       </c>
-      <c r="J52" s="150" t="s">
+      <c r="K52" s="150" t="s">
         <v>669</v>
       </c>
-      <c r="K52" s="150" t="s">
+      <c r="L52" s="150" t="s">
         <v>670</v>
       </c>
-      <c r="L52" s="155">
+      <c r="M52" s="155">
         <v>1</v>
       </c>
-      <c r="M52" s="149"/>
       <c r="N52" s="149"/>
-      <c r="U52" s="183"/>
-      <c r="V52" s="109" t="s">
+      <c r="O52" s="149"/>
+      <c r="V52" s="183"/>
+      <c r="W52" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="W52" s="117" t="s">
+      <c r="X52" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="Z52" s="183"/>
-      <c r="AA52" s="176"/>
+      <c r="AA52" s="183"/>
       <c r="AB52" s="176"/>
-      <c r="AC52" s="178"/>
-      <c r="AD52" s="183"/>
-    </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="AC52" s="176"/>
+      <c r="AD52" s="178"/>
+      <c r="AE52" s="183"/>
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A53" s="165" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="133"/>
+      <c r="B53" s="21">
+        <v>4</v>
+      </c>
+      <c r="C53" s="21">
+        <v>1</v>
+      </c>
+      <c r="D53" s="132"/>
       <c r="E53" s="133"/>
       <c r="F53" s="133"/>
-      <c r="G53" s="162">
+      <c r="G53" s="133"/>
+      <c r="H53" s="162">
         <v>1</v>
       </c>
-      <c r="H53" s="150" t="s">
+      <c r="I53" s="150" t="s">
         <v>669</v>
       </c>
-      <c r="I53" s="162"/>
-      <c r="J53" s="150" t="s">
+      <c r="J53" s="162"/>
+      <c r="K53" s="150" t="s">
         <v>670</v>
       </c>
-      <c r="K53" s="150" t="s">
+      <c r="L53" s="150" t="s">
         <v>671</v>
       </c>
-      <c r="L53" s="155"/>
-      <c r="M53" s="149"/>
+      <c r="M53" s="155"/>
       <c r="N53" s="149"/>
-      <c r="U53" s="191" t="s">
+      <c r="O53" s="149"/>
+      <c r="V53" s="191" t="s">
         <v>111</v>
       </c>
-      <c r="V53" s="152"/>
-      <c r="W53" s="117"/>
-      <c r="Z53" s="183"/>
-      <c r="AA53" s="176"/>
+      <c r="W53" s="152"/>
+      <c r="X53" s="117"/>
+      <c r="AA53" s="183"/>
       <c r="AB53" s="176"/>
-      <c r="AC53" s="178"/>
-      <c r="AD53" s="183"/>
-    </row>
-    <row r="54" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AC53" s="176"/>
+      <c r="AD53" s="178"/>
+      <c r="AE53" s="183"/>
+    </row>
+    <row r="54" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="165" t="s">
         <v>351</v>
       </c>
-      <c r="C54" s="190"/>
-      <c r="D54" s="86"/>
+      <c r="B54" s="21">
+        <v>5</v>
+      </c>
+      <c r="C54" s="21">
+        <v>2</v>
+      </c>
+      <c r="D54" s="190"/>
       <c r="E54" s="86"/>
-      <c r="F54" s="84" t="s">
+      <c r="F54" s="86"/>
+      <c r="G54" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="G54" s="162"/>
-      <c r="H54" s="150" t="s">
+      <c r="H54" s="162"/>
+      <c r="I54" s="150" t="s">
         <v>670</v>
       </c>
-      <c r="I54" s="162"/>
-      <c r="J54" s="150" t="s">
+      <c r="J54" s="162"/>
+      <c r="K54" s="150" t="s">
         <v>671</v>
       </c>
-      <c r="K54" s="150" t="s">
+      <c r="L54" s="150" t="s">
         <v>672</v>
       </c>
-      <c r="L54" s="155"/>
-      <c r="M54" s="149"/>
+      <c r="M54" s="155"/>
       <c r="N54" s="149"/>
-      <c r="O54" s="159" t="s">
+      <c r="O54" s="149"/>
+      <c r="P54" s="159" t="s">
         <v>528</v>
       </c>
-      <c r="U54" s="186"/>
-      <c r="V54" s="152"/>
-      <c r="W54" s="117"/>
-      <c r="Z54" s="189"/>
-      <c r="AA54" s="176"/>
+      <c r="V54" s="186"/>
+      <c r="W54" s="152"/>
+      <c r="X54" s="117"/>
+      <c r="AA54" s="189"/>
       <c r="AB54" s="176"/>
-      <c r="AC54" s="204"/>
-      <c r="AD54" s="208" t="s">
+      <c r="AC54" s="176"/>
+      <c r="AD54" s="204"/>
+      <c r="AE54" s="208" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="55" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="165" t="s">
         <v>352</v>
       </c>
-      <c r="C55" s="190"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="83" t="s">
+      <c r="B55" s="21">
+        <v>0</v>
+      </c>
+      <c r="C55" s="21">
+        <v>3</v>
+      </c>
+      <c r="D55" s="190"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="F55" s="84" t="s">
+      <c r="G55" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="G55" s="162"/>
-      <c r="H55" s="150" t="s">
+      <c r="H55" s="162"/>
+      <c r="I55" s="150" t="s">
         <v>671</v>
       </c>
-      <c r="I55" s="162"/>
-      <c r="J55" s="150" t="s">
+      <c r="J55" s="162"/>
+      <c r="K55" s="150" t="s">
         <v>672</v>
       </c>
-      <c r="K55" s="150" t="s">
+      <c r="L55" s="150" t="s">
         <v>673</v>
       </c>
-      <c r="L55" s="180"/>
-      <c r="M55" s="149"/>
+      <c r="M55" s="180"/>
       <c r="N55" s="149"/>
-      <c r="O55" s="159" t="s">
+      <c r="O55" s="149"/>
+      <c r="P55" s="159" t="s">
         <v>529</v>
       </c>
-      <c r="P55" s="95" t="s">
+      <c r="Q55" s="95" t="s">
         <v>530</v>
       </c>
-      <c r="U55" s="186"/>
-      <c r="V55" s="176"/>
-      <c r="W55" s="117"/>
-      <c r="Z55" s="189"/>
-      <c r="AA55" s="205"/>
+      <c r="V55" s="186"/>
+      <c r="W55" s="176"/>
+      <c r="X55" s="117"/>
+      <c r="AA55" s="189"/>
       <c r="AB55" s="205"/>
       <c r="AC55" s="205"/>
-    </row>
-    <row r="56" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AD55" s="205"/>
+    </row>
+    <row r="56" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="165" t="s">
         <v>353</v>
       </c>
-      <c r="C56" s="190"/>
-      <c r="D56" s="83" t="s">
+      <c r="B56" s="21">
+        <v>1</v>
+      </c>
+      <c r="C56" s="21">
+        <v>4</v>
+      </c>
+      <c r="D56" s="190"/>
+      <c r="E56" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="E56" s="83" t="s">
+      <c r="F56" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="F56" s="84" t="s">
+      <c r="G56" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="G56" s="162"/>
-      <c r="H56" s="150" t="s">
+      <c r="H56" s="162"/>
+      <c r="I56" s="150" t="s">
         <v>672</v>
       </c>
-      <c r="I56" s="162"/>
-      <c r="J56" s="150" t="s">
+      <c r="J56" s="162"/>
+      <c r="K56" s="150" t="s">
         <v>673</v>
       </c>
-      <c r="K56" s="153" t="s">
+      <c r="L56" s="153" t="s">
         <v>674</v>
       </c>
-      <c r="L56" s="155">
+      <c r="M56" s="155">
         <v>1</v>
       </c>
-      <c r="M56" s="157"/>
       <c r="N56" s="157"/>
-      <c r="O56" s="159" t="s">
+      <c r="O56" s="157"/>
+      <c r="P56" s="159" t="s">
         <v>544</v>
       </c>
-      <c r="P56" s="95" t="s">
+      <c r="Q56" s="95" t="s">
         <v>532</v>
       </c>
-      <c r="Q56" s="96" t="s">
+      <c r="R56" s="96" t="s">
         <v>533</v>
       </c>
-      <c r="Z56" s="206"/>
-      <c r="AC56" s="205"/>
-    </row>
-    <row r="57" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AA56" s="206"/>
+      <c r="AD56" s="205"/>
+    </row>
+    <row r="57" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="165" t="s">
         <v>354</v>
       </c>
-      <c r="C57" s="83" t="s">
+      <c r="B57" s="21">
+        <v>2</v>
+      </c>
+      <c r="C57" s="21">
+        <v>5</v>
+      </c>
+      <c r="D57" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="D57" s="83" t="s">
+      <c r="E57" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="F57" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="F57" s="86"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="150" t="s">
+      <c r="G57" s="86"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="150" t="s">
         <v>673</v>
       </c>
-      <c r="I57" s="147"/>
-      <c r="J57" s="153" t="s">
+      <c r="J57" s="147"/>
+      <c r="K57" s="153" t="s">
         <v>674</v>
       </c>
-      <c r="K57" s="150" t="s">
+      <c r="L57" s="150" t="s">
         <v>669</v>
       </c>
-      <c r="L57" s="155">
+      <c r="M57" s="155">
         <v>1</v>
       </c>
-      <c r="M57" s="157"/>
       <c r="N57" s="157"/>
-      <c r="P57" s="95" t="s">
+      <c r="O57" s="157"/>
+      <c r="Q57" s="95" t="s">
         <v>534</v>
       </c>
-      <c r="Q57" s="96" t="s">
+      <c r="R57" s="96" t="s">
         <v>535</v>
       </c>
-      <c r="Z57" s="206"/>
-      <c r="AC57" s="205"/>
-      <c r="AI57" s="21"/>
+      <c r="AA57" s="206"/>
+      <c r="AD57" s="205"/>
       <c r="AJ57" s="21"/>
       <c r="AK57" s="21"/>
       <c r="AL57" s="21"/>
       <c r="AM57" s="21"/>
       <c r="AN57" s="21"/>
       <c r="AO57" s="21"/>
-    </row>
-    <row r="58" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AP57" s="21"/>
+    </row>
+    <row r="58" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="165" t="s">
         <v>355</v>
       </c>
-      <c r="C58" s="83" t="s">
+      <c r="B58" s="21">
+        <v>3</v>
+      </c>
+      <c r="C58" s="21">
+        <v>0</v>
+      </c>
+      <c r="D58" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="D58" s="83" t="s">
+      <c r="E58" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="E58" s="86"/>
       <c r="F58" s="86"/>
-      <c r="H58" s="153" t="s">
+      <c r="G58" s="86"/>
+      <c r="I58" s="153" t="s">
         <v>674</v>
       </c>
-      <c r="I58" s="162">
+      <c r="J58" s="162">
         <v>0</v>
       </c>
-      <c r="J58" s="150" t="s">
+      <c r="K58" s="150" t="s">
         <v>669</v>
       </c>
-      <c r="K58" s="150" t="s">
+      <c r="L58" s="150" t="s">
         <v>670</v>
       </c>
-      <c r="L58" s="155">
+      <c r="M58" s="155">
         <v>1</v>
       </c>
-      <c r="M58" s="157"/>
       <c r="N58" s="157"/>
-      <c r="Q58" s="96" t="s">
+      <c r="O58" s="157"/>
+      <c r="R58" s="96" t="s">
         <v>536</v>
       </c>
-      <c r="Z58" s="206"/>
-      <c r="AC58" s="205"/>
-      <c r="AI58" s="21"/>
+      <c r="AA58" s="206"/>
+      <c r="AD58" s="205"/>
       <c r="AJ58" s="21"/>
       <c r="AK58" s="21"/>
       <c r="AL58" s="21"/>
       <c r="AM58" s="21"/>
       <c r="AN58" s="21"/>
       <c r="AO58" s="21"/>
-    </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="AP58" s="21"/>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A59" s="165" t="s">
         <v>356</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="B59" s="21">
+        <v>4</v>
+      </c>
+      <c r="C59" s="21">
+        <v>1</v>
+      </c>
+      <c r="D59" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="D59" s="86"/>
       <c r="E59" s="86"/>
       <c r="F59" s="86"/>
-      <c r="G59" s="162">
+      <c r="G59" s="86"/>
+      <c r="H59" s="162">
         <v>1</v>
       </c>
-      <c r="H59" s="150" t="s">
+      <c r="I59" s="150" t="s">
         <v>669</v>
       </c>
-      <c r="I59" s="162"/>
-      <c r="J59" s="150" t="s">
+      <c r="J59" s="162"/>
+      <c r="K59" s="150" t="s">
         <v>670</v>
       </c>
-      <c r="K59" s="150" t="s">
+      <c r="L59" s="150" t="s">
         <v>671</v>
       </c>
-      <c r="L59" s="155"/>
-      <c r="M59" s="157"/>
+      <c r="M59" s="155"/>
       <c r="N59" s="157"/>
-      <c r="AC59" s="149" t="s">
+      <c r="O59" s="157"/>
+      <c r="AD59" s="149" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="60" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="165" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="190"/>
-      <c r="D60" s="86"/>
+      <c r="B60" s="21">
+        <v>5</v>
+      </c>
+      <c r="C60" s="21">
+        <v>2</v>
+      </c>
+      <c r="D60" s="190"/>
       <c r="E60" s="86"/>
-      <c r="F60" s="84" t="s">
+      <c r="F60" s="86"/>
+      <c r="G60" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="G60" s="162"/>
-      <c r="H60" s="150" t="s">
+      <c r="H60" s="162"/>
+      <c r="I60" s="150" t="s">
         <v>670</v>
       </c>
-      <c r="I60" s="162"/>
-      <c r="J60" s="150" t="s">
+      <c r="J60" s="162"/>
+      <c r="K60" s="150" t="s">
         <v>671</v>
       </c>
-      <c r="K60" s="150" t="s">
+      <c r="L60" s="150" t="s">
         <v>672</v>
       </c>
-      <c r="L60" s="155"/>
-      <c r="M60" s="157"/>
+      <c r="M60" s="155"/>
       <c r="N60" s="157"/>
-      <c r="O60" s="159" t="s">
+      <c r="O60" s="157"/>
+      <c r="P60" s="159" t="s">
         <v>528</v>
       </c>
-      <c r="Z60" s="206"/>
-      <c r="AA60" s="205"/>
-      <c r="AB60" s="149" t="s">
+      <c r="AA60" s="206"/>
+      <c r="AB60" s="205"/>
+      <c r="AC60" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="AD60" s="208" t="s">
+      <c r="AE60" s="208" t="s">
         <v>730</v>
       </c>
-      <c r="AN60" s="130" t="s">
+      <c r="AO60" s="130" t="s">
         <v>594</v>
       </c>
-      <c r="AO60" s="175" t="s">
+      <c r="AP60" s="175" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="61" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="165" t="s">
         <v>358</v>
       </c>
-      <c r="C61" s="190"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="83" t="s">
+      <c r="B61" s="21">
+        <v>0</v>
+      </c>
+      <c r="C61" s="21">
+        <v>3</v>
+      </c>
+      <c r="D61" s="190"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="83" t="s">
         <v>255</v>
       </c>
-      <c r="F61" s="84" t="s">
+      <c r="G61" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="G61" s="162"/>
-      <c r="H61" s="150" t="s">
+      <c r="H61" s="162"/>
+      <c r="I61" s="150" t="s">
         <v>671</v>
       </c>
-      <c r="I61" s="162"/>
-      <c r="J61" s="150" t="s">
+      <c r="J61" s="162"/>
+      <c r="K61" s="150" t="s">
         <v>672</v>
       </c>
-      <c r="K61" s="150" t="s">
+      <c r="L61" s="150" t="s">
         <v>673</v>
       </c>
-      <c r="L61" s="180"/>
-      <c r="M61" s="157"/>
+      <c r="M61" s="180"/>
       <c r="N61" s="157"/>
-      <c r="O61" s="159" t="s">
+      <c r="O61" s="157"/>
+      <c r="P61" s="159" t="s">
         <v>529</v>
       </c>
-      <c r="P61" s="95" t="s">
+      <c r="Q61" s="95" t="s">
         <v>530</v>
       </c>
-      <c r="Z61" s="183"/>
-      <c r="AA61" s="149" t="s">
+      <c r="AA61" s="183"/>
+      <c r="AB61" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="AC61" s="149" t="s">
+      <c r="AD61" s="149" t="s">
         <v>735</v>
       </c>
-      <c r="AM61" s="83" t="s">
+      <c r="AN61" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="AN61" s="173" t="s">
+      <c r="AO61" s="173" t="s">
         <v>666</v>
       </c>
-      <c r="AO61" s="169" t="s">
+      <c r="AP61" s="169" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="62" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="165" t="s">
         <v>359</v>
       </c>
-      <c r="C62" s="190"/>
-      <c r="D62" s="83" t="s">
+      <c r="B62" s="21">
+        <v>1</v>
+      </c>
+      <c r="C62" s="21">
+        <v>4</v>
+      </c>
+      <c r="D62" s="190"/>
+      <c r="E62" s="83" t="s">
         <v>253</v>
       </c>
-      <c r="E62" s="83" t="s">
+      <c r="F62" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="F62" s="84" t="s">
+      <c r="G62" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="G62" s="162"/>
-      <c r="H62" s="150" t="s">
+      <c r="H62" s="162"/>
+      <c r="I62" s="150" t="s">
         <v>672</v>
       </c>
-      <c r="I62" s="162"/>
-      <c r="J62" s="150" t="s">
+      <c r="J62" s="162"/>
+      <c r="K62" s="150" t="s">
         <v>673</v>
       </c>
-      <c r="K62" s="153" t="s">
+      <c r="L62" s="153" t="s">
         <v>674</v>
       </c>
-      <c r="L62" s="155">
+      <c r="M62" s="155">
         <v>1</v>
       </c>
-      <c r="M62" s="157"/>
       <c r="N62" s="157"/>
-      <c r="O62" s="159" t="s">
+      <c r="O62" s="157"/>
+      <c r="P62" s="159" t="s">
         <v>531</v>
       </c>
-      <c r="P62" s="95" t="s">
+      <c r="Q62" s="95" t="s">
         <v>532</v>
       </c>
-      <c r="Q62" s="96" t="s">
+      <c r="R62" s="96" t="s">
         <v>533</v>
       </c>
-      <c r="Z62" s="183"/>
-      <c r="AB62" s="149" t="s">
+      <c r="AA62" s="183"/>
+      <c r="AC62" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="AL62" s="83" t="s">
+      <c r="AM62" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="AN62" s="173" t="s">
+      <c r="AO62" s="173" t="s">
         <v>594</v>
       </c>
-      <c r="AO62" s="175"/>
-      <c r="AQ62" s="26"/>
+      <c r="AP62" s="175"/>
       <c r="AR62" s="26"/>
       <c r="AS62" s="26"/>
       <c r="AT62" s="26"/>
-      <c r="AU62" s="205"/>
+      <c r="AU62" s="26"/>
       <c r="AV62" s="205"/>
-      <c r="AW62" s="26"/>
+      <c r="AW62" s="205"/>
       <c r="AX62" s="26"/>
-      <c r="AY62" s="86"/>
-      <c r="AZ62" s="83" t="s">
+      <c r="AY62" s="26"/>
+      <c r="AZ62" s="86"/>
+      <c r="BA62" s="83" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="165" t="s">
         <v>360</v>
       </c>
-      <c r="C63" s="83" t="s">
+      <c r="B63" s="21">
+        <v>2</v>
+      </c>
+      <c r="C63" s="21">
+        <v>5</v>
+      </c>
+      <c r="D63" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="D63" s="83" t="s">
+      <c r="E63" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="E63" s="83" t="s">
+      <c r="F63" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="F63" s="86"/>
-      <c r="G63" s="162"/>
-      <c r="H63" s="150" t="s">
+      <c r="G63" s="86"/>
+      <c r="H63" s="162"/>
+      <c r="I63" s="150" t="s">
         <v>673</v>
       </c>
-      <c r="J63" s="153" t="s">
+      <c r="K63" s="153" t="s">
         <v>674</v>
       </c>
-      <c r="K63" s="147"/>
-      <c r="L63" s="155">
+      <c r="L63" s="147"/>
+      <c r="M63" s="155">
         <v>1</v>
       </c>
-      <c r="M63" s="157"/>
       <c r="N63" s="157"/>
-      <c r="P63" s="95" t="s">
+      <c r="O63" s="157"/>
+      <c r="Q63" s="95" t="s">
         <v>534</v>
       </c>
-      <c r="Q63" s="96" t="s">
+      <c r="R63" s="96" t="s">
         <v>535</v>
       </c>
-      <c r="Z63" s="205"/>
-      <c r="AA63" s="149" t="s">
+      <c r="AA63" s="205"/>
+      <c r="AB63" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="AC63" s="149" t="s">
+      <c r="AD63" s="149" t="s">
         <v>736</v>
       </c>
-      <c r="AK63" s="83" t="s">
+      <c r="AL63" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="AM63" s="83" t="s">
+      <c r="AN63" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="AN63" s="173" t="s">
+      <c r="AO63" s="173" t="s">
         <v>666</v>
       </c>
-      <c r="AO63" s="175"/>
-      <c r="AQ63" s="26"/>
+      <c r="AP63" s="175"/>
       <c r="AR63" s="26"/>
       <c r="AS63" s="26"/>
       <c r="AT63" s="26"/>
-      <c r="AU63" s="205"/>
+      <c r="AU63" s="26"/>
       <c r="AV63" s="205"/>
-      <c r="AW63" s="83" t="s">
+      <c r="AW63" s="205"/>
+      <c r="AX63" s="83" t="s">
         <v>241</v>
       </c>
-      <c r="AX63" s="26"/>
-      <c r="AY63" s="86"/>
-      <c r="AZ63" s="26"/>
-    </row>
-    <row r="64" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AY63" s="26"/>
+      <c r="AZ63" s="86"/>
+      <c r="BA63" s="26"/>
+    </row>
+    <row r="64" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="165" t="s">
         <v>361</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="B64" s="21">
+        <v>3</v>
+      </c>
+      <c r="C64" s="21">
+        <v>0</v>
+      </c>
+      <c r="D64" s="83" t="s">
         <v>254</v>
       </c>
-      <c r="D64" s="83" t="s">
+      <c r="E64" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="E64" s="86"/>
       <c r="F64" s="86"/>
-      <c r="H64" s="153" t="s">
+      <c r="G64" s="86"/>
+      <c r="I64" s="153" t="s">
         <v>674</v>
       </c>
-      <c r="L64" s="155">
+      <c r="M64" s="155">
         <v>1</v>
       </c>
-      <c r="M64" s="157"/>
       <c r="N64" s="157"/>
-      <c r="Q64" s="96" t="s">
+      <c r="O64" s="157"/>
+      <c r="R64" s="96" t="s">
         <v>536</v>
       </c>
-      <c r="Z64" s="205"/>
-      <c r="AB64" s="149" t="s">
+      <c r="AA64" s="205"/>
+      <c r="AC64" s="149" t="s">
         <v>251</v>
       </c>
-      <c r="AC64" s="204"/>
-      <c r="AD64" s="211"/>
-      <c r="AJ64" s="83" t="s">
+      <c r="AD64" s="204"/>
+      <c r="AE64" s="211"/>
+      <c r="AK64" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="AL64" s="83" t="s">
+      <c r="AM64" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="AN64" s="173" t="s">
+      <c r="AO64" s="173" t="s">
         <v>594</v>
       </c>
-      <c r="AO64" s="175"/>
-      <c r="AQ64" s="26"/>
+      <c r="AP64" s="175"/>
       <c r="AR64" s="26"/>
       <c r="AS64" s="26"/>
-      <c r="AT64" s="83" t="s">
+      <c r="AT64" s="26"/>
+      <c r="AU64" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="AU64" s="26"/>
-      <c r="AV64" s="86"/>
-      <c r="AW64" s="26"/>
+      <c r="AV64" s="26"/>
+      <c r="AW64" s="86"/>
       <c r="AX64" s="26"/>
-      <c r="AY64" s="86"/>
-      <c r="AZ64" s="83" t="s">
+      <c r="AY64" s="26"/>
+      <c r="AZ64" s="86"/>
+      <c r="BA64" s="83" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A65" s="165" t="s">
         <v>362</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="B65" s="21">
+        <v>4</v>
+      </c>
+      <c r="C65" s="21">
+        <v>1</v>
+      </c>
+      <c r="D65" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="D65" s="88"/>
       <c r="E65" s="88"/>
       <c r="F65" s="88"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="21"/>
       <c r="I65" s="88"/>
       <c r="J65" s="88"/>
       <c r="K65" s="88"/>
-      <c r="L65" s="155"/>
-      <c r="M65" s="157"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="155"/>
       <c r="N65" s="157"/>
-      <c r="Z65" s="205"/>
-      <c r="AA65" s="149" t="s">
+      <c r="O65" s="157"/>
+      <c r="AA65" s="205"/>
+      <c r="AB65" s="149" t="s">
         <v>251</v>
       </c>
-      <c r="AB65" s="205"/>
-      <c r="AC65" s="149" t="s">
+      <c r="AC65" s="205"/>
+      <c r="AD65" s="149" t="s">
         <v>258</v>
       </c>
-      <c r="AK65" s="83" t="s">
+      <c r="AL65" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="AM65" s="83" t="s">
+      <c r="AN65" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="AN65" s="173" t="s">
+      <c r="AO65" s="173" t="s">
         <v>666</v>
       </c>
-      <c r="AQ65" s="83" t="s">
+      <c r="AR65" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="AR65" s="26"/>
       <c r="AS65" s="26"/>
       <c r="AT65" s="26"/>
       <c r="AU65" s="26"/>
-      <c r="AV65" s="86"/>
-      <c r="AW65" s="83" t="s">
+      <c r="AV65" s="26"/>
+      <c r="AW65" s="86"/>
+      <c r="AX65" s="83" t="s">
         <v>244</v>
       </c>
-      <c r="AX65" s="26"/>
-      <c r="AY65" s="86"/>
-      <c r="AZ65" s="26"/>
-    </row>
-    <row r="66" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AY65" s="26"/>
+      <c r="AZ65" s="86"/>
+      <c r="BA65" s="26"/>
+    </row>
+    <row r="66" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="165" t="s">
         <v>363</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="86"/>
+      <c r="B66" s="21">
+        <v>5</v>
+      </c>
+      <c r="C66" s="21">
+        <v>2</v>
+      </c>
+      <c r="D66" s="26"/>
       <c r="E66" s="86"/>
       <c r="F66" s="86"/>
-      <c r="G66" s="83"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="157"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="83"/>
+      <c r="M66" s="155"/>
       <c r="N66" s="157"/>
-      <c r="O66" s="159" t="s">
+      <c r="O66" s="157"/>
+      <c r="P66" s="159" t="s">
         <v>528</v>
       </c>
-      <c r="Z66" s="205"/>
       <c r="AA66" s="205"/>
-      <c r="AB66" s="149" t="s">
+      <c r="AB66" s="205"/>
+      <c r="AC66" s="149" t="s">
         <v>258</v>
       </c>
-      <c r="AJ66" s="83" t="s">
+      <c r="AK66" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="AL66" s="83" t="s">
+      <c r="AM66" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="AN66" s="130" t="s">
+      <c r="AO66" s="130" t="s">
         <v>594</v>
       </c>
-      <c r="AO66" s="175" t="s">
+      <c r="AP66" s="175" t="s">
         <v>593</v>
       </c>
-      <c r="AQ66" s="26"/>
       <c r="AR66" s="26"/>
       <c r="AS66" s="26"/>
-      <c r="AT66" s="83" t="s">
+      <c r="AT66" s="26"/>
+      <c r="AU66" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="AU66" s="26"/>
-      <c r="AV66" s="86"/>
-      <c r="AW66" s="26"/>
+      <c r="AV66" s="26"/>
+      <c r="AW66" s="86"/>
       <c r="AX66" s="26"/>
-      <c r="AY66" s="86"/>
-      <c r="AZ66" s="83" t="s">
+      <c r="AY66" s="26"/>
+      <c r="AZ66" s="86"/>
+      <c r="BA66" s="83" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="67" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="165" t="s">
         <v>364</v>
       </c>
-      <c r="C67" s="190"/>
-      <c r="D67" s="86"/>
+      <c r="B67" s="21">
+        <v>0</v>
+      </c>
+      <c r="C67" s="21">
+        <v>3</v>
+      </c>
+      <c r="D67" s="190"/>
       <c r="E67" s="86"/>
       <c r="F67" s="86"/>
-      <c r="G67" s="83"/>
-      <c r="L67" s="180"/>
-      <c r="M67" s="158"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="83"/>
+      <c r="M67" s="180"/>
       <c r="N67" s="158"/>
-      <c r="O67" s="159" t="s">
+      <c r="O67" s="158"/>
+      <c r="P67" s="159" t="s">
         <v>529</v>
       </c>
-      <c r="P67" s="95" t="s">
+      <c r="Q67" s="95" t="s">
         <v>530</v>
       </c>
-      <c r="Z67" s="205"/>
-      <c r="AA67" s="149" t="s">
+      <c r="AA67" s="205"/>
+      <c r="AB67" s="149" t="s">
         <v>258</v>
       </c>
-      <c r="AC67" s="149" t="s">
+      <c r="AD67" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="AK67" s="83" t="s">
+      <c r="AL67" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="AM67" s="83" t="s">
+      <c r="AN67" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="AN67" s="173" t="s">
+      <c r="AO67" s="173" t="s">
         <v>666</v>
       </c>
-      <c r="AO67" s="175"/>
-      <c r="AQ67" s="83" t="s">
+      <c r="AP67" s="175"/>
+      <c r="AR67" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="AR67" s="26"/>
       <c r="AS67" s="26"/>
       <c r="AT67" s="26"/>
       <c r="AU67" s="26"/>
-      <c r="AV67" s="86"/>
-      <c r="AW67" s="83" t="s">
+      <c r="AV67" s="26"/>
+      <c r="AW67" s="86"/>
+      <c r="AX67" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="AX67" s="26"/>
-      <c r="AY67" s="86"/>
-      <c r="AZ67" s="26"/>
-    </row>
-    <row r="68" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AY67" s="26"/>
+      <c r="AZ67" s="86"/>
+      <c r="BA67" s="26"/>
+    </row>
+    <row r="68" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="165" t="s">
         <v>365</v>
       </c>
-      <c r="C68" s="190"/>
-      <c r="D68" s="83" t="s">
+      <c r="C68" s="21">
+        <v>4</v>
+      </c>
+      <c r="D68" s="190"/>
+      <c r="E68" s="83" t="s">
         <v>477</v>
       </c>
-      <c r="E68" s="86"/>
       <c r="F68" s="86"/>
-      <c r="G68" s="83"/>
-      <c r="N68" s="135"/>
-      <c r="O68" s="159" t="s">
+      <c r="G68" s="86"/>
+      <c r="H68" s="83"/>
+      <c r="O68" s="135"/>
+      <c r="P68" s="159" t="s">
         <v>531</v>
       </c>
-      <c r="P68" s="95" t="s">
+      <c r="Q68" s="95" t="s">
         <v>532</v>
       </c>
-      <c r="Q68" s="96" t="s">
+      <c r="R68" s="96" t="s">
         <v>533</v>
       </c>
-      <c r="AB68" s="149" t="s">
+      <c r="AC68" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="AJ68" s="83" t="s">
+      <c r="AK68" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="AL68" s="83" t="s">
+      <c r="AM68" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="AN68" s="173" t="s">
+      <c r="AO68" s="173" t="s">
         <v>594</v>
       </c>
-      <c r="AO68" s="175"/>
-      <c r="AQ68" s="26"/>
+      <c r="AP68" s="175"/>
       <c r="AR68" s="26"/>
       <c r="AS68" s="26"/>
-      <c r="AT68" s="83" t="s">
+      <c r="AT68" s="26"/>
+      <c r="AU68" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="AU68" s="26"/>
-      <c r="AV68" s="86"/>
-      <c r="AW68" s="26"/>
+      <c r="AV68" s="26"/>
+      <c r="AW68" s="86"/>
       <c r="AX68" s="26"/>
-      <c r="AY68" s="86"/>
-      <c r="AZ68" s="83" t="s">
+      <c r="AY68" s="26"/>
+      <c r="AZ68" s="86"/>
+      <c r="BA68" s="83" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="165" t="s">
         <v>366</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="21">
+        <v>5</v>
+      </c>
+      <c r="D69" s="83" t="s">
         <v>475</v>
       </c>
-      <c r="D69" s="83" t="s">
+      <c r="E69" s="83" t="s">
         <v>478</v>
       </c>
-      <c r="E69" s="86"/>
       <c r="F69" s="86"/>
-      <c r="N69" s="135"/>
-      <c r="P69" s="95" t="s">
+      <c r="G69" s="86"/>
+      <c r="O69" s="135"/>
+      <c r="Q69" s="95" t="s">
         <v>534</v>
       </c>
-      <c r="Q69" s="96" t="s">
+      <c r="R69" s="96" t="s">
         <v>535</v>
       </c>
-      <c r="AA69" s="149" t="s">
+      <c r="AB69" s="149" t="s">
         <v>261</v>
       </c>
-      <c r="AC69" s="149" t="s">
+      <c r="AD69" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="AK69" s="83" t="s">
+      <c r="AL69" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="AM69" s="83" t="s">
+      <c r="AN69" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="AN69" s="173" t="s">
+      <c r="AO69" s="173" t="s">
         <v>666</v>
       </c>
-      <c r="AQ69" s="83" t="s">
+      <c r="AR69" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="AR69" s="26"/>
       <c r="AS69" s="26"/>
       <c r="AT69" s="26"/>
       <c r="AU69" s="26"/>
-      <c r="AV69" s="86"/>
-      <c r="AW69" s="83" t="s">
+      <c r="AV69" s="26"/>
+      <c r="AW69" s="86"/>
+      <c r="AX69" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="AX69" s="26"/>
-      <c r="AY69" s="86"/>
-      <c r="AZ69" s="26"/>
-    </row>
-    <row r="70" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C70" s="83" t="s">
+      <c r="AY69" s="26"/>
+      <c r="AZ69" s="86"/>
+      <c r="BA69" s="26"/>
+    </row>
+    <row r="70" spans="1:53" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C70" s="21">
+        <v>0</v>
+      </c>
+      <c r="D70" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="D70" s="83" t="s">
+      <c r="E70" s="83" t="s">
         <v>479</v>
       </c>
-      <c r="K70" s="21"/>
-      <c r="N70" s="135"/>
-      <c r="Q70" s="96" t="s">
+      <c r="L70" s="21"/>
+      <c r="O70" s="135"/>
+      <c r="R70" s="96" t="s">
         <v>536</v>
       </c>
-      <c r="AB70" s="149" t="s">
+      <c r="AC70" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="AJ70" s="83" t="s">
+      <c r="AK70" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="AL70" s="83" t="s">
+      <c r="AM70" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="AN70" s="173" t="s">
+      <c r="AO70" s="173" t="s">
         <v>594</v>
       </c>
-      <c r="AQ70" s="26"/>
       <c r="AR70" s="26"/>
       <c r="AS70" s="26"/>
-      <c r="AT70" s="83" t="s">
+      <c r="AT70" s="26"/>
+      <c r="AU70" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="AU70" s="26"/>
-      <c r="AV70" s="86"/>
-      <c r="AW70" s="26"/>
+      <c r="AV70" s="26"/>
+      <c r="AW70" s="86"/>
       <c r="AX70" s="26"/>
-      <c r="AY70" s="86"/>
-      <c r="AZ70" s="83" t="s">
+      <c r="AY70" s="26"/>
+      <c r="AZ70" s="86"/>
+      <c r="BA70" s="83" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="C71" s="83" t="s">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="D71" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="L71" s="138"/>
-      <c r="M71" s="166"/>
-      <c r="N71" s="21"/>
+      <c r="M71" s="138"/>
+      <c r="N71" s="166"/>
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="21"/>
-      <c r="AA71" s="149" t="s">
+      <c r="R71" s="21"/>
+      <c r="AB71" s="149" t="s">
         <v>263</v>
       </c>
-      <c r="AK71" s="83" t="s">
+      <c r="AL71" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="AM71" s="83" t="s">
+      <c r="AN71" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="AN71" s="173" t="s">
+      <c r="AO71" s="173" t="s">
         <v>666</v>
       </c>
-      <c r="AQ71" s="83" t="s">
+      <c r="AR71" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="AR71" s="26"/>
       <c r="AS71" s="26"/>
       <c r="AT71" s="26"/>
       <c r="AU71" s="26"/>
-      <c r="AV71" s="86"/>
-      <c r="AW71" s="83" t="s">
+      <c r="AV71" s="26"/>
+      <c r="AW71" s="86"/>
+      <c r="AX71" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="AX71" s="26"/>
-      <c r="AY71" s="86"/>
-      <c r="AZ71" s="26"/>
-    </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="C72" s="21"/>
+      <c r="AY71" s="26"/>
+      <c r="AZ71" s="86"/>
+      <c r="BA71" s="26"/>
+    </row>
+    <row r="72" spans="1:53" x14ac:dyDescent="0.4">
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
@@ -19455,217 +20056,218 @@
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
-      <c r="AA72" s="21"/>
+      <c r="K72" s="21"/>
       <c r="AB72" s="21"/>
       <c r="AC72" s="21"/>
       <c r="AD72" s="21"/>
-      <c r="AJ72" s="83" t="s">
+      <c r="AE72" s="21"/>
+      <c r="AK72" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="AL72" s="83" t="s">
+      <c r="AM72" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="AM72" s="86"/>
-      <c r="AQ72" s="26"/>
+      <c r="AN72" s="86"/>
       <c r="AR72" s="26"/>
       <c r="AS72" s="26"/>
-      <c r="AT72" s="83" t="s">
+      <c r="AT72" s="26"/>
+      <c r="AU72" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="AU72" s="26"/>
-      <c r="AV72" s="86"/>
-      <c r="AW72" s="26"/>
+      <c r="AV72" s="26"/>
+      <c r="AW72" s="86"/>
       <c r="AX72" s="26"/>
-      <c r="AY72" s="86"/>
-      <c r="AZ72" s="83" t="s">
+      <c r="AY72" s="26"/>
+      <c r="AZ72" s="86"/>
+      <c r="BA72" s="83" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="AK73" s="83" t="s">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="AL73" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="AM73" s="86"/>
-      <c r="AN73" s="173"/>
-      <c r="AO73" s="175"/>
-      <c r="AQ73" s="83" t="s">
+      <c r="AN73" s="86"/>
+      <c r="AO73" s="173"/>
+      <c r="AP73" s="175"/>
+      <c r="AR73" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="AR73" s="26"/>
       <c r="AS73" s="26"/>
       <c r="AT73" s="26"/>
       <c r="AU73" s="26"/>
-      <c r="AV73" s="86"/>
-      <c r="AW73" s="83" t="s">
+      <c r="AV73" s="26"/>
+      <c r="AW73" s="86"/>
+      <c r="AX73" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="AX73" s="26"/>
-      <c r="AY73" s="86"/>
-      <c r="AZ73" s="26"/>
-    </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="AJ74" s="83" t="s">
+      <c r="AY73" s="26"/>
+      <c r="AZ73" s="86"/>
+      <c r="BA73" s="26"/>
+    </row>
+    <row r="74" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="AK74" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="AL74" s="86"/>
       <c r="AM74" s="86"/>
-      <c r="AN74" s="173"/>
-      <c r="AO74" s="175"/>
-      <c r="AQ74" s="26"/>
+      <c r="AN74" s="86"/>
+      <c r="AO74" s="173"/>
+      <c r="AP74" s="175"/>
       <c r="AR74" s="26"/>
       <c r="AS74" s="26"/>
-      <c r="AT74" s="83" t="s">
+      <c r="AT74" s="26"/>
+      <c r="AU74" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="AU74" s="26"/>
-      <c r="AV74" s="86"/>
-      <c r="AW74" s="26"/>
+      <c r="AV74" s="26"/>
+      <c r="AW74" s="86"/>
       <c r="AX74" s="26"/>
-      <c r="AY74" s="86"/>
-      <c r="AZ74" s="83" t="s">
+      <c r="AY74" s="26"/>
+      <c r="AZ74" s="86"/>
+      <c r="BA74" s="83" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="AK75" s="83" t="s">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="AL75" s="83" t="s">
         <v>477</v>
       </c>
-      <c r="AL75" s="86"/>
       <c r="AM75" s="86"/>
-      <c r="AN75" s="173"/>
-      <c r="AO75" s="175"/>
-      <c r="AQ75" s="83" t="s">
+      <c r="AN75" s="86"/>
+      <c r="AO75" s="173"/>
+      <c r="AP75" s="175"/>
+      <c r="AR75" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="AR75" s="26"/>
       <c r="AS75" s="26"/>
       <c r="AT75" s="26"/>
       <c r="AU75" s="26"/>
-      <c r="AV75" s="86"/>
-      <c r="AW75" s="83" t="s">
+      <c r="AV75" s="26"/>
+      <c r="AW75" s="86"/>
+      <c r="AX75" s="83" t="s">
         <v>477</v>
       </c>
-      <c r="AX75" s="26"/>
-      <c r="AY75" s="86"/>
-      <c r="AZ75" s="26"/>
-    </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="AJ76" s="83" t="s">
+      <c r="AY75" s="26"/>
+      <c r="AZ75" s="86"/>
+      <c r="BA75" s="26"/>
+    </row>
+    <row r="76" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="AK76" s="83" t="s">
         <v>475</v>
       </c>
-      <c r="AL76" s="86"/>
       <c r="AM76" s="86"/>
-      <c r="AN76" s="173"/>
-      <c r="AO76" s="175"/>
-      <c r="AQ76" s="26"/>
+      <c r="AN76" s="86"/>
+      <c r="AO76" s="173"/>
+      <c r="AP76" s="175"/>
       <c r="AR76" s="26"/>
       <c r="AS76" s="26"/>
       <c r="AT76" s="26"/>
       <c r="AU76" s="26"/>
-      <c r="AV76" s="86"/>
-      <c r="AW76" s="26"/>
+      <c r="AV76" s="26"/>
+      <c r="AW76" s="86"/>
       <c r="AX76" s="26"/>
-      <c r="AY76" s="86"/>
-      <c r="AZ76" s="83" t="s">
+      <c r="AY76" s="26"/>
+      <c r="AZ76" s="86"/>
+      <c r="BA76" s="83" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="AK77" s="83" t="s">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="AL77" s="83" t="s">
         <v>478</v>
       </c>
-      <c r="AL77" s="86"/>
       <c r="AM77" s="86"/>
-      <c r="AN77" s="173"/>
-      <c r="AO77" s="175"/>
-      <c r="AQ77" s="26"/>
+      <c r="AN77" s="86"/>
+      <c r="AO77" s="173"/>
+      <c r="AP77" s="175"/>
       <c r="AR77" s="26"/>
       <c r="AS77" s="26"/>
       <c r="AT77" s="26"/>
       <c r="AU77" s="26"/>
-      <c r="AV77" s="86"/>
-      <c r="AW77" s="83" t="s">
+      <c r="AV77" s="26"/>
+      <c r="AW77" s="86"/>
+      <c r="AX77" s="83" t="s">
         <v>478</v>
       </c>
-      <c r="AX77" s="26"/>
-      <c r="AY77" s="86"/>
-      <c r="AZ77" s="26"/>
-    </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="AJ78" s="83" t="s">
+      <c r="AY77" s="26"/>
+      <c r="AZ77" s="86"/>
+      <c r="BA77" s="26"/>
+    </row>
+    <row r="78" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="AK78" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="AL78" s="86"/>
       <c r="AM78" s="86"/>
-      <c r="AQ78" s="26"/>
+      <c r="AN78" s="86"/>
       <c r="AR78" s="26"/>
       <c r="AS78" s="26"/>
       <c r="AT78" s="26"/>
       <c r="AU78" s="26"/>
-      <c r="AV78" s="86"/>
-      <c r="AW78" s="26"/>
+      <c r="AV78" s="26"/>
+      <c r="AW78" s="86"/>
       <c r="AX78" s="26"/>
-      <c r="AY78" s="86"/>
-      <c r="AZ78" s="83" t="s">
+      <c r="AY78" s="26"/>
+      <c r="AZ78" s="86"/>
+      <c r="BA78" s="83" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="AK79" s="83" t="s">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="AL79" s="83" t="s">
         <v>479</v>
       </c>
-      <c r="AL79" s="86"/>
-      <c r="AQ79" s="26"/>
+      <c r="AM79" s="86"/>
       <c r="AR79" s="26"/>
       <c r="AS79" s="26"/>
       <c r="AT79" s="26"/>
       <c r="AU79" s="26"/>
-      <c r="AV79" s="86"/>
-      <c r="AW79" s="83" t="s">
+      <c r="AV79" s="26"/>
+      <c r="AW79" s="86"/>
+      <c r="AX79" s="83" t="s">
         <v>479</v>
       </c>
-      <c r="AX79" s="26"/>
-      <c r="AY79" s="86"/>
-      <c r="AZ79" s="26"/>
-    </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="AJ80" s="83" t="s">
+      <c r="AY79" s="26"/>
+      <c r="AZ79" s="86"/>
+      <c r="BA79" s="26"/>
+    </row>
+    <row r="80" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="AK80" s="83" t="s">
         <v>270</v>
       </c>
-      <c r="AL80" s="86"/>
-    </row>
-    <row r="82" spans="36:41" x14ac:dyDescent="0.4">
-      <c r="AJ82" s="21"/>
+      <c r="AM80" s="86"/>
+    </row>
+    <row r="82" spans="37:42" x14ac:dyDescent="0.4">
       <c r="AK82" s="21"/>
       <c r="AL82" s="21"/>
       <c r="AM82" s="21"/>
       <c r="AN82" s="21"/>
       <c r="AO82" s="21"/>
+      <c r="AP82" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="AE6:AH6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="AQ30:AR30"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="AJ6:AO6"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AQ40:AR40"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="AJ13:AM13"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AQ10:AT10"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AQ11:AT11"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="AR30:AS30"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="AQ13:AT13"/>
+    <mergeCell ref="AK6:AP6"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="AQ12:AT12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19677,8 +20279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34ECBBF-B660-41D9-BDE6-91AF01412A2C}">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -19702,18 +20304,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="219" t="s">
         <v>741</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
@@ -20878,30 +21480,30 @@
   <sheetData>
     <row r="1" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="222" t="s">
+      <c r="B1" s="223" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="225" t="s">
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="222" t="s">
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="222" t="s">
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="223" t="s">
         <v>189</v>
       </c>
-      <c r="O1" s="223"/>
-      <c r="P1" s="223"/>
-      <c r="Q1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="225"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -21010,11 +21612,11 @@
       <c r="O3" s="43"/>
       <c r="P3" s="43"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="226" t="s">
+      <c r="R3" s="227" t="s">
         <v>264</v>
       </c>
-      <c r="S3" s="227"/>
-      <c r="T3" s="227"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="228"/>
       <c r="U3" s="45"/>
       <c r="W3" t="s">
         <v>676</v>
@@ -21188,12 +21790,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="237" t="s">
+      <c r="R6" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="238"/>
-      <c r="T6" s="238"/>
-      <c r="U6" s="239"/>
+      <c r="S6" s="239"/>
+      <c r="T6" s="239"/>
+      <c r="U6" s="240"/>
     </row>
     <row r="7" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39" t="s">
@@ -21219,12 +21821,12 @@
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="34"/>
-      <c r="R7" s="219" t="s">
+      <c r="R7" s="220" t="s">
         <v>617</v>
       </c>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
+      <c r="S7" s="219"/>
+      <c r="T7" s="219"/>
+      <c r="U7" s="219"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
@@ -21245,12 +21847,12 @@
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="34"/>
-      <c r="R8" s="219" t="s">
+      <c r="R8" s="220" t="s">
         <v>616</v>
       </c>
-      <c r="S8" s="218"/>
-      <c r="T8" s="218"/>
-      <c r="U8" s="218"/>
+      <c r="S8" s="219"/>
+      <c r="T8" s="219"/>
+      <c r="U8" s="219"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A9" s="39" t="s">
@@ -21268,12 +21870,12 @@
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="34"/>
-      <c r="R9" s="219" t="s">
+      <c r="R9" s="220" t="s">
         <v>545</v>
       </c>
-      <c r="S9" s="220"/>
-      <c r="T9" s="220"/>
-      <c r="U9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="222"/>
     </row>
     <row r="10" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="39" t="s">

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC20C9-A6D3-4A3F-8CE7-8DEFCDF502A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF6458D-2D86-4AA6-8562-A09F5498E928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="5" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="3" activeTab="3" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4783" uniqueCount="998">
   <si>
     <t>预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3295,6 +3295,198 @@
   <si>
     <t>t_cov(0,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(1,2)</t>
+  </si>
+  <si>
+    <t>cov(1,3)</t>
+  </si>
+  <si>
+    <t>cov(1,4)</t>
+  </si>
+  <si>
+    <t>cov(1,5)</t>
+  </si>
+  <si>
+    <t>cov(1,6)</t>
+  </si>
+  <si>
+    <t>cov(1,7)</t>
+  </si>
+  <si>
+    <t>cov(1,8)</t>
+  </si>
+  <si>
+    <t>cov(1,9)</t>
+  </si>
+  <si>
+    <t>cov(1,10)</t>
+  </si>
+  <si>
+    <t>cov(1,11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_v(1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_v(2,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(2,3)</t>
+  </si>
+  <si>
+    <t>cov(2,4)</t>
+  </si>
+  <si>
+    <t>cov(2,5)</t>
+  </si>
+  <si>
+    <t>cov(2,6)</t>
+  </si>
+  <si>
+    <t>cov(2,7)</t>
+  </si>
+  <si>
+    <t>cov(2,8)</t>
+  </si>
+  <si>
+    <t>cov(2,9)</t>
+  </si>
+  <si>
+    <t>cov(2,10)</t>
+  </si>
+  <si>
+    <t>cov(2,11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_v(1,2)</t>
+  </si>
+  <si>
+    <t>H_v(2,2)</t>
+  </si>
+  <si>
+    <t>cov(3,4)</t>
+  </si>
+  <si>
+    <t>cov(3,5)</t>
+  </si>
+  <si>
+    <t>cov(3,6)</t>
+  </si>
+  <si>
+    <t>cov(3,7)</t>
+  </si>
+  <si>
+    <t>cov(3,8)</t>
+  </si>
+  <si>
+    <t>cov(3,9)</t>
+  </si>
+  <si>
+    <t>cov(3,10)</t>
+  </si>
+  <si>
+    <t>cov(3,11)</t>
+  </si>
+  <si>
+    <t>H_v(1,3)</t>
+  </si>
+  <si>
+    <t>H_v(2,3)</t>
+  </si>
+  <si>
+    <t>cov(4,5)</t>
+  </si>
+  <si>
+    <t>cov(4,6)</t>
+  </si>
+  <si>
+    <t>cov(4,7)</t>
+  </si>
+  <si>
+    <t>cov(4,8)</t>
+  </si>
+  <si>
+    <t>cov(4,9)</t>
+  </si>
+  <si>
+    <t>cov(4,10)</t>
+  </si>
+  <si>
+    <t>cov(4,11)</t>
+  </si>
+  <si>
+    <t>H_l(1,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_l(1,2)</t>
+  </si>
+  <si>
+    <t>cov(5,8)</t>
+  </si>
+  <si>
+    <t>cov(5,9)</t>
+  </si>
+  <si>
+    <t>cov(5,10)</t>
+  </si>
+  <si>
+    <t>cov(5,11)</t>
+  </si>
+  <si>
+    <t>H_l(2,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_l(2,2)</t>
+  </si>
+  <si>
+    <t>cov(6,8)</t>
+  </si>
+  <si>
+    <t>cov(6,9)</t>
+  </si>
+  <si>
+    <t>cov(6,10)</t>
+  </si>
+  <si>
+    <t>cov(6,11)</t>
+  </si>
+  <si>
+    <t>cov(7,8)</t>
+  </si>
+  <si>
+    <t>cov(7,9)</t>
+  </si>
+  <si>
+    <t>cov(7,10)</t>
+  </si>
+  <si>
+    <t>cov(7,11)</t>
+  </si>
+  <si>
+    <t>cov(8,9)</t>
+  </si>
+  <si>
+    <t>cov(8,10)</t>
+  </si>
+  <si>
+    <t>cov(8,11)</t>
+  </si>
+  <si>
+    <t>cov(9,10)</t>
+  </si>
+  <si>
+    <t>cov(9,11)</t>
+  </si>
+  <si>
+    <t>cov(10,11)</t>
   </si>
 </sst>
 </file>
@@ -3725,7 +3917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4467,6 +4659,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4527,34 +4758,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4881,11 +5130,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="245" t="s">
+      <c r="W1" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
       <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -4900,11 +5149,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="245" t="s">
+      <c r="W3" s="258" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
+      <c r="X3" s="258"/>
+      <c r="Y3" s="258"/>
       <c r="Z3" s="24" t="s">
         <v>55</v>
       </c>
@@ -5697,11 +5946,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="266" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
       <c r="I1" s="42"/>
       <c r="J1" s="56"/>
       <c r="K1" s="57"/>
@@ -5734,20 +5983,20 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F4" s="264" t="s">
+      <c r="F4" s="277" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="265"/>
-      <c r="H4" s="265"/>
-      <c r="I4" s="266"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="279"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F5" s="246" t="s">
+      <c r="F5" s="259" t="s">
         <v>533</v>
       </c>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="248"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="261"/>
     </row>
     <row r="6" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="210" t="s">
@@ -5757,83 +6006,83 @@
       <c r="C6" s="215"/>
       <c r="D6" s="215"/>
       <c r="E6" s="216"/>
-      <c r="F6" s="249" t="s">
+      <c r="F6" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="251"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="264"/>
       <c r="J6" s="56"/>
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
       <c r="M6" s="58"/>
-      <c r="N6" s="252" t="s">
+      <c r="N6" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="250"/>
-      <c r="P6" s="250"/>
-      <c r="Q6" s="250"/>
+      <c r="O6" s="263"/>
+      <c r="P6" s="263"/>
+      <c r="Q6" s="263"/>
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
       <c r="U6" s="58"/>
-      <c r="V6" s="249" t="s">
+      <c r="V6" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="W6" s="250"/>
-      <c r="X6" s="250"/>
-      <c r="Y6" s="251"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="263"/>
+      <c r="Y6" s="264"/>
       <c r="Z6" s="57"/>
       <c r="AA6" s="57"/>
       <c r="AB6" s="57"/>
       <c r="AC6" s="57"/>
       <c r="AD6" s="58"/>
-      <c r="AE6" s="249" t="s">
+      <c r="AE6" s="262" t="s">
         <v>187</v>
       </c>
-      <c r="AF6" s="250"/>
-      <c r="AG6" s="250"/>
-      <c r="AH6" s="251"/>
+      <c r="AF6" s="263"/>
+      <c r="AG6" s="263"/>
+      <c r="AH6" s="264"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="210"/>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="262" t="s">
         <v>846</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="250" t="s">
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="263" t="s">
         <v>629</v>
       </c>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="249" t="s">
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="262" t="s">
         <v>845</v>
       </c>
-      <c r="K7" s="250"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="251"/>
-      <c r="N7" s="249" t="s">
+      <c r="K7" s="263"/>
+      <c r="L7" s="263"/>
+      <c r="M7" s="264"/>
+      <c r="N7" s="262" t="s">
         <v>630</v>
       </c>
-      <c r="O7" s="250"/>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="250"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="250"/>
-      <c r="U7" s="251"/>
-      <c r="V7" s="249" t="s">
+      <c r="O7" s="263"/>
+      <c r="P7" s="263"/>
+      <c r="Q7" s="264"/>
+      <c r="R7" s="263"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="263"/>
+      <c r="U7" s="264"/>
+      <c r="V7" s="262" t="s">
         <v>801</v>
       </c>
-      <c r="W7" s="250"/>
-      <c r="X7" s="250"/>
-      <c r="Y7" s="251"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="263"/>
+      <c r="Y7" s="264"/>
       <c r="AE7" s="217"/>
       <c r="AF7" s="217"/>
       <c r="AG7" s="217"/>
@@ -7106,11 +7355,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="N6:Q6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="AE6:AH6"/>
     <mergeCell ref="F7:I7"/>
@@ -7119,6 +7363,11 @@
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="N6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7155,36 +7404,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="249" t="s">
+      <c r="C1" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="252" t="s">
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="249" t="s">
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="262" t="s">
         <v>452</v>
       </c>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="249" t="s">
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="Z1" s="249" t="s">
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="264"/>
+      <c r="Z1" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="250"/>
-      <c r="AB1" s="250"/>
-      <c r="AC1" s="251"/>
+      <c r="AA1" s="263"/>
+      <c r="AB1" s="263"/>
+      <c r="AC1" s="264"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -7253,33 +7502,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="253" t="s">
+      <c r="C3" s="266" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="268"/>
       <c r="K3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="253" t="s">
+      <c r="S3" s="266" t="s">
         <v>412</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="255"/>
-      <c r="Z3" s="253" t="s">
+      <c r="T3" s="267"/>
+      <c r="U3" s="267"/>
+      <c r="V3" s="268"/>
+      <c r="Z3" s="266" t="s">
         <v>269</v>
       </c>
-      <c r="AA3" s="254"/>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="255"/>
+      <c r="AA3" s="267"/>
+      <c r="AB3" s="267"/>
+      <c r="AC3" s="268"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -7336,12 +7585,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="246" t="s">
+      <c r="S5" s="259" t="s">
         <v>512</v>
       </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="248"/>
+      <c r="T5" s="260"/>
+      <c r="U5" s="260"/>
+      <c r="V5" s="261"/>
       <c r="W5" s="86" t="s">
         <v>514</v>
       </c>
@@ -7371,12 +7620,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="246" t="s">
+      <c r="S6" s="259" t="s">
         <v>429</v>
       </c>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="248"/>
+      <c r="T6" s="260"/>
+      <c r="U6" s="260"/>
+      <c r="V6" s="261"/>
       <c r="Z6" s="225"/>
       <c r="AA6" s="226"/>
       <c r="AB6" s="226"/>
@@ -8786,30 +9035,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="69"/>
       <c r="B1"/>
-      <c r="C1" s="249" t="s">
+      <c r="C1" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="249" t="s">
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="262" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="249" t="s">
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="262" t="s">
         <v>452</v>
       </c>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="249" t="s">
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="262" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="264"/>
       <c r="S1" s="231"/>
       <c r="T1" s="231"/>
       <c r="U1" s="231"/>
@@ -8908,12 +9157,12 @@
       <c r="P3" s="226"/>
       <c r="Q3" s="226"/>
       <c r="R3" s="227"/>
-      <c r="S3" s="253" t="s">
+      <c r="S3" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="255"/>
+      <c r="T3" s="267"/>
+      <c r="U3" s="267"/>
+      <c r="V3" s="268"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
@@ -8980,12 +9229,12 @@
       <c r="P5" s="226"/>
       <c r="Q5" s="226"/>
       <c r="R5" s="227"/>
-      <c r="S5" s="246" t="s">
+      <c r="S5" s="259" t="s">
         <v>286</v>
       </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="248"/>
+      <c r="T5" s="260"/>
+      <c r="U5" s="260"/>
+      <c r="V5" s="261"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="69" t="s">
@@ -9016,12 +9265,12 @@
       <c r="P6" s="226"/>
       <c r="Q6" s="226"/>
       <c r="R6" s="227"/>
-      <c r="S6" s="246" t="s">
+      <c r="S6" s="259" t="s">
         <v>287</v>
       </c>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="248"/>
+      <c r="T6" s="260"/>
+      <c r="U6" s="260"/>
+      <c r="V6" s="261"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="69" t="s">
@@ -9048,7 +9297,7 @@
       <c r="L7" s="226"/>
       <c r="M7" s="226"/>
       <c r="N7" s="67"/>
-      <c r="O7" s="276"/>
+      <c r="O7" s="257"/>
       <c r="P7" s="226"/>
       <c r="Q7" s="226"/>
       <c r="R7" s="227" t="s">
@@ -9089,12 +9338,12 @@
         <v>288</v>
       </c>
       <c r="R8" s="227"/>
-      <c r="S8" s="267" t="s">
+      <c r="S8" s="282" t="s">
         <v>388</v>
       </c>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="283"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="69" t="s">
@@ -11626,36 +11875,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="249" t="s">
+      <c r="C1" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="252" t="s">
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="249" t="s">
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="262" t="s">
         <v>452</v>
       </c>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="249" t="s">
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="Z1" s="249" t="s">
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="264"/>
+      <c r="Z1" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="250"/>
-      <c r="AB1" s="250"/>
-      <c r="AC1" s="251"/>
+      <c r="AA1" s="263"/>
+      <c r="AB1" s="263"/>
+      <c r="AC1" s="264"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -11724,33 +11973,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="253" t="s">
+      <c r="C3" s="266" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="268"/>
       <c r="K3" s="225"/>
       <c r="O3" s="225"/>
       <c r="P3" s="226"/>
       <c r="Q3" s="226"/>
       <c r="R3" s="227"/>
-      <c r="S3" s="253" t="s">
+      <c r="S3" s="266" t="s">
         <v>412</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="255"/>
-      <c r="Z3" s="253" t="s">
+      <c r="T3" s="267"/>
+      <c r="U3" s="267"/>
+      <c r="V3" s="268"/>
+      <c r="Z3" s="266" t="s">
         <v>269</v>
       </c>
-      <c r="AA3" s="254"/>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="255"/>
+      <c r="AA3" s="267"/>
+      <c r="AB3" s="267"/>
+      <c r="AC3" s="268"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -11807,12 +12056,12 @@
       <c r="P5" s="226"/>
       <c r="Q5" s="226"/>
       <c r="R5" s="227"/>
-      <c r="S5" s="246" t="s">
+      <c r="S5" s="259" t="s">
         <v>512</v>
       </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="248"/>
+      <c r="T5" s="260"/>
+      <c r="U5" s="260"/>
+      <c r="V5" s="261"/>
       <c r="W5" s="86" t="s">
         <v>514</v>
       </c>
@@ -11842,12 +12091,12 @@
       <c r="P6" s="226"/>
       <c r="Q6" s="226"/>
       <c r="R6" s="227"/>
-      <c r="S6" s="246" t="s">
+      <c r="S6" s="259" t="s">
         <v>429</v>
       </c>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="248"/>
+      <c r="T6" s="260"/>
+      <c r="U6" s="260"/>
+      <c r="V6" s="261"/>
       <c r="Z6" s="225"/>
       <c r="AA6" s="226"/>
       <c r="AB6" s="226"/>
@@ -13206,17 +13455,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13253,30 +13502,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="69"/>
-      <c r="C1" s="249" t="s">
+      <c r="C1" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="249" t="s">
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="262" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="249" t="s">
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="262" t="s">
         <v>452</v>
       </c>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="249" t="s">
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="262" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="264"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
@@ -13374,12 +13623,12 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="253" t="s">
+      <c r="S3" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="255"/>
+      <c r="T3" s="267"/>
+      <c r="U3" s="267"/>
+      <c r="V3" s="268"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
@@ -13444,12 +13693,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="246" t="s">
+      <c r="S5" s="259" t="s">
         <v>286</v>
       </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="248"/>
+      <c r="T5" s="260"/>
+      <c r="U5" s="260"/>
+      <c r="V5" s="261"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="69" t="s">
@@ -13479,12 +13728,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="246" t="s">
+      <c r="S6" s="259" t="s">
         <v>287</v>
       </c>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="248"/>
+      <c r="T6" s="260"/>
+      <c r="U6" s="260"/>
+      <c r="V6" s="261"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="69" t="s">
@@ -13551,12 +13800,12 @@
         <v>288</v>
       </c>
       <c r="R8" s="41"/>
-      <c r="S8" s="267" t="s">
+      <c r="S8" s="282" t="s">
         <v>388</v>
       </c>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="283"/>
+      <c r="V8" s="283"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="69" t="s">
@@ -16036,30 +16285,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="252" t="s">
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="249" t="s">
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="249" t="s">
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="262" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="251"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="264"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
@@ -16145,12 +16394,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="253" t="s">
+      <c r="R3" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="254"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="255"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="267"/>
+      <c r="U3" s="268"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="68" t="s">
@@ -16212,12 +16461,12 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="246" t="s">
+      <c r="R5" s="259" t="s">
         <v>286</v>
       </c>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="248"/>
+      <c r="S5" s="260"/>
+      <c r="T5" s="260"/>
+      <c r="U5" s="261"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="68" t="s">
@@ -16246,12 +16495,12 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="41"/>
-      <c r="R6" s="246" t="s">
+      <c r="R6" s="259" t="s">
         <v>287</v>
       </c>
-      <c r="S6" s="247"/>
-      <c r="T6" s="247"/>
-      <c r="U6" s="248"/>
+      <c r="S6" s="260"/>
+      <c r="T6" s="260"/>
+      <c r="U6" s="261"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="68" t="s">
@@ -17748,30 +17997,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="252" t="s">
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="249" t="s">
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="249" t="s">
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="262" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="251"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="264"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
@@ -17858,12 +18107,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="253" t="s">
+      <c r="R3" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="254"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="255"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="267"/>
+      <c r="U3" s="268"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
@@ -17916,12 +18165,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="246" t="s">
+      <c r="R5" s="259" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="248"/>
+      <c r="S5" s="260"/>
+      <c r="T5" s="260"/>
+      <c r="U5" s="261"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
@@ -17943,12 +18192,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="246" t="s">
+      <c r="R6" s="259" t="s">
         <v>266</v>
       </c>
-      <c r="S6" s="247"/>
-      <c r="T6" s="247"/>
-      <c r="U6" s="248"/>
+      <c r="S6" s="260"/>
+      <c r="T6" s="260"/>
+      <c r="U6" s="261"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
@@ -19142,10 +19391,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF0BD24-CD79-4B6D-BA74-24783A8ACECA}">
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:X80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -20662,7 +20911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A49" s="197">
         <v>24</v>
       </c>
@@ -20691,7 +20940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A50" s="197">
         <v>25</v>
       </c>
@@ -20720,7 +20969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A51" s="197">
         <v>26</v>
       </c>
@@ -20749,7 +20998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A52" s="197">
         <v>27</v>
       </c>
@@ -20778,7 +21027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A53" s="197">
         <v>28</v>
       </c>
@@ -20807,7 +21056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A54" s="197">
         <v>29</v>
       </c>
@@ -20836,7 +21085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A55" s="197">
         <v>30</v>
       </c>
@@ -20865,7 +21114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A56" s="197">
         <v>31</v>
       </c>
@@ -20894,7 +21143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A57" s="197">
         <v>32</v>
       </c>
@@ -20923,7 +21172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A58" s="197">
         <v>33</v>
       </c>
@@ -20952,17 +21201,768 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
       <c r="I59" s="206"/>
       <c r="J59" s="206"/>
       <c r="K59" s="206"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
       <c r="J60" s="206"/>
       <c r="K60" s="206"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
       <c r="K61" s="206"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="B64" s="245"/>
+      <c r="C64" s="245"/>
+      <c r="D64" s="245"/>
+      <c r="E64" s="245"/>
+      <c r="F64" s="245"/>
+      <c r="G64" s="245"/>
+      <c r="H64" s="245"/>
+      <c r="I64" s="245"/>
+      <c r="J64" s="245"/>
+      <c r="K64" s="245"/>
+      <c r="L64" s="245"/>
+      <c r="M64" s="245"/>
+      <c r="N64" s="245"/>
+      <c r="O64" s="245"/>
+      <c r="P64" s="245"/>
+      <c r="Q64" s="245"/>
+      <c r="R64" s="245"/>
+      <c r="S64" s="245"/>
+      <c r="T64" s="245"/>
+      <c r="U64" s="245"/>
+      <c r="V64" s="245"/>
+      <c r="W64" s="245"/>
+      <c r="X64" s="245"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B65" s="245"/>
+      <c r="C65" s="245"/>
+      <c r="D65" s="245"/>
+      <c r="E65" s="245"/>
+      <c r="F65" s="245"/>
+      <c r="G65" s="245"/>
+      <c r="H65" s="245"/>
+      <c r="I65" s="245"/>
+      <c r="J65" s="245"/>
+      <c r="K65" s="245"/>
+      <c r="L65" s="245"/>
+      <c r="M65" s="245"/>
+      <c r="N65" s="245"/>
+      <c r="O65" s="245"/>
+      <c r="P65" s="245"/>
+      <c r="Q65" s="245"/>
+      <c r="R65" s="245"/>
+      <c r="S65" s="245"/>
+      <c r="T65" s="245"/>
+      <c r="U65" s="245"/>
+      <c r="V65" s="245"/>
+      <c r="W65" s="245"/>
+      <c r="X65" s="245"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B66" s="245"/>
+      <c r="C66" s="245"/>
+      <c r="D66" s="245"/>
+      <c r="E66" s="245"/>
+      <c r="F66" s="245"/>
+      <c r="G66" s="245"/>
+      <c r="H66" s="245"/>
+      <c r="I66" s="245"/>
+      <c r="J66" s="245"/>
+      <c r="K66" s="245"/>
+      <c r="L66" s="245"/>
+      <c r="M66" s="245"/>
+      <c r="N66" s="245"/>
+      <c r="O66" s="245"/>
+      <c r="P66" s="245"/>
+      <c r="Q66" s="245"/>
+      <c r="R66" s="245"/>
+      <c r="S66" s="245"/>
+      <c r="T66" s="245"/>
+      <c r="U66" s="245"/>
+      <c r="V66" s="245"/>
+      <c r="W66" s="245"/>
+      <c r="X66" s="245"/>
+    </row>
+    <row r="67" spans="2:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="245"/>
+      <c r="C67" s="245"/>
+      <c r="D67" s="245"/>
+      <c r="E67" s="245"/>
+      <c r="F67" s="245"/>
+      <c r="G67" s="245"/>
+      <c r="H67" s="245"/>
+      <c r="I67" s="245"/>
+      <c r="J67" s="245"/>
+      <c r="K67" s="245"/>
+      <c r="L67" s="245"/>
+      <c r="M67" s="245"/>
+      <c r="N67" s="245"/>
+      <c r="O67" s="245"/>
+      <c r="P67" s="245"/>
+      <c r="Q67" s="245"/>
+      <c r="R67" s="245"/>
+      <c r="S67" s="245"/>
+      <c r="T67" s="245"/>
+      <c r="U67" s="245"/>
+      <c r="V67" s="245"/>
+      <c r="W67" s="245"/>
+      <c r="X67" s="245"/>
+    </row>
+    <row r="68" spans="2:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="245"/>
+      <c r="C68" s="245"/>
+      <c r="D68" s="245"/>
+      <c r="E68" s="245"/>
+      <c r="F68" s="245"/>
+      <c r="G68" s="245"/>
+      <c r="H68" s="245"/>
+      <c r="I68" s="245"/>
+      <c r="J68" s="284"/>
+      <c r="K68" s="248">
+        <v>1</v>
+      </c>
+      <c r="L68" s="248">
+        <v>2</v>
+      </c>
+      <c r="M68" s="248">
+        <v>3</v>
+      </c>
+      <c r="N68" s="248">
+        <v>4</v>
+      </c>
+      <c r="O68" s="248">
+        <v>5</v>
+      </c>
+      <c r="P68" s="248">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="248">
+        <v>7</v>
+      </c>
+      <c r="R68" s="248">
+        <v>8</v>
+      </c>
+      <c r="S68" s="248">
+        <v>9</v>
+      </c>
+      <c r="T68" s="248">
+        <v>10</v>
+      </c>
+      <c r="U68" s="249">
+        <v>11</v>
+      </c>
+      <c r="V68" s="245"/>
+      <c r="W68" s="245"/>
+      <c r="X68" s="245"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B69" s="245"/>
+      <c r="C69" s="245"/>
+      <c r="D69" s="245"/>
+      <c r="E69" s="245"/>
+      <c r="F69" s="245"/>
+      <c r="G69" s="245"/>
+      <c r="H69" s="245"/>
+      <c r="I69" s="245"/>
+      <c r="J69" s="284">
+        <v>1</v>
+      </c>
+      <c r="K69" s="285" t="s">
+        <v>38</v>
+      </c>
+      <c r="L69" s="285" t="s">
+        <v>936</v>
+      </c>
+      <c r="M69" s="285" t="s">
+        <v>937</v>
+      </c>
+      <c r="N69" s="286" t="s">
+        <v>938</v>
+      </c>
+      <c r="O69" s="285" t="s">
+        <v>939</v>
+      </c>
+      <c r="P69" s="285" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q69" s="285" t="s">
+        <v>941</v>
+      </c>
+      <c r="R69" s="285" t="s">
+        <v>942</v>
+      </c>
+      <c r="S69" s="285" t="s">
+        <v>943</v>
+      </c>
+      <c r="T69" s="285" t="s">
+        <v>944</v>
+      </c>
+      <c r="U69" s="287" t="s">
+        <v>945</v>
+      </c>
+      <c r="V69" s="245"/>
+      <c r="W69" s="288" t="s">
+        <v>946</v>
+      </c>
+      <c r="X69" s="189" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B70" s="245"/>
+      <c r="C70" s="245"/>
+      <c r="D70" s="245"/>
+      <c r="E70" s="245"/>
+      <c r="F70" s="245"/>
+      <c r="G70" s="245"/>
+      <c r="H70" s="245"/>
+      <c r="I70" s="245"/>
+      <c r="J70" s="101">
+        <v>2</v>
+      </c>
+      <c r="K70" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="L70" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="M70" s="99" t="s">
+        <v>948</v>
+      </c>
+      <c r="N70" s="100" t="s">
+        <v>949</v>
+      </c>
+      <c r="O70" s="99" t="s">
+        <v>950</v>
+      </c>
+      <c r="P70" s="99" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q70" s="99" t="s">
+        <v>952</v>
+      </c>
+      <c r="R70" s="99" t="s">
+        <v>953</v>
+      </c>
+      <c r="S70" s="99" t="s">
+        <v>954</v>
+      </c>
+      <c r="T70" s="99" t="s">
+        <v>955</v>
+      </c>
+      <c r="U70" s="289" t="s">
+        <v>956</v>
+      </c>
+      <c r="V70" s="245"/>
+      <c r="W70" s="290" t="s">
+        <v>957</v>
+      </c>
+      <c r="X70" s="291" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B71" s="245"/>
+      <c r="C71" s="245"/>
+      <c r="D71" s="245"/>
+      <c r="E71" s="245"/>
+      <c r="F71" s="245"/>
+      <c r="G71" s="245"/>
+      <c r="H71" s="245"/>
+      <c r="I71" s="245"/>
+      <c r="J71" s="101">
+        <v>3</v>
+      </c>
+      <c r="K71" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="L71" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="M71" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="N71" s="99" t="s">
+        <v>959</v>
+      </c>
+      <c r="O71" s="99" t="s">
+        <v>960</v>
+      </c>
+      <c r="P71" s="99" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q71" s="99" t="s">
+        <v>962</v>
+      </c>
+      <c r="R71" s="99" t="s">
+        <v>963</v>
+      </c>
+      <c r="S71" s="99" t="s">
+        <v>964</v>
+      </c>
+      <c r="T71" s="99" t="s">
+        <v>965</v>
+      </c>
+      <c r="U71" s="289" t="s">
+        <v>966</v>
+      </c>
+      <c r="V71" s="245"/>
+      <c r="W71" s="290" t="s">
+        <v>967</v>
+      </c>
+      <c r="X71" s="291" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="245"/>
+      <c r="C72" s="245"/>
+      <c r="D72" s="245"/>
+      <c r="E72" s="245"/>
+      <c r="F72" s="245"/>
+      <c r="G72" s="245"/>
+      <c r="H72" s="245"/>
+      <c r="I72" s="245"/>
+      <c r="J72" s="101">
+        <v>4</v>
+      </c>
+      <c r="K72" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="L72" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="M72" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="N72" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="O72" s="99" t="s">
+        <v>969</v>
+      </c>
+      <c r="P72" s="99" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q72" s="99" t="s">
+        <v>971</v>
+      </c>
+      <c r="R72" s="99" t="s">
+        <v>972</v>
+      </c>
+      <c r="S72" s="99" t="s">
+        <v>973</v>
+      </c>
+      <c r="T72" s="99" t="s">
+        <v>974</v>
+      </c>
+      <c r="U72" s="289" t="s">
+        <v>975</v>
+      </c>
+      <c r="V72" s="245"/>
+      <c r="W72" s="246"/>
+      <c r="X72" s="247"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B73" s="292" t="s">
+        <v>946</v>
+      </c>
+      <c r="C73" s="293" t="s">
+        <v>957</v>
+      </c>
+      <c r="D73" s="293" t="s">
+        <v>967</v>
+      </c>
+      <c r="E73" s="248"/>
+      <c r="F73" s="248"/>
+      <c r="G73" s="293" t="s">
+        <v>976</v>
+      </c>
+      <c r="H73" s="294" t="s">
+        <v>977</v>
+      </c>
+      <c r="I73" s="245"/>
+      <c r="J73" s="101">
+        <v>5</v>
+      </c>
+      <c r="K73" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="L73" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="M73" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="N73" s="99" t="s">
+        <v>333</v>
+      </c>
+      <c r="O73" s="99" t="s">
+        <v>325</v>
+      </c>
+      <c r="P73" s="99" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q73" s="99" t="s">
+        <v>332</v>
+      </c>
+      <c r="R73" s="99" t="s">
+        <v>978</v>
+      </c>
+      <c r="S73" s="99" t="s">
+        <v>979</v>
+      </c>
+      <c r="T73" s="99" t="s">
+        <v>980</v>
+      </c>
+      <c r="U73" s="289" t="s">
+        <v>981</v>
+      </c>
+      <c r="V73" s="245"/>
+      <c r="W73" s="246"/>
+      <c r="X73" s="247"/>
+    </row>
+    <row r="74" spans="2:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="181" t="s">
+        <v>947</v>
+      </c>
+      <c r="C74" s="108" t="s">
+        <v>958</v>
+      </c>
+      <c r="D74" s="108" t="s">
+        <v>968</v>
+      </c>
+      <c r="E74" s="250"/>
+      <c r="F74" s="250"/>
+      <c r="G74" s="108" t="s">
+        <v>982</v>
+      </c>
+      <c r="H74" s="295" t="s">
+        <v>983</v>
+      </c>
+      <c r="I74" s="245"/>
+      <c r="J74" s="101">
+        <v>6</v>
+      </c>
+      <c r="K74" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="L74" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="M74" s="99" t="s">
+        <v>248</v>
+      </c>
+      <c r="N74" s="99" t="s">
+        <v>342</v>
+      </c>
+      <c r="O74" s="99" t="s">
+        <v>335</v>
+      </c>
+      <c r="P74" s="99" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q74" s="99" t="s">
+        <v>336</v>
+      </c>
+      <c r="R74" s="99" t="s">
+        <v>984</v>
+      </c>
+      <c r="S74" s="99" t="s">
+        <v>985</v>
+      </c>
+      <c r="T74" s="99" t="s">
+        <v>986</v>
+      </c>
+      <c r="U74" s="289" t="s">
+        <v>987</v>
+      </c>
+      <c r="V74" s="245"/>
+      <c r="W74" s="290" t="s">
+        <v>976</v>
+      </c>
+      <c r="X74" s="291" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B75" s="245"/>
+      <c r="C75" s="245"/>
+      <c r="D75" s="245"/>
+      <c r="E75" s="245"/>
+      <c r="F75" s="245"/>
+      <c r="G75" s="245"/>
+      <c r="H75" s="245"/>
+      <c r="I75" s="245"/>
+      <c r="J75" s="101">
+        <v>7</v>
+      </c>
+      <c r="K75" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="L75" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="M75" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="N75" s="99" t="s">
+        <v>340</v>
+      </c>
+      <c r="O75" s="99" t="s">
+        <v>338</v>
+      </c>
+      <c r="P75" s="99" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q75" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="R75" s="99" t="s">
+        <v>988</v>
+      </c>
+      <c r="S75" s="99" t="s">
+        <v>989</v>
+      </c>
+      <c r="T75" s="99" t="s">
+        <v>990</v>
+      </c>
+      <c r="U75" s="289" t="s">
+        <v>991</v>
+      </c>
+      <c r="V75" s="245"/>
+      <c r="W75" s="290" t="s">
+        <v>977</v>
+      </c>
+      <c r="X75" s="291" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B76" s="245"/>
+      <c r="C76" s="245"/>
+      <c r="D76" s="245"/>
+      <c r="E76" s="245"/>
+      <c r="F76" s="245"/>
+      <c r="G76" s="245"/>
+      <c r="H76" s="245"/>
+      <c r="I76" s="245"/>
+      <c r="J76" s="101">
+        <v>8</v>
+      </c>
+      <c r="K76" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="L76" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="M76" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="N76" s="99" t="s">
+        <v>543</v>
+      </c>
+      <c r="O76" s="99" t="s">
+        <v>544</v>
+      </c>
+      <c r="P76" s="99" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q76" s="99" t="s">
+        <v>555</v>
+      </c>
+      <c r="R76" s="99" t="s">
+        <v>556</v>
+      </c>
+      <c r="S76" s="99" t="s">
+        <v>992</v>
+      </c>
+      <c r="T76" s="99" t="s">
+        <v>993</v>
+      </c>
+      <c r="U76" s="289" t="s">
+        <v>994</v>
+      </c>
+      <c r="V76" s="245"/>
+      <c r="W76" s="246"/>
+      <c r="X76" s="247"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B77" s="245"/>
+      <c r="C77" s="245"/>
+      <c r="D77" s="245"/>
+      <c r="E77" s="245"/>
+      <c r="F77" s="245"/>
+      <c r="G77" s="245"/>
+      <c r="H77" s="245"/>
+      <c r="I77" s="245"/>
+      <c r="J77" s="101">
+        <v>9</v>
+      </c>
+      <c r="K77" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="L77" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="M77" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="N77" s="99" t="s">
+        <v>546</v>
+      </c>
+      <c r="O77" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="P77" s="99" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q77" s="99" t="s">
+        <v>557</v>
+      </c>
+      <c r="R77" s="99" t="s">
+        <v>558</v>
+      </c>
+      <c r="S77" s="99" t="s">
+        <v>559</v>
+      </c>
+      <c r="T77" s="99" t="s">
+        <v>995</v>
+      </c>
+      <c r="U77" s="289" t="s">
+        <v>996</v>
+      </c>
+      <c r="V77" s="245"/>
+      <c r="W77" s="246"/>
+      <c r="X77" s="247"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B78" s="245"/>
+      <c r="C78" s="245"/>
+      <c r="D78" s="245"/>
+      <c r="E78" s="245"/>
+      <c r="F78" s="245"/>
+      <c r="G78" s="245"/>
+      <c r="H78" s="245"/>
+      <c r="I78" s="245"/>
+      <c r="J78" s="101">
+        <v>10</v>
+      </c>
+      <c r="K78" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="L78" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="M78" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="N78" s="99" t="s">
+        <v>549</v>
+      </c>
+      <c r="O78" s="99" t="s">
+        <v>550</v>
+      </c>
+      <c r="P78" s="99" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q78" s="99" t="s">
+        <v>560</v>
+      </c>
+      <c r="R78" s="99" t="s">
+        <v>561</v>
+      </c>
+      <c r="S78" s="99" t="s">
+        <v>562</v>
+      </c>
+      <c r="T78" s="99" t="s">
+        <v>563</v>
+      </c>
+      <c r="U78" s="289" t="s">
+        <v>997</v>
+      </c>
+      <c r="V78" s="245"/>
+      <c r="W78" s="246"/>
+      <c r="X78" s="247"/>
+    </row>
+    <row r="79" spans="2:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="245"/>
+      <c r="C79" s="245"/>
+      <c r="D79" s="245"/>
+      <c r="E79" s="245"/>
+      <c r="F79" s="245"/>
+      <c r="G79" s="245"/>
+      <c r="H79" s="245"/>
+      <c r="I79" s="245"/>
+      <c r="J79" s="252">
+        <v>11</v>
+      </c>
+      <c r="K79" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="L79" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="M79" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="N79" s="110" t="s">
+        <v>552</v>
+      </c>
+      <c r="O79" s="109" t="s">
+        <v>553</v>
+      </c>
+      <c r="P79" s="109" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q79" s="109" t="s">
+        <v>564</v>
+      </c>
+      <c r="R79" s="109" t="s">
+        <v>565</v>
+      </c>
+      <c r="S79" s="109" t="s">
+        <v>566</v>
+      </c>
+      <c r="T79" s="109" t="s">
+        <v>567</v>
+      </c>
+      <c r="U79" s="111" t="s">
+        <v>568</v>
+      </c>
+      <c r="V79" s="245"/>
+      <c r="W79" s="44"/>
+      <c r="X79" s="251"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B80" s="245"/>
+      <c r="C80" s="245"/>
+      <c r="D80" s="245"/>
+      <c r="E80" s="245"/>
+      <c r="F80" s="245"/>
+      <c r="G80" s="245"/>
+      <c r="H80" s="245"/>
+      <c r="I80" s="245"/>
+      <c r="J80" s="245"/>
+      <c r="K80" s="245"/>
+      <c r="L80" s="245"/>
+      <c r="M80" s="245"/>
+      <c r="N80" s="245"/>
+      <c r="O80" s="245"/>
+      <c r="P80" s="245"/>
+      <c r="Q80" s="245"/>
+      <c r="R80" s="245"/>
+      <c r="S80" s="245"/>
+      <c r="T80" s="245"/>
+      <c r="U80" s="245"/>
+      <c r="V80" s="245"/>
+      <c r="W80" s="245"/>
+      <c r="X80" s="245"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21423,67 +22423,67 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="269" t="s">
         <v>524</v>
       </c>
-      <c r="C6" s="257"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="256" t="s">
+      <c r="C6" s="270"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="269" t="s">
         <v>525</v>
       </c>
-      <c r="F6" s="257"/>
-      <c r="G6" s="258"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="271"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="257"/>
-      <c r="H7" s="257"/>
-      <c r="I7" s="257"/>
-      <c r="J7" s="257"/>
-      <c r="K7" s="257"/>
-      <c r="L7" s="257"/>
-      <c r="M7" s="257"/>
-      <c r="N7" s="257"/>
-      <c r="O7" s="257"/>
-      <c r="P7" s="258"/>
-      <c r="Q7" s="256" t="s">
+      <c r="C7" s="270"/>
+      <c r="D7" s="270"/>
+      <c r="E7" s="270"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="270"/>
+      <c r="H7" s="270"/>
+      <c r="I7" s="270"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="270"/>
+      <c r="L7" s="270"/>
+      <c r="M7" s="270"/>
+      <c r="N7" s="270"/>
+      <c r="O7" s="270"/>
+      <c r="P7" s="271"/>
+      <c r="Q7" s="269" t="s">
         <v>219</v>
       </c>
-      <c r="R7" s="257"/>
-      <c r="S7" s="257"/>
-      <c r="T7" s="257"/>
-      <c r="U7" s="257"/>
-      <c r="V7" s="257"/>
-      <c r="W7" s="257"/>
-      <c r="X7" s="257"/>
-      <c r="Y7" s="257"/>
-      <c r="Z7" s="257"/>
-      <c r="AA7" s="258"/>
-      <c r="AB7" s="256" t="s">
+      <c r="R7" s="270"/>
+      <c r="S7" s="270"/>
+      <c r="T7" s="270"/>
+      <c r="U7" s="270"/>
+      <c r="V7" s="270"/>
+      <c r="W7" s="270"/>
+      <c r="X7" s="270"/>
+      <c r="Y7" s="270"/>
+      <c r="Z7" s="270"/>
+      <c r="AA7" s="271"/>
+      <c r="AB7" s="269" t="s">
         <v>220</v>
       </c>
-      <c r="AC7" s="257"/>
-      <c r="AD7" s="257"/>
-      <c r="AE7" s="257"/>
-      <c r="AF7" s="257"/>
-      <c r="AG7" s="257"/>
-      <c r="AH7" s="257"/>
-      <c r="AI7" s="257"/>
-      <c r="AJ7" s="257"/>
-      <c r="AK7" s="257"/>
-      <c r="AL7" s="257"/>
-      <c r="AM7" s="257"/>
-      <c r="AN7" s="257"/>
-      <c r="AO7" s="257"/>
-      <c r="AP7" s="257"/>
-      <c r="AQ7" s="257"/>
-      <c r="AR7" s="258"/>
+      <c r="AC7" s="270"/>
+      <c r="AD7" s="270"/>
+      <c r="AE7" s="270"/>
+      <c r="AF7" s="270"/>
+      <c r="AG7" s="270"/>
+      <c r="AH7" s="270"/>
+      <c r="AI7" s="270"/>
+      <c r="AJ7" s="270"/>
+      <c r="AK7" s="270"/>
+      <c r="AL7" s="270"/>
+      <c r="AM7" s="270"/>
+      <c r="AN7" s="270"/>
+      <c r="AO7" s="270"/>
+      <c r="AP7" s="270"/>
+      <c r="AQ7" s="270"/>
+      <c r="AR7" s="271"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="E9" s="45"/>
@@ -21552,18 +22552,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="258" t="s">
         <v>690</v>
       </c>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
@@ -22734,11 +23734,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="253" t="s">
+      <c r="D1" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
       <c r="G1" s="64"/>
       <c r="H1" s="60"/>
       <c r="I1" s="94"/>
@@ -22796,12 +23796,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="249" t="s">
+      <c r="D6" s="262" t="s">
         <v>629</v>
       </c>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="251"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="264"/>
       <c r="H6" s="124"/>
       <c r="I6" s="96"/>
       <c r="J6" s="96"/>
@@ -22810,27 +23810,27 @@
       <c r="M6" s="96"/>
       <c r="N6" s="96"/>
       <c r="O6" s="96"/>
-      <c r="P6" s="249" t="s">
+      <c r="P6" s="262" t="s">
         <v>630</v>
       </c>
-      <c r="Q6" s="250"/>
-      <c r="R6" s="250"/>
-      <c r="S6" s="251"/>
-      <c r="AF6" s="249" t="s">
+      <c r="Q6" s="263"/>
+      <c r="R6" s="263"/>
+      <c r="S6" s="264"/>
+      <c r="AF6" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="250"/>
-      <c r="AH6" s="250"/>
-      <c r="AI6" s="251"/>
+      <c r="AG6" s="263"/>
+      <c r="AH6" s="263"/>
+      <c r="AI6" s="264"/>
       <c r="AJ6" s="155"/>
-      <c r="AK6" s="249" t="s">
+      <c r="AK6" s="262" t="s">
         <v>628</v>
       </c>
-      <c r="AL6" s="250"/>
-      <c r="AM6" s="250"/>
-      <c r="AN6" s="250"/>
-      <c r="AO6" s="250"/>
-      <c r="AP6" s="251"/>
+      <c r="AL6" s="263"/>
+      <c r="AM6" s="263"/>
+      <c r="AN6" s="263"/>
+      <c r="AO6" s="263"/>
+      <c r="AP6" s="264"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="35" t="s">
@@ -22908,11 +23908,11 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
       <c r="L8" s="96"/>
-      <c r="M8" s="260" t="s">
+      <c r="M8" s="273" t="s">
         <v>536</v>
       </c>
-      <c r="N8" s="260"/>
-      <c r="O8" s="260"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="273"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="121"/>
       <c r="R8" s="121"/>
@@ -22933,12 +23933,12 @@
       <c r="AL8" s="156"/>
       <c r="AM8" s="156"/>
       <c r="AN8" s="156"/>
-      <c r="AQ8" s="246" t="s">
+      <c r="AQ8" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="247"/>
-      <c r="AS8" s="247"/>
-      <c r="AT8" s="248"/>
+      <c r="AR8" s="260"/>
+      <c r="AS8" s="260"/>
+      <c r="AT8" s="261"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="40"/>
@@ -22950,11 +23950,11 @@
       <c r="J9" s="123"/>
       <c r="K9" s="123"/>
       <c r="L9" s="123"/>
-      <c r="M9" s="262" t="s">
+      <c r="M9" s="275" t="s">
         <v>537</v>
       </c>
-      <c r="N9" s="262"/>
-      <c r="O9" s="261"/>
+      <c r="N9" s="275"/>
+      <c r="O9" s="274"/>
       <c r="P9" s="120"/>
       <c r="Q9" s="121"/>
       <c r="R9" s="121"/>
@@ -22996,9 +23996,9 @@
       <c r="J10" s="123"/>
       <c r="K10" s="123"/>
       <c r="L10" s="123"/>
-      <c r="M10" s="259"/>
-      <c r="N10" s="259"/>
-      <c r="O10" s="259"/>
+      <c r="M10" s="272"/>
+      <c r="N10" s="272"/>
+      <c r="O10" s="272"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="121"/>
       <c r="R10" s="121"/>
@@ -23023,12 +24023,12 @@
       <c r="AL10" s="156"/>
       <c r="AM10" s="156"/>
       <c r="AN10" s="156"/>
-      <c r="AQ10" s="246" t="s">
+      <c r="AQ10" s="259" t="s">
         <v>54</v>
       </c>
-      <c r="AR10" s="247"/>
-      <c r="AS10" s="247"/>
-      <c r="AT10" s="248"/>
+      <c r="AR10" s="260"/>
+      <c r="AS10" s="260"/>
+      <c r="AT10" s="261"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="40"/>
@@ -23064,12 +24064,12 @@
       <c r="AL11" s="156"/>
       <c r="AM11" s="156"/>
       <c r="AN11" s="156"/>
-      <c r="AQ11" s="246" t="s">
+      <c r="AQ11" s="259" t="s">
         <v>627</v>
       </c>
-      <c r="AR11" s="247"/>
-      <c r="AS11" s="247"/>
-      <c r="AT11" s="248"/>
+      <c r="AR11" s="260"/>
+      <c r="AS11" s="260"/>
+      <c r="AT11" s="261"/>
       <c r="AU11" s="26" t="s">
         <v>267</v>
       </c>
@@ -23095,11 +24095,11 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
       <c r="L12" s="96"/>
-      <c r="M12" s="263" t="s">
+      <c r="M12" s="276" t="s">
         <v>535</v>
       </c>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
+      <c r="N12" s="276"/>
+      <c r="O12" s="276"/>
       <c r="P12" s="120"/>
       <c r="Q12" s="121"/>
       <c r="R12" s="121"/>
@@ -23113,12 +24113,12 @@
       <c r="AL12" s="156"/>
       <c r="AM12" s="156"/>
       <c r="AN12" s="156"/>
-      <c r="AQ12" s="246" t="s">
+      <c r="AQ12" s="259" t="s">
         <v>534</v>
       </c>
-      <c r="AR12" s="247"/>
-      <c r="AS12" s="247"/>
-      <c r="AT12" s="248"/>
+      <c r="AR12" s="260"/>
+      <c r="AS12" s="260"/>
+      <c r="AT12" s="261"/>
       <c r="AV12" s="21" t="s">
         <v>623</v>
       </c>
@@ -23134,12 +24134,12 @@
         <v>530</v>
       </c>
       <c r="C13" s="133"/>
-      <c r="D13" s="249" t="s">
+      <c r="D13" s="262" t="s">
         <v>538</v>
       </c>
-      <c r="E13" s="250"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="250"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="263"/>
+      <c r="G13" s="263"/>
       <c r="H13" s="169" t="s">
         <v>641</v>
       </c>
@@ -23162,11 +24162,11 @@
       <c r="O13" s="182" t="s">
         <v>645</v>
       </c>
-      <c r="P13" s="249" t="s">
+      <c r="P13" s="262" t="s">
         <v>539</v>
       </c>
-      <c r="Q13" s="250"/>
-      <c r="R13" s="250"/>
+      <c r="Q13" s="263"/>
+      <c r="R13" s="263"/>
       <c r="S13" s="158"/>
       <c r="T13" s="172" t="s">
         <v>666</v>
@@ -23202,18 +24202,18 @@
       <c r="AH13" s="60"/>
       <c r="AI13" s="43"/>
       <c r="AJ13" s="155"/>
-      <c r="AK13" s="246" t="s">
+      <c r="AK13" s="259" t="s">
         <v>538</v>
       </c>
-      <c r="AL13" s="247"/>
-      <c r="AM13" s="247"/>
-      <c r="AN13" s="247"/>
-      <c r="AQ13" s="246" t="s">
+      <c r="AL13" s="260"/>
+      <c r="AM13" s="260"/>
+      <c r="AN13" s="260"/>
+      <c r="AQ13" s="259" t="s">
         <v>620</v>
       </c>
-      <c r="AR13" s="245"/>
-      <c r="AS13" s="245"/>
-      <c r="AT13" s="245"/>
+      <c r="AR13" s="258"/>
+      <c r="AS13" s="258"/>
+      <c r="AT13" s="258"/>
       <c r="AV13" s="21" t="s">
         <v>624</v>
       </c>
@@ -23905,8 +24905,8 @@
       </c>
       <c r="AO30" s="161"/>
       <c r="AP30" s="163"/>
-      <c r="AR30" s="261"/>
-      <c r="AS30" s="261"/>
+      <c r="AR30" s="274"/>
+      <c r="AS30" s="274"/>
     </row>
     <row r="31" spans="1:52" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="201" t="s">
@@ -24359,8 +25359,8 @@
         <v>88</v>
       </c>
       <c r="AO40" s="161"/>
-      <c r="AR40" s="259"/>
-      <c r="AS40" s="259"/>
+      <c r="AR40" s="272"/>
+      <c r="AS40" s="272"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="153" t="s">
@@ -24594,8 +25594,8 @@
         <v>643</v>
       </c>
       <c r="AP46" s="163"/>
-      <c r="AR46" s="259"/>
-      <c r="AS46" s="259"/>
+      <c r="AR46" s="272"/>
+      <c r="AS46" s="272"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A47" s="153" t="s">
@@ -24680,12 +25680,12 @@
         <v>532</v>
       </c>
       <c r="C49" s="180"/>
-      <c r="D49" s="249" t="s">
+      <c r="D49" s="262" t="s">
         <v>538</v>
       </c>
-      <c r="E49" s="250"/>
-      <c r="F49" s="250"/>
-      <c r="G49" s="250"/>
+      <c r="E49" s="263"/>
+      <c r="F49" s="263"/>
+      <c r="G49" s="263"/>
       <c r="H49" s="169" t="s">
         <v>641</v>
       </c>
@@ -24708,11 +25708,11 @@
       <c r="O49" s="182" t="s">
         <v>645</v>
       </c>
-      <c r="P49" s="249" t="s">
+      <c r="P49" s="262" t="s">
         <v>539</v>
       </c>
-      <c r="Q49" s="250"/>
-      <c r="R49" s="250"/>
+      <c r="Q49" s="263"/>
+      <c r="R49" s="263"/>
       <c r="S49" s="191"/>
       <c r="T49" s="172" t="s">
         <v>666</v>
@@ -26042,6 +27042,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AQ10:AT10"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AQ11:AT11"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="P49:R49"/>
     <mergeCell ref="AR46:AS46"/>
@@ -26058,12 +27064,6 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="AQ12:AT12"/>
-    <mergeCell ref="AR40:AS40"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AQ10:AT10"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AQ11:AT11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26075,7 +27075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43FEDAF-23E6-469D-8A80-8AB9F6CCCBDB}">
   <dimension ref="A1:AU190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L95" sqref="L95"/>
     </sheetView>
@@ -26121,11 +27121,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="266" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
       <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -26150,49 +27150,49 @@
       </c>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="277" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="266"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="279"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="246" t="s">
+      <c r="B5" s="259" t="s">
         <v>533</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="248"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="261"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="249" t="s">
+      <c r="B6" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="250"/>
-      <c r="D6" s="250"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="252" t="s">
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="249" t="s">
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="250"/>
-      <c r="L6" s="250"/>
-      <c r="M6" s="251"/>
-      <c r="N6" s="249" t="s">
+      <c r="K6" s="263"/>
+      <c r="L6" s="263"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="262" t="s">
         <v>187</v>
       </c>
-      <c r="O6" s="250"/>
-      <c r="P6" s="250"/>
-      <c r="Q6" s="251"/>
+      <c r="O6" s="263"/>
+      <c r="P6" s="263"/>
+      <c r="Q6" s="264"/>
       <c r="V6" s="56"/>
       <c r="W6" s="57"/>
       <c r="X6" s="57"/>
@@ -26221,24 +27221,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="210"/>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="262" t="s">
         <v>629</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="249" t="s">
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="262" t="s">
         <v>630</v>
       </c>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="249" t="s">
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="262" t="s">
         <v>801</v>
       </c>
-      <c r="K7" s="250"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="251"/>
+      <c r="K7" s="263"/>
+      <c r="L7" s="263"/>
+      <c r="M7" s="264"/>
       <c r="N7" s="207"/>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
@@ -27001,10 +28001,10 @@
       <c r="M38" s="232" t="s">
         <v>803</v>
       </c>
-      <c r="N38" s="274"/>
-      <c r="O38" s="274"/>
-      <c r="P38" s="274"/>
-      <c r="Q38" s="275"/>
+      <c r="N38" s="255"/>
+      <c r="O38" s="255"/>
+      <c r="P38" s="255"/>
+      <c r="Q38" s="256"/>
     </row>
     <row r="39" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="210" t="s">
@@ -27584,10 +28584,10 @@
       <c r="M66" s="232" t="s">
         <v>803</v>
       </c>
-      <c r="N66" s="274"/>
-      <c r="O66" s="274"/>
-      <c r="P66" s="274"/>
-      <c r="Q66" s="275"/>
+      <c r="N66" s="255"/>
+      <c r="O66" s="255"/>
+      <c r="P66" s="255"/>
+      <c r="Q66" s="256"/>
     </row>
     <row r="67" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="210" t="s">
@@ -28857,10 +29857,10 @@
       <c r="M128" s="232" t="s">
         <v>805</v>
       </c>
-      <c r="N128" s="274"/>
-      <c r="O128" s="274"/>
-      <c r="P128" s="274"/>
-      <c r="Q128" s="275"/>
+      <c r="N128" s="255"/>
+      <c r="O128" s="255"/>
+      <c r="P128" s="255"/>
+      <c r="Q128" s="256"/>
     </row>
     <row r="129" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="210" t="s">
@@ -30112,16 +31112,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30156,57 +31156,57 @@
       <c r="A1" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="252" t="s">
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="249" t="s">
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="249" t="s">
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="262" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="253" t="s">
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="266" t="s">
         <v>262</v>
       </c>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
+      <c r="S1" s="267"/>
+      <c r="T1" s="267"/>
       <c r="U1" s="42"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="224"/>
-      <c r="B2" s="249" t="s">
+      <c r="B2" s="262" t="s">
         <v>629</v>
       </c>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="249" t="s">
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="262" t="s">
         <v>630</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="249" t="s">
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="262" t="s">
         <v>801</v>
       </c>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="251"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="264"/>
       <c r="N2" s="44"/>
       <c r="O2" s="228"/>
       <c r="P2" s="228"/>
@@ -30233,7 +31233,7 @@
       <c r="D3" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="269" t="s">
+      <c r="E3" s="252" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="228" t="s">
@@ -30257,7 +31257,7 @@
       <c r="L3" s="228" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="269" t="s">
+      <c r="M3" s="252" t="s">
         <v>185</v>
       </c>
       <c r="N3" s="44" t="s">
@@ -30269,7 +31269,7 @@
       <c r="P3" s="228" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="269" t="s">
+      <c r="Q3" s="252" t="s">
         <v>188</v>
       </c>
       <c r="R3" s="226" t="s">
@@ -30305,12 +31305,12 @@
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="34"/>
-      <c r="R4" s="264" t="s">
+      <c r="R4" s="277" t="s">
         <v>286</v>
       </c>
-      <c r="S4" s="265"/>
-      <c r="T4" s="265"/>
-      <c r="U4" s="266"/>
+      <c r="S4" s="278"/>
+      <c r="T4" s="278"/>
+      <c r="U4" s="279"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="224" t="s">
@@ -30333,12 +31333,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="246" t="s">
+      <c r="R5" s="259" t="s">
         <v>879</v>
       </c>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="248"/>
+      <c r="S5" s="260"/>
+      <c r="T5" s="260"/>
+      <c r="U5" s="261"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="224" t="s">
@@ -30890,7 +31890,7 @@
       <c r="A35" s="224" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="270" t="s">
+      <c r="B35" s="253" t="s">
         <v>583</v>
       </c>
       <c r="C35" s="76" t="s">
@@ -30910,7 +31910,7 @@
       <c r="A36" s="224" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="270" t="s">
+      <c r="B36" s="253" t="s">
         <v>585</v>
       </c>
       <c r="C36" s="76" t="s">
@@ -30932,7 +31932,7 @@
       <c r="A37" s="224" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="270" t="s">
+      <c r="B37" s="253" t="s">
         <v>587</v>
       </c>
       <c r="D37" s="83"/>
@@ -30988,7 +31988,7 @@
       <c r="A41" s="224" t="s">
         <v>346</v>
       </c>
-      <c r="B41" s="270" t="s">
+      <c r="B41" s="253" t="s">
         <v>583</v>
       </c>
       <c r="C41" s="76" t="s">
@@ -31013,7 +32013,7 @@
       <c r="A42" s="224" t="s">
         <v>347</v>
       </c>
-      <c r="B42" s="270" t="s">
+      <c r="B42" s="253" t="s">
         <v>585</v>
       </c>
       <c r="C42" s="76" t="s">
@@ -31042,7 +32042,7 @@
       <c r="A43" s="224" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="270" t="s">
+      <c r="B43" s="253" t="s">
         <v>587</v>
       </c>
       <c r="D43" s="83"/>
@@ -31125,7 +32125,7 @@
       <c r="A47" s="224" t="s">
         <v>352</v>
       </c>
-      <c r="B47" s="270" t="s">
+      <c r="B47" s="253" t="s">
         <v>583</v>
       </c>
       <c r="C47" s="76" t="s">
@@ -31148,7 +32148,7 @@
       <c r="A48" s="224" t="s">
         <v>353</v>
       </c>
-      <c r="B48" s="270" t="s">
+      <c r="B48" s="253" t="s">
         <v>585</v>
       </c>
       <c r="C48" s="76" t="s">
@@ -31173,7 +32173,7 @@
       <c r="A49" s="224" t="s">
         <v>354</v>
       </c>
-      <c r="B49" s="270" t="s">
+      <c r="B49" s="253" t="s">
         <v>587</v>
       </c>
       <c r="D49" s="83"/>
@@ -31437,7 +32437,7 @@
       <c r="A65" s="224" t="s">
         <v>370</v>
       </c>
-      <c r="B65" s="271" t="s">
+      <c r="B65" s="254" t="s">
         <v>584</v>
       </c>
       <c r="C65" s="77" t="s">
@@ -31461,7 +32461,7 @@
       <c r="A66" s="224" t="s">
         <v>371</v>
       </c>
-      <c r="B66" s="271" t="s">
+      <c r="B66" s="254" t="s">
         <v>586</v>
       </c>
       <c r="C66" s="77" t="s">
@@ -31487,7 +32487,7 @@
       <c r="A67" s="224" t="s">
         <v>372</v>
       </c>
-      <c r="B67" s="271" t="s">
+      <c r="B67" s="254" t="s">
         <v>588</v>
       </c>
       <c r="D67" s="83"/>
@@ -31559,7 +32559,7 @@
       <c r="A71" s="224" t="s">
         <v>376</v>
       </c>
-      <c r="B71" s="271" t="s">
+      <c r="B71" s="254" t="s">
         <v>584</v>
       </c>
       <c r="C71" s="77" t="s">
@@ -31585,7 +32585,7 @@
       <c r="A72" s="224" t="s">
         <v>378</v>
       </c>
-      <c r="B72" s="271" t="s">
+      <c r="B72" s="254" t="s">
         <v>586</v>
       </c>
       <c r="C72" s="77" t="s">
@@ -31614,7 +32614,7 @@
       <c r="A73" s="224" t="s">
         <v>379</v>
       </c>
-      <c r="B73" s="271" t="s">
+      <c r="B73" s="254" t="s">
         <v>588</v>
       </c>
       <c r="D73" s="83"/>
@@ -31693,7 +32693,7 @@
       <c r="A77" s="224" t="s">
         <v>383</v>
       </c>
-      <c r="B77" s="271" t="s">
+      <c r="B77" s="254" t="s">
         <v>584</v>
       </c>
       <c r="C77" s="77" t="s">
@@ -31719,7 +32719,7 @@
       <c r="A78" s="224" t="s">
         <v>384</v>
       </c>
-      <c r="B78" s="271" t="s">
+      <c r="B78" s="254" t="s">
         <v>586</v>
       </c>
       <c r="C78" s="77" t="s">
@@ -31748,7 +32748,7 @@
       <c r="A79" s="224" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="271" t="s">
+      <c r="B79" s="254" t="s">
         <v>588</v>
       </c>
       <c r="D79" s="83"/>
@@ -32008,11 +33008,11 @@
       <c r="K93" s="222"/>
       <c r="L93" s="232"/>
       <c r="M93" s="232"/>
-      <c r="R93" s="253" t="s">
+      <c r="R93" s="266" t="s">
         <v>262</v>
       </c>
-      <c r="S93" s="254"/>
-      <c r="T93" s="254"/>
+      <c r="S93" s="267"/>
+      <c r="T93" s="267"/>
       <c r="U93" s="42"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -32101,12 +33101,12 @@
       <c r="K96" s="83"/>
       <c r="L96" s="83"/>
       <c r="M96" s="84"/>
-      <c r="R96" s="264" t="s">
+      <c r="R96" s="277" t="s">
         <v>54</v>
       </c>
-      <c r="S96" s="272"/>
-      <c r="T96" s="272"/>
-      <c r="U96" s="273"/>
+      <c r="S96" s="280"/>
+      <c r="T96" s="280"/>
+      <c r="U96" s="281"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="224" t="s">
@@ -32128,12 +33128,12 @@
       <c r="K97" s="83"/>
       <c r="L97" s="83"/>
       <c r="M97" s="84"/>
-      <c r="R97" s="253" t="s">
+      <c r="R97" s="266" t="s">
         <v>879</v>
       </c>
-      <c r="S97" s="254"/>
-      <c r="T97" s="254"/>
-      <c r="U97" s="255"/>
+      <c r="S97" s="267"/>
+      <c r="T97" s="267"/>
+      <c r="U97" s="268"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="224" t="s">
@@ -32185,11 +33185,11 @@
       <c r="K100" s="83"/>
       <c r="L100" s="83"/>
       <c r="M100" s="84"/>
-      <c r="R100" s="253" t="s">
+      <c r="R100" s="266" t="s">
         <v>880</v>
       </c>
-      <c r="S100" s="254"/>
-      <c r="T100" s="254"/>
+      <c r="S100" s="267"/>
+      <c r="T100" s="267"/>
       <c r="U100" s="42"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -32285,12 +33285,12 @@
       <c r="M103" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="R103" s="264" t="s">
+      <c r="R103" s="277" t="s">
         <v>286</v>
       </c>
-      <c r="S103" s="272"/>
-      <c r="T103" s="272"/>
-      <c r="U103" s="273"/>
+      <c r="S103" s="280"/>
+      <c r="T103" s="280"/>
+      <c r="U103" s="281"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="224" t="s">
@@ -32307,12 +33307,12 @@
       <c r="L104" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="R104" s="253" t="s">
+      <c r="R104" s="266" t="s">
         <v>879</v>
       </c>
-      <c r="S104" s="254"/>
-      <c r="T104" s="254"/>
-      <c r="U104" s="255"/>
+      <c r="S104" s="267"/>
+      <c r="T104" s="267"/>
+      <c r="U104" s="268"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="224" t="s">
@@ -32662,12 +33662,12 @@
       <c r="L124" s="34" t="s">
         <v>778</v>
       </c>
-      <c r="R124" s="253" t="s">
+      <c r="R124" s="266" t="s">
         <v>891</v>
       </c>
-      <c r="S124" s="254"/>
-      <c r="T124" s="254"/>
-      <c r="U124" s="255"/>
+      <c r="S124" s="267"/>
+      <c r="T124" s="267"/>
+      <c r="U124" s="268"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="224" t="s">
@@ -32743,23 +33743,23 @@
       <c r="G127" s="77" t="s">
         <v>588</v>
       </c>
-      <c r="R127" s="264" t="s">
+      <c r="R127" s="277" t="s">
         <v>883</v>
       </c>
-      <c r="S127" s="272"/>
-      <c r="T127" s="272"/>
-      <c r="U127" s="273"/>
+      <c r="S127" s="280"/>
+      <c r="T127" s="280"/>
+      <c r="U127" s="281"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="224" t="s">
         <v>892</v>
       </c>
-      <c r="R128" s="249" t="s">
+      <c r="R128" s="262" t="s">
         <v>879</v>
       </c>
-      <c r="S128" s="250"/>
-      <c r="T128" s="250"/>
-      <c r="U128" s="251"/>
+      <c r="S128" s="263"/>
+      <c r="T128" s="263"/>
+      <c r="U128" s="264"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="224" t="s">
@@ -32814,12 +33814,12 @@
       <c r="F135" s="82" t="s">
         <v>860</v>
       </c>
-      <c r="R135" s="253" t="s">
+      <c r="R135" s="266" t="s">
         <v>911</v>
       </c>
-      <c r="S135" s="254"/>
-      <c r="T135" s="254"/>
-      <c r="U135" s="255"/>
+      <c r="S135" s="267"/>
+      <c r="T135" s="267"/>
+      <c r="U135" s="268"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="224" t="s">
@@ -32871,23 +33871,23 @@
       <c r="A138" s="224" t="s">
         <v>868</v>
       </c>
-      <c r="R138" s="264" t="s">
+      <c r="R138" s="277" t="s">
         <v>883</v>
       </c>
-      <c r="S138" s="272"/>
-      <c r="T138" s="272"/>
-      <c r="U138" s="273"/>
+      <c r="S138" s="280"/>
+      <c r="T138" s="280"/>
+      <c r="U138" s="281"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="224" t="s">
         <v>869</v>
       </c>
-      <c r="R139" s="249" t="s">
+      <c r="R139" s="262" t="s">
         <v>922</v>
       </c>
-      <c r="S139" s="250"/>
-      <c r="T139" s="250"/>
-      <c r="U139" s="251"/>
+      <c r="S139" s="263"/>
+      <c r="T139" s="263"/>
+      <c r="U139" s="264"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="224" t="s">
@@ -32936,12 +33936,12 @@
       <c r="F145" s="78" t="s">
         <v>853</v>
       </c>
-      <c r="R145" s="253" t="s">
+      <c r="R145" s="266" t="s">
         <v>921</v>
       </c>
-      <c r="S145" s="254"/>
-      <c r="T145" s="254"/>
-      <c r="U145" s="255"/>
+      <c r="S145" s="267"/>
+      <c r="T145" s="267"/>
+      <c r="U145" s="268"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="224" t="s">
@@ -32993,12 +33993,12 @@
       <c r="A148" s="224" t="s">
         <v>893</v>
       </c>
-      <c r="R148" s="264" t="s">
+      <c r="R148" s="277" t="s">
         <v>883</v>
       </c>
-      <c r="S148" s="272"/>
-      <c r="T148" s="272"/>
-      <c r="U148" s="273"/>
+      <c r="S148" s="280"/>
+      <c r="T148" s="280"/>
+      <c r="U148" s="281"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="224" t="s">
@@ -33008,12 +34008,12 @@
       <c r="Q149" s="78" t="s">
         <v>884</v>
       </c>
-      <c r="R149" s="249" t="s">
+      <c r="R149" s="262" t="s">
         <v>922</v>
       </c>
-      <c r="S149" s="250"/>
-      <c r="T149" s="250"/>
-      <c r="U149" s="251"/>
+      <c r="S149" s="263"/>
+      <c r="T149" s="263"/>
+      <c r="U149" s="264"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="224" t="s">
@@ -33122,12 +34122,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="R128:U128"/>
     <mergeCell ref="R93:T93"/>
     <mergeCell ref="R96:U96"/>
@@ -33137,16 +34141,12 @@
     <mergeCell ref="R104:U104"/>
     <mergeCell ref="R124:U124"/>
     <mergeCell ref="R127:U127"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EC20C9-A6D3-4A3F-8CE7-8DEFCDF502A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B306039A-757E-49B3-8ABC-F9C54C278923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="5" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="5" activeTab="6" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="NEW_2" sheetId="20" r:id="rId9"/>
     <sheet name="NEW_Ctrl" sheetId="19" r:id="rId10"/>
     <sheet name="UPD" sheetId="10" r:id="rId11"/>
-    <sheet name="UPD_LAST" sheetId="12" r:id="rId12"/>
-    <sheet name="UPD_old" sheetId="21" r:id="rId13"/>
-    <sheet name="UPD_LAST_OLD" sheetId="13" r:id="rId14"/>
-    <sheet name="UPD_TEST_2" sheetId="14" r:id="rId15"/>
+    <sheet name="UPD_LAST" sheetId="13" r:id="rId12"/>
+    <sheet name="UPD_LAST_DSC" sheetId="12" r:id="rId13"/>
+    <sheet name="UPD_old" sheetId="21" r:id="rId14"/>
+    <sheet name="UPD_LAST_TEST" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4642" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="940">
   <si>
     <t>预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3295,6 +3295,18 @@
   <si>
     <t>t_cov(0,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -3725,7 +3737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4461,6 +4473,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4527,34 +4575,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4881,11 +4911,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="245" t="s">
+      <c r="W1" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="245"/>
-      <c r="Y1" s="245"/>
+      <c r="X1" s="257"/>
+      <c r="Y1" s="257"/>
       <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -4900,11 +4930,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="245" t="s">
+      <c r="W3" s="257" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="245"/>
+      <c r="X3" s="257"/>
+      <c r="Y3" s="257"/>
       <c r="Z3" s="24" t="s">
         <v>55</v>
       </c>
@@ -5697,11 +5727,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="F1" s="253" t="s">
+      <c r="F1" s="265" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
       <c r="I1" s="42"/>
       <c r="J1" s="56"/>
       <c r="K1" s="57"/>
@@ -5734,20 +5764,20 @@
       </c>
     </row>
     <row r="4" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F4" s="264" t="s">
+      <c r="F4" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="265"/>
-      <c r="H4" s="265"/>
-      <c r="I4" s="266"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="278"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F5" s="246" t="s">
+      <c r="F5" s="258" t="s">
         <v>533</v>
       </c>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="248"/>
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="260"/>
     </row>
     <row r="6" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="210" t="s">
@@ -5757,83 +5787,83 @@
       <c r="C6" s="215"/>
       <c r="D6" s="215"/>
       <c r="E6" s="216"/>
-      <c r="F6" s="249" t="s">
+      <c r="F6" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="251"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="263"/>
       <c r="J6" s="56"/>
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
       <c r="M6" s="58"/>
-      <c r="N6" s="252" t="s">
+      <c r="N6" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="250"/>
-      <c r="P6" s="250"/>
-      <c r="Q6" s="250"/>
+      <c r="O6" s="262"/>
+      <c r="P6" s="262"/>
+      <c r="Q6" s="262"/>
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
       <c r="U6" s="58"/>
-      <c r="V6" s="249" t="s">
+      <c r="V6" s="261" t="s">
         <v>184</v>
       </c>
-      <c r="W6" s="250"/>
-      <c r="X6" s="250"/>
-      <c r="Y6" s="251"/>
+      <c r="W6" s="262"/>
+      <c r="X6" s="262"/>
+      <c r="Y6" s="263"/>
       <c r="Z6" s="57"/>
       <c r="AA6" s="57"/>
       <c r="AB6" s="57"/>
       <c r="AC6" s="57"/>
       <c r="AD6" s="58"/>
-      <c r="AE6" s="249" t="s">
+      <c r="AE6" s="261" t="s">
         <v>187</v>
       </c>
-      <c r="AF6" s="250"/>
-      <c r="AG6" s="250"/>
-      <c r="AH6" s="251"/>
+      <c r="AF6" s="262"/>
+      <c r="AG6" s="262"/>
+      <c r="AH6" s="263"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:38" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="210"/>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="261" t="s">
         <v>846</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="250" t="s">
+      <c r="C7" s="262"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="262" t="s">
         <v>629</v>
       </c>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="249" t="s">
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="261" t="s">
         <v>845</v>
       </c>
-      <c r="K7" s="250"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="251"/>
-      <c r="N7" s="249" t="s">
+      <c r="K7" s="262"/>
+      <c r="L7" s="262"/>
+      <c r="M7" s="263"/>
+      <c r="N7" s="261" t="s">
         <v>630</v>
       </c>
-      <c r="O7" s="250"/>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="250"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="250"/>
-      <c r="U7" s="251"/>
-      <c r="V7" s="249" t="s">
+      <c r="O7" s="262"/>
+      <c r="P7" s="262"/>
+      <c r="Q7" s="263"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="262"/>
+      <c r="U7" s="263"/>
+      <c r="V7" s="261" t="s">
         <v>801</v>
       </c>
-      <c r="W7" s="250"/>
-      <c r="X7" s="250"/>
-      <c r="Y7" s="251"/>
+      <c r="W7" s="262"/>
+      <c r="X7" s="262"/>
+      <c r="Y7" s="263"/>
       <c r="AE7" s="217"/>
       <c r="AF7" s="217"/>
       <c r="AG7" s="217"/>
@@ -7131,7 +7161,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7155,36 +7185,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="249" t="s">
+      <c r="C1" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="252" t="s">
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="249" t="s">
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="261" t="s">
         <v>452</v>
       </c>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="249" t="s">
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="Z1" s="249" t="s">
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="263"/>
+      <c r="Z1" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="250"/>
-      <c r="AB1" s="250"/>
-      <c r="AC1" s="251"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
+      <c r="AC1" s="263"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -7253,33 +7283,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="253" t="s">
+      <c r="C3" s="265" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="267"/>
       <c r="K3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="253" t="s">
+      <c r="S3" s="265" t="s">
         <v>412</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="255"/>
-      <c r="Z3" s="253" t="s">
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
+      <c r="V3" s="267"/>
+      <c r="Z3" s="265" t="s">
         <v>269</v>
       </c>
-      <c r="AA3" s="254"/>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="255"/>
+      <c r="AA3" s="266"/>
+      <c r="AB3" s="266"/>
+      <c r="AC3" s="267"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -7336,12 +7366,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="246" t="s">
+      <c r="S5" s="258" t="s">
         <v>512</v>
       </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="248"/>
+      <c r="T5" s="259"/>
+      <c r="U5" s="259"/>
+      <c r="V5" s="260"/>
       <c r="W5" s="86" t="s">
         <v>514</v>
       </c>
@@ -7371,12 +7401,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="246" t="s">
+      <c r="S6" s="258" t="s">
         <v>429</v>
       </c>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="248"/>
+      <c r="T6" s="259"/>
+      <c r="U6" s="259"/>
+      <c r="V6" s="260"/>
       <c r="Z6" s="225"/>
       <c r="AA6" s="226"/>
       <c r="AB6" s="226"/>
@@ -8758,13 +8788,2801 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97200EA5-E29D-4EB9-BD19-A2256CE43B13}">
+  <dimension ref="A1:V89"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.73046875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="4"/>
+    <col min="4" max="5" width="9.06640625" style="5"/>
+    <col min="6" max="6" width="9.06640625" style="6"/>
+    <col min="7" max="7" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.53125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.06640625" style="4"/>
+    <col min="12" max="13" width="9.06640625" style="5"/>
+    <col min="14" max="14" width="9.06640625" style="6"/>
+    <col min="15" max="15" width="9.06640625" style="4" customWidth="1"/>
+    <col min="16" max="17" width="9.06640625" style="5"/>
+    <col min="18" max="18" width="9.06640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="69"/>
+      <c r="C1" s="261" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="261" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="261" t="s">
+        <v>452</v>
+      </c>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="261" t="s">
+        <v>187</v>
+      </c>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="69"/>
+      <c r="C2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="P2" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q2" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="69">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="265" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
+      <c r="V3" s="267"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="101" t="s">
+        <v>276</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="T4" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="V4" s="41"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="101" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="258" t="s">
+        <v>286</v>
+      </c>
+      <c r="T5" s="259"/>
+      <c r="U5" s="259"/>
+      <c r="V5" s="260"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="258" t="s">
+        <v>287</v>
+      </c>
+      <c r="T6" s="259"/>
+      <c r="U6" s="259"/>
+      <c r="V6" s="260"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="U7" s="38"/>
+      <c r="V7" s="41"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="113" t="s">
+        <v>288</v>
+      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="R8" s="41"/>
+      <c r="S8" s="281" t="s">
+        <v>388</v>
+      </c>
+      <c r="T8" s="282"/>
+      <c r="U8" s="282"/>
+      <c r="V8" s="282"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" s="101" t="s">
+        <v>276</v>
+      </c>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="113" t="s">
+        <v>680</v>
+      </c>
+      <c r="N9" s="41"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>277</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="113" t="s">
+        <v>681</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="R10" s="41"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J11" s="67"/>
+      <c r="K11" s="114" t="s">
+        <v>682</v>
+      </c>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="41"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="K12" s="102"/>
+      <c r="L12" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="101" t="s">
+        <v>326</v>
+      </c>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="41"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="114" t="s">
+        <v>326</v>
+      </c>
+      <c r="L13" s="71"/>
+      <c r="M13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="41"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="112"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="113" t="s">
+        <v>322</v>
+      </c>
+      <c r="M14" s="71"/>
+      <c r="N14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="R14" s="71"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>404</v>
+      </c>
+      <c r="K15" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="113" t="s">
+        <v>324</v>
+      </c>
+      <c r="N15" s="71"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="101"/>
+      <c r="L16" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="113" t="s">
+        <v>321</v>
+      </c>
+      <c r="O16" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="R16" s="41"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A17" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="101" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="N17" s="41"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A18" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I18" s="32"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="R18" s="41"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A19" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="N19" s="41"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="K20" s="72"/>
+      <c r="L20" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" s="101" t="s">
+        <v>341</v>
+      </c>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" s="41"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A21" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="K21" s="101" t="s">
+        <v>341</v>
+      </c>
+      <c r="L21" s="73"/>
+      <c r="M21" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="N21" s="41"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A22" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G22" s="101" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M22" s="73"/>
+      <c r="N22" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="101" t="s">
+        <v>338</v>
+      </c>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="R22" s="71"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A23" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="G23" s="101" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="101" t="s">
+        <v>338</v>
+      </c>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="N23" s="71"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A24" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J24" s="67"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="O24" s="101" t="s">
+        <v>339</v>
+      </c>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="R24" s="71"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="101" t="s">
+        <v>339</v>
+      </c>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="N25" s="71"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K26" s="101"/>
+      <c r="L26" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M26" s="103"/>
+      <c r="N26" s="113" t="s">
+        <v>405</v>
+      </c>
+      <c r="O26" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="L27" s="103"/>
+      <c r="M27" s="113" t="s">
+        <v>409</v>
+      </c>
+      <c r="O27" s="104"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A28" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>407</v>
+      </c>
+      <c r="K28" s="104"/>
+      <c r="L28" s="113" t="s">
+        <v>410</v>
+      </c>
+      <c r="N28" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="O28" s="101"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A29" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>408</v>
+      </c>
+      <c r="K29" s="114" t="s">
+        <v>411</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="N29" s="41"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A30" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G30" s="101" t="s">
+        <v>297</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="67"/>
+      <c r="L30" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="O30" s="101"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A31" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="G31" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="N31" s="41"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A32" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="J32" s="41"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="O32" s="101"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A33" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="101" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" s="101" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="N33" s="41"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A34" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="K34" s="101"/>
+      <c r="L34" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" s="32"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A35" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="66"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="101" t="s">
+        <v>261</v>
+      </c>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A36" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="K36" s="66"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A37" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="K37" s="66"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A38" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" s="40"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="K38" s="66"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A39" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="G39" s="40"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" s="66"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A40" s="69" t="s">
+        <v>345</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="F40" s="41"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="J40" s="41"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A41" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="101" t="s">
+        <v>318</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="I41" s="38"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A42" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="H42" s="32"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A43" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A44" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="K44" s="66"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A45" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="K45" s="66"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A46" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="K46" s="66"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A47" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A48" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="K48" s="66"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A49" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="F49" s="41"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="67"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A50" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50" s="66"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A51" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="F51" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G51" s="66"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A52" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A53" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G53" s="101" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" s="38"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A54" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G54" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="I54" s="32"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A55" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="F55" s="41"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J55" s="67"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="67"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A56" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="C56" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="38"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J56" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K56" s="66"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="66"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="45"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A57" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="C57" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K57" s="66"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="O57" s="66"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A58" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="N58" s="41"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A59" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="C59" s="66"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="O59" s="66"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A60" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" s="66"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="101" t="s">
+        <v>327</v>
+      </c>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="N60" s="41"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A61" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="C61" s="66"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="101"/>
+      <c r="L61" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="O61" s="66"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="67"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A62" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="C62" s="66"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="101"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="N62" s="41"/>
+      <c r="O62" s="66"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="67"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="45"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A63" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="C63" s="66"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="O63" s="66"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="67"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A64" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="66"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="101"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="67"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="45"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A65" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="67"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A66" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" s="40"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G66" s="101" t="s">
+        <v>302</v>
+      </c>
+      <c r="H66" s="38"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A67" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="C67" s="40"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G67" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="I67" s="32"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="67"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="45"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A68" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="C68" s="40"/>
+      <c r="D68" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="F68" s="41"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="I68" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J68" s="67"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="67"/>
+      <c r="O68" s="66"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="45"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A69" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="C69" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E69" s="38"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J69" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K69" s="66"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="67"/>
+      <c r="O69" s="66"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="45"/>
+      <c r="V69" s="45"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A70" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="C70" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="32"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K70" s="66"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="O70" s="66"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="45"/>
+      <c r="V70" s="45"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A71" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="C71" s="66"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="N71" s="41"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A72" s="69" t="s">
+        <v>378</v>
+      </c>
+      <c r="C72" s="66"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="O72" s="66"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="67"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="45"/>
+      <c r="V72" s="45"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A73" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="C73" s="66"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="101" t="s">
+        <v>327</v>
+      </c>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="N73" s="41"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="67"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="45"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A74" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="C74" s="66"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="101"/>
+      <c r="L74" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="O74" s="66"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="67"/>
+      <c r="S74" s="45"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="45"/>
+      <c r="V74" s="45"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A75" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="C75" s="66"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="101"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="N75" s="41"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="32"/>
+      <c r="Q75" s="32"/>
+      <c r="R75" s="67"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="45"/>
+      <c r="V75" s="45"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A76" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="C76" s="66"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="101"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="O76" s="66"/>
+      <c r="P76" s="32"/>
+      <c r="Q76" s="32"/>
+      <c r="R76" s="67"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="45"/>
+      <c r="V76" s="45"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A77" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="C77" s="66"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="67"/>
+      <c r="O77" s="66"/>
+      <c r="P77" s="32"/>
+      <c r="Q77" s="32"/>
+      <c r="R77" s="67"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="45"/>
+      <c r="V77" s="45"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A78" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="67"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="32"/>
+      <c r="Q78" s="32"/>
+      <c r="R78" s="67"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="45"/>
+      <c r="V78" s="45"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A79" s="69" t="s">
+        <v>385</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G79" s="101" t="s">
+        <v>302</v>
+      </c>
+      <c r="H79" s="38"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="67"/>
+      <c r="O79" s="66"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="67"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="45"/>
+      <c r="V79" s="45"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A80" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="C80" s="40"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G80" s="101" t="s">
+        <v>304</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="I80" s="32"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="67"/>
+      <c r="O80" s="66"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="32"/>
+      <c r="R80" s="67"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="45"/>
+      <c r="V80" s="45"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A81" s="69"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="F81" s="41"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="I81" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J81" s="67"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="67"/>
+      <c r="O81" s="66"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="67"/>
+      <c r="S81" s="45"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="45"/>
+      <c r="V81" s="45"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A82" s="69"/>
+      <c r="C82" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E82" s="38"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J82" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="K82" s="66"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="67"/>
+      <c r="O82" s="66"/>
+      <c r="P82" s="32"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="67"/>
+      <c r="S82" s="45"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="45"/>
+      <c r="V82" s="45"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A83" s="69"/>
+      <c r="C83" s="101" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="32"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K83" s="66"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="O83" s="66"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="32"/>
+      <c r="R83" s="67"/>
+      <c r="S83" s="45"/>
+      <c r="T83" s="45"/>
+      <c r="U83" s="45"/>
+      <c r="V83" s="45"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A84" s="69"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="66"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="N84" s="41"/>
+      <c r="O84" s="66"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="67"/>
+      <c r="S84" s="45"/>
+      <c r="T84" s="45"/>
+      <c r="U84" s="45"/>
+      <c r="V84" s="45"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A85" s="69"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="M85" s="41"/>
+      <c r="N85" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="O85" s="66"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="67"/>
+      <c r="S85" s="45"/>
+      <c r="T85" s="45"/>
+      <c r="U85" s="45"/>
+      <c r="V85" s="45"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A86" s="69"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="101" t="s">
+        <v>327</v>
+      </c>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="N86" s="41"/>
+      <c r="O86" s="66"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="67"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="45"/>
+      <c r="V86" s="45"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A87" s="69"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="101"/>
+      <c r="L87" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="O87" s="66"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="67"/>
+      <c r="S87" s="45"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="45"/>
+      <c r="V87" s="45"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A88" s="69"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="N88" s="41"/>
+      <c r="O88" s="66"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="67"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="45"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A89" s="69"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="101"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="O89" s="66"/>
+      <c r="P89" s="32"/>
+      <c r="Q89" s="32"/>
+      <c r="R89" s="67"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45"/>
+      <c r="V89" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S5:V5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D08606B-AA92-41E2-AB37-358CADF18961}">
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8773,8 +11591,10 @@
     <col min="2" max="2" width="9.06640625" style="66"/>
     <col min="3" max="4" width="9.06640625" style="32"/>
     <col min="5" max="5" width="9.06640625" style="67"/>
-    <col min="6" max="9" width="11.3984375" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.06640625" style="66"/>
+    <col min="6" max="6" width="11.3984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" style="66" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.06640625" style="32"/>
     <col min="13" max="13" width="9.06640625" style="67"/>
     <col min="14" max="14" width="9.06640625" style="66"/>
@@ -8786,30 +11606,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="69"/>
       <c r="B1"/>
-      <c r="C1" s="249" t="s">
+      <c r="C1" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="249" t="s">
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="261" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="249" t="s">
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="261" t="s">
         <v>452</v>
       </c>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="249" t="s">
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="261" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="263"/>
       <c r="S1" s="231"/>
       <c r="T1" s="231"/>
       <c r="U1" s="231"/>
@@ -8819,16 +11639,16 @@
       <c r="A2" s="69"/>
       <c r="B2"/>
       <c r="C2" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="228" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="228" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>34</v>
+        <v>936</v>
+      </c>
+      <c r="D2" s="255" t="s">
+        <v>937</v>
+      </c>
+      <c r="E2" s="255" t="s">
+        <v>938</v>
+      </c>
+      <c r="F2" s="256" t="s">
+        <v>939</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>30</v>
@@ -8871,13 +11691,11 @@
       <c r="U2" s="231"/>
       <c r="V2" s="231"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="69">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>398</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" s="225" t="s">
         <v>137</v>
       </c>
@@ -8908,12 +11726,12 @@
       <c r="P3" s="226"/>
       <c r="Q3" s="226"/>
       <c r="R3" s="227"/>
-      <c r="S3" s="253" t="s">
+      <c r="S3" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="255"/>
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
+      <c r="V3" s="267"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
@@ -8980,12 +11798,12 @@
       <c r="P5" s="226"/>
       <c r="Q5" s="226"/>
       <c r="R5" s="227"/>
-      <c r="S5" s="246" t="s">
+      <c r="S5" s="258" t="s">
         <v>286</v>
       </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="248"/>
+      <c r="T5" s="259"/>
+      <c r="U5" s="259"/>
+      <c r="V5" s="260"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="69" t="s">
@@ -9000,7 +11818,7 @@
         <v>274</v>
       </c>
       <c r="F6" s="227"/>
-      <c r="G6" s="225"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="226" t="s">
         <v>279</v>
       </c>
@@ -9016,12 +11834,12 @@
       <c r="P6" s="226"/>
       <c r="Q6" s="226"/>
       <c r="R6" s="227"/>
-      <c r="S6" s="246" t="s">
+      <c r="S6" s="258" t="s">
         <v>287</v>
       </c>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="248"/>
+      <c r="T6" s="259"/>
+      <c r="U6" s="259"/>
+      <c r="V6" s="260"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="69" t="s">
@@ -9036,8 +11854,8 @@
       </c>
       <c r="E7" s="226"/>
       <c r="F7" s="227"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="32"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="226"/>
       <c r="I7" s="227" t="s">
         <v>281</v>
       </c>
@@ -9048,7 +11866,7 @@
       <c r="L7" s="226"/>
       <c r="M7" s="226"/>
       <c r="N7" s="67"/>
-      <c r="O7" s="276"/>
+      <c r="O7" s="254"/>
       <c r="P7" s="226"/>
       <c r="Q7" s="226"/>
       <c r="R7" s="227" t="s">
@@ -9071,9 +11889,9 @@
       </c>
       <c r="E8" s="226"/>
       <c r="F8" s="227"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="226"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="227"/>
       <c r="J8" s="227" t="s">
         <v>283</v>
       </c>
@@ -9089,32 +11907,29 @@
         <v>288</v>
       </c>
       <c r="R8" s="227"/>
-      <c r="S8" s="267" t="s">
+      <c r="S8" s="281" t="s">
         <v>388</v>
       </c>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
+      <c r="T8" s="282"/>
+      <c r="U8" s="282"/>
+      <c r="V8" s="282"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9"/>
+      <c r="C9" s="227" t="s">
+        <v>295</v>
+      </c>
       <c r="D9" s="226"/>
       <c r="E9" s="226"/>
-      <c r="F9" s="227" t="s">
-        <v>295</v>
-      </c>
       <c r="G9" s="101" t="s">
-        <v>276</v>
-      </c>
-      <c r="H9" s="226"/>
-      <c r="I9" s="226"/>
-      <c r="J9" s="67"/>
+        <v>277</v>
+      </c>
+      <c r="H9" s="246"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="227"/>
       <c r="K9" s="225"/>
       <c r="L9" s="226"/>
       <c r="M9" s="113" t="s">
@@ -9139,22 +11954,20 @@
         <v>17</v>
       </c>
       <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="226" t="s">
+      <c r="C10" s="227" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="226" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="227" t="s">
-        <v>296</v>
-      </c>
       <c r="G10" s="101" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" s="226" t="s">
-        <v>278</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="67"/>
+        <v>276</v>
+      </c>
+      <c r="H10" s="246" t="s">
+        <v>279</v>
+      </c>
+      <c r="I10" s="247"/>
+      <c r="J10" s="227"/>
       <c r="K10" s="225"/>
       <c r="L10" s="113" t="s">
         <v>681</v>
@@ -9182,21 +11995,21 @@
       </c>
       <c r="B11"/>
       <c r="C11" s="225"/>
-      <c r="D11" s="227" t="s">
+      <c r="D11" s="226" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" s="227" t="s">
         <v>291</v>
       </c>
-      <c r="E11" s="226" t="s">
-        <v>294</v>
-      </c>
       <c r="F11" s="227"/>
-      <c r="G11" s="225"/>
-      <c r="H11" s="226" t="s">
-        <v>279</v>
-      </c>
-      <c r="I11" s="227" t="s">
-        <v>280</v>
-      </c>
-      <c r="J11" s="67"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="246" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="247" t="s">
+        <v>281</v>
+      </c>
+      <c r="J11" s="247"/>
       <c r="K11" s="114" t="s">
         <v>682</v>
       </c>
@@ -9222,24 +12035,20 @@
       <c r="A12" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
-        <v>400</v>
-      </c>
-      <c r="C12" s="101" t="s">
+      <c r="B12"/>
+      <c r="E12" s="227" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="D12" s="227" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="230"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="227" t="s">
-        <v>281</v>
-      </c>
-      <c r="J12" s="227" t="s">
-        <v>282</v>
+      <c r="G12" s="101"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="247" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" s="247" t="s">
+        <v>283</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="227" t="s">
@@ -9266,19 +12075,15 @@
       <c r="A13" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C13" s="101" t="s">
+      <c r="B13"/>
+      <c r="F13" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="226"/>
-      <c r="J13" s="227" t="s">
-        <v>283</v>
+      <c r="G13" s="101"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247" t="s">
+        <v>282</v>
       </c>
       <c r="K13" s="114" t="s">
         <v>326</v>
@@ -9305,17 +12110,15 @@
       <c r="A14" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
-        <v>403</v>
-      </c>
+      <c r="B14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="112"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="246"/>
+      <c r="I14" s="247"/>
+      <c r="J14" s="247"/>
       <c r="K14" s="101"/>
       <c r="L14" s="113" t="s">
         <v>322</v>
@@ -9341,17 +12144,15 @@
       <c r="A15" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
-        <v>404</v>
-      </c>
+      <c r="B15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="227"/>
+      <c r="I15" s="247"/>
+      <c r="J15" s="247"/>
       <c r="K15" s="101" t="s">
         <v>244</v>
       </c>
@@ -9382,10 +12183,10 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="G16" s="225"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="247"/>
       <c r="K16" s="101"/>
       <c r="L16" s="227" t="s">
         <v>241</v>
@@ -9412,18 +12213,16 @@
         <v>82</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="226"/>
-      <c r="F17" s="227" t="s">
+      <c r="C17" s="247" t="s">
         <v>295</v>
       </c>
-      <c r="G17" s="101" t="s">
-        <v>297</v>
-      </c>
-      <c r="H17" s="226"/>
+      <c r="D17" s="246"/>
+      <c r="E17" s="246"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="226"/>
-      <c r="J17" s="67"/>
+      <c r="J17" s="227"/>
       <c r="K17" s="101" t="s">
         <v>247</v>
       </c>
@@ -9450,22 +12249,17 @@
         <v>80</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="226" t="s">
+      <c r="C18" s="247" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="246" t="s">
         <v>293</v>
       </c>
-      <c r="F18" s="227" t="s">
-        <v>296</v>
-      </c>
-      <c r="G18" s="101" t="s">
-        <v>299</v>
-      </c>
-      <c r="H18" s="227" t="s">
-        <v>298</v>
-      </c>
+      <c r="F18" s="248"/>
+      <c r="G18" s="230"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="32"/>
-      <c r="J18" s="67"/>
+      <c r="J18" s="227"/>
       <c r="K18" s="101"/>
       <c r="L18" s="227" t="s">
         <v>120</v>
@@ -9492,22 +12286,14 @@
         <v>84</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="227" t="s">
+      <c r="C19" s="245"/>
+      <c r="D19" s="246" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" s="247" t="s">
         <v>291</v>
       </c>
-      <c r="E19" s="226" t="s">
-        <v>294</v>
-      </c>
-      <c r="F19" s="227"/>
-      <c r="G19" s="225"/>
-      <c r="H19" s="227" t="s">
-        <v>301</v>
-      </c>
-      <c r="I19" s="226" t="s">
-        <v>300</v>
-      </c>
-      <c r="J19" s="227"/>
+      <c r="F19" s="247"/>
       <c r="K19" s="101" t="s">
         <v>118</v>
       </c>
@@ -9534,21 +12320,11 @@
         <v>86</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="101" t="s">
+      <c r="E20" s="247" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="101" t="s">
         <v>289</v>
-      </c>
-      <c r="D20" s="227" t="s">
-        <v>292</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="226" t="s">
-        <v>303</v>
-      </c>
-      <c r="J20" s="227" t="s">
-        <v>302</v>
       </c>
       <c r="K20" s="72"/>
       <c r="L20" s="227" t="s">
@@ -9575,19 +12351,9 @@
       <c r="A21" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B21" t="s">
-        <v>398</v>
-      </c>
-      <c r="C21" s="101" t="s">
+      <c r="B21"/>
+      <c r="F21" s="101" t="s">
         <v>290</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="230"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="227" t="s">
-        <v>304</v>
       </c>
       <c r="K21" s="101" t="s">
         <v>341</v>
@@ -9778,9 +12544,7 @@
       <c r="A26" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="B26" t="s">
-        <v>401</v>
-      </c>
+      <c r="B26"/>
       <c r="C26" s="101" t="s">
         <v>306</v>
       </c>
@@ -9815,9 +12579,7 @@
       <c r="A27" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B27" t="s">
-        <v>406</v>
-      </c>
+      <c r="B27"/>
       <c r="C27" s="230"/>
       <c r="E27" s="32"/>
       <c r="F27" s="67"/>
@@ -9845,9 +12607,7 @@
       <c r="A28" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B28" t="s">
-        <v>407</v>
-      </c>
+      <c r="B28"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -9877,9 +12637,7 @@
       <c r="A29" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="B29" t="s">
-        <v>408</v>
-      </c>
+      <c r="B29"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -10405,9 +13163,7 @@
         <v>352</v>
       </c>
       <c r="B47"/>
-      <c r="C47" s="101" t="s">
-        <v>295</v>
-      </c>
+      <c r="C47" s="101"/>
       <c r="D47" s="226"/>
       <c r="E47" s="226"/>
       <c r="F47" s="6"/>
@@ -10431,12 +13187,8 @@
         <v>353</v>
       </c>
       <c r="B48"/>
-      <c r="C48" s="101" t="s">
-        <v>296</v>
-      </c>
-      <c r="D48" s="226" t="s">
-        <v>293</v>
-      </c>
+      <c r="C48" s="101"/>
+      <c r="D48" s="226"/>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
       <c r="G48" s="4"/>
@@ -10460,12 +13212,8 @@
       </c>
       <c r="B49"/>
       <c r="C49" s="225"/>
-      <c r="D49" s="226" t="s">
-        <v>294</v>
-      </c>
-      <c r="E49" s="227" t="s">
-        <v>291</v>
-      </c>
+      <c r="D49" s="226"/>
+      <c r="E49" s="227"/>
       <c r="F49" s="227"/>
       <c r="G49" s="230"/>
       <c r="H49" s="32"/>
@@ -10489,12 +13237,8 @@
       <c r="B50"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="227" t="s">
-        <v>292</v>
-      </c>
-      <c r="F50" s="227" t="s">
-        <v>289</v>
-      </c>
+      <c r="E50" s="227"/>
+      <c r="F50" s="227"/>
       <c r="G50" s="230"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
@@ -10517,9 +13261,7 @@
       <c r="B51"/>
       <c r="C51" s="4"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="227" t="s">
-        <v>290</v>
-      </c>
+      <c r="F51" s="227"/>
       <c r="G51" s="230"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
@@ -10540,9 +13282,7 @@
         <v>357</v>
       </c>
       <c r="B52"/>
-      <c r="C52" s="225" t="s">
-        <v>377</v>
-      </c>
+      <c r="C52" s="225"/>
       <c r="E52" s="32"/>
       <c r="F52" s="67"/>
       <c r="G52" s="230"/>
@@ -10568,12 +13308,8 @@
       <c r="C53" s="225"/>
       <c r="D53" s="226"/>
       <c r="E53" s="226"/>
-      <c r="F53" s="227" t="s">
-        <v>289</v>
-      </c>
-      <c r="G53" s="101" t="s">
-        <v>302</v>
-      </c>
+      <c r="F53" s="227"/>
+      <c r="G53" s="101"/>
       <c r="H53" s="226"/>
       <c r="I53" s="32"/>
       <c r="J53" s="67"/>
@@ -10595,18 +13331,10 @@
       <c r="B54"/>
       <c r="C54" s="225"/>
       <c r="D54" s="226"/>
-      <c r="E54" s="227" t="s">
-        <v>291</v>
-      </c>
-      <c r="F54" s="227" t="s">
-        <v>290</v>
-      </c>
-      <c r="G54" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="H54" s="226" t="s">
-        <v>300</v>
-      </c>
+      <c r="E54" s="227"/>
+      <c r="F54" s="227"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="226"/>
       <c r="I54" s="32"/>
       <c r="J54" s="67"/>
       <c r="K54" s="230"/>
@@ -10626,20 +13354,12 @@
       </c>
       <c r="B55"/>
       <c r="C55" s="225"/>
-      <c r="D55" s="226" t="s">
-        <v>293</v>
-      </c>
-      <c r="E55" s="227" t="s">
-        <v>292</v>
-      </c>
+      <c r="D55" s="226"/>
+      <c r="E55" s="227"/>
       <c r="F55" s="227"/>
       <c r="G55" s="225"/>
-      <c r="H55" s="226" t="s">
-        <v>303</v>
-      </c>
-      <c r="I55" s="227" t="s">
-        <v>298</v>
-      </c>
+      <c r="H55" s="226"/>
+      <c r="I55" s="227"/>
       <c r="J55" s="67"/>
       <c r="K55" s="230"/>
       <c r="M55" s="32"/>
@@ -10657,22 +13377,14 @@
         <v>361</v>
       </c>
       <c r="B56"/>
-      <c r="C56" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="D56" s="226" t="s">
-        <v>294</v>
-      </c>
+      <c r="C56" s="101"/>
+      <c r="D56" s="226"/>
       <c r="E56" s="226"/>
       <c r="F56" s="227"/>
       <c r="G56" s="230"/>
       <c r="H56" s="32"/>
-      <c r="I56" s="227" t="s">
-        <v>301</v>
-      </c>
-      <c r="J56" s="227" t="s">
-        <v>297</v>
-      </c>
+      <c r="I56" s="227"/>
+      <c r="J56" s="227"/>
       <c r="K56" s="230"/>
       <c r="M56" s="32"/>
       <c r="N56" s="67"/>
@@ -10689,22 +13401,16 @@
         <v>362</v>
       </c>
       <c r="B57"/>
-      <c r="C57" s="101" t="s">
-        <v>296</v>
-      </c>
+      <c r="C57" s="101"/>
       <c r="E57" s="226"/>
       <c r="F57" s="227"/>
       <c r="G57" s="230"/>
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
-      <c r="J57" s="227" t="s">
-        <v>299</v>
-      </c>
+      <c r="J57" s="227"/>
       <c r="K57" s="230"/>
       <c r="M57" s="32"/>
-      <c r="N57" s="227" t="s">
-        <v>341</v>
-      </c>
+      <c r="N57" s="227"/>
       <c r="O57" s="230"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="67"/>
@@ -10726,9 +13432,7 @@
       <c r="I58" s="226"/>
       <c r="J58" s="227"/>
       <c r="K58" s="230"/>
-      <c r="M58" s="227" t="s">
-        <v>343</v>
-      </c>
+      <c r="M58" s="227"/>
       <c r="N58" s="227"/>
       <c r="O58" s="230"/>
       <c r="Q58" s="32"/>
@@ -10751,13 +13455,9 @@
       <c r="I59" s="32"/>
       <c r="J59" s="67"/>
       <c r="K59" s="230"/>
-      <c r="L59" s="227" t="s">
-        <v>334</v>
-      </c>
+      <c r="L59" s="227"/>
       <c r="M59" s="227"/>
-      <c r="N59" s="227" t="s">
-        <v>338</v>
-      </c>
+      <c r="N59" s="227"/>
       <c r="O59" s="230"/>
       <c r="Q59" s="32"/>
       <c r="R59" s="67"/>
@@ -10778,13 +13478,9 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
       <c r="J60" s="67"/>
-      <c r="K60" s="101" t="s">
-        <v>327</v>
-      </c>
+      <c r="K60" s="101"/>
       <c r="L60" s="227"/>
-      <c r="M60" s="227" t="s">
-        <v>335</v>
-      </c>
+      <c r="M60" s="227"/>
       <c r="N60" s="227"/>
       <c r="O60" s="230"/>
       <c r="Q60" s="32"/>
@@ -10807,13 +13503,9 @@
       <c r="I61" s="32"/>
       <c r="J61" s="67"/>
       <c r="K61" s="101"/>
-      <c r="L61" s="227" t="s">
-        <v>325</v>
-      </c>
+      <c r="L61" s="227"/>
       <c r="M61" s="227"/>
-      <c r="N61" s="227" t="s">
-        <v>339</v>
-      </c>
+      <c r="N61" s="227"/>
       <c r="O61" s="230"/>
       <c r="Q61" s="32"/>
       <c r="R61" s="67"/>
@@ -10836,9 +13528,7 @@
       <c r="J62" s="67"/>
       <c r="K62" s="101"/>
       <c r="L62" s="227"/>
-      <c r="M62" s="227" t="s">
-        <v>323</v>
-      </c>
+      <c r="M62" s="227"/>
       <c r="N62" s="227"/>
       <c r="O62" s="230"/>
       <c r="Q62" s="32"/>
@@ -10863,9 +13553,7 @@
       <c r="K63" s="101"/>
       <c r="L63" s="227"/>
       <c r="M63" s="227"/>
-      <c r="N63" s="227" t="s">
-        <v>337</v>
-      </c>
+      <c r="N63" s="227"/>
       <c r="O63" s="230"/>
       <c r="Q63" s="32"/>
       <c r="R63" s="67"/>
@@ -10903,9 +13591,7 @@
         <v>370</v>
       </c>
       <c r="B65"/>
-      <c r="C65" s="225" t="s">
-        <v>377</v>
-      </c>
+      <c r="C65" s="225"/>
       <c r="E65" s="32"/>
       <c r="F65" s="67"/>
       <c r="G65" s="230"/>
@@ -10931,12 +13617,8 @@
       <c r="C66" s="225"/>
       <c r="D66" s="226"/>
       <c r="E66" s="226"/>
-      <c r="F66" s="227" t="s">
-        <v>289</v>
-      </c>
-      <c r="G66" s="101" t="s">
-        <v>302</v>
-      </c>
+      <c r="F66" s="227"/>
+      <c r="G66" s="101"/>
       <c r="H66" s="226"/>
       <c r="I66" s="32"/>
       <c r="J66" s="67"/>
@@ -10958,18 +13640,10 @@
       <c r="B67"/>
       <c r="C67" s="225"/>
       <c r="D67" s="226"/>
-      <c r="E67" s="227" t="s">
-        <v>291</v>
-      </c>
-      <c r="F67" s="227" t="s">
-        <v>290</v>
-      </c>
-      <c r="G67" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="H67" s="226" t="s">
-        <v>300</v>
-      </c>
+      <c r="E67" s="227"/>
+      <c r="F67" s="227"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="226"/>
       <c r="I67" s="32"/>
       <c r="J67" s="67"/>
       <c r="K67" s="230"/>
@@ -10989,20 +13663,12 @@
       </c>
       <c r="B68"/>
       <c r="C68" s="225"/>
-      <c r="D68" s="226" t="s">
-        <v>293</v>
-      </c>
-      <c r="E68" s="227" t="s">
-        <v>292</v>
-      </c>
+      <c r="D68" s="226"/>
+      <c r="E68" s="227"/>
       <c r="F68" s="227"/>
       <c r="G68" s="225"/>
-      <c r="H68" s="226" t="s">
-        <v>303</v>
-      </c>
-      <c r="I68" s="227" t="s">
-        <v>298</v>
-      </c>
+      <c r="H68" s="226"/>
+      <c r="I68" s="227"/>
       <c r="J68" s="67"/>
       <c r="K68" s="230"/>
       <c r="M68" s="32"/>
@@ -11020,22 +13686,14 @@
         <v>374</v>
       </c>
       <c r="B69"/>
-      <c r="C69" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="D69" s="226" t="s">
-        <v>294</v>
-      </c>
+      <c r="C69" s="101"/>
+      <c r="D69" s="226"/>
       <c r="E69" s="226"/>
       <c r="F69" s="227"/>
       <c r="G69" s="230"/>
       <c r="H69" s="32"/>
-      <c r="I69" s="227" t="s">
-        <v>301</v>
-      </c>
-      <c r="J69" s="227" t="s">
-        <v>297</v>
-      </c>
+      <c r="I69" s="227"/>
+      <c r="J69" s="227"/>
       <c r="K69" s="230"/>
       <c r="M69" s="32"/>
       <c r="N69" s="67"/>
@@ -11052,22 +13710,16 @@
         <v>375</v>
       </c>
       <c r="B70"/>
-      <c r="C70" s="101" t="s">
-        <v>296</v>
-      </c>
+      <c r="C70" s="101"/>
       <c r="E70" s="226"/>
       <c r="F70" s="227"/>
       <c r="G70" s="230"/>
       <c r="H70" s="32"/>
       <c r="I70" s="32"/>
-      <c r="J70" s="227" t="s">
-        <v>299</v>
-      </c>
+      <c r="J70" s="227"/>
       <c r="K70" s="230"/>
       <c r="M70" s="32"/>
-      <c r="N70" s="227" t="s">
-        <v>341</v>
-      </c>
+      <c r="N70" s="227"/>
       <c r="O70" s="230"/>
       <c r="Q70" s="32"/>
       <c r="R70" s="67"/>
@@ -11089,9 +13741,7 @@
       <c r="I71" s="226"/>
       <c r="J71" s="227"/>
       <c r="K71" s="230"/>
-      <c r="M71" s="227" t="s">
-        <v>343</v>
-      </c>
+      <c r="M71" s="227"/>
       <c r="N71" s="227"/>
       <c r="O71" s="230"/>
       <c r="Q71" s="32"/>
@@ -11114,13 +13764,9 @@
       <c r="I72" s="32"/>
       <c r="J72" s="67"/>
       <c r="K72" s="230"/>
-      <c r="L72" s="227" t="s">
-        <v>334</v>
-      </c>
+      <c r="L72" s="227"/>
       <c r="M72" s="227"/>
-      <c r="N72" s="227" t="s">
-        <v>338</v>
-      </c>
+      <c r="N72" s="227"/>
       <c r="O72" s="230"/>
       <c r="Q72" s="32"/>
       <c r="R72" s="67"/>
@@ -11141,13 +13787,9 @@
       <c r="H73" s="32"/>
       <c r="I73" s="32"/>
       <c r="J73" s="67"/>
-      <c r="K73" s="101" t="s">
-        <v>327</v>
-      </c>
+      <c r="K73" s="101"/>
       <c r="L73" s="227"/>
-      <c r="M73" s="227" t="s">
-        <v>335</v>
-      </c>
+      <c r="M73" s="227"/>
       <c r="N73" s="227"/>
       <c r="O73" s="230"/>
       <c r="Q73" s="32"/>
@@ -11170,13 +13812,9 @@
       <c r="I74" s="32"/>
       <c r="J74" s="67"/>
       <c r="K74" s="101"/>
-      <c r="L74" s="227" t="s">
-        <v>325</v>
-      </c>
+      <c r="L74" s="227"/>
       <c r="M74" s="227"/>
-      <c r="N74" s="227" t="s">
-        <v>339</v>
-      </c>
+      <c r="N74" s="227"/>
       <c r="O74" s="230"/>
       <c r="Q74" s="32"/>
       <c r="R74" s="67"/>
@@ -11199,9 +13837,7 @@
       <c r="J75" s="67"/>
       <c r="K75" s="101"/>
       <c r="L75" s="227"/>
-      <c r="M75" s="227" t="s">
-        <v>323</v>
-      </c>
+      <c r="M75" s="227"/>
       <c r="N75" s="227"/>
       <c r="O75" s="230"/>
       <c r="Q75" s="32"/>
@@ -11226,9 +13862,7 @@
       <c r="K76" s="101"/>
       <c r="L76" s="227"/>
       <c r="M76" s="227"/>
-      <c r="N76" s="227" t="s">
-        <v>337</v>
-      </c>
+      <c r="N76" s="227"/>
       <c r="O76" s="230"/>
       <c r="Q76" s="32"/>
       <c r="R76" s="67"/>
@@ -11265,9 +13899,7 @@
         <v>384</v>
       </c>
       <c r="B78"/>
-      <c r="C78" s="225" t="s">
-        <v>387</v>
-      </c>
+      <c r="C78" s="225"/>
       <c r="E78" s="32"/>
       <c r="F78" s="67"/>
       <c r="G78" s="230"/>
@@ -11293,12 +13925,8 @@
       <c r="C79" s="225"/>
       <c r="D79" s="226"/>
       <c r="E79" s="226"/>
-      <c r="F79" s="227" t="s">
-        <v>289</v>
-      </c>
-      <c r="G79" s="101" t="s">
-        <v>302</v>
-      </c>
+      <c r="F79" s="227"/>
+      <c r="G79" s="101"/>
       <c r="H79" s="226"/>
       <c r="I79" s="32"/>
       <c r="J79" s="67"/>
@@ -11320,18 +13948,10 @@
       <c r="B80"/>
       <c r="C80" s="225"/>
       <c r="D80" s="226"/>
-      <c r="E80" s="227" t="s">
-        <v>291</v>
-      </c>
-      <c r="F80" s="227" t="s">
-        <v>290</v>
-      </c>
-      <c r="G80" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="H80" s="226" t="s">
-        <v>300</v>
-      </c>
+      <c r="E80" s="227"/>
+      <c r="F80" s="227"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="226"/>
       <c r="I80" s="32"/>
       <c r="J80" s="67"/>
       <c r="K80" s="230"/>
@@ -11349,20 +13969,12 @@
       <c r="A81" s="69"/>
       <c r="B81"/>
       <c r="C81" s="225"/>
-      <c r="D81" s="226" t="s">
-        <v>293</v>
-      </c>
-      <c r="E81" s="227" t="s">
-        <v>292</v>
-      </c>
+      <c r="D81" s="226"/>
+      <c r="E81" s="227"/>
       <c r="F81" s="227"/>
       <c r="G81" s="225"/>
-      <c r="H81" s="226" t="s">
-        <v>303</v>
-      </c>
-      <c r="I81" s="227" t="s">
-        <v>298</v>
-      </c>
+      <c r="H81" s="226"/>
+      <c r="I81" s="227"/>
       <c r="J81" s="67"/>
       <c r="K81" s="230"/>
       <c r="M81" s="32"/>
@@ -11378,22 +13990,14 @@
     <row r="82" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="69"/>
       <c r="B82"/>
-      <c r="C82" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="D82" s="226" t="s">
-        <v>294</v>
-      </c>
+      <c r="C82" s="101"/>
+      <c r="D82" s="226"/>
       <c r="E82" s="226"/>
       <c r="F82" s="227"/>
       <c r="G82" s="230"/>
       <c r="H82" s="32"/>
-      <c r="I82" s="227" t="s">
-        <v>301</v>
-      </c>
-      <c r="J82" s="227" t="s">
-        <v>297</v>
-      </c>
+      <c r="I82" s="227"/>
+      <c r="J82" s="227"/>
       <c r="K82" s="230"/>
       <c r="M82" s="32"/>
       <c r="N82" s="67"/>
@@ -11408,22 +14012,16 @@
     <row r="83" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="69"/>
       <c r="B83"/>
-      <c r="C83" s="101" t="s">
-        <v>296</v>
-      </c>
+      <c r="C83" s="101"/>
       <c r="E83" s="226"/>
       <c r="F83" s="227"/>
       <c r="G83" s="230"/>
       <c r="H83" s="32"/>
       <c r="I83" s="32"/>
-      <c r="J83" s="227" t="s">
-        <v>299</v>
-      </c>
+      <c r="J83" s="227"/>
       <c r="K83" s="230"/>
       <c r="M83" s="32"/>
-      <c r="N83" s="227" t="s">
-        <v>341</v>
-      </c>
+      <c r="N83" s="227"/>
       <c r="O83" s="230"/>
       <c r="Q83" s="32"/>
       <c r="R83" s="67"/>
@@ -11443,9 +14041,7 @@
       <c r="I84" s="226"/>
       <c r="J84" s="227"/>
       <c r="K84" s="230"/>
-      <c r="M84" s="227" t="s">
-        <v>343</v>
-      </c>
+      <c r="M84" s="227"/>
       <c r="N84" s="227"/>
       <c r="O84" s="230"/>
       <c r="Q84" s="32"/>
@@ -11466,13 +14062,9 @@
       <c r="I85" s="32"/>
       <c r="J85" s="67"/>
       <c r="K85" s="230"/>
-      <c r="L85" s="227" t="s">
-        <v>334</v>
-      </c>
+      <c r="L85" s="227"/>
       <c r="M85" s="227"/>
-      <c r="N85" s="227" t="s">
-        <v>338</v>
-      </c>
+      <c r="N85" s="227"/>
       <c r="O85" s="230"/>
       <c r="Q85" s="32"/>
       <c r="R85" s="67"/>
@@ -11491,13 +14083,9 @@
       <c r="H86" s="32"/>
       <c r="I86" s="32"/>
       <c r="J86" s="67"/>
-      <c r="K86" s="101" t="s">
-        <v>327</v>
-      </c>
+      <c r="K86" s="101"/>
       <c r="L86" s="227"/>
-      <c r="M86" s="227" t="s">
-        <v>335</v>
-      </c>
+      <c r="M86" s="227"/>
       <c r="N86" s="227"/>
       <c r="O86" s="230"/>
       <c r="Q86" s="32"/>
@@ -11518,13 +14106,9 @@
       <c r="I87" s="32"/>
       <c r="J87" s="67"/>
       <c r="K87" s="101"/>
-      <c r="L87" s="227" t="s">
-        <v>325</v>
-      </c>
+      <c r="L87" s="227"/>
       <c r="M87" s="227"/>
-      <c r="N87" s="227" t="s">
-        <v>339</v>
-      </c>
+      <c r="N87" s="227"/>
       <c r="O87" s="230"/>
       <c r="Q87" s="32"/>
       <c r="R87" s="67"/>
@@ -11545,9 +14129,7 @@
       <c r="J88" s="67"/>
       <c r="K88" s="101"/>
       <c r="L88" s="227"/>
-      <c r="M88" s="227" t="s">
-        <v>323</v>
-      </c>
+      <c r="M88" s="227"/>
       <c r="N88" s="227"/>
       <c r="O88" s="230"/>
       <c r="Q88" s="32"/>
@@ -11570,9 +14152,7 @@
       <c r="K89" s="101"/>
       <c r="L89" s="227"/>
       <c r="M89" s="227"/>
-      <c r="N89" s="227" t="s">
-        <v>337</v>
-      </c>
+      <c r="N89" s="227"/>
       <c r="O89" s="230"/>
       <c r="Q89" s="32"/>
       <c r="R89" s="67"/>
@@ -11597,7 +14177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6FB3D3-CAC1-4C5F-9F30-14BF071472B6}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
@@ -11626,36 +14206,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="249" t="s">
+      <c r="C1" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="252" t="s">
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="249" t="s">
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="261" t="s">
         <v>452</v>
       </c>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="249" t="s">
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="Z1" s="249" t="s">
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="263"/>
+      <c r="Z1" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="250"/>
-      <c r="AB1" s="250"/>
-      <c r="AC1" s="251"/>
+      <c r="AA1" s="262"/>
+      <c r="AB1" s="262"/>
+      <c r="AC1" s="263"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -11724,33 +14304,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="253" t="s">
+      <c r="C3" s="265" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="255"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="267"/>
       <c r="K3" s="225"/>
       <c r="O3" s="225"/>
       <c r="P3" s="226"/>
       <c r="Q3" s="226"/>
       <c r="R3" s="227"/>
-      <c r="S3" s="253" t="s">
+      <c r="S3" s="265" t="s">
         <v>412</v>
       </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="255"/>
-      <c r="Z3" s="253" t="s">
+      <c r="T3" s="266"/>
+      <c r="U3" s="266"/>
+      <c r="V3" s="267"/>
+      <c r="Z3" s="265" t="s">
         <v>269</v>
       </c>
-      <c r="AA3" s="254"/>
-      <c r="AB3" s="254"/>
-      <c r="AC3" s="255"/>
+      <c r="AA3" s="266"/>
+      <c r="AB3" s="266"/>
+      <c r="AC3" s="267"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -11807,12 +14387,12 @@
       <c r="P5" s="226"/>
       <c r="Q5" s="226"/>
       <c r="R5" s="227"/>
-      <c r="S5" s="246" t="s">
+      <c r="S5" s="258" t="s">
         <v>512</v>
       </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="248"/>
+      <c r="T5" s="259"/>
+      <c r="U5" s="259"/>
+      <c r="V5" s="260"/>
       <c r="W5" s="86" t="s">
         <v>514</v>
       </c>
@@ -11842,12 +14422,12 @@
       <c r="P6" s="226"/>
       <c r="Q6" s="226"/>
       <c r="R6" s="227"/>
-      <c r="S6" s="246" t="s">
+      <c r="S6" s="258" t="s">
         <v>429</v>
       </c>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="248"/>
+      <c r="T6" s="259"/>
+      <c r="U6" s="259"/>
+      <c r="V6" s="260"/>
       <c r="Z6" s="225"/>
       <c r="AA6" s="226"/>
       <c r="AB6" s="226"/>
@@ -13223,2800 +15803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97200EA5-E29D-4EB9-BD19-A2256CE43B13}">
-  <dimension ref="A1:V89"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:R2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.73046875" style="70" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="4"/>
-    <col min="4" max="5" width="9.06640625" style="5"/>
-    <col min="6" max="6" width="9.06640625" style="6"/>
-    <col min="7" max="7" width="11.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.53125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.53125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.06640625" style="4"/>
-    <col min="12" max="13" width="9.06640625" style="5"/>
-    <col min="14" max="14" width="9.06640625" style="6"/>
-    <col min="15" max="15" width="9.06640625" style="4" customWidth="1"/>
-    <col min="16" max="17" width="9.06640625" style="5"/>
-    <col min="18" max="18" width="9.06640625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="69"/>
-      <c r="C1" s="249" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="249" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="249" t="s">
-        <v>452</v>
-      </c>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="249" t="s">
-        <v>187</v>
-      </c>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="250"/>
-      <c r="R1" s="251"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="69"/>
-      <c r="C2" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A3" s="69">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="253" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="254"/>
-      <c r="U3" s="254"/>
-      <c r="V3" s="255"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A4" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="T4" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="V4" s="41"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A5" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="101" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="246" t="s">
-        <v>286</v>
-      </c>
-      <c r="T5" s="247"/>
-      <c r="U5" s="247"/>
-      <c r="V5" s="248"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A6" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="246" t="s">
-        <v>287</v>
-      </c>
-      <c r="T6" s="247"/>
-      <c r="U6" s="247"/>
-      <c r="V6" s="248"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A7" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="101" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="41"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A8" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="101" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="113" t="s">
-        <v>288</v>
-      </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="267" t="s">
-        <v>388</v>
-      </c>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A9" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="G9" s="101" t="s">
-        <v>276</v>
-      </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="113" t="s">
-        <v>680</v>
-      </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A10" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="113" t="s">
-        <v>681</v>
-      </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" s="101" t="s">
-        <v>288</v>
-      </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A11" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="114" t="s">
-        <v>682</v>
-      </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A12" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>400</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="K12" s="102"/>
-      <c r="L12" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" s="101" t="s">
-        <v>326</v>
-      </c>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="41"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A13" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C13" s="101" t="s">
-        <v>290</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="K13" s="114" t="s">
-        <v>326</v>
-      </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="41"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A14" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>403</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="112"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="113" t="s">
-        <v>322</v>
-      </c>
-      <c r="M14" s="71"/>
-      <c r="N14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="101" t="s">
-        <v>244</v>
-      </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="R14" s="71"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A15" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>404</v>
-      </c>
-      <c r="K15" s="101" t="s">
-        <v>244</v>
-      </c>
-      <c r="L15" s="41"/>
-      <c r="M15" s="113" t="s">
-        <v>324</v>
-      </c>
-      <c r="N15" s="71"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A16" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="113" t="s">
-        <v>321</v>
-      </c>
-      <c r="O16" s="101" t="s">
-        <v>247</v>
-      </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="R16" s="41"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A17" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="G17" s="101" t="s">
-        <v>297</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="101" t="s">
-        <v>247</v>
-      </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A18" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="G18" s="101" t="s">
-        <v>299</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="O18" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="R18" s="41"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A19" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="N19" s="41"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A20" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="101" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="J20" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="K20" s="72"/>
-      <c r="L20" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="O20" s="101" t="s">
-        <v>341</v>
-      </c>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="R20" s="41"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A21" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>398</v>
-      </c>
-      <c r="C21" s="101" t="s">
-        <v>290</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="K21" s="101" t="s">
-        <v>341</v>
-      </c>
-      <c r="L21" s="73"/>
-      <c r="M21" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A22" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="G22" s="101" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="M22" s="73"/>
-      <c r="N22" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="O22" s="101" t="s">
-        <v>338</v>
-      </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="R22" s="71"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A23" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="G23" s="101" t="s">
-        <v>277</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="101" t="s">
-        <v>338</v>
-      </c>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="N23" s="71"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A24" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="J24" s="67"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="O24" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="R24" s="71"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A25" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="J25" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="K25" s="101" t="s">
-        <v>339</v>
-      </c>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="N25" s="71"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A26" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>401</v>
-      </c>
-      <c r="C26" s="101" t="s">
-        <v>306</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="K26" s="101"/>
-      <c r="L26" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="M26" s="103"/>
-      <c r="N26" s="113" t="s">
-        <v>405</v>
-      </c>
-      <c r="O26" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A27" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" t="s">
-        <v>406</v>
-      </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="101" t="s">
-        <v>337</v>
-      </c>
-      <c r="L27" s="103"/>
-      <c r="M27" s="113" t="s">
-        <v>409</v>
-      </c>
-      <c r="O27" s="104"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>407</v>
-      </c>
-      <c r="K28" s="104"/>
-      <c r="L28" s="113" t="s">
-        <v>410</v>
-      </c>
-      <c r="N28" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="O28" s="101"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A29" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>408</v>
-      </c>
-      <c r="K29" s="114" t="s">
-        <v>411</v>
-      </c>
-      <c r="M29" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="N29" s="41"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A30" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="G30" s="101" t="s">
-        <v>297</v>
-      </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="67"/>
-      <c r="L30" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="O30" s="101"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A31" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="G31" s="101" t="s">
-        <v>299</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="101" t="s">
-        <v>256</v>
-      </c>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="N31" s="41"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A32" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="J32" s="41"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="O32" s="101"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A33" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="K33" s="101" t="s">
-        <v>259</v>
-      </c>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="N33" s="41"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A34" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="101" t="s">
-        <v>306</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="K34" s="101"/>
-      <c r="L34" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A35" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="66"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A36" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="K36" s="66"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A37" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="K37" s="66"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="67"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A38" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="41" t="s">
-        <v>311</v>
-      </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="K38" s="66"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="67"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A39" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="J39" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="K39" s="66"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="67"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A40" s="69" t="s">
-        <v>345</v>
-      </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A41" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="C41" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="101" t="s">
-        <v>318</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A42" s="69" t="s">
-        <v>347</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>306</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="101" t="s">
-        <v>320</v>
-      </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A43" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A44" s="69" t="s">
-        <v>349</v>
-      </c>
-      <c r="K44" s="66"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A45" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="K45" s="66"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="45"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A46" s="69" t="s">
-        <v>351</v>
-      </c>
-      <c r="K46" s="66"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A47" s="69" t="s">
-        <v>352</v>
-      </c>
-      <c r="C47" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A48" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="C48" s="101" t="s">
-        <v>296</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="K48" s="66"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="45"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A49" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A50" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A51" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="F51" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="G51" s="66"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A52" s="69" t="s">
-        <v>357</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="67"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A53" s="69" t="s">
-        <v>358</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="G53" s="101" t="s">
-        <v>302</v>
-      </c>
-      <c r="H53" s="38"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A54" s="69" t="s">
-        <v>359</v>
-      </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="G54" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="I54" s="32"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="45"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A55" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="I55" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="J55" s="67"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="67"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="45"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A56" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="C56" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="E56" s="38"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="J56" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="K56" s="66"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="67"/>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="45"/>
-      <c r="V56" s="45"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A57" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="C57" s="101" t="s">
-        <v>296</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="K57" s="66"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="O57" s="66"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="67"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="45"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A58" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="N58" s="41"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="67"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="45"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A59" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="O59" s="66"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="45"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="45"/>
-      <c r="V59" s="45"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A60" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="C60" s="66"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="101" t="s">
-        <v>327</v>
-      </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="N60" s="41"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="45"/>
-      <c r="U60" s="45"/>
-      <c r="V60" s="45"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A61" s="69" t="s">
-        <v>366</v>
-      </c>
-      <c r="C61" s="66"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="101"/>
-      <c r="L61" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="O61" s="66"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="45"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A62" s="69" t="s">
-        <v>367</v>
-      </c>
-      <c r="C62" s="66"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="N62" s="41"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="45"/>
-      <c r="U62" s="45"/>
-      <c r="V62" s="45"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A63" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="101"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="O63" s="66"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="45"/>
-      <c r="U63" s="45"/>
-      <c r="V63" s="45"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A64" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="C64" s="66"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="101"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="67"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="45"/>
-      <c r="T64" s="45"/>
-      <c r="U64" s="45"/>
-      <c r="V64" s="45"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A65" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="45"/>
-      <c r="T65" s="45"/>
-      <c r="U65" s="45"/>
-      <c r="V65" s="45"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A66" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="G66" s="101" t="s">
-        <v>302</v>
-      </c>
-      <c r="H66" s="38"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="45"/>
-      <c r="T66" s="45"/>
-      <c r="U66" s="45"/>
-      <c r="V66" s="45"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A67" s="69" t="s">
-        <v>372</v>
-      </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="G67" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="I67" s="32"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="45"/>
-      <c r="T67" s="45"/>
-      <c r="U67" s="45"/>
-      <c r="V67" s="45"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A68" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="E68" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="I68" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="J68" s="67"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="67"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="67"/>
-      <c r="S68" s="45"/>
-      <c r="T68" s="45"/>
-      <c r="U68" s="45"/>
-      <c r="V68" s="45"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A69" s="69" t="s">
-        <v>374</v>
-      </c>
-      <c r="C69" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="J69" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="K69" s="66"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="67"/>
-      <c r="O69" s="66"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="67"/>
-      <c r="S69" s="45"/>
-      <c r="T69" s="45"/>
-      <c r="U69" s="45"/>
-      <c r="V69" s="45"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A70" s="69" t="s">
-        <v>375</v>
-      </c>
-      <c r="C70" s="101" t="s">
-        <v>296</v>
-      </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="K70" s="66"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="O70" s="66"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="67"/>
-      <c r="S70" s="45"/>
-      <c r="T70" s="45"/>
-      <c r="U70" s="45"/>
-      <c r="V70" s="45"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A71" s="69" t="s">
-        <v>376</v>
-      </c>
-      <c r="C71" s="66"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="N71" s="41"/>
-      <c r="O71" s="66"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="67"/>
-      <c r="S71" s="45"/>
-      <c r="T71" s="45"/>
-      <c r="U71" s="45"/>
-      <c r="V71" s="45"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A72" s="69" t="s">
-        <v>378</v>
-      </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="O72" s="66"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="67"/>
-      <c r="S72" s="45"/>
-      <c r="T72" s="45"/>
-      <c r="U72" s="45"/>
-      <c r="V72" s="45"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A73" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="C73" s="66"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="101" t="s">
-        <v>327</v>
-      </c>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="N73" s="41"/>
-      <c r="O73" s="66"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="67"/>
-      <c r="S73" s="45"/>
-      <c r="T73" s="45"/>
-      <c r="U73" s="45"/>
-      <c r="V73" s="45"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A74" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="67"/>
-      <c r="K74" s="101"/>
-      <c r="L74" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="O74" s="66"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
-      <c r="R74" s="67"/>
-      <c r="S74" s="45"/>
-      <c r="T74" s="45"/>
-      <c r="U74" s="45"/>
-      <c r="V74" s="45"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A75" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="C75" s="66"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="101"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="N75" s="41"/>
-      <c r="O75" s="66"/>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32"/>
-      <c r="R75" s="67"/>
-      <c r="S75" s="45"/>
-      <c r="T75" s="45"/>
-      <c r="U75" s="45"/>
-      <c r="V75" s="45"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A76" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="101"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="O76" s="66"/>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32"/>
-      <c r="R76" s="67"/>
-      <c r="S76" s="45"/>
-      <c r="T76" s="45"/>
-      <c r="U76" s="45"/>
-      <c r="V76" s="45"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A77" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="C77" s="66"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="67"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="32"/>
-      <c r="Q77" s="32"/>
-      <c r="R77" s="67"/>
-      <c r="S77" s="45"/>
-      <c r="T77" s="45"/>
-      <c r="U77" s="45"/>
-      <c r="V77" s="45"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A78" s="69" t="s">
-        <v>384</v>
-      </c>
-      <c r="C78" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="67"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="67"/>
-      <c r="S78" s="45"/>
-      <c r="T78" s="45"/>
-      <c r="U78" s="45"/>
-      <c r="V78" s="45"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A79" s="69" t="s">
-        <v>385</v>
-      </c>
-      <c r="C79" s="40"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="G79" s="101" t="s">
-        <v>302</v>
-      </c>
-      <c r="H79" s="38"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="66"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="67"/>
-      <c r="O79" s="66"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="67"/>
-      <c r="S79" s="45"/>
-      <c r="T79" s="45"/>
-      <c r="U79" s="45"/>
-      <c r="V79" s="45"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A80" s="69" t="s">
-        <v>386</v>
-      </c>
-      <c r="C80" s="40"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="F80" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="G80" s="101" t="s">
-        <v>304</v>
-      </c>
-      <c r="H80" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="I80" s="32"/>
-      <c r="J80" s="67"/>
-      <c r="K80" s="66"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="67"/>
-      <c r="O80" s="66"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32"/>
-      <c r="R80" s="67"/>
-      <c r="S80" s="45"/>
-      <c r="T80" s="45"/>
-      <c r="U80" s="45"/>
-      <c r="V80" s="45"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A81" s="69"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="E81" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="F81" s="41"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="I81" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="J81" s="67"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="67"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="67"/>
-      <c r="S81" s="45"/>
-      <c r="T81" s="45"/>
-      <c r="U81" s="45"/>
-      <c r="V81" s="45"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A82" s="69"/>
-      <c r="C82" s="101" t="s">
-        <v>295</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="J82" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="K82" s="66"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="67"/>
-      <c r="O82" s="66"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="67"/>
-      <c r="S82" s="45"/>
-      <c r="T82" s="45"/>
-      <c r="U82" s="45"/>
-      <c r="V82" s="45"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A83" s="69"/>
-      <c r="C83" s="101" t="s">
-        <v>296</v>
-      </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
-      <c r="J83" s="41" t="s">
-        <v>299</v>
-      </c>
-      <c r="K83" s="66"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="O83" s="66"/>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="32"/>
-      <c r="R83" s="67"/>
-      <c r="S83" s="45"/>
-      <c r="T83" s="45"/>
-      <c r="U83" s="45"/>
-      <c r="V83" s="45"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A84" s="69"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="66"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="N84" s="41"/>
-      <c r="O84" s="66"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="67"/>
-      <c r="S84" s="45"/>
-      <c r="T84" s="45"/>
-      <c r="U84" s="45"/>
-      <c r="V84" s="45"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A85" s="69"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="O85" s="66"/>
-      <c r="P85" s="32"/>
-      <c r="Q85" s="32"/>
-      <c r="R85" s="67"/>
-      <c r="S85" s="45"/>
-      <c r="T85" s="45"/>
-      <c r="U85" s="45"/>
-      <c r="V85" s="45"/>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A86" s="69"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="101" t="s">
-        <v>327</v>
-      </c>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="N86" s="41"/>
-      <c r="O86" s="66"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="67"/>
-      <c r="S86" s="45"/>
-      <c r="T86" s="45"/>
-      <c r="U86" s="45"/>
-      <c r="V86" s="45"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A87" s="69"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="101"/>
-      <c r="L87" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="O87" s="66"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="67"/>
-      <c r="S87" s="45"/>
-      <c r="T87" s="45"/>
-      <c r="U87" s="45"/>
-      <c r="V87" s="45"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A88" s="69"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="101"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="N88" s="41"/>
-      <c r="O88" s="66"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="67"/>
-      <c r="S88" s="45"/>
-      <c r="T88" s="45"/>
-      <c r="U88" s="45"/>
-      <c r="V88" s="45"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A89" s="69"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="101"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="O89" s="66"/>
-      <c r="P89" s="32"/>
-      <c r="Q89" s="32"/>
-      <c r="R89" s="67"/>
-      <c r="S89" s="45"/>
-      <c r="T89" s="45"/>
-      <c r="U89" s="45"/>
-      <c r="V89" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S5:V5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084D0A12-4017-4076-ABD8-4D430C674B85}">
   <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:K10"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -16036,30 +15828,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="252" t="s">
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="249" t="s">
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="261" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="249" t="s">
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="261" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="251"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="263"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="35" t="s">
@@ -16145,12 +15937,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="253" t="s">
+      <c r="R3" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="254"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="255"/>
+      <c r="S3" s="266"/>
+      <c r="T3" s="266"/>
+      <c r="U3" s="267"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="68" t="s">
@@ -16212,12 +16004,12 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="246" t="s">
+      <c r="R5" s="258" t="s">
         <v>286</v>
       </c>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="248"/>
+      <c r="S5" s="259"/>
+      <c r="T5" s="259"/>
+      <c r="U5" s="260"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="68" t="s">
@@ -16246,12 +16038,12 @@
       <c r="O6" s="38"/>
       <c r="P6" s="38"/>
       <c r="Q6" s="41"/>
-      <c r="R6" s="246" t="s">
+      <c r="R6" s="258" t="s">
         <v>287</v>
       </c>
-      <c r="S6" s="247"/>
-      <c r="T6" s="247"/>
-      <c r="U6" s="248"/>
+      <c r="S6" s="259"/>
+      <c r="T6" s="259"/>
+      <c r="U6" s="260"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="68" t="s">
@@ -16319,7 +16111,6 @@
       <c r="A9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="45"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="41"/>
@@ -16346,7 +16137,6 @@
       <c r="A10" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="40"/>
       <c r="C10" s="38"/>
       <c r="D10" s="45"/>
       <c r="E10" s="41"/>
@@ -17748,30 +17538,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="252" t="s">
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="249" t="s">
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="261" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="249" t="s">
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="261" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="251"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="263"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
@@ -17858,12 +17648,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="253" t="s">
+      <c r="R3" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="254"/>
-      <c r="T3" s="254"/>
-      <c r="U3" s="255"/>
+      <c r="S3" s="266"/>
+      <c r="T3" s="266"/>
+      <c r="U3" s="267"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
@@ -17916,12 +17706,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="246" t="s">
+      <c r="R5" s="258" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="248"/>
+      <c r="S5" s="259"/>
+      <c r="T5" s="259"/>
+      <c r="U5" s="260"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
@@ -17943,12 +17733,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="246" t="s">
+      <c r="R6" s="258" t="s">
         <v>266</v>
       </c>
-      <c r="S6" s="247"/>
-      <c r="T6" s="247"/>
-      <c r="U6" s="248"/>
+      <c r="S6" s="259"/>
+      <c r="T6" s="259"/>
+      <c r="U6" s="260"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
@@ -21423,67 +21213,67 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="268" t="s">
         <v>524</v>
       </c>
-      <c r="C6" s="257"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="256" t="s">
+      <c r="C6" s="269"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="268" t="s">
         <v>525</v>
       </c>
-      <c r="F6" s="257"/>
-      <c r="G6" s="258"/>
+      <c r="F6" s="269"/>
+      <c r="G6" s="270"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="268" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="257"/>
-      <c r="H7" s="257"/>
-      <c r="I7" s="257"/>
-      <c r="J7" s="257"/>
-      <c r="K7" s="257"/>
-      <c r="L7" s="257"/>
-      <c r="M7" s="257"/>
-      <c r="N7" s="257"/>
-      <c r="O7" s="257"/>
-      <c r="P7" s="258"/>
-      <c r="Q7" s="256" t="s">
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
+      <c r="E7" s="269"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
+      <c r="H7" s="269"/>
+      <c r="I7" s="269"/>
+      <c r="J7" s="269"/>
+      <c r="K7" s="269"/>
+      <c r="L7" s="269"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="270"/>
+      <c r="Q7" s="268" t="s">
         <v>219</v>
       </c>
-      <c r="R7" s="257"/>
-      <c r="S7" s="257"/>
-      <c r="T7" s="257"/>
-      <c r="U7" s="257"/>
-      <c r="V7" s="257"/>
-      <c r="W7" s="257"/>
-      <c r="X7" s="257"/>
-      <c r="Y7" s="257"/>
-      <c r="Z7" s="257"/>
-      <c r="AA7" s="258"/>
-      <c r="AB7" s="256" t="s">
+      <c r="R7" s="269"/>
+      <c r="S7" s="269"/>
+      <c r="T7" s="269"/>
+      <c r="U7" s="269"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="270"/>
+      <c r="AB7" s="268" t="s">
         <v>220</v>
       </c>
-      <c r="AC7" s="257"/>
-      <c r="AD7" s="257"/>
-      <c r="AE7" s="257"/>
-      <c r="AF7" s="257"/>
-      <c r="AG7" s="257"/>
-      <c r="AH7" s="257"/>
-      <c r="AI7" s="257"/>
-      <c r="AJ7" s="257"/>
-      <c r="AK7" s="257"/>
-      <c r="AL7" s="257"/>
-      <c r="AM7" s="257"/>
-      <c r="AN7" s="257"/>
-      <c r="AO7" s="257"/>
-      <c r="AP7" s="257"/>
-      <c r="AQ7" s="257"/>
-      <c r="AR7" s="258"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="269"/>
+      <c r="AE7" s="269"/>
+      <c r="AF7" s="269"/>
+      <c r="AG7" s="269"/>
+      <c r="AH7" s="269"/>
+      <c r="AI7" s="269"/>
+      <c r="AJ7" s="269"/>
+      <c r="AK7" s="269"/>
+      <c r="AL7" s="269"/>
+      <c r="AM7" s="269"/>
+      <c r="AN7" s="269"/>
+      <c r="AO7" s="269"/>
+      <c r="AP7" s="269"/>
+      <c r="AQ7" s="269"/>
+      <c r="AR7" s="270"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="E9" s="45"/>
@@ -21527,8 +21317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34ECBBF-B660-41D9-BDE6-91AF01412A2C}">
   <dimension ref="A1:AB46"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -21552,18 +21342,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="257" t="s">
         <v>690</v>
       </c>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="257"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
@@ -22687,9 +22477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431E16EB-4173-4BB0-A744-4BFFE60D57DA}">
   <dimension ref="A1:BA82"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="topRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -22734,11 +22524,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="253" t="s">
+      <c r="D1" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
       <c r="G1" s="64"/>
       <c r="H1" s="60"/>
       <c r="I1" s="94"/>
@@ -22796,12 +22586,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="249" t="s">
+      <c r="D6" s="261" t="s">
         <v>629</v>
       </c>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="251"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="263"/>
       <c r="H6" s="124"/>
       <c r="I6" s="96"/>
       <c r="J6" s="96"/>
@@ -22810,27 +22600,27 @@
       <c r="M6" s="96"/>
       <c r="N6" s="96"/>
       <c r="O6" s="96"/>
-      <c r="P6" s="249" t="s">
+      <c r="P6" s="261" t="s">
         <v>630</v>
       </c>
-      <c r="Q6" s="250"/>
-      <c r="R6" s="250"/>
-      <c r="S6" s="251"/>
-      <c r="AF6" s="249" t="s">
+      <c r="Q6" s="262"/>
+      <c r="R6" s="262"/>
+      <c r="S6" s="263"/>
+      <c r="AF6" s="261" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="250"/>
-      <c r="AH6" s="250"/>
-      <c r="AI6" s="251"/>
+      <c r="AG6" s="262"/>
+      <c r="AH6" s="262"/>
+      <c r="AI6" s="263"/>
       <c r="AJ6" s="155"/>
-      <c r="AK6" s="249" t="s">
+      <c r="AK6" s="261" t="s">
         <v>628</v>
       </c>
-      <c r="AL6" s="250"/>
-      <c r="AM6" s="250"/>
-      <c r="AN6" s="250"/>
-      <c r="AO6" s="250"/>
-      <c r="AP6" s="251"/>
+      <c r="AL6" s="262"/>
+      <c r="AM6" s="262"/>
+      <c r="AN6" s="262"/>
+      <c r="AO6" s="262"/>
+      <c r="AP6" s="263"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="35" t="s">
@@ -22908,11 +22698,11 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
       <c r="L8" s="96"/>
-      <c r="M8" s="260" t="s">
+      <c r="M8" s="272" t="s">
         <v>536</v>
       </c>
-      <c r="N8" s="260"/>
-      <c r="O8" s="260"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="121"/>
       <c r="R8" s="121"/>
@@ -22933,12 +22723,12 @@
       <c r="AL8" s="156"/>
       <c r="AM8" s="156"/>
       <c r="AN8" s="156"/>
-      <c r="AQ8" s="246" t="s">
+      <c r="AQ8" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="247"/>
-      <c r="AS8" s="247"/>
-      <c r="AT8" s="248"/>
+      <c r="AR8" s="259"/>
+      <c r="AS8" s="259"/>
+      <c r="AT8" s="260"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="40"/>
@@ -22950,11 +22740,11 @@
       <c r="J9" s="123"/>
       <c r="K9" s="123"/>
       <c r="L9" s="123"/>
-      <c r="M9" s="262" t="s">
+      <c r="M9" s="274" t="s">
         <v>537</v>
       </c>
-      <c r="N9" s="262"/>
-      <c r="O9" s="261"/>
+      <c r="N9" s="274"/>
+      <c r="O9" s="273"/>
       <c r="P9" s="120"/>
       <c r="Q9" s="121"/>
       <c r="R9" s="121"/>
@@ -22996,9 +22786,9 @@
       <c r="J10" s="123"/>
       <c r="K10" s="123"/>
       <c r="L10" s="123"/>
-      <c r="M10" s="259"/>
-      <c r="N10" s="259"/>
-      <c r="O10" s="259"/>
+      <c r="M10" s="271"/>
+      <c r="N10" s="271"/>
+      <c r="O10" s="271"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="121"/>
       <c r="R10" s="121"/>
@@ -23023,12 +22813,12 @@
       <c r="AL10" s="156"/>
       <c r="AM10" s="156"/>
       <c r="AN10" s="156"/>
-      <c r="AQ10" s="246" t="s">
+      <c r="AQ10" s="258" t="s">
         <v>54</v>
       </c>
-      <c r="AR10" s="247"/>
-      <c r="AS10" s="247"/>
-      <c r="AT10" s="248"/>
+      <c r="AR10" s="259"/>
+      <c r="AS10" s="259"/>
+      <c r="AT10" s="260"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="40"/>
@@ -23064,12 +22854,12 @@
       <c r="AL11" s="156"/>
       <c r="AM11" s="156"/>
       <c r="AN11" s="156"/>
-      <c r="AQ11" s="246" t="s">
+      <c r="AQ11" s="258" t="s">
         <v>627</v>
       </c>
-      <c r="AR11" s="247"/>
-      <c r="AS11" s="247"/>
-      <c r="AT11" s="248"/>
+      <c r="AR11" s="259"/>
+      <c r="AS11" s="259"/>
+      <c r="AT11" s="260"/>
       <c r="AU11" s="26" t="s">
         <v>267</v>
       </c>
@@ -23095,11 +22885,11 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
       <c r="L12" s="96"/>
-      <c r="M12" s="263" t="s">
+      <c r="M12" s="275" t="s">
         <v>535</v>
       </c>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
+      <c r="N12" s="275"/>
+      <c r="O12" s="275"/>
       <c r="P12" s="120"/>
       <c r="Q12" s="121"/>
       <c r="R12" s="121"/>
@@ -23113,12 +22903,12 @@
       <c r="AL12" s="156"/>
       <c r="AM12" s="156"/>
       <c r="AN12" s="156"/>
-      <c r="AQ12" s="246" t="s">
+      <c r="AQ12" s="258" t="s">
         <v>534</v>
       </c>
-      <c r="AR12" s="247"/>
-      <c r="AS12" s="247"/>
-      <c r="AT12" s="248"/>
+      <c r="AR12" s="259"/>
+      <c r="AS12" s="259"/>
+      <c r="AT12" s="260"/>
       <c r="AV12" s="21" t="s">
         <v>623</v>
       </c>
@@ -23134,12 +22924,12 @@
         <v>530</v>
       </c>
       <c r="C13" s="133"/>
-      <c r="D13" s="249" t="s">
+      <c r="D13" s="261" t="s">
         <v>538</v>
       </c>
-      <c r="E13" s="250"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="250"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="262"/>
       <c r="H13" s="169" t="s">
         <v>641</v>
       </c>
@@ -23162,11 +22952,11 @@
       <c r="O13" s="182" t="s">
         <v>645</v>
       </c>
-      <c r="P13" s="249" t="s">
+      <c r="P13" s="261" t="s">
         <v>539</v>
       </c>
-      <c r="Q13" s="250"/>
-      <c r="R13" s="250"/>
+      <c r="Q13" s="262"/>
+      <c r="R13" s="262"/>
       <c r="S13" s="158"/>
       <c r="T13" s="172" t="s">
         <v>666</v>
@@ -23202,18 +22992,18 @@
       <c r="AH13" s="60"/>
       <c r="AI13" s="43"/>
       <c r="AJ13" s="155"/>
-      <c r="AK13" s="246" t="s">
+      <c r="AK13" s="258" t="s">
         <v>538</v>
       </c>
-      <c r="AL13" s="247"/>
-      <c r="AM13" s="247"/>
-      <c r="AN13" s="247"/>
-      <c r="AQ13" s="246" t="s">
+      <c r="AL13" s="259"/>
+      <c r="AM13" s="259"/>
+      <c r="AN13" s="259"/>
+      <c r="AQ13" s="258" t="s">
         <v>620</v>
       </c>
-      <c r="AR13" s="245"/>
-      <c r="AS13" s="245"/>
-      <c r="AT13" s="245"/>
+      <c r="AR13" s="257"/>
+      <c r="AS13" s="257"/>
+      <c r="AT13" s="257"/>
       <c r="AV13" s="21" t="s">
         <v>624</v>
       </c>
@@ -23905,8 +23695,8 @@
       </c>
       <c r="AO30" s="161"/>
       <c r="AP30" s="163"/>
-      <c r="AR30" s="261"/>
-      <c r="AS30" s="261"/>
+      <c r="AR30" s="273"/>
+      <c r="AS30" s="273"/>
     </row>
     <row r="31" spans="1:52" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="201" t="s">
@@ -24359,8 +24149,8 @@
         <v>88</v>
       </c>
       <c r="AO40" s="161"/>
-      <c r="AR40" s="259"/>
-      <c r="AS40" s="259"/>
+      <c r="AR40" s="271"/>
+      <c r="AS40" s="271"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="153" t="s">
@@ -24594,8 +24384,8 @@
         <v>643</v>
       </c>
       <c r="AP46" s="163"/>
-      <c r="AR46" s="259"/>
-      <c r="AS46" s="259"/>
+      <c r="AR46" s="271"/>
+      <c r="AS46" s="271"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A47" s="153" t="s">
@@ -24680,12 +24470,12 @@
         <v>532</v>
       </c>
       <c r="C49" s="180"/>
-      <c r="D49" s="249" t="s">
+      <c r="D49" s="261" t="s">
         <v>538</v>
       </c>
-      <c r="E49" s="250"/>
-      <c r="F49" s="250"/>
-      <c r="G49" s="250"/>
+      <c r="E49" s="262"/>
+      <c r="F49" s="262"/>
+      <c r="G49" s="262"/>
       <c r="H49" s="169" t="s">
         <v>641</v>
       </c>
@@ -24708,11 +24498,11 @@
       <c r="O49" s="182" t="s">
         <v>645</v>
       </c>
-      <c r="P49" s="249" t="s">
+      <c r="P49" s="261" t="s">
         <v>539</v>
       </c>
-      <c r="Q49" s="250"/>
-      <c r="R49" s="250"/>
+      <c r="Q49" s="262"/>
+      <c r="R49" s="262"/>
       <c r="S49" s="191"/>
       <c r="T49" s="172" t="s">
         <v>666</v>
@@ -26075,9 +25865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43FEDAF-23E6-469D-8A80-8AB9F6CCCBDB}">
   <dimension ref="A1:AU190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L95" sqref="L95"/>
+      <selection pane="topRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -26121,11 +25911,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="265" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
       <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -26150,49 +25940,49 @@
       </c>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="266"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="278"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="246" t="s">
+      <c r="B5" s="258" t="s">
         <v>533</v>
       </c>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="248"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="260"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="249" t="s">
+      <c r="B6" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="250"/>
-      <c r="D6" s="250"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="252" t="s">
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="250"/>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
-      <c r="J6" s="249" t="s">
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
+      <c r="I6" s="262"/>
+      <c r="J6" s="261" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="250"/>
-      <c r="L6" s="250"/>
-      <c r="M6" s="251"/>
-      <c r="N6" s="249" t="s">
+      <c r="K6" s="262"/>
+      <c r="L6" s="262"/>
+      <c r="M6" s="263"/>
+      <c r="N6" s="261" t="s">
         <v>187</v>
       </c>
-      <c r="O6" s="250"/>
-      <c r="P6" s="250"/>
-      <c r="Q6" s="251"/>
+      <c r="O6" s="262"/>
+      <c r="P6" s="262"/>
+      <c r="Q6" s="263"/>
       <c r="V6" s="56"/>
       <c r="W6" s="57"/>
       <c r="X6" s="57"/>
@@ -26221,24 +26011,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="210"/>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="261" t="s">
         <v>629</v>
       </c>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="249" t="s">
+      <c r="C7" s="262"/>
+      <c r="D7" s="262"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="261" t="s">
         <v>630</v>
       </c>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="249" t="s">
+      <c r="G7" s="262"/>
+      <c r="H7" s="262"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="261" t="s">
         <v>801</v>
       </c>
-      <c r="K7" s="250"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="251"/>
+      <c r="K7" s="262"/>
+      <c r="L7" s="262"/>
+      <c r="M7" s="263"/>
       <c r="N7" s="207"/>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
@@ -27001,10 +26791,10 @@
       <c r="M38" s="232" t="s">
         <v>803</v>
       </c>
-      <c r="N38" s="274"/>
-      <c r="O38" s="274"/>
-      <c r="P38" s="274"/>
-      <c r="Q38" s="275"/>
+      <c r="N38" s="252"/>
+      <c r="O38" s="252"/>
+      <c r="P38" s="252"/>
+      <c r="Q38" s="253"/>
     </row>
     <row r="39" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="210" t="s">
@@ -27584,10 +27374,10 @@
       <c r="M66" s="232" t="s">
         <v>803</v>
       </c>
-      <c r="N66" s="274"/>
-      <c r="O66" s="274"/>
-      <c r="P66" s="274"/>
-      <c r="Q66" s="275"/>
+      <c r="N66" s="252"/>
+      <c r="O66" s="252"/>
+      <c r="P66" s="252"/>
+      <c r="Q66" s="253"/>
     </row>
     <row r="67" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="210" t="s">
@@ -28452,8 +28242,8 @@
         <v>610</v>
       </c>
       <c r="D107" s="26"/>
-      <c r="E107" s="78" t="s">
-        <v>854</v>
+      <c r="E107" s="76" t="s">
+        <v>856</v>
       </c>
       <c r="F107" s="82" t="s">
         <v>860</v>
@@ -28471,11 +28261,11 @@
       <c r="A108" s="210" t="s">
         <v>611</v>
       </c>
-      <c r="D108" s="76" t="s">
-        <v>856</v>
-      </c>
-      <c r="E108" s="78" t="s">
-        <v>855</v>
+      <c r="D108" s="78" t="s">
+        <v>854</v>
+      </c>
+      <c r="E108" s="76" t="s">
+        <v>857</v>
       </c>
       <c r="F108" s="82" t="s">
         <v>861</v>
@@ -28495,8 +28285,8 @@
       <c r="A109" s="210" t="s">
         <v>612</v>
       </c>
-      <c r="D109" s="76" t="s">
-        <v>857</v>
+      <c r="D109" s="78" t="s">
+        <v>855</v>
       </c>
       <c r="E109" s="34"/>
       <c r="F109" s="21"/>
@@ -28573,7 +28363,7 @@
       <c r="K113" s="26"/>
       <c r="L113" s="26"/>
       <c r="M113" s="78" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N113" s="4"/>
     </row>
@@ -28590,9 +28380,9 @@
       <c r="J114" s="33"/>
       <c r="K114" s="26"/>
       <c r="L114" s="78" t="s">
-        <v>916</v>
-      </c>
-      <c r="M114" s="34"/>
+        <v>915</v>
+      </c>
+      <c r="M114" s="26"/>
       <c r="N114" s="4"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.4">
@@ -28607,9 +28397,9 @@
       <c r="I115" s="21"/>
       <c r="J115" s="33"/>
       <c r="K115" s="26"/>
-      <c r="L115" s="26"/>
+      <c r="L115" s="34"/>
       <c r="M115" s="78" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N115" s="4"/>
     </row>
@@ -28626,7 +28416,7 @@
       <c r="J116" s="33"/>
       <c r="K116" s="26"/>
       <c r="L116" s="78" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="M116" s="34"/>
       <c r="N116" s="4"/>
@@ -28857,10 +28647,10 @@
       <c r="M128" s="232" t="s">
         <v>805</v>
       </c>
-      <c r="N128" s="274"/>
-      <c r="O128" s="274"/>
-      <c r="P128" s="274"/>
-      <c r="Q128" s="275"/>
+      <c r="N128" s="252"/>
+      <c r="O128" s="252"/>
+      <c r="P128" s="252"/>
+      <c r="Q128" s="253"/>
     </row>
     <row r="129" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="210" t="s">
@@ -30132,8 +29922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFC1000-D16D-474A-B960-7E171076D5D1}">
   <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -30156,57 +29946,57 @@
       <c r="A1" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="249" t="s">
+      <c r="B1" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="252" t="s">
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="249" t="s">
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="261" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="249" t="s">
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="261" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="250"/>
-      <c r="P1" s="250"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="253" t="s">
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="265" t="s">
         <v>262</v>
       </c>
-      <c r="S1" s="254"/>
-      <c r="T1" s="254"/>
+      <c r="S1" s="266"/>
+      <c r="T1" s="266"/>
       <c r="U1" s="42"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="224"/>
-      <c r="B2" s="249" t="s">
+      <c r="B2" s="261" t="s">
         <v>629</v>
       </c>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="249" t="s">
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="261" t="s">
         <v>630</v>
       </c>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="249" t="s">
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="261" t="s">
         <v>801</v>
       </c>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="251"/>
+      <c r="K2" s="262"/>
+      <c r="L2" s="262"/>
+      <c r="M2" s="263"/>
       <c r="N2" s="44"/>
       <c r="O2" s="228"/>
       <c r="P2" s="228"/>
@@ -30233,7 +30023,7 @@
       <c r="D3" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="269" t="s">
+      <c r="E3" s="249" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="228" t="s">
@@ -30257,7 +30047,7 @@
       <c r="L3" s="228" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="269" t="s">
+      <c r="M3" s="249" t="s">
         <v>185</v>
       </c>
       <c r="N3" s="44" t="s">
@@ -30269,7 +30059,7 @@
       <c r="P3" s="228" t="s">
         <v>189</v>
       </c>
-      <c r="Q3" s="269" t="s">
+      <c r="Q3" s="249" t="s">
         <v>188</v>
       </c>
       <c r="R3" s="226" t="s">
@@ -30305,12 +30095,12 @@
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="34"/>
-      <c r="R4" s="264" t="s">
+      <c r="R4" s="276" t="s">
         <v>286</v>
       </c>
-      <c r="S4" s="265"/>
-      <c r="T4" s="265"/>
-      <c r="U4" s="266"/>
+      <c r="S4" s="277"/>
+      <c r="T4" s="277"/>
+      <c r="U4" s="278"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="224" t="s">
@@ -30333,12 +30123,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="246" t="s">
+      <c r="R5" s="258" t="s">
         <v>879</v>
       </c>
-      <c r="S5" s="247"/>
-      <c r="T5" s="247"/>
-      <c r="U5" s="248"/>
+      <c r="S5" s="259"/>
+      <c r="T5" s="259"/>
+      <c r="U5" s="260"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="224" t="s">
@@ -30890,7 +30680,7 @@
       <c r="A35" s="224" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="270" t="s">
+      <c r="B35" s="250" t="s">
         <v>583</v>
       </c>
       <c r="C35" s="76" t="s">
@@ -30910,7 +30700,7 @@
       <c r="A36" s="224" t="s">
         <v>169</v>
       </c>
-      <c r="B36" s="270" t="s">
+      <c r="B36" s="250" t="s">
         <v>585</v>
       </c>
       <c r="C36" s="76" t="s">
@@ -30932,7 +30722,7 @@
       <c r="A37" s="224" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="270" t="s">
+      <c r="B37" s="250" t="s">
         <v>587</v>
       </c>
       <c r="D37" s="83"/>
@@ -30988,7 +30778,7 @@
       <c r="A41" s="224" t="s">
         <v>346</v>
       </c>
-      <c r="B41" s="270" t="s">
+      <c r="B41" s="250" t="s">
         <v>583</v>
       </c>
       <c r="C41" s="76" t="s">
@@ -31013,7 +30803,7 @@
       <c r="A42" s="224" t="s">
         <v>347</v>
       </c>
-      <c r="B42" s="270" t="s">
+      <c r="B42" s="250" t="s">
         <v>585</v>
       </c>
       <c r="C42" s="76" t="s">
@@ -31042,7 +30832,7 @@
       <c r="A43" s="224" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="270" t="s">
+      <c r="B43" s="250" t="s">
         <v>587</v>
       </c>
       <c r="D43" s="83"/>
@@ -31125,7 +30915,7 @@
       <c r="A47" s="224" t="s">
         <v>352</v>
       </c>
-      <c r="B47" s="270" t="s">
+      <c r="B47" s="250" t="s">
         <v>583</v>
       </c>
       <c r="C47" s="76" t="s">
@@ -31148,7 +30938,7 @@
       <c r="A48" s="224" t="s">
         <v>353</v>
       </c>
-      <c r="B48" s="270" t="s">
+      <c r="B48" s="250" t="s">
         <v>585</v>
       </c>
       <c r="C48" s="76" t="s">
@@ -31173,7 +30963,7 @@
       <c r="A49" s="224" t="s">
         <v>354</v>
       </c>
-      <c r="B49" s="270" t="s">
+      <c r="B49" s="250" t="s">
         <v>587</v>
       </c>
       <c r="D49" s="83"/>
@@ -31437,7 +31227,7 @@
       <c r="A65" s="224" t="s">
         <v>370</v>
       </c>
-      <c r="B65" s="271" t="s">
+      <c r="B65" s="251" t="s">
         <v>584</v>
       </c>
       <c r="C65" s="77" t="s">
@@ -31461,7 +31251,7 @@
       <c r="A66" s="224" t="s">
         <v>371</v>
       </c>
-      <c r="B66" s="271" t="s">
+      <c r="B66" s="251" t="s">
         <v>586</v>
       </c>
       <c r="C66" s="77" t="s">
@@ -31487,7 +31277,7 @@
       <c r="A67" s="224" t="s">
         <v>372</v>
       </c>
-      <c r="B67" s="271" t="s">
+      <c r="B67" s="251" t="s">
         <v>588</v>
       </c>
       <c r="D67" s="83"/>
@@ -31559,7 +31349,7 @@
       <c r="A71" s="224" t="s">
         <v>376</v>
       </c>
-      <c r="B71" s="271" t="s">
+      <c r="B71" s="251" t="s">
         <v>584</v>
       </c>
       <c r="C71" s="77" t="s">
@@ -31585,7 +31375,7 @@
       <c r="A72" s="224" t="s">
         <v>378</v>
       </c>
-      <c r="B72" s="271" t="s">
+      <c r="B72" s="251" t="s">
         <v>586</v>
       </c>
       <c r="C72" s="77" t="s">
@@ -31614,7 +31404,7 @@
       <c r="A73" s="224" t="s">
         <v>379</v>
       </c>
-      <c r="B73" s="271" t="s">
+      <c r="B73" s="251" t="s">
         <v>588</v>
       </c>
       <c r="D73" s="83"/>
@@ -31693,7 +31483,7 @@
       <c r="A77" s="224" t="s">
         <v>383</v>
       </c>
-      <c r="B77" s="271" t="s">
+      <c r="B77" s="251" t="s">
         <v>584</v>
       </c>
       <c r="C77" s="77" t="s">
@@ -31719,7 +31509,7 @@
       <c r="A78" s="224" t="s">
         <v>384</v>
       </c>
-      <c r="B78" s="271" t="s">
+      <c r="B78" s="251" t="s">
         <v>586</v>
       </c>
       <c r="C78" s="77" t="s">
@@ -31748,7 +31538,7 @@
       <c r="A79" s="224" t="s">
         <v>385</v>
       </c>
-      <c r="B79" s="271" t="s">
+      <c r="B79" s="251" t="s">
         <v>588</v>
       </c>
       <c r="D79" s="83"/>
@@ -32008,11 +31798,11 @@
       <c r="K93" s="222"/>
       <c r="L93" s="232"/>
       <c r="M93" s="232"/>
-      <c r="R93" s="253" t="s">
+      <c r="R93" s="265" t="s">
         <v>262</v>
       </c>
-      <c r="S93" s="254"/>
-      <c r="T93" s="254"/>
+      <c r="S93" s="266"/>
+      <c r="T93" s="266"/>
       <c r="U93" s="42"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -32101,12 +31891,12 @@
       <c r="K96" s="83"/>
       <c r="L96" s="83"/>
       <c r="M96" s="84"/>
-      <c r="R96" s="264" t="s">
+      <c r="R96" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="S96" s="272"/>
-      <c r="T96" s="272"/>
-      <c r="U96" s="273"/>
+      <c r="S96" s="279"/>
+      <c r="T96" s="279"/>
+      <c r="U96" s="280"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="224" t="s">
@@ -32128,12 +31918,12 @@
       <c r="K97" s="83"/>
       <c r="L97" s="83"/>
       <c r="M97" s="84"/>
-      <c r="R97" s="253" t="s">
+      <c r="R97" s="265" t="s">
         <v>879</v>
       </c>
-      <c r="S97" s="254"/>
-      <c r="T97" s="254"/>
-      <c r="U97" s="255"/>
+      <c r="S97" s="266"/>
+      <c r="T97" s="266"/>
+      <c r="U97" s="267"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="224" t="s">
@@ -32185,11 +31975,11 @@
       <c r="K100" s="83"/>
       <c r="L100" s="83"/>
       <c r="M100" s="84"/>
-      <c r="R100" s="253" t="s">
+      <c r="R100" s="265" t="s">
         <v>880</v>
       </c>
-      <c r="S100" s="254"/>
-      <c r="T100" s="254"/>
+      <c r="S100" s="266"/>
+      <c r="T100" s="266"/>
       <c r="U100" s="42"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -32285,12 +32075,12 @@
       <c r="M103" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="R103" s="264" t="s">
+      <c r="R103" s="276" t="s">
         <v>286</v>
       </c>
-      <c r="S103" s="272"/>
-      <c r="T103" s="272"/>
-      <c r="U103" s="273"/>
+      <c r="S103" s="279"/>
+      <c r="T103" s="279"/>
+      <c r="U103" s="280"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="224" t="s">
@@ -32307,12 +32097,12 @@
       <c r="L104" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="R104" s="253" t="s">
+      <c r="R104" s="265" t="s">
         <v>879</v>
       </c>
-      <c r="S104" s="254"/>
-      <c r="T104" s="254"/>
-      <c r="U104" s="255"/>
+      <c r="S104" s="266"/>
+      <c r="T104" s="266"/>
+      <c r="U104" s="267"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="224" t="s">
@@ -32662,12 +32452,12 @@
       <c r="L124" s="34" t="s">
         <v>778</v>
       </c>
-      <c r="R124" s="253" t="s">
+      <c r="R124" s="265" t="s">
         <v>891</v>
       </c>
-      <c r="S124" s="254"/>
-      <c r="T124" s="254"/>
-      <c r="U124" s="255"/>
+      <c r="S124" s="266"/>
+      <c r="T124" s="266"/>
+      <c r="U124" s="267"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="224" t="s">
@@ -32743,23 +32533,23 @@
       <c r="G127" s="77" t="s">
         <v>588</v>
       </c>
-      <c r="R127" s="264" t="s">
+      <c r="R127" s="276" t="s">
         <v>883</v>
       </c>
-      <c r="S127" s="272"/>
-      <c r="T127" s="272"/>
-      <c r="U127" s="273"/>
+      <c r="S127" s="279"/>
+      <c r="T127" s="279"/>
+      <c r="U127" s="280"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="224" t="s">
         <v>892</v>
       </c>
-      <c r="R128" s="249" t="s">
+      <c r="R128" s="261" t="s">
         <v>879</v>
       </c>
-      <c r="S128" s="250"/>
-      <c r="T128" s="250"/>
-      <c r="U128" s="251"/>
+      <c r="S128" s="262"/>
+      <c r="T128" s="262"/>
+      <c r="U128" s="263"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="224" t="s">
@@ -32814,12 +32604,12 @@
       <c r="F135" s="82" t="s">
         <v>860</v>
       </c>
-      <c r="R135" s="253" t="s">
+      <c r="R135" s="265" t="s">
         <v>911</v>
       </c>
-      <c r="S135" s="254"/>
-      <c r="T135" s="254"/>
-      <c r="U135" s="255"/>
+      <c r="S135" s="266"/>
+      <c r="T135" s="266"/>
+      <c r="U135" s="267"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="224" t="s">
@@ -32871,23 +32661,23 @@
       <c r="A138" s="224" t="s">
         <v>868</v>
       </c>
-      <c r="R138" s="264" t="s">
+      <c r="R138" s="276" t="s">
         <v>883</v>
       </c>
-      <c r="S138" s="272"/>
-      <c r="T138" s="272"/>
-      <c r="U138" s="273"/>
+      <c r="S138" s="279"/>
+      <c r="T138" s="279"/>
+      <c r="U138" s="280"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="224" t="s">
         <v>869</v>
       </c>
-      <c r="R139" s="249" t="s">
+      <c r="R139" s="261" t="s">
         <v>922</v>
       </c>
-      <c r="S139" s="250"/>
-      <c r="T139" s="250"/>
-      <c r="U139" s="251"/>
+      <c r="S139" s="262"/>
+      <c r="T139" s="262"/>
+      <c r="U139" s="263"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="224" t="s">
@@ -32936,12 +32726,12 @@
       <c r="F145" s="78" t="s">
         <v>853</v>
       </c>
-      <c r="R145" s="253" t="s">
+      <c r="R145" s="265" t="s">
         <v>921</v>
       </c>
-      <c r="S145" s="254"/>
-      <c r="T145" s="254"/>
-      <c r="U145" s="255"/>
+      <c r="S145" s="266"/>
+      <c r="T145" s="266"/>
+      <c r="U145" s="267"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="224" t="s">
@@ -32993,12 +32783,12 @@
       <c r="A148" s="224" t="s">
         <v>893</v>
       </c>
-      <c r="R148" s="264" t="s">
+      <c r="R148" s="276" t="s">
         <v>883</v>
       </c>
-      <c r="S148" s="272"/>
-      <c r="T148" s="272"/>
-      <c r="U148" s="273"/>
+      <c r="S148" s="279"/>
+      <c r="T148" s="279"/>
+      <c r="U148" s="280"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="224" t="s">
@@ -33008,12 +32798,12 @@
       <c r="Q149" s="78" t="s">
         <v>884</v>
       </c>
-      <c r="R149" s="249" t="s">
+      <c r="R149" s="261" t="s">
         <v>922</v>
       </c>
-      <c r="S149" s="250"/>
-      <c r="T149" s="250"/>
-      <c r="U149" s="251"/>
+      <c r="S149" s="262"/>
+      <c r="T149" s="262"/>
+      <c r="U149" s="263"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="224" t="s">
@@ -33137,16 +32927,16 @@
     <mergeCell ref="R104:U104"/>
     <mergeCell ref="R124:U124"/>
     <mergeCell ref="R127:U127"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CEAC6E-BBDB-4BCA-AA98-BB1B4F765605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54985C91-64A6-4784-8298-9792FC4B78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="5" activeTab="12" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="5" activeTab="10" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4376" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4383" uniqueCount="960">
   <si>
     <t>预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3361,6 +3361,34 @@
   </si>
   <si>
     <t>输入到输出间隔=N+2+2=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change C0 to TB_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGE C0 to TB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_HT(7)还是在C0产生，只是映射存储到TB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以M的输入顺序不用变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode&lt;=2'b00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode&lt;=2'b10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只改变PE_mode, 数据映射关系不变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3792,7 +3820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4588,6 +4616,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4666,22 +4712,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5008,11 +5045,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="265" t="s">
+      <c r="W1" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="265"/>
-      <c r="Y1" s="265"/>
+      <c r="X1" s="271"/>
+      <c r="Y1" s="271"/>
       <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5027,11 +5064,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="265" t="s">
+      <c r="W3" s="271" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
+      <c r="X3" s="271"/>
+      <c r="Y3" s="271"/>
       <c r="Z3" s="24" t="s">
         <v>55</v>
       </c>
@@ -5809,57 +5846,57 @@
       <c r="A1" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="269" t="s">
+      <c r="B1" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="272" t="s">
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="269" t="s">
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="275" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="269" t="s">
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="277"/>
+      <c r="N1" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="273" t="s">
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="277"/>
+      <c r="R1" s="279" t="s">
         <v>262</v>
       </c>
-      <c r="S1" s="274"/>
-      <c r="T1" s="274"/>
+      <c r="S1" s="280"/>
+      <c r="T1" s="280"/>
       <c r="U1" s="42"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="223"/>
-      <c r="B2" s="269" t="s">
+      <c r="B2" s="275" t="s">
         <v>623</v>
       </c>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="269" t="s">
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="275" t="s">
         <v>624</v>
       </c>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="269" t="s">
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="275" t="s">
         <v>795</v>
       </c>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="271"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="277"/>
       <c r="N2" s="44"/>
       <c r="O2" s="227"/>
       <c r="P2" s="227"/>
@@ -5958,12 +5995,12 @@
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="34"/>
-      <c r="R4" s="284" t="s">
+      <c r="R4" s="290" t="s">
         <v>286</v>
       </c>
-      <c r="S4" s="285"/>
-      <c r="T4" s="285"/>
-      <c r="U4" s="286"/>
+      <c r="S4" s="291"/>
+      <c r="T4" s="291"/>
+      <c r="U4" s="292"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="223" t="s">
@@ -5986,12 +6023,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="266" t="s">
+      <c r="R5" s="272" t="s">
         <v>873</v>
       </c>
-      <c r="S5" s="267"/>
-      <c r="T5" s="267"/>
-      <c r="U5" s="268"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="274"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="223" t="s">
@@ -7661,11 +7698,11 @@
       <c r="K93" s="221"/>
       <c r="L93" s="231"/>
       <c r="M93" s="231"/>
-      <c r="R93" s="273" t="s">
+      <c r="R93" s="279" t="s">
         <v>262</v>
       </c>
-      <c r="S93" s="274"/>
-      <c r="T93" s="274"/>
+      <c r="S93" s="280"/>
+      <c r="T93" s="280"/>
       <c r="U93" s="42"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -7754,12 +7791,12 @@
       <c r="K96" s="82"/>
       <c r="L96" s="82"/>
       <c r="M96" s="83"/>
-      <c r="R96" s="284" t="s">
+      <c r="R96" s="290" t="s">
         <v>54</v>
       </c>
-      <c r="S96" s="287"/>
-      <c r="T96" s="287"/>
-      <c r="U96" s="288"/>
+      <c r="S96" s="293"/>
+      <c r="T96" s="293"/>
+      <c r="U96" s="294"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="223" t="s">
@@ -7781,12 +7818,12 @@
       <c r="K97" s="82"/>
       <c r="L97" s="82"/>
       <c r="M97" s="83"/>
-      <c r="R97" s="273" t="s">
+      <c r="R97" s="279" t="s">
         <v>873</v>
       </c>
-      <c r="S97" s="274"/>
-      <c r="T97" s="274"/>
-      <c r="U97" s="275"/>
+      <c r="S97" s="280"/>
+      <c r="T97" s="280"/>
+      <c r="U97" s="281"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="223" t="s">
@@ -7838,11 +7875,11 @@
       <c r="K100" s="82"/>
       <c r="L100" s="82"/>
       <c r="M100" s="83"/>
-      <c r="R100" s="273" t="s">
+      <c r="R100" s="279" t="s">
         <v>874</v>
       </c>
-      <c r="S100" s="274"/>
-      <c r="T100" s="274"/>
+      <c r="S100" s="280"/>
+      <c r="T100" s="280"/>
       <c r="U100" s="42"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -7938,12 +7975,12 @@
       <c r="M103" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="R103" s="284" t="s">
+      <c r="R103" s="290" t="s">
         <v>286</v>
       </c>
-      <c r="S103" s="287"/>
-      <c r="T103" s="287"/>
-      <c r="U103" s="288"/>
+      <c r="S103" s="293"/>
+      <c r="T103" s="293"/>
+      <c r="U103" s="294"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="223" t="s">
@@ -7960,12 +7997,12 @@
       <c r="L104" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="R104" s="273" t="s">
+      <c r="R104" s="279" t="s">
         <v>873</v>
       </c>
-      <c r="S104" s="274"/>
-      <c r="T104" s="274"/>
-      <c r="U104" s="275"/>
+      <c r="S104" s="280"/>
+      <c r="T104" s="280"/>
+      <c r="U104" s="281"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="223" t="s">
@@ -8315,12 +8352,12 @@
       <c r="L124" s="34" t="s">
         <v>772</v>
       </c>
-      <c r="R124" s="273" t="s">
+      <c r="R124" s="279" t="s">
         <v>885</v>
       </c>
-      <c r="S124" s="274"/>
-      <c r="T124" s="274"/>
-      <c r="U124" s="275"/>
+      <c r="S124" s="280"/>
+      <c r="T124" s="280"/>
+      <c r="U124" s="281"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="223" t="s">
@@ -8396,23 +8433,23 @@
       <c r="G127" s="76" t="s">
         <v>582</v>
       </c>
-      <c r="R127" s="284" t="s">
+      <c r="R127" s="290" t="s">
         <v>877</v>
       </c>
-      <c r="S127" s="287"/>
-      <c r="T127" s="287"/>
-      <c r="U127" s="288"/>
+      <c r="S127" s="293"/>
+      <c r="T127" s="293"/>
+      <c r="U127" s="294"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="223" t="s">
         <v>886</v>
       </c>
-      <c r="R128" s="269" t="s">
+      <c r="R128" s="275" t="s">
         <v>873</v>
       </c>
-      <c r="S128" s="270"/>
-      <c r="T128" s="270"/>
-      <c r="U128" s="271"/>
+      <c r="S128" s="276"/>
+      <c r="T128" s="276"/>
+      <c r="U128" s="277"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="223" t="s">
@@ -8467,12 +8504,12 @@
       <c r="F135" s="81" t="s">
         <v>854</v>
       </c>
-      <c r="R135" s="273" t="s">
+      <c r="R135" s="279" t="s">
         <v>905</v>
       </c>
-      <c r="S135" s="274"/>
-      <c r="T135" s="274"/>
-      <c r="U135" s="275"/>
+      <c r="S135" s="280"/>
+      <c r="T135" s="280"/>
+      <c r="U135" s="281"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="223" t="s">
@@ -8524,23 +8561,23 @@
       <c r="A138" s="223" t="s">
         <v>862</v>
       </c>
-      <c r="R138" s="284" t="s">
+      <c r="R138" s="290" t="s">
         <v>877</v>
       </c>
-      <c r="S138" s="287"/>
-      <c r="T138" s="287"/>
-      <c r="U138" s="288"/>
+      <c r="S138" s="293"/>
+      <c r="T138" s="293"/>
+      <c r="U138" s="294"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="223" t="s">
         <v>863</v>
       </c>
-      <c r="R139" s="269" t="s">
+      <c r="R139" s="275" t="s">
         <v>916</v>
       </c>
-      <c r="S139" s="270"/>
-      <c r="T139" s="270"/>
-      <c r="U139" s="271"/>
+      <c r="S139" s="276"/>
+      <c r="T139" s="276"/>
+      <c r="U139" s="277"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="223" t="s">
@@ -8589,12 +8626,12 @@
       <c r="F145" s="77" t="s">
         <v>847</v>
       </c>
-      <c r="R145" s="273" t="s">
+      <c r="R145" s="279" t="s">
         <v>915</v>
       </c>
-      <c r="S145" s="274"/>
-      <c r="T145" s="274"/>
-      <c r="U145" s="275"/>
+      <c r="S145" s="280"/>
+      <c r="T145" s="280"/>
+      <c r="U145" s="281"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="223" t="s">
@@ -8646,12 +8683,12 @@
       <c r="A148" s="223" t="s">
         <v>887</v>
       </c>
-      <c r="R148" s="284" t="s">
+      <c r="R148" s="290" t="s">
         <v>877</v>
       </c>
-      <c r="S148" s="287"/>
-      <c r="T148" s="287"/>
-      <c r="U148" s="288"/>
+      <c r="S148" s="293"/>
+      <c r="T148" s="293"/>
+      <c r="U148" s="294"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="223" t="s">
@@ -8661,12 +8698,12 @@
       <c r="Q149" s="77" t="s">
         <v>878</v>
       </c>
-      <c r="R149" s="269" t="s">
+      <c r="R149" s="275" t="s">
         <v>916</v>
       </c>
-      <c r="S149" s="270"/>
-      <c r="T149" s="270"/>
-      <c r="U149" s="271"/>
+      <c r="S149" s="276"/>
+      <c r="T149" s="276"/>
+      <c r="U149" s="277"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="223" t="s">
@@ -8775,6 +8812,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="R127:U127"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="B1:E1"/>
@@ -8785,21 +8837,6 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8810,9 +8847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6F30D8-4F74-43CF-B0A2-082294AF7E0E}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H46" sqref="H46"/>
+      <selection pane="topRight" activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8836,36 +8873,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="269" t="s">
+      <c r="C1" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="272" t="s">
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="269" t="s">
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="275" t="s">
         <v>446</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="269" t="s">
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="271"/>
-      <c r="Z1" s="269" t="s">
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
+      <c r="Z1" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="271"/>
+      <c r="AA1" s="276"/>
+      <c r="AB1" s="276"/>
+      <c r="AC1" s="277"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -8934,33 +8971,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="273" t="s">
+      <c r="C3" s="279" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="275"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="281"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="280"/>
+      <c r="J3" s="281"/>
       <c r="K3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="273" t="s">
+      <c r="S3" s="279" t="s">
         <v>406</v>
       </c>
-      <c r="T3" s="274"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="275"/>
-      <c r="Z3" s="273" t="s">
+      <c r="T3" s="280"/>
+      <c r="U3" s="280"/>
+      <c r="V3" s="281"/>
+      <c r="Z3" s="279" t="s">
         <v>269</v>
       </c>
-      <c r="AA3" s="274"/>
-      <c r="AB3" s="274"/>
-      <c r="AC3" s="275"/>
+      <c r="AA3" s="280"/>
+      <c r="AB3" s="280"/>
+      <c r="AC3" s="281"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -9017,12 +9054,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="266" t="s">
+      <c r="S5" s="272" t="s">
         <v>506</v>
       </c>
-      <c r="T5" s="267"/>
-      <c r="U5" s="267"/>
-      <c r="V5" s="268"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="274"/>
       <c r="W5" s="85" t="s">
         <v>508</v>
       </c>
@@ -9052,12 +9089,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="266" t="s">
+      <c r="S6" s="272" t="s">
         <v>945</v>
       </c>
-      <c r="T6" s="267"/>
-      <c r="U6" s="267"/>
-      <c r="V6" s="268"/>
+      <c r="T6" s="273"/>
+      <c r="U6" s="273"/>
+      <c r="V6" s="274"/>
       <c r="Z6" s="224"/>
       <c r="AA6" s="225"/>
       <c r="AB6" s="225"/>
@@ -9538,6 +9575,13 @@
       </c>
       <c r="N22" s="82"/>
       <c r="O22" s="33"/>
+      <c r="S22" s="295" t="s">
+        <v>955</v>
+      </c>
+      <c r="T22" s="299"/>
+      <c r="U22" s="299"/>
+      <c r="V22" s="299"/>
+      <c r="W22" s="299"/>
       <c r="Z22" s="80" t="s">
         <v>247</v>
       </c>
@@ -9584,6 +9628,12 @@
       <c r="O23" s="77" t="s">
         <v>430</v>
       </c>
+      <c r="S23" s="295" t="s">
+        <v>956</v>
+      </c>
+      <c r="T23" s="296"/>
+      <c r="U23" s="296"/>
+      <c r="V23" s="296"/>
       <c r="Z23" s="80" t="s">
         <v>249</v>
       </c>
@@ -9648,6 +9698,10 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="34"/>
       <c r="O25" s="33"/>
       <c r="P25" s="75" t="s">
         <v>427</v>
@@ -9687,6 +9741,12 @@
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
+      <c r="K26" s="272" t="s">
+        <v>954</v>
+      </c>
+      <c r="L26" s="273"/>
+      <c r="M26" s="273"/>
+      <c r="N26" s="274"/>
       <c r="Q26" s="77" t="s">
         <v>429</v>
       </c>
@@ -9723,7 +9783,7 @@
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="77" t="s">
+      <c r="N27" s="77" t="s">
         <v>390</v>
       </c>
       <c r="R27" s="75" t="s">
@@ -9760,11 +9820,11 @@
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
-      <c r="K28" s="77" t="s">
+      <c r="M28" s="77" t="s">
+        <v>388</v>
+      </c>
+      <c r="N28" s="77" t="s">
         <v>391</v>
-      </c>
-      <c r="L28" s="77" t="s">
-        <v>388</v>
       </c>
       <c r="Z28" s="80" t="s">
         <v>256</v>
@@ -9804,10 +9864,10 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="L29" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="M29" s="77" t="s">
         <v>389</v>
-      </c>
-      <c r="M29" s="77" t="s">
-        <v>386</v>
       </c>
       <c r="Z29" s="80" t="s">
         <v>259</v>
@@ -9842,12 +9902,11 @@
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="77" t="s">
+      <c r="K30" s="77" t="s">
+        <v>384</v>
+      </c>
+      <c r="L30" s="77" t="s">
         <v>387</v>
-      </c>
-      <c r="N30" s="77" t="s">
-        <v>384</v>
       </c>
       <c r="O30" s="77" t="s">
         <v>438</v>
@@ -9881,12 +9940,10 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="26"/>
+      <c r="K31" s="77" t="s">
+        <v>385</v>
+      </c>
       <c r="M31" s="26"/>
-      <c r="N31" s="77" t="s">
-        <v>385</v>
-      </c>
       <c r="O31" s="77" t="s">
         <v>439</v>
       </c>
@@ -10408,7 +10465,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="S22:W22"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S6:V6"/>
@@ -10431,7 +10491,7 @@
   <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="O15" sqref="O15:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10454,30 +10514,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="69"/>
       <c r="B1"/>
-      <c r="C1" s="269" t="s">
+      <c r="C1" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="269" t="s">
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="275" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="269" t="s">
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="275" t="s">
         <v>446</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="269" t="s">
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="271"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
     </row>
     <row r="2" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="69"/>
@@ -10568,12 +10628,12 @@
       <c r="P3" s="260"/>
       <c r="Q3" s="260"/>
       <c r="R3" s="162"/>
-      <c r="S3" s="273" t="s">
+      <c r="S3" s="279" t="s">
         <v>951</v>
       </c>
-      <c r="T3" s="274"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="275"/>
+      <c r="T3" s="280"/>
+      <c r="U3" s="280"/>
+      <c r="V3" s="281"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
@@ -10640,12 +10700,12 @@
       <c r="P5" s="260"/>
       <c r="Q5" s="260"/>
       <c r="R5" s="162"/>
-      <c r="S5" s="266" t="s">
+      <c r="S5" s="272" t="s">
         <v>877</v>
       </c>
-      <c r="T5" s="267"/>
-      <c r="U5" s="267"/>
-      <c r="V5" s="268"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="274"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="69" t="s">
@@ -10674,12 +10734,12 @@
       <c r="P6" s="260"/>
       <c r="Q6" s="260"/>
       <c r="R6" s="162"/>
-      <c r="S6" s="266" t="s">
+      <c r="S6" s="272" t="s">
         <v>952</v>
       </c>
-      <c r="T6" s="267"/>
-      <c r="U6" s="267"/>
-      <c r="V6" s="268"/>
+      <c r="T6" s="273"/>
+      <c r="U6" s="273"/>
+      <c r="V6" s="274"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="69" t="s">
@@ -10736,10 +10796,10 @@
       <c r="P8" s="260"/>
       <c r="Q8" s="162"/>
       <c r="R8" s="162"/>
-      <c r="S8" s="289"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="290"/>
+      <c r="S8" s="295"/>
+      <c r="T8" s="296"/>
+      <c r="U8" s="296"/>
+      <c r="V8" s="296"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="69" t="s">
@@ -10927,10 +10987,12 @@
       <c r="N15" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="O15" s="165"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
+      <c r="O15" s="297" t="s">
+        <v>953</v>
+      </c>
+      <c r="P15" s="285"/>
+      <c r="Q15" s="285"/>
+      <c r="R15" s="298"/>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="69" t="s">
@@ -11180,11 +11242,11 @@
       <c r="J25" s="259"/>
       <c r="K25" s="165"/>
       <c r="L25" s="162"/>
-      <c r="M25" s="295"/>
+      <c r="M25" s="269"/>
       <c r="N25" s="162"/>
       <c r="O25" s="165"/>
       <c r="P25" s="162"/>
-      <c r="Q25" s="295"/>
+      <c r="Q25" s="269"/>
       <c r="R25" s="162"/>
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.4">
@@ -11202,8 +11264,8 @@
       <c r="M26" s="259"/>
       <c r="N26" s="100"/>
       <c r="O26" s="165"/>
-      <c r="P26" s="295"/>
-      <c r="Q26" s="295"/>
+      <c r="P26" s="269"/>
+      <c r="Q26" s="269"/>
       <c r="R26" s="162"/>
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.4">
@@ -11219,8 +11281,8 @@
       <c r="I27" s="32"/>
       <c r="J27" s="67"/>
       <c r="N27" s="100"/>
-      <c r="O27" s="296"/>
-      <c r="P27" s="295"/>
+      <c r="O27" s="270"/>
+      <c r="P27" s="269"/>
       <c r="Q27" s="162"/>
       <c r="R27" s="162"/>
     </row>
@@ -11366,7 +11428,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="259"/>
       <c r="K34" s="165"/>
-      <c r="L34" s="295"/>
+      <c r="L34" s="269"/>
       <c r="M34" s="162"/>
       <c r="N34" s="111"/>
       <c r="O34" s="263"/>
@@ -11385,7 +11447,7 @@
       <c r="H35" s="258"/>
       <c r="I35" s="258"/>
       <c r="J35" s="259"/>
-      <c r="K35" s="296"/>
+      <c r="K35" s="270"/>
       <c r="L35" s="162"/>
       <c r="M35" s="12"/>
       <c r="N35" s="162"/>
@@ -12431,7 +12493,8 @@
       <c r="R89" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="O15:R15"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="S8:V8"/>
     <mergeCell ref="C1:F1"/>
@@ -12450,16 +12513,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D08606B-AA92-41E2-AB37-358CADF18961}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="G38" sqref="G38:J42"/>
+      <selection pane="topRight" activeCell="S8" sqref="S8:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="68"/>
-    <col min="2" max="2" width="9.06640625" style="66"/>
+    <col min="2" max="2" width="13.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.06640625" style="32"/>
     <col min="5" max="5" width="9.06640625" style="67"/>
     <col min="6" max="6" width="11.3984375" style="45" bestFit="1" customWidth="1"/>
@@ -12477,30 +12540,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="69"/>
       <c r="B1"/>
-      <c r="C1" s="269" t="s">
+      <c r="C1" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="269" t="s">
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="275" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="269" t="s">
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="275" t="s">
         <v>446</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="269" t="s">
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="271"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
       <c r="S1" s="230"/>
       <c r="T1" s="230"/>
       <c r="U1" s="230"/>
@@ -12566,7 +12629,9 @@
       <c r="A3" s="69">
         <v>0</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>958</v>
+      </c>
       <c r="C3" s="224" t="s">
         <v>137</v>
       </c>
@@ -12597,12 +12662,12 @@
       <c r="P3" s="225"/>
       <c r="Q3" s="225"/>
       <c r="R3" s="226"/>
-      <c r="S3" s="273" t="s">
+      <c r="S3" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="274"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="275"/>
+      <c r="T3" s="280"/>
+      <c r="U3" s="280"/>
+      <c r="V3" s="281"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
@@ -12669,12 +12734,12 @@
       <c r="P5" s="225"/>
       <c r="Q5" s="225"/>
       <c r="R5" s="226"/>
-      <c r="S5" s="266" t="s">
+      <c r="S5" s="272" t="s">
         <v>286</v>
       </c>
-      <c r="T5" s="267"/>
-      <c r="U5" s="267"/>
-      <c r="V5" s="268"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="274"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="69" t="s">
@@ -12705,12 +12770,12 @@
       <c r="P6" s="225"/>
       <c r="Q6" s="225"/>
       <c r="R6" s="226"/>
-      <c r="S6" s="266" t="s">
+      <c r="S6" s="272" t="s">
         <v>287</v>
       </c>
-      <c r="T6" s="267"/>
-      <c r="U6" s="267"/>
-      <c r="V6" s="268"/>
+      <c r="T6" s="273"/>
+      <c r="U6" s="273"/>
+      <c r="V6" s="274"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="69" t="s">
@@ -12778,18 +12843,20 @@
         <v>288</v>
       </c>
       <c r="R8" s="226"/>
-      <c r="S8" s="289" t="s">
-        <v>382</v>
-      </c>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="290"/>
+      <c r="S8" s="295" t="s">
+        <v>959</v>
+      </c>
+      <c r="T8" s="296"/>
+      <c r="U8" s="296"/>
+      <c r="V8" s="296"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9"/>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>957</v>
+      </c>
       <c r="C9" s="226" t="s">
         <v>295</v>
       </c>
@@ -13281,7 +13348,9 @@
       <c r="A22" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="s">
+        <v>958</v>
+      </c>
       <c r="C22" s="224"/>
       <c r="D22" s="225"/>
       <c r="E22" s="225"/>
@@ -15087,7 +15156,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -15111,30 +15180,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="69"/>
-      <c r="C1" s="269" t="s">
+      <c r="C1" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="269" t="s">
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="275" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="271"/>
-      <c r="K1" s="269" t="s">
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="275" t="s">
         <v>446</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="269" t="s">
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="271"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
@@ -15232,12 +15301,12 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="273" t="s">
+      <c r="S3" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="274"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="275"/>
+      <c r="T3" s="280"/>
+      <c r="U3" s="280"/>
+      <c r="V3" s="281"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="69" t="s">
@@ -15302,12 +15371,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="266" t="s">
+      <c r="S5" s="272" t="s">
         <v>286</v>
       </c>
-      <c r="T5" s="267"/>
-      <c r="U5" s="267"/>
-      <c r="V5" s="268"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="274"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="69" t="s">
@@ -15337,12 +15406,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="266" t="s">
+      <c r="S6" s="272" t="s">
         <v>287</v>
       </c>
-      <c r="T6" s="267"/>
-      <c r="U6" s="267"/>
-      <c r="V6" s="268"/>
+      <c r="T6" s="273"/>
+      <c r="U6" s="273"/>
+      <c r="V6" s="274"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="69" t="s">
@@ -15409,12 +15478,12 @@
         <v>288</v>
       </c>
       <c r="R8" s="41"/>
-      <c r="S8" s="289" t="s">
+      <c r="S8" s="295" t="s">
         <v>382</v>
       </c>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290"/>
-      <c r="V8" s="290"/>
+      <c r="T8" s="296"/>
+      <c r="U8" s="296"/>
+      <c r="V8" s="296"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="69" t="s">
@@ -17898,36 +17967,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="269" t="s">
+      <c r="C1" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="271"/>
-      <c r="G1" s="272" t="s">
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="269" t="s">
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="275" t="s">
         <v>446</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="271"/>
-      <c r="O1" s="269" t="s">
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="271"/>
-      <c r="Z1" s="269" t="s">
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
+      <c r="Z1" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="270"/>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="271"/>
+      <c r="AA1" s="276"/>
+      <c r="AB1" s="276"/>
+      <c r="AC1" s="277"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -17996,33 +18065,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="273" t="s">
+      <c r="C3" s="279" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="274"/>
-      <c r="J3" s="275"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="281"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="280"/>
+      <c r="J3" s="281"/>
       <c r="K3" s="224"/>
       <c r="O3" s="224"/>
       <c r="P3" s="225"/>
       <c r="Q3" s="225"/>
       <c r="R3" s="226"/>
-      <c r="S3" s="273" t="s">
+      <c r="S3" s="279" t="s">
         <v>406</v>
       </c>
-      <c r="T3" s="274"/>
-      <c r="U3" s="274"/>
-      <c r="V3" s="275"/>
-      <c r="Z3" s="273" t="s">
+      <c r="T3" s="280"/>
+      <c r="U3" s="280"/>
+      <c r="V3" s="281"/>
+      <c r="Z3" s="279" t="s">
         <v>269</v>
       </c>
-      <c r="AA3" s="274"/>
-      <c r="AB3" s="274"/>
-      <c r="AC3" s="275"/>
+      <c r="AA3" s="280"/>
+      <c r="AB3" s="280"/>
+      <c r="AC3" s="281"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -18079,12 +18148,12 @@
       <c r="P5" s="225"/>
       <c r="Q5" s="225"/>
       <c r="R5" s="226"/>
-      <c r="S5" s="266" t="s">
+      <c r="S5" s="272" t="s">
         <v>506</v>
       </c>
-      <c r="T5" s="267"/>
-      <c r="U5" s="267"/>
-      <c r="V5" s="268"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="274"/>
       <c r="W5" s="85" t="s">
         <v>508</v>
       </c>
@@ -18114,12 +18183,12 @@
       <c r="P6" s="225"/>
       <c r="Q6" s="225"/>
       <c r="R6" s="226"/>
-      <c r="S6" s="266" t="s">
+      <c r="S6" s="272" t="s">
         <v>423</v>
       </c>
-      <c r="T6" s="267"/>
-      <c r="U6" s="267"/>
-      <c r="V6" s="268"/>
+      <c r="T6" s="273"/>
+      <c r="U6" s="273"/>
+      <c r="V6" s="274"/>
       <c r="Z6" s="224"/>
       <c r="AA6" s="225"/>
       <c r="AB6" s="225"/>
@@ -19478,17 +19547,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19519,30 +19588,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="269" t="s">
+      <c r="B1" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="272" t="s">
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="269" t="s">
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="275" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="271"/>
-      <c r="N1" s="269" t="s">
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="277"/>
+      <c r="N1" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="271"/>
+      <c r="O1" s="276"/>
+      <c r="P1" s="276"/>
+      <c r="Q1" s="277"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
@@ -19629,12 +19698,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="273" t="s">
+      <c r="R3" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="274"/>
-      <c r="T3" s="274"/>
-      <c r="U3" s="275"/>
+      <c r="S3" s="280"/>
+      <c r="T3" s="280"/>
+      <c r="U3" s="281"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
@@ -19687,12 +19756,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="266" t="s">
+      <c r="R5" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="267"/>
-      <c r="T5" s="267"/>
-      <c r="U5" s="268"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="274"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
@@ -19714,12 +19783,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="266" t="s">
+      <c r="R6" s="272" t="s">
         <v>266</v>
       </c>
-      <c r="S6" s="267"/>
-      <c r="T6" s="267"/>
-      <c r="U6" s="268"/>
+      <c r="S6" s="273"/>
+      <c r="T6" s="273"/>
+      <c r="U6" s="274"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
@@ -23194,67 +23263,67 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="276" t="s">
+      <c r="B6" s="282" t="s">
         <v>518</v>
       </c>
-      <c r="C6" s="277"/>
-      <c r="D6" s="278"/>
-      <c r="E6" s="276" t="s">
+      <c r="C6" s="283"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="282" t="s">
         <v>519</v>
       </c>
-      <c r="F6" s="277"/>
-      <c r="G6" s="278"/>
+      <c r="F6" s="283"/>
+      <c r="G6" s="284"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="276" t="s">
+      <c r="B7" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="277"/>
-      <c r="D7" s="277"/>
-      <c r="E7" s="277"/>
-      <c r="F7" s="277"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="277"/>
-      <c r="I7" s="277"/>
-      <c r="J7" s="277"/>
-      <c r="K7" s="277"/>
-      <c r="L7" s="277"/>
-      <c r="M7" s="277"/>
-      <c r="N7" s="277"/>
-      <c r="O7" s="277"/>
-      <c r="P7" s="278"/>
-      <c r="Q7" s="276" t="s">
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="283"/>
+      <c r="I7" s="283"/>
+      <c r="J7" s="283"/>
+      <c r="K7" s="283"/>
+      <c r="L7" s="283"/>
+      <c r="M7" s="283"/>
+      <c r="N7" s="283"/>
+      <c r="O7" s="283"/>
+      <c r="P7" s="284"/>
+      <c r="Q7" s="282" t="s">
         <v>219</v>
       </c>
-      <c r="R7" s="277"/>
-      <c r="S7" s="277"/>
-      <c r="T7" s="277"/>
-      <c r="U7" s="277"/>
-      <c r="V7" s="277"/>
-      <c r="W7" s="277"/>
-      <c r="X7" s="277"/>
-      <c r="Y7" s="277"/>
-      <c r="Z7" s="277"/>
-      <c r="AA7" s="278"/>
-      <c r="AB7" s="276" t="s">
+      <c r="R7" s="283"/>
+      <c r="S7" s="283"/>
+      <c r="T7" s="283"/>
+      <c r="U7" s="283"/>
+      <c r="V7" s="283"/>
+      <c r="W7" s="283"/>
+      <c r="X7" s="283"/>
+      <c r="Y7" s="283"/>
+      <c r="Z7" s="283"/>
+      <c r="AA7" s="284"/>
+      <c r="AB7" s="282" t="s">
         <v>220</v>
       </c>
-      <c r="AC7" s="277"/>
-      <c r="AD7" s="277"/>
-      <c r="AE7" s="277"/>
-      <c r="AF7" s="277"/>
-      <c r="AG7" s="277"/>
-      <c r="AH7" s="277"/>
-      <c r="AI7" s="277"/>
-      <c r="AJ7" s="277"/>
-      <c r="AK7" s="277"/>
-      <c r="AL7" s="277"/>
-      <c r="AM7" s="277"/>
-      <c r="AN7" s="277"/>
-      <c r="AO7" s="277"/>
-      <c r="AP7" s="277"/>
-      <c r="AQ7" s="277"/>
-      <c r="AR7" s="278"/>
+      <c r="AC7" s="283"/>
+      <c r="AD7" s="283"/>
+      <c r="AE7" s="283"/>
+      <c r="AF7" s="283"/>
+      <c r="AG7" s="283"/>
+      <c r="AH7" s="283"/>
+      <c r="AI7" s="283"/>
+      <c r="AJ7" s="283"/>
+      <c r="AK7" s="283"/>
+      <c r="AL7" s="283"/>
+      <c r="AM7" s="283"/>
+      <c r="AN7" s="283"/>
+      <c r="AO7" s="283"/>
+      <c r="AP7" s="283"/>
+      <c r="AQ7" s="283"/>
+      <c r="AR7" s="284"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="E9" s="45"/>
@@ -23323,18 +23392,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="271" t="s">
         <v>684</v>
       </c>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
@@ -24505,11 +24574,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="273" t="s">
+      <c r="D1" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
       <c r="G1" s="64"/>
       <c r="H1" s="60"/>
       <c r="I1" s="93"/>
@@ -24567,12 +24636,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="269" t="s">
+      <c r="D6" s="275" t="s">
         <v>623</v>
       </c>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="271"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="277"/>
       <c r="H6" s="123"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
@@ -24581,27 +24650,27 @@
       <c r="M6" s="95"/>
       <c r="N6" s="95"/>
       <c r="O6" s="95"/>
-      <c r="P6" s="269" t="s">
+      <c r="P6" s="275" t="s">
         <v>624</v>
       </c>
-      <c r="Q6" s="270"/>
-      <c r="R6" s="270"/>
-      <c r="S6" s="271"/>
-      <c r="AF6" s="269" t="s">
+      <c r="Q6" s="276"/>
+      <c r="R6" s="276"/>
+      <c r="S6" s="277"/>
+      <c r="AF6" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="270"/>
-      <c r="AH6" s="270"/>
-      <c r="AI6" s="271"/>
+      <c r="AG6" s="276"/>
+      <c r="AH6" s="276"/>
+      <c r="AI6" s="277"/>
       <c r="AJ6" s="154"/>
-      <c r="AK6" s="269" t="s">
+      <c r="AK6" s="275" t="s">
         <v>622</v>
       </c>
-      <c r="AL6" s="270"/>
-      <c r="AM6" s="270"/>
-      <c r="AN6" s="270"/>
-      <c r="AO6" s="270"/>
-      <c r="AP6" s="271"/>
+      <c r="AL6" s="276"/>
+      <c r="AM6" s="276"/>
+      <c r="AN6" s="276"/>
+      <c r="AO6" s="276"/>
+      <c r="AP6" s="277"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="35" t="s">
@@ -24679,11 +24748,11 @@
       <c r="J8" s="95"/>
       <c r="K8" s="95"/>
       <c r="L8" s="95"/>
-      <c r="M8" s="280" t="s">
+      <c r="M8" s="286" t="s">
         <v>530</v>
       </c>
-      <c r="N8" s="280"/>
-      <c r="O8" s="280"/>
+      <c r="N8" s="286"/>
+      <c r="O8" s="286"/>
       <c r="P8" s="119"/>
       <c r="Q8" s="120"/>
       <c r="R8" s="120"/>
@@ -24704,12 +24773,12 @@
       <c r="AL8" s="155"/>
       <c r="AM8" s="155"/>
       <c r="AN8" s="155"/>
-      <c r="AQ8" s="266" t="s">
+      <c r="AQ8" s="272" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="267"/>
-      <c r="AS8" s="267"/>
-      <c r="AT8" s="268"/>
+      <c r="AR8" s="273"/>
+      <c r="AS8" s="273"/>
+      <c r="AT8" s="274"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="40"/>
@@ -24721,11 +24790,11 @@
       <c r="J9" s="122"/>
       <c r="K9" s="122"/>
       <c r="L9" s="122"/>
-      <c r="M9" s="282" t="s">
+      <c r="M9" s="288" t="s">
         <v>531</v>
       </c>
-      <c r="N9" s="282"/>
-      <c r="O9" s="281"/>
+      <c r="N9" s="288"/>
+      <c r="O9" s="287"/>
       <c r="P9" s="119"/>
       <c r="Q9" s="120"/>
       <c r="R9" s="120"/>
@@ -24767,9 +24836,9 @@
       <c r="J10" s="122"/>
       <c r="K10" s="122"/>
       <c r="L10" s="122"/>
-      <c r="M10" s="279"/>
-      <c r="N10" s="279"/>
-      <c r="O10" s="279"/>
+      <c r="M10" s="285"/>
+      <c r="N10" s="285"/>
+      <c r="O10" s="285"/>
       <c r="P10" s="119"/>
       <c r="Q10" s="120"/>
       <c r="R10" s="120"/>
@@ -24794,12 +24863,12 @@
       <c r="AL10" s="155"/>
       <c r="AM10" s="155"/>
       <c r="AN10" s="155"/>
-      <c r="AQ10" s="266" t="s">
+      <c r="AQ10" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="AR10" s="267"/>
-      <c r="AS10" s="267"/>
-      <c r="AT10" s="268"/>
+      <c r="AR10" s="273"/>
+      <c r="AS10" s="273"/>
+      <c r="AT10" s="274"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="40"/>
@@ -24835,12 +24904,12 @@
       <c r="AL11" s="155"/>
       <c r="AM11" s="155"/>
       <c r="AN11" s="155"/>
-      <c r="AQ11" s="266" t="s">
+      <c r="AQ11" s="272" t="s">
         <v>621</v>
       </c>
-      <c r="AR11" s="267"/>
-      <c r="AS11" s="267"/>
-      <c r="AT11" s="268"/>
+      <c r="AR11" s="273"/>
+      <c r="AS11" s="273"/>
+      <c r="AT11" s="274"/>
       <c r="AU11" s="26" t="s">
         <v>267</v>
       </c>
@@ -24866,11 +24935,11 @@
       <c r="J12" s="95"/>
       <c r="K12" s="95"/>
       <c r="L12" s="95"/>
-      <c r="M12" s="283" t="s">
+      <c r="M12" s="289" t="s">
         <v>529</v>
       </c>
-      <c r="N12" s="283"/>
-      <c r="O12" s="283"/>
+      <c r="N12" s="289"/>
+      <c r="O12" s="289"/>
       <c r="P12" s="119"/>
       <c r="Q12" s="120"/>
       <c r="R12" s="120"/>
@@ -24884,12 +24953,12 @@
       <c r="AL12" s="155"/>
       <c r="AM12" s="155"/>
       <c r="AN12" s="155"/>
-      <c r="AQ12" s="266" t="s">
+      <c r="AQ12" s="272" t="s">
         <v>528</v>
       </c>
-      <c r="AR12" s="267"/>
-      <c r="AS12" s="267"/>
-      <c r="AT12" s="268"/>
+      <c r="AR12" s="273"/>
+      <c r="AS12" s="273"/>
+      <c r="AT12" s="274"/>
       <c r="AV12" s="21" t="s">
         <v>617</v>
       </c>
@@ -24905,12 +24974,12 @@
         <v>524</v>
       </c>
       <c r="C13" s="132"/>
-      <c r="D13" s="269" t="s">
+      <c r="D13" s="275" t="s">
         <v>532</v>
       </c>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="276"/>
+      <c r="G13" s="276"/>
       <c r="H13" s="168" t="s">
         <v>635</v>
       </c>
@@ -24933,11 +25002,11 @@
       <c r="O13" s="181" t="s">
         <v>639</v>
       </c>
-      <c r="P13" s="269" t="s">
+      <c r="P13" s="275" t="s">
         <v>533</v>
       </c>
-      <c r="Q13" s="270"/>
-      <c r="R13" s="270"/>
+      <c r="Q13" s="276"/>
+      <c r="R13" s="276"/>
       <c r="S13" s="157"/>
       <c r="T13" s="171" t="s">
         <v>660</v>
@@ -24973,18 +25042,18 @@
       <c r="AH13" s="60"/>
       <c r="AI13" s="43"/>
       <c r="AJ13" s="154"/>
-      <c r="AK13" s="266" t="s">
+      <c r="AK13" s="272" t="s">
         <v>532</v>
       </c>
-      <c r="AL13" s="267"/>
-      <c r="AM13" s="267"/>
-      <c r="AN13" s="267"/>
-      <c r="AQ13" s="266" t="s">
+      <c r="AL13" s="273"/>
+      <c r="AM13" s="273"/>
+      <c r="AN13" s="273"/>
+      <c r="AQ13" s="272" t="s">
         <v>614</v>
       </c>
-      <c r="AR13" s="265"/>
-      <c r="AS13" s="265"/>
-      <c r="AT13" s="265"/>
+      <c r="AR13" s="271"/>
+      <c r="AS13" s="271"/>
+      <c r="AT13" s="271"/>
       <c r="AV13" s="21" t="s">
         <v>618</v>
       </c>
@@ -25676,8 +25745,8 @@
       </c>
       <c r="AO30" s="160"/>
       <c r="AP30" s="162"/>
-      <c r="AR30" s="281"/>
-      <c r="AS30" s="281"/>
+      <c r="AR30" s="287"/>
+      <c r="AS30" s="287"/>
     </row>
     <row r="31" spans="1:52" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="200" t="s">
@@ -26130,8 +26199,8 @@
         <v>88</v>
       </c>
       <c r="AO40" s="160"/>
-      <c r="AR40" s="279"/>
-      <c r="AS40" s="279"/>
+      <c r="AR40" s="285"/>
+      <c r="AS40" s="285"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="152" t="s">
@@ -26365,8 +26434,8 @@
         <v>637</v>
       </c>
       <c r="AP46" s="162"/>
-      <c r="AR46" s="279"/>
-      <c r="AS46" s="279"/>
+      <c r="AR46" s="285"/>
+      <c r="AS46" s="285"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A47" s="152" t="s">
@@ -26451,12 +26520,12 @@
         <v>526</v>
       </c>
       <c r="C49" s="179"/>
-      <c r="D49" s="269" t="s">
+      <c r="D49" s="275" t="s">
         <v>532</v>
       </c>
-      <c r="E49" s="270"/>
-      <c r="F49" s="270"/>
-      <c r="G49" s="270"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="276"/>
+      <c r="G49" s="276"/>
       <c r="H49" s="168" t="s">
         <v>635</v>
       </c>
@@ -26479,11 +26548,11 @@
       <c r="O49" s="181" t="s">
         <v>639</v>
       </c>
-      <c r="P49" s="269" t="s">
+      <c r="P49" s="275" t="s">
         <v>533</v>
       </c>
-      <c r="Q49" s="270"/>
-      <c r="R49" s="270"/>
+      <c r="Q49" s="276"/>
+      <c r="R49" s="276"/>
       <c r="S49" s="190"/>
       <c r="T49" s="171" t="s">
         <v>660</v>
@@ -27813,12 +27882,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AR40:AS40"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AQ10:AT10"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AQ11:AT11"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="P49:R49"/>
     <mergeCell ref="AR46:AS46"/>
@@ -27835,6 +27898,12 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="AQ12:AT12"/>
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AQ10:AT10"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AQ11:AT11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27892,11 +27961,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="273" t="s">
+      <c r="B1" s="279" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
       <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -27921,49 +27990,49 @@
       </c>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="284" t="s">
+      <c r="B4" s="290" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285"/>
-      <c r="E4" s="286"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="292"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="266" t="s">
+      <c r="B5" s="272" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="267"/>
-      <c r="D5" s="267"/>
-      <c r="E5" s="268"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="274"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="269" t="s">
+      <c r="B6" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="272" t="s">
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="270"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
-      <c r="J6" s="269" t="s">
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="275" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="270"/>
-      <c r="L6" s="270"/>
-      <c r="M6" s="271"/>
-      <c r="N6" s="269" t="s">
+      <c r="K6" s="276"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="277"/>
+      <c r="N6" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="O6" s="270"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="271"/>
+      <c r="O6" s="276"/>
+      <c r="P6" s="276"/>
+      <c r="Q6" s="277"/>
       <c r="V6" s="56"/>
       <c r="W6" s="57"/>
       <c r="X6" s="57"/>
@@ -27992,24 +28061,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="209"/>
-      <c r="B7" s="269" t="s">
+      <c r="B7" s="275" t="s">
         <v>623</v>
       </c>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="269" t="s">
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="277"/>
+      <c r="F7" s="275" t="s">
         <v>624</v>
       </c>
-      <c r="G7" s="270"/>
-      <c r="H7" s="270"/>
-      <c r="I7" s="271"/>
-      <c r="J7" s="269" t="s">
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="277"/>
+      <c r="J7" s="275" t="s">
         <v>795</v>
       </c>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
-      <c r="M7" s="271"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="276"/>
+      <c r="M7" s="277"/>
       <c r="N7" s="206"/>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
@@ -31815,16 +31884,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31871,12 +31940,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="B1" s="291"/>
-      <c r="C1" s="273" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="279" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
       <c r="F1" s="42"/>
       <c r="G1" s="56"/>
       <c r="H1" s="57"/>
@@ -31909,63 +31978,63 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C4" s="284" t="s">
+      <c r="C4" s="290" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="285"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="286"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="292"/>
     </row>
     <row r="5" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="266" t="s">
+      <c r="C5" s="272" t="s">
         <v>527</v>
       </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="268"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="274"/>
     </row>
     <row r="6" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="209" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="291"/>
-      <c r="C6" s="269" t="s">
+      <c r="B6" s="265"/>
+      <c r="C6" s="275" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="271"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="277"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="58"/>
-      <c r="K6" s="272" t="s">
+      <c r="K6" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="L6" s="270"/>
-      <c r="M6" s="270"/>
-      <c r="N6" s="270"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="276"/>
+      <c r="N6" s="276"/>
       <c r="O6" s="56"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="57"/>
       <c r="R6" s="58"/>
-      <c r="S6" s="269" t="s">
+      <c r="S6" s="275" t="s">
         <v>184</v>
       </c>
-      <c r="T6" s="270"/>
-      <c r="U6" s="270"/>
-      <c r="V6" s="271"/>
+      <c r="T6" s="276"/>
+      <c r="U6" s="276"/>
+      <c r="V6" s="277"/>
       <c r="W6" s="57"/>
       <c r="X6" s="57"/>
       <c r="Y6" s="57"/>
       <c r="Z6" s="57"/>
       <c r="AA6" s="58"/>
-      <c r="AB6" s="269" t="s">
+      <c r="AB6" s="275" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" s="270"/>
-      <c r="AD6" s="270"/>
-      <c r="AE6" s="271"/>
+      <c r="AC6" s="276"/>
+      <c r="AD6" s="276"/>
+      <c r="AE6" s="277"/>
       <c r="AF6" s="213"/>
       <c r="AG6" s="214"/>
       <c r="AH6" s="214"/>
@@ -31973,53 +32042,53 @@
     </row>
     <row r="7" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="209"/>
-      <c r="B7" s="292" t="s">
+      <c r="B7" s="266" t="s">
         <v>934</v>
       </c>
-      <c r="C7" s="270" t="s">
+      <c r="C7" s="276" t="s">
         <v>623</v>
       </c>
-      <c r="D7" s="270"/>
-      <c r="E7" s="270"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="269" t="s">
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="277"/>
+      <c r="G7" s="275" t="s">
         <v>839</v>
       </c>
-      <c r="H7" s="270"/>
-      <c r="I7" s="270"/>
-      <c r="J7" s="271"/>
-      <c r="K7" s="269" t="s">
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="277"/>
+      <c r="K7" s="275" t="s">
         <v>624</v>
       </c>
-      <c r="L7" s="270"/>
-      <c r="M7" s="270"/>
-      <c r="N7" s="271"/>
-      <c r="O7" s="269"/>
-      <c r="P7" s="270"/>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="271"/>
-      <c r="S7" s="269" t="s">
+      <c r="L7" s="276"/>
+      <c r="M7" s="276"/>
+      <c r="N7" s="277"/>
+      <c r="O7" s="275"/>
+      <c r="P7" s="276"/>
+      <c r="Q7" s="276"/>
+      <c r="R7" s="277"/>
+      <c r="S7" s="275" t="s">
         <v>795</v>
       </c>
-      <c r="T7" s="270"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="271"/>
+      <c r="T7" s="276"/>
+      <c r="U7" s="276"/>
+      <c r="V7" s="277"/>
       <c r="AB7" s="216"/>
       <c r="AC7" s="216"/>
       <c r="AD7" s="216"/>
       <c r="AE7" s="217"/>
-      <c r="AF7" s="269" t="s">
+      <c r="AF7" s="275" t="s">
         <v>840</v>
       </c>
-      <c r="AG7" s="270"/>
-      <c r="AH7" s="270"/>
-      <c r="AI7" s="271"/>
+      <c r="AG7" s="276"/>
+      <c r="AH7" s="276"/>
+      <c r="AI7" s="277"/>
     </row>
     <row r="8" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="209">
         <v>0</v>
       </c>
-      <c r="B8" s="293" t="s">
+      <c r="B8" s="267" t="s">
         <v>935</v>
       </c>
       <c r="C8" s="261" t="s">
@@ -32246,7 +32315,7 @@
       <c r="A14" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="294" t="s">
+      <c r="B14" s="268" t="s">
         <v>936</v>
       </c>
       <c r="C14" s="82"/>
@@ -33283,6 +33352,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="AF7:AI7"/>
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="C7:F7"/>
@@ -33291,11 +33365,6 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="O7:R7"/>
     <mergeCell ref="S6:V6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="K6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7539ECD3-6A0F-435B-AD01-944ED56BAB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB45F72-8483-4480-9428-805128523E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="5" activeTab="8" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="5" activeTab="10" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4475" uniqueCount="968">
   <si>
     <t>预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3402,6 +3402,26 @@
   </si>
   <si>
     <t>NEW_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`5-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`3-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`6-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3842,7 +3862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4680,6 +4700,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4767,14 +4796,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="58" fontId="2" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5100,11 +5126,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="279" t="s">
+      <c r="W1" s="282" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="279"/>
-      <c r="Y1" s="279"/>
+      <c r="X1" s="282"/>
+      <c r="Y1" s="282"/>
       <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5119,11 +5145,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="279" t="s">
+      <c r="W3" s="282" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="279"/>
-      <c r="Y3" s="279"/>
+      <c r="X3" s="282"/>
+      <c r="Y3" s="282"/>
       <c r="Z3" s="24" t="s">
         <v>55</v>
       </c>
@@ -5901,57 +5927,57 @@
       <c r="A1" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="286" t="s">
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="284"/>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="283" t="s">
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="286" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="284"/>
-      <c r="L1" s="284"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="283" t="s">
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="286" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="284"/>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="285"/>
-      <c r="R1" s="287" t="s">
+      <c r="O1" s="287"/>
+      <c r="P1" s="287"/>
+      <c r="Q1" s="288"/>
+      <c r="R1" s="290" t="s">
         <v>258</v>
       </c>
-      <c r="S1" s="288"/>
-      <c r="T1" s="288"/>
+      <c r="S1" s="291"/>
+      <c r="T1" s="291"/>
       <c r="U1" s="42"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="222"/>
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="286" t="s">
         <v>619</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="283" t="s">
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="286" t="s">
         <v>620</v>
       </c>
-      <c r="G2" s="284"/>
-      <c r="H2" s="284"/>
-      <c r="I2" s="285"/>
-      <c r="J2" s="283" t="s">
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="286" t="s">
         <v>791</v>
       </c>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
-      <c r="M2" s="285"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="288"/>
       <c r="N2" s="44"/>
       <c r="O2" s="226"/>
       <c r="P2" s="226"/>
@@ -6050,12 +6076,12 @@
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="34"/>
-      <c r="R4" s="298" t="s">
+      <c r="R4" s="301" t="s">
         <v>282</v>
       </c>
-      <c r="S4" s="299"/>
-      <c r="T4" s="299"/>
-      <c r="U4" s="300"/>
+      <c r="S4" s="302"/>
+      <c r="T4" s="302"/>
+      <c r="U4" s="303"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="222" t="s">
@@ -6078,12 +6104,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="280" t="s">
+      <c r="R5" s="283" t="s">
         <v>869</v>
       </c>
-      <c r="S5" s="281"/>
-      <c r="T5" s="281"/>
-      <c r="U5" s="282"/>
+      <c r="S5" s="284"/>
+      <c r="T5" s="284"/>
+      <c r="U5" s="285"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="222" t="s">
@@ -7753,11 +7779,11 @@
       <c r="K93" s="220"/>
       <c r="L93" s="230"/>
       <c r="M93" s="230"/>
-      <c r="R93" s="287" t="s">
+      <c r="R93" s="290" t="s">
         <v>258</v>
       </c>
-      <c r="S93" s="288"/>
-      <c r="T93" s="288"/>
+      <c r="S93" s="291"/>
+      <c r="T93" s="291"/>
       <c r="U93" s="42"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -7846,12 +7872,12 @@
       <c r="K96" s="81"/>
       <c r="L96" s="81"/>
       <c r="M96" s="82"/>
-      <c r="R96" s="298" t="s">
+      <c r="R96" s="301" t="s">
         <v>54</v>
       </c>
-      <c r="S96" s="301"/>
-      <c r="T96" s="301"/>
-      <c r="U96" s="302"/>
+      <c r="S96" s="304"/>
+      <c r="T96" s="304"/>
+      <c r="U96" s="305"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="222" t="s">
@@ -7873,12 +7899,12 @@
       <c r="K97" s="81"/>
       <c r="L97" s="81"/>
       <c r="M97" s="82"/>
-      <c r="R97" s="287" t="s">
+      <c r="R97" s="290" t="s">
         <v>869</v>
       </c>
-      <c r="S97" s="288"/>
-      <c r="T97" s="288"/>
-      <c r="U97" s="289"/>
+      <c r="S97" s="291"/>
+      <c r="T97" s="291"/>
+      <c r="U97" s="292"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="222" t="s">
@@ -7930,11 +7956,11 @@
       <c r="K100" s="81"/>
       <c r="L100" s="81"/>
       <c r="M100" s="82"/>
-      <c r="R100" s="287" t="s">
+      <c r="R100" s="290" t="s">
         <v>870</v>
       </c>
-      <c r="S100" s="288"/>
-      <c r="T100" s="288"/>
+      <c r="S100" s="291"/>
+      <c r="T100" s="291"/>
       <c r="U100" s="42"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -8030,12 +8056,12 @@
       <c r="M103" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="R103" s="298" t="s">
+      <c r="R103" s="301" t="s">
         <v>282</v>
       </c>
-      <c r="S103" s="301"/>
-      <c r="T103" s="301"/>
-      <c r="U103" s="302"/>
+      <c r="S103" s="304"/>
+      <c r="T103" s="304"/>
+      <c r="U103" s="305"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="222" t="s">
@@ -8052,12 +8078,12 @@
       <c r="L104" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="R104" s="287" t="s">
+      <c r="R104" s="290" t="s">
         <v>869</v>
       </c>
-      <c r="S104" s="288"/>
-      <c r="T104" s="288"/>
-      <c r="U104" s="289"/>
+      <c r="S104" s="291"/>
+      <c r="T104" s="291"/>
+      <c r="U104" s="292"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="222" t="s">
@@ -8407,12 +8433,12 @@
       <c r="L124" s="34" t="s">
         <v>768</v>
       </c>
-      <c r="R124" s="287" t="s">
+      <c r="R124" s="290" t="s">
         <v>881</v>
       </c>
-      <c r="S124" s="288"/>
-      <c r="T124" s="288"/>
-      <c r="U124" s="289"/>
+      <c r="S124" s="291"/>
+      <c r="T124" s="291"/>
+      <c r="U124" s="292"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="222" t="s">
@@ -8488,23 +8514,23 @@
       <c r="G127" s="75" t="s">
         <v>578</v>
       </c>
-      <c r="R127" s="298" t="s">
+      <c r="R127" s="301" t="s">
         <v>873</v>
       </c>
-      <c r="S127" s="301"/>
-      <c r="T127" s="301"/>
-      <c r="U127" s="302"/>
+      <c r="S127" s="304"/>
+      <c r="T127" s="304"/>
+      <c r="U127" s="305"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="222" t="s">
         <v>882</v>
       </c>
-      <c r="R128" s="283" t="s">
+      <c r="R128" s="286" t="s">
         <v>869</v>
       </c>
-      <c r="S128" s="284"/>
-      <c r="T128" s="284"/>
-      <c r="U128" s="285"/>
+      <c r="S128" s="287"/>
+      <c r="T128" s="287"/>
+      <c r="U128" s="288"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="222" t="s">
@@ -8559,12 +8585,12 @@
       <c r="F135" s="80" t="s">
         <v>850</v>
       </c>
-      <c r="R135" s="287" t="s">
+      <c r="R135" s="290" t="s">
         <v>901</v>
       </c>
-      <c r="S135" s="288"/>
-      <c r="T135" s="288"/>
-      <c r="U135" s="289"/>
+      <c r="S135" s="291"/>
+      <c r="T135" s="291"/>
+      <c r="U135" s="292"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="222" t="s">
@@ -8616,23 +8642,23 @@
       <c r="A138" s="222" t="s">
         <v>858</v>
       </c>
-      <c r="R138" s="298" t="s">
+      <c r="R138" s="301" t="s">
         <v>873</v>
       </c>
-      <c r="S138" s="301"/>
-      <c r="T138" s="301"/>
-      <c r="U138" s="302"/>
+      <c r="S138" s="304"/>
+      <c r="T138" s="304"/>
+      <c r="U138" s="305"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="222" t="s">
         <v>859</v>
       </c>
-      <c r="R139" s="283" t="s">
+      <c r="R139" s="286" t="s">
         <v>912</v>
       </c>
-      <c r="S139" s="284"/>
-      <c r="T139" s="284"/>
-      <c r="U139" s="285"/>
+      <c r="S139" s="287"/>
+      <c r="T139" s="287"/>
+      <c r="U139" s="288"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="222" t="s">
@@ -8681,12 +8707,12 @@
       <c r="F145" s="76" t="s">
         <v>843</v>
       </c>
-      <c r="R145" s="287" t="s">
+      <c r="R145" s="290" t="s">
         <v>911</v>
       </c>
-      <c r="S145" s="288"/>
-      <c r="T145" s="288"/>
-      <c r="U145" s="289"/>
+      <c r="S145" s="291"/>
+      <c r="T145" s="291"/>
+      <c r="U145" s="292"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="222" t="s">
@@ -8738,12 +8764,12 @@
       <c r="A148" s="222" t="s">
         <v>883</v>
       </c>
-      <c r="R148" s="298" t="s">
+      <c r="R148" s="301" t="s">
         <v>873</v>
       </c>
-      <c r="S148" s="301"/>
-      <c r="T148" s="301"/>
-      <c r="U148" s="302"/>
+      <c r="S148" s="304"/>
+      <c r="T148" s="304"/>
+      <c r="U148" s="305"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="222" t="s">
@@ -8753,12 +8779,12 @@
       <c r="Q149" s="76" t="s">
         <v>874</v>
       </c>
-      <c r="R149" s="283" t="s">
+      <c r="R149" s="286" t="s">
         <v>912</v>
       </c>
-      <c r="S149" s="284"/>
-      <c r="T149" s="284"/>
-      <c r="U149" s="285"/>
+      <c r="S149" s="287"/>
+      <c r="T149" s="287"/>
+      <c r="U149" s="288"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="222" t="s">
@@ -8902,7 +8928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6F30D8-4F74-43CF-B0A2-082294AF7E0E}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N28" sqref="N28"/>
     </sheetView>
@@ -8928,36 +8954,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="286" t="s">
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="284"/>
-      <c r="K1" s="283" t="s">
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="286" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="284"/>
-      <c r="M1" s="284"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="283" t="s">
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="284"/>
-      <c r="R1" s="285"/>
-      <c r="Z1" s="283" t="s">
+      <c r="P1" s="287"/>
+      <c r="Q1" s="287"/>
+      <c r="R1" s="288"/>
+      <c r="Z1" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="284"/>
-      <c r="AB1" s="284"/>
-      <c r="AC1" s="285"/>
+      <c r="AA1" s="287"/>
+      <c r="AB1" s="287"/>
+      <c r="AC1" s="288"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -9026,33 +9052,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="287" t="s">
+      <c r="C3" s="290" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="287"/>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="289"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="292"/>
       <c r="K3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="287" t="s">
+      <c r="S3" s="290" t="s">
         <v>402</v>
       </c>
-      <c r="T3" s="288"/>
-      <c r="U3" s="288"/>
-      <c r="V3" s="289"/>
-      <c r="Z3" s="287" t="s">
+      <c r="T3" s="291"/>
+      <c r="U3" s="291"/>
+      <c r="V3" s="292"/>
+      <c r="Z3" s="290" t="s">
         <v>265</v>
       </c>
-      <c r="AA3" s="288"/>
-      <c r="AB3" s="288"/>
-      <c r="AC3" s="289"/>
+      <c r="AA3" s="291"/>
+      <c r="AB3" s="291"/>
+      <c r="AC3" s="292"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -9109,12 +9135,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="280" t="s">
+      <c r="S5" s="283" t="s">
         <v>502</v>
       </c>
-      <c r="T5" s="281"/>
-      <c r="U5" s="281"/>
-      <c r="V5" s="282"/>
+      <c r="T5" s="284"/>
+      <c r="U5" s="284"/>
+      <c r="V5" s="285"/>
       <c r="W5" s="84" t="s">
         <v>504</v>
       </c>
@@ -9144,12 +9170,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="280" t="s">
+      <c r="S6" s="283" t="s">
         <v>941</v>
       </c>
-      <c r="T6" s="281"/>
-      <c r="U6" s="281"/>
-      <c r="V6" s="282"/>
+      <c r="T6" s="284"/>
+      <c r="U6" s="284"/>
+      <c r="V6" s="285"/>
       <c r="Z6" s="223"/>
       <c r="AA6" s="224"/>
       <c r="AB6" s="224"/>
@@ -9636,13 +9662,13 @@
       <c r="O22" s="76" t="s">
         <v>426</v>
       </c>
-      <c r="S22" s="303" t="s">
+      <c r="S22" s="306" t="s">
         <v>951</v>
       </c>
-      <c r="T22" s="305"/>
-      <c r="U22" s="305"/>
-      <c r="V22" s="305"/>
-      <c r="W22" s="305"/>
+      <c r="T22" s="308"/>
+      <c r="U22" s="308"/>
+      <c r="V22" s="308"/>
+      <c r="W22" s="308"/>
       <c r="Z22" s="79" t="s">
         <v>243</v>
       </c>
@@ -9692,12 +9718,12 @@
       <c r="P23" s="74" t="s">
         <v>422</v>
       </c>
-      <c r="S23" s="303" t="s">
+      <c r="S23" s="306" t="s">
         <v>952</v>
       </c>
-      <c r="T23" s="304"/>
-      <c r="U23" s="304"/>
-      <c r="V23" s="304"/>
+      <c r="T23" s="307"/>
+      <c r="U23" s="307"/>
+      <c r="V23" s="307"/>
       <c r="Z23" s="79" t="s">
         <v>245</v>
       </c>
@@ -9803,12 +9829,12 @@
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="280" t="s">
+      <c r="K26" s="283" t="s">
         <v>950</v>
       </c>
-      <c r="L26" s="281"/>
-      <c r="M26" s="281"/>
-      <c r="N26" s="282"/>
+      <c r="L26" s="284"/>
+      <c r="M26" s="284"/>
+      <c r="N26" s="285"/>
       <c r="R26" s="74" t="s">
         <v>421</v>
       </c>
@@ -10562,7 +10588,7 @@
     <col min="11" max="11" width="9.06640625" style="275"/>
     <col min="12" max="12" width="9.06640625" style="278"/>
     <col min="13" max="13" width="9.06640625" style="66"/>
-    <col min="14" max="14" width="9.06640625" style="310"/>
+    <col min="14" max="14" width="9.06640625" style="281"/>
     <col min="15" max="15" width="9.06640625" style="275"/>
     <col min="16" max="16" width="9.06640625" style="278"/>
     <col min="17" max="18" width="9.06640625" style="66"/>
@@ -10572,30 +10598,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="68"/>
       <c r="B1"/>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="283" t="s">
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="286" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="283" t="s">
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="286" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="284"/>
-      <c r="M1" s="284"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="283" t="s">
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="286" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="284"/>
-      <c r="R1" s="285"/>
+      <c r="P1" s="287"/>
+      <c r="Q1" s="287"/>
+      <c r="R1" s="288"/>
     </row>
     <row r="2" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="68"/>
@@ -10684,12 +10710,12 @@
       <c r="P3" s="273"/>
       <c r="Q3" s="273"/>
       <c r="R3" s="277"/>
-      <c r="S3" s="288" t="s">
+      <c r="S3" s="291" t="s">
         <v>947</v>
       </c>
-      <c r="T3" s="288"/>
-      <c r="U3" s="288"/>
-      <c r="V3" s="289"/>
+      <c r="T3" s="291"/>
+      <c r="U3" s="291"/>
+      <c r="V3" s="292"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="68" t="s">
@@ -10750,12 +10776,12 @@
       <c r="P5" s="273"/>
       <c r="Q5" s="273"/>
       <c r="R5" s="277"/>
-      <c r="S5" s="281" t="s">
+      <c r="S5" s="284" t="s">
         <v>873</v>
       </c>
-      <c r="T5" s="281"/>
-      <c r="U5" s="281"/>
-      <c r="V5" s="282"/>
+      <c r="T5" s="284"/>
+      <c r="U5" s="284"/>
+      <c r="V5" s="285"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="68" t="s">
@@ -10781,12 +10807,12 @@
       <c r="P6" s="273"/>
       <c r="Q6" s="273"/>
       <c r="R6" s="277"/>
-      <c r="S6" s="281" t="s">
+      <c r="S6" s="284" t="s">
         <v>948</v>
       </c>
-      <c r="T6" s="281"/>
-      <c r="U6" s="281"/>
-      <c r="V6" s="282"/>
+      <c r="T6" s="284"/>
+      <c r="U6" s="284"/>
+      <c r="V6" s="285"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="68" t="s">
@@ -10839,10 +10865,10 @@
       <c r="P8" s="273"/>
       <c r="Q8" s="273"/>
       <c r="R8" s="277"/>
-      <c r="S8" s="305"/>
-      <c r="T8" s="304"/>
-      <c r="U8" s="304"/>
-      <c r="V8" s="304"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="68" t="s">
@@ -11018,12 +11044,12 @@
       <c r="N15" s="269" t="s">
         <v>285</v>
       </c>
-      <c r="O15" s="306" t="s">
+      <c r="O15" s="309" t="s">
         <v>949</v>
       </c>
-      <c r="P15" s="293"/>
-      <c r="Q15" s="293"/>
-      <c r="R15" s="307"/>
+      <c r="P15" s="296"/>
+      <c r="Q15" s="296"/>
+      <c r="R15" s="310"/>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="68" t="s">
@@ -13042,39 +13068,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="308"/>
+      <c r="A1" s="279"/>
       <c r="B1" s="266"/>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="283" t="s">
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="286" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="283" t="s">
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="286" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="284"/>
-      <c r="M1" s="284"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="283" t="s">
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="286" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="284"/>
-      <c r="R1" s="285"/>
+      <c r="P1" s="287"/>
+      <c r="Q1" s="287"/>
+      <c r="R1" s="288"/>
       <c r="S1" s="229"/>
       <c r="T1" s="229"/>
       <c r="U1" s="229"/>
       <c r="V1" s="229"/>
     </row>
     <row r="2" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="308"/>
+      <c r="A2" s="279"/>
       <c r="B2" s="266"/>
       <c r="C2" s="44" t="s">
         <v>926</v>
@@ -13130,7 +13156,7 @@
       <c r="V2" s="229"/>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="308">
+      <c r="A3" s="279">
         <v>0</v>
       </c>
       <c r="B3" s="266" t="s">
@@ -13166,15 +13192,15 @@
       <c r="P3" s="224"/>
       <c r="Q3" s="224"/>
       <c r="R3" s="225"/>
-      <c r="S3" s="287" t="s">
+      <c r="S3" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="288"/>
-      <c r="U3" s="288"/>
-      <c r="V3" s="289"/>
+      <c r="T3" s="291"/>
+      <c r="U3" s="291"/>
+      <c r="V3" s="292"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" s="308" t="s">
+      <c r="A4" s="279" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="266"/>
@@ -13210,7 +13236,7 @@
       <c r="V4" s="225"/>
     </row>
     <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A5" s="308" t="s">
+      <c r="A5" s="279" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="266"/>
@@ -13238,15 +13264,15 @@
       <c r="P5" s="224"/>
       <c r="Q5" s="224"/>
       <c r="R5" s="225"/>
-      <c r="S5" s="280" t="s">
+      <c r="S5" s="283" t="s">
         <v>282</v>
       </c>
-      <c r="T5" s="281"/>
-      <c r="U5" s="281"/>
-      <c r="V5" s="282"/>
+      <c r="T5" s="284"/>
+      <c r="U5" s="284"/>
+      <c r="V5" s="285"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A6" s="308" t="s">
+      <c r="A6" s="279" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="266"/>
@@ -13274,15 +13300,15 @@
       <c r="P6" s="224"/>
       <c r="Q6" s="224"/>
       <c r="R6" s="225"/>
-      <c r="S6" s="280" t="s">
+      <c r="S6" s="283" t="s">
         <v>283</v>
       </c>
-      <c r="T6" s="281"/>
-      <c r="U6" s="281"/>
-      <c r="V6" s="282"/>
+      <c r="T6" s="284"/>
+      <c r="U6" s="284"/>
+      <c r="V6" s="285"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="308" t="s">
+      <c r="A7" s="279" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="266"/>
@@ -13320,7 +13346,7 @@
       <c r="V7" s="225"/>
     </row>
     <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A8" s="308" t="s">
+      <c r="A8" s="279" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="266"/>
@@ -13347,15 +13373,15 @@
         <v>284</v>
       </c>
       <c r="R8" s="225"/>
-      <c r="S8" s="303" t="s">
+      <c r="S8" s="306" t="s">
         <v>955</v>
       </c>
-      <c r="T8" s="304"/>
-      <c r="U8" s="304"/>
-      <c r="V8" s="304"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A9" s="308" t="s">
+      <c r="A9" s="279" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="266" t="s">
@@ -13392,7 +13418,7 @@
       <c r="V9" s="229"/>
     </row>
     <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A10" s="308" t="s">
+      <c r="A10" s="279" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="266"/>
@@ -13432,7 +13458,7 @@
       <c r="V10" s="229"/>
     </row>
     <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A11" s="308" t="s">
+      <c r="A11" s="279" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="266"/>
@@ -13474,7 +13500,7 @@
       <c r="V11" s="229"/>
     </row>
     <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A12" s="308" t="s">
+      <c r="A12" s="279" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="266"/>
@@ -13514,7 +13540,7 @@
       <c r="V12" s="229"/>
     </row>
     <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A13" s="308" t="s">
+      <c r="A13" s="279" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="266"/>
@@ -13549,7 +13575,7 @@
       <c r="V13" s="229"/>
     </row>
     <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A14" s="308" t="s">
+      <c r="A14" s="279" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="266"/>
@@ -13583,7 +13609,7 @@
       <c r="V14" s="229"/>
     </row>
     <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A15" s="308" t="s">
+      <c r="A15" s="279" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="266"/>
@@ -13617,7 +13643,7 @@
       <c r="V15" s="229"/>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A16" s="308" t="s">
+      <c r="A16" s="279" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="266"/>
@@ -13651,7 +13677,7 @@
       <c r="V16" s="229"/>
     </row>
     <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A17" s="308" t="s">
+      <c r="A17" s="279" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="266"/>
@@ -13689,7 +13715,7 @@
       <c r="V17" s="229"/>
     </row>
     <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A18" s="308" t="s">
+      <c r="A18" s="279" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="266"/>
@@ -13730,7 +13756,7 @@
       <c r="V18" s="229"/>
     </row>
     <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A19" s="308" t="s">
+      <c r="A19" s="279" t="s">
         <v>84</v>
       </c>
       <c r="B19" s="266"/>
@@ -13772,7 +13798,7 @@
       <c r="V19" s="229"/>
     </row>
     <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A20" s="308" t="s">
+      <c r="A20" s="279" t="s">
         <v>86</v>
       </c>
       <c r="B20" s="266"/>
@@ -13812,7 +13838,7 @@
       <c r="V20" s="229"/>
     </row>
     <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A21" s="308" t="s">
+      <c r="A21" s="279" t="s">
         <v>97</v>
       </c>
       <c r="B21" s="266"/>
@@ -13849,7 +13875,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A22" s="308" t="s">
+      <c r="A22" s="279" t="s">
         <v>99</v>
       </c>
       <c r="B22" s="266" t="s">
@@ -13889,7 +13915,7 @@
       <c r="V22" s="229"/>
     </row>
     <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A23" s="308" t="s">
+      <c r="A23" s="279" t="s">
         <v>101</v>
       </c>
       <c r="B23" s="266"/>
@@ -13931,7 +13957,7 @@
       <c r="V23" s="229"/>
     </row>
     <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A24" s="308" t="s">
+      <c r="A24" s="279" t="s">
         <v>103</v>
       </c>
       <c r="B24" s="266"/>
@@ -13973,7 +13999,7 @@
       <c r="V24" s="229"/>
     </row>
     <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A25" s="308" t="s">
+      <c r="A25" s="279" t="s">
         <v>105</v>
       </c>
       <c r="B25" s="266"/>
@@ -14013,7 +14039,7 @@
       <c r="V25" s="229"/>
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A26" s="308" t="s">
+      <c r="A26" s="279" t="s">
         <v>111</v>
       </c>
       <c r="B26" s="266"/>
@@ -14048,7 +14074,7 @@
       <c r="V26" s="229"/>
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A27" s="308" t="s">
+      <c r="A27" s="279" t="s">
         <v>112</v>
       </c>
       <c r="B27" s="266"/>
@@ -14076,7 +14102,7 @@
       <c r="V27" s="229"/>
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A28" s="308" t="s">
+      <c r="A28" s="279" t="s">
         <v>113</v>
       </c>
       <c r="B28" s="266"/>
@@ -14106,7 +14132,7 @@
       <c r="V28" s="229"/>
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A29" s="308" t="s">
+      <c r="A29" s="279" t="s">
         <v>162</v>
       </c>
       <c r="B29" s="266"/>
@@ -14136,7 +14162,7 @@
       <c r="V29" s="229"/>
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A30" s="308" t="s">
+      <c r="A30" s="279" t="s">
         <v>163</v>
       </c>
       <c r="B30" s="266"/>
@@ -14170,7 +14196,7 @@
       <c r="V30" s="229"/>
     </row>
     <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A31" s="308" t="s">
+      <c r="A31" s="279" t="s">
         <v>164</v>
       </c>
       <c r="B31" s="266"/>
@@ -14208,7 +14234,7 @@
       <c r="V31" s="229"/>
     </row>
     <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A32" s="308" t="s">
+      <c r="A32" s="279" t="s">
         <v>165</v>
       </c>
       <c r="B32" s="266"/>
@@ -14245,7 +14271,7 @@
       <c r="V32" s="229"/>
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A33" s="308" t="s">
+      <c r="A33" s="279" t="s">
         <v>166</v>
       </c>
       <c r="B33" s="266"/>
@@ -14282,7 +14308,7 @@
       <c r="V33" s="229"/>
     </row>
     <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A34" s="308" t="s">
+      <c r="A34" s="279" t="s">
         <v>167</v>
       </c>
       <c r="B34" s="266"/>
@@ -14312,7 +14338,7 @@
       <c r="V34" s="229"/>
     </row>
     <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A35" s="308" t="s">
+      <c r="A35" s="279" t="s">
         <v>168</v>
       </c>
       <c r="B35" s="266"/>
@@ -14337,7 +14363,7 @@
       <c r="V35" s="229"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A36" s="308" t="s">
+      <c r="A36" s="279" t="s">
         <v>169</v>
       </c>
       <c r="B36" s="266"/>
@@ -14361,7 +14387,7 @@
       <c r="V36" s="229"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A37" s="308" t="s">
+      <c r="A37" s="279" t="s">
         <v>170</v>
       </c>
       <c r="B37" s="266"/>
@@ -14385,7 +14411,7 @@
       <c r="V37" s="229"/>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A38" s="308" t="s">
+      <c r="A38" s="279" t="s">
         <v>171</v>
       </c>
       <c r="B38" s="266"/>
@@ -14412,7 +14438,7 @@
       <c r="V38" s="229"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A39" s="308" t="s">
+      <c r="A39" s="279" t="s">
         <v>334</v>
       </c>
       <c r="B39" s="266"/>
@@ -14442,7 +14468,7 @@
       <c r="V39" s="229"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A40" s="308" t="s">
+      <c r="A40" s="279" t="s">
         <v>335</v>
       </c>
       <c r="B40" s="266"/>
@@ -14474,7 +14500,7 @@
       <c r="V40" s="229"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A41" s="308" t="s">
+      <c r="A41" s="279" t="s">
         <v>336</v>
       </c>
       <c r="B41" s="266"/>
@@ -14504,7 +14530,7 @@
       <c r="V41" s="229"/>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A42" s="308" t="s">
+      <c r="A42" s="279" t="s">
         <v>337</v>
       </c>
       <c r="B42" s="266"/>
@@ -14530,7 +14556,7 @@
       <c r="V42" s="229"/>
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A43" s="308" t="s">
+      <c r="A43" s="279" t="s">
         <v>338</v>
       </c>
       <c r="B43" s="266"/>
@@ -14556,7 +14582,7 @@
       <c r="V43" s="229"/>
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A44" s="308" t="s">
+      <c r="A44" s="279" t="s">
         <v>339</v>
       </c>
       <c r="B44" s="266"/>
@@ -14583,7 +14609,7 @@
       <c r="V44" s="229"/>
     </row>
     <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A45" s="308" t="s">
+      <c r="A45" s="279" t="s">
         <v>340</v>
       </c>
       <c r="B45" s="266"/>
@@ -14611,7 +14637,7 @@
       <c r="V45" s="229"/>
     </row>
     <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A46" s="308" t="s">
+      <c r="A46" s="279" t="s">
         <v>341</v>
       </c>
       <c r="B46" s="266"/>
@@ -14637,7 +14663,7 @@
       <c r="V46" s="229"/>
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A47" s="308" t="s">
+      <c r="A47" s="279" t="s">
         <v>342</v>
       </c>
       <c r="B47" s="266"/>
@@ -14660,7 +14686,7 @@
       <c r="V47" s="229"/>
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A48" s="308" t="s">
+      <c r="A48" s="279" t="s">
         <v>343</v>
       </c>
       <c r="B48" s="266"/>
@@ -14684,7 +14710,7 @@
       <c r="V48" s="229"/>
     </row>
     <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A49" s="308" t="s">
+      <c r="A49" s="279" t="s">
         <v>344</v>
       </c>
       <c r="B49" s="266"/>
@@ -14708,7 +14734,7 @@
       <c r="V49" s="229"/>
     </row>
     <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A50" s="308" t="s">
+      <c r="A50" s="279" t="s">
         <v>345</v>
       </c>
       <c r="B50" s="266"/>
@@ -14732,7 +14758,7 @@
       <c r="V50" s="229"/>
     </row>
     <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A51" s="308" t="s">
+      <c r="A51" s="279" t="s">
         <v>346</v>
       </c>
       <c r="B51" s="266"/>
@@ -14755,7 +14781,7 @@
       <c r="V51" s="229"/>
     </row>
     <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A52" s="308" t="s">
+      <c r="A52" s="279" t="s">
         <v>347</v>
       </c>
       <c r="B52" s="266"/>
@@ -14778,7 +14804,7 @@
       <c r="V52" s="229"/>
     </row>
     <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A53" s="308" t="s">
+      <c r="A53" s="279" t="s">
         <v>348</v>
       </c>
       <c r="B53" s="266"/>
@@ -14802,7 +14828,7 @@
       <c r="V53" s="229"/>
     </row>
     <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A54" s="308" t="s">
+      <c r="A54" s="279" t="s">
         <v>349</v>
       </c>
       <c r="B54" s="266"/>
@@ -14826,7 +14852,7 @@
       <c r="V54" s="229"/>
     </row>
     <row r="55" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A55" s="308" t="s">
+      <c r="A55" s="279" t="s">
         <v>350</v>
       </c>
       <c r="B55" s="266"/>
@@ -14850,7 +14876,7 @@
       <c r="V55" s="229"/>
     </row>
     <row r="56" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A56" s="308" t="s">
+      <c r="A56" s="279" t="s">
         <v>351</v>
       </c>
       <c r="B56" s="266"/>
@@ -14874,7 +14900,7 @@
       <c r="V56" s="229"/>
     </row>
     <row r="57" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A57" s="308" t="s">
+      <c r="A57" s="279" t="s">
         <v>352</v>
       </c>
       <c r="B57" s="266"/>
@@ -14897,7 +14923,7 @@
       <c r="V57" s="229"/>
     </row>
     <row r="58" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A58" s="308" t="s">
+      <c r="A58" s="279" t="s">
         <v>353</v>
       </c>
       <c r="B58" s="266"/>
@@ -14920,7 +14946,7 @@
       <c r="V58" s="229"/>
     </row>
     <row r="59" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A59" s="308" t="s">
+      <c r="A59" s="279" t="s">
         <v>354</v>
       </c>
       <c r="B59" s="266"/>
@@ -14944,7 +14970,7 @@
       <c r="V59" s="229"/>
     </row>
     <row r="60" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A60" s="308" t="s">
+      <c r="A60" s="279" t="s">
         <v>355</v>
       </c>
       <c r="B60" s="266"/>
@@ -14968,7 +14994,7 @@
       <c r="V60" s="229"/>
     </row>
     <row r="61" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A61" s="308" t="s">
+      <c r="A61" s="279" t="s">
         <v>356</v>
       </c>
       <c r="B61" s="266"/>
@@ -14992,7 +15018,7 @@
       <c r="V61" s="229"/>
     </row>
     <row r="62" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A62" s="308" t="s">
+      <c r="A62" s="279" t="s">
         <v>357</v>
       </c>
       <c r="B62" s="266"/>
@@ -15016,7 +15042,7 @@
       <c r="V62" s="229"/>
     </row>
     <row r="63" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A63" s="308" t="s">
+      <c r="A63" s="279" t="s">
         <v>358</v>
       </c>
       <c r="B63" s="266"/>
@@ -15040,7 +15066,7 @@
       <c r="V63" s="229"/>
     </row>
     <row r="64" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A64" s="308" t="s">
+      <c r="A64" s="279" t="s">
         <v>359</v>
       </c>
       <c r="B64" s="266"/>
@@ -15064,7 +15090,7 @@
       <c r="V64" s="229"/>
     </row>
     <row r="65" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A65" s="308" t="s">
+      <c r="A65" s="279" t="s">
         <v>360</v>
       </c>
       <c r="B65" s="266"/>
@@ -15087,7 +15113,7 @@
       <c r="V65" s="229"/>
     </row>
     <row r="66" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A66" s="308" t="s">
+      <c r="A66" s="279" t="s">
         <v>361</v>
       </c>
       <c r="B66" s="266"/>
@@ -15111,7 +15137,7 @@
       <c r="V66" s="229"/>
     </row>
     <row r="67" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A67" s="308" t="s">
+      <c r="A67" s="279" t="s">
         <v>362</v>
       </c>
       <c r="B67" s="266"/>
@@ -15135,7 +15161,7 @@
       <c r="V67" s="229"/>
     </row>
     <row r="68" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A68" s="308" t="s">
+      <c r="A68" s="279" t="s">
         <v>363</v>
       </c>
       <c r="B68" s="266"/>
@@ -15159,7 +15185,7 @@
       <c r="V68" s="229"/>
     </row>
     <row r="69" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A69" s="308" t="s">
+      <c r="A69" s="279" t="s">
         <v>364</v>
       </c>
       <c r="B69" s="266"/>
@@ -15183,7 +15209,7 @@
       <c r="V69" s="229"/>
     </row>
     <row r="70" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A70" s="308" t="s">
+      <c r="A70" s="279" t="s">
         <v>365</v>
       </c>
       <c r="B70" s="266"/>
@@ -15206,7 +15232,7 @@
       <c r="V70" s="229"/>
     </row>
     <row r="71" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A71" s="308" t="s">
+      <c r="A71" s="279" t="s">
         <v>366</v>
       </c>
       <c r="B71" s="266"/>
@@ -15229,7 +15255,7 @@
       <c r="V71" s="229"/>
     </row>
     <row r="72" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A72" s="308" t="s">
+      <c r="A72" s="279" t="s">
         <v>368</v>
       </c>
       <c r="B72" s="266"/>
@@ -15253,7 +15279,7 @@
       <c r="V72" s="229"/>
     </row>
     <row r="73" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A73" s="308" t="s">
+      <c r="A73" s="279" t="s">
         <v>369</v>
       </c>
       <c r="B73" s="266"/>
@@ -15277,7 +15303,7 @@
       <c r="V73" s="229"/>
     </row>
     <row r="74" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A74" s="308" t="s">
+      <c r="A74" s="279" t="s">
         <v>370</v>
       </c>
       <c r="B74" s="266"/>
@@ -15301,7 +15327,7 @@
       <c r="V74" s="229"/>
     </row>
     <row r="75" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A75" s="308" t="s">
+      <c r="A75" s="279" t="s">
         <v>371</v>
       </c>
       <c r="B75" s="266"/>
@@ -15325,7 +15351,7 @@
       <c r="V75" s="229"/>
     </row>
     <row r="76" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A76" s="308" t="s">
+      <c r="A76" s="279" t="s">
         <v>372</v>
       </c>
       <c r="B76" s="266"/>
@@ -15349,7 +15375,7 @@
       <c r="V76" s="229"/>
     </row>
     <row r="77" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A77" s="308" t="s">
+      <c r="A77" s="279" t="s">
         <v>373</v>
       </c>
       <c r="B77" s="266"/>
@@ -15372,7 +15398,7 @@
       <c r="V77" s="229"/>
     </row>
     <row r="78" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A78" s="308" t="s">
+      <c r="A78" s="279" t="s">
         <v>374</v>
       </c>
       <c r="B78" s="266"/>
@@ -15395,7 +15421,7 @@
       <c r="V78" s="229"/>
     </row>
     <row r="79" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A79" s="308" t="s">
+      <c r="A79" s="279" t="s">
         <v>375</v>
       </c>
       <c r="B79" s="266"/>
@@ -15419,7 +15445,7 @@
       <c r="V79" s="229"/>
     </row>
     <row r="80" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A80" s="308" t="s">
+      <c r="A80" s="279" t="s">
         <v>376</v>
       </c>
       <c r="B80" s="266"/>
@@ -15443,7 +15469,7 @@
       <c r="V80" s="229"/>
     </row>
     <row r="81" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A81" s="308"/>
+      <c r="A81" s="279"/>
       <c r="B81" s="266"/>
       <c r="C81" s="223"/>
       <c r="D81" s="224"/>
@@ -15465,7 +15491,7 @@
       <c r="V81" s="229"/>
     </row>
     <row r="82" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A82" s="308"/>
+      <c r="A82" s="279"/>
       <c r="B82" s="266"/>
       <c r="C82" s="99"/>
       <c r="D82" s="224"/>
@@ -15487,7 +15513,7 @@
       <c r="V82" s="229"/>
     </row>
     <row r="83" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A83" s="308"/>
+      <c r="A83" s="279"/>
       <c r="B83" s="266"/>
       <c r="C83" s="99"/>
       <c r="E83" s="224"/>
@@ -15508,7 +15534,7 @@
       <c r="V83" s="229"/>
     </row>
     <row r="84" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A84" s="308"/>
+      <c r="A84" s="279"/>
       <c r="B84" s="266"/>
       <c r="C84" s="228"/>
       <c r="E84" s="32"/>
@@ -15529,7 +15555,7 @@
       <c r="V84" s="229"/>
     </row>
     <row r="85" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A85" s="308"/>
+      <c r="A85" s="279"/>
       <c r="B85" s="266"/>
       <c r="C85" s="228"/>
       <c r="E85" s="32"/>
@@ -15551,7 +15577,7 @@
       <c r="V85" s="229"/>
     </row>
     <row r="86" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A86" s="308"/>
+      <c r="A86" s="279"/>
       <c r="B86" s="266"/>
       <c r="C86" s="228"/>
       <c r="E86" s="32"/>
@@ -15573,7 +15599,7 @@
       <c r="V86" s="229"/>
     </row>
     <row r="87" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A87" s="308"/>
+      <c r="A87" s="279"/>
       <c r="B87" s="266"/>
       <c r="C87" s="228"/>
       <c r="E87" s="32"/>
@@ -15595,7 +15621,7 @@
       <c r="V87" s="229"/>
     </row>
     <row r="88" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A88" s="308"/>
+      <c r="A88" s="279"/>
       <c r="B88" s="266"/>
       <c r="C88" s="228"/>
       <c r="E88" s="32"/>
@@ -15617,7 +15643,7 @@
       <c r="V88" s="229"/>
     </row>
     <row r="89" spans="1:22" ht="15" x14ac:dyDescent="0.4">
-      <c r="A89" s="308"/>
+      <c r="A89" s="279"/>
       <c r="B89" s="266"/>
       <c r="C89" s="228"/>
       <c r="E89" s="32"/>
@@ -15684,30 +15710,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="68"/>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="283" t="s">
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="286" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="283" t="s">
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="286" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="284"/>
-      <c r="M1" s="284"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="283" t="s">
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="286" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="284"/>
-      <c r="R1" s="285"/>
+      <c r="P1" s="287"/>
+      <c r="Q1" s="287"/>
+      <c r="R1" s="288"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
@@ -15805,12 +15831,12 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="287" t="s">
+      <c r="S3" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="288"/>
-      <c r="U3" s="288"/>
-      <c r="V3" s="289"/>
+      <c r="T3" s="291"/>
+      <c r="U3" s="291"/>
+      <c r="V3" s="292"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="68" t="s">
@@ -15875,12 +15901,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="280" t="s">
+      <c r="S5" s="283" t="s">
         <v>282</v>
       </c>
-      <c r="T5" s="281"/>
-      <c r="U5" s="281"/>
-      <c r="V5" s="282"/>
+      <c r="T5" s="284"/>
+      <c r="U5" s="284"/>
+      <c r="V5" s="285"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="68" t="s">
@@ -15910,12 +15936,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="280" t="s">
+      <c r="S6" s="283" t="s">
         <v>283</v>
       </c>
-      <c r="T6" s="281"/>
-      <c r="U6" s="281"/>
-      <c r="V6" s="282"/>
+      <c r="T6" s="284"/>
+      <c r="U6" s="284"/>
+      <c r="V6" s="285"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="68" t="s">
@@ -15982,12 +16008,12 @@
         <v>284</v>
       </c>
       <c r="R8" s="41"/>
-      <c r="S8" s="303" t="s">
+      <c r="S8" s="306" t="s">
         <v>378</v>
       </c>
-      <c r="T8" s="304"/>
-      <c r="U8" s="304"/>
-      <c r="V8" s="304"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="68" t="s">
@@ -18471,36 +18497,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="286" t="s">
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="284"/>
-      <c r="K1" s="283" t="s">
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="286" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="284"/>
-      <c r="M1" s="284"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="283" t="s">
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="284"/>
-      <c r="R1" s="285"/>
-      <c r="Z1" s="283" t="s">
+      <c r="P1" s="287"/>
+      <c r="Q1" s="287"/>
+      <c r="R1" s="288"/>
+      <c r="Z1" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="284"/>
-      <c r="AB1" s="284"/>
-      <c r="AC1" s="285"/>
+      <c r="AA1" s="287"/>
+      <c r="AB1" s="287"/>
+      <c r="AC1" s="288"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -18569,33 +18595,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="287" t="s">
+      <c r="C3" s="290" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="287"/>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="289"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="292"/>
       <c r="K3" s="223"/>
       <c r="O3" s="223"/>
       <c r="P3" s="224"/>
       <c r="Q3" s="224"/>
       <c r="R3" s="225"/>
-      <c r="S3" s="287" t="s">
+      <c r="S3" s="290" t="s">
         <v>402</v>
       </c>
-      <c r="T3" s="288"/>
-      <c r="U3" s="288"/>
-      <c r="V3" s="289"/>
-      <c r="Z3" s="287" t="s">
+      <c r="T3" s="291"/>
+      <c r="U3" s="291"/>
+      <c r="V3" s="292"/>
+      <c r="Z3" s="290" t="s">
         <v>265</v>
       </c>
-      <c r="AA3" s="288"/>
-      <c r="AB3" s="288"/>
-      <c r="AC3" s="289"/>
+      <c r="AA3" s="291"/>
+      <c r="AB3" s="291"/>
+      <c r="AC3" s="292"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -18652,12 +18678,12 @@
       <c r="P5" s="224"/>
       <c r="Q5" s="224"/>
       <c r="R5" s="225"/>
-      <c r="S5" s="280" t="s">
+      <c r="S5" s="283" t="s">
         <v>502</v>
       </c>
-      <c r="T5" s="281"/>
-      <c r="U5" s="281"/>
-      <c r="V5" s="282"/>
+      <c r="T5" s="284"/>
+      <c r="U5" s="284"/>
+      <c r="V5" s="285"/>
       <c r="W5" s="84" t="s">
         <v>504</v>
       </c>
@@ -18687,12 +18713,12 @@
       <c r="P6" s="224"/>
       <c r="Q6" s="224"/>
       <c r="R6" s="225"/>
-      <c r="S6" s="280" t="s">
+      <c r="S6" s="283" t="s">
         <v>419</v>
       </c>
-      <c r="T6" s="281"/>
-      <c r="U6" s="281"/>
-      <c r="V6" s="282"/>
+      <c r="T6" s="284"/>
+      <c r="U6" s="284"/>
+      <c r="V6" s="285"/>
       <c r="Z6" s="223"/>
       <c r="AA6" s="224"/>
       <c r="AB6" s="224"/>
@@ -20092,30 +20118,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="286" t="s">
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="284"/>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="283" t="s">
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="286" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="284"/>
-      <c r="L1" s="284"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="283" t="s">
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="286" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="284"/>
-      <c r="P1" s="284"/>
-      <c r="Q1" s="285"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="287"/>
+      <c r="Q1" s="288"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
@@ -20202,12 +20228,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="287" t="s">
+      <c r="R3" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="288"/>
-      <c r="T3" s="288"/>
-      <c r="U3" s="289"/>
+      <c r="S3" s="291"/>
+      <c r="T3" s="291"/>
+      <c r="U3" s="292"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
@@ -20260,12 +20286,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="280" t="s">
+      <c r="R5" s="283" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="281"/>
-      <c r="T5" s="281"/>
-      <c r="U5" s="282"/>
+      <c r="S5" s="284"/>
+      <c r="T5" s="284"/>
+      <c r="U5" s="285"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
@@ -20287,12 +20313,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="280" t="s">
+      <c r="R6" s="283" t="s">
         <v>262</v>
       </c>
-      <c r="S6" s="281"/>
-      <c r="T6" s="281"/>
-      <c r="U6" s="282"/>
+      <c r="S6" s="284"/>
+      <c r="T6" s="284"/>
+      <c r="U6" s="285"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
@@ -23752,67 +23778,67 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="290" t="s">
+      <c r="B6" s="293" t="s">
         <v>514</v>
       </c>
-      <c r="C6" s="291"/>
-      <c r="D6" s="292"/>
-      <c r="E6" s="290" t="s">
+      <c r="C6" s="294"/>
+      <c r="D6" s="295"/>
+      <c r="E6" s="293" t="s">
         <v>515</v>
       </c>
-      <c r="F6" s="291"/>
-      <c r="G6" s="292"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="295"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="291"/>
-      <c r="K7" s="291"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="291"/>
-      <c r="N7" s="291"/>
-      <c r="O7" s="291"/>
-      <c r="P7" s="292"/>
-      <c r="Q7" s="290" t="s">
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="294"/>
+      <c r="I7" s="294"/>
+      <c r="J7" s="294"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="294"/>
+      <c r="N7" s="294"/>
+      <c r="O7" s="294"/>
+      <c r="P7" s="295"/>
+      <c r="Q7" s="293" t="s">
         <v>215</v>
       </c>
-      <c r="R7" s="291"/>
-      <c r="S7" s="291"/>
-      <c r="T7" s="291"/>
-      <c r="U7" s="291"/>
-      <c r="V7" s="291"/>
-      <c r="W7" s="291"/>
-      <c r="X7" s="291"/>
-      <c r="Y7" s="291"/>
-      <c r="Z7" s="291"/>
-      <c r="AA7" s="292"/>
-      <c r="AB7" s="290" t="s">
+      <c r="R7" s="294"/>
+      <c r="S7" s="294"/>
+      <c r="T7" s="294"/>
+      <c r="U7" s="294"/>
+      <c r="V7" s="294"/>
+      <c r="W7" s="294"/>
+      <c r="X7" s="294"/>
+      <c r="Y7" s="294"/>
+      <c r="Z7" s="294"/>
+      <c r="AA7" s="295"/>
+      <c r="AB7" s="293" t="s">
         <v>216</v>
       </c>
-      <c r="AC7" s="291"/>
-      <c r="AD7" s="291"/>
-      <c r="AE7" s="291"/>
-      <c r="AF7" s="291"/>
-      <c r="AG7" s="291"/>
-      <c r="AH7" s="291"/>
-      <c r="AI7" s="291"/>
-      <c r="AJ7" s="291"/>
-      <c r="AK7" s="291"/>
-      <c r="AL7" s="291"/>
-      <c r="AM7" s="291"/>
-      <c r="AN7" s="291"/>
-      <c r="AO7" s="291"/>
-      <c r="AP7" s="291"/>
-      <c r="AQ7" s="291"/>
-      <c r="AR7" s="292"/>
+      <c r="AC7" s="294"/>
+      <c r="AD7" s="294"/>
+      <c r="AE7" s="294"/>
+      <c r="AF7" s="294"/>
+      <c r="AG7" s="294"/>
+      <c r="AH7" s="294"/>
+      <c r="AI7" s="294"/>
+      <c r="AJ7" s="294"/>
+      <c r="AK7" s="294"/>
+      <c r="AL7" s="294"/>
+      <c r="AM7" s="294"/>
+      <c r="AN7" s="294"/>
+      <c r="AO7" s="294"/>
+      <c r="AP7" s="294"/>
+      <c r="AQ7" s="294"/>
+      <c r="AR7" s="295"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="E9" s="45"/>
@@ -23886,18 +23912,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="282" t="s">
         <v>680</v>
       </c>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="282"/>
+      <c r="K1" s="282"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
@@ -25021,7 +25047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431E16EB-4173-4BB0-A744-4BFFE60D57DA}">
   <dimension ref="A1:BA82"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B79" sqref="B79"/>
     </sheetView>
@@ -25068,11 +25094,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="287" t="s">
+      <c r="D1" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
       <c r="G1" s="63"/>
       <c r="H1" s="59"/>
       <c r="I1" s="92"/>
@@ -25130,12 +25156,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="286" t="s">
         <v>619</v>
       </c>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="285"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="288"/>
       <c r="H6" s="122"/>
       <c r="I6" s="94"/>
       <c r="J6" s="94"/>
@@ -25144,27 +25170,27 @@
       <c r="M6" s="94"/>
       <c r="N6" s="94"/>
       <c r="O6" s="94"/>
-      <c r="P6" s="283" t="s">
+      <c r="P6" s="286" t="s">
         <v>620</v>
       </c>
-      <c r="Q6" s="284"/>
-      <c r="R6" s="284"/>
-      <c r="S6" s="285"/>
-      <c r="AF6" s="283" t="s">
+      <c r="Q6" s="287"/>
+      <c r="R6" s="287"/>
+      <c r="S6" s="288"/>
+      <c r="AF6" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="284"/>
-      <c r="AH6" s="284"/>
-      <c r="AI6" s="285"/>
+      <c r="AG6" s="287"/>
+      <c r="AH6" s="287"/>
+      <c r="AI6" s="288"/>
       <c r="AJ6" s="153"/>
-      <c r="AK6" s="283" t="s">
+      <c r="AK6" s="286" t="s">
         <v>618</v>
       </c>
-      <c r="AL6" s="284"/>
-      <c r="AM6" s="284"/>
-      <c r="AN6" s="284"/>
-      <c r="AO6" s="284"/>
-      <c r="AP6" s="285"/>
+      <c r="AL6" s="287"/>
+      <c r="AM6" s="287"/>
+      <c r="AN6" s="287"/>
+      <c r="AO6" s="287"/>
+      <c r="AP6" s="288"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="35" t="s">
@@ -25242,11 +25268,11 @@
       <c r="J8" s="94"/>
       <c r="K8" s="94"/>
       <c r="L8" s="94"/>
-      <c r="M8" s="294" t="s">
+      <c r="M8" s="297" t="s">
         <v>526</v>
       </c>
-      <c r="N8" s="294"/>
-      <c r="O8" s="294"/>
+      <c r="N8" s="297"/>
+      <c r="O8" s="297"/>
       <c r="P8" s="118"/>
       <c r="Q8" s="119"/>
       <c r="R8" s="119"/>
@@ -25267,12 +25293,12 @@
       <c r="AL8" s="154"/>
       <c r="AM8" s="154"/>
       <c r="AN8" s="154"/>
-      <c r="AQ8" s="280" t="s">
+      <c r="AQ8" s="283" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="281"/>
-      <c r="AS8" s="281"/>
-      <c r="AT8" s="282"/>
+      <c r="AR8" s="284"/>
+      <c r="AS8" s="284"/>
+      <c r="AT8" s="285"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="40"/>
@@ -25284,11 +25310,11 @@
       <c r="J9" s="121"/>
       <c r="K9" s="121"/>
       <c r="L9" s="121"/>
-      <c r="M9" s="296" t="s">
+      <c r="M9" s="299" t="s">
         <v>527</v>
       </c>
-      <c r="N9" s="296"/>
-      <c r="O9" s="295"/>
+      <c r="N9" s="299"/>
+      <c r="O9" s="298"/>
       <c r="P9" s="118"/>
       <c r="Q9" s="119"/>
       <c r="R9" s="119"/>
@@ -25330,9 +25356,9 @@
       <c r="J10" s="121"/>
       <c r="K10" s="121"/>
       <c r="L10" s="121"/>
-      <c r="M10" s="293"/>
-      <c r="N10" s="293"/>
-      <c r="O10" s="293"/>
+      <c r="M10" s="296"/>
+      <c r="N10" s="296"/>
+      <c r="O10" s="296"/>
       <c r="P10" s="118"/>
       <c r="Q10" s="119"/>
       <c r="R10" s="119"/>
@@ -25357,12 +25383,12 @@
       <c r="AL10" s="154"/>
       <c r="AM10" s="154"/>
       <c r="AN10" s="154"/>
-      <c r="AQ10" s="280" t="s">
+      <c r="AQ10" s="283" t="s">
         <v>54</v>
       </c>
-      <c r="AR10" s="281"/>
-      <c r="AS10" s="281"/>
-      <c r="AT10" s="282"/>
+      <c r="AR10" s="284"/>
+      <c r="AS10" s="284"/>
+      <c r="AT10" s="285"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="40"/>
@@ -25398,12 +25424,12 @@
       <c r="AL11" s="154"/>
       <c r="AM11" s="154"/>
       <c r="AN11" s="154"/>
-      <c r="AQ11" s="280" t="s">
+      <c r="AQ11" s="283" t="s">
         <v>617</v>
       </c>
-      <c r="AR11" s="281"/>
-      <c r="AS11" s="281"/>
-      <c r="AT11" s="282"/>
+      <c r="AR11" s="284"/>
+      <c r="AS11" s="284"/>
+      <c r="AT11" s="285"/>
       <c r="AU11" s="26" t="s">
         <v>263</v>
       </c>
@@ -25429,11 +25455,11 @@
       <c r="J12" s="94"/>
       <c r="K12" s="94"/>
       <c r="L12" s="94"/>
-      <c r="M12" s="297" t="s">
+      <c r="M12" s="300" t="s">
         <v>525</v>
       </c>
-      <c r="N12" s="297"/>
-      <c r="O12" s="297"/>
+      <c r="N12" s="300"/>
+      <c r="O12" s="300"/>
       <c r="P12" s="118"/>
       <c r="Q12" s="119"/>
       <c r="R12" s="119"/>
@@ -25447,12 +25473,12 @@
       <c r="AL12" s="154"/>
       <c r="AM12" s="154"/>
       <c r="AN12" s="154"/>
-      <c r="AQ12" s="280" t="s">
+      <c r="AQ12" s="283" t="s">
         <v>524</v>
       </c>
-      <c r="AR12" s="281"/>
-      <c r="AS12" s="281"/>
-      <c r="AT12" s="282"/>
+      <c r="AR12" s="284"/>
+      <c r="AS12" s="284"/>
+      <c r="AT12" s="285"/>
       <c r="AV12" s="21" t="s">
         <v>613</v>
       </c>
@@ -25468,12 +25494,12 @@
         <v>520</v>
       </c>
       <c r="C13" s="131"/>
-      <c r="D13" s="283" t="s">
+      <c r="D13" s="286" t="s">
         <v>528</v>
       </c>
-      <c r="E13" s="284"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="287"/>
       <c r="H13" s="167" t="s">
         <v>631</v>
       </c>
@@ -25496,11 +25522,11 @@
       <c r="O13" s="180" t="s">
         <v>635</v>
       </c>
-      <c r="P13" s="283" t="s">
+      <c r="P13" s="286" t="s">
         <v>529</v>
       </c>
-      <c r="Q13" s="284"/>
-      <c r="R13" s="284"/>
+      <c r="Q13" s="287"/>
+      <c r="R13" s="287"/>
       <c r="S13" s="156"/>
       <c r="T13" s="170" t="s">
         <v>656</v>
@@ -25536,18 +25562,18 @@
       <c r="AH13" s="59"/>
       <c r="AI13" s="43"/>
       <c r="AJ13" s="153"/>
-      <c r="AK13" s="280" t="s">
+      <c r="AK13" s="283" t="s">
         <v>528</v>
       </c>
-      <c r="AL13" s="281"/>
-      <c r="AM13" s="281"/>
-      <c r="AN13" s="281"/>
-      <c r="AQ13" s="280" t="s">
+      <c r="AL13" s="284"/>
+      <c r="AM13" s="284"/>
+      <c r="AN13" s="284"/>
+      <c r="AQ13" s="283" t="s">
         <v>610</v>
       </c>
-      <c r="AR13" s="279"/>
-      <c r="AS13" s="279"/>
-      <c r="AT13" s="279"/>
+      <c r="AR13" s="282"/>
+      <c r="AS13" s="282"/>
+      <c r="AT13" s="282"/>
       <c r="AV13" s="21" t="s">
         <v>614</v>
       </c>
@@ -26239,8 +26265,8 @@
       </c>
       <c r="AO30" s="159"/>
       <c r="AP30" s="161"/>
-      <c r="AR30" s="295"/>
-      <c r="AS30" s="295"/>
+      <c r="AR30" s="298"/>
+      <c r="AS30" s="298"/>
     </row>
     <row r="31" spans="1:52" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="199" t="s">
@@ -26693,8 +26719,8 @@
         <v>88</v>
       </c>
       <c r="AO40" s="159"/>
-      <c r="AR40" s="293"/>
-      <c r="AS40" s="293"/>
+      <c r="AR40" s="296"/>
+      <c r="AS40" s="296"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="151" t="s">
@@ -26928,8 +26954,8 @@
         <v>633</v>
       </c>
       <c r="AP46" s="161"/>
-      <c r="AR46" s="293"/>
-      <c r="AS46" s="293"/>
+      <c r="AR46" s="296"/>
+      <c r="AS46" s="296"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A47" s="151" t="s">
@@ -27014,12 +27040,12 @@
         <v>522</v>
       </c>
       <c r="C49" s="178"/>
-      <c r="D49" s="283" t="s">
+      <c r="D49" s="286" t="s">
         <v>528</v>
       </c>
-      <c r="E49" s="284"/>
-      <c r="F49" s="284"/>
-      <c r="G49" s="284"/>
+      <c r="E49" s="287"/>
+      <c r="F49" s="287"/>
+      <c r="G49" s="287"/>
       <c r="H49" s="167" t="s">
         <v>631</v>
       </c>
@@ -27042,11 +27068,11 @@
       <c r="O49" s="180" t="s">
         <v>635</v>
       </c>
-      <c r="P49" s="283" t="s">
+      <c r="P49" s="286" t="s">
         <v>529</v>
       </c>
-      <c r="Q49" s="284"/>
-      <c r="R49" s="284"/>
+      <c r="Q49" s="287"/>
+      <c r="R49" s="287"/>
       <c r="S49" s="189"/>
       <c r="T49" s="170" t="s">
         <v>656</v>
@@ -28407,11 +28433,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43FEDAF-23E6-469D-8A80-8AB9F6CCCBDB}">
-  <dimension ref="A1:AU188"/>
+  <dimension ref="A1:AU189"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P57" sqref="P57:Q60"/>
+      <selection pane="topRight" activeCell="D187" sqref="D187:D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -28420,7 +28446,7 @@
     <col min="2" max="2" width="9.06640625" style="4"/>
     <col min="3" max="4" width="9.06640625" style="5"/>
     <col min="5" max="5" width="9.06640625" style="6"/>
-    <col min="10" max="10" width="9.06640625" style="4"/>
+    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.06640625" style="5"/>
     <col min="12" max="12" width="10.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.46484375" style="6" bestFit="1" customWidth="1"/>
@@ -28455,17 +28481,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="287" t="s">
+      <c r="B1" s="290" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
       <c r="E1" s="42"/>
-      <c r="F1" s="287" t="s">
+      <c r="F1" s="290" t="s">
         <v>958</v>
       </c>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
       <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -28508,61 +28534,61 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="298" t="s">
+      <c r="B4" s="301" t="s">
         <v>957</v>
       </c>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="298" t="s">
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="301" t="s">
         <v>282</v>
       </c>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
-      <c r="I4" s="300"/>
+      <c r="G4" s="302"/>
+      <c r="H4" s="302"/>
+      <c r="I4" s="303"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="280" t="s">
+      <c r="B5" s="283" t="s">
         <v>869</v>
       </c>
-      <c r="C5" s="281"/>
-      <c r="D5" s="281"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="280" t="s">
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="283" t="s">
         <v>869</v>
       </c>
-      <c r="G5" s="281"/>
-      <c r="H5" s="281"/>
-      <c r="I5" s="282"/>
+      <c r="G5" s="284"/>
+      <c r="H5" s="284"/>
+      <c r="I5" s="285"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="283" t="s">
+      <c r="B6" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="286" t="s">
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="284"/>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="283" t="s">
+      <c r="G6" s="287"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="286" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="284"/>
-      <c r="L6" s="284"/>
-      <c r="M6" s="285"/>
-      <c r="N6" s="283" t="s">
+      <c r="K6" s="287"/>
+      <c r="L6" s="287"/>
+      <c r="M6" s="288"/>
+      <c r="N6" s="286" t="s">
         <v>187</v>
       </c>
-      <c r="O6" s="284"/>
-      <c r="P6" s="284"/>
-      <c r="Q6" s="285"/>
+      <c r="O6" s="287"/>
+      <c r="P6" s="287"/>
+      <c r="Q6" s="288"/>
       <c r="V6" s="55"/>
       <c r="W6" s="56"/>
       <c r="X6" s="56"/>
@@ -28591,24 +28617,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="208"/>
-      <c r="B7" s="283" t="s">
+      <c r="B7" s="286" t="s">
         <v>619</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="283" t="s">
+      <c r="C7" s="287"/>
+      <c r="D7" s="287"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="286" t="s">
         <v>620</v>
       </c>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="283" t="s">
+      <c r="G7" s="287"/>
+      <c r="H7" s="287"/>
+      <c r="I7" s="288"/>
+      <c r="J7" s="286" t="s">
         <v>791</v>
       </c>
-      <c r="K7" s="284"/>
-      <c r="L7" s="284"/>
-      <c r="M7" s="285"/>
+      <c r="K7" s="287"/>
+      <c r="L7" s="287"/>
+      <c r="M7" s="288"/>
       <c r="N7" s="205"/>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
@@ -28749,7 +28775,9 @@
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="176"/>
+      <c r="J9" s="311" t="s">
+        <v>964</v>
+      </c>
       <c r="K9" s="81"/>
       <c r="L9" s="230" t="s">
         <v>794</v>
@@ -29734,7 +29762,9 @@
       <c r="L57" s="26"/>
       <c r="M57" s="34"/>
       <c r="N57" s="4"/>
-      <c r="P57" s="26"/>
+      <c r="P57" s="26" t="s">
+        <v>963</v>
+      </c>
       <c r="Q57" s="76" t="s">
         <v>880</v>
       </c>
@@ -29889,7 +29919,9 @@
       <c r="G70" s="220"/>
       <c r="H70" s="220"/>
       <c r="I70" s="220"/>
-      <c r="J70" s="231"/>
+      <c r="J70" s="312" t="s">
+        <v>967</v>
+      </c>
       <c r="K70" s="220"/>
       <c r="L70" s="230" t="s">
         <v>795</v>
@@ -30574,7 +30606,6 @@
       <c r="B100" s="33"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
-      <c r="E100" s="34"/>
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
       <c r="H100" s="21"/>
@@ -30591,13 +30622,12 @@
         <v>594</v>
       </c>
       <c r="B101" s="33"/>
-      <c r="C101" s="26"/>
       <c r="D101" s="81"/>
-      <c r="E101" s="77" t="s">
-        <v>842</v>
-      </c>
-      <c r="F101" s="73" t="s">
-        <v>573</v>
+      <c r="E101" s="78" t="s">
+        <v>841</v>
+      </c>
+      <c r="F101" s="75" t="s">
+        <v>574</v>
       </c>
       <c r="G101" s="81"/>
       <c r="H101" s="21"/>
@@ -30614,20 +30644,18 @@
         <v>595</v>
       </c>
       <c r="B102" s="33"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="78" t="s">
-        <v>841</v>
-      </c>
-      <c r="E102" s="77" t="s">
-        <v>472</v>
-      </c>
-      <c r="F102" s="73" t="s">
-        <v>575</v>
-      </c>
-      <c r="G102" s="75" t="s">
-        <v>574</v>
-      </c>
-      <c r="H102" s="21"/>
+      <c r="D102" s="77" t="s">
+        <v>842</v>
+      </c>
+      <c r="E102" s="78" t="s">
+        <v>469</v>
+      </c>
+      <c r="F102" s="75" t="s">
+        <v>576</v>
+      </c>
+      <c r="G102" s="73" t="s">
+        <v>573</v>
+      </c>
       <c r="I102" s="81"/>
       <c r="J102" s="33"/>
       <c r="K102" s="26"/>
@@ -30641,20 +30669,18 @@
         <v>596</v>
       </c>
       <c r="B103" s="33"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="78" t="s">
-        <v>469</v>
-      </c>
-      <c r="E103" s="77" t="s">
-        <v>473</v>
-      </c>
-      <c r="F103" s="73" t="s">
-        <v>577</v>
-      </c>
-      <c r="G103" s="75" t="s">
-        <v>576</v>
-      </c>
-      <c r="H103" s="81"/>
+      <c r="D103" s="77" t="s">
+        <v>472</v>
+      </c>
+      <c r="E103" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="F103" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="G103" s="73" t="s">
+        <v>575</v>
+      </c>
       <c r="I103" s="81"/>
       <c r="J103" s="33"/>
       <c r="K103" s="26"/>
@@ -30670,15 +30696,14 @@
       </c>
       <c r="B104" s="33"/>
       <c r="C104" s="26"/>
-      <c r="D104" s="78" t="s">
-        <v>470</v>
+      <c r="D104" s="77" t="s">
+        <v>473</v>
       </c>
       <c r="E104" s="82"/>
       <c r="F104" s="81"/>
-      <c r="G104" s="75" t="s">
-        <v>578</v>
-      </c>
-      <c r="H104" s="21"/>
+      <c r="G104" s="73" t="s">
+        <v>577</v>
+      </c>
       <c r="I104" s="21"/>
       <c r="J104" s="33"/>
       <c r="K104" s="26"/>
@@ -30756,7 +30781,7 @@
       <c r="K108" s="26"/>
       <c r="L108" s="26"/>
       <c r="M108" s="76" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="N108" s="4"/>
     </row>
@@ -30775,7 +30800,7 @@
       <c r="J109" s="33"/>
       <c r="K109" s="26"/>
       <c r="L109" s="76" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M109" s="34"/>
       <c r="N109" s="4"/>
@@ -30796,7 +30821,7 @@
       <c r="K110" s="26"/>
       <c r="L110" s="34"/>
       <c r="M110" s="76" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="N110" s="4"/>
     </row>
@@ -30815,7 +30840,7 @@
       <c r="J111" s="33"/>
       <c r="K111" s="26"/>
       <c r="L111" s="76" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="M111" s="34"/>
       <c r="N111" s="4"/>
@@ -30825,10 +30850,9 @@
         <v>605</v>
       </c>
       <c r="B112" s="33"/>
-      <c r="C112" s="26"/>
       <c r="D112" s="26"/>
-      <c r="E112" s="76" t="s">
-        <v>844</v>
+      <c r="E112" s="74" t="s">
+        <v>846</v>
       </c>
       <c r="F112" s="80" t="s">
         <v>850</v>
@@ -30847,12 +30871,11 @@
         <v>801</v>
       </c>
       <c r="B113" s="33"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="74" t="s">
-        <v>846</v>
-      </c>
-      <c r="E113" s="76" t="s">
-        <v>845</v>
+      <c r="D113" s="76" t="s">
+        <v>844</v>
+      </c>
+      <c r="E113" s="74" t="s">
+        <v>847</v>
       </c>
       <c r="F113" s="80" t="s">
         <v>851</v>
@@ -30874,8 +30897,8 @@
       </c>
       <c r="B114" s="33"/>
       <c r="C114" s="26"/>
-      <c r="D114" s="74" t="s">
-        <v>847</v>
+      <c r="D114" s="76" t="s">
+        <v>845</v>
       </c>
       <c r="E114" s="34"/>
       <c r="F114" s="21"/>
@@ -30960,7 +30983,7 @@
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
       <c r="M118" s="76" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="N118" s="4"/>
     </row>
@@ -30979,9 +31002,9 @@
       <c r="J119" s="33"/>
       <c r="K119" s="26"/>
       <c r="L119" s="76" t="s">
-        <v>906</v>
-      </c>
-      <c r="M119" s="34"/>
+        <v>905</v>
+      </c>
+      <c r="M119" s="26"/>
       <c r="N119" s="4"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.4">
@@ -30998,9 +31021,9 @@
       <c r="I120" s="21"/>
       <c r="J120" s="33"/>
       <c r="K120" s="26"/>
-      <c r="L120" s="26"/>
+      <c r="L120" s="34"/>
       <c r="M120" s="76" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N120" s="4"/>
     </row>
@@ -31019,7 +31042,7 @@
       <c r="J121" s="33"/>
       <c r="K121" s="26"/>
       <c r="L121" s="76" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M121" s="34"/>
       <c r="N121" s="4"/>
@@ -31031,11 +31054,11 @@
       <c r="B122" s="33"/>
       <c r="C122" s="26"/>
       <c r="D122" s="26"/>
-      <c r="E122" s="76" t="s">
-        <v>905</v>
-      </c>
-      <c r="F122" s="76" t="s">
-        <v>843</v>
+      <c r="E122" s="74" t="s">
+        <v>906</v>
+      </c>
+      <c r="F122" s="74" t="s">
+        <v>919</v>
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
@@ -31052,17 +31075,17 @@
       </c>
       <c r="B123" s="33"/>
       <c r="C123" s="26"/>
-      <c r="D123" s="74" t="s">
-        <v>906</v>
-      </c>
-      <c r="E123" s="76" t="s">
-        <v>903</v>
-      </c>
-      <c r="F123" s="76" t="s">
-        <v>845</v>
-      </c>
-      <c r="G123" s="74" t="s">
-        <v>919</v>
+      <c r="D123" s="76" t="s">
+        <v>905</v>
+      </c>
+      <c r="E123" s="74" t="s">
+        <v>904</v>
+      </c>
+      <c r="F123" s="74" t="s">
+        <v>920</v>
+      </c>
+      <c r="G123" s="76" t="s">
+        <v>843</v>
       </c>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
@@ -31078,13 +31101,13 @@
       </c>
       <c r="B124" s="33"/>
       <c r="C124" s="26"/>
-      <c r="D124" s="74" t="s">
-        <v>904</v>
+      <c r="D124" s="76" t="s">
+        <v>903</v>
       </c>
       <c r="E124" s="34"/>
       <c r="F124" s="21"/>
-      <c r="G124" s="74" t="s">
-        <v>920</v>
+      <c r="G124" s="76" t="s">
+        <v>845</v>
       </c>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
@@ -31192,9 +31215,9 @@
       <c r="I129" s="21"/>
       <c r="J129" s="33"/>
       <c r="K129" s="26"/>
-      <c r="L129" s="26"/>
+      <c r="L129" s="33"/>
       <c r="M129" s="77" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="N129" s="4"/>
       <c r="P129" s="76" t="s">
@@ -31217,9 +31240,9 @@
       <c r="J130" s="33"/>
       <c r="K130" s="26"/>
       <c r="L130" s="77" t="s">
-        <v>908</v>
-      </c>
-      <c r="M130" s="34"/>
+        <v>909</v>
+      </c>
+      <c r="M130" s="26"/>
       <c r="N130" s="4"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.4">
@@ -31236,9 +31259,9 @@
       <c r="I131" s="21"/>
       <c r="J131" s="33"/>
       <c r="K131" s="26"/>
-      <c r="L131" s="34"/>
+      <c r="L131" s="33"/>
       <c r="M131" s="77" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N131" s="4"/>
     </row>
@@ -31257,9 +31280,9 @@
       <c r="J132" s="33"/>
       <c r="K132" s="26"/>
       <c r="L132" s="77" t="s">
-        <v>910</v>
-      </c>
-      <c r="M132" s="34"/>
+        <v>907</v>
+      </c>
+      <c r="M132" s="26"/>
       <c r="N132" s="4"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.4">
@@ -31274,7 +31297,9 @@
       <c r="G133" s="233"/>
       <c r="H133" s="233"/>
       <c r="I133" s="233"/>
-      <c r="J133" s="218"/>
+      <c r="J133" s="312" t="s">
+        <v>965</v>
+      </c>
       <c r="K133" s="219"/>
       <c r="L133" s="219"/>
       <c r="M133" s="232"/>
@@ -31832,7 +31857,9 @@
       <c r="G163" s="220"/>
       <c r="H163" s="219"/>
       <c r="I163" s="219"/>
-      <c r="J163" s="218"/>
+      <c r="J163" s="231" t="s">
+        <v>966</v>
+      </c>
       <c r="K163" s="219"/>
       <c r="L163" s="230" t="s">
         <v>793</v>
@@ -32225,8 +32252,6 @@
     <row r="185" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B185" s="176"/>
       <c r="C185" s="81"/>
-      <c r="D185" s="81"/>
-      <c r="E185" s="82"/>
       <c r="F185" s="81"/>
       <c r="G185" s="81"/>
       <c r="H185" s="81"/>
@@ -32241,7 +32266,9 @@
       <c r="B186" s="176"/>
       <c r="C186" s="81"/>
       <c r="D186" s="81"/>
-      <c r="E186" s="82"/>
+      <c r="E186" s="78" t="s">
+        <v>247</v>
+      </c>
       <c r="F186" s="81"/>
       <c r="G186" s="81"/>
       <c r="H186" s="81"/>
@@ -32255,8 +32282,12 @@
     <row r="187" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B187" s="176"/>
       <c r="C187" s="81"/>
-      <c r="D187" s="81"/>
-      <c r="E187" s="82"/>
+      <c r="D187" s="77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E187" s="78" t="s">
+        <v>250</v>
+      </c>
       <c r="F187" s="81"/>
       <c r="G187" s="81"/>
       <c r="H187" s="81"/>
@@ -32270,8 +32301,12 @@
     <row r="188" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B188" s="176"/>
       <c r="C188" s="81"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="110"/>
+      <c r="D188" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="E188" s="78" t="s">
+        <v>254</v>
+      </c>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
       <c r="H188" s="81"/>
@@ -32282,6 +32317,12 @@
         <v>556</v>
       </c>
       <c r="M188" s="82"/>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D189" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E189" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -32308,8 +32349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EEE4AC-A0CA-4CB6-8EA7-5A80EBEB6836}">
   <dimension ref="A1:AL108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -32348,17 +32389,17 @@
     <row r="1" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B1" s="260"/>
       <c r="C1" s="260"/>
-      <c r="D1" s="287" t="s">
+      <c r="D1" s="290" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
       <c r="G1" s="42"/>
-      <c r="H1" s="287" t="s">
+      <c r="H1" s="290" t="s">
         <v>958</v>
       </c>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
       <c r="K1" s="42"/>
       <c r="P1" s="55"/>
       <c r="Q1" s="56"/>
@@ -32405,32 +32446,32 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="298" t="s">
+      <c r="D4" s="301" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="298" t="s">
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="301" t="s">
         <v>282</v>
       </c>
-      <c r="I4" s="299"/>
-      <c r="J4" s="299"/>
-      <c r="K4" s="300"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="303"/>
     </row>
     <row r="5" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="280" t="s">
+      <c r="D5" s="283" t="s">
         <v>523</v>
       </c>
-      <c r="E5" s="281"/>
-      <c r="F5" s="281"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="280" t="s">
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="285"/>
+      <c r="H5" s="283" t="s">
         <v>869</v>
       </c>
-      <c r="I5" s="281"/>
-      <c r="J5" s="281"/>
-      <c r="K5" s="282"/>
+      <c r="I5" s="284"/>
+      <c r="J5" s="284"/>
+      <c r="K5" s="285"/>
     </row>
     <row r="6" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="208" t="s">
@@ -32438,44 +32479,44 @@
       </c>
       <c r="B6" s="260"/>
       <c r="C6" s="260"/>
-      <c r="D6" s="283" t="s">
+      <c r="D6" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="285"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="288"/>
       <c r="H6" s="55"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
       <c r="K6" s="57"/>
-      <c r="L6" s="286" t="s">
+      <c r="L6" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="284"/>
-      <c r="N6" s="284"/>
-      <c r="O6" s="284"/>
+      <c r="M6" s="287"/>
+      <c r="N6" s="287"/>
+      <c r="O6" s="287"/>
       <c r="P6" s="55"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
       <c r="S6" s="57"/>
-      <c r="T6" s="309"/>
-      <c r="U6" s="283" t="s">
+      <c r="T6" s="280"/>
+      <c r="U6" s="286" t="s">
         <v>184</v>
       </c>
-      <c r="V6" s="284"/>
-      <c r="W6" s="284"/>
-      <c r="X6" s="285"/>
+      <c r="V6" s="287"/>
+      <c r="W6" s="287"/>
+      <c r="X6" s="288"/>
       <c r="Y6" s="56"/>
       <c r="Z6" s="56"/>
       <c r="AA6" s="56"/>
       <c r="AB6" s="56"/>
       <c r="AC6" s="57"/>
-      <c r="AD6" s="283" t="s">
+      <c r="AD6" s="286" t="s">
         <v>187</v>
       </c>
-      <c r="AE6" s="284"/>
-      <c r="AF6" s="284"/>
-      <c r="AG6" s="285"/>
+      <c r="AE6" s="287"/>
+      <c r="AF6" s="287"/>
+      <c r="AG6" s="288"/>
       <c r="AH6" s="212"/>
       <c r="AI6" s="213"/>
       <c r="AJ6" s="213"/>
@@ -32487,45 +32528,45 @@
         <v>930</v>
       </c>
       <c r="C7" s="261"/>
-      <c r="D7" s="283" t="s">
+      <c r="D7" s="286" t="s">
         <v>619</v>
       </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="283" t="s">
+      <c r="E7" s="287"/>
+      <c r="F7" s="287"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="286" t="s">
         <v>835</v>
       </c>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="283" t="s">
+      <c r="I7" s="287"/>
+      <c r="J7" s="287"/>
+      <c r="K7" s="288"/>
+      <c r="L7" s="286" t="s">
         <v>620</v>
       </c>
-      <c r="M7" s="284"/>
-      <c r="N7" s="284"/>
-      <c r="O7" s="285"/>
-      <c r="P7" s="283"/>
-      <c r="Q7" s="284"/>
-      <c r="R7" s="284"/>
-      <c r="S7" s="285"/>
+      <c r="M7" s="287"/>
+      <c r="N7" s="287"/>
+      <c r="O7" s="288"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="287"/>
+      <c r="R7" s="287"/>
+      <c r="S7" s="288"/>
       <c r="T7" s="147"/>
-      <c r="U7" s="283" t="s">
+      <c r="U7" s="286" t="s">
         <v>791</v>
       </c>
-      <c r="V7" s="284"/>
-      <c r="W7" s="284"/>
-      <c r="X7" s="285"/>
+      <c r="V7" s="287"/>
+      <c r="W7" s="287"/>
+      <c r="X7" s="288"/>
       <c r="AD7" s="215"/>
       <c r="AE7" s="215"/>
       <c r="AF7" s="215"/>
       <c r="AG7" s="216"/>
-      <c r="AH7" s="283" t="s">
+      <c r="AH7" s="286" t="s">
         <v>836</v>
       </c>
-      <c r="AI7" s="284"/>
-      <c r="AJ7" s="284"/>
-      <c r="AK7" s="285"/>
+      <c r="AI7" s="287"/>
+      <c r="AJ7" s="287"/>
+      <c r="AK7" s="288"/>
     </row>
     <row r="8" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="208">

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9C1CBA-BE1D-43E4-AF86-5732680C5869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CFAB2D-38A2-48A5-BD81-67A3EE7D8EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="6" activeTab="9" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="43080" yWindow="5970" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4727" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="1043">
   <si>
     <t>预测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2761,10 +2761,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AGD_en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>en</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3390,10 +3386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addr(4,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>addr(4,1)-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3402,22 +3394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addr(4,1)=addr(7,0)+4=5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr(4,2)=addr(7,0)+5=6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr(4,3)=addr(7,0)+6=7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr(4,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>addr(4,2)-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3638,6 +3614,95 @@
   </si>
   <si>
     <t>=5+N+2+ADDER2_NEW+4=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE_BANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAM_BANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(15,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addrb_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(12,1)=cov(15,1)+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(4,1)=addr(7,1)+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(4,2)=addr(7,2)+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(4,3)=addr(7,3)+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(12,1)=addr(15,1)+3</t>
+  </si>
+  <si>
+    <t>addr(12,2)=addr(15,2)+3</t>
+  </si>
+  <si>
+    <t>addr(12,3)=addr(15,3)+3</t>
+  </si>
+  <si>
+    <t>cov(13,1)=cov(12,1)-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(14,1)=cov(15,1)+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(15,1)=cov(14,1)-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr(8,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(9,1)=cov(8,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(10,1)=cov(8,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov(11,1)=cov(10,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4087,7 +4152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="334">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5009,6 +5074,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5039,6 +5125,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5047,9 +5136,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5088,6 +5174,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5414,11 +5509,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="303" t="s">
+      <c r="W1" s="310" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="303"/>
-      <c r="Y1" s="303"/>
+      <c r="X1" s="310"/>
+      <c r="Y1" s="310"/>
       <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5433,11 +5528,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="303" t="s">
+      <c r="W3" s="310" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="303"/>
-      <c r="Y3" s="303"/>
+      <c r="X3" s="310"/>
+      <c r="Y3" s="310"/>
       <c r="Z3" s="24" t="s">
         <v>55</v>
       </c>
@@ -6191,11 +6286,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EEE4AC-A0CA-4CB6-8EA7-5A80EBEB6836}">
   <dimension ref="A1:AW108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="W21" sqref="W21:X46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6234,35 +6329,35 @@
     <row r="1" spans="1:37" x14ac:dyDescent="0.4">
       <c r="B1" s="258"/>
       <c r="C1" s="258"/>
-      <c r="D1" s="311" t="s">
+      <c r="D1" s="318" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
       <c r="G1" s="42"/>
-      <c r="H1" s="311" t="s">
-        <v>947</v>
-      </c>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
+      <c r="H1" s="318" t="s">
+        <v>946</v>
+      </c>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
       <c r="K1" s="42"/>
-      <c r="L1" s="311" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
+      <c r="L1" s="318" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
       <c r="O1" s="42"/>
-      <c r="P1" s="311" t="s">
-        <v>1017</v>
-      </c>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="312"/>
+      <c r="P1" s="318" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q1" s="319"/>
+      <c r="R1" s="319"/>
       <c r="S1" s="42"/>
-      <c r="U1" s="311" t="s">
-        <v>1018</v>
-      </c>
-      <c r="V1" s="312"/>
-      <c r="W1" s="312"/>
+      <c r="U1" s="318" t="s">
+        <v>1012</v>
+      </c>
+      <c r="V1" s="319"/>
+      <c r="W1" s="319"/>
       <c r="X1" s="63"/>
       <c r="Y1" s="55"/>
       <c r="Z1" s="56"/>
@@ -6284,7 +6379,7 @@
         <v>259</v>
       </c>
       <c r="J2" s="266" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K2" s="43"/>
       <c r="L2" s="284"/>
@@ -6292,23 +6387,23 @@
         <v>259</v>
       </c>
       <c r="N2" s="285" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O2" s="43"/>
       <c r="P2" s="284"/>
       <c r="Q2" s="285" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="R2" s="285" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="S2" s="43"/>
       <c r="U2" s="284"/>
       <c r="V2" s="285" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="W2" s="285" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="X2" s="59"/>
     </row>
@@ -6363,68 +6458,68 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="322" t="s">
+      <c r="D4" s="329" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="323"/>
-      <c r="F4" s="323"/>
-      <c r="G4" s="324"/>
-      <c r="H4" s="322" t="s">
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="331"/>
+      <c r="H4" s="329" t="s">
         <v>282</v>
       </c>
-      <c r="I4" s="323"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="324"/>
-      <c r="L4" s="322" t="s">
-        <v>862</v>
-      </c>
-      <c r="M4" s="323"/>
-      <c r="N4" s="323"/>
-      <c r="O4" s="324"/>
-      <c r="P4" s="322" t="s">
-        <v>862</v>
-      </c>
-      <c r="Q4" s="323"/>
-      <c r="R4" s="323"/>
-      <c r="S4" s="324"/>
-      <c r="U4" s="322" t="s">
-        <v>862</v>
-      </c>
-      <c r="V4" s="323"/>
-      <c r="W4" s="323"/>
-      <c r="X4" s="324"/>
+      <c r="I4" s="330"/>
+      <c r="J4" s="330"/>
+      <c r="K4" s="331"/>
+      <c r="L4" s="329" t="s">
+        <v>861</v>
+      </c>
+      <c r="M4" s="330"/>
+      <c r="N4" s="330"/>
+      <c r="O4" s="331"/>
+      <c r="P4" s="329" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q4" s="330"/>
+      <c r="R4" s="330"/>
+      <c r="S4" s="331"/>
+      <c r="U4" s="329" t="s">
+        <v>861</v>
+      </c>
+      <c r="V4" s="330"/>
+      <c r="W4" s="330"/>
+      <c r="X4" s="331"/>
     </row>
     <row r="5" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="304" t="s">
+      <c r="D5" s="311" t="s">
         <v>523</v>
       </c>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="304" t="s">
-        <v>858</v>
-      </c>
-      <c r="I5" s="305"/>
-      <c r="J5" s="305"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="304" t="s">
-        <v>858</v>
-      </c>
-      <c r="M5" s="305"/>
-      <c r="N5" s="305"/>
-      <c r="O5" s="306"/>
-      <c r="P5" s="304" t="s">
-        <v>901</v>
-      </c>
-      <c r="Q5" s="305"/>
-      <c r="R5" s="305"/>
-      <c r="S5" s="306"/>
-      <c r="U5" s="304" t="s">
-        <v>901</v>
-      </c>
-      <c r="V5" s="305"/>
-      <c r="W5" s="305"/>
-      <c r="X5" s="306"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="311" t="s">
+        <v>857</v>
+      </c>
+      <c r="I5" s="312"/>
+      <c r="J5" s="312"/>
+      <c r="K5" s="313"/>
+      <c r="L5" s="311" t="s">
+        <v>857</v>
+      </c>
+      <c r="M5" s="312"/>
+      <c r="N5" s="312"/>
+      <c r="O5" s="313"/>
+      <c r="P5" s="311" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q5" s="312"/>
+      <c r="R5" s="312"/>
+      <c r="S5" s="313"/>
+      <c r="U5" s="311" t="s">
+        <v>900</v>
+      </c>
+      <c r="V5" s="312"/>
+      <c r="W5" s="312"/>
+      <c r="X5" s="313"/>
     </row>
     <row r="6" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="206" t="s">
@@ -6432,44 +6527,44 @@
       </c>
       <c r="B6" s="258"/>
       <c r="C6" s="258"/>
-      <c r="D6" s="307" t="s">
+      <c r="D6" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="308"/>
-      <c r="F6" s="308"/>
-      <c r="G6" s="309"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="316"/>
       <c r="H6" s="55"/>
       <c r="I6" s="56"/>
       <c r="J6" s="56"/>
       <c r="K6" s="57"/>
-      <c r="L6" s="310" t="s">
+      <c r="L6" s="317" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="308"/>
-      <c r="N6" s="308"/>
-      <c r="O6" s="308"/>
+      <c r="M6" s="315"/>
+      <c r="N6" s="315"/>
+      <c r="O6" s="315"/>
       <c r="P6" s="55"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
       <c r="S6" s="57"/>
       <c r="T6" s="278"/>
-      <c r="U6" s="307" t="s">
+      <c r="U6" s="314" t="s">
         <v>184</v>
       </c>
-      <c r="V6" s="308"/>
-      <c r="W6" s="308"/>
-      <c r="X6" s="309"/>
+      <c r="V6" s="315"/>
+      <c r="W6" s="315"/>
+      <c r="X6" s="316"/>
       <c r="Y6" s="55"/>
       <c r="Z6" s="56"/>
       <c r="AA6" s="56"/>
       <c r="AB6" s="56"/>
       <c r="AC6" s="57"/>
-      <c r="AD6" s="307" t="s">
+      <c r="AD6" s="314" t="s">
         <v>187</v>
       </c>
-      <c r="AE6" s="308"/>
-      <c r="AF6" s="308"/>
-      <c r="AG6" s="309"/>
+      <c r="AE6" s="315"/>
+      <c r="AF6" s="315"/>
+      <c r="AG6" s="316"/>
       <c r="AH6" s="210"/>
       <c r="AI6" s="211"/>
       <c r="AJ6" s="211"/>
@@ -6478,38 +6573,38 @@
     <row r="7" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="206"/>
       <c r="B7" s="259" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C7" s="259"/>
-      <c r="D7" s="307" t="s">
+      <c r="D7" s="314" t="s">
         <v>619</v>
       </c>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="307" t="s">
-        <v>824</v>
-      </c>
-      <c r="I7" s="308"/>
-      <c r="J7" s="308"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="307" t="s">
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="314" t="s">
+        <v>823</v>
+      </c>
+      <c r="I7" s="315"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="314" t="s">
         <v>620</v>
       </c>
-      <c r="M7" s="308"/>
-      <c r="N7" s="308"/>
-      <c r="O7" s="309"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="308"/>
-      <c r="R7" s="308"/>
-      <c r="S7" s="309"/>
+      <c r="M7" s="315"/>
+      <c r="N7" s="315"/>
+      <c r="O7" s="316"/>
+      <c r="P7" s="314"/>
+      <c r="Q7" s="315"/>
+      <c r="R7" s="315"/>
+      <c r="S7" s="316"/>
       <c r="T7" s="147"/>
-      <c r="U7" s="307" t="s">
-        <v>1016</v>
-      </c>
-      <c r="V7" s="308"/>
-      <c r="W7" s="308"/>
-      <c r="X7" s="309"/>
+      <c r="U7" s="314" t="s">
+        <v>1010</v>
+      </c>
+      <c r="V7" s="315"/>
+      <c r="W7" s="315"/>
+      <c r="X7" s="316"/>
       <c r="Y7" s="299"/>
       <c r="Z7" s="28"/>
       <c r="AA7" s="28"/>
@@ -6519,19 +6614,19 @@
       <c r="AE7" s="213"/>
       <c r="AF7" s="213"/>
       <c r="AG7" s="214"/>
-      <c r="AH7" s="307" t="s">
-        <v>825</v>
-      </c>
-      <c r="AI7" s="308"/>
-      <c r="AJ7" s="308"/>
-      <c r="AK7" s="309"/>
+      <c r="AH7" s="314" t="s">
+        <v>824</v>
+      </c>
+      <c r="AI7" s="315"/>
+      <c r="AJ7" s="315"/>
+      <c r="AK7" s="316"/>
     </row>
     <row r="8" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="206">
         <v>0</v>
       </c>
       <c r="B8" s="260" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C8" s="260"/>
       <c r="D8" s="44" t="s">
@@ -6596,19 +6691,19 @@
         <v>185</v>
       </c>
       <c r="Y8" s="296" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AA8" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AB8" s="113" t="s">
+        <v>814</v>
+      </c>
+      <c r="AC8" s="232" t="s">
         <v>815</v>
-      </c>
-      <c r="AC8" s="232" t="s">
-        <v>816</v>
       </c>
       <c r="AD8" s="287" t="s">
         <v>191</v>
@@ -6629,7 +6724,7 @@
         <v>647</v>
       </c>
       <c r="AJ8" s="213" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AK8" s="214" t="s">
         <v>648</v>
@@ -6647,22 +6742,22 @@
       <c r="E9" s="285"/>
       <c r="F9" s="285"/>
       <c r="G9" s="286"/>
-      <c r="H9" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I9" s="326"/>
-      <c r="J9" s="326"/>
-      <c r="K9" s="326"/>
+      <c r="H9" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I9" s="333"/>
+      <c r="J9" s="333"/>
+      <c r="K9" s="333"/>
       <c r="L9" s="285"/>
       <c r="M9" s="285"/>
       <c r="N9" s="285"/>
       <c r="O9" s="285"/>
-      <c r="P9" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="Q9" s="326"/>
-      <c r="R9" s="326"/>
-      <c r="S9" s="326"/>
+      <c r="P9" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q9" s="333"/>
+      <c r="R9" s="333"/>
+      <c r="S9" s="333"/>
       <c r="U9" s="284"/>
       <c r="V9" s="285"/>
       <c r="W9" s="285"/>
@@ -6719,13 +6814,13 @@
       <c r="U10" s="229"/>
       <c r="V10" s="218"/>
       <c r="W10" s="228" t="s">
+        <v>783</v>
+      </c>
+      <c r="X10" s="302" t="s">
         <v>784</v>
       </c>
-      <c r="X10" s="302" t="s">
-        <v>785</v>
-      </c>
       <c r="Z10" s="26" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AA10" s="26">
         <v>0</v>
@@ -6734,13 +6829,13 @@
         <v>1</v>
       </c>
       <c r="AH10" s="239" t="s">
+        <v>825</v>
+      </c>
+      <c r="AI10" s="240" t="s">
+        <v>825</v>
+      </c>
+      <c r="AJ10" s="240" t="s">
         <v>826</v>
-      </c>
-      <c r="AI10" s="240" t="s">
-        <v>826</v>
-      </c>
-      <c r="AJ10" s="240" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -6799,7 +6894,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="261" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C14" s="261"/>
       <c r="D14" s="176"/>
@@ -6815,16 +6910,16 @@
       <c r="N14" s="26"/>
       <c r="O14" s="21"/>
       <c r="P14" s="234" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Q14" s="237" t="s">
+        <v>814</v>
+      </c>
+      <c r="R14" s="237" t="s">
         <v>815</v>
       </c>
-      <c r="R14" s="237" t="s">
-        <v>816</v>
-      </c>
       <c r="S14" s="238" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U14" s="176"/>
       <c r="V14" s="81"/>
@@ -6845,12 +6940,12 @@
       <c r="G15" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="H15" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I15" s="326"/>
-      <c r="J15" s="326"/>
-      <c r="K15" s="326"/>
+      <c r="H15" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I15" s="333"/>
+      <c r="J15" s="333"/>
+      <c r="K15" s="333"/>
       <c r="L15" s="74" t="s">
         <v>155</v>
       </c>
@@ -6859,14 +6954,14 @@
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="Q15" s="326"/>
-      <c r="R15" s="326"/>
-      <c r="S15" s="326"/>
+      <c r="P15" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q15" s="333"/>
+      <c r="R15" s="333"/>
+      <c r="S15" s="333"/>
       <c r="T15" s="81" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="U15" s="176"/>
       <c r="V15" s="81"/>
@@ -6997,7 +7092,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="L19" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U19" s="114"/>
       <c r="V19" s="12"/>
@@ -7023,7 +7118,7 @@
         <v>234</v>
       </c>
       <c r="M20" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="N20" s="26"/>
       <c r="U20" s="114"/>
@@ -7054,7 +7149,7 @@
         <v>235</v>
       </c>
       <c r="N21" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="U21" s="114"/>
       <c r="V21" s="12"/>
@@ -7089,7 +7184,7 @@
         <v>237</v>
       </c>
       <c r="O22" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="U22" s="114"/>
       <c r="V22" s="12"/>
@@ -7112,12 +7207,12 @@
         <v>577</v>
       </c>
       <c r="G23" s="34"/>
-      <c r="H23" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I23" s="326"/>
-      <c r="J23" s="326"/>
-      <c r="K23" s="326"/>
+      <c r="H23" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I23" s="333"/>
+      <c r="J23" s="333"/>
+      <c r="K23" s="333"/>
       <c r="M23" s="78" t="s">
         <v>242</v>
       </c>
@@ -7127,12 +7222,12 @@
       <c r="O23" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="P23" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="Q23" s="326"/>
-      <c r="R23" s="326"/>
-      <c r="S23" s="326"/>
+      <c r="P23" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q23" s="333"/>
+      <c r="R23" s="333"/>
+      <c r="S23" s="333"/>
       <c r="U23" s="114"/>
       <c r="V23" s="12"/>
       <c r="W23" s="34"/>
@@ -7171,7 +7266,7 @@
         <v>470</v>
       </c>
       <c r="AW24" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -7235,7 +7330,7 @@
         <v>5</v>
       </c>
       <c r="L27" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="U27" s="114"/>
       <c r="V27" s="12"/>
@@ -7259,7 +7354,7 @@
         <v>252</v>
       </c>
       <c r="M28" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N28" s="26"/>
       <c r="U28" s="114"/>
@@ -7292,7 +7387,7 @@
         <v>249</v>
       </c>
       <c r="N29" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="U29" s="114"/>
       <c r="V29" s="12"/>
@@ -7328,7 +7423,7 @@
         <v>247</v>
       </c>
       <c r="O30" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U30" s="114"/>
       <c r="V30" s="12"/>
@@ -7350,12 +7445,12 @@
       <c r="F31" s="73" t="s">
         <v>577</v>
       </c>
-      <c r="H31" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I31" s="326"/>
-      <c r="J31" s="326"/>
-      <c r="K31" s="326"/>
+      <c r="H31" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I31" s="333"/>
+      <c r="J31" s="333"/>
+      <c r="K31" s="333"/>
       <c r="M31" s="78" t="s">
         <v>256</v>
       </c>
@@ -7365,12 +7460,12 @@
       <c r="O31" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="P31" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="Q31" s="326"/>
-      <c r="R31" s="326"/>
-      <c r="S31" s="326"/>
+      <c r="P31" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q31" s="333"/>
+      <c r="R31" s="333"/>
+      <c r="S31" s="333"/>
       <c r="U31" s="176"/>
       <c r="V31" s="81"/>
       <c r="W31" s="34"/>
@@ -7476,7 +7571,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="110"/>
       <c r="L35" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M35" s="81"/>
       <c r="N35" s="81"/>
@@ -7503,7 +7598,7 @@
         <v>463</v>
       </c>
       <c r="M36" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O36" s="26"/>
       <c r="U36" s="176"/>
@@ -7548,7 +7643,7 @@
         <v>166</v>
       </c>
       <c r="B38" s="261" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F38" s="73" t="s">
         <v>575</v>
@@ -7580,24 +7675,24 @@
       <c r="F39" s="73" t="s">
         <v>577</v>
       </c>
-      <c r="H39" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I39" s="326"/>
-      <c r="J39" s="326"/>
-      <c r="K39" s="326"/>
+      <c r="H39" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I39" s="333"/>
+      <c r="J39" s="333"/>
+      <c r="K39" s="333"/>
       <c r="L39" s="12"/>
       <c r="M39" s="78" t="s">
         <v>467</v>
       </c>
       <c r="N39" s="81"/>
       <c r="O39" s="81"/>
-      <c r="P39" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="Q39" s="326"/>
-      <c r="R39" s="326"/>
-      <c r="S39" s="326"/>
+      <c r="P39" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q39" s="333"/>
+      <c r="R39" s="333"/>
+      <c r="S39" s="333"/>
       <c r="U39" s="176"/>
       <c r="V39" s="81"/>
       <c r="W39" s="6"/>
@@ -7729,7 +7824,7 @@
         <v>336</v>
       </c>
       <c r="B46" s="261" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F46" s="78" t="s">
         <v>472</v>
@@ -7755,12 +7850,12 @@
         <v>473</v>
       </c>
       <c r="G47" s="82"/>
-      <c r="H47" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I47" s="326"/>
-      <c r="J47" s="326"/>
-      <c r="K47" s="326"/>
+      <c r="H47" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I47" s="333"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="333"/>
       <c r="L47" s="81"/>
       <c r="M47" s="73" t="s">
         <v>577</v>
@@ -7771,10 +7866,10 @@
         <v>338</v>
       </c>
       <c r="K48" s="74" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="S48" s="80" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.4">
@@ -7782,10 +7877,10 @@
         <v>339</v>
       </c>
       <c r="K49" s="74" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="S49" s="80" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.4">
@@ -7803,7 +7898,7 @@
       <c r="M51" s="21"/>
       <c r="W51" s="26"/>
       <c r="X51" s="74" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.4">
@@ -7812,14 +7907,14 @@
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="76" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L52" s="80" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M52" s="21"/>
       <c r="W52" s="76" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="X52" s="26"/>
     </row>
@@ -7828,20 +7923,20 @@
         <v>343</v>
       </c>
       <c r="F53" s="76" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G53" s="76" t="s">
+        <v>835</v>
+      </c>
+      <c r="L53" s="80" t="s">
+        <v>839</v>
+      </c>
+      <c r="M53" s="80" t="s">
         <v>836</v>
-      </c>
-      <c r="L53" s="80" t="s">
-        <v>840</v>
-      </c>
-      <c r="M53" s="80" t="s">
-        <v>837</v>
       </c>
       <c r="W53" s="34"/>
       <c r="X53" s="74" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.4">
@@ -7849,15 +7944,15 @@
         <v>344</v>
       </c>
       <c r="F54" s="76" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G54" s="34"/>
       <c r="L54" s="21"/>
       <c r="M54" s="80" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="W54" s="76" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="X54" s="26"/>
     </row>
@@ -7899,25 +7994,25 @@
         <v>348</v>
       </c>
       <c r="B58" s="261" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="W58" s="26"/>
       <c r="X58" s="74" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A59" s="206" t="s">
         <v>349</v>
       </c>
-      <c r="H59" s="325" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I59" s="326"/>
-      <c r="J59" s="326"/>
-      <c r="K59" s="326"/>
+      <c r="H59" s="332" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I59" s="333"/>
+      <c r="J59" s="333"/>
+      <c r="K59" s="333"/>
       <c r="W59" s="76" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="X59" s="26"/>
     </row>
@@ -7928,16 +8023,16 @@
       <c r="F60" s="26"/>
       <c r="G60" s="34"/>
       <c r="K60" s="74" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
       <c r="S60" s="74" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="W60" s="34"/>
       <c r="X60" s="74" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.4">
@@ -7948,15 +8043,15 @@
       <c r="G61" s="34"/>
       <c r="J61" s="82"/>
       <c r="K61" s="74" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
       <c r="S61" s="74" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="W61" s="76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="X61" s="26"/>
     </row>
@@ -7989,10 +8084,10 @@
       </c>
       <c r="F64" s="26"/>
       <c r="G64" s="76" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L64" s="74" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M64" s="21"/>
       <c r="W64" s="26"/>
@@ -8003,16 +8098,16 @@
         <v>355</v>
       </c>
       <c r="F65" s="76" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G65" s="76" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L65" s="74" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M65" s="76" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="W65" s="26"/>
       <c r="X65" s="26"/>
@@ -8022,18 +8117,18 @@
         <v>356</v>
       </c>
       <c r="F66" s="76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G66" s="34"/>
       <c r="L66" s="21"/>
       <c r="M66" s="76" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="W66" s="26"/>
       <c r="X66" s="26"/>
       <c r="AF66" s="26"/>
       <c r="AG66" s="76" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.4">
@@ -8043,7 +8138,7 @@
       <c r="W67" s="26"/>
       <c r="X67" s="26"/>
       <c r="AF67" s="76" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AG67" s="34"/>
     </row>
@@ -8055,7 +8150,7 @@
       <c r="X68" s="26"/>
       <c r="AF68" s="34"/>
       <c r="AG68" s="76" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
@@ -8063,7 +8158,7 @@
         <v>359</v>
       </c>
       <c r="AF69" s="76" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AG69" s="34"/>
     </row>
@@ -8073,7 +8168,7 @@
       </c>
       <c r="W70" s="33"/>
       <c r="X70" s="78" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.4">
@@ -8081,7 +8176,7 @@
         <v>361</v>
       </c>
       <c r="W71" s="77" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="X71" s="26"/>
     </row>
@@ -8091,7 +8186,7 @@
       </c>
       <c r="W72" s="33"/>
       <c r="X72" s="78" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.4">
@@ -8099,7 +8194,7 @@
         <v>363</v>
       </c>
       <c r="W73" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="X73" s="26"/>
     </row>
@@ -8280,30 +8375,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P15:S15"/>
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="P1:R1"/>
@@ -8317,6 +8388,30 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="H39:K39"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8351,57 +8446,57 @@
       <c r="A1" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="307" t="s">
+      <c r="B1" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="310" t="s">
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="317" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="307" t="s">
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="314" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="307" t="s">
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="314" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="308"/>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="309"/>
-      <c r="R1" s="311" t="s">
+      <c r="O1" s="315"/>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="316"/>
+      <c r="R1" s="318" t="s">
         <v>258</v>
       </c>
-      <c r="S1" s="312"/>
-      <c r="T1" s="312"/>
+      <c r="S1" s="319"/>
+      <c r="T1" s="319"/>
       <c r="U1" s="42"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="220"/>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="314" t="s">
         <v>619</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="309"/>
-      <c r="F2" s="307" t="s">
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="314" t="s">
         <v>620</v>
       </c>
-      <c r="G2" s="308"/>
-      <c r="H2" s="308"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="307" t="s">
-        <v>780</v>
-      </c>
-      <c r="K2" s="308"/>
-      <c r="L2" s="308"/>
-      <c r="M2" s="309"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="314" t="s">
+        <v>779</v>
+      </c>
+      <c r="K2" s="315"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="316"/>
       <c r="N2" s="44"/>
       <c r="O2" s="224"/>
       <c r="P2" s="224"/>
@@ -8411,7 +8506,7 @@
         <v>259</v>
       </c>
       <c r="T2" s="222" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="U2" s="43"/>
     </row>
@@ -8491,21 +8586,21 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="L4" s="228" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M4" s="228" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="34"/>
-      <c r="R4" s="322" t="s">
+      <c r="R4" s="329" t="s">
         <v>282</v>
       </c>
-      <c r="S4" s="323"/>
-      <c r="T4" s="323"/>
-      <c r="U4" s="324"/>
+      <c r="S4" s="330"/>
+      <c r="T4" s="330"/>
+      <c r="U4" s="331"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="220" t="s">
@@ -8528,12 +8623,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="304" t="s">
-        <v>858</v>
-      </c>
-      <c r="S5" s="305"/>
-      <c r="T5" s="305"/>
-      <c r="U5" s="306"/>
+      <c r="R5" s="311" t="s">
+        <v>857</v>
+      </c>
+      <c r="S5" s="312"/>
+      <c r="T5" s="312"/>
+      <c r="U5" s="313"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="220" t="s">
@@ -8599,7 +8694,7 @@
       </c>
       <c r="D9" s="34"/>
       <c r="F9" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N9" s="33"/>
       <c r="O9" s="26"/>
@@ -8618,7 +8713,7 @@
         <v>234</v>
       </c>
       <c r="G10" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H10" s="26"/>
       <c r="N10" s="33"/>
@@ -8643,7 +8738,7 @@
         <v>235</v>
       </c>
       <c r="H11" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M11" s="34" t="s">
         <v>252</v>
@@ -8673,7 +8768,7 @@
         <v>237</v>
       </c>
       <c r="I12" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L12" s="34" t="s">
         <v>249</v>
@@ -8894,7 +8989,7 @@
       <c r="J24" s="176"/>
       <c r="K24" s="81"/>
       <c r="L24" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="N24" s="33"/>
       <c r="O24" s="26"/>
@@ -9159,7 +9254,7 @@
       <c r="D39" s="81"/>
       <c r="E39" s="82"/>
       <c r="F39" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -9175,7 +9270,7 @@
         <v>234</v>
       </c>
       <c r="G40" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H40" s="26"/>
     </row>
@@ -9198,7 +9293,7 @@
         <v>235</v>
       </c>
       <c r="H41" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K41" s="34" t="s">
         <v>247</v>
@@ -9226,7 +9321,7 @@
         <v>237</v>
       </c>
       <c r="I42" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J42" s="182" t="s">
         <v>246</v>
@@ -9284,7 +9379,7 @@
       <c r="D45" s="81"/>
       <c r="E45" s="82"/>
       <c r="F45" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G45" s="81"/>
       <c r="H45" s="81"/>
@@ -9309,7 +9404,7 @@
         <v>252</v>
       </c>
       <c r="G46" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H46" s="26"/>
       <c r="J46" s="182" t="s">
@@ -9722,7 +9817,7 @@
       <c r="D69" s="81"/>
       <c r="E69" s="82"/>
       <c r="F69" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J69" s="176"/>
       <c r="K69" s="81"/>
@@ -9742,7 +9837,7 @@
         <v>234</v>
       </c>
       <c r="G70" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H70" s="26"/>
       <c r="J70" s="176"/>
@@ -9769,7 +9864,7 @@
         <v>235</v>
       </c>
       <c r="H71" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J71" s="176"/>
       <c r="K71" s="34" t="s">
@@ -9798,7 +9893,7 @@
         <v>237</v>
       </c>
       <c r="I72" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J72" s="182" t="s">
         <v>463</v>
@@ -9852,7 +9947,7 @@
       <c r="D75" s="81"/>
       <c r="E75" s="82"/>
       <c r="F75" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G75" s="81"/>
       <c r="H75" s="81"/>
@@ -9877,7 +9972,7 @@
         <v>252</v>
       </c>
       <c r="G76" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H76" s="26"/>
       <c r="J76" s="182" t="s">
@@ -9903,7 +9998,7 @@
         <v>249</v>
       </c>
       <c r="H77" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J77" s="182"/>
       <c r="K77" s="34" t="s">
@@ -9932,7 +10027,7 @@
         <v>247</v>
       </c>
       <c r="I78" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J78" s="182" t="s">
         <v>720</v>
@@ -10203,11 +10298,11 @@
       <c r="K93" s="218"/>
       <c r="L93" s="228"/>
       <c r="M93" s="228"/>
-      <c r="R93" s="311" t="s">
+      <c r="R93" s="318" t="s">
         <v>258</v>
       </c>
-      <c r="S93" s="312"/>
-      <c r="T93" s="312"/>
+      <c r="S93" s="319"/>
+      <c r="T93" s="319"/>
       <c r="U93" s="42"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -10296,12 +10391,12 @@
       <c r="K96" s="81"/>
       <c r="L96" s="81"/>
       <c r="M96" s="82"/>
-      <c r="R96" s="322" t="s">
+      <c r="R96" s="329" t="s">
         <v>54</v>
       </c>
-      <c r="S96" s="327"/>
-      <c r="T96" s="327"/>
-      <c r="U96" s="328"/>
+      <c r="S96" s="334"/>
+      <c r="T96" s="334"/>
+      <c r="U96" s="335"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="220" t="s">
@@ -10323,12 +10418,12 @@
       <c r="K97" s="81"/>
       <c r="L97" s="81"/>
       <c r="M97" s="82"/>
-      <c r="R97" s="311" t="s">
-        <v>858</v>
-      </c>
-      <c r="S97" s="312"/>
-      <c r="T97" s="312"/>
-      <c r="U97" s="313"/>
+      <c r="R97" s="318" t="s">
+        <v>857</v>
+      </c>
+      <c r="S97" s="319"/>
+      <c r="T97" s="319"/>
+      <c r="U97" s="320"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="220" t="s">
@@ -10353,7 +10448,7 @@
       <c r="B99" s="176"/>
       <c r="C99" s="81"/>
       <c r="F99" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J99" s="176"/>
       <c r="K99" s="81"/>
@@ -10373,18 +10468,18 @@
         <v>234</v>
       </c>
       <c r="G100" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H100" s="26"/>
       <c r="J100" s="176"/>
       <c r="K100" s="81"/>
       <c r="L100" s="81"/>
       <c r="M100" s="82"/>
-      <c r="R100" s="311" t="s">
-        <v>859</v>
-      </c>
-      <c r="S100" s="312"/>
-      <c r="T100" s="312"/>
+      <c r="R100" s="318" t="s">
+        <v>858</v>
+      </c>
+      <c r="S100" s="319"/>
+      <c r="T100" s="319"/>
       <c r="U100" s="42"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -10404,7 +10499,7 @@
         <v>235</v>
       </c>
       <c r="H101" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J101" s="176"/>
       <c r="K101" s="81"/>
@@ -10416,7 +10511,7 @@
         <v>259</v>
       </c>
       <c r="T101" s="222" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="U101" s="43"/>
     </row>
@@ -10440,7 +10535,7 @@
         <v>237</v>
       </c>
       <c r="I102" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J102" s="176"/>
       <c r="K102" s="81"/>
@@ -10480,12 +10575,12 @@
       <c r="M103" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="R103" s="322" t="s">
+      <c r="R103" s="329" t="s">
         <v>282</v>
       </c>
-      <c r="S103" s="327"/>
-      <c r="T103" s="327"/>
-      <c r="U103" s="328"/>
+      <c r="S103" s="334"/>
+      <c r="T103" s="334"/>
+      <c r="U103" s="335"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="220" t="s">
@@ -10502,12 +10597,12 @@
       <c r="L104" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="R104" s="311" t="s">
-        <v>858</v>
-      </c>
-      <c r="S104" s="312"/>
-      <c r="T104" s="312"/>
-      <c r="U104" s="313"/>
+      <c r="R104" s="318" t="s">
+        <v>857</v>
+      </c>
+      <c r="S104" s="319"/>
+      <c r="T104" s="319"/>
+      <c r="U104" s="320"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="220" t="s">
@@ -10538,7 +10633,7 @@
         <v>605</v>
       </c>
       <c r="F107" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G107" s="81"/>
       <c r="H107" s="81"/>
@@ -10550,7 +10645,7 @@
     </row>
     <row r="108" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="220" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E108" s="73" t="s">
         <v>573</v>
@@ -10559,7 +10654,7 @@
         <v>252</v>
       </c>
       <c r="G108" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H108" s="26"/>
       <c r="J108" s="176"/>
@@ -10570,7 +10665,7 @@
     </row>
     <row r="109" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="220" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D109" s="75" t="s">
         <v>574</v>
@@ -10585,7 +10680,7 @@
         <v>249</v>
       </c>
       <c r="H109" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J109" s="176"/>
       <c r="K109" s="81"/>
@@ -10596,7 +10691,7 @@
     </row>
     <row r="110" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="220" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D110" s="75" t="s">
         <v>576</v>
@@ -10614,7 +10709,7 @@
         <v>247</v>
       </c>
       <c r="I110" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J110" s="176"/>
       <c r="K110" s="81"/>
@@ -10624,7 +10719,7 @@
     </row>
     <row r="111" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="220" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D111" s="75" t="s">
         <v>578</v>
@@ -10647,7 +10742,7 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A112" s="220" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D112" s="81"/>
       <c r="E112" s="82"/>
@@ -10667,7 +10762,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A113" s="220" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I113" s="78" t="s">
         <v>251</v>
@@ -10681,7 +10776,7 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A114" s="220" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J114" s="176"/>
       <c r="K114" s="81"/>
@@ -10691,12 +10786,12 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A115" s="220" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D115" s="81"/>
       <c r="E115" s="82"/>
       <c r="F115" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G115" s="81"/>
       <c r="J115" s="176"/>
@@ -10707,7 +10802,7 @@
     </row>
     <row r="116" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="220" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E116" s="73" t="s">
         <v>573</v>
@@ -10716,7 +10811,7 @@
         <v>463</v>
       </c>
       <c r="G116" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H116" s="81"/>
       <c r="I116" s="81"/>
@@ -10728,7 +10823,7 @@
     </row>
     <row r="117" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="220" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D117" s="75" t="s">
         <v>574</v>
@@ -10753,7 +10848,7 @@
     </row>
     <row r="118" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="220" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D118" s="75" t="s">
         <v>576</v>
@@ -10776,7 +10871,7 @@
     </row>
     <row r="119" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="220" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D119" s="75" t="s">
         <v>578</v>
@@ -10793,7 +10888,7 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A120" s="220" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D120" s="81"/>
       <c r="E120" s="82"/>
@@ -10807,7 +10902,7 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A121" s="220" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D121" s="81"/>
       <c r="E121" s="82"/>
@@ -10822,7 +10917,7 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A122" s="220" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H122" s="81"/>
       <c r="I122" s="81"/>
@@ -10834,7 +10929,7 @@
     </row>
     <row r="123" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="220" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I123" s="81"/>
       <c r="M123" s="34" t="s">
@@ -10843,11 +10938,11 @@
     </row>
     <row r="124" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="220" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D124" s="81"/>
       <c r="E124" s="77" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F124" s="73" t="s">
         <v>573</v>
@@ -10857,19 +10952,19 @@
       <c r="L124" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="R124" s="311" t="s">
-        <v>870</v>
-      </c>
-      <c r="S124" s="312"/>
-      <c r="T124" s="312"/>
-      <c r="U124" s="313"/>
+      <c r="R124" s="318" t="s">
+        <v>869</v>
+      </c>
+      <c r="S124" s="319"/>
+      <c r="T124" s="319"/>
+      <c r="U124" s="320"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="220" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D125" s="78" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E125" s="77" t="s">
         <v>472</v>
@@ -10890,13 +10985,13 @@
         <v>259</v>
       </c>
       <c r="T125" s="222" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="U125" s="43"/>
     </row>
     <row r="126" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="220" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D126" s="78" t="s">
         <v>469</v>
@@ -10928,7 +11023,7 @@
     </row>
     <row r="127" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="220" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D127" s="78" t="s">
         <v>470</v>
@@ -10938,118 +11033,118 @@
       <c r="G127" s="75" t="s">
         <v>578</v>
       </c>
-      <c r="R127" s="322" t="s">
-        <v>862</v>
-      </c>
-      <c r="S127" s="327"/>
-      <c r="T127" s="327"/>
-      <c r="U127" s="328"/>
+      <c r="R127" s="329" t="s">
+        <v>861</v>
+      </c>
+      <c r="S127" s="334"/>
+      <c r="T127" s="334"/>
+      <c r="U127" s="335"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="220" t="s">
-        <v>871</v>
-      </c>
-      <c r="R128" s="307" t="s">
-        <v>858</v>
-      </c>
-      <c r="S128" s="308"/>
-      <c r="T128" s="308"/>
-      <c r="U128" s="309"/>
+        <v>870</v>
+      </c>
+      <c r="R128" s="314" t="s">
+        <v>857</v>
+      </c>
+      <c r="S128" s="315"/>
+      <c r="T128" s="315"/>
+      <c r="U128" s="316"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="220" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A130" s="220" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A131" s="220" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M131" s="76" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A132" s="220" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L132" s="76" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A133" s="220" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L133" s="34"/>
       <c r="M133" s="76" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="220" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L134" s="76" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A135" s="220" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E135" s="76" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F135" s="80" t="s">
-        <v>839</v>
-      </c>
-      <c r="R135" s="311" t="s">
-        <v>890</v>
-      </c>
-      <c r="S135" s="312"/>
-      <c r="T135" s="312"/>
-      <c r="U135" s="313"/>
+        <v>838</v>
+      </c>
+      <c r="R135" s="318" t="s">
+        <v>889</v>
+      </c>
+      <c r="S135" s="319"/>
+      <c r="T135" s="319"/>
+      <c r="U135" s="320"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="220" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D136" s="74" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E136" s="76" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F136" s="80" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G136" s="80" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="R136" s="222"/>
       <c r="S136" s="222" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="T136" s="222" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="U136" s="43"/>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A137" s="220" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D137" s="74" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G137" s="80" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="R137" s="222" t="s">
         <v>280</v>
@@ -11064,114 +11159,114 @@
     </row>
     <row r="138" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A138" s="220" t="s">
-        <v>847</v>
-      </c>
-      <c r="R138" s="322" t="s">
-        <v>862</v>
-      </c>
-      <c r="S138" s="327"/>
-      <c r="T138" s="327"/>
-      <c r="U138" s="328"/>
+        <v>846</v>
+      </c>
+      <c r="R138" s="329" t="s">
+        <v>861</v>
+      </c>
+      <c r="S138" s="334"/>
+      <c r="T138" s="334"/>
+      <c r="U138" s="335"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="220" t="s">
-        <v>848</v>
-      </c>
-      <c r="R139" s="307" t="s">
-        <v>901</v>
-      </c>
-      <c r="S139" s="308"/>
-      <c r="T139" s="308"/>
-      <c r="U139" s="309"/>
+        <v>847</v>
+      </c>
+      <c r="R139" s="314" t="s">
+        <v>900</v>
+      </c>
+      <c r="S139" s="315"/>
+      <c r="T139" s="315"/>
+      <c r="U139" s="316"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="220" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A141" s="220" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M141" s="76" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A142" s="220" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L142" s="76" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A143" s="220" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M143" s="76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A144" s="220" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L144" s="76" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A145" s="220" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E145" s="76" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F145" s="76" t="s">
-        <v>832</v>
-      </c>
-      <c r="R145" s="311" t="s">
-        <v>900</v>
-      </c>
-      <c r="S145" s="312"/>
-      <c r="T145" s="312"/>
-      <c r="U145" s="313"/>
+        <v>831</v>
+      </c>
+      <c r="R145" s="318" t="s">
+        <v>899</v>
+      </c>
+      <c r="S145" s="319"/>
+      <c r="T145" s="319"/>
+      <c r="U145" s="320"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="220" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D146" s="74" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E146" s="76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F146" s="76" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G146" s="74" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="R146" s="222"/>
       <c r="S146" s="222" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="T146" s="222" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="U146" s="43"/>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A147" s="220" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D147" s="74" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G147" s="74" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="R147" s="222" t="s">
         <v>280</v>
@@ -11186,152 +11281,137 @@
     </row>
     <row r="148" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="220" t="s">
-        <v>872</v>
-      </c>
-      <c r="R148" s="322" t="s">
-        <v>862</v>
-      </c>
-      <c r="S148" s="327"/>
-      <c r="T148" s="327"/>
-      <c r="U148" s="328"/>
+        <v>871</v>
+      </c>
+      <c r="R148" s="329" t="s">
+        <v>861</v>
+      </c>
+      <c r="S148" s="334"/>
+      <c r="T148" s="334"/>
+      <c r="U148" s="335"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="220" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="P149" s="26"/>
       <c r="Q149" s="76" t="s">
-        <v>863</v>
-      </c>
-      <c r="R149" s="307" t="s">
-        <v>901</v>
-      </c>
-      <c r="S149" s="308"/>
-      <c r="T149" s="308"/>
-      <c r="U149" s="309"/>
+        <v>862</v>
+      </c>
+      <c r="R149" s="314" t="s">
+        <v>900</v>
+      </c>
+      <c r="S149" s="315"/>
+      <c r="T149" s="315"/>
+      <c r="U149" s="316"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="220" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="P150" s="76" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q150" s="34"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A151" s="220" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P151" s="34"/>
       <c r="Q151" s="76" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A152" s="220" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M152" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="P152" s="76" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q152" s="34"/>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A153" s="220" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L153" s="77" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A154" s="220" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L154" s="34"/>
       <c r="M154" s="77" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A155" s="220" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L155" s="77" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A156" s="220" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A157" s="220" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A158" s="220" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A159" s="220" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A160" s="220" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161" s="220" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" s="220" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163" s="220" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164" s="220" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165" s="220" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="R127:U127"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="B1:E1"/>
@@ -11342,6 +11422,21 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="R127:U127"/>
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11378,36 +11473,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="307" t="s">
+      <c r="C1" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="310" t="s">
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="317" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="307" t="s">
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="314" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="307" t="s">
-        <v>961</v>
-      </c>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="309"/>
-      <c r="Z1" s="307" t="s">
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="314" t="s">
+        <v>959</v>
+      </c>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="Z1" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="308"/>
-      <c r="AB1" s="308"/>
-      <c r="AC1" s="309"/>
+      <c r="AA1" s="315"/>
+      <c r="AB1" s="315"/>
+      <c r="AC1" s="316"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -11476,33 +11571,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="311" t="s">
+      <c r="C3" s="318" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="313"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="320"/>
       <c r="K3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="311" t="s">
+      <c r="S3" s="318" t="s">
         <v>402</v>
       </c>
-      <c r="T3" s="312"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="313"/>
-      <c r="Z3" s="311" t="s">
+      <c r="T3" s="319"/>
+      <c r="U3" s="319"/>
+      <c r="V3" s="320"/>
+      <c r="Z3" s="318" t="s">
         <v>265</v>
       </c>
-      <c r="AA3" s="312"/>
-      <c r="AB3" s="312"/>
-      <c r="AC3" s="313"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -11559,12 +11654,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="304" t="s">
+      <c r="S5" s="311" t="s">
         <v>502</v>
       </c>
-      <c r="T5" s="305"/>
-      <c r="U5" s="305"/>
-      <c r="V5" s="306"/>
+      <c r="T5" s="312"/>
+      <c r="U5" s="312"/>
+      <c r="V5" s="313"/>
       <c r="W5" s="84" t="s">
         <v>504</v>
       </c>
@@ -11594,12 +11689,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="304" t="s">
-        <v>930</v>
-      </c>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="306"/>
+      <c r="S6" s="311" t="s">
+        <v>929</v>
+      </c>
+      <c r="T6" s="312"/>
+      <c r="U6" s="312"/>
+      <c r="V6" s="313"/>
       <c r="Z6" s="221"/>
       <c r="AA6" s="222"/>
       <c r="AB6" s="222"/>
@@ -11698,7 +11793,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G11" s="83" t="s">
         <v>403</v>
@@ -11718,7 +11813,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D12" s="75" t="s">
         <v>147</v>
@@ -11746,7 +11841,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D13" s="75" t="s">
         <v>148</v>
@@ -11782,7 +11877,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>149</v>
@@ -11823,7 +11918,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>413</v>
@@ -12105,13 +12200,13 @@
       <c r="R22" s="74" t="s">
         <v>420</v>
       </c>
-      <c r="S22" s="329" t="s">
-        <v>940</v>
-      </c>
-      <c r="T22" s="331"/>
-      <c r="U22" s="331"/>
-      <c r="V22" s="331"/>
-      <c r="W22" s="331"/>
+      <c r="S22" s="336" t="s">
+        <v>939</v>
+      </c>
+      <c r="T22" s="338"/>
+      <c r="U22" s="338"/>
+      <c r="V22" s="338"/>
+      <c r="W22" s="338"/>
       <c r="Z22" s="79" t="s">
         <v>243</v>
       </c>
@@ -12158,12 +12253,12 @@
       <c r="R23" s="74" t="s">
         <v>421</v>
       </c>
-      <c r="S23" s="329" t="s">
-        <v>941</v>
-      </c>
-      <c r="T23" s="330"/>
-      <c r="U23" s="330"/>
-      <c r="V23" s="330"/>
+      <c r="S23" s="336" t="s">
+        <v>940</v>
+      </c>
+      <c r="T23" s="337"/>
+      <c r="U23" s="337"/>
+      <c r="V23" s="337"/>
       <c r="Z23" s="79" t="s">
         <v>245</v>
       </c>
@@ -12256,12 +12351,12 @@
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="304" t="s">
-        <v>939</v>
-      </c>
-      <c r="L26" s="305"/>
-      <c r="M26" s="305"/>
-      <c r="N26" s="306"/>
+      <c r="K26" s="311" t="s">
+        <v>938</v>
+      </c>
+      <c r="L26" s="312"/>
+      <c r="M26" s="312"/>
+      <c r="N26" s="313"/>
       <c r="O26" s="76" t="s">
         <v>434</v>
       </c>
@@ -12971,12 +13066,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="S6:V6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="S5:V5"/>
@@ -12985,6 +13074,12 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S3:V3"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="S6:V6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13022,45 +13117,45 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="68"/>
       <c r="B1"/>
-      <c r="C1" s="307" t="s">
+      <c r="C1" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="307" t="s">
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="314" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="307" t="s">
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="314" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="307" t="s">
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="314" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="309"/>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
     </row>
     <row r="2" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="68"/>
       <c r="B2"/>
       <c r="C2" s="268" t="s">
+        <v>914</v>
+      </c>
+      <c r="D2" s="269" t="s">
         <v>915</v>
       </c>
-      <c r="D2" s="269" t="s">
+      <c r="E2" s="269" t="s">
         <v>916</v>
       </c>
-      <c r="E2" s="269" t="s">
+      <c r="F2" s="270" t="s">
         <v>917</v>
-      </c>
-      <c r="F2" s="270" t="s">
-        <v>918</v>
       </c>
       <c r="G2" s="269" t="s">
         <v>30</v>
@@ -13117,7 +13212,7 @@
         <v>140</v>
       </c>
       <c r="G3" s="266" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H3" s="266" t="s">
         <v>141</v>
@@ -13134,12 +13229,12 @@
       <c r="P3" s="271"/>
       <c r="Q3" s="271"/>
       <c r="R3" s="275"/>
-      <c r="S3" s="312" t="s">
-        <v>936</v>
-      </c>
-      <c r="T3" s="312"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="313"/>
+      <c r="S3" s="319" t="s">
+        <v>935</v>
+      </c>
+      <c r="T3" s="319"/>
+      <c r="U3" s="319"/>
+      <c r="V3" s="320"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="68" t="s">
@@ -13152,7 +13247,7 @@
       <c r="D4" s="266"/>
       <c r="E4" s="266"/>
       <c r="G4" s="104" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H4" s="266"/>
       <c r="I4" s="266"/>
@@ -13187,10 +13282,10 @@
       </c>
       <c r="E5" s="276"/>
       <c r="G5" s="104" t="s">
+        <v>931</v>
+      </c>
+      <c r="H5" s="104" t="s">
         <v>932</v>
-      </c>
-      <c r="H5" s="104" t="s">
-        <v>933</v>
       </c>
       <c r="I5" s="276"/>
       <c r="J5" s="276"/>
@@ -13200,12 +13295,12 @@
       <c r="P5" s="271"/>
       <c r="Q5" s="271"/>
       <c r="R5" s="275"/>
-      <c r="S5" s="305" t="s">
-        <v>862</v>
-      </c>
-      <c r="T5" s="305"/>
-      <c r="U5" s="305"/>
-      <c r="V5" s="306"/>
+      <c r="S5" s="312" t="s">
+        <v>861</v>
+      </c>
+      <c r="T5" s="312"/>
+      <c r="U5" s="312"/>
+      <c r="V5" s="313"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="68" t="s">
@@ -13221,7 +13316,7 @@
       </c>
       <c r="G6" s="266"/>
       <c r="H6" s="104" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I6" s="266"/>
       <c r="J6" s="276"/>
@@ -13231,12 +13326,12 @@
       <c r="P6" s="271"/>
       <c r="Q6" s="271"/>
       <c r="R6" s="275"/>
-      <c r="S6" s="305" t="s">
-        <v>937</v>
-      </c>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="306"/>
+      <c r="S6" s="312" t="s">
+        <v>936</v>
+      </c>
+      <c r="T6" s="312"/>
+      <c r="U6" s="312"/>
+      <c r="V6" s="313"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="68" t="s">
@@ -13289,10 +13384,10 @@
       <c r="P8" s="271"/>
       <c r="Q8" s="271"/>
       <c r="R8" s="275"/>
-      <c r="S8" s="331"/>
-      <c r="T8" s="330"/>
-      <c r="U8" s="330"/>
-      <c r="V8" s="330"/>
+      <c r="S8" s="338"/>
+      <c r="T8" s="337"/>
+      <c r="U8" s="337"/>
+      <c r="V8" s="337"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="68" t="s">
@@ -13468,12 +13563,12 @@
       <c r="N15" s="267" t="s">
         <v>285</v>
       </c>
-      <c r="O15" s="332" t="s">
-        <v>938</v>
-      </c>
-      <c r="P15" s="320"/>
-      <c r="Q15" s="320"/>
-      <c r="R15" s="333"/>
+      <c r="O15" s="339" t="s">
+        <v>937</v>
+      </c>
+      <c r="P15" s="324"/>
+      <c r="Q15" s="324"/>
+      <c r="R15" s="340"/>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="68" t="s">
@@ -15494,30 +15589,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="277"/>
       <c r="B1" s="264"/>
-      <c r="C1" s="307" t="s">
+      <c r="C1" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="307" t="s">
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="314" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="307" t="s">
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="314" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="307" t="s">
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="314" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="309"/>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
       <c r="S1" s="227"/>
       <c r="T1" s="227"/>
       <c r="U1" s="227"/>
@@ -15527,16 +15622,16 @@
       <c r="A2" s="277"/>
       <c r="B2" s="264"/>
       <c r="C2" s="44" t="s">
+        <v>914</v>
+      </c>
+      <c r="D2" s="251" t="s">
         <v>915</v>
       </c>
-      <c r="D2" s="251" t="s">
+      <c r="E2" s="251" t="s">
         <v>916</v>
       </c>
-      <c r="E2" s="251" t="s">
+      <c r="F2" s="252" t="s">
         <v>917</v>
-      </c>
-      <c r="F2" s="252" t="s">
-        <v>918</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>30</v>
@@ -15584,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="264" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C3" s="221" t="s">
         <v>137</v>
@@ -15616,12 +15711,12 @@
       <c r="P3" s="222"/>
       <c r="Q3" s="222"/>
       <c r="R3" s="223"/>
-      <c r="S3" s="311" t="s">
+      <c r="S3" s="318" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="312"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="313"/>
+      <c r="T3" s="319"/>
+      <c r="U3" s="319"/>
+      <c r="V3" s="320"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="277" t="s">
@@ -15688,12 +15783,12 @@
       <c r="P5" s="222"/>
       <c r="Q5" s="222"/>
       <c r="R5" s="223"/>
-      <c r="S5" s="304" t="s">
+      <c r="S5" s="311" t="s">
         <v>282</v>
       </c>
-      <c r="T5" s="305"/>
-      <c r="U5" s="305"/>
-      <c r="V5" s="306"/>
+      <c r="T5" s="312"/>
+      <c r="U5" s="312"/>
+      <c r="V5" s="313"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="277" t="s">
@@ -15724,12 +15819,12 @@
       <c r="P6" s="222"/>
       <c r="Q6" s="222"/>
       <c r="R6" s="223"/>
-      <c r="S6" s="304" t="s">
+      <c r="S6" s="311" t="s">
         <v>283</v>
       </c>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="306"/>
+      <c r="T6" s="312"/>
+      <c r="U6" s="312"/>
+      <c r="V6" s="313"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="277" t="s">
@@ -15797,19 +15892,19 @@
         <v>284</v>
       </c>
       <c r="R8" s="223"/>
-      <c r="S8" s="329" t="s">
-        <v>944</v>
-      </c>
-      <c r="T8" s="330"/>
-      <c r="U8" s="330"/>
-      <c r="V8" s="330"/>
+      <c r="S8" s="336" t="s">
+        <v>943</v>
+      </c>
+      <c r="T8" s="337"/>
+      <c r="U8" s="337"/>
+      <c r="V8" s="337"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="277" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="264" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C9" s="223" t="s">
         <v>291</v>
@@ -16303,7 +16398,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="264" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C22" s="221"/>
       <c r="D22" s="222"/>
@@ -16985,7 +17080,7 @@
       </c>
       <c r="B43" s="264"/>
       <c r="C43" s="255" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D43" s="254"/>
       <c r="E43" s="254"/>
@@ -17011,10 +17106,10 @@
       </c>
       <c r="B44" s="264"/>
       <c r="C44" s="255" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D44" s="254" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F44" s="257"/>
       <c r="G44" s="4"/>
@@ -17039,10 +17134,10 @@
       <c r="B45" s="264"/>
       <c r="C45" s="253"/>
       <c r="D45" s="254" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E45" s="255" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F45" s="255"/>
       <c r="G45" s="4"/>
@@ -17066,10 +17161,10 @@
       </c>
       <c r="B46" s="264"/>
       <c r="E46" s="255" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F46" s="99" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="5"/>
@@ -17092,7 +17187,7 @@
       </c>
       <c r="B47" s="264"/>
       <c r="F47" s="99" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="5"/>
@@ -18134,30 +18229,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="68"/>
-      <c r="C1" s="307" t="s">
+      <c r="C1" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="307" t="s">
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="314" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="307" t="s">
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="314" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="307" t="s">
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="314" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="309"/>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
@@ -18255,12 +18350,12 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="311" t="s">
+      <c r="S3" s="318" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="312"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="313"/>
+      <c r="T3" s="319"/>
+      <c r="U3" s="319"/>
+      <c r="V3" s="320"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="68" t="s">
@@ -18325,12 +18420,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="304" t="s">
+      <c r="S5" s="311" t="s">
         <v>282</v>
       </c>
-      <c r="T5" s="305"/>
-      <c r="U5" s="305"/>
-      <c r="V5" s="306"/>
+      <c r="T5" s="312"/>
+      <c r="U5" s="312"/>
+      <c r="V5" s="313"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="68" t="s">
@@ -18360,12 +18455,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="304" t="s">
+      <c r="S6" s="311" t="s">
         <v>283</v>
       </c>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="306"/>
+      <c r="T6" s="312"/>
+      <c r="U6" s="312"/>
+      <c r="V6" s="313"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="68" t="s">
@@ -18432,12 +18527,12 @@
         <v>284</v>
       </c>
       <c r="R8" s="41"/>
-      <c r="S8" s="329" t="s">
+      <c r="S8" s="336" t="s">
         <v>378</v>
       </c>
-      <c r="T8" s="330"/>
-      <c r="U8" s="330"/>
-      <c r="V8" s="330"/>
+      <c r="T8" s="337"/>
+      <c r="U8" s="337"/>
+      <c r="V8" s="337"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="68" t="s">
@@ -20921,36 +21016,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="307" t="s">
+      <c r="C1" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="310" t="s">
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="317" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="307" t="s">
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="314" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="307" t="s">
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="309"/>
-      <c r="Z1" s="307" t="s">
+      <c r="P1" s="315"/>
+      <c r="Q1" s="315"/>
+      <c r="R1" s="316"/>
+      <c r="Z1" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="308"/>
-      <c r="AB1" s="308"/>
-      <c r="AC1" s="309"/>
+      <c r="AA1" s="315"/>
+      <c r="AB1" s="315"/>
+      <c r="AC1" s="316"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -21019,33 +21114,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="311" t="s">
+      <c r="C3" s="318" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="313"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="320"/>
       <c r="K3" s="221"/>
       <c r="O3" s="221"/>
       <c r="P3" s="222"/>
       <c r="Q3" s="222"/>
       <c r="R3" s="223"/>
-      <c r="S3" s="311" t="s">
+      <c r="S3" s="318" t="s">
         <v>402</v>
       </c>
-      <c r="T3" s="312"/>
-      <c r="U3" s="312"/>
-      <c r="V3" s="313"/>
-      <c r="Z3" s="311" t="s">
+      <c r="T3" s="319"/>
+      <c r="U3" s="319"/>
+      <c r="V3" s="320"/>
+      <c r="Z3" s="318" t="s">
         <v>265</v>
       </c>
-      <c r="AA3" s="312"/>
-      <c r="AB3" s="312"/>
-      <c r="AC3" s="313"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
+      <c r="AC3" s="320"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -21102,12 +21197,12 @@
       <c r="P5" s="222"/>
       <c r="Q5" s="222"/>
       <c r="R5" s="223"/>
-      <c r="S5" s="304" t="s">
+      <c r="S5" s="311" t="s">
         <v>502</v>
       </c>
-      <c r="T5" s="305"/>
-      <c r="U5" s="305"/>
-      <c r="V5" s="306"/>
+      <c r="T5" s="312"/>
+      <c r="U5" s="312"/>
+      <c r="V5" s="313"/>
       <c r="W5" s="84" t="s">
         <v>504</v>
       </c>
@@ -21137,12 +21232,12 @@
       <c r="P6" s="222"/>
       <c r="Q6" s="222"/>
       <c r="R6" s="223"/>
-      <c r="S6" s="304" t="s">
+      <c r="S6" s="311" t="s">
         <v>419</v>
       </c>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="306"/>
+      <c r="T6" s="312"/>
+      <c r="U6" s="312"/>
+      <c r="V6" s="313"/>
       <c r="Z6" s="221"/>
       <c r="AA6" s="222"/>
       <c r="AB6" s="222"/>
@@ -22501,17 +22596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22542,30 +22637,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="307" t="s">
+      <c r="B1" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="310" t="s">
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="317" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="307" t="s">
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="314" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="307" t="s">
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="314" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="308"/>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="309"/>
+      <c r="O1" s="315"/>
+      <c r="P1" s="315"/>
+      <c r="Q1" s="316"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
@@ -22652,12 +22747,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="311" t="s">
+      <c r="R3" s="318" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="312"/>
-      <c r="T3" s="312"/>
-      <c r="U3" s="313"/>
+      <c r="S3" s="319"/>
+      <c r="T3" s="319"/>
+      <c r="U3" s="320"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
@@ -22710,12 +22805,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="304" t="s">
+      <c r="R5" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="305"/>
-      <c r="T5" s="305"/>
-      <c r="U5" s="306"/>
+      <c r="S5" s="312"/>
+      <c r="T5" s="312"/>
+      <c r="U5" s="313"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
@@ -22737,12 +22832,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="304" t="s">
+      <c r="R6" s="311" t="s">
         <v>262</v>
       </c>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="306"/>
+      <c r="S6" s="312"/>
+      <c r="T6" s="312"/>
+      <c r="U6" s="313"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
@@ -25961,7 +26056,7 @@
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="76" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="50" t="s">
@@ -26202,67 +26297,67 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="314" t="s">
+      <c r="B6" s="321" t="s">
         <v>514</v>
       </c>
-      <c r="C6" s="315"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="314" t="s">
+      <c r="C6" s="322"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="321" t="s">
         <v>515</v>
       </c>
-      <c r="F6" s="315"/>
-      <c r="G6" s="316"/>
+      <c r="F6" s="322"/>
+      <c r="G6" s="323"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="314" t="s">
+      <c r="B7" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="315"/>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="315"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="315"/>
-      <c r="L7" s="315"/>
-      <c r="M7" s="315"/>
-      <c r="N7" s="315"/>
-      <c r="O7" s="315"/>
-      <c r="P7" s="316"/>
-      <c r="Q7" s="314" t="s">
+      <c r="C7" s="322"/>
+      <c r="D7" s="322"/>
+      <c r="E7" s="322"/>
+      <c r="F7" s="322"/>
+      <c r="G7" s="322"/>
+      <c r="H7" s="322"/>
+      <c r="I7" s="322"/>
+      <c r="J7" s="322"/>
+      <c r="K7" s="322"/>
+      <c r="L7" s="322"/>
+      <c r="M7" s="322"/>
+      <c r="N7" s="322"/>
+      <c r="O7" s="322"/>
+      <c r="P7" s="323"/>
+      <c r="Q7" s="321" t="s">
         <v>215</v>
       </c>
-      <c r="R7" s="315"/>
-      <c r="S7" s="315"/>
-      <c r="T7" s="315"/>
-      <c r="U7" s="315"/>
-      <c r="V7" s="315"/>
-      <c r="W7" s="315"/>
-      <c r="X7" s="315"/>
-      <c r="Y7" s="315"/>
-      <c r="Z7" s="315"/>
-      <c r="AA7" s="316"/>
-      <c r="AB7" s="314" t="s">
+      <c r="R7" s="322"/>
+      <c r="S7" s="322"/>
+      <c r="T7" s="322"/>
+      <c r="U7" s="322"/>
+      <c r="V7" s="322"/>
+      <c r="W7" s="322"/>
+      <c r="X7" s="322"/>
+      <c r="Y7" s="322"/>
+      <c r="Z7" s="322"/>
+      <c r="AA7" s="323"/>
+      <c r="AB7" s="321" t="s">
         <v>216</v>
       </c>
-      <c r="AC7" s="315"/>
-      <c r="AD7" s="315"/>
-      <c r="AE7" s="315"/>
-      <c r="AF7" s="315"/>
-      <c r="AG7" s="315"/>
-      <c r="AH7" s="315"/>
-      <c r="AI7" s="315"/>
-      <c r="AJ7" s="315"/>
-      <c r="AK7" s="315"/>
-      <c r="AL7" s="315"/>
-      <c r="AM7" s="315"/>
-      <c r="AN7" s="315"/>
-      <c r="AO7" s="315"/>
-      <c r="AP7" s="315"/>
-      <c r="AQ7" s="315"/>
-      <c r="AR7" s="316"/>
+      <c r="AC7" s="322"/>
+      <c r="AD7" s="322"/>
+      <c r="AE7" s="322"/>
+      <c r="AF7" s="322"/>
+      <c r="AG7" s="322"/>
+      <c r="AH7" s="322"/>
+      <c r="AI7" s="322"/>
+      <c r="AJ7" s="322"/>
+      <c r="AK7" s="322"/>
+      <c r="AL7" s="322"/>
+      <c r="AM7" s="322"/>
+      <c r="AN7" s="322"/>
+      <c r="AO7" s="322"/>
+      <c r="AP7" s="322"/>
+      <c r="AQ7" s="322"/>
+      <c r="AR7" s="323"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="E9" s="45"/>
@@ -26290,7 +26385,7 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.4">
       <c r="AB15" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -26309,10 +26404,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34ECBBF-B660-41D9-BDE6-91AF01412A2C}">
-  <dimension ref="A1:AB80"/>
+  <dimension ref="A1:AB264"/>
   <sheetViews>
-    <sheetView topLeftCell="L43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78:D79"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -26320,7 +26415,10 @@
     <col min="2" max="3" width="10.86328125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.796875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.3984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.33203125" style="195" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" style="195" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" style="195" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.19921875" style="195" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.796875" style="195" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.06640625" style="195" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.1328125" style="200" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.06640625" style="197"/>
@@ -26337,7 +26435,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="290" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G1" s="280"/>
       <c r="H1" s="280"/>
@@ -26350,18 +26448,18 @@
       <c r="AA1" s="280"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="310" t="s">
         <v>673</v>
       </c>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="310"/>
+      <c r="K2" s="310"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
@@ -26392,7 +26490,7 @@
         <v>773</v>
       </c>
       <c r="L3" s="200" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="M3" s="197" t="s">
         <v>775</v>
@@ -26437,7 +26535,7 @@
         <v>522</v>
       </c>
       <c r="L4" s="199" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="M4" s="197">
         <v>0</v>
@@ -26449,7 +26547,7 @@
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="21"/>
       <c r="K5" s="199" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="L5" s="196"/>
       <c r="M5" s="197">
@@ -26474,7 +26572,7 @@
         <v>674</v>
       </c>
       <c r="K6" s="196" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="L6" s="196"/>
       <c r="M6" s="197">
@@ -26495,16 +26593,16 @@
         <v>676</v>
       </c>
       <c r="I7" s="283" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="J7" s="283" t="s">
         <v>676</v>
       </c>
       <c r="K7" s="196" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="L7" s="199" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M7" s="197">
         <v>3</v>
@@ -26526,16 +26624,16 @@
         <v>680</v>
       </c>
       <c r="H8" s="283" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="I8" s="283" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="J8" s="283" t="s">
         <v>680</v>
       </c>
       <c r="L8" s="199" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M8" s="197">
         <v>4</v>
@@ -26557,13 +26655,13 @@
       </c>
       <c r="E9" s="81"/>
       <c r="G9" s="283" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="H9" s="283" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="I9" s="283" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="L9" s="196"/>
       <c r="M9" s="197">
@@ -26584,13 +26682,13 @@
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
       <c r="G10" s="283" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="H10" s="283" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="L10" s="199" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="M10" s="197">
         <v>6</v>
@@ -26608,10 +26706,10 @@
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
       <c r="G11" s="283" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="K11" s="199" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L11" s="196"/>
       <c r="M11" s="197">
@@ -26648,7 +26746,7 @@
         <v>691</v>
       </c>
       <c r="K12" s="196" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="L12" s="196"/>
       <c r="M12" s="197">
@@ -26683,13 +26781,13 @@
         <v>691</v>
       </c>
       <c r="J13" s="283" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="K13" s="196" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="L13" s="199" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M13" s="197">
         <v>3</v>
@@ -26733,13 +26831,13 @@
         <v>691</v>
       </c>
       <c r="I14" s="283" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="J14" s="283" t="s">
         <v>697</v>
       </c>
       <c r="L14" s="199" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M14" s="197">
         <v>4</v>
@@ -26784,7 +26882,7 @@
         <v>691</v>
       </c>
       <c r="H15" s="283" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="I15" s="283" t="s">
         <v>697</v>
@@ -26830,7 +26928,7 @@
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
       <c r="G16" s="283" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="H16" s="283" t="s">
         <v>697</v>
@@ -26838,7 +26936,7 @@
       <c r="I16" s="283"/>
       <c r="J16" s="283"/>
       <c r="L16" s="199" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="M16" s="197">
         <v>6</v>
@@ -26978,7 +27076,7 @@
         <v>712</v>
       </c>
       <c r="J19" s="291" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="K19" s="197" t="s">
         <v>713</v>
@@ -27024,10 +27122,10 @@
         <v>713</v>
       </c>
       <c r="I20" s="291" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="J20" s="291" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="L20" s="196"/>
       <c r="M20" s="197">
@@ -27074,10 +27172,10 @@
         <v>714</v>
       </c>
       <c r="H21" s="283" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="I21" s="291" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="J21" s="283"/>
       <c r="L21" s="196"/>
@@ -27119,10 +27217,10 @@
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="G22" s="283" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="H22" s="283" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="283"/>
       <c r="J22" s="283"/>
@@ -27166,7 +27264,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="G23" s="283" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="H23" s="283"/>
       <c r="I23" s="283"/>
@@ -27471,7 +27569,7 @@
     </row>
     <row r="42" spans="1:27" ht="20.25" x14ac:dyDescent="0.4">
       <c r="A42" s="290" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AA42" s="200">
         <v>1</v>
@@ -27506,7 +27604,7 @@
         <v>773</v>
       </c>
       <c r="L43" s="280" t="s">
-        <v>778</v>
+        <v>1002</v>
       </c>
       <c r="M43" s="280" t="s">
         <v>775</v>
@@ -27554,7 +27652,7 @@
         <v>522</v>
       </c>
       <c r="L44" s="292" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="M44" s="280">
         <v>0</v>
@@ -27571,7 +27669,7 @@
       <c r="I45" s="280"/>
       <c r="J45" s="280"/>
       <c r="K45" s="199" t="s">
-        <v>962</v>
+        <v>982</v>
       </c>
       <c r="L45" s="196"/>
       <c r="M45" s="280">
@@ -27592,13 +27690,13 @@
       <c r="C46" s="81"/>
       <c r="D46" s="81"/>
       <c r="G46" s="280" t="s">
-        <v>959</v>
+        <v>1028</v>
       </c>
       <c r="H46" s="280"/>
       <c r="I46" s="280"/>
       <c r="J46" s="21"/>
       <c r="K46" s="196" t="s">
-        <v>963</v>
+        <v>983</v>
       </c>
       <c r="L46" s="196"/>
       <c r="M46" s="280">
@@ -27617,19 +27715,19 @@
       <c r="C47" s="78" t="s">
         <v>678</v>
       </c>
-      <c r="G47" s="280" t="s">
-        <v>766</v>
+      <c r="G47" s="303" t="s">
+        <v>1029</v>
       </c>
       <c r="H47" s="280" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="196" t="s">
-        <v>964</v>
+        <v>984</v>
       </c>
       <c r="L47" s="199" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M47" s="280">
         <v>3</v>
@@ -27650,18 +27748,18 @@
       <c r="D48" s="78" t="s">
         <v>675</v>
       </c>
-      <c r="G48" s="280" t="s">
-        <v>965</v>
+      <c r="G48" s="303" t="s">
+        <v>1030</v>
       </c>
       <c r="H48" s="280" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="I48" s="280" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="K48" s="280"/>
       <c r="L48" s="199" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M48" s="280">
         <v>4</v>
@@ -27683,13 +27781,13 @@
         <v>674</v>
       </c>
       <c r="H49" s="280" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="I49" s="280" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="J49" s="280" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="K49" s="280"/>
       <c r="L49" s="196"/>
@@ -27710,10 +27808,10 @@
         <v>676</v>
       </c>
       <c r="I50" s="280" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="J50" s="280" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="M50" s="280">
         <v>6</v>
@@ -27733,7 +27831,7 @@
       <c r="H51" s="280"/>
       <c r="I51" s="280"/>
       <c r="J51" s="280" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="M51" s="280">
         <v>1</v>
@@ -27757,7 +27855,7 @@
     <row r="52" spans="2:28" x14ac:dyDescent="0.4">
       <c r="K52" s="280"/>
       <c r="L52" s="199" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="M52" s="280">
         <v>2</v>
@@ -27778,7 +27876,7 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.4">
       <c r="K53" s="199" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="L53" s="196"/>
       <c r="M53" s="280">
@@ -27821,7 +27919,7 @@
         <v>691</v>
       </c>
       <c r="K54" s="196" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="L54" s="196"/>
       <c r="M54" s="280">
@@ -27867,13 +27965,13 @@
         <v>691</v>
       </c>
       <c r="J55" s="280" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="K55" s="196" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="L55" s="199" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M55" s="280">
         <v>5</v>
@@ -27920,14 +28018,14 @@
         <v>691</v>
       </c>
       <c r="I56" s="283" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="J56" s="283" t="s">
         <v>697</v>
       </c>
       <c r="K56" s="280"/>
       <c r="L56" s="199" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M56" s="280">
         <v>6</v>
@@ -27975,7 +28073,7 @@
         <v>691</v>
       </c>
       <c r="H57" s="283" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="I57" s="283" t="s">
         <v>697</v>
@@ -28024,7 +28122,7 @@
       <c r="D58" s="81"/>
       <c r="E58" s="81"/>
       <c r="G58" s="283" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="H58" s="283" t="s">
         <v>697</v>
@@ -28115,7 +28213,7 @@
       <c r="I60" s="196"/>
       <c r="J60" s="196"/>
       <c r="L60" s="199" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="M60" s="280">
         <v>4</v>
@@ -28194,13 +28292,13 @@
       <c r="C62" s="81"/>
       <c r="D62" s="81"/>
       <c r="E62" s="81"/>
-      <c r="G62" s="283" t="s">
-        <v>706</v>
+      <c r="G62" s="303" t="s">
+        <v>1031</v>
       </c>
       <c r="H62" s="283"/>
       <c r="I62" s="283"/>
       <c r="J62" s="21"/>
-      <c r="K62" s="280" t="s">
+      <c r="K62" s="303" t="s">
         <v>712</v>
       </c>
       <c r="L62" s="196"/>
@@ -28244,15 +28342,15 @@
       </c>
       <c r="D63" s="81"/>
       <c r="E63" s="81"/>
-      <c r="G63" s="283" t="s">
-        <v>708</v>
+      <c r="G63" s="303" t="s">
+        <v>1032</v>
       </c>
       <c r="H63" s="283" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
-      <c r="K63" s="280" t="s">
+      <c r="K63" s="303" t="s">
         <v>713</v>
       </c>
       <c r="L63" s="196"/>
@@ -28290,14 +28388,14 @@
       <c r="C64" s="78" t="s">
         <v>707</v>
       </c>
-      <c r="G64" s="283" t="s">
-        <v>710</v>
+      <c r="G64" s="303" t="s">
+        <v>1033</v>
       </c>
       <c r="H64" s="283" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="I64" s="283" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="J64" s="283"/>
       <c r="K64" s="280"/>
@@ -28333,13 +28431,13 @@
       </c>
       <c r="G65" s="283"/>
       <c r="H65" s="283" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="I65" s="283" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="J65" s="283" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="K65" s="280"/>
       <c r="L65" s="196"/>
@@ -28367,10 +28465,10 @@
       <c r="G66" s="283"/>
       <c r="H66" s="283"/>
       <c r="I66" s="283" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="J66" s="283" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="K66" s="280"/>
       <c r="L66" s="280"/>
@@ -28399,7 +28497,7 @@
       <c r="H67" s="283"/>
       <c r="I67" s="283"/>
       <c r="J67" s="283" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="K67" s="280" t="s">
         <v>768</v>
@@ -28676,9 +28774,2536 @@
         <v>5</v>
       </c>
     </row>
+    <row r="82" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="83" spans="1:13" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="A83" s="290" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B83" s="318" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C83" s="319"/>
+      <c r="D83" s="319"/>
+      <c r="E83" s="320"/>
+      <c r="G83" s="341" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H83" s="342"/>
+      <c r="I83" s="342"/>
+      <c r="J83" s="343"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B84" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" s="304" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="305" t="s">
+        <v>5</v>
+      </c>
+      <c r="I84" s="305" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" s="306" t="s">
+        <v>107</v>
+      </c>
+      <c r="K84" s="303" t="s">
+        <v>774</v>
+      </c>
+      <c r="L84" s="303" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M84" s="303" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B85" s="281" t="s">
+        <v>952</v>
+      </c>
+      <c r="C85" s="81"/>
+      <c r="D85" s="228" t="s">
+        <v>782</v>
+      </c>
+      <c r="E85" s="228" t="s">
+        <v>781</v>
+      </c>
+      <c r="G85" s="304"/>
+      <c r="H85" s="305"/>
+      <c r="I85" s="305"/>
+      <c r="J85" s="306"/>
+      <c r="M85" s="197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" s="21"/>
+      <c r="B86" s="176"/>
+      <c r="C86" s="81"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="6"/>
+      <c r="G86" s="304"/>
+      <c r="H86" s="305"/>
+      <c r="I86" s="305"/>
+      <c r="J86" s="306"/>
+      <c r="M86" s="197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" s="21"/>
+      <c r="B87" s="176"/>
+      <c r="C87" s="81"/>
+      <c r="I87" s="305"/>
+      <c r="J87" s="306"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" s="21"/>
+      <c r="B88" s="176"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="I88" s="305"/>
+      <c r="J88" s="306"/>
+      <c r="L88" s="195" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" s="21"/>
+      <c r="B89" s="176"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="E89" s="34"/>
+      <c r="I89" s="305"/>
+      <c r="J89" s="306"/>
+      <c r="K89" s="304" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" s="21"/>
+      <c r="B90" s="114"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H90" s="305"/>
+      <c r="I90" s="305"/>
+      <c r="J90" s="306"/>
+      <c r="K90" s="304"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" s="21"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="E91" s="34"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I91" s="305"/>
+      <c r="J91" s="306"/>
+      <c r="K91" s="304" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" s="21"/>
+      <c r="B92" s="114"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G92" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="H92" s="26"/>
+      <c r="I92" s="305"/>
+      <c r="J92" s="306"/>
+      <c r="K92" s="304"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" s="21"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="E93" s="34"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="I93" s="305"/>
+      <c r="J93" s="306"/>
+      <c r="K93" s="304" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" s="21"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="34" t="s">
+        <v>720</v>
+      </c>
+      <c r="G94" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="H94" s="26"/>
+      <c r="I94" s="305"/>
+      <c r="J94" s="306"/>
+      <c r="K94" s="304"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" s="21"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="E95" s="34"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="I95" s="305"/>
+      <c r="J95" s="306"/>
+      <c r="K95" s="304" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" s="21"/>
+      <c r="B96" s="114"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="G96" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="H96" s="26"/>
+      <c r="I96" s="305"/>
+      <c r="J96" s="306"/>
+      <c r="K96" s="304"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="21"/>
+      <c r="B97" s="114"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="E97" s="34"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="I97" s="305"/>
+      <c r="J97" s="306"/>
+      <c r="K97" s="304" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="21"/>
+      <c r="B98" s="114"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="34" t="s">
+        <v>722</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="H98" s="26"/>
+      <c r="I98" s="305"/>
+      <c r="J98" s="306"/>
+      <c r="K98" s="304"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A99" s="21"/>
+      <c r="B99" s="114"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="E99" s="34"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="I99" s="305"/>
+      <c r="J99" s="306"/>
+      <c r="K99" s="304" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="21"/>
+      <c r="B100" s="114"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="34" t="s">
+        <v>723</v>
+      </c>
+      <c r="G100" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="H100" s="26"/>
+      <c r="I100" s="305"/>
+      <c r="J100" s="306"/>
+      <c r="K100" s="304"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="21"/>
+      <c r="B101" s="114"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="E101" s="6"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="I101" s="305"/>
+      <c r="J101" s="306"/>
+      <c r="K101" s="304" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="21"/>
+      <c r="B102" s="176"/>
+      <c r="C102" s="81"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="34" t="s">
+        <v>724</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="H102" s="26"/>
+      <c r="I102" s="305"/>
+      <c r="J102" s="306"/>
+      <c r="K102" s="309"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="21"/>
+      <c r="B103" s="176"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="E103" s="34"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="I103" s="305"/>
+      <c r="J103" s="306"/>
+      <c r="K103" s="304" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104" s="21"/>
+      <c r="B104" s="176"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="G104" s="33" t="s">
+        <v>724</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="305"/>
+      <c r="J104" s="306"/>
+      <c r="K104" s="304"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105" s="21"/>
+      <c r="B105" s="176"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="I105" s="305"/>
+      <c r="J105" s="306"/>
+      <c r="K105" s="304" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="21"/>
+      <c r="B106" s="176"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="34" t="s">
+        <v>726</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="H106" s="26"/>
+      <c r="I106" s="305"/>
+      <c r="J106" s="306"/>
+      <c r="K106" s="309"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="21"/>
+      <c r="B107" s="176"/>
+      <c r="C107" s="81"/>
+      <c r="D107" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="E107" s="34"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="I107" s="305"/>
+      <c r="J107" s="306"/>
+      <c r="K107" s="304" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="21"/>
+      <c r="B108" s="176"/>
+      <c r="C108" s="81"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="34" t="s">
+        <v>727</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>726</v>
+      </c>
+      <c r="H108" s="5"/>
+      <c r="I108" s="305"/>
+      <c r="J108" s="306"/>
+      <c r="K108" s="304"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A109" s="21"/>
+      <c r="B109" s="176"/>
+      <c r="C109" s="81"/>
+      <c r="D109" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="E109" s="110"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="I109" s="305"/>
+      <c r="J109" s="306"/>
+      <c r="K109" s="304" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110" s="21"/>
+      <c r="B110" s="176"/>
+      <c r="C110" s="81"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="34"/>
+      <c r="G110" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="H110" s="26"/>
+      <c r="I110" s="305"/>
+      <c r="J110" s="306"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111" s="21"/>
+      <c r="B111" s="176"/>
+      <c r="C111" s="81"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="34"/>
+      <c r="G111" s="304"/>
+      <c r="H111" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="I111" s="305"/>
+      <c r="J111" s="306"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112" s="21"/>
+      <c r="B112" s="176"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="34"/>
+      <c r="G112" s="304"/>
+      <c r="H112" s="305"/>
+      <c r="I112" s="305"/>
+      <c r="J112" s="306"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A113" s="21"/>
+      <c r="B113" s="176"/>
+      <c r="C113" s="81"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="34"/>
+      <c r="G113" s="304"/>
+      <c r="H113" s="305"/>
+      <c r="I113" s="305"/>
+      <c r="J113" s="306"/>
+    </row>
+    <row r="114" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="28"/>
+      <c r="B114" s="299"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="307"/>
+      <c r="I114" s="307"/>
+      <c r="J114" s="308"/>
+      <c r="K114" s="307"/>
+      <c r="L114" s="307"/>
+      <c r="M114" s="307"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A115" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B115" s="33"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="228" t="s">
+        <v>783</v>
+      </c>
+      <c r="E115" s="228" t="s">
+        <v>784</v>
+      </c>
+      <c r="G115" s="33"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="199" t="s">
+        <v>920</v>
+      </c>
+      <c r="N115" s="303">
+        <v>0</v>
+      </c>
+      <c r="O115" s="303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B116" s="33"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="34"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="26"/>
+      <c r="N116" s="303">
+        <v>1</v>
+      </c>
+      <c r="O116" s="303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B117" s="176"/>
+      <c r="C117" s="81"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="G117" s="304"/>
+      <c r="H117" s="305"/>
+      <c r="L117" s="303" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N117" s="303">
+        <v>2</v>
+      </c>
+      <c r="O117" s="303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B118" s="176"/>
+      <c r="C118" s="81"/>
+      <c r="D118" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E118" s="34"/>
+      <c r="G118" s="304"/>
+      <c r="H118" s="305"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="304" t="s">
+        <v>471</v>
+      </c>
+      <c r="N118" s="303">
+        <v>3</v>
+      </c>
+      <c r="O118" s="303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B119" s="176"/>
+      <c r="C119" s="81"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="G119" s="304"/>
+      <c r="H119" s="305"/>
+      <c r="I119" s="26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J119" s="306"/>
+      <c r="K119" s="304"/>
+      <c r="N119" s="303">
+        <v>4</v>
+      </c>
+      <c r="O119" s="303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B120" s="176"/>
+      <c r="C120" s="81"/>
+      <c r="D120" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="E120" s="34"/>
+      <c r="G120" s="304"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="34" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K120" s="304" t="s">
+        <v>472</v>
+      </c>
+      <c r="N120" s="303">
+        <v>5</v>
+      </c>
+      <c r="O120" s="303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B121" s="176"/>
+      <c r="C121" s="81"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="G121" s="33"/>
+      <c r="H121" s="305"/>
+      <c r="I121" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="J121" s="34"/>
+      <c r="K121" s="304"/>
+      <c r="N121" s="303">
+        <v>6</v>
+      </c>
+      <c r="O121" s="303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B122" s="176"/>
+      <c r="C122" s="81"/>
+      <c r="D122" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="E122" s="34"/>
+      <c r="G122" s="304"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="K122" s="304" t="s">
+        <v>473</v>
+      </c>
+      <c r="N122" s="303">
+        <v>1</v>
+      </c>
+      <c r="O122" s="303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B123" s="176"/>
+      <c r="C123" s="81"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34" t="s">
+        <v>740</v>
+      </c>
+      <c r="G123" s="33"/>
+      <c r="H123" s="305"/>
+      <c r="I123" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="J123" s="34"/>
+      <c r="K123" s="304"/>
+      <c r="N123" s="303">
+        <v>2</v>
+      </c>
+      <c r="O123" s="303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B124" s="176"/>
+      <c r="C124" s="81"/>
+      <c r="D124" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="E124" s="34"/>
+      <c r="G124" s="304"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="K124" s="304" t="s">
+        <v>750</v>
+      </c>
+      <c r="N124" s="303">
+        <v>3</v>
+      </c>
+      <c r="O124" s="303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B125" s="176"/>
+      <c r="C125" s="81"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34" t="s">
+        <v>741</v>
+      </c>
+      <c r="G125" s="33"/>
+      <c r="H125" s="305"/>
+      <c r="I125" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="J125" s="34"/>
+      <c r="K125" s="304"/>
+      <c r="N125" s="303">
+        <v>4</v>
+      </c>
+      <c r="O125" s="303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B126" s="176"/>
+      <c r="C126" s="81"/>
+      <c r="D126" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="E126" s="34"/>
+      <c r="G126" s="304"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="K126" s="304" t="s">
+        <v>751</v>
+      </c>
+      <c r="N126" s="303">
+        <v>5</v>
+      </c>
+      <c r="O126" s="303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B127" s="176"/>
+      <c r="C127" s="81"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34" t="s">
+        <v>742</v>
+      </c>
+      <c r="G127" s="33"/>
+      <c r="H127" s="305"/>
+      <c r="I127" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="J127" s="34"/>
+      <c r="K127" s="304"/>
+      <c r="N127" s="303">
+        <v>6</v>
+      </c>
+      <c r="O127" s="303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B128" s="176"/>
+      <c r="C128" s="81"/>
+      <c r="D128" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="E128" s="34"/>
+      <c r="G128" s="304"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="K128" s="304" t="s">
+        <v>752</v>
+      </c>
+      <c r="N128" s="303">
+        <v>1</v>
+      </c>
+      <c r="O128" s="303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B129" s="176"/>
+      <c r="C129" s="81"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="G129" s="33"/>
+      <c r="H129" s="305"/>
+      <c r="I129" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="J129" s="34"/>
+      <c r="K129" s="304"/>
+      <c r="N129" s="303">
+        <v>2</v>
+      </c>
+      <c r="O129" s="303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B130" s="176"/>
+      <c r="C130" s="81"/>
+      <c r="D130" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="E130" s="6"/>
+      <c r="G130" s="304"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="K130" s="304" t="s">
+        <v>753</v>
+      </c>
+      <c r="N130" s="303">
+        <v>3</v>
+      </c>
+      <c r="O130" s="303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B131" s="176"/>
+      <c r="C131" s="81"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="34" t="s">
+        <v>744</v>
+      </c>
+      <c r="G131" s="33"/>
+      <c r="H131" s="305"/>
+      <c r="I131" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="J131" s="34"/>
+      <c r="K131" s="309"/>
+      <c r="N131" s="303">
+        <v>4</v>
+      </c>
+      <c r="O131" s="303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B132" s="176"/>
+      <c r="C132" s="81"/>
+      <c r="D132" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="E132" s="34"/>
+      <c r="G132" s="304"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="K132" s="304" t="s">
+        <v>754</v>
+      </c>
+      <c r="N132" s="303">
+        <v>5</v>
+      </c>
+      <c r="O132" s="303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B133" s="176"/>
+      <c r="C133" s="81"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34" t="s">
+        <v>745</v>
+      </c>
+      <c r="G133" s="33"/>
+      <c r="H133" s="305"/>
+      <c r="I133" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="J133" s="6"/>
+      <c r="K133" s="304"/>
+      <c r="N133" s="303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B134" s="176"/>
+      <c r="C134" s="81"/>
+      <c r="D134" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="E134" s="6"/>
+      <c r="G134" s="304"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="34" t="s">
+        <v>754</v>
+      </c>
+      <c r="K134" s="304" t="s">
+        <v>755</v>
+      </c>
+      <c r="N134" s="303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B135" s="176"/>
+      <c r="C135" s="81"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="34" t="s">
+        <v>746</v>
+      </c>
+      <c r="G135" s="33"/>
+      <c r="H135" s="305"/>
+      <c r="I135" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="J135" s="34"/>
+      <c r="K135" s="309"/>
+      <c r="N135" s="303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B136" s="176"/>
+      <c r="C136" s="81"/>
+      <c r="D136" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="E136" s="34"/>
+      <c r="G136" s="304"/>
+      <c r="H136" s="26"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="K136" s="304" t="s">
+        <v>756</v>
+      </c>
+      <c r="N136" s="303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B137" s="33"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34" t="s">
+        <v>747</v>
+      </c>
+      <c r="G137" s="33"/>
+      <c r="H137" s="26"/>
+      <c r="I137" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="J137" s="6"/>
+      <c r="K137" s="304"/>
+      <c r="N137" s="303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B138" s="33"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="E138" s="6"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="K138" s="304" t="s">
+        <v>757</v>
+      </c>
+      <c r="N138" s="303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B139" s="33"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="G139" s="33"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="J139" s="34"/>
+      <c r="K139" s="21"/>
+      <c r="N139" s="303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B140" s="33"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="E140" s="34"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="K140" s="21"/>
+      <c r="N140" s="303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B141" s="33"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34" t="s">
+        <v>761</v>
+      </c>
+      <c r="G141" s="33"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="J141" s="6"/>
+      <c r="K141" s="21"/>
+      <c r="N141" s="303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B142" s="33"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="E142" s="6"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="K142" s="21"/>
+      <c r="N142" s="303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B143" s="33"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="34"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="J143" s="34"/>
+      <c r="K143" s="21"/>
+      <c r="N143" s="303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B144" s="33"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="34"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="K144" s="21"/>
+      <c r="N144" s="303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="8"/>
+      <c r="B145" s="299"/>
+      <c r="C145" s="28"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="307"/>
+      <c r="I145" s="307"/>
+      <c r="J145" s="308"/>
+      <c r="K145" s="307"/>
+      <c r="L145" s="307"/>
+      <c r="M145" s="307"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B146" s="33"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="228" t="s">
+        <v>784</v>
+      </c>
+      <c r="E146" s="228" t="s">
+        <v>783</v>
+      </c>
+      <c r="G146" s="304"/>
+      <c r="H146" s="305"/>
+      <c r="I146" s="305"/>
+      <c r="J146" s="306"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B147" s="33"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="G147" s="304"/>
+      <c r="H147" s="305"/>
+      <c r="L147" s="200" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B148" s="33"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E148" s="34"/>
+      <c r="G148" s="304"/>
+      <c r="H148" s="305"/>
+      <c r="K148" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B149" s="33"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G149" s="304"/>
+      <c r="H149" s="305"/>
+      <c r="I149" s="305"/>
+      <c r="J149" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="K149" s="34"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B150" s="33"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E150" s="34"/>
+      <c r="G150" s="304"/>
+      <c r="H150" s="305"/>
+      <c r="I150" s="34" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J150" s="34"/>
+      <c r="K150" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B151" s="33"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G151" s="304"/>
+      <c r="H151" s="305"/>
+      <c r="I151" s="34"/>
+      <c r="J151" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K151" s="34"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B152" s="33"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="E152" s="34"/>
+      <c r="G152" s="304"/>
+      <c r="H152" s="305"/>
+      <c r="I152" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="J152" s="34"/>
+      <c r="K152" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B153" s="33"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="G153" s="304"/>
+      <c r="H153" s="305"/>
+      <c r="I153" s="34"/>
+      <c r="J153" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K153" s="34"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="E154" s="34"/>
+      <c r="G154" s="304"/>
+      <c r="H154" s="305"/>
+      <c r="I154" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J154" s="34"/>
+      <c r="K154" s="34" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="G155" s="304"/>
+      <c r="H155" s="305"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="K155" s="34"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="E156" s="34"/>
+      <c r="G156" s="304"/>
+      <c r="H156" s="305"/>
+      <c r="I156" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="J156" s="34"/>
+      <c r="K156" s="34" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="34"/>
+      <c r="E157" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="G157" s="304"/>
+      <c r="H157" s="305"/>
+      <c r="I157" s="34"/>
+      <c r="J157" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="K157" s="34"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="E158" s="34"/>
+      <c r="G158" s="304"/>
+      <c r="H158" s="305"/>
+      <c r="I158" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="J158" s="34"/>
+      <c r="K158" s="34" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="G159" s="304"/>
+      <c r="H159" s="305"/>
+      <c r="I159" s="34"/>
+      <c r="J159" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="K159" s="34"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B160" s="4"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="34" t="s">
+        <v>780</v>
+      </c>
+      <c r="E160" s="6"/>
+      <c r="G160" s="304"/>
+      <c r="H160" s="305"/>
+      <c r="I160" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="J160" s="34"/>
+      <c r="K160" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B161" s="4"/>
+      <c r="C161" s="5"/>
+      <c r="G161" s="304"/>
+      <c r="H161" s="305"/>
+      <c r="I161" s="34"/>
+      <c r="J161" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B162" s="4"/>
+      <c r="C162" s="5"/>
+      <c r="G162" s="304"/>
+      <c r="H162" s="305"/>
+      <c r="I162" s="34" t="s">
+        <v>780</v>
+      </c>
+      <c r="J162" s="6"/>
+    </row>
+    <row r="163" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="8"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="44"/>
+      <c r="H163" s="307"/>
+      <c r="I163" s="307"/>
+      <c r="J163" s="308"/>
+      <c r="K163" s="307"/>
+      <c r="L163" s="307"/>
+      <c r="M163" s="307"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A164" s="21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B164" s="229" t="s">
+        <v>954</v>
+      </c>
+      <c r="C164" s="217"/>
+      <c r="D164" s="228" t="s">
+        <v>781</v>
+      </c>
+      <c r="E164" s="228" t="s">
+        <v>782</v>
+      </c>
+      <c r="G164" s="304"/>
+      <c r="H164" s="305"/>
+      <c r="I164" s="305"/>
+      <c r="J164" s="306"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B165" s="33"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="G165" s="304"/>
+      <c r="H165" s="305"/>
+      <c r="I165" s="305"/>
+      <c r="J165" s="306"/>
+      <c r="L165" s="303" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B166" s="33"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="E166" s="34"/>
+      <c r="G166" s="304"/>
+      <c r="H166" s="305"/>
+      <c r="I166" s="305"/>
+      <c r="J166" s="306"/>
+      <c r="K166" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B167" s="33"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="34"/>
+      <c r="E167" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="G167" s="304"/>
+      <c r="H167" s="34" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I167" s="305"/>
+      <c r="J167" s="306"/>
+      <c r="K167" s="34"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B168" s="33"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="E168" s="34"/>
+      <c r="G168" s="34" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H168" s="34"/>
+      <c r="I168" s="305"/>
+      <c r="J168" s="306"/>
+      <c r="K168" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B169" s="33"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G169" s="34"/>
+      <c r="H169" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="I169" s="305"/>
+      <c r="J169" s="306"/>
+      <c r="K169" s="34"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B170" s="33"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E170" s="26"/>
+      <c r="G170" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="H170" s="34"/>
+      <c r="I170" s="305"/>
+      <c r="J170" s="306"/>
+      <c r="K170" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B171" s="33"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="G171" s="34"/>
+      <c r="H171" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="I171" s="305"/>
+      <c r="J171" s="306"/>
+      <c r="K171" s="34"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B172" s="33"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="E172" s="34"/>
+      <c r="G172" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H172" s="26"/>
+      <c r="I172" s="305"/>
+      <c r="J172" s="306"/>
+      <c r="K172" s="34" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="G173" s="34"/>
+      <c r="H173" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="I173" s="305"/>
+      <c r="J173" s="306"/>
+      <c r="K173" s="34"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="E174" s="34"/>
+      <c r="G174" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="H174" s="34"/>
+      <c r="I174" s="305"/>
+      <c r="J174" s="306"/>
+      <c r="K174" s="34" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B175" s="4"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="34"/>
+      <c r="E175" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="G175" s="34"/>
+      <c r="H175" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="I175" s="305"/>
+      <c r="J175" s="306"/>
+      <c r="K175" s="34"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B176" s="4"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="E176" s="34"/>
+      <c r="G176" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="H176" s="34"/>
+      <c r="I176" s="305"/>
+      <c r="J176" s="306"/>
+      <c r="K176" s="34" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B177" s="4"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="34"/>
+      <c r="E177" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="G177" s="34"/>
+      <c r="H177" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="I177" s="305"/>
+      <c r="J177" s="306"/>
+      <c r="K177" s="34"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="E178" s="5"/>
+      <c r="G178" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="H178" s="34"/>
+      <c r="I178" s="305"/>
+      <c r="J178" s="306"/>
+      <c r="K178" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="G179" s="34"/>
+      <c r="H179" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="I179" s="305"/>
+      <c r="J179" s="306"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="E180" s="34"/>
+      <c r="G180" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="H180" s="5"/>
+      <c r="I180" s="305"/>
+      <c r="J180" s="306"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="G181" s="6"/>
+      <c r="H181" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="I181" s="305"/>
+      <c r="J181" s="306"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="E182" s="82"/>
+      <c r="G182" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="H182" s="34"/>
+      <c r="I182" s="305"/>
+      <c r="J182" s="306"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="G183" s="34"/>
+      <c r="H183" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="I183" s="305"/>
+      <c r="J183" s="306"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="G184" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="H184" s="305"/>
+      <c r="I184" s="305"/>
+      <c r="J184" s="306"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B185" s="114"/>
+      <c r="C185" s="5"/>
+      <c r="G185" s="304"/>
+      <c r="H185" s="305"/>
+      <c r="I185" s="305"/>
+      <c r="J185" s="306"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B186" s="114"/>
+      <c r="C186" s="5"/>
+      <c r="G186" s="304"/>
+      <c r="H186" s="305"/>
+      <c r="I186" s="305"/>
+      <c r="J186" s="306"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B187" s="176"/>
+      <c r="C187" s="5"/>
+      <c r="G187" s="304"/>
+      <c r="H187" s="305"/>
+      <c r="I187" s="305"/>
+      <c r="J187" s="306"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B188" s="176"/>
+      <c r="C188" s="5"/>
+      <c r="G188" s="304"/>
+      <c r="H188" s="305"/>
+      <c r="I188" s="305"/>
+      <c r="J188" s="306"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B189" s="176"/>
+      <c r="C189" s="81"/>
+      <c r="G189" s="304"/>
+      <c r="H189" s="305"/>
+      <c r="I189" s="305"/>
+      <c r="J189" s="306"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B190" s="33"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="34"/>
+      <c r="G190" s="304"/>
+      <c r="H190" s="305"/>
+      <c r="I190" s="305"/>
+      <c r="J190" s="306"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B191" s="33"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="34"/>
+      <c r="G191" s="304"/>
+      <c r="H191" s="305"/>
+      <c r="I191" s="305"/>
+      <c r="J191" s="306"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B192" s="33"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="34"/>
+      <c r="G192" s="304"/>
+      <c r="H192" s="305"/>
+      <c r="I192" s="305"/>
+      <c r="J192" s="306"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B193" s="33"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="34"/>
+      <c r="G193" s="304"/>
+      <c r="H193" s="305"/>
+      <c r="I193" s="305"/>
+      <c r="J193" s="306"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B194" s="33"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="34"/>
+      <c r="G194" s="304"/>
+      <c r="H194" s="305"/>
+      <c r="I194" s="305"/>
+      <c r="J194" s="306"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B195" s="33"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="34"/>
+      <c r="G195" s="304"/>
+      <c r="H195" s="305"/>
+      <c r="I195" s="305"/>
+      <c r="J195" s="306"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B196" s="33"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="34"/>
+      <c r="G196" s="304"/>
+      <c r="H196" s="305"/>
+      <c r="I196" s="305"/>
+      <c r="J196" s="306"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B197" s="33"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="26"/>
+      <c r="E197" s="34"/>
+      <c r="G197" s="304"/>
+      <c r="H197" s="305"/>
+      <c r="I197" s="305"/>
+      <c r="J197" s="306"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B198" s="33"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="34"/>
+      <c r="G198" s="304"/>
+      <c r="H198" s="305"/>
+      <c r="I198" s="305"/>
+      <c r="J198" s="306"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B199" s="33"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="34"/>
+      <c r="G199" s="304"/>
+      <c r="H199" s="305"/>
+      <c r="I199" s="305"/>
+      <c r="J199" s="306"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B200" s="33"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="34"/>
+      <c r="G200" s="304"/>
+      <c r="H200" s="305"/>
+      <c r="I200" s="305"/>
+      <c r="J200" s="306"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B201" s="33"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="34"/>
+      <c r="G201" s="304"/>
+      <c r="H201" s="305"/>
+      <c r="I201" s="305"/>
+      <c r="J201" s="306"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B202" s="33"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="34"/>
+      <c r="G202" s="304"/>
+      <c r="H202" s="305"/>
+      <c r="I202" s="305"/>
+      <c r="J202" s="306"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B203" s="33"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="34"/>
+      <c r="G203" s="304"/>
+      <c r="H203" s="305"/>
+      <c r="I203" s="305"/>
+      <c r="J203" s="306"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B204" s="33"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="34"/>
+      <c r="G204" s="304"/>
+      <c r="H204" s="305"/>
+      <c r="I204" s="305"/>
+      <c r="J204" s="306"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B205" s="33"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="34"/>
+      <c r="G205" s="304"/>
+      <c r="H205" s="305"/>
+      <c r="I205" s="305"/>
+      <c r="J205" s="306"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B206" s="33"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="34"/>
+      <c r="G206" s="304"/>
+      <c r="H206" s="305"/>
+      <c r="I206" s="305"/>
+      <c r="J206" s="306"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B207" s="33"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="26"/>
+      <c r="E207" s="34"/>
+      <c r="G207" s="304"/>
+      <c r="H207" s="305"/>
+      <c r="I207" s="305"/>
+      <c r="J207" s="306"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B208" s="33"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="26"/>
+      <c r="E208" s="34"/>
+      <c r="G208" s="304"/>
+      <c r="H208" s="305"/>
+      <c r="I208" s="305"/>
+      <c r="J208" s="306"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B209" s="33"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="34"/>
+      <c r="G209" s="304"/>
+      <c r="H209" s="305"/>
+      <c r="I209" s="305"/>
+      <c r="J209" s="306"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B210" s="33"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="26"/>
+      <c r="E210" s="34"/>
+      <c r="G210" s="304"/>
+      <c r="H210" s="305"/>
+      <c r="I210" s="305"/>
+      <c r="J210" s="306"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B211" s="33"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="34"/>
+      <c r="G211" s="304"/>
+      <c r="H211" s="305"/>
+      <c r="I211" s="305"/>
+      <c r="J211" s="306"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B212" s="33"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="34"/>
+      <c r="G212" s="304"/>
+      <c r="H212" s="305"/>
+      <c r="I212" s="305"/>
+      <c r="J212" s="306"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B213" s="33"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="34"/>
+      <c r="G213" s="304"/>
+      <c r="H213" s="305"/>
+      <c r="I213" s="305"/>
+      <c r="J213" s="306"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B214" s="33"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="34"/>
+      <c r="G214" s="304"/>
+      <c r="H214" s="305"/>
+      <c r="I214" s="305"/>
+      <c r="J214" s="306"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B215" s="33"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="34"/>
+      <c r="G215" s="304"/>
+      <c r="H215" s="305"/>
+      <c r="I215" s="305"/>
+      <c r="J215" s="306"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B216" s="33"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="34"/>
+      <c r="G216" s="304"/>
+      <c r="H216" s="305"/>
+      <c r="I216" s="305"/>
+      <c r="J216" s="306"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B217" s="33"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="34"/>
+      <c r="G217" s="304"/>
+      <c r="H217" s="305"/>
+      <c r="I217" s="305"/>
+      <c r="J217" s="306"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B218" s="33"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="34"/>
+      <c r="G218" s="304"/>
+      <c r="H218" s="305"/>
+      <c r="I218" s="305"/>
+      <c r="J218" s="306"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B219" s="33"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="34"/>
+      <c r="G219" s="304"/>
+      <c r="H219" s="305"/>
+      <c r="I219" s="305"/>
+      <c r="J219" s="306"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B220" s="33"/>
+      <c r="C220" s="26"/>
+      <c r="D220" s="26"/>
+      <c r="E220" s="34"/>
+      <c r="G220" s="304"/>
+      <c r="H220" s="305"/>
+      <c r="I220" s="305"/>
+      <c r="J220" s="306"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B221" s="33"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="34"/>
+      <c r="G221" s="304"/>
+      <c r="H221" s="305"/>
+      <c r="I221" s="305"/>
+      <c r="J221" s="306"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B222" s="33"/>
+      <c r="C222" s="26"/>
+      <c r="D222" s="26"/>
+      <c r="E222" s="34"/>
+      <c r="G222" s="304"/>
+      <c r="H222" s="305"/>
+      <c r="I222" s="305"/>
+      <c r="J222" s="306"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B223" s="33"/>
+      <c r="C223" s="26"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="34"/>
+      <c r="G223" s="304"/>
+      <c r="H223" s="305"/>
+      <c r="I223" s="305"/>
+      <c r="J223" s="306"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B224" s="33"/>
+      <c r="C224" s="26"/>
+      <c r="D224" s="26"/>
+      <c r="E224" s="34"/>
+      <c r="G224" s="304"/>
+      <c r="H224" s="305"/>
+      <c r="I224" s="305"/>
+      <c r="J224" s="306"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B225" s="33"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="26"/>
+      <c r="E225" s="34"/>
+      <c r="G225" s="304"/>
+      <c r="H225" s="305"/>
+      <c r="I225" s="305"/>
+      <c r="J225" s="306"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B226" s="33"/>
+      <c r="C226" s="26"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="34"/>
+      <c r="G226" s="304"/>
+      <c r="H226" s="305"/>
+      <c r="I226" s="305"/>
+      <c r="J226" s="306"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B227" s="33"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="26"/>
+      <c r="E227" s="34"/>
+      <c r="G227" s="304"/>
+      <c r="H227" s="305"/>
+      <c r="I227" s="305"/>
+      <c r="J227" s="306"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B228" s="33"/>
+      <c r="C228" s="26"/>
+      <c r="D228" s="26"/>
+      <c r="E228" s="34"/>
+      <c r="G228" s="304"/>
+      <c r="H228" s="305"/>
+      <c r="I228" s="305"/>
+      <c r="J228" s="306"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B229" s="33"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="34"/>
+      <c r="G229" s="304"/>
+      <c r="H229" s="305"/>
+      <c r="I229" s="305"/>
+      <c r="J229" s="306"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B230" s="33"/>
+      <c r="C230" s="26"/>
+      <c r="D230" s="26"/>
+      <c r="E230" s="34"/>
+      <c r="G230" s="304"/>
+      <c r="H230" s="305"/>
+      <c r="I230" s="305"/>
+      <c r="J230" s="306"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B231" s="33"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="34"/>
+      <c r="G231" s="304"/>
+      <c r="H231" s="305"/>
+      <c r="I231" s="305"/>
+      <c r="J231" s="306"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B232" s="33"/>
+      <c r="C232" s="26"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="34"/>
+      <c r="G232" s="304"/>
+      <c r="H232" s="305"/>
+      <c r="I232" s="305"/>
+      <c r="J232" s="306"/>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B233" s="33"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="34"/>
+      <c r="G233" s="304"/>
+      <c r="H233" s="305"/>
+      <c r="I233" s="305"/>
+      <c r="J233" s="306"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B234" s="33"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="34"/>
+      <c r="G234" s="304"/>
+      <c r="H234" s="305"/>
+      <c r="I234" s="305"/>
+      <c r="J234" s="306"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B235" s="33"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="34"/>
+      <c r="G235" s="304"/>
+      <c r="H235" s="305"/>
+      <c r="I235" s="305"/>
+      <c r="J235" s="306"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B236" s="33"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="26"/>
+      <c r="E236" s="34"/>
+      <c r="G236" s="304"/>
+      <c r="H236" s="305"/>
+      <c r="I236" s="305"/>
+      <c r="J236" s="306"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B237" s="33"/>
+      <c r="C237" s="26"/>
+      <c r="D237" s="26"/>
+      <c r="E237" s="34"/>
+      <c r="G237" s="304"/>
+      <c r="H237" s="305"/>
+      <c r="I237" s="305"/>
+      <c r="J237" s="306"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B238" s="33"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="26"/>
+      <c r="E238" s="34"/>
+      <c r="G238" s="304"/>
+      <c r="H238" s="305"/>
+      <c r="I238" s="305"/>
+      <c r="J238" s="306"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B239" s="33"/>
+      <c r="C239" s="26"/>
+      <c r="D239" s="26"/>
+      <c r="E239" s="34"/>
+      <c r="G239" s="304"/>
+      <c r="H239" s="305"/>
+      <c r="I239" s="305"/>
+      <c r="J239" s="306"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B240" s="33"/>
+      <c r="C240" s="26"/>
+      <c r="D240" s="26"/>
+      <c r="E240" s="34"/>
+      <c r="G240" s="304"/>
+      <c r="H240" s="305"/>
+      <c r="I240" s="305"/>
+      <c r="J240" s="306"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B241" s="33"/>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26"/>
+      <c r="E241" s="34"/>
+      <c r="G241" s="304"/>
+      <c r="H241" s="305"/>
+      <c r="I241" s="305"/>
+      <c r="J241" s="306"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B242" s="33"/>
+      <c r="C242" s="26"/>
+      <c r="D242" s="26"/>
+      <c r="E242" s="34"/>
+      <c r="G242" s="304"/>
+      <c r="H242" s="305"/>
+      <c r="I242" s="305"/>
+      <c r="J242" s="306"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B243" s="33"/>
+      <c r="C243" s="26"/>
+      <c r="D243" s="26"/>
+      <c r="E243" s="34"/>
+      <c r="G243" s="304"/>
+      <c r="H243" s="305"/>
+      <c r="I243" s="305"/>
+      <c r="J243" s="306"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B244" s="33"/>
+      <c r="C244" s="26"/>
+      <c r="D244" s="26"/>
+      <c r="E244" s="34"/>
+      <c r="G244" s="304"/>
+      <c r="H244" s="305"/>
+      <c r="I244" s="305"/>
+      <c r="J244" s="306"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B245" s="33"/>
+      <c r="C245" s="26"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="34"/>
+      <c r="G245" s="304"/>
+      <c r="H245" s="305"/>
+      <c r="I245" s="305"/>
+      <c r="J245" s="306"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B246" s="33"/>
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="34"/>
+      <c r="G246" s="304"/>
+      <c r="H246" s="305"/>
+      <c r="I246" s="305"/>
+      <c r="J246" s="306"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B247" s="33"/>
+      <c r="C247" s="26"/>
+      <c r="D247" s="26"/>
+      <c r="E247" s="34"/>
+      <c r="G247" s="304"/>
+      <c r="H247" s="305"/>
+      <c r="I247" s="305"/>
+      <c r="J247" s="306"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B248" s="33"/>
+      <c r="C248" s="26"/>
+      <c r="D248" s="26"/>
+      <c r="E248" s="34"/>
+      <c r="G248" s="304"/>
+      <c r="H248" s="305"/>
+      <c r="I248" s="305"/>
+      <c r="J248" s="306"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B249" s="33"/>
+      <c r="C249" s="26"/>
+      <c r="D249" s="26"/>
+      <c r="E249" s="34"/>
+      <c r="G249" s="304"/>
+      <c r="H249" s="305"/>
+      <c r="I249" s="305"/>
+      <c r="J249" s="306"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B250" s="33"/>
+      <c r="C250" s="26"/>
+      <c r="D250" s="26"/>
+      <c r="E250" s="34"/>
+      <c r="G250" s="304"/>
+      <c r="H250" s="305"/>
+      <c r="I250" s="305"/>
+      <c r="J250" s="306"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B251" s="33"/>
+      <c r="C251" s="26"/>
+      <c r="D251" s="26"/>
+      <c r="E251" s="34"/>
+      <c r="G251" s="304"/>
+      <c r="H251" s="305"/>
+      <c r="I251" s="305"/>
+      <c r="J251" s="306"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B252" s="33"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="26"/>
+      <c r="E252" s="34"/>
+      <c r="G252" s="304"/>
+      <c r="H252" s="305"/>
+      <c r="I252" s="305"/>
+      <c r="J252" s="306"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B253" s="33"/>
+      <c r="C253" s="26"/>
+      <c r="D253" s="26"/>
+      <c r="E253" s="34"/>
+      <c r="G253" s="304"/>
+      <c r="H253" s="305"/>
+      <c r="I253" s="305"/>
+      <c r="J253" s="306"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B254" s="33"/>
+      <c r="C254" s="26"/>
+      <c r="D254" s="26"/>
+      <c r="E254" s="34"/>
+      <c r="G254" s="304"/>
+      <c r="H254" s="305"/>
+      <c r="I254" s="305"/>
+      <c r="J254" s="306"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B255" s="33"/>
+      <c r="C255" s="26"/>
+      <c r="D255" s="26"/>
+      <c r="E255" s="34"/>
+      <c r="G255" s="304"/>
+      <c r="H255" s="305"/>
+      <c r="I255" s="305"/>
+      <c r="J255" s="306"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B256" s="33"/>
+      <c r="C256" s="26"/>
+      <c r="D256" s="26"/>
+      <c r="E256" s="34"/>
+      <c r="G256" s="304"/>
+      <c r="H256" s="305"/>
+      <c r="I256" s="305"/>
+      <c r="J256" s="306"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B257" s="33"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="26"/>
+      <c r="E257" s="34"/>
+      <c r="G257" s="304"/>
+      <c r="H257" s="305"/>
+      <c r="I257" s="305"/>
+      <c r="J257" s="306"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B258" s="33"/>
+      <c r="C258" s="26"/>
+      <c r="D258" s="26"/>
+      <c r="E258" s="34"/>
+      <c r="G258" s="304"/>
+      <c r="H258" s="305"/>
+      <c r="I258" s="305"/>
+      <c r="J258" s="306"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B259" s="33"/>
+      <c r="C259" s="26"/>
+      <c r="D259" s="26"/>
+      <c r="E259" s="34"/>
+      <c r="G259" s="304"/>
+      <c r="H259" s="305"/>
+      <c r="I259" s="305"/>
+      <c r="J259" s="306"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B260" s="33"/>
+      <c r="C260" s="26"/>
+      <c r="D260" s="26"/>
+      <c r="E260" s="34"/>
+      <c r="G260" s="304"/>
+      <c r="H260" s="305"/>
+      <c r="I260" s="305"/>
+      <c r="J260" s="306"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B261" s="33"/>
+      <c r="C261" s="26"/>
+      <c r="D261" s="26"/>
+      <c r="E261" s="34"/>
+      <c r="G261" s="304"/>
+      <c r="H261" s="305"/>
+      <c r="I261" s="305"/>
+      <c r="J261" s="306"/>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B262" s="33"/>
+      <c r="C262" s="26"/>
+      <c r="D262" s="26"/>
+      <c r="E262" s="34"/>
+      <c r="G262" s="304"/>
+      <c r="H262" s="305"/>
+      <c r="I262" s="305"/>
+      <c r="J262" s="306"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B263" s="33"/>
+      <c r="C263" s="26"/>
+      <c r="D263" s="26"/>
+      <c r="E263" s="34"/>
+      <c r="G263" s="304"/>
+      <c r="H263" s="305"/>
+      <c r="I263" s="305"/>
+      <c r="J263" s="306"/>
+    </row>
+    <row r="264" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B264" s="299"/>
+      <c r="C264" s="28"/>
+      <c r="D264" s="28"/>
+      <c r="E264" s="29"/>
+      <c r="G264" s="44"/>
+      <c r="H264" s="307"/>
+      <c r="I264" s="307"/>
+      <c r="J264" s="308"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="G83:J83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28690,8 +31315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5899DE7F-7BD3-4EF6-BDB0-E6299F31096F}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F33" sqref="F32:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -28705,7 +31330,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -28883,7 +31508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431E16EB-4173-4BB0-A744-4BFFE60D57DA}">
   <dimension ref="A1:BA82"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N17" sqref="N17"/>
     </sheetView>
@@ -28931,11 +31556,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="311" t="s">
+      <c r="D1" s="318" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
       <c r="G1" s="42"/>
       <c r="H1" s="59"/>
       <c r="I1" s="92"/>
@@ -28977,12 +31602,12 @@
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D3" s="304" t="s">
+      <c r="D3" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="306"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="313"/>
       <c r="H3" s="119"/>
       <c r="I3" s="121"/>
       <c r="J3" s="121"/>
@@ -28991,12 +31616,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="307" t="s">
+      <c r="D6" s="314" t="s">
         <v>619</v>
       </c>
-      <c r="E6" s="308"/>
-      <c r="F6" s="308"/>
-      <c r="G6" s="309"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="316"/>
       <c r="H6" s="122"/>
       <c r="I6" s="94"/>
       <c r="J6" s="94"/>
@@ -29005,27 +31630,27 @@
       <c r="M6" s="94"/>
       <c r="N6" s="94"/>
       <c r="O6" s="94"/>
-      <c r="P6" s="307" t="s">
+      <c r="P6" s="314" t="s">
         <v>620</v>
       </c>
-      <c r="Q6" s="308"/>
-      <c r="R6" s="308"/>
-      <c r="S6" s="309"/>
-      <c r="AF6" s="307" t="s">
+      <c r="Q6" s="315"/>
+      <c r="R6" s="315"/>
+      <c r="S6" s="316"/>
+      <c r="AF6" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="308"/>
-      <c r="AH6" s="308"/>
-      <c r="AI6" s="309"/>
+      <c r="AG6" s="315"/>
+      <c r="AH6" s="315"/>
+      <c r="AI6" s="316"/>
       <c r="AJ6" s="153"/>
-      <c r="AK6" s="307" t="s">
+      <c r="AK6" s="314" t="s">
         <v>618</v>
       </c>
-      <c r="AL6" s="308"/>
-      <c r="AM6" s="308"/>
-      <c r="AN6" s="308"/>
-      <c r="AO6" s="308"/>
-      <c r="AP6" s="309"/>
+      <c r="AL6" s="315"/>
+      <c r="AM6" s="315"/>
+      <c r="AN6" s="315"/>
+      <c r="AO6" s="315"/>
+      <c r="AP6" s="316"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="44" t="s">
@@ -29103,11 +31728,11 @@
       <c r="J8" s="94"/>
       <c r="K8" s="94"/>
       <c r="L8" s="94"/>
-      <c r="M8" s="317" t="s">
+      <c r="M8" s="325" t="s">
         <v>526</v>
       </c>
-      <c r="N8" s="317"/>
-      <c r="O8" s="317"/>
+      <c r="N8" s="325"/>
+      <c r="O8" s="325"/>
       <c r="P8" s="118"/>
       <c r="Q8" s="119"/>
       <c r="R8" s="119"/>
@@ -29128,12 +31753,12 @@
       <c r="AL8" s="154"/>
       <c r="AM8" s="154"/>
       <c r="AN8" s="154"/>
-      <c r="AQ8" s="304" t="s">
+      <c r="AQ8" s="311" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="305"/>
-      <c r="AS8" s="305"/>
-      <c r="AT8" s="306"/>
+      <c r="AR8" s="312"/>
+      <c r="AS8" s="312"/>
+      <c r="AT8" s="313"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="284"/>
@@ -29145,11 +31770,11 @@
       <c r="J9" s="121"/>
       <c r="K9" s="121"/>
       <c r="L9" s="121"/>
-      <c r="M9" s="319" t="s">
+      <c r="M9" s="327" t="s">
         <v>527</v>
       </c>
-      <c r="N9" s="319"/>
-      <c r="O9" s="318"/>
+      <c r="N9" s="327"/>
+      <c r="O9" s="326"/>
       <c r="P9" s="118"/>
       <c r="Q9" s="119"/>
       <c r="R9" s="119"/>
@@ -29191,9 +31816,9 @@
       <c r="J10" s="121"/>
       <c r="K10" s="121"/>
       <c r="L10" s="121"/>
-      <c r="M10" s="320"/>
-      <c r="N10" s="320"/>
-      <c r="O10" s="320"/>
+      <c r="M10" s="324"/>
+      <c r="N10" s="324"/>
+      <c r="O10" s="324"/>
       <c r="P10" s="118"/>
       <c r="Q10" s="119"/>
       <c r="R10" s="119"/>
@@ -29218,12 +31843,12 @@
       <c r="AL10" s="154"/>
       <c r="AM10" s="154"/>
       <c r="AN10" s="154"/>
-      <c r="AQ10" s="304" t="s">
+      <c r="AQ10" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="AR10" s="305"/>
-      <c r="AS10" s="305"/>
-      <c r="AT10" s="306"/>
+      <c r="AR10" s="312"/>
+      <c r="AS10" s="312"/>
+      <c r="AT10" s="313"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="284"/>
@@ -29259,12 +31884,12 @@
       <c r="AL11" s="154"/>
       <c r="AM11" s="154"/>
       <c r="AN11" s="154"/>
-      <c r="AQ11" s="304" t="s">
+      <c r="AQ11" s="311" t="s">
         <v>617</v>
       </c>
-      <c r="AR11" s="305"/>
-      <c r="AS11" s="305"/>
-      <c r="AT11" s="306"/>
+      <c r="AR11" s="312"/>
+      <c r="AS11" s="312"/>
+      <c r="AT11" s="313"/>
       <c r="AU11" s="26" t="s">
         <v>263</v>
       </c>
@@ -29290,11 +31915,11 @@
       <c r="J12" s="94"/>
       <c r="K12" s="94"/>
       <c r="L12" s="94"/>
-      <c r="M12" s="321" t="s">
+      <c r="M12" s="328" t="s">
         <v>525</v>
       </c>
-      <c r="N12" s="321"/>
-      <c r="O12" s="321"/>
+      <c r="N12" s="328"/>
+      <c r="O12" s="328"/>
       <c r="P12" s="118"/>
       <c r="Q12" s="119"/>
       <c r="R12" s="119"/>
@@ -29308,12 +31933,12 @@
       <c r="AL12" s="154"/>
       <c r="AM12" s="154"/>
       <c r="AN12" s="154"/>
-      <c r="AQ12" s="304" t="s">
+      <c r="AQ12" s="311" t="s">
         <v>524</v>
       </c>
-      <c r="AR12" s="305"/>
-      <c r="AS12" s="305"/>
-      <c r="AT12" s="306"/>
+      <c r="AR12" s="312"/>
+      <c r="AS12" s="312"/>
+      <c r="AT12" s="313"/>
       <c r="AV12" s="21" t="s">
         <v>613</v>
       </c>
@@ -29329,12 +31954,12 @@
         <v>520</v>
       </c>
       <c r="C13" s="131"/>
-      <c r="D13" s="307" t="s">
+      <c r="D13" s="314" t="s">
         <v>528</v>
       </c>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="309"/>
+      <c r="E13" s="315"/>
+      <c r="F13" s="315"/>
+      <c r="G13" s="316"/>
       <c r="H13" s="167" t="s">
         <v>631</v>
       </c>
@@ -29357,11 +31982,11 @@
       <c r="O13" s="180" t="s">
         <v>635</v>
       </c>
-      <c r="P13" s="307" t="s">
+      <c r="P13" s="314" t="s">
         <v>529</v>
       </c>
-      <c r="Q13" s="308"/>
-      <c r="R13" s="308"/>
+      <c r="Q13" s="315"/>
+      <c r="R13" s="315"/>
       <c r="S13" s="156"/>
       <c r="T13" s="170" t="s">
         <v>656</v>
@@ -29397,18 +32022,18 @@
       <c r="AH13" s="59"/>
       <c r="AI13" s="43"/>
       <c r="AJ13" s="153"/>
-      <c r="AK13" s="304" t="s">
+      <c r="AK13" s="311" t="s">
         <v>528</v>
       </c>
-      <c r="AL13" s="305"/>
-      <c r="AM13" s="305"/>
-      <c r="AN13" s="305"/>
-      <c r="AQ13" s="304" t="s">
+      <c r="AL13" s="312"/>
+      <c r="AM13" s="312"/>
+      <c r="AN13" s="312"/>
+      <c r="AQ13" s="311" t="s">
         <v>610</v>
       </c>
-      <c r="AR13" s="303"/>
-      <c r="AS13" s="303"/>
-      <c r="AT13" s="303"/>
+      <c r="AR13" s="310"/>
+      <c r="AS13" s="310"/>
+      <c r="AT13" s="310"/>
       <c r="AV13" s="21" t="s">
         <v>614</v>
       </c>
@@ -29575,7 +32200,7 @@
         <v>655</v>
       </c>
       <c r="N17" s="172" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="O17" s="112"/>
       <c r="P17" s="154"/>
@@ -29893,7 +32518,7 @@
         <v>69</v>
       </c>
       <c r="Y25" s="138" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="Z25" s="82"/>
       <c r="AA25" s="191"/>
@@ -29964,7 +32589,7 @@
         <v>70</v>
       </c>
       <c r="Y27" s="138" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="Z27" s="82"/>
       <c r="AA27" s="191"/>
@@ -30036,7 +32661,7 @@
         <v>72</v>
       </c>
       <c r="Y29" s="138" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="Z29" s="82"/>
       <c r="AA29" s="191"/>
@@ -30102,8 +32727,8 @@
       </c>
       <c r="AO30" s="159"/>
       <c r="AP30" s="161"/>
-      <c r="AR30" s="318"/>
-      <c r="AS30" s="318"/>
+      <c r="AR30" s="326"/>
+      <c r="AS30" s="326"/>
     </row>
     <row r="31" spans="1:52" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="198" t="s">
@@ -30241,7 +32866,7 @@
         <v>72</v>
       </c>
       <c r="N34" s="172" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="O34" s="112"/>
       <c r="P34" s="26"/>
@@ -30257,7 +32882,7 @@
         <v>149</v>
       </c>
       <c r="Y34" s="172" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="Z34" s="82"/>
       <c r="AA34" s="191"/>
@@ -30334,11 +32959,11 @@
         <v>88</v>
       </c>
       <c r="N36" s="172" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="O36" s="112"/>
       <c r="P36" s="90" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T36" s="172"/>
       <c r="U36" s="173"/>
@@ -30383,10 +33008,10 @@
       <c r="N37" s="179"/>
       <c r="O37" s="165"/>
       <c r="P37" s="90" t="s">
+        <v>902</v>
+      </c>
+      <c r="Q37" s="90" t="s">
         <v>903</v>
-      </c>
-      <c r="Q37" s="90" t="s">
-        <v>904</v>
       </c>
       <c r="T37" s="172"/>
       <c r="U37" s="174"/>
@@ -30433,14 +33058,14 @@
         <v>89</v>
       </c>
       <c r="N38" s="172" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="O38" s="182"/>
       <c r="P38" s="90" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q38" s="90" t="s">
         <v>905</v>
-      </c>
-      <c r="Q38" s="90" t="s">
-        <v>906</v>
       </c>
       <c r="R38" s="91" t="s">
         <v>653</v>
@@ -30487,7 +33112,7 @@
       <c r="O39" s="182"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="89" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="R39" s="168" t="s">
         <v>654</v>
@@ -30527,7 +33152,7 @@
         <v>90</v>
       </c>
       <c r="N40" s="172" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="O40" s="182"/>
       <c r="P40" s="26"/>
@@ -30551,8 +33176,8 @@
         <v>88</v>
       </c>
       <c r="AO40" s="159"/>
-      <c r="AR40" s="320"/>
-      <c r="AS40" s="320"/>
+      <c r="AR40" s="324"/>
+      <c r="AS40" s="324"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="151" t="s">
@@ -30613,7 +33238,7 @@
         <v>158</v>
       </c>
       <c r="Y42" s="138" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="Z42" s="82"/>
       <c r="AA42" s="191"/>
@@ -30690,7 +33315,7 @@
         <v>160</v>
       </c>
       <c r="Y44" s="138" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="Z44" s="82"/>
       <c r="AA44" s="191"/>
@@ -30766,7 +33391,7 @@
         <v>152</v>
       </c>
       <c r="Y46" s="138" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="Z46" s="82"/>
       <c r="AA46" s="191"/>
@@ -30783,8 +33408,8 @@
         <v>633</v>
       </c>
       <c r="AP46" s="161"/>
-      <c r="AR46" s="320"/>
-      <c r="AS46" s="320"/>
+      <c r="AR46" s="324"/>
+      <c r="AS46" s="324"/>
     </row>
     <row r="47" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="151" t="s">
@@ -30834,12 +33459,12 @@
         <v>522</v>
       </c>
       <c r="C48" s="178"/>
-      <c r="D48" s="307" t="s">
+      <c r="D48" s="314" t="s">
         <v>528</v>
       </c>
-      <c r="E48" s="308"/>
-      <c r="F48" s="308"/>
-      <c r="G48" s="309"/>
+      <c r="E48" s="315"/>
+      <c r="F48" s="315"/>
+      <c r="G48" s="316"/>
       <c r="H48" s="167" t="s">
         <v>631</v>
       </c>
@@ -30862,11 +33487,11 @@
       <c r="O48" s="180" t="s">
         <v>635</v>
       </c>
-      <c r="P48" s="307" t="s">
+      <c r="P48" s="314" t="s">
         <v>529</v>
       </c>
-      <c r="Q48" s="308"/>
-      <c r="R48" s="308"/>
+      <c r="Q48" s="315"/>
+      <c r="R48" s="315"/>
       <c r="S48" s="189"/>
       <c r="T48" s="170" t="s">
         <v>656</v>
@@ -31127,7 +33752,7 @@
       <c r="N54" s="135"/>
       <c r="O54" s="135"/>
       <c r="P54" s="145" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="V54" s="172"/>
       <c r="W54" s="138"/>
@@ -31173,10 +33798,10 @@
       <c r="N55" s="135"/>
       <c r="O55" s="135"/>
       <c r="P55" s="145" t="s">
+        <v>902</v>
+      </c>
+      <c r="Q55" s="90" t="s">
         <v>903</v>
-      </c>
-      <c r="Q55" s="90" t="s">
-        <v>904</v>
       </c>
       <c r="V55" s="172"/>
       <c r="W55" s="162"/>
@@ -31223,10 +33848,10 @@
       <c r="N56" s="143"/>
       <c r="O56" s="143"/>
       <c r="P56" s="145" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q56" s="90" t="s">
         <v>905</v>
-      </c>
-      <c r="Q56" s="90" t="s">
-        <v>906</v>
       </c>
       <c r="R56" s="91" t="s">
         <v>653</v>
@@ -31271,7 +33896,7 @@
       <c r="N57" s="143"/>
       <c r="O57" s="143"/>
       <c r="Q57" s="90" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="R57" s="91" t="s">
         <v>654</v>
@@ -31401,7 +34026,7 @@
       <c r="N60" s="143"/>
       <c r="O60" s="143"/>
       <c r="P60" s="145" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AA60" s="192"/>
       <c r="AB60" s="191"/>
@@ -31451,10 +34076,10 @@
       <c r="N61" s="143"/>
       <c r="O61" s="143"/>
       <c r="P61" s="145" t="s">
+        <v>902</v>
+      </c>
+      <c r="Q61" s="90" t="s">
         <v>903</v>
-      </c>
-      <c r="Q61" s="90" t="s">
-        <v>904</v>
       </c>
       <c r="AA61" s="169"/>
       <c r="AB61" s="135" t="s">
@@ -31510,10 +34135,10 @@
       <c r="N62" s="143"/>
       <c r="O62" s="143"/>
       <c r="P62" s="145" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q62" s="90" t="s">
         <v>905</v>
-      </c>
-      <c r="Q62" s="90" t="s">
-        <v>906</v>
       </c>
       <c r="R62" s="91" t="s">
         <v>653</v>
@@ -31576,7 +34201,7 @@
       <c r="N63" s="143"/>
       <c r="O63" s="143"/>
       <c r="Q63" s="90" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="R63" s="91" t="s">
         <v>654</v>
@@ -31745,7 +34370,7 @@
       <c r="N66" s="143"/>
       <c r="O66" s="143"/>
       <c r="P66" s="145" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AA66" s="191"/>
       <c r="AB66" s="191"/>
@@ -31795,10 +34420,10 @@
       <c r="N67" s="144"/>
       <c r="O67" s="144"/>
       <c r="P67" s="145" t="s">
+        <v>902</v>
+      </c>
+      <c r="Q67" s="90" t="s">
         <v>903</v>
-      </c>
-      <c r="Q67" s="90" t="s">
-        <v>904</v>
       </c>
       <c r="AA67" s="191"/>
       <c r="AB67" s="135" t="s">
@@ -31848,10 +34473,10 @@
       <c r="H68" s="78"/>
       <c r="O68" s="121"/>
       <c r="P68" s="145" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q68" s="90" t="s">
         <v>905</v>
-      </c>
-      <c r="Q68" s="90" t="s">
-        <v>906</v>
       </c>
       <c r="R68" s="91" t="s">
         <v>653</v>
@@ -31901,7 +34526,7 @@
       <c r="G69" s="82"/>
       <c r="O69" s="121"/>
       <c r="Q69" s="90" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="R69" s="91" t="s">
         <v>654</v>
@@ -32206,13 +34831,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="AR46:AS46"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AR40:AS40"/>
-    <mergeCell ref="AQ11:AT11"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="D6:G6"/>
@@ -32229,6 +34847,13 @@
     <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="AQ10:AT10"/>
     <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="AQ11:AT11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32240,9 +34865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43FEDAF-23E6-469D-8A80-8AB9F6CCCBDB}">
   <dimension ref="A1:AU189"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H60" sqref="H60"/>
+      <selection pane="topRight" activeCell="J163" sqref="J163:M188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -32286,17 +34911,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="311" t="s">
+      <c r="B1" s="318" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
       <c r="E1" s="42"/>
-      <c r="F1" s="311" t="s">
-        <v>947</v>
-      </c>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
+      <c r="F1" s="318" t="s">
+        <v>946</v>
+      </c>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
       <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -32313,7 +34938,7 @@
         <v>259</v>
       </c>
       <c r="H2" s="266" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="I2" s="43"/>
     </row>
@@ -32339,61 +34964,61 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="322" t="s">
-        <v>946</v>
-      </c>
-      <c r="C4" s="323"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="322" t="s">
+      <c r="B4" s="329" t="s">
+        <v>945</v>
+      </c>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="329" t="s">
         <v>282</v>
       </c>
-      <c r="G4" s="323"/>
-      <c r="H4" s="323"/>
-      <c r="I4" s="324"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="331"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="304" t="s">
-        <v>858</v>
-      </c>
-      <c r="C5" s="305"/>
-      <c r="D5" s="305"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="304" t="s">
-        <v>858</v>
-      </c>
-      <c r="G5" s="305"/>
-      <c r="H5" s="305"/>
-      <c r="I5" s="306"/>
+      <c r="B5" s="311" t="s">
+        <v>857</v>
+      </c>
+      <c r="C5" s="312"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="311" t="s">
+        <v>857</v>
+      </c>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="313"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="307" t="s">
+      <c r="B6" s="314" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="308"/>
-      <c r="D6" s="308"/>
-      <c r="E6" s="309"/>
-      <c r="F6" s="310" t="s">
+      <c r="C6" s="315"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="317" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="308"/>
-      <c r="H6" s="308"/>
-      <c r="I6" s="308"/>
-      <c r="J6" s="307" t="s">
+      <c r="G6" s="315"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="314" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="308"/>
-      <c r="L6" s="308"/>
-      <c r="M6" s="309"/>
-      <c r="N6" s="307" t="s">
+      <c r="K6" s="315"/>
+      <c r="L6" s="315"/>
+      <c r="M6" s="316"/>
+      <c r="N6" s="314" t="s">
         <v>187</v>
       </c>
-      <c r="O6" s="308"/>
-      <c r="P6" s="308"/>
-      <c r="Q6" s="309"/>
+      <c r="O6" s="315"/>
+      <c r="P6" s="315"/>
+      <c r="Q6" s="316"/>
       <c r="V6" s="55"/>
       <c r="W6" s="56"/>
       <c r="X6" s="56"/>
@@ -32422,24 +35047,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="206"/>
-      <c r="B7" s="307" t="s">
+      <c r="B7" s="314" t="s">
         <v>619</v>
       </c>
-      <c r="C7" s="308"/>
-      <c r="D7" s="308"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="307" t="s">
+      <c r="C7" s="315"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="314" t="s">
         <v>620</v>
       </c>
-      <c r="G7" s="308"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="309"/>
-      <c r="J7" s="307" t="s">
-        <v>780</v>
-      </c>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="309"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="314" t="s">
+        <v>779</v>
+      </c>
+      <c r="K7" s="315"/>
+      <c r="L7" s="315"/>
+      <c r="M7" s="316"/>
       <c r="N7" s="203"/>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
@@ -32525,31 +35150,31 @@
         <v>640</v>
       </c>
       <c r="AE8" s="234" t="s">
+        <v>817</v>
+      </c>
+      <c r="AF8" s="237" t="s">
         <v>818</v>
       </c>
-      <c r="AF8" s="237" t="s">
+      <c r="AG8" s="237" t="s">
         <v>819</v>
       </c>
-      <c r="AG8" s="237" t="s">
+      <c r="AH8" s="237" t="s">
         <v>820</v>
       </c>
-      <c r="AH8" s="237" t="s">
+      <c r="AI8" s="235" t="s">
         <v>821</v>
       </c>
-      <c r="AI8" s="235" t="s">
+      <c r="AJ8" s="235" t="s">
+        <v>813</v>
+      </c>
+      <c r="AK8" s="237" t="s">
+        <v>814</v>
+      </c>
+      <c r="AL8" s="237" t="s">
+        <v>815</v>
+      </c>
+      <c r="AM8" s="238" t="s">
         <v>822</v>
-      </c>
-      <c r="AJ8" s="235" t="s">
-        <v>814</v>
-      </c>
-      <c r="AK8" s="237" t="s">
-        <v>815</v>
-      </c>
-      <c r="AL8" s="237" t="s">
-        <v>816</v>
-      </c>
-      <c r="AM8" s="238" t="s">
-        <v>823</v>
       </c>
       <c r="AN8" s="234" t="s">
         <v>631</v>
@@ -32558,7 +35183,7 @@
         <v>647</v>
       </c>
       <c r="AP8" s="235" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AQ8" s="236" t="s">
         <v>648</v>
@@ -32581,14 +35206,14 @@
       <c r="H9" s="26"/>
       <c r="I9" s="21"/>
       <c r="J9" s="281" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K9" s="81"/>
       <c r="L9" s="228" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M9" s="228" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -32692,7 +35317,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="34"/>
       <c r="F14" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -32716,7 +35341,7 @@
         <v>234</v>
       </c>
       <c r="G15" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="21"/>
@@ -32744,7 +35369,7 @@
         <v>235</v>
       </c>
       <c r="H16" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="114"/>
@@ -32776,7 +35401,7 @@
         <v>237</v>
       </c>
       <c r="I17" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J17" s="114"/>
       <c r="K17" s="12"/>
@@ -32873,7 +35498,7 @@
       <c r="D22" s="26"/>
       <c r="E22" s="34"/>
       <c r="F22" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G22" s="81"/>
       <c r="H22" s="81"/>
@@ -32898,7 +35523,7 @@
         <v>252</v>
       </c>
       <c r="G23" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="21"/>
@@ -32928,7 +35553,7 @@
         <v>249</v>
       </c>
       <c r="H24" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="114"/>
@@ -32960,7 +35585,7 @@
         <v>247</v>
       </c>
       <c r="I25" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J25" s="114"/>
       <c r="K25" s="12"/>
@@ -33238,7 +35863,7 @@
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
       <c r="M39" s="76" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N39" s="4"/>
     </row>
@@ -33251,7 +35876,7 @@
       <c r="J40" s="33"/>
       <c r="K40" s="26"/>
       <c r="L40" s="76" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M40" s="34"/>
       <c r="N40" s="4"/>
@@ -33268,7 +35893,7 @@
       <c r="K41" s="26"/>
       <c r="L41" s="34"/>
       <c r="M41" s="76" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="N41" s="4"/>
     </row>
@@ -33285,7 +35910,7 @@
       <c r="J42" s="33"/>
       <c r="K42" s="26"/>
       <c r="L42" s="76" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M42" s="34"/>
       <c r="N42" s="4"/>
@@ -33296,10 +35921,10 @@
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="74" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F43" s="80" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -33315,16 +35940,16 @@
         <v>334</v>
       </c>
       <c r="D44" s="76" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E44" s="74" t="s">
+        <v>835</v>
+      </c>
+      <c r="F44" s="80" t="s">
+        <v>839</v>
+      </c>
+      <c r="G44" s="80" t="s">
         <v>836</v>
-      </c>
-      <c r="F44" s="80" t="s">
-        <v>840</v>
-      </c>
-      <c r="G44" s="80" t="s">
-        <v>837</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
@@ -33339,12 +35964,12 @@
         <v>335</v>
       </c>
       <c r="D45" s="76" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E45" s="34"/>
       <c r="F45" s="21"/>
       <c r="G45" s="80" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
@@ -33416,7 +36041,7 @@
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
       <c r="M49" s="76" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="N49" s="4"/>
     </row>
@@ -33433,7 +36058,7 @@
       <c r="J50" s="33"/>
       <c r="K50" s="26"/>
       <c r="L50" s="76" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M50" s="26"/>
       <c r="N50" s="4"/>
@@ -33452,7 +36077,7 @@
       <c r="K51" s="26"/>
       <c r="L51" s="34"/>
       <c r="M51" s="76" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N51" s="4"/>
     </row>
@@ -33469,7 +36094,7 @@
       <c r="J52" s="33"/>
       <c r="K52" s="26"/>
       <c r="L52" s="76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M52" s="34"/>
       <c r="N52" s="4"/>
@@ -33480,10 +36105,10 @@
       </c>
       <c r="D53" s="26"/>
       <c r="E53" s="74" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F53" s="74" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G53" s="21"/>
       <c r="I53" s="21"/>
@@ -33498,16 +36123,16 @@
         <v>344</v>
       </c>
       <c r="D54" s="76" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E54" s="74" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F54" s="74" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G54" s="76" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I54" s="21"/>
       <c r="J54" s="33"/>
@@ -33521,12 +36146,12 @@
         <v>345</v>
       </c>
       <c r="D55" s="76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E55" s="34"/>
       <c r="F55" s="21"/>
       <c r="G55" s="76" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -33568,10 +36193,10 @@
       <c r="M57" s="34"/>
       <c r="N57" s="4"/>
       <c r="P57" s="26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="Q57" s="76" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.4">
@@ -33590,7 +36215,7 @@
       <c r="M58" s="34"/>
       <c r="N58" s="4"/>
       <c r="P58" s="76" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q58" s="34"/>
     </row>
@@ -33611,7 +36236,7 @@
       <c r="N59" s="4"/>
       <c r="P59" s="34"/>
       <c r="Q59" s="76" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.4">
@@ -33626,11 +36251,11 @@
       <c r="I60" s="21"/>
       <c r="L60" s="33"/>
       <c r="M60" s="77" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="N60" s="4"/>
       <c r="P60" s="76" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q60" s="34"/>
     </row>
@@ -33645,7 +36270,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="L61" s="77" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M61" s="26"/>
       <c r="N61" s="4"/>
@@ -33662,7 +36287,7 @@
       <c r="I62" s="21"/>
       <c r="L62" s="33"/>
       <c r="M62" s="77" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="N62" s="4"/>
     </row>
@@ -33677,7 +36302,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="L63" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M63" s="26"/>
       <c r="N63" s="4"/>
@@ -33725,14 +36350,14 @@
       <c r="H70" s="218"/>
       <c r="I70" s="218"/>
       <c r="J70" s="282" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K70" s="218"/>
       <c r="L70" s="228" t="s">
+        <v>783</v>
+      </c>
+      <c r="M70" s="228" t="s">
         <v>784</v>
-      </c>
-      <c r="M70" s="228" t="s">
-        <v>785</v>
       </c>
       <c r="N70" s="248"/>
       <c r="O70" s="248"/>
@@ -33862,7 +36487,7 @@
       <c r="D76" s="34"/>
       <c r="E76" s="26"/>
       <c r="F76" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
@@ -33886,7 +36511,7 @@
         <v>234</v>
       </c>
       <c r="G77" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H77" s="26"/>
       <c r="I77" s="21"/>
@@ -33914,7 +36539,7 @@
         <v>235</v>
       </c>
       <c r="H78" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I78" s="21"/>
       <c r="J78" s="176"/>
@@ -33945,7 +36570,7 @@
         <v>237</v>
       </c>
       <c r="I79" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J79" s="176"/>
       <c r="K79" s="81"/>
@@ -34048,7 +36673,7 @@
       <c r="D84" s="34"/>
       <c r="E84" s="26"/>
       <c r="F84" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G84" s="81"/>
       <c r="H84" s="81"/>
@@ -34073,7 +36698,7 @@
         <v>252</v>
       </c>
       <c r="G85" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H85" s="26"/>
       <c r="I85" s="21"/>
@@ -34102,7 +36727,7 @@
         <v>249</v>
       </c>
       <c r="H86" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I86" s="21"/>
       <c r="J86" s="176"/>
@@ -34133,7 +36758,7 @@
         <v>247</v>
       </c>
       <c r="I87" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J87" s="176"/>
       <c r="K87" s="81"/>
@@ -34236,7 +36861,7 @@
       <c r="D92" s="34"/>
       <c r="E92" s="26"/>
       <c r="F92" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G92" s="81"/>
       <c r="H92" s="21"/>
@@ -34261,7 +36886,7 @@
         <v>463</v>
       </c>
       <c r="G93" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H93" s="81"/>
       <c r="I93" s="81"/>
@@ -34429,7 +37054,7 @@
       <c r="B101" s="33"/>
       <c r="D101" s="81"/>
       <c r="E101" s="78" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F101" s="75" t="s">
         <v>574</v>
@@ -34450,7 +37075,7 @@
       </c>
       <c r="B102" s="33"/>
       <c r="D102" s="77" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E102" s="78" t="s">
         <v>469</v>
@@ -34586,7 +37211,7 @@
       <c r="K108" s="26"/>
       <c r="L108" s="26"/>
       <c r="M108" s="76" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N108" s="4"/>
     </row>
@@ -34605,7 +37230,7 @@
       <c r="J109" s="33"/>
       <c r="K109" s="26"/>
       <c r="L109" s="76" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M109" s="34"/>
       <c r="N109" s="4"/>
@@ -34626,7 +37251,7 @@
       <c r="K110" s="26"/>
       <c r="L110" s="34"/>
       <c r="M110" s="76" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="N110" s="4"/>
     </row>
@@ -34645,7 +37270,7 @@
       <c r="J111" s="33"/>
       <c r="K111" s="26"/>
       <c r="L111" s="76" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M111" s="34"/>
       <c r="N111" s="4"/>
@@ -34657,10 +37282,10 @@
       <c r="B112" s="33"/>
       <c r="D112" s="26"/>
       <c r="E112" s="74" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F112" s="80" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G112" s="21"/>
       <c r="H112" s="21"/>
@@ -34673,20 +37298,20 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A113" s="206" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B113" s="33"/>
       <c r="D113" s="76" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E113" s="74" t="s">
+        <v>835</v>
+      </c>
+      <c r="F113" s="80" t="s">
+        <v>839</v>
+      </c>
+      <c r="G113" s="80" t="s">
         <v>836</v>
-      </c>
-      <c r="F113" s="80" t="s">
-        <v>840</v>
-      </c>
-      <c r="G113" s="80" t="s">
-        <v>837</v>
       </c>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
@@ -34698,17 +37323,17 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A114" s="206" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B114" s="33"/>
       <c r="C114" s="26"/>
       <c r="D114" s="76" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E114" s="34"/>
       <c r="F114" s="21"/>
       <c r="G114" s="80" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
@@ -34720,7 +37345,7 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A115" s="206" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B115" s="33"/>
       <c r="C115" s="26"/>
@@ -34738,7 +37363,7 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A116" s="206" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B116" s="33"/>
       <c r="C116" s="26"/>
@@ -34756,7 +37381,7 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A117" s="206" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B117" s="33"/>
       <c r="C117" s="26"/>
@@ -34774,7 +37399,7 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A118" s="206" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B118" s="33"/>
       <c r="C118" s="26"/>
@@ -34788,13 +37413,13 @@
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
       <c r="M118" s="76" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="N118" s="4"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A119" s="206" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B119" s="33"/>
       <c r="C119" s="26"/>
@@ -34807,14 +37432,14 @@
       <c r="J119" s="33"/>
       <c r="K119" s="26"/>
       <c r="L119" s="76" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M119" s="26"/>
       <c r="N119" s="4"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A120" s="206" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B120" s="33"/>
       <c r="C120" s="26"/>
@@ -34828,13 +37453,13 @@
       <c r="K120" s="26"/>
       <c r="L120" s="34"/>
       <c r="M120" s="76" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="N120" s="4"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A121" s="206" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B121" s="33"/>
       <c r="C121" s="26"/>
@@ -34847,23 +37472,23 @@
       <c r="J121" s="33"/>
       <c r="K121" s="26"/>
       <c r="L121" s="76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M121" s="34"/>
       <c r="N121" s="4"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A122" s="206" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B122" s="33"/>
       <c r="C122" s="26"/>
       <c r="D122" s="26"/>
       <c r="E122" s="74" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F122" s="74" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G122" s="21"/>
       <c r="H122" s="21"/>
@@ -34876,21 +37501,21 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A123" s="206" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B123" s="33"/>
       <c r="C123" s="26"/>
       <c r="D123" s="76" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E123" s="74" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F123" s="74" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G123" s="76" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
@@ -34902,17 +37527,17 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A124" s="206" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B124" s="33"/>
       <c r="C124" s="26"/>
       <c r="D124" s="76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E124" s="34"/>
       <c r="F124" s="21"/>
       <c r="G124" s="76" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
@@ -34924,7 +37549,7 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A125" s="206" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B125" s="33"/>
       <c r="C125" s="26"/>
@@ -34942,7 +37567,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A126" s="206" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B126" s="33"/>
       <c r="C126" s="26"/>
@@ -34959,12 +37584,12 @@
       <c r="N126" s="4"/>
       <c r="P126" s="26"/>
       <c r="Q126" s="76" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A127" s="206" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B127" s="33"/>
       <c r="C127" s="26"/>
@@ -34980,13 +37605,13 @@
       <c r="M127" s="34"/>
       <c r="N127" s="4"/>
       <c r="P127" s="76" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q127" s="34"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A128" s="206" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B128" s="33"/>
       <c r="C128" s="26"/>
@@ -35003,12 +37628,12 @@
       <c r="N128" s="4"/>
       <c r="P128" s="34"/>
       <c r="Q128" s="76" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A129" s="206" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B129" s="33"/>
       <c r="C129" s="26"/>
@@ -35022,17 +37647,17 @@
       <c r="K129" s="26"/>
       <c r="L129" s="33"/>
       <c r="M129" s="77" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="N129" s="4"/>
       <c r="P129" s="76" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="Q129" s="34"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A130" s="206" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B130" s="33"/>
       <c r="C130" s="26"/>
@@ -35045,14 +37670,14 @@
       <c r="J130" s="33"/>
       <c r="K130" s="26"/>
       <c r="L130" s="77" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M130" s="26"/>
       <c r="N130" s="4"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A131" s="206" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B131" s="33"/>
       <c r="C131" s="26"/>
@@ -35066,13 +37691,13 @@
       <c r="K131" s="26"/>
       <c r="L131" s="33"/>
       <c r="M131" s="77" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="N131" s="4"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A132" s="206" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B132" s="33"/>
       <c r="C132" s="26"/>
@@ -35085,14 +37710,14 @@
       <c r="J132" s="33"/>
       <c r="K132" s="26"/>
       <c r="L132" s="77" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="M132" s="26"/>
       <c r="N132" s="4"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A133" s="206" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B133" s="216"/>
       <c r="C133" s="217"/>
@@ -35103,7 +37728,7 @@
       <c r="H133" s="231"/>
       <c r="I133" s="231"/>
       <c r="J133" s="282" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K133" s="217"/>
       <c r="L133" s="217"/>
@@ -35115,7 +37740,7 @@
     </row>
     <row r="134" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="206" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B134" s="33"/>
       <c r="C134" s="26"/>
@@ -35132,10 +37757,10 @@
       <c r="J134" s="33"/>
       <c r="K134" s="26"/>
       <c r="L134" s="228" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M134" s="228" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N134" s="26"/>
       <c r="O134" s="26"/>
@@ -35144,7 +37769,7 @@
     </row>
     <row r="135" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="206" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B135" s="33"/>
       <c r="D135" s="73" t="s">
@@ -35172,7 +37797,7 @@
     </row>
     <row r="136" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="206" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D136" s="73" t="s">
         <v>575</v>
@@ -35243,7 +37868,7 @@
       <c r="D139" s="34"/>
       <c r="E139" s="26"/>
       <c r="F139" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J139" s="33"/>
       <c r="K139" s="26"/>
@@ -35261,7 +37886,7 @@
         <v>234</v>
       </c>
       <c r="G140" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H140" s="26"/>
       <c r="J140" s="33"/>
@@ -35285,7 +37910,7 @@
         <v>235</v>
       </c>
       <c r="H141" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J141" s="33"/>
       <c r="K141" s="26"/>
@@ -35315,7 +37940,7 @@
         <v>237</v>
       </c>
       <c r="I142" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L142" s="34" t="s">
         <v>249</v>
@@ -35520,7 +38145,7 @@
       <c r="J154" s="114"/>
       <c r="K154" s="12"/>
       <c r="L154" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="N154" s="26"/>
       <c r="O154" s="26"/>
@@ -35663,14 +38288,14 @@
       <c r="H163" s="217"/>
       <c r="I163" s="217"/>
       <c r="J163" s="229" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K163" s="217"/>
       <c r="L163" s="228" t="s">
+        <v>781</v>
+      </c>
+      <c r="M163" s="228" t="s">
         <v>782</v>
-      </c>
-      <c r="M163" s="228" t="s">
-        <v>783</v>
       </c>
       <c r="N163" s="248"/>
       <c r="O163" s="248"/>
@@ -35777,7 +38402,7 @@
       <c r="D169" s="34"/>
       <c r="E169" s="26"/>
       <c r="F169" s="233" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G169" s="21"/>
       <c r="H169" s="21"/>
@@ -35795,7 +38420,7 @@
         <v>234</v>
       </c>
       <c r="G170" s="233" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H170" s="26"/>
       <c r="I170" s="21"/>
@@ -35817,7 +38442,7 @@
         <v>235</v>
       </c>
       <c r="H171" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I171" s="21"/>
       <c r="J171" s="33"/>
@@ -35844,7 +38469,7 @@
         <v>237</v>
       </c>
       <c r="I172" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L172" s="34" t="s">
         <v>246</v>
@@ -35922,7 +38547,7 @@
       <c r="D177" s="34"/>
       <c r="E177" s="26"/>
       <c r="F177" s="233" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G177" s="81"/>
       <c r="H177" s="81"/>
@@ -35942,7 +38567,7 @@
         <v>252</v>
       </c>
       <c r="G178" s="233" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H178" s="26"/>
       <c r="I178" s="21"/>
@@ -36131,11 +38756,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:E4"/>
@@ -36144,6 +38764,11 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140FCD4D-6FE0-4D09-8722-FC50F56EAEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0494F8A2-C46E-4355-83FC-13D606E54459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="5970" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
@@ -5177,6 +5177,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5228,9 +5264,6 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5240,7 +5273,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5252,10 +5294,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5277,51 +5322,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5648,11 +5648,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="319" t="s">
+      <c r="W1" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="319"/>
-      <c r="Y1" s="319"/>
+      <c r="X1" s="331"/>
+      <c r="Y1" s="331"/>
       <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5667,11 +5667,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="319" t="s">
+      <c r="W3" s="331" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="319"/>
-      <c r="Y3" s="319"/>
+      <c r="X3" s="331"/>
+      <c r="Y3" s="331"/>
       <c r="Z3" s="24" t="s">
         <v>55</v>
       </c>
@@ -6449,57 +6449,57 @@
       <c r="A1" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="323" t="s">
+      <c r="B1" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="326" t="s">
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="338" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="323" t="s">
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="335" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="323" t="s">
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="337"/>
+      <c r="N1" s="335" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="324"/>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="325"/>
-      <c r="R1" s="327" t="s">
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="337"/>
+      <c r="R1" s="339" t="s">
         <v>258</v>
       </c>
-      <c r="S1" s="328"/>
-      <c r="T1" s="328"/>
+      <c r="S1" s="340"/>
+      <c r="T1" s="340"/>
       <c r="U1" s="42"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="220"/>
-      <c r="B2" s="323" t="s">
+      <c r="B2" s="335" t="s">
         <v>618</v>
       </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="323" t="s">
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="335" t="s">
         <v>619</v>
       </c>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="323" t="s">
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="335" t="s">
         <v>778</v>
       </c>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="325"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="337"/>
       <c r="N2" s="44"/>
       <c r="O2" s="224"/>
       <c r="P2" s="224"/>
@@ -6598,12 +6598,12 @@
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="34"/>
-      <c r="R4" s="341" t="s">
+      <c r="R4" s="355" t="s">
         <v>282</v>
       </c>
-      <c r="S4" s="342"/>
-      <c r="T4" s="342"/>
-      <c r="U4" s="343"/>
+      <c r="S4" s="356"/>
+      <c r="T4" s="356"/>
+      <c r="U4" s="357"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="220" t="s">
@@ -6626,12 +6626,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="320" t="s">
+      <c r="R5" s="332" t="s">
         <v>856</v>
       </c>
-      <c r="S5" s="321"/>
-      <c r="T5" s="321"/>
-      <c r="U5" s="322"/>
+      <c r="S5" s="333"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="334"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="220" t="s">
@@ -8301,11 +8301,11 @@
       <c r="K93" s="218"/>
       <c r="L93" s="228"/>
       <c r="M93" s="228"/>
-      <c r="R93" s="327" t="s">
+      <c r="R93" s="339" t="s">
         <v>258</v>
       </c>
-      <c r="S93" s="328"/>
-      <c r="T93" s="328"/>
+      <c r="S93" s="340"/>
+      <c r="T93" s="340"/>
       <c r="U93" s="42"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -8394,12 +8394,12 @@
       <c r="K96" s="81"/>
       <c r="L96" s="81"/>
       <c r="M96" s="82"/>
-      <c r="R96" s="341" t="s">
+      <c r="R96" s="355" t="s">
         <v>54</v>
       </c>
-      <c r="S96" s="346"/>
-      <c r="T96" s="346"/>
-      <c r="U96" s="347"/>
+      <c r="S96" s="361"/>
+      <c r="T96" s="361"/>
+      <c r="U96" s="362"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="220" t="s">
@@ -8421,12 +8421,12 @@
       <c r="K97" s="81"/>
       <c r="L97" s="81"/>
       <c r="M97" s="82"/>
-      <c r="R97" s="327" t="s">
+      <c r="R97" s="339" t="s">
         <v>856</v>
       </c>
-      <c r="S97" s="328"/>
-      <c r="T97" s="328"/>
-      <c r="U97" s="329"/>
+      <c r="S97" s="340"/>
+      <c r="T97" s="340"/>
+      <c r="U97" s="341"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="220" t="s">
@@ -8478,11 +8478,11 @@
       <c r="K100" s="81"/>
       <c r="L100" s="81"/>
       <c r="M100" s="82"/>
-      <c r="R100" s="327" t="s">
+      <c r="R100" s="339" t="s">
         <v>857</v>
       </c>
-      <c r="S100" s="328"/>
-      <c r="T100" s="328"/>
+      <c r="S100" s="340"/>
+      <c r="T100" s="340"/>
       <c r="U100" s="42"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -8578,12 +8578,12 @@
       <c r="M103" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="R103" s="341" t="s">
+      <c r="R103" s="355" t="s">
         <v>282</v>
       </c>
-      <c r="S103" s="346"/>
-      <c r="T103" s="346"/>
-      <c r="U103" s="347"/>
+      <c r="S103" s="361"/>
+      <c r="T103" s="361"/>
+      <c r="U103" s="362"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="220" t="s">
@@ -8600,12 +8600,12 @@
       <c r="L104" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="R104" s="327" t="s">
+      <c r="R104" s="339" t="s">
         <v>856</v>
       </c>
-      <c r="S104" s="328"/>
-      <c r="T104" s="328"/>
-      <c r="U104" s="329"/>
+      <c r="S104" s="340"/>
+      <c r="T104" s="340"/>
+      <c r="U104" s="341"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="220" t="s">
@@ -8955,12 +8955,12 @@
       <c r="L124" s="34" t="s">
         <v>759</v>
       </c>
-      <c r="R124" s="327" t="s">
+      <c r="R124" s="339" t="s">
         <v>868</v>
       </c>
-      <c r="S124" s="328"/>
-      <c r="T124" s="328"/>
-      <c r="U124" s="329"/>
+      <c r="S124" s="340"/>
+      <c r="T124" s="340"/>
+      <c r="U124" s="341"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="220" t="s">
@@ -9036,23 +9036,23 @@
       <c r="G127" s="75" t="s">
         <v>577</v>
       </c>
-      <c r="R127" s="341" t="s">
+      <c r="R127" s="355" t="s">
         <v>860</v>
       </c>
-      <c r="S127" s="346"/>
-      <c r="T127" s="346"/>
-      <c r="U127" s="347"/>
+      <c r="S127" s="361"/>
+      <c r="T127" s="361"/>
+      <c r="U127" s="362"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="220" t="s">
         <v>869</v>
       </c>
-      <c r="R128" s="323" t="s">
+      <c r="R128" s="335" t="s">
         <v>856</v>
       </c>
-      <c r="S128" s="324"/>
-      <c r="T128" s="324"/>
-      <c r="U128" s="325"/>
+      <c r="S128" s="336"/>
+      <c r="T128" s="336"/>
+      <c r="U128" s="337"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="220" t="s">
@@ -9107,12 +9107,12 @@
       <c r="F135" s="80" t="s">
         <v>837</v>
       </c>
-      <c r="R135" s="327" t="s">
+      <c r="R135" s="339" t="s">
         <v>888</v>
       </c>
-      <c r="S135" s="328"/>
-      <c r="T135" s="328"/>
-      <c r="U135" s="329"/>
+      <c r="S135" s="340"/>
+      <c r="T135" s="340"/>
+      <c r="U135" s="341"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="220" t="s">
@@ -9164,23 +9164,23 @@
       <c r="A138" s="220" t="s">
         <v>845</v>
       </c>
-      <c r="R138" s="341" t="s">
+      <c r="R138" s="355" t="s">
         <v>860</v>
       </c>
-      <c r="S138" s="346"/>
-      <c r="T138" s="346"/>
-      <c r="U138" s="347"/>
+      <c r="S138" s="361"/>
+      <c r="T138" s="361"/>
+      <c r="U138" s="362"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="220" t="s">
         <v>846</v>
       </c>
-      <c r="R139" s="323" t="s">
+      <c r="R139" s="335" t="s">
         <v>899</v>
       </c>
-      <c r="S139" s="324"/>
-      <c r="T139" s="324"/>
-      <c r="U139" s="325"/>
+      <c r="S139" s="336"/>
+      <c r="T139" s="336"/>
+      <c r="U139" s="337"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="220" t="s">
@@ -9229,12 +9229,12 @@
       <c r="F145" s="76" t="s">
         <v>830</v>
       </c>
-      <c r="R145" s="327" t="s">
+      <c r="R145" s="339" t="s">
         <v>898</v>
       </c>
-      <c r="S145" s="328"/>
-      <c r="T145" s="328"/>
-      <c r="U145" s="329"/>
+      <c r="S145" s="340"/>
+      <c r="T145" s="340"/>
+      <c r="U145" s="341"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="220" t="s">
@@ -9286,12 +9286,12 @@
       <c r="A148" s="220" t="s">
         <v>870</v>
       </c>
-      <c r="R148" s="341" t="s">
+      <c r="R148" s="355" t="s">
         <v>860</v>
       </c>
-      <c r="S148" s="346"/>
-      <c r="T148" s="346"/>
-      <c r="U148" s="347"/>
+      <c r="S148" s="361"/>
+      <c r="T148" s="361"/>
+      <c r="U148" s="362"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="220" t="s">
@@ -9301,12 +9301,12 @@
       <c r="Q149" s="76" t="s">
         <v>861</v>
       </c>
-      <c r="R149" s="323" t="s">
+      <c r="R149" s="335" t="s">
         <v>899</v>
       </c>
-      <c r="S149" s="324"/>
-      <c r="T149" s="324"/>
-      <c r="U149" s="325"/>
+      <c r="S149" s="336"/>
+      <c r="T149" s="336"/>
+      <c r="U149" s="337"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="220" t="s">
@@ -9415,6 +9415,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="R127:U127"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="B1:E1"/>
@@ -9425,21 +9440,6 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9476,36 +9476,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="323" t="s">
+      <c r="C1" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="326" t="s">
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="338" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="323" t="s">
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="335" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="323" t="s">
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="335" t="s">
         <v>955</v>
       </c>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
-      <c r="R1" s="325"/>
-      <c r="Z1" s="323" t="s">
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="337"/>
+      <c r="Z1" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="324"/>
-      <c r="AB1" s="324"/>
-      <c r="AC1" s="325"/>
+      <c r="AA1" s="336"/>
+      <c r="AB1" s="336"/>
+      <c r="AC1" s="337"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -9574,33 +9574,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="327" t="s">
+      <c r="C3" s="339" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="329"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="341"/>
       <c r="K3" s="40"/>
       <c r="O3" s="40"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="327" t="s">
+      <c r="S3" s="339" t="s">
         <v>402</v>
       </c>
-      <c r="T3" s="328"/>
-      <c r="U3" s="328"/>
-      <c r="V3" s="329"/>
-      <c r="Z3" s="327" t="s">
+      <c r="T3" s="340"/>
+      <c r="U3" s="340"/>
+      <c r="V3" s="341"/>
+      <c r="Z3" s="339" t="s">
         <v>265</v>
       </c>
-      <c r="AA3" s="328"/>
-      <c r="AB3" s="328"/>
-      <c r="AC3" s="329"/>
+      <c r="AA3" s="340"/>
+      <c r="AB3" s="340"/>
+      <c r="AC3" s="341"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -9657,12 +9657,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="320" t="s">
+      <c r="S5" s="332" t="s">
         <v>502</v>
       </c>
-      <c r="T5" s="321"/>
-      <c r="U5" s="321"/>
-      <c r="V5" s="322"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="333"/>
+      <c r="V5" s="334"/>
       <c r="W5" s="84" t="s">
         <v>504</v>
       </c>
@@ -9692,12 +9692,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="320" t="s">
+      <c r="S6" s="332" t="s">
         <v>928</v>
       </c>
-      <c r="T6" s="321"/>
-      <c r="U6" s="321"/>
-      <c r="V6" s="322"/>
+      <c r="T6" s="333"/>
+      <c r="U6" s="333"/>
+      <c r="V6" s="334"/>
       <c r="Z6" s="221"/>
       <c r="AA6" s="222"/>
       <c r="AB6" s="222"/>
@@ -10203,13 +10203,13 @@
       <c r="R22" s="74" t="s">
         <v>420</v>
       </c>
-      <c r="S22" s="348" t="s">
+      <c r="S22" s="363" t="s">
         <v>938</v>
       </c>
-      <c r="T22" s="350"/>
-      <c r="U22" s="350"/>
-      <c r="V22" s="350"/>
-      <c r="W22" s="350"/>
+      <c r="T22" s="365"/>
+      <c r="U22" s="365"/>
+      <c r="V22" s="365"/>
+      <c r="W22" s="365"/>
       <c r="Z22" s="79" t="s">
         <v>243</v>
       </c>
@@ -10256,12 +10256,12 @@
       <c r="R23" s="74" t="s">
         <v>421</v>
       </c>
-      <c r="S23" s="348" t="s">
+      <c r="S23" s="363" t="s">
         <v>939</v>
       </c>
-      <c r="T23" s="349"/>
-      <c r="U23" s="349"/>
-      <c r="V23" s="349"/>
+      <c r="T23" s="364"/>
+      <c r="U23" s="364"/>
+      <c r="V23" s="364"/>
       <c r="Z23" s="79" t="s">
         <v>245</v>
       </c>
@@ -10354,12 +10354,12 @@
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="320" t="s">
+      <c r="K26" s="332" t="s">
         <v>937</v>
       </c>
-      <c r="L26" s="321"/>
-      <c r="M26" s="321"/>
-      <c r="N26" s="322"/>
+      <c r="L26" s="333"/>
+      <c r="M26" s="333"/>
+      <c r="N26" s="334"/>
       <c r="O26" s="76" t="s">
         <v>434</v>
       </c>
@@ -11069,6 +11069,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="S22:W22"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="S6:V6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="S5:V5"/>
@@ -11077,12 +11083,6 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S3:V3"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="S22:W22"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="S6:V6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11120,30 +11120,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="68"/>
       <c r="B1"/>
-      <c r="C1" s="323" t="s">
+      <c r="C1" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="323" t="s">
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="335" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="323" t="s">
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="335" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="323" t="s">
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="335" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
-      <c r="R1" s="325"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="337"/>
     </row>
     <row r="2" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="68"/>
@@ -11232,12 +11232,12 @@
       <c r="P3" s="271"/>
       <c r="Q3" s="271"/>
       <c r="R3" s="275"/>
-      <c r="S3" s="328" t="s">
+      <c r="S3" s="340" t="s">
         <v>934</v>
       </c>
-      <c r="T3" s="328"/>
-      <c r="U3" s="328"/>
-      <c r="V3" s="329"/>
+      <c r="T3" s="340"/>
+      <c r="U3" s="340"/>
+      <c r="V3" s="341"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="68" t="s">
@@ -11298,12 +11298,12 @@
       <c r="P5" s="271"/>
       <c r="Q5" s="271"/>
       <c r="R5" s="275"/>
-      <c r="S5" s="321" t="s">
+      <c r="S5" s="333" t="s">
         <v>860</v>
       </c>
-      <c r="T5" s="321"/>
-      <c r="U5" s="321"/>
-      <c r="V5" s="322"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="333"/>
+      <c r="V5" s="334"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="68" t="s">
@@ -11329,12 +11329,12 @@
       <c r="P6" s="271"/>
       <c r="Q6" s="271"/>
       <c r="R6" s="275"/>
-      <c r="S6" s="321" t="s">
+      <c r="S6" s="333" t="s">
         <v>935</v>
       </c>
-      <c r="T6" s="321"/>
-      <c r="U6" s="321"/>
-      <c r="V6" s="322"/>
+      <c r="T6" s="333"/>
+      <c r="U6" s="333"/>
+      <c r="V6" s="334"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="68" t="s">
@@ -11387,10 +11387,10 @@
       <c r="P8" s="271"/>
       <c r="Q8" s="271"/>
       <c r="R8" s="275"/>
-      <c r="S8" s="350"/>
-      <c r="T8" s="349"/>
-      <c r="U8" s="349"/>
-      <c r="V8" s="349"/>
+      <c r="S8" s="365"/>
+      <c r="T8" s="364"/>
+      <c r="U8" s="364"/>
+      <c r="V8" s="364"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="68" t="s">
@@ -11566,12 +11566,12 @@
       <c r="N15" s="267" t="s">
         <v>285</v>
       </c>
-      <c r="O15" s="351" t="s">
+      <c r="O15" s="366" t="s">
         <v>936</v>
       </c>
-      <c r="P15" s="336"/>
-      <c r="Q15" s="336"/>
-      <c r="R15" s="352"/>
+      <c r="P15" s="351"/>
+      <c r="Q15" s="351"/>
+      <c r="R15" s="367"/>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="68" t="s">
@@ -13592,30 +13592,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="277"/>
       <c r="B1" s="264"/>
-      <c r="C1" s="323" t="s">
+      <c r="C1" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="323" t="s">
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="335" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="323" t="s">
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="335" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="323" t="s">
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="335" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
-      <c r="R1" s="325"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="337"/>
       <c r="S1" s="227"/>
       <c r="T1" s="227"/>
       <c r="U1" s="227"/>
@@ -13714,12 +13714,12 @@
       <c r="P3" s="222"/>
       <c r="Q3" s="222"/>
       <c r="R3" s="223"/>
-      <c r="S3" s="327" t="s">
+      <c r="S3" s="339" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="328"/>
-      <c r="U3" s="328"/>
-      <c r="V3" s="329"/>
+      <c r="T3" s="340"/>
+      <c r="U3" s="340"/>
+      <c r="V3" s="341"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="277" t="s">
@@ -13788,12 +13788,12 @@
       <c r="P5" s="222"/>
       <c r="Q5" s="222"/>
       <c r="R5" s="223"/>
-      <c r="S5" s="320" t="s">
+      <c r="S5" s="332" t="s">
         <v>282</v>
       </c>
-      <c r="T5" s="321"/>
-      <c r="U5" s="321"/>
-      <c r="V5" s="322"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="333"/>
+      <c r="V5" s="334"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="277" t="s">
@@ -13824,12 +13824,12 @@
       <c r="P6" s="222"/>
       <c r="Q6" s="222"/>
       <c r="R6" s="223"/>
-      <c r="S6" s="320" t="s">
+      <c r="S6" s="332" t="s">
         <v>283</v>
       </c>
-      <c r="T6" s="321"/>
-      <c r="U6" s="321"/>
-      <c r="V6" s="322"/>
+      <c r="T6" s="333"/>
+      <c r="U6" s="333"/>
+      <c r="V6" s="334"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="277" t="s">
@@ -13897,12 +13897,12 @@
         <v>284</v>
       </c>
       <c r="R8" s="223"/>
-      <c r="S8" s="348" t="s">
+      <c r="S8" s="363" t="s">
         <v>940</v>
       </c>
-      <c r="T8" s="349"/>
-      <c r="U8" s="349"/>
-      <c r="V8" s="349"/>
+      <c r="T8" s="364"/>
+      <c r="U8" s="364"/>
+      <c r="V8" s="364"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="277" t="s">
@@ -16238,30 +16238,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="68"/>
-      <c r="C1" s="323" t="s">
+      <c r="C1" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="323" t="s">
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="335" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="323" t="s">
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="335" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="323" t="s">
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="335" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
-      <c r="R1" s="325"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="337"/>
       <c r="S1" s="45"/>
       <c r="T1" s="45"/>
       <c r="U1" s="45"/>
@@ -16359,12 +16359,12 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="41"/>
-      <c r="S3" s="327" t="s">
+      <c r="S3" s="339" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="328"/>
-      <c r="U3" s="328"/>
-      <c r="V3" s="329"/>
+      <c r="T3" s="340"/>
+      <c r="U3" s="340"/>
+      <c r="V3" s="341"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="68" t="s">
@@ -16429,12 +16429,12 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="41"/>
-      <c r="S5" s="320" t="s">
+      <c r="S5" s="332" t="s">
         <v>282</v>
       </c>
-      <c r="T5" s="321"/>
-      <c r="U5" s="321"/>
-      <c r="V5" s="322"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="333"/>
+      <c r="V5" s="334"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="68" t="s">
@@ -16464,12 +16464,12 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="41"/>
-      <c r="S6" s="320" t="s">
+      <c r="S6" s="332" t="s">
         <v>283</v>
       </c>
-      <c r="T6" s="321"/>
-      <c r="U6" s="321"/>
-      <c r="V6" s="322"/>
+      <c r="T6" s="333"/>
+      <c r="U6" s="333"/>
+      <c r="V6" s="334"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="68" t="s">
@@ -16536,12 +16536,12 @@
         <v>284</v>
       </c>
       <c r="R8" s="41"/>
-      <c r="S8" s="348" t="s">
+      <c r="S8" s="363" t="s">
         <v>378</v>
       </c>
-      <c r="T8" s="349"/>
-      <c r="U8" s="349"/>
-      <c r="V8" s="349"/>
+      <c r="T8" s="364"/>
+      <c r="U8" s="364"/>
+      <c r="V8" s="364"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="68" t="s">
@@ -19025,36 +19025,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="21"/>
-      <c r="C1" s="323" t="s">
+      <c r="C1" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="326" t="s">
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="338" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="323" t="s">
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="335" t="s">
         <v>442</v>
       </c>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="323" t="s">
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="324"/>
-      <c r="R1" s="325"/>
-      <c r="Z1" s="323" t="s">
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="337"/>
+      <c r="Z1" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="324"/>
-      <c r="AB1" s="324"/>
-      <c r="AC1" s="325"/>
+      <c r="AA1" s="336"/>
+      <c r="AB1" s="336"/>
+      <c r="AC1" s="337"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="21"/>
@@ -19123,33 +19123,33 @@
       <c r="B3" s="21">
         <v>0</v>
       </c>
-      <c r="C3" s="327" t="s">
+      <c r="C3" s="339" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="329"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="341"/>
       <c r="K3" s="221"/>
       <c r="O3" s="221"/>
       <c r="P3" s="222"/>
       <c r="Q3" s="222"/>
       <c r="R3" s="223"/>
-      <c r="S3" s="327" t="s">
+      <c r="S3" s="339" t="s">
         <v>402</v>
       </c>
-      <c r="T3" s="328"/>
-      <c r="U3" s="328"/>
-      <c r="V3" s="329"/>
-      <c r="Z3" s="327" t="s">
+      <c r="T3" s="340"/>
+      <c r="U3" s="340"/>
+      <c r="V3" s="341"/>
+      <c r="Z3" s="339" t="s">
         <v>265</v>
       </c>
-      <c r="AA3" s="328"/>
-      <c r="AB3" s="328"/>
-      <c r="AC3" s="329"/>
+      <c r="AA3" s="340"/>
+      <c r="AB3" s="340"/>
+      <c r="AC3" s="341"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="39" t="s">
@@ -19206,12 +19206,12 @@
       <c r="P5" s="222"/>
       <c r="Q5" s="222"/>
       <c r="R5" s="223"/>
-      <c r="S5" s="320" t="s">
+      <c r="S5" s="332" t="s">
         <v>502</v>
       </c>
-      <c r="T5" s="321"/>
-      <c r="U5" s="321"/>
-      <c r="V5" s="322"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="333"/>
+      <c r="V5" s="334"/>
       <c r="W5" s="84" t="s">
         <v>504</v>
       </c>
@@ -19241,12 +19241,12 @@
       <c r="P6" s="222"/>
       <c r="Q6" s="222"/>
       <c r="R6" s="223"/>
-      <c r="S6" s="320" t="s">
+      <c r="S6" s="332" t="s">
         <v>419</v>
       </c>
-      <c r="T6" s="321"/>
-      <c r="U6" s="321"/>
-      <c r="V6" s="322"/>
+      <c r="T6" s="333"/>
+      <c r="U6" s="333"/>
+      <c r="V6" s="334"/>
       <c r="Z6" s="221"/>
       <c r="AA6" s="222"/>
       <c r="AB6" s="222"/>
@@ -20605,17 +20605,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20646,30 +20646,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="21"/>
-      <c r="B1" s="323" t="s">
+      <c r="B1" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="326" t="s">
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="338" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="323" t="s">
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="335" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="323" t="s">
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="337"/>
+      <c r="N1" s="335" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="324"/>
-      <c r="P1" s="324"/>
-      <c r="Q1" s="325"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="337"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21"/>
@@ -20756,12 +20756,12 @@
       <c r="O3" s="38"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="41"/>
-      <c r="R3" s="327" t="s">
+      <c r="R3" s="339" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="328"/>
-      <c r="T3" s="328"/>
-      <c r="U3" s="329"/>
+      <c r="S3" s="340"/>
+      <c r="T3" s="340"/>
+      <c r="U3" s="341"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
@@ -20814,12 +20814,12 @@
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="320" t="s">
+      <c r="R5" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="321"/>
-      <c r="T5" s="321"/>
-      <c r="U5" s="322"/>
+      <c r="S5" s="333"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="334"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="39" t="s">
@@ -20841,12 +20841,12 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="320" t="s">
+      <c r="R6" s="332" t="s">
         <v>262</v>
       </c>
-      <c r="S6" s="321"/>
-      <c r="T6" s="321"/>
-      <c r="U6" s="322"/>
+      <c r="S6" s="333"/>
+      <c r="T6" s="333"/>
+      <c r="U6" s="334"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
@@ -22476,67 +22476,67 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="330" t="s">
+      <c r="B6" s="342" t="s">
         <v>514</v>
       </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="330" t="s">
+      <c r="C6" s="343"/>
+      <c r="D6" s="344"/>
+      <c r="E6" s="342" t="s">
         <v>515</v>
       </c>
-      <c r="F6" s="331"/>
-      <c r="G6" s="332"/>
+      <c r="F6" s="343"/>
+      <c r="G6" s="344"/>
     </row>
     <row r="7" spans="1:44" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="330" t="s">
+      <c r="B7" s="342" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="331"/>
-      <c r="D7" s="331"/>
-      <c r="E7" s="331"/>
-      <c r="F7" s="331"/>
-      <c r="G7" s="331"/>
-      <c r="H7" s="331"/>
-      <c r="I7" s="331"/>
-      <c r="J7" s="331"/>
-      <c r="K7" s="331"/>
-      <c r="L7" s="331"/>
-      <c r="M7" s="331"/>
-      <c r="N7" s="331"/>
-      <c r="O7" s="331"/>
-      <c r="P7" s="332"/>
-      <c r="Q7" s="330" t="s">
+      <c r="C7" s="343"/>
+      <c r="D7" s="343"/>
+      <c r="E7" s="343"/>
+      <c r="F7" s="343"/>
+      <c r="G7" s="343"/>
+      <c r="H7" s="343"/>
+      <c r="I7" s="343"/>
+      <c r="J7" s="343"/>
+      <c r="K7" s="343"/>
+      <c r="L7" s="343"/>
+      <c r="M7" s="343"/>
+      <c r="N7" s="343"/>
+      <c r="O7" s="343"/>
+      <c r="P7" s="344"/>
+      <c r="Q7" s="342" t="s">
         <v>215</v>
       </c>
-      <c r="R7" s="331"/>
-      <c r="S7" s="331"/>
-      <c r="T7" s="331"/>
-      <c r="U7" s="331"/>
-      <c r="V7" s="331"/>
-      <c r="W7" s="331"/>
-      <c r="X7" s="331"/>
-      <c r="Y7" s="331"/>
-      <c r="Z7" s="331"/>
-      <c r="AA7" s="332"/>
-      <c r="AB7" s="330" t="s">
+      <c r="R7" s="343"/>
+      <c r="S7" s="343"/>
+      <c r="T7" s="343"/>
+      <c r="U7" s="343"/>
+      <c r="V7" s="343"/>
+      <c r="W7" s="343"/>
+      <c r="X7" s="343"/>
+      <c r="Y7" s="343"/>
+      <c r="Z7" s="343"/>
+      <c r="AA7" s="344"/>
+      <c r="AB7" s="342" t="s">
         <v>216</v>
       </c>
-      <c r="AC7" s="331"/>
-      <c r="AD7" s="331"/>
-      <c r="AE7" s="331"/>
-      <c r="AF7" s="331"/>
-      <c r="AG7" s="331"/>
-      <c r="AH7" s="331"/>
-      <c r="AI7" s="331"/>
-      <c r="AJ7" s="331"/>
-      <c r="AK7" s="331"/>
-      <c r="AL7" s="331"/>
-      <c r="AM7" s="331"/>
-      <c r="AN7" s="331"/>
-      <c r="AO7" s="331"/>
-      <c r="AP7" s="331"/>
-      <c r="AQ7" s="331"/>
-      <c r="AR7" s="332"/>
+      <c r="AC7" s="343"/>
+      <c r="AD7" s="343"/>
+      <c r="AE7" s="343"/>
+      <c r="AF7" s="343"/>
+      <c r="AG7" s="343"/>
+      <c r="AH7" s="343"/>
+      <c r="AI7" s="343"/>
+      <c r="AJ7" s="343"/>
+      <c r="AK7" s="343"/>
+      <c r="AL7" s="343"/>
+      <c r="AM7" s="343"/>
+      <c r="AN7" s="343"/>
+      <c r="AO7" s="343"/>
+      <c r="AP7" s="343"/>
+      <c r="AQ7" s="343"/>
+      <c r="AR7" s="344"/>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.4">
       <c r="E9" s="45"/>
@@ -24458,18 +24458,18 @@
       <c r="AB1" s="280"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="B2" s="319" t="s">
+      <c r="B2" s="331" t="s">
         <v>672</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
+      <c r="C2" s="331"/>
+      <c r="D2" s="331"/>
+      <c r="E2" s="331"/>
+      <c r="F2" s="331"/>
+      <c r="G2" s="331"/>
+      <c r="H2" s="331"/>
+      <c r="I2" s="331"/>
+      <c r="J2" s="331"/>
+      <c r="K2" s="331"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
@@ -24750,15 +24750,15 @@
       <c r="O12" s="21">
         <v>1</v>
       </c>
-      <c r="V12" s="319" t="s">
+      <c r="V12" s="331" t="s">
         <v>1056</v>
       </c>
-      <c r="W12" s="319"/>
-      <c r="X12" s="319"/>
-      <c r="Y12" s="319"/>
-      <c r="Z12" s="319"/>
-      <c r="AA12" s="319"/>
-      <c r="AB12" s="319"/>
+      <c r="W12" s="331"/>
+      <c r="X12" s="331"/>
+      <c r="Y12" s="331"/>
+      <c r="Z12" s="331"/>
+      <c r="AA12" s="331"/>
+      <c r="AB12" s="331"/>
       <c r="AC12" s="201"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.4">
@@ -26786,18 +26786,18 @@
       <c r="A83" s="289" t="s">
         <v>1015</v>
       </c>
-      <c r="B83" s="327" t="s">
+      <c r="B83" s="339" t="s">
         <v>1016</v>
       </c>
-      <c r="C83" s="328"/>
-      <c r="D83" s="328"/>
-      <c r="E83" s="329"/>
-      <c r="G83" s="333" t="s">
+      <c r="C83" s="340"/>
+      <c r="D83" s="340"/>
+      <c r="E83" s="341"/>
+      <c r="G83" s="345" t="s">
         <v>1017</v>
       </c>
-      <c r="H83" s="334"/>
-      <c r="I83" s="334"/>
-      <c r="J83" s="335"/>
+      <c r="H83" s="346"/>
+      <c r="I83" s="346"/>
+      <c r="J83" s="347"/>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B84" s="33" t="s">
@@ -29497,11 +29497,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="327" t="s">
+      <c r="D1" s="339" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
       <c r="G1" s="42"/>
       <c r="H1" s="59"/>
       <c r="I1" s="92"/>
@@ -29543,12 +29543,12 @@
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D3" s="320" t="s">
+      <c r="D3" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="322"/>
+      <c r="E3" s="333"/>
+      <c r="F3" s="333"/>
+      <c r="G3" s="334"/>
       <c r="H3" s="119"/>
       <c r="I3" s="121"/>
       <c r="J3" s="121"/>
@@ -29557,12 +29557,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="323" t="s">
+      <c r="D6" s="335" t="s">
         <v>618</v>
       </c>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="325"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="336"/>
+      <c r="G6" s="337"/>
       <c r="H6" s="122"/>
       <c r="I6" s="94"/>
       <c r="J6" s="94"/>
@@ -29571,27 +29571,27 @@
       <c r="M6" s="94"/>
       <c r="N6" s="94"/>
       <c r="O6" s="94"/>
-      <c r="P6" s="323" t="s">
+      <c r="P6" s="335" t="s">
         <v>619</v>
       </c>
-      <c r="Q6" s="324"/>
-      <c r="R6" s="324"/>
-      <c r="S6" s="325"/>
-      <c r="AF6" s="323" t="s">
+      <c r="Q6" s="336"/>
+      <c r="R6" s="336"/>
+      <c r="S6" s="337"/>
+      <c r="AF6" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="AG6" s="324"/>
-      <c r="AH6" s="324"/>
-      <c r="AI6" s="325"/>
+      <c r="AG6" s="336"/>
+      <c r="AH6" s="336"/>
+      <c r="AI6" s="337"/>
       <c r="AJ6" s="153"/>
-      <c r="AK6" s="323" t="s">
+      <c r="AK6" s="335" t="s">
         <v>617</v>
       </c>
-      <c r="AL6" s="324"/>
-      <c r="AM6" s="324"/>
-      <c r="AN6" s="324"/>
-      <c r="AO6" s="324"/>
-      <c r="AP6" s="325"/>
+      <c r="AL6" s="336"/>
+      <c r="AM6" s="336"/>
+      <c r="AN6" s="336"/>
+      <c r="AO6" s="336"/>
+      <c r="AP6" s="337"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="44" t="s">
@@ -29669,11 +29669,11 @@
       <c r="J8" s="94"/>
       <c r="K8" s="94"/>
       <c r="L8" s="94"/>
-      <c r="M8" s="337" t="s">
+      <c r="M8" s="348" t="s">
         <v>525</v>
       </c>
-      <c r="N8" s="337"/>
-      <c r="O8" s="337"/>
+      <c r="N8" s="348"/>
+      <c r="O8" s="348"/>
       <c r="P8" s="118"/>
       <c r="Q8" s="119"/>
       <c r="R8" s="119"/>
@@ -29694,12 +29694,12 @@
       <c r="AL8" s="154"/>
       <c r="AM8" s="154"/>
       <c r="AN8" s="154"/>
-      <c r="AQ8" s="320" t="s">
+      <c r="AQ8" s="332" t="s">
         <v>19</v>
       </c>
-      <c r="AR8" s="321"/>
-      <c r="AS8" s="321"/>
-      <c r="AT8" s="322"/>
+      <c r="AR8" s="333"/>
+      <c r="AS8" s="333"/>
+      <c r="AT8" s="334"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="284"/>
@@ -29711,11 +29711,11 @@
       <c r="J9" s="121"/>
       <c r="K9" s="121"/>
       <c r="L9" s="121"/>
-      <c r="M9" s="339" t="s">
+      <c r="M9" s="350" t="s">
         <v>526</v>
       </c>
-      <c r="N9" s="339"/>
-      <c r="O9" s="338"/>
+      <c r="N9" s="350"/>
+      <c r="O9" s="349"/>
       <c r="P9" s="118"/>
       <c r="Q9" s="119"/>
       <c r="R9" s="119"/>
@@ -29757,9 +29757,9 @@
       <c r="J10" s="121"/>
       <c r="K10" s="121"/>
       <c r="L10" s="121"/>
-      <c r="M10" s="336"/>
-      <c r="N10" s="336"/>
-      <c r="O10" s="336"/>
+      <c r="M10" s="351"/>
+      <c r="N10" s="351"/>
+      <c r="O10" s="351"/>
       <c r="P10" s="118"/>
       <c r="Q10" s="119"/>
       <c r="R10" s="119"/>
@@ -29784,12 +29784,12 @@
       <c r="AL10" s="154"/>
       <c r="AM10" s="154"/>
       <c r="AN10" s="154"/>
-      <c r="AQ10" s="320" t="s">
+      <c r="AQ10" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="AR10" s="321"/>
-      <c r="AS10" s="321"/>
-      <c r="AT10" s="322"/>
+      <c r="AR10" s="333"/>
+      <c r="AS10" s="333"/>
+      <c r="AT10" s="334"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="284"/>
@@ -29825,12 +29825,12 @@
       <c r="AL11" s="154"/>
       <c r="AM11" s="154"/>
       <c r="AN11" s="154"/>
-      <c r="AQ11" s="320" t="s">
+      <c r="AQ11" s="332" t="s">
         <v>616</v>
       </c>
-      <c r="AR11" s="321"/>
-      <c r="AS11" s="321"/>
-      <c r="AT11" s="322"/>
+      <c r="AR11" s="333"/>
+      <c r="AS11" s="333"/>
+      <c r="AT11" s="334"/>
       <c r="AU11" s="26" t="s">
         <v>263</v>
       </c>
@@ -29856,11 +29856,11 @@
       <c r="J12" s="94"/>
       <c r="K12" s="94"/>
       <c r="L12" s="94"/>
-      <c r="M12" s="340" t="s">
+      <c r="M12" s="352" t="s">
         <v>524</v>
       </c>
-      <c r="N12" s="340"/>
-      <c r="O12" s="340"/>
+      <c r="N12" s="352"/>
+      <c r="O12" s="352"/>
       <c r="P12" s="118"/>
       <c r="Q12" s="119"/>
       <c r="R12" s="119"/>
@@ -29874,12 +29874,12 @@
       <c r="AL12" s="154"/>
       <c r="AM12" s="154"/>
       <c r="AN12" s="154"/>
-      <c r="AQ12" s="320" t="s">
+      <c r="AQ12" s="332" t="s">
         <v>523</v>
       </c>
-      <c r="AR12" s="321"/>
-      <c r="AS12" s="321"/>
-      <c r="AT12" s="322"/>
+      <c r="AR12" s="333"/>
+      <c r="AS12" s="333"/>
+      <c r="AT12" s="334"/>
       <c r="AV12" s="21" t="s">
         <v>612</v>
       </c>
@@ -29895,12 +29895,12 @@
         <v>520</v>
       </c>
       <c r="C13" s="131"/>
-      <c r="D13" s="323" t="s">
+      <c r="D13" s="335" t="s">
         <v>527</v>
       </c>
-      <c r="E13" s="324"/>
-      <c r="F13" s="324"/>
-      <c r="G13" s="325"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
+      <c r="G13" s="337"/>
       <c r="H13" s="167" t="s">
         <v>630</v>
       </c>
@@ -29923,11 +29923,11 @@
       <c r="O13" s="180" t="s">
         <v>634</v>
       </c>
-      <c r="P13" s="323" t="s">
+      <c r="P13" s="335" t="s">
         <v>528</v>
       </c>
-      <c r="Q13" s="324"/>
-      <c r="R13" s="324"/>
+      <c r="Q13" s="336"/>
+      <c r="R13" s="336"/>
       <c r="S13" s="156"/>
       <c r="T13" s="170" t="s">
         <v>655</v>
@@ -29963,18 +29963,18 @@
       <c r="AH13" s="59"/>
       <c r="AI13" s="43"/>
       <c r="AJ13" s="153"/>
-      <c r="AK13" s="320" t="s">
+      <c r="AK13" s="332" t="s">
         <v>527</v>
       </c>
-      <c r="AL13" s="321"/>
-      <c r="AM13" s="321"/>
-      <c r="AN13" s="321"/>
-      <c r="AQ13" s="320" t="s">
+      <c r="AL13" s="333"/>
+      <c r="AM13" s="333"/>
+      <c r="AN13" s="333"/>
+      <c r="AQ13" s="332" t="s">
         <v>609</v>
       </c>
-      <c r="AR13" s="319"/>
-      <c r="AS13" s="319"/>
-      <c r="AT13" s="319"/>
+      <c r="AR13" s="331"/>
+      <c r="AS13" s="331"/>
+      <c r="AT13" s="331"/>
       <c r="AV13" s="21" t="s">
         <v>613</v>
       </c>
@@ -30668,8 +30668,8 @@
       </c>
       <c r="AO30" s="159"/>
       <c r="AP30" s="161"/>
-      <c r="AR30" s="338"/>
-      <c r="AS30" s="338"/>
+      <c r="AR30" s="349"/>
+      <c r="AS30" s="349"/>
     </row>
     <row r="31" spans="1:52" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="198" t="s">
@@ -31117,8 +31117,8 @@
         <v>88</v>
       </c>
       <c r="AO40" s="159"/>
-      <c r="AR40" s="336"/>
-      <c r="AS40" s="336"/>
+      <c r="AR40" s="351"/>
+      <c r="AS40" s="351"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="151" t="s">
@@ -31349,8 +31349,8 @@
         <v>632</v>
       </c>
       <c r="AP46" s="161"/>
-      <c r="AR46" s="336"/>
-      <c r="AS46" s="336"/>
+      <c r="AR46" s="351"/>
+      <c r="AS46" s="351"/>
     </row>
     <row r="47" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="151" t="s">
@@ -31400,12 +31400,12 @@
         <v>522</v>
       </c>
       <c r="C48" s="178"/>
-      <c r="D48" s="323" t="s">
+      <c r="D48" s="335" t="s">
         <v>527</v>
       </c>
-      <c r="E48" s="324"/>
-      <c r="F48" s="324"/>
-      <c r="G48" s="325"/>
+      <c r="E48" s="336"/>
+      <c r="F48" s="336"/>
+      <c r="G48" s="337"/>
       <c r="H48" s="167" t="s">
         <v>630</v>
       </c>
@@ -31428,11 +31428,11 @@
       <c r="O48" s="180" t="s">
         <v>634</v>
       </c>
-      <c r="P48" s="323" t="s">
+      <c r="P48" s="335" t="s">
         <v>528</v>
       </c>
-      <c r="Q48" s="324"/>
-      <c r="R48" s="324"/>
+      <c r="Q48" s="336"/>
+      <c r="R48" s="336"/>
       <c r="S48" s="189"/>
       <c r="T48" s="170" t="s">
         <v>655</v>
@@ -32772,6 +32772,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="AQ11:AT11"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="D6:G6"/>
@@ -32788,13 +32795,6 @@
     <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="AQ10:AT10"/>
     <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="AR46:AS46"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AR40:AS40"/>
-    <mergeCell ref="AQ11:AT11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32856,44 +32856,44 @@
     <row r="1" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B1" s="258"/>
       <c r="C1" s="258"/>
-      <c r="D1" s="327" t="s">
+      <c r="D1" s="339" t="s">
         <v>258</v>
       </c>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
       <c r="G1" s="42"/>
       <c r="H1" s="132"/>
-      <c r="I1" s="327" t="s">
+      <c r="I1" s="339" t="s">
         <v>942</v>
       </c>
-      <c r="J1" s="328"/>
-      <c r="K1" s="328"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
       <c r="L1" s="63"/>
-      <c r="M1" s="360"/>
-      <c r="N1" s="327" t="s">
+      <c r="M1" s="323"/>
+      <c r="N1" s="339" t="s">
         <v>1003</v>
       </c>
-      <c r="O1" s="328"/>
-      <c r="P1" s="328"/>
+      <c r="O1" s="340"/>
+      <c r="P1" s="340"/>
       <c r="Q1" s="42"/>
-      <c r="R1" s="327" t="s">
+      <c r="R1" s="339" t="s">
         <v>1006</v>
       </c>
-      <c r="S1" s="328"/>
-      <c r="T1" s="328"/>
+      <c r="S1" s="340"/>
+      <c r="T1" s="340"/>
       <c r="U1" s="63"/>
-      <c r="V1" s="356"/>
+      <c r="V1" s="320"/>
       <c r="W1" s="278"/>
       <c r="X1" s="278"/>
-      <c r="Y1" s="357"/>
+      <c r="Y1" s="321"/>
       <c r="Z1" s="313"/>
       <c r="AA1" s="313"/>
       <c r="AB1" s="313"/>
-      <c r="AC1" s="327" t="s">
+      <c r="AC1" s="339" t="s">
         <v>1007</v>
       </c>
-      <c r="AD1" s="328"/>
-      <c r="AE1" s="328"/>
+      <c r="AD1" s="340"/>
+      <c r="AE1" s="340"/>
       <c r="AF1" s="63"/>
       <c r="AG1" s="312"/>
       <c r="AH1" s="56"/>
@@ -32919,7 +32919,7 @@
         <v>858</v>
       </c>
       <c r="L2" s="59"/>
-      <c r="M2" s="361"/>
+      <c r="M2" s="324"/>
       <c r="N2" s="311"/>
       <c r="O2" s="285" t="s">
         <v>259</v>
@@ -32965,7 +32965,7 @@
         <v>281</v>
       </c>
       <c r="L3" s="5"/>
-      <c r="M3" s="362"/>
+      <c r="M3" s="325"/>
       <c r="N3" s="311" t="s">
         <v>51</v>
       </c>
@@ -32997,72 +32997,72 @@
       </c>
     </row>
     <row r="4" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="341" t="s">
+      <c r="D4" s="355" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="342"/>
-      <c r="F4" s="342"/>
-      <c r="G4" s="343"/>
+      <c r="E4" s="356"/>
+      <c r="F4" s="356"/>
+      <c r="G4" s="357"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="341" t="s">
+      <c r="I4" s="355" t="s">
         <v>282</v>
       </c>
-      <c r="J4" s="342"/>
-      <c r="K4" s="342"/>
-      <c r="L4" s="343"/>
+      <c r="J4" s="356"/>
+      <c r="K4" s="356"/>
+      <c r="L4" s="357"/>
       <c r="M4" s="245"/>
-      <c r="N4" s="341" t="s">
+      <c r="N4" s="355" t="s">
         <v>860</v>
       </c>
-      <c r="O4" s="342"/>
-      <c r="P4" s="342"/>
-      <c r="Q4" s="343"/>
-      <c r="R4" s="341" t="s">
+      <c r="O4" s="356"/>
+      <c r="P4" s="356"/>
+      <c r="Q4" s="357"/>
+      <c r="R4" s="355" t="s">
         <v>860</v>
       </c>
-      <c r="S4" s="342"/>
-      <c r="T4" s="342"/>
-      <c r="U4" s="343"/>
-      <c r="AC4" s="341" t="s">
+      <c r="S4" s="356"/>
+      <c r="T4" s="356"/>
+      <c r="U4" s="357"/>
+      <c r="AC4" s="355" t="s">
         <v>860</v>
       </c>
-      <c r="AD4" s="342"/>
-      <c r="AE4" s="342"/>
-      <c r="AF4" s="343"/>
+      <c r="AD4" s="356"/>
+      <c r="AE4" s="356"/>
+      <c r="AF4" s="357"/>
     </row>
     <row r="5" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="320" t="s">
+      <c r="D5" s="332" t="s">
         <v>856</v>
       </c>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="322"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="334"/>
       <c r="H5" s="314"/>
-      <c r="I5" s="320" t="s">
+      <c r="I5" s="332" t="s">
         <v>856</v>
       </c>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="322"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="333"/>
+      <c r="L5" s="334"/>
       <c r="M5" s="99"/>
-      <c r="N5" s="320" t="s">
+      <c r="N5" s="332" t="s">
         <v>856</v>
       </c>
-      <c r="O5" s="321"/>
-      <c r="P5" s="321"/>
-      <c r="Q5" s="322"/>
-      <c r="R5" s="320" t="s">
+      <c r="O5" s="333"/>
+      <c r="P5" s="333"/>
+      <c r="Q5" s="334"/>
+      <c r="R5" s="332" t="s">
         <v>899</v>
       </c>
-      <c r="S5" s="321"/>
-      <c r="T5" s="321"/>
-      <c r="U5" s="322"/>
-      <c r="AC5" s="320" t="s">
+      <c r="S5" s="333"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="334"/>
+      <c r="AC5" s="332" t="s">
         <v>899</v>
       </c>
-      <c r="AD5" s="321"/>
-      <c r="AE5" s="321"/>
-      <c r="AF5" s="322"/>
+      <c r="AD5" s="333"/>
+      <c r="AE5" s="333"/>
+      <c r="AF5" s="334"/>
     </row>
     <row r="6" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="206" t="s">
@@ -33070,52 +33070,52 @@
       </c>
       <c r="B6" s="258"/>
       <c r="C6" s="258"/>
-      <c r="D6" s="323" t="s">
+      <c r="D6" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="324"/>
-      <c r="F6" s="324"/>
-      <c r="G6" s="325"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="336"/>
+      <c r="G6" s="337"/>
       <c r="H6" s="313"/>
       <c r="I6" s="55"/>
       <c r="J6" s="56"/>
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
-      <c r="M6" s="363"/>
-      <c r="N6" s="326" t="s">
+      <c r="M6" s="326"/>
+      <c r="N6" s="338" t="s">
         <v>109</v>
       </c>
-      <c r="O6" s="324"/>
-      <c r="P6" s="324"/>
-      <c r="Q6" s="324"/>
+      <c r="O6" s="336"/>
+      <c r="P6" s="336"/>
+      <c r="Q6" s="336"/>
       <c r="R6" s="55"/>
       <c r="S6" s="56"/>
       <c r="T6" s="56"/>
       <c r="U6" s="56"/>
-      <c r="V6" s="356"/>
+      <c r="V6" s="320"/>
       <c r="W6" s="278"/>
       <c r="X6" s="278"/>
-      <c r="Y6" s="357"/>
+      <c r="Y6" s="321"/>
       <c r="Z6" s="313"/>
       <c r="AA6" s="313"/>
       <c r="AB6" s="313"/>
-      <c r="AC6" s="323" t="s">
+      <c r="AC6" s="335" t="s">
         <v>1047</v>
       </c>
-      <c r="AD6" s="324"/>
-      <c r="AE6" s="324"/>
-      <c r="AF6" s="325"/>
+      <c r="AD6" s="336"/>
+      <c r="AE6" s="336"/>
+      <c r="AF6" s="337"/>
       <c r="AG6" s="312"/>
       <c r="AH6" s="56"/>
       <c r="AI6" s="56"/>
       <c r="AJ6" s="56"/>
       <c r="AK6" s="57"/>
-      <c r="AL6" s="323" t="s">
+      <c r="AL6" s="335" t="s">
         <v>187</v>
       </c>
-      <c r="AM6" s="324"/>
-      <c r="AN6" s="324"/>
-      <c r="AO6" s="325"/>
+      <c r="AM6" s="336"/>
+      <c r="AN6" s="336"/>
+      <c r="AO6" s="337"/>
       <c r="AP6" s="210"/>
       <c r="AQ6" s="211"/>
       <c r="AR6" s="211"/>
@@ -33127,45 +33127,45 @@
         <v>917</v>
       </c>
       <c r="C7" s="259"/>
-      <c r="D7" s="323" t="s">
+      <c r="D7" s="335" t="s">
         <v>618</v>
       </c>
-      <c r="E7" s="324"/>
-      <c r="F7" s="324"/>
-      <c r="G7" s="325"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="336"/>
+      <c r="G7" s="337"/>
       <c r="H7" s="147"/>
-      <c r="I7" s="323" t="s">
+      <c r="I7" s="335" t="s">
         <v>822</v>
       </c>
-      <c r="J7" s="324"/>
-      <c r="K7" s="324"/>
-      <c r="L7" s="325"/>
-      <c r="M7" s="364"/>
-      <c r="N7" s="323" t="s">
+      <c r="J7" s="336"/>
+      <c r="K7" s="336"/>
+      <c r="L7" s="337"/>
+      <c r="M7" s="327"/>
+      <c r="N7" s="335" t="s">
         <v>619</v>
       </c>
-      <c r="O7" s="324"/>
-      <c r="P7" s="324"/>
-      <c r="Q7" s="325"/>
-      <c r="R7" s="323"/>
-      <c r="S7" s="324"/>
-      <c r="T7" s="324"/>
-      <c r="U7" s="325"/>
+      <c r="O7" s="336"/>
+      <c r="P7" s="336"/>
+      <c r="Q7" s="337"/>
+      <c r="R7" s="335"/>
+      <c r="S7" s="336"/>
+      <c r="T7" s="336"/>
+      <c r="U7" s="337"/>
       <c r="V7" s="358" t="s">
         <v>1048</v>
       </c>
-      <c r="W7" s="354"/>
-      <c r="X7" s="354"/>
-      <c r="Y7" s="355"/>
+      <c r="W7" s="359"/>
+      <c r="X7" s="359"/>
+      <c r="Y7" s="360"/>
       <c r="Z7" s="147"/>
       <c r="AA7" s="147"/>
       <c r="AB7" s="147"/>
-      <c r="AC7" s="323" t="s">
+      <c r="AC7" s="335" t="s">
         <v>1005</v>
       </c>
-      <c r="AD7" s="324"/>
-      <c r="AE7" s="324"/>
-      <c r="AF7" s="325"/>
+      <c r="AD7" s="336"/>
+      <c r="AE7" s="336"/>
+      <c r="AF7" s="337"/>
       <c r="AG7" s="44"/>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
@@ -33175,12 +33175,12 @@
       <c r="AM7" s="213"/>
       <c r="AN7" s="213"/>
       <c r="AO7" s="214"/>
-      <c r="AP7" s="323" t="s">
+      <c r="AP7" s="335" t="s">
         <v>823</v>
       </c>
-      <c r="AQ7" s="324"/>
-      <c r="AR7" s="324"/>
-      <c r="AS7" s="325"/>
+      <c r="AQ7" s="336"/>
+      <c r="AR7" s="336"/>
+      <c r="AS7" s="337"/>
     </row>
     <row r="8" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="206">
@@ -33202,7 +33202,7 @@
       <c r="G8" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="353"/>
+      <c r="H8" s="319"/>
       <c r="I8" s="234" t="s">
         <v>629</v>
       </c>
@@ -33273,7 +33273,7 @@
       <c r="AF8" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="AG8" s="353" t="s">
+      <c r="AG8" s="319" t="s">
         <v>1046</v>
       </c>
       <c r="AH8" s="26" t="s">
@@ -33326,25 +33326,25 @@
       <c r="F9" s="285"/>
       <c r="G9" s="286"/>
       <c r="H9" s="314"/>
-      <c r="I9" s="344" t="s">
+      <c r="I9" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="J9" s="345"/>
-      <c r="K9" s="345"/>
-      <c r="L9" s="345"/>
-      <c r="M9" s="365" t="s">
+      <c r="J9" s="354"/>
+      <c r="K9" s="354"/>
+      <c r="L9" s="354"/>
+      <c r="M9" s="328" t="s">
         <v>964</v>
       </c>
       <c r="N9" s="285"/>
       <c r="O9" s="285"/>
       <c r="P9" s="285"/>
       <c r="Q9" s="285"/>
-      <c r="R9" s="344" t="s">
+      <c r="R9" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="S9" s="345"/>
-      <c r="T9" s="345"/>
-      <c r="U9" s="345"/>
+      <c r="S9" s="354"/>
+      <c r="T9" s="354"/>
+      <c r="U9" s="354"/>
       <c r="AC9" s="284"/>
       <c r="AD9" s="285"/>
       <c r="AE9" s="285"/>
@@ -33551,12 +33551,12 @@
         <v>575</v>
       </c>
       <c r="H15" s="81"/>
-      <c r="I15" s="344" t="s">
+      <c r="I15" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="J15" s="345"/>
-      <c r="K15" s="345"/>
-      <c r="L15" s="345"/>
+      <c r="J15" s="354"/>
+      <c r="K15" s="354"/>
+      <c r="L15" s="354"/>
       <c r="M15" s="99"/>
       <c r="N15" s="74" t="s">
         <v>155</v>
@@ -33566,12 +33566,12 @@
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="344" t="s">
+      <c r="R15" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="S15" s="345"/>
-      <c r="T15" s="345"/>
-      <c r="U15" s="345"/>
+      <c r="S15" s="354"/>
+      <c r="T15" s="354"/>
+      <c r="U15" s="354"/>
       <c r="AC15" s="176"/>
       <c r="AD15" s="81"/>
       <c r="AE15" s="12"/>
@@ -33659,7 +33659,7 @@
       <c r="U17" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="AB17" s="359"/>
+      <c r="AB17" s="322"/>
       <c r="AC17" s="176"/>
       <c r="AD17" s="81"/>
       <c r="AE17" s="12"/>
@@ -33886,12 +33886,12 @@
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="81"/>
-      <c r="I23" s="344" t="s">
+      <c r="I23" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="J23" s="345"/>
-      <c r="K23" s="345"/>
-      <c r="L23" s="345"/>
+      <c r="J23" s="354"/>
+      <c r="K23" s="354"/>
+      <c r="L23" s="354"/>
       <c r="M23" s="164"/>
       <c r="O23" s="78" t="s">
         <v>242</v>
@@ -33902,12 +33902,12 @@
       <c r="Q23" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="R23" s="344" t="s">
+      <c r="R23" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="S23" s="345"/>
-      <c r="T23" s="345"/>
-      <c r="U23" s="345"/>
+      <c r="S23" s="354"/>
+      <c r="T23" s="354"/>
+      <c r="U23" s="354"/>
       <c r="X23" s="34"/>
       <c r="Y23" s="34" t="s">
         <v>470</v>
@@ -34086,7 +34086,7 @@
         <v>573</v>
       </c>
       <c r="H28" s="81"/>
-      <c r="M28" s="366"/>
+      <c r="M28" s="329"/>
       <c r="N28" s="78" t="s">
         <v>252</v>
       </c>
@@ -34126,7 +34126,7 @@
         <v>575</v>
       </c>
       <c r="H29" s="81"/>
-      <c r="M29" s="366"/>
+      <c r="M29" s="329"/>
       <c r="N29" s="78" t="s">
         <v>255</v>
       </c>
@@ -34170,7 +34170,7 @@
         <v>577</v>
       </c>
       <c r="H30" s="81"/>
-      <c r="M30" s="366"/>
+      <c r="M30" s="329"/>
       <c r="N30" s="78" t="s">
         <v>257</v>
       </c>
@@ -34211,12 +34211,12 @@
       <c r="F31" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="I31" s="344" t="s">
+      <c r="I31" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="J31" s="345"/>
-      <c r="K31" s="345"/>
-      <c r="L31" s="345"/>
+      <c r="J31" s="354"/>
+      <c r="K31" s="354"/>
+      <c r="L31" s="354"/>
       <c r="M31" s="164"/>
       <c r="O31" s="78" t="s">
         <v>256</v>
@@ -34227,12 +34227,12 @@
       <c r="Q31" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="R31" s="344" t="s">
+      <c r="R31" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="S31" s="345"/>
-      <c r="T31" s="345"/>
-      <c r="U31" s="345"/>
+      <c r="S31" s="354"/>
+      <c r="T31" s="354"/>
+      <c r="U31" s="354"/>
       <c r="X31" s="34"/>
       <c r="Y31" s="34" t="s">
         <v>742</v>
@@ -34264,7 +34264,7 @@
       <c r="L32" s="75" t="s">
         <v>573</v>
       </c>
-      <c r="M32" s="366"/>
+      <c r="M32" s="329"/>
       <c r="N32" s="81"/>
       <c r="O32" s="81"/>
       <c r="P32" s="78" t="s">
@@ -34306,7 +34306,7 @@
       <c r="L33" s="75" t="s">
         <v>575</v>
       </c>
-      <c r="M33" s="366"/>
+      <c r="M33" s="329"/>
       <c r="Q33" s="78" t="s">
         <v>251</v>
       </c>
@@ -34341,7 +34341,7 @@
       <c r="L34" s="75" t="s">
         <v>577</v>
       </c>
-      <c r="M34" s="366"/>
+      <c r="M34" s="329"/>
       <c r="P34" s="81"/>
       <c r="Q34" s="81"/>
       <c r="U34" s="78" t="s">
@@ -34373,7 +34373,7 @@
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="110"/>
-      <c r="M35" s="366"/>
+      <c r="M35" s="329"/>
       <c r="N35" s="233" t="s">
         <v>784</v>
       </c>
@@ -34408,7 +34408,7 @@
         <v>573</v>
       </c>
       <c r="H36" s="81"/>
-      <c r="M36" s="366"/>
+      <c r="M36" s="329"/>
       <c r="N36" s="78" t="s">
         <v>463</v>
       </c>
@@ -34448,7 +34448,7 @@
         <v>575</v>
       </c>
       <c r="H37" s="81"/>
-      <c r="M37" s="366"/>
+      <c r="M37" s="329"/>
       <c r="N37" s="78" t="s">
         <v>464</v>
       </c>
@@ -34485,7 +34485,7 @@
         <v>577</v>
       </c>
       <c r="H38" s="81"/>
-      <c r="M38" s="366"/>
+      <c r="M38" s="329"/>
       <c r="N38" s="78" t="s">
         <v>264</v>
       </c>
@@ -34521,12 +34521,12 @@
       <c r="F39" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="I39" s="344" t="s">
+      <c r="I39" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="J39" s="345"/>
-      <c r="K39" s="345"/>
-      <c r="L39" s="345"/>
+      <c r="J39" s="354"/>
+      <c r="K39" s="354"/>
+      <c r="L39" s="354"/>
       <c r="M39" s="164"/>
       <c r="N39" s="12"/>
       <c r="O39" s="78" t="s">
@@ -34534,12 +34534,12 @@
       </c>
       <c r="P39" s="81"/>
       <c r="Q39" s="81"/>
-      <c r="R39" s="344" t="s">
+      <c r="R39" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="S39" s="345"/>
-      <c r="T39" s="345"/>
-      <c r="U39" s="345"/>
+      <c r="S39" s="354"/>
+      <c r="T39" s="354"/>
+      <c r="U39" s="354"/>
       <c r="X39" s="34"/>
       <c r="Y39" s="34" t="s">
         <v>746</v>
@@ -34569,7 +34569,7 @@
       <c r="L40" s="78" t="s">
         <v>468</v>
       </c>
-      <c r="M40" s="366"/>
+      <c r="M40" s="329"/>
       <c r="N40" s="12"/>
       <c r="O40" s="81"/>
       <c r="P40" s="81"/>
@@ -34608,7 +34608,7 @@
       <c r="L41" s="78" t="s">
         <v>469</v>
       </c>
-      <c r="M41" s="366"/>
+      <c r="M41" s="329"/>
       <c r="N41" s="81"/>
       <c r="O41" s="81"/>
       <c r="P41" s="81"/>
@@ -34642,7 +34642,7 @@
       <c r="L42" s="78" t="s">
         <v>470</v>
       </c>
-      <c r="M42" s="366"/>
+      <c r="M42" s="329"/>
       <c r="U42" s="75" t="s">
         <v>577</v>
       </c>
@@ -34670,7 +34670,7 @@
       <c r="B43" s="164">
         <v>5</v>
       </c>
-      <c r="M43" s="366"/>
+      <c r="M43" s="329"/>
       <c r="X43" s="34"/>
       <c r="Y43" s="34" t="s">
         <v>760</v>
@@ -34785,13 +34785,13 @@
       </c>
       <c r="G47" s="82"/>
       <c r="H47" s="81"/>
-      <c r="I47" s="344" t="s">
+      <c r="I47" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="J47" s="345"/>
-      <c r="K47" s="345"/>
-      <c r="L47" s="345"/>
-      <c r="M47" s="367"/>
+      <c r="J47" s="354"/>
+      <c r="K47" s="354"/>
+      <c r="L47" s="354"/>
+      <c r="M47" s="330"/>
       <c r="N47" s="81"/>
       <c r="O47" s="73" t="s">
         <v>576</v>
@@ -34986,13 +34986,13 @@
       <c r="B59" s="164">
         <v>1</v>
       </c>
-      <c r="I59" s="344" t="s">
+      <c r="I59" s="353" t="s">
         <v>1002</v>
       </c>
-      <c r="J59" s="345"/>
-      <c r="K59" s="345"/>
-      <c r="L59" s="345"/>
-      <c r="M59" s="367"/>
+      <c r="J59" s="354"/>
+      <c r="K59" s="354"/>
+      <c r="L59" s="354"/>
+      <c r="M59" s="330"/>
       <c r="AE59" s="76" t="s">
         <v>892</v>
       </c>
@@ -35387,6 +35387,31 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V7:Y7"/>
     <mergeCell ref="I59:L59"/>
     <mergeCell ref="I47:L47"/>
     <mergeCell ref="R1:T1"/>
@@ -35400,31 +35425,6 @@
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="I39:L39"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35481,17 +35481,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="327" t="s">
+      <c r="B1" s="339" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
       <c r="E1" s="42"/>
-      <c r="F1" s="327" t="s">
+      <c r="F1" s="339" t="s">
         <v>942</v>
       </c>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
       <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -35534,61 +35534,61 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="341" t="s">
+      <c r="B4" s="355" t="s">
         <v>941</v>
       </c>
-      <c r="C4" s="342"/>
-      <c r="D4" s="342"/>
-      <c r="E4" s="343"/>
-      <c r="F4" s="341" t="s">
+      <c r="C4" s="356"/>
+      <c r="D4" s="356"/>
+      <c r="E4" s="357"/>
+      <c r="F4" s="355" t="s">
         <v>282</v>
       </c>
-      <c r="G4" s="342"/>
-      <c r="H4" s="342"/>
-      <c r="I4" s="343"/>
+      <c r="G4" s="356"/>
+      <c r="H4" s="356"/>
+      <c r="I4" s="357"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="320" t="s">
+      <c r="B5" s="332" t="s">
         <v>856</v>
       </c>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="322"/>
-      <c r="F5" s="320" t="s">
+      <c r="C5" s="333"/>
+      <c r="D5" s="333"/>
+      <c r="E5" s="334"/>
+      <c r="F5" s="332" t="s">
         <v>856</v>
       </c>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="322"/>
+      <c r="G5" s="333"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="334"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="335" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="324"/>
-      <c r="D6" s="324"/>
-      <c r="E6" s="325"/>
-      <c r="F6" s="326" t="s">
+      <c r="C6" s="336"/>
+      <c r="D6" s="336"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="338" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="324"/>
-      <c r="H6" s="324"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="323" t="s">
+      <c r="G6" s="336"/>
+      <c r="H6" s="336"/>
+      <c r="I6" s="336"/>
+      <c r="J6" s="335" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="324"/>
-      <c r="L6" s="324"/>
-      <c r="M6" s="325"/>
-      <c r="N6" s="323" t="s">
+      <c r="K6" s="336"/>
+      <c r="L6" s="336"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="335" t="s">
         <v>187</v>
       </c>
-      <c r="O6" s="324"/>
-      <c r="P6" s="324"/>
-      <c r="Q6" s="325"/>
+      <c r="O6" s="336"/>
+      <c r="P6" s="336"/>
+      <c r="Q6" s="337"/>
       <c r="V6" s="55"/>
       <c r="W6" s="56"/>
       <c r="X6" s="56"/>
@@ -35617,24 +35617,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="206"/>
-      <c r="B7" s="323" t="s">
+      <c r="B7" s="335" t="s">
         <v>618</v>
       </c>
-      <c r="C7" s="324"/>
-      <c r="D7" s="324"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="323" t="s">
+      <c r="C7" s="336"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="337"/>
+      <c r="F7" s="335" t="s">
         <v>619</v>
       </c>
-      <c r="G7" s="324"/>
-      <c r="H7" s="324"/>
-      <c r="I7" s="325"/>
-      <c r="J7" s="323" t="s">
+      <c r="G7" s="336"/>
+      <c r="H7" s="336"/>
+      <c r="I7" s="337"/>
+      <c r="J7" s="335" t="s">
         <v>778</v>
       </c>
-      <c r="K7" s="324"/>
-      <c r="L7" s="324"/>
-      <c r="M7" s="325"/>
+      <c r="K7" s="336"/>
+      <c r="L7" s="336"/>
+      <c r="M7" s="337"/>
       <c r="N7" s="203"/>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
@@ -39326,6 +39326,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:E4"/>
@@ -39334,11 +39339,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018EE4F5-D2EE-4BD5-AA06-74BEC9D261D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A7F91-7642-4DA3-927C-E310D7D8BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="2" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
@@ -5006,35 +5006,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5051,7 +5030,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5063,9 +5066,6 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5074,6 +5074,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5106,9 +5109,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5435,11 +5435,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="307" t="s">
+      <c r="W1" s="308" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="307"/>
-      <c r="Y1" s="307"/>
+      <c r="X1" s="308"/>
+      <c r="Y1" s="308"/>
       <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5454,11 +5454,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="307" t="s">
+      <c r="W3" s="308" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="307"/>
-      <c r="Y3" s="307"/>
+      <c r="X3" s="308"/>
+      <c r="Y3" s="308"/>
       <c r="Z3" s="21" t="s">
         <v>52</v>
       </c>
@@ -6239,30 +6239,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="51"/>
       <c r="B1"/>
-      <c r="C1" s="311" t="s">
+      <c r="C1" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="311" t="s">
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="315" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="311" t="s">
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="315" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="311" t="s">
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
+      <c r="P1" s="316"/>
+      <c r="Q1" s="316"/>
+      <c r="R1" s="317"/>
     </row>
     <row r="2" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="51"/>
@@ -6351,12 +6351,12 @@
       <c r="P3" s="238"/>
       <c r="Q3" s="238"/>
       <c r="R3" s="242"/>
-      <c r="S3" s="315" t="s">
+      <c r="S3" s="320" t="s">
         <v>847</v>
       </c>
-      <c r="T3" s="315"/>
-      <c r="U3" s="315"/>
-      <c r="V3" s="316"/>
+      <c r="T3" s="320"/>
+      <c r="U3" s="320"/>
+      <c r="V3" s="323"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="51" t="s">
@@ -6417,12 +6417,12 @@
       <c r="P5" s="238"/>
       <c r="Q5" s="238"/>
       <c r="R5" s="242"/>
-      <c r="S5" s="320" t="s">
+      <c r="S5" s="313" t="s">
         <v>773</v>
       </c>
-      <c r="T5" s="320"/>
-      <c r="U5" s="320"/>
-      <c r="V5" s="321"/>
+      <c r="T5" s="313"/>
+      <c r="U5" s="313"/>
+      <c r="V5" s="314"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="51" t="s">
@@ -6448,12 +6448,12 @@
       <c r="P6" s="238"/>
       <c r="Q6" s="238"/>
       <c r="R6" s="242"/>
-      <c r="S6" s="320" t="s">
+      <c r="S6" s="313" t="s">
         <v>848</v>
       </c>
-      <c r="T6" s="320"/>
-      <c r="U6" s="320"/>
-      <c r="V6" s="321"/>
+      <c r="T6" s="313"/>
+      <c r="U6" s="313"/>
+      <c r="V6" s="314"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="51" t="s">
@@ -6506,10 +6506,10 @@
       <c r="P8" s="238"/>
       <c r="Q8" s="238"/>
       <c r="R8" s="242"/>
-      <c r="S8" s="338"/>
-      <c r="T8" s="339"/>
-      <c r="U8" s="339"/>
-      <c r="V8" s="339"/>
+      <c r="S8" s="339"/>
+      <c r="T8" s="340"/>
+      <c r="U8" s="340"/>
+      <c r="V8" s="340"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="51" t="s">
@@ -6685,12 +6685,12 @@
       <c r="N15" s="234" t="s">
         <v>239</v>
       </c>
-      <c r="O15" s="336" t="s">
+      <c r="O15" s="337" t="s">
         <v>849</v>
       </c>
-      <c r="P15" s="326"/>
-      <c r="Q15" s="326"/>
-      <c r="R15" s="337"/>
+      <c r="P15" s="330"/>
+      <c r="Q15" s="330"/>
+      <c r="R15" s="338"/>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="51" t="s">
@@ -8711,30 +8711,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="244"/>
       <c r="B1" s="231"/>
-      <c r="C1" s="311" t="s">
+      <c r="C1" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="311" t="s">
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="315" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="311" t="s">
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="315" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="311" t="s">
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
+      <c r="P1" s="316"/>
+      <c r="Q1" s="316"/>
+      <c r="R1" s="317"/>
       <c r="S1" s="194"/>
       <c r="T1" s="194"/>
       <c r="U1" s="194"/>
@@ -8833,12 +8833,12 @@
       <c r="P3" s="189"/>
       <c r="Q3" s="189"/>
       <c r="R3" s="190"/>
-      <c r="S3" s="314" t="s">
+      <c r="S3" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="315"/>
-      <c r="U3" s="315"/>
-      <c r="V3" s="316"/>
+      <c r="T3" s="320"/>
+      <c r="U3" s="320"/>
+      <c r="V3" s="323"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="244" t="s">
@@ -8907,12 +8907,12 @@
       <c r="P5" s="189"/>
       <c r="Q5" s="189"/>
       <c r="R5" s="190"/>
-      <c r="S5" s="319" t="s">
+      <c r="S5" s="312" t="s">
         <v>236</v>
       </c>
-      <c r="T5" s="320"/>
-      <c r="U5" s="320"/>
-      <c r="V5" s="321"/>
+      <c r="T5" s="313"/>
+      <c r="U5" s="313"/>
+      <c r="V5" s="314"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="244" t="s">
@@ -8943,12 +8943,12 @@
       <c r="P6" s="189"/>
       <c r="Q6" s="189"/>
       <c r="R6" s="190"/>
-      <c r="S6" s="319" t="s">
+      <c r="S6" s="312" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="320"/>
-      <c r="U6" s="320"/>
-      <c r="V6" s="321"/>
+      <c r="T6" s="313"/>
+      <c r="U6" s="313"/>
+      <c r="V6" s="314"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="244" t="s">
@@ -9016,12 +9016,12 @@
         <v>238</v>
       </c>
       <c r="R8" s="190"/>
-      <c r="S8" s="340" t="s">
+      <c r="S8" s="341" t="s">
         <v>853</v>
       </c>
-      <c r="T8" s="339"/>
-      <c r="U8" s="339"/>
-      <c r="V8" s="339"/>
+      <c r="T8" s="340"/>
+      <c r="U8" s="340"/>
+      <c r="V8" s="340"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="244" t="s">
@@ -11556,30 +11556,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="51"/>
-      <c r="C1" s="311" t="s">
+      <c r="C1" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="311" t="s">
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="315" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="311" t="s">
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="315" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="311" t="s">
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
+      <c r="P1" s="316"/>
+      <c r="Q1" s="316"/>
+      <c r="R1" s="317"/>
       <c r="S1" s="40"/>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
@@ -11677,12 +11677,12 @@
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="36"/>
-      <c r="S3" s="314" t="s">
+      <c r="S3" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="315"/>
-      <c r="U3" s="315"/>
-      <c r="V3" s="316"/>
+      <c r="T3" s="320"/>
+      <c r="U3" s="320"/>
+      <c r="V3" s="323"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="51" t="s">
@@ -11747,12 +11747,12 @@
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
       <c r="R5" s="36"/>
-      <c r="S5" s="319" t="s">
+      <c r="S5" s="312" t="s">
         <v>236</v>
       </c>
-      <c r="T5" s="320"/>
-      <c r="U5" s="320"/>
-      <c r="V5" s="321"/>
+      <c r="T5" s="313"/>
+      <c r="U5" s="313"/>
+      <c r="V5" s="314"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="51" t="s">
@@ -11782,12 +11782,12 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
       <c r="R6" s="36"/>
-      <c r="S6" s="319" t="s">
+      <c r="S6" s="312" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="320"/>
-      <c r="U6" s="320"/>
-      <c r="V6" s="321"/>
+      <c r="T6" s="313"/>
+      <c r="U6" s="313"/>
+      <c r="V6" s="314"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="51" t="s">
@@ -11854,12 +11854,12 @@
         <v>238</v>
       </c>
       <c r="R8" s="36"/>
-      <c r="S8" s="340" t="s">
+      <c r="S8" s="341" t="s">
         <v>331</v>
       </c>
-      <c r="T8" s="339"/>
-      <c r="U8" s="339"/>
-      <c r="V8" s="339"/>
+      <c r="T8" s="340"/>
+      <c r="U8" s="340"/>
+      <c r="V8" s="340"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="51" t="s">
@@ -14343,36 +14343,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="18"/>
-      <c r="C1" s="311" t="s">
+      <c r="C1" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="322" t="s">
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="311" t="s">
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="315" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="311" t="s">
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
-      <c r="Z1" s="311" t="s">
+      <c r="P1" s="316"/>
+      <c r="Q1" s="316"/>
+      <c r="R1" s="317"/>
+      <c r="Z1" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="312"/>
-      <c r="AB1" s="312"/>
-      <c r="AC1" s="313"/>
+      <c r="AA1" s="316"/>
+      <c r="AB1" s="316"/>
+      <c r="AC1" s="317"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18"/>
@@ -14441,33 +14441,33 @@
       <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="314" t="s">
+      <c r="C3" s="319" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="314"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="316"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="323"/>
       <c r="K3" s="188"/>
       <c r="O3" s="188"/>
       <c r="P3" s="189"/>
       <c r="Q3" s="189"/>
       <c r="R3" s="190"/>
-      <c r="S3" s="314" t="s">
+      <c r="S3" s="319" t="s">
         <v>355</v>
       </c>
-      <c r="T3" s="315"/>
-      <c r="U3" s="315"/>
-      <c r="V3" s="316"/>
-      <c r="Z3" s="314" t="s">
+      <c r="T3" s="320"/>
+      <c r="U3" s="320"/>
+      <c r="V3" s="323"/>
+      <c r="Z3" s="319" t="s">
         <v>219</v>
       </c>
-      <c r="AA3" s="315"/>
-      <c r="AB3" s="315"/>
-      <c r="AC3" s="316"/>
+      <c r="AA3" s="320"/>
+      <c r="AB3" s="320"/>
+      <c r="AC3" s="323"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="34" t="s">
@@ -14524,12 +14524,12 @@
       <c r="P5" s="189"/>
       <c r="Q5" s="189"/>
       <c r="R5" s="190"/>
-      <c r="S5" s="319" t="s">
+      <c r="S5" s="312" t="s">
         <v>455</v>
       </c>
-      <c r="T5" s="320"/>
-      <c r="U5" s="320"/>
-      <c r="V5" s="321"/>
+      <c r="T5" s="313"/>
+      <c r="U5" s="313"/>
+      <c r="V5" s="314"/>
       <c r="W5" s="67" t="s">
         <v>457</v>
       </c>
@@ -14559,12 +14559,12 @@
       <c r="P6" s="189"/>
       <c r="Q6" s="189"/>
       <c r="R6" s="190"/>
-      <c r="S6" s="319" t="s">
+      <c r="S6" s="312" t="s">
         <v>372</v>
       </c>
-      <c r="T6" s="320"/>
-      <c r="U6" s="320"/>
-      <c r="V6" s="321"/>
+      <c r="T6" s="313"/>
+      <c r="U6" s="313"/>
+      <c r="V6" s="314"/>
       <c r="Z6" s="188"/>
       <c r="AA6" s="189"/>
       <c r="AB6" s="189"/>
@@ -15923,17 +15923,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15968,57 +15968,57 @@
       <c r="A1" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="311" t="s">
+      <c r="B1" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="322" t="s">
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="311" t="s">
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="315" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="311" t="s">
+      <c r="K1" s="316"/>
+      <c r="L1" s="316"/>
+      <c r="M1" s="317"/>
+      <c r="N1" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="314" t="s">
+      <c r="O1" s="316"/>
+      <c r="P1" s="316"/>
+      <c r="Q1" s="317"/>
+      <c r="R1" s="319" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="315"/>
-      <c r="T1" s="315"/>
+      <c r="S1" s="320"/>
+      <c r="T1" s="320"/>
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="187"/>
-      <c r="B2" s="311" t="s">
+      <c r="B2" s="315" t="s">
         <v>547</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="311" t="s">
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="315" t="s">
         <v>548</v>
       </c>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="311" t="s">
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="317"/>
+      <c r="J2" s="315" t="s">
         <v>691</v>
       </c>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="313"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
+      <c r="M2" s="317"/>
       <c r="N2" s="39"/>
       <c r="O2" s="191"/>
       <c r="P2" s="191"/>
@@ -16117,12 +16117,12 @@
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="29"/>
-      <c r="R4" s="308" t="s">
+      <c r="R4" s="309" t="s">
         <v>236</v>
       </c>
-      <c r="S4" s="317"/>
-      <c r="T4" s="317"/>
-      <c r="U4" s="318"/>
+      <c r="S4" s="310"/>
+      <c r="T4" s="310"/>
+      <c r="U4" s="311"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="187" t="s">
@@ -16145,12 +16145,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="319" t="s">
+      <c r="R5" s="312" t="s">
         <v>769</v>
       </c>
-      <c r="S5" s="320"/>
-      <c r="T5" s="320"/>
-      <c r="U5" s="321"/>
+      <c r="S5" s="313"/>
+      <c r="T5" s="313"/>
+      <c r="U5" s="314"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="187" t="s">
@@ -17820,11 +17820,11 @@
       <c r="K93" s="185"/>
       <c r="L93" s="195"/>
       <c r="M93" s="195"/>
-      <c r="R93" s="314" t="s">
+      <c r="R93" s="319" t="s">
         <v>213</v>
       </c>
-      <c r="S93" s="315"/>
-      <c r="T93" s="315"/>
+      <c r="S93" s="320"/>
+      <c r="T93" s="320"/>
       <c r="U93" s="37"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -17913,12 +17913,12 @@
       <c r="K96" s="64"/>
       <c r="L96" s="64"/>
       <c r="M96" s="65"/>
-      <c r="R96" s="308" t="s">
+      <c r="R96" s="309" t="s">
         <v>51</v>
       </c>
-      <c r="S96" s="309"/>
-      <c r="T96" s="309"/>
-      <c r="U96" s="310"/>
+      <c r="S96" s="321"/>
+      <c r="T96" s="321"/>
+      <c r="U96" s="322"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="187" t="s">
@@ -17940,12 +17940,12 @@
       <c r="K97" s="64"/>
       <c r="L97" s="64"/>
       <c r="M97" s="65"/>
-      <c r="R97" s="314" t="s">
+      <c r="R97" s="319" t="s">
         <v>769</v>
       </c>
-      <c r="S97" s="315"/>
-      <c r="T97" s="315"/>
-      <c r="U97" s="316"/>
+      <c r="S97" s="320"/>
+      <c r="T97" s="320"/>
+      <c r="U97" s="323"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="187" t="s">
@@ -17997,11 +17997,11 @@
       <c r="K100" s="64"/>
       <c r="L100" s="64"/>
       <c r="M100" s="65"/>
-      <c r="R100" s="314" t="s">
+      <c r="R100" s="319" t="s">
         <v>770</v>
       </c>
-      <c r="S100" s="315"/>
-      <c r="T100" s="315"/>
+      <c r="S100" s="320"/>
+      <c r="T100" s="320"/>
       <c r="U100" s="37"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -18097,12 +18097,12 @@
       <c r="M103" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="R103" s="308" t="s">
+      <c r="R103" s="309" t="s">
         <v>236</v>
       </c>
-      <c r="S103" s="309"/>
-      <c r="T103" s="309"/>
-      <c r="U103" s="310"/>
+      <c r="S103" s="321"/>
+      <c r="T103" s="321"/>
+      <c r="U103" s="322"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="187" t="s">
@@ -18119,12 +18119,12 @@
       <c r="L104" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="R104" s="314" t="s">
+      <c r="R104" s="319" t="s">
         <v>769</v>
       </c>
-      <c r="S104" s="315"/>
-      <c r="T104" s="315"/>
-      <c r="U104" s="316"/>
+      <c r="S104" s="320"/>
+      <c r="T104" s="320"/>
+      <c r="U104" s="323"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="187" t="s">
@@ -18474,12 +18474,12 @@
       <c r="L124" s="29" t="s">
         <v>674</v>
       </c>
-      <c r="R124" s="314" t="s">
+      <c r="R124" s="319" t="s">
         <v>781</v>
       </c>
-      <c r="S124" s="315"/>
-      <c r="T124" s="315"/>
-      <c r="U124" s="316"/>
+      <c r="S124" s="320"/>
+      <c r="T124" s="320"/>
+      <c r="U124" s="323"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="187" t="s">
@@ -18555,23 +18555,23 @@
       <c r="G127" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="R127" s="308" t="s">
+      <c r="R127" s="309" t="s">
         <v>773</v>
       </c>
-      <c r="S127" s="309"/>
-      <c r="T127" s="309"/>
-      <c r="U127" s="310"/>
+      <c r="S127" s="321"/>
+      <c r="T127" s="321"/>
+      <c r="U127" s="322"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="187" t="s">
         <v>782</v>
       </c>
-      <c r="R128" s="311" t="s">
+      <c r="R128" s="315" t="s">
         <v>769</v>
       </c>
-      <c r="S128" s="312"/>
-      <c r="T128" s="312"/>
-      <c r="U128" s="313"/>
+      <c r="S128" s="316"/>
+      <c r="T128" s="316"/>
+      <c r="U128" s="317"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="187" t="s">
@@ -18626,12 +18626,12 @@
       <c r="F135" s="63" t="s">
         <v>750</v>
       </c>
-      <c r="R135" s="314" t="s">
+      <c r="R135" s="319" t="s">
         <v>801</v>
       </c>
-      <c r="S135" s="315"/>
-      <c r="T135" s="315"/>
-      <c r="U135" s="316"/>
+      <c r="S135" s="320"/>
+      <c r="T135" s="320"/>
+      <c r="U135" s="323"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="187" t="s">
@@ -18683,23 +18683,23 @@
       <c r="A138" s="187" t="s">
         <v>758</v>
       </c>
-      <c r="R138" s="308" t="s">
+      <c r="R138" s="309" t="s">
         <v>773</v>
       </c>
-      <c r="S138" s="309"/>
-      <c r="T138" s="309"/>
-      <c r="U138" s="310"/>
+      <c r="S138" s="321"/>
+      <c r="T138" s="321"/>
+      <c r="U138" s="322"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="187" t="s">
         <v>759</v>
       </c>
-      <c r="R139" s="311" t="s">
+      <c r="R139" s="315" t="s">
         <v>812</v>
       </c>
-      <c r="S139" s="312"/>
-      <c r="T139" s="312"/>
-      <c r="U139" s="313"/>
+      <c r="S139" s="316"/>
+      <c r="T139" s="316"/>
+      <c r="U139" s="317"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="187" t="s">
@@ -18748,12 +18748,12 @@
       <c r="F145" s="59" t="s">
         <v>743</v>
       </c>
-      <c r="R145" s="314" t="s">
+      <c r="R145" s="319" t="s">
         <v>811</v>
       </c>
-      <c r="S145" s="315"/>
-      <c r="T145" s="315"/>
-      <c r="U145" s="316"/>
+      <c r="S145" s="320"/>
+      <c r="T145" s="320"/>
+      <c r="U145" s="323"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="187" t="s">
@@ -18805,12 +18805,12 @@
       <c r="A148" s="187" t="s">
         <v>783</v>
       </c>
-      <c r="R148" s="308" t="s">
+      <c r="R148" s="309" t="s">
         <v>773</v>
       </c>
-      <c r="S148" s="309"/>
-      <c r="T148" s="309"/>
-      <c r="U148" s="310"/>
+      <c r="S148" s="321"/>
+      <c r="T148" s="321"/>
+      <c r="U148" s="322"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="187" t="s">
@@ -18820,12 +18820,12 @@
       <c r="Q149" s="59" t="s">
         <v>774</v>
       </c>
-      <c r="R149" s="311" t="s">
+      <c r="R149" s="315" t="s">
         <v>812</v>
       </c>
-      <c r="S149" s="312"/>
-      <c r="T149" s="312"/>
-      <c r="U149" s="313"/>
+      <c r="S149" s="316"/>
+      <c r="T149" s="316"/>
+      <c r="U149" s="317"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="187" t="s">
@@ -18934,6 +18934,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="R127:U127"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="B1:E1"/>
@@ -18944,21 +18959,6 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18989,30 +18989,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18"/>
-      <c r="B1" s="311" t="s">
+      <c r="B1" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="322" t="s">
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="311" t="s">
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="315" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="311" t="s">
+      <c r="K1" s="316"/>
+      <c r="L1" s="316"/>
+      <c r="M1" s="317"/>
+      <c r="N1" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="313"/>
+      <c r="O1" s="316"/>
+      <c r="P1" s="316"/>
+      <c r="Q1" s="317"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -19099,12 +19099,12 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="314" t="s">
+      <c r="R3" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="315"/>
-      <c r="T3" s="315"/>
-      <c r="U3" s="316"/>
+      <c r="S3" s="320"/>
+      <c r="T3" s="320"/>
+      <c r="U3" s="323"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
@@ -19157,12 +19157,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="319" t="s">
+      <c r="R5" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="320"/>
-      <c r="T5" s="320"/>
-      <c r="U5" s="321"/>
+      <c r="S5" s="313"/>
+      <c r="T5" s="313"/>
+      <c r="U5" s="314"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
@@ -19184,12 +19184,12 @@
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="29"/>
-      <c r="R6" s="319" t="s">
+      <c r="R6" s="312" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="320"/>
-      <c r="T6" s="320"/>
-      <c r="U6" s="321"/>
+      <c r="S6" s="313"/>
+      <c r="T6" s="313"/>
+      <c r="U6" s="314"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
@@ -20428,18 +20428,18 @@
       <c r="AB1" s="247"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="308" t="s">
         <v>598</v>
       </c>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
@@ -20822,15 +20822,15 @@
       <c r="O18" s="18">
         <v>1</v>
       </c>
-      <c r="V18" s="307" t="s">
+      <c r="V18" s="308" t="s">
         <v>958</v>
       </c>
-      <c r="W18" s="307"/>
-      <c r="X18" s="307"/>
-      <c r="Y18" s="307"/>
-      <c r="Z18" s="307"/>
-      <c r="AA18" s="307"/>
-      <c r="AB18" s="307"/>
+      <c r="W18" s="308"/>
+      <c r="X18" s="308"/>
+      <c r="Y18" s="308"/>
+      <c r="Z18" s="308"/>
+      <c r="AA18" s="308"/>
+      <c r="AB18" s="308"/>
       <c r="AC18" s="169"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.4">
@@ -22839,18 +22839,18 @@
       <c r="A89" s="256" t="s">
         <v>917</v>
       </c>
-      <c r="B89" s="314" t="s">
+      <c r="B89" s="319" t="s">
         <v>918</v>
       </c>
-      <c r="C89" s="315"/>
-      <c r="D89" s="315"/>
-      <c r="E89" s="316"/>
-      <c r="G89" s="323" t="s">
+      <c r="C89" s="320"/>
+      <c r="D89" s="320"/>
+      <c r="E89" s="323"/>
+      <c r="G89" s="324" t="s">
         <v>919</v>
       </c>
-      <c r="H89" s="324"/>
-      <c r="I89" s="324"/>
-      <c r="J89" s="325"/>
+      <c r="H89" s="325"/>
+      <c r="I89" s="325"/>
+      <c r="J89" s="326"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B90" s="28" t="s">
@@ -25550,11 +25550,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="314" t="s">
+      <c r="D1" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
       <c r="G1" s="37"/>
       <c r="H1" s="45"/>
       <c r="I1" s="71"/>
@@ -25596,12 +25596,12 @@
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D3" s="319" t="s">
+      <c r="D3" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="321"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="314"/>
       <c r="H3" s="88"/>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -25610,12 +25610,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="311" t="s">
+      <c r="D6" s="315" t="s">
         <v>547</v>
       </c>
-      <c r="E6" s="312"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="313"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="316"/>
+      <c r="G6" s="317"/>
       <c r="H6" s="91"/>
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
@@ -25624,27 +25624,27 @@
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="311" t="s">
+      <c r="P6" s="315" t="s">
         <v>548</v>
       </c>
-      <c r="Q6" s="312"/>
-      <c r="R6" s="312"/>
-      <c r="S6" s="313"/>
-      <c r="AF6" s="311" t="s">
+      <c r="Q6" s="316"/>
+      <c r="R6" s="316"/>
+      <c r="S6" s="317"/>
+      <c r="AF6" s="315" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="312"/>
-      <c r="AH6" s="312"/>
-      <c r="AI6" s="313"/>
+      <c r="AG6" s="316"/>
+      <c r="AH6" s="316"/>
+      <c r="AI6" s="317"/>
       <c r="AJ6" s="122"/>
-      <c r="AK6" s="311" t="s">
+      <c r="AK6" s="315" t="s">
         <v>546</v>
       </c>
-      <c r="AL6" s="312"/>
-      <c r="AM6" s="312"/>
-      <c r="AN6" s="312"/>
-      <c r="AO6" s="312"/>
-      <c r="AP6" s="313"/>
+      <c r="AL6" s="316"/>
+      <c r="AM6" s="316"/>
+      <c r="AN6" s="316"/>
+      <c r="AO6" s="316"/>
+      <c r="AP6" s="317"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="39" t="s">
@@ -25747,12 +25747,12 @@
       <c r="AL8" s="123"/>
       <c r="AM8" s="123"/>
       <c r="AN8" s="123"/>
-      <c r="AQ8" s="319" t="s">
+      <c r="AQ8" s="312" t="s">
         <v>17</v>
       </c>
-      <c r="AR8" s="320"/>
-      <c r="AS8" s="320"/>
-      <c r="AT8" s="321"/>
+      <c r="AR8" s="313"/>
+      <c r="AS8" s="313"/>
+      <c r="AT8" s="314"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="251"/>
@@ -25810,9 +25810,9 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
       <c r="L10" s="90"/>
-      <c r="M10" s="326"/>
-      <c r="N10" s="326"/>
-      <c r="O10" s="326"/>
+      <c r="M10" s="330"/>
+      <c r="N10" s="330"/>
+      <c r="O10" s="330"/>
       <c r="P10" s="87"/>
       <c r="Q10" s="88"/>
       <c r="R10" s="88"/>
@@ -25837,12 +25837,12 @@
       <c r="AL10" s="123"/>
       <c r="AM10" s="123"/>
       <c r="AN10" s="123"/>
-      <c r="AQ10" s="319" t="s">
+      <c r="AQ10" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="AR10" s="320"/>
-      <c r="AS10" s="320"/>
-      <c r="AT10" s="321"/>
+      <c r="AR10" s="313"/>
+      <c r="AS10" s="313"/>
+      <c r="AT10" s="314"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="251"/>
@@ -25878,12 +25878,12 @@
       <c r="AL11" s="123"/>
       <c r="AM11" s="123"/>
       <c r="AN11" s="123"/>
-      <c r="AQ11" s="319" t="s">
+      <c r="AQ11" s="312" t="s">
         <v>545</v>
       </c>
-      <c r="AR11" s="320"/>
-      <c r="AS11" s="320"/>
-      <c r="AT11" s="321"/>
+      <c r="AR11" s="313"/>
+      <c r="AS11" s="313"/>
+      <c r="AT11" s="314"/>
       <c r="AU11" s="23" t="s">
         <v>217</v>
       </c>
@@ -25909,11 +25909,11 @@
       <c r="J12" s="73"/>
       <c r="K12" s="73"/>
       <c r="L12" s="73"/>
-      <c r="M12" s="330" t="s">
+      <c r="M12" s="331" t="s">
         <v>471</v>
       </c>
-      <c r="N12" s="330"/>
-      <c r="O12" s="330"/>
+      <c r="N12" s="331"/>
+      <c r="O12" s="331"/>
       <c r="P12" s="87"/>
       <c r="Q12" s="88"/>
       <c r="R12" s="88"/>
@@ -25927,12 +25927,12 @@
       <c r="AL12" s="123"/>
       <c r="AM12" s="123"/>
       <c r="AN12" s="123"/>
-      <c r="AQ12" s="319" t="s">
+      <c r="AQ12" s="312" t="s">
         <v>470</v>
       </c>
-      <c r="AR12" s="320"/>
-      <c r="AS12" s="320"/>
-      <c r="AT12" s="321"/>
+      <c r="AR12" s="313"/>
+      <c r="AS12" s="313"/>
+      <c r="AT12" s="314"/>
       <c r="AV12" s="18" t="s">
         <v>541</v>
       </c>
@@ -25948,12 +25948,12 @@
         <v>467</v>
       </c>
       <c r="C13" s="100"/>
-      <c r="D13" s="311" t="s">
+      <c r="D13" s="315" t="s">
         <v>474</v>
       </c>
-      <c r="E13" s="312"/>
-      <c r="F13" s="312"/>
-      <c r="G13" s="313"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="317"/>
       <c r="H13" s="136" t="s">
         <v>559</v>
       </c>
@@ -25976,11 +25976,11 @@
       <c r="O13" s="149" t="s">
         <v>563</v>
       </c>
-      <c r="P13" s="311" t="s">
+      <c r="P13" s="315" t="s">
         <v>1014</v>
       </c>
-      <c r="Q13" s="312"/>
-      <c r="R13" s="312"/>
+      <c r="Q13" s="316"/>
+      <c r="R13" s="316"/>
       <c r="S13" s="125"/>
       <c r="T13" s="139" t="s">
         <v>584</v>
@@ -26016,18 +26016,18 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="122"/>
-      <c r="AK13" s="319" t="s">
+      <c r="AK13" s="312" t="s">
         <v>474</v>
       </c>
-      <c r="AL13" s="320"/>
-      <c r="AM13" s="320"/>
-      <c r="AN13" s="320"/>
-      <c r="AQ13" s="319" t="s">
+      <c r="AL13" s="313"/>
+      <c r="AM13" s="313"/>
+      <c r="AN13" s="313"/>
+      <c r="AQ13" s="312" t="s">
         <v>538</v>
       </c>
-      <c r="AR13" s="307"/>
-      <c r="AS13" s="307"/>
-      <c r="AT13" s="307"/>
+      <c r="AR13" s="308"/>
+      <c r="AS13" s="308"/>
+      <c r="AT13" s="308"/>
       <c r="AV13" s="18" t="s">
         <v>542</v>
       </c>
@@ -26702,7 +26702,7 @@
       <c r="T30" s="264"/>
       <c r="U30" s="199"/>
       <c r="V30" s="82"/>
-      <c r="W30" s="341" t="s">
+      <c r="W30" s="307" t="s">
         <v>69</v>
       </c>
       <c r="X30" s="25"/>
@@ -27170,8 +27170,8 @@
         <v>85</v>
       </c>
       <c r="AO40" s="128"/>
-      <c r="AR40" s="326"/>
-      <c r="AS40" s="326"/>
+      <c r="AR40" s="330"/>
+      <c r="AS40" s="330"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="120" t="s">
@@ -27403,8 +27403,8 @@
         <v>561</v>
       </c>
       <c r="AP46" s="130"/>
-      <c r="AR46" s="326"/>
-      <c r="AS46" s="326"/>
+      <c r="AR46" s="330"/>
+      <c r="AS46" s="330"/>
     </row>
     <row r="47" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="120" t="s">
@@ -27454,12 +27454,12 @@
         <v>469</v>
       </c>
       <c r="C48" s="147"/>
-      <c r="D48" s="311" t="s">
+      <c r="D48" s="315" t="s">
         <v>474</v>
       </c>
-      <c r="E48" s="312"/>
-      <c r="F48" s="312"/>
-      <c r="G48" s="313"/>
+      <c r="E48" s="316"/>
+      <c r="F48" s="316"/>
+      <c r="G48" s="317"/>
       <c r="H48" s="136" t="s">
         <v>559</v>
       </c>
@@ -27482,11 +27482,11 @@
       <c r="O48" s="149" t="s">
         <v>563</v>
       </c>
-      <c r="P48" s="311" t="s">
+      <c r="P48" s="315" t="s">
         <v>475</v>
       </c>
-      <c r="Q48" s="312"/>
-      <c r="R48" s="312"/>
+      <c r="Q48" s="316"/>
+      <c r="R48" s="316"/>
       <c r="S48" s="157"/>
       <c r="T48" s="139" t="s">
         <v>584</v>
@@ -28826,6 +28826,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="AQ11:AT11"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="D6:G6"/>
@@ -28842,13 +28849,6 @@
     <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="AQ10:AT10"/>
     <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="AR46:AS46"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AR40:AS40"/>
-    <mergeCell ref="AQ11:AT11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28906,17 +28906,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="314" t="s">
+      <c r="B1" s="319" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
       <c r="E1" s="37"/>
-      <c r="F1" s="314" t="s">
+      <c r="F1" s="319" t="s">
         <v>855</v>
       </c>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -28959,61 +28959,61 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="308" t="s">
+      <c r="B4" s="309" t="s">
         <v>854</v>
       </c>
-      <c r="C4" s="317"/>
-      <c r="D4" s="317"/>
-      <c r="E4" s="318"/>
-      <c r="F4" s="308" t="s">
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="309" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="317"/>
-      <c r="H4" s="317"/>
-      <c r="I4" s="318"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="311"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="319" t="s">
+      <c r="B5" s="312" t="s">
         <v>769</v>
       </c>
-      <c r="C5" s="320"/>
-      <c r="D5" s="320"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="319" t="s">
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="314"/>
+      <c r="F5" s="312" t="s">
         <v>769</v>
       </c>
-      <c r="G5" s="320"/>
-      <c r="H5" s="320"/>
-      <c r="I5" s="321"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="314"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="311" t="s">
+      <c r="B6" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="312"/>
-      <c r="D6" s="312"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="322" t="s">
+      <c r="C6" s="316"/>
+      <c r="D6" s="316"/>
+      <c r="E6" s="317"/>
+      <c r="F6" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="312"/>
-      <c r="H6" s="312"/>
-      <c r="I6" s="312"/>
-      <c r="J6" s="311" t="s">
+      <c r="G6" s="316"/>
+      <c r="H6" s="316"/>
+      <c r="I6" s="316"/>
+      <c r="J6" s="315" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="312"/>
-      <c r="L6" s="312"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="311" t="s">
+      <c r="K6" s="316"/>
+      <c r="L6" s="316"/>
+      <c r="M6" s="317"/>
+      <c r="N6" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="312"/>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="313"/>
+      <c r="O6" s="316"/>
+      <c r="P6" s="316"/>
+      <c r="Q6" s="317"/>
       <c r="V6" s="41"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
@@ -29042,24 +29042,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="173"/>
-      <c r="B7" s="311" t="s">
+      <c r="B7" s="315" t="s">
         <v>547</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="312"/>
-      <c r="E7" s="313"/>
-      <c r="F7" s="311" t="s">
+      <c r="C7" s="316"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="317"/>
+      <c r="F7" s="315" t="s">
         <v>548</v>
       </c>
-      <c r="G7" s="312"/>
-      <c r="H7" s="312"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="311" t="s">
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="317"/>
+      <c r="J7" s="315" t="s">
         <v>691</v>
       </c>
-      <c r="K7" s="312"/>
-      <c r="L7" s="312"/>
-      <c r="M7" s="313"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="317"/>
       <c r="N7" s="170"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
@@ -32751,6 +32751,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:E4"/>
@@ -32759,11 +32764,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32824,31 +32824,31 @@
     <row r="1" spans="1:45" x14ac:dyDescent="0.4">
       <c r="B1" s="225"/>
       <c r="C1" s="225"/>
-      <c r="D1" s="314" t="s">
+      <c r="D1" s="319" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
       <c r="G1" s="37"/>
       <c r="H1" s="101"/>
-      <c r="I1" s="314" t="s">
+      <c r="I1" s="319" t="s">
         <v>855</v>
       </c>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
+      <c r="J1" s="320"/>
+      <c r="K1" s="320"/>
       <c r="L1" s="47"/>
       <c r="M1" s="289"/>
-      <c r="N1" s="314" t="s">
+      <c r="N1" s="319" t="s">
         <v>905</v>
       </c>
-      <c r="O1" s="315"/>
-      <c r="P1" s="315"/>
+      <c r="O1" s="320"/>
+      <c r="P1" s="320"/>
       <c r="Q1" s="37"/>
-      <c r="R1" s="314" t="s">
+      <c r="R1" s="319" t="s">
         <v>908</v>
       </c>
-      <c r="S1" s="315"/>
-      <c r="T1" s="315"/>
+      <c r="S1" s="320"/>
+      <c r="T1" s="320"/>
       <c r="U1" s="47"/>
       <c r="V1" s="286"/>
       <c r="W1" s="245"/>
@@ -32857,11 +32857,11 @@
       <c r="Z1" s="279"/>
       <c r="AA1" s="279"/>
       <c r="AB1" s="279"/>
-      <c r="AC1" s="314" t="s">
+      <c r="AC1" s="319" t="s">
         <v>909</v>
       </c>
-      <c r="AD1" s="315"/>
-      <c r="AE1" s="315"/>
+      <c r="AD1" s="320"/>
+      <c r="AE1" s="320"/>
       <c r="AF1" s="47"/>
       <c r="AG1" s="278"/>
       <c r="AH1" s="42"/>
@@ -32965,72 +32965,72 @@
       </c>
     </row>
     <row r="4" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="308" t="s">
+      <c r="D4" s="309" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="317"/>
-      <c r="F4" s="317"/>
-      <c r="G4" s="318"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="311"/>
       <c r="H4" s="73"/>
-      <c r="I4" s="308" t="s">
+      <c r="I4" s="309" t="s">
         <v>236</v>
       </c>
-      <c r="J4" s="317"/>
-      <c r="K4" s="317"/>
-      <c r="L4" s="318"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="311"/>
       <c r="M4" s="212"/>
-      <c r="N4" s="308" t="s">
+      <c r="N4" s="309" t="s">
         <v>773</v>
       </c>
-      <c r="O4" s="317"/>
-      <c r="P4" s="317"/>
-      <c r="Q4" s="318"/>
-      <c r="R4" s="308" t="s">
+      <c r="O4" s="310"/>
+      <c r="P4" s="310"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="309" t="s">
         <v>773</v>
       </c>
-      <c r="S4" s="317"/>
-      <c r="T4" s="317"/>
-      <c r="U4" s="318"/>
-      <c r="AC4" s="308" t="s">
+      <c r="S4" s="310"/>
+      <c r="T4" s="310"/>
+      <c r="U4" s="311"/>
+      <c r="AC4" s="309" t="s">
         <v>773</v>
       </c>
-      <c r="AD4" s="317"/>
-      <c r="AE4" s="317"/>
-      <c r="AF4" s="318"/>
+      <c r="AD4" s="310"/>
+      <c r="AE4" s="310"/>
+      <c r="AF4" s="311"/>
     </row>
     <row r="5" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="319" t="s">
+      <c r="D5" s="312" t="s">
         <v>769</v>
       </c>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="321"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="314"/>
       <c r="H5" s="280"/>
-      <c r="I5" s="319" t="s">
+      <c r="I5" s="312" t="s">
         <v>769</v>
       </c>
-      <c r="J5" s="320"/>
-      <c r="K5" s="320"/>
-      <c r="L5" s="321"/>
+      <c r="J5" s="313"/>
+      <c r="K5" s="313"/>
+      <c r="L5" s="314"/>
       <c r="M5" s="74"/>
-      <c r="N5" s="319" t="s">
+      <c r="N5" s="312" t="s">
         <v>769</v>
       </c>
-      <c r="O5" s="320"/>
-      <c r="P5" s="320"/>
-      <c r="Q5" s="321"/>
-      <c r="R5" s="319" t="s">
+      <c r="O5" s="313"/>
+      <c r="P5" s="313"/>
+      <c r="Q5" s="314"/>
+      <c r="R5" s="312" t="s">
         <v>812</v>
       </c>
-      <c r="S5" s="320"/>
-      <c r="T5" s="320"/>
-      <c r="U5" s="321"/>
-      <c r="AC5" s="319" t="s">
+      <c r="S5" s="313"/>
+      <c r="T5" s="313"/>
+      <c r="U5" s="314"/>
+      <c r="AC5" s="312" t="s">
         <v>812</v>
       </c>
-      <c r="AD5" s="320"/>
-      <c r="AE5" s="320"/>
-      <c r="AF5" s="321"/>
+      <c r="AD5" s="313"/>
+      <c r="AE5" s="313"/>
+      <c r="AF5" s="314"/>
     </row>
     <row r="6" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="173" t="s">
@@ -33038,24 +33038,24 @@
       </c>
       <c r="B6" s="225"/>
       <c r="C6" s="225"/>
-      <c r="D6" s="311" t="s">
+      <c r="D6" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="312"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="313"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="316"/>
+      <c r="G6" s="317"/>
       <c r="H6" s="279"/>
       <c r="I6" s="41"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="292"/>
-      <c r="N6" s="322" t="s">
+      <c r="N6" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="O6" s="312"/>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="312"/>
+      <c r="O6" s="316"/>
+      <c r="P6" s="316"/>
+      <c r="Q6" s="316"/>
       <c r="R6" s="41"/>
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
@@ -33067,23 +33067,23 @@
       <c r="Z6" s="279"/>
       <c r="AA6" s="279"/>
       <c r="AB6" s="279"/>
-      <c r="AC6" s="311" t="s">
+      <c r="AC6" s="315" t="s">
         <v>949</v>
       </c>
-      <c r="AD6" s="312"/>
-      <c r="AE6" s="312"/>
-      <c r="AF6" s="313"/>
+      <c r="AD6" s="316"/>
+      <c r="AE6" s="316"/>
+      <c r="AF6" s="317"/>
       <c r="AG6" s="278"/>
       <c r="AH6" s="42"/>
       <c r="AI6" s="42"/>
       <c r="AJ6" s="42"/>
       <c r="AK6" s="43"/>
-      <c r="AL6" s="311" t="s">
+      <c r="AL6" s="315" t="s">
         <v>181</v>
       </c>
-      <c r="AM6" s="312"/>
-      <c r="AN6" s="312"/>
-      <c r="AO6" s="313"/>
+      <c r="AM6" s="316"/>
+      <c r="AN6" s="316"/>
+      <c r="AO6" s="317"/>
       <c r="AP6" s="177"/>
       <c r="AQ6" s="178"/>
       <c r="AR6" s="178"/>
@@ -33095,45 +33095,45 @@
         <v>830</v>
       </c>
       <c r="C7" s="226"/>
-      <c r="D7" s="311" t="s">
+      <c r="D7" s="315" t="s">
         <v>547</v>
       </c>
-      <c r="E7" s="312"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="313"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="316"/>
+      <c r="G7" s="317"/>
       <c r="H7" s="116"/>
-      <c r="I7" s="311" t="s">
+      <c r="I7" s="315" t="s">
         <v>735</v>
       </c>
-      <c r="J7" s="312"/>
-      <c r="K7" s="312"/>
-      <c r="L7" s="313"/>
+      <c r="J7" s="316"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="317"/>
       <c r="M7" s="293"/>
-      <c r="N7" s="311" t="s">
+      <c r="N7" s="315" t="s">
         <v>548</v>
       </c>
-      <c r="O7" s="312"/>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="313"/>
-      <c r="R7" s="311"/>
-      <c r="S7" s="312"/>
-      <c r="T7" s="312"/>
-      <c r="U7" s="313"/>
-      <c r="V7" s="333" t="s">
+      <c r="O7" s="316"/>
+      <c r="P7" s="316"/>
+      <c r="Q7" s="317"/>
+      <c r="R7" s="315"/>
+      <c r="S7" s="316"/>
+      <c r="T7" s="316"/>
+      <c r="U7" s="317"/>
+      <c r="V7" s="334" t="s">
         <v>950</v>
       </c>
-      <c r="W7" s="334"/>
-      <c r="X7" s="334"/>
-      <c r="Y7" s="335"/>
+      <c r="W7" s="335"/>
+      <c r="X7" s="335"/>
+      <c r="Y7" s="336"/>
       <c r="Z7" s="116"/>
       <c r="AA7" s="116"/>
       <c r="AB7" s="116"/>
-      <c r="AC7" s="311" t="s">
+      <c r="AC7" s="315" t="s">
         <v>907</v>
       </c>
-      <c r="AD7" s="312"/>
-      <c r="AE7" s="312"/>
-      <c r="AF7" s="313"/>
+      <c r="AD7" s="316"/>
+      <c r="AE7" s="316"/>
+      <c r="AF7" s="317"/>
       <c r="AG7" s="39"/>
       <c r="AH7" s="25"/>
       <c r="AI7" s="25"/>
@@ -33143,12 +33143,12 @@
       <c r="AM7" s="180"/>
       <c r="AN7" s="180"/>
       <c r="AO7" s="181"/>
-      <c r="AP7" s="311" t="s">
+      <c r="AP7" s="315" t="s">
         <v>736</v>
       </c>
-      <c r="AQ7" s="312"/>
-      <c r="AR7" s="312"/>
-      <c r="AS7" s="313"/>
+      <c r="AQ7" s="316"/>
+      <c r="AR7" s="316"/>
+      <c r="AS7" s="317"/>
     </row>
     <row r="8" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="173">
@@ -33294,12 +33294,12 @@
       <c r="F9" s="252"/>
       <c r="G9" s="253"/>
       <c r="H9" s="280"/>
-      <c r="I9" s="331" t="s">
+      <c r="I9" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="J9" s="332"/>
-      <c r="K9" s="332"/>
-      <c r="L9" s="332"/>
+      <c r="J9" s="333"/>
+      <c r="K9" s="333"/>
+      <c r="L9" s="333"/>
       <c r="M9" s="294" t="s">
         <v>876</v>
       </c>
@@ -33307,12 +33307,12 @@
       <c r="O9" s="252"/>
       <c r="P9" s="252"/>
       <c r="Q9" s="252"/>
-      <c r="R9" s="331" t="s">
+      <c r="R9" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="S9" s="332"/>
-      <c r="T9" s="332"/>
-      <c r="U9" s="332"/>
+      <c r="S9" s="333"/>
+      <c r="T9" s="333"/>
+      <c r="U9" s="333"/>
       <c r="AC9" s="251"/>
       <c r="AD9" s="252"/>
       <c r="AE9" s="252"/>
@@ -33519,12 +33519,12 @@
         <v>504</v>
       </c>
       <c r="H15" s="64"/>
-      <c r="I15" s="331" t="s">
+      <c r="I15" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="J15" s="332"/>
-      <c r="K15" s="332"/>
-      <c r="L15" s="332"/>
+      <c r="J15" s="333"/>
+      <c r="K15" s="333"/>
+      <c r="L15" s="333"/>
       <c r="M15" s="74"/>
       <c r="N15" s="57" t="s">
         <v>151</v>
@@ -33534,12 +33534,12 @@
       </c>
       <c r="P15" s="23"/>
       <c r="Q15" s="18"/>
-      <c r="R15" s="331" t="s">
+      <c r="R15" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="S15" s="332"/>
-      <c r="T15" s="332"/>
-      <c r="U15" s="332"/>
+      <c r="S15" s="333"/>
+      <c r="T15" s="333"/>
+      <c r="U15" s="333"/>
       <c r="AC15" s="145"/>
       <c r="AD15" s="64"/>
       <c r="AE15" s="9"/>
@@ -33854,12 +33854,12 @@
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="64"/>
-      <c r="I23" s="331" t="s">
+      <c r="I23" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="J23" s="332"/>
-      <c r="K23" s="332"/>
-      <c r="L23" s="332"/>
+      <c r="J23" s="333"/>
+      <c r="K23" s="333"/>
+      <c r="L23" s="333"/>
       <c r="M23" s="133"/>
       <c r="O23" s="61" t="s">
         <v>197</v>
@@ -33870,12 +33870,12 @@
       <c r="Q23" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="R23" s="331" t="s">
+      <c r="R23" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="S23" s="332"/>
-      <c r="T23" s="332"/>
-      <c r="U23" s="332"/>
+      <c r="S23" s="333"/>
+      <c r="T23" s="333"/>
+      <c r="U23" s="333"/>
       <c r="X23" s="29"/>
       <c r="Y23" s="29" t="s">
         <v>423</v>
@@ -34179,12 +34179,12 @@
       <c r="F31" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="I31" s="331" t="s">
+      <c r="I31" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="J31" s="332"/>
-      <c r="K31" s="332"/>
-      <c r="L31" s="332"/>
+      <c r="J31" s="333"/>
+      <c r="K31" s="333"/>
+      <c r="L31" s="333"/>
       <c r="M31" s="133"/>
       <c r="O31" s="61" t="s">
         <v>211</v>
@@ -34195,12 +34195,12 @@
       <c r="Q31" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="R31" s="331" t="s">
+      <c r="R31" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="S31" s="332"/>
-      <c r="T31" s="332"/>
-      <c r="U31" s="332"/>
+      <c r="S31" s="333"/>
+      <c r="T31" s="333"/>
+      <c r="U31" s="333"/>
       <c r="X31" s="29"/>
       <c r="Y31" s="29" t="s">
         <v>661</v>
@@ -34489,12 +34489,12 @@
       <c r="F39" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="I39" s="331" t="s">
+      <c r="I39" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="J39" s="332"/>
-      <c r="K39" s="332"/>
-      <c r="L39" s="332"/>
+      <c r="J39" s="333"/>
+      <c r="K39" s="333"/>
+      <c r="L39" s="333"/>
       <c r="M39" s="133"/>
       <c r="N39" s="9"/>
       <c r="O39" s="61" t="s">
@@ -34502,12 +34502,12 @@
       </c>
       <c r="P39" s="64"/>
       <c r="Q39" s="64"/>
-      <c r="R39" s="331" t="s">
+      <c r="R39" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="S39" s="332"/>
-      <c r="T39" s="332"/>
-      <c r="U39" s="332"/>
+      <c r="S39" s="333"/>
+      <c r="T39" s="333"/>
+      <c r="U39" s="333"/>
       <c r="X39" s="29"/>
       <c r="Y39" s="29" t="s">
         <v>665</v>
@@ -34753,12 +34753,12 @@
       </c>
       <c r="G47" s="65"/>
       <c r="H47" s="64"/>
-      <c r="I47" s="331" t="s">
+      <c r="I47" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="J47" s="332"/>
-      <c r="K47" s="332"/>
-      <c r="L47" s="332"/>
+      <c r="J47" s="333"/>
+      <c r="K47" s="333"/>
+      <c r="L47" s="333"/>
       <c r="M47" s="296"/>
       <c r="N47" s="64"/>
       <c r="O47" s="56" t="s">
@@ -34954,12 +34954,12 @@
       <c r="B59" s="133">
         <v>1</v>
       </c>
-      <c r="I59" s="331" t="s">
+      <c r="I59" s="332" t="s">
         <v>904</v>
       </c>
-      <c r="J59" s="332"/>
-      <c r="K59" s="332"/>
-      <c r="L59" s="332"/>
+      <c r="J59" s="333"/>
+      <c r="K59" s="333"/>
+      <c r="L59" s="333"/>
       <c r="M59" s="296"/>
       <c r="AE59" s="59" t="s">
         <v>805</v>
@@ -35355,6 +35355,31 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="AP7:AS7"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="AC7:AF7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V7:Y7"/>
     <mergeCell ref="I59:L59"/>
     <mergeCell ref="I47:L47"/>
     <mergeCell ref="R1:T1"/>
@@ -35368,31 +35393,6 @@
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="I39:L39"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V7:Y7"/>
-    <mergeCell ref="AP7:AS7"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="AC7:AF7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="AC6:AF6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35428,30 +35428,30 @@
   <sheetData>
     <row r="1" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="18"/>
-      <c r="C1" s="311" t="s">
+      <c r="C1" s="315" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="322" t="s">
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="311" t="s">
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="315" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="311" t="s">
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="315" t="s">
         <v>867</v>
       </c>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="313"/>
+      <c r="P1" s="316"/>
+      <c r="Q1" s="316"/>
+      <c r="R1" s="317"/>
     </row>
     <row r="2" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18"/>
@@ -35520,14 +35520,14 @@
       <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="314"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="314"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="316"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="323"/>
       <c r="K3" s="35"/>
       <c r="O3" s="35"/>
       <c r="P3" s="33"/>
@@ -36210,12 +36210,12 @@
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="319" t="s">
+      <c r="K26" s="312" t="s">
         <v>850</v>
       </c>
-      <c r="L26" s="320"/>
-      <c r="M26" s="320"/>
-      <c r="N26" s="321"/>
+      <c r="L26" s="313"/>
+      <c r="M26" s="313"/>
+      <c r="N26" s="314"/>
       <c r="O26" s="59" t="s">
         <v>387</v>
       </c>

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC951F33-6A7A-4DA5-9E3F-C7EF99A7F8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CD4C93-AE11-4B80-9453-C2132BC1C276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="3" activeTab="7" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="3" activeTab="8" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4669" uniqueCount="1098">
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3809,6 +3809,102 @@
   <si>
     <t>0(en)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_cov_l(0,1)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(0,2)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(1,1)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(1,2)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(2,1)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(2,2)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(3,1)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(3,2)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(4,1)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(4,2)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(5,1)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(5,2)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(6,1)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(6,2)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(7,1)</t>
+  </si>
+  <si>
+    <t>TB_cov_l(7,2)</t>
+  </si>
+  <si>
+    <t>cov_ml(8,1)</t>
+  </si>
+  <si>
+    <t>cov_ml(8,2)</t>
+  </si>
+  <si>
+    <t>cov_ml(9,1)</t>
+  </si>
+  <si>
+    <t>cov_ml(9,2)</t>
+  </si>
+  <si>
+    <t>cov_ml(10,1)</t>
+  </si>
+  <si>
+    <t>cov_ml(10,2)</t>
+  </si>
+  <si>
+    <t>cov_ml(11,1)</t>
+  </si>
+  <si>
+    <t>cov_ml(11,2)</t>
+  </si>
+  <si>
+    <t>cov_ml(13,1)</t>
+  </si>
+  <si>
+    <t>cov_ml(13,2)</t>
+  </si>
+  <si>
+    <t>cov_ml(12,1)</t>
+  </si>
+  <si>
+    <t>cov_ml(12,2)</t>
+  </si>
+  <si>
+    <t>cov_ml(14,1)</t>
+  </si>
+  <si>
+    <t>cov_ml(14,2)</t>
+  </si>
+  <si>
+    <t>cov_ml(15,1)</t>
+  </si>
+  <si>
+    <t>cov_ml(15,2)</t>
   </si>
 </sst>
 </file>
@@ -5209,11 +5305,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5230,31 +5383,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5266,6 +5395,9 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5274,9 +5406,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5309,39 +5438,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5668,11 +5764,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="325" t="s">
+      <c r="W1" s="336" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="325"/>
-      <c r="Y1" s="325"/>
+      <c r="X1" s="336"/>
+      <c r="Y1" s="336"/>
       <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5687,11 +5783,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="325" t="s">
+      <c r="W3" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="325"/>
-      <c r="Y3" s="325"/>
+      <c r="X3" s="336"/>
+      <c r="Y3" s="336"/>
       <c r="Z3" s="21" t="s">
         <v>52</v>
       </c>
@@ -6446,7 +6542,7 @@
   <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6472,30 +6568,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="51"/>
       <c r="B1"/>
-      <c r="C1" s="332" t="s">
+      <c r="C1" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="332" t="s">
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="340" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="332" t="s">
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="340" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="333"/>
-      <c r="M1" s="333"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="332" t="s">
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="340" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="333"/>
-      <c r="R1" s="334"/>
+      <c r="P1" s="341"/>
+      <c r="Q1" s="341"/>
+      <c r="R1" s="342"/>
     </row>
     <row r="2" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="51"/>
@@ -6584,12 +6680,12 @@
       <c r="P3" s="238"/>
       <c r="Q3" s="238"/>
       <c r="R3" s="242"/>
-      <c r="S3" s="337" t="s">
+      <c r="S3" s="344" t="s">
         <v>844</v>
       </c>
-      <c r="T3" s="337"/>
-      <c r="U3" s="337"/>
-      <c r="V3" s="340"/>
+      <c r="T3" s="344"/>
+      <c r="U3" s="344"/>
+      <c r="V3" s="345"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="51" t="s">
@@ -6650,12 +6746,12 @@
       <c r="P5" s="238"/>
       <c r="Q5" s="238"/>
       <c r="R5" s="242"/>
-      <c r="S5" s="330" t="s">
+      <c r="S5" s="349" t="s">
         <v>773</v>
       </c>
-      <c r="T5" s="330"/>
-      <c r="U5" s="330"/>
-      <c r="V5" s="331"/>
+      <c r="T5" s="349"/>
+      <c r="U5" s="349"/>
+      <c r="V5" s="350"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="51" t="s">
@@ -6681,12 +6777,12 @@
       <c r="P6" s="238"/>
       <c r="Q6" s="238"/>
       <c r="R6" s="242"/>
-      <c r="S6" s="330" t="s">
+      <c r="S6" s="349" t="s">
         <v>845</v>
       </c>
-      <c r="T6" s="330"/>
-      <c r="U6" s="330"/>
-      <c r="V6" s="331"/>
+      <c r="T6" s="349"/>
+      <c r="U6" s="349"/>
+      <c r="V6" s="350"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="51" t="s">
@@ -6739,10 +6835,10 @@
       <c r="P8" s="238"/>
       <c r="Q8" s="238"/>
       <c r="R8" s="242"/>
-      <c r="S8" s="356"/>
-      <c r="T8" s="357"/>
-      <c r="U8" s="357"/>
-      <c r="V8" s="357"/>
+      <c r="S8" s="367"/>
+      <c r="T8" s="368"/>
+      <c r="U8" s="368"/>
+      <c r="V8" s="368"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="51" t="s">
@@ -6918,12 +7014,12 @@
       <c r="N15" s="234" t="s">
         <v>239</v>
       </c>
-      <c r="O15" s="354" t="s">
+      <c r="O15" s="365" t="s">
         <v>846</v>
       </c>
-      <c r="P15" s="347"/>
-      <c r="Q15" s="347"/>
-      <c r="R15" s="355"/>
+      <c r="P15" s="355"/>
+      <c r="Q15" s="355"/>
+      <c r="R15" s="366"/>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="51" t="s">
@@ -8944,30 +9040,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="244"/>
       <c r="B1" s="231"/>
-      <c r="C1" s="332" t="s">
+      <c r="C1" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="332" t="s">
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="340" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="332" t="s">
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="340" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="333"/>
-      <c r="M1" s="333"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="332" t="s">
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="340" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="333"/>
-      <c r="R1" s="334"/>
+      <c r="P1" s="341"/>
+      <c r="Q1" s="341"/>
+      <c r="R1" s="342"/>
       <c r="S1" s="194"/>
       <c r="T1" s="194"/>
       <c r="U1" s="194"/>
@@ -9066,12 +9162,12 @@
       <c r="P3" s="189"/>
       <c r="Q3" s="189"/>
       <c r="R3" s="190"/>
-      <c r="S3" s="336" t="s">
+      <c r="S3" s="343" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="337"/>
-      <c r="U3" s="337"/>
-      <c r="V3" s="340"/>
+      <c r="T3" s="344"/>
+      <c r="U3" s="344"/>
+      <c r="V3" s="345"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="244" t="s">
@@ -9140,12 +9236,12 @@
       <c r="P5" s="189"/>
       <c r="Q5" s="189"/>
       <c r="R5" s="190"/>
-      <c r="S5" s="329" t="s">
+      <c r="S5" s="348" t="s">
         <v>236</v>
       </c>
-      <c r="T5" s="330"/>
-      <c r="U5" s="330"/>
-      <c r="V5" s="331"/>
+      <c r="T5" s="349"/>
+      <c r="U5" s="349"/>
+      <c r="V5" s="350"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="244" t="s">
@@ -9176,12 +9272,12 @@
       <c r="P6" s="189"/>
       <c r="Q6" s="189"/>
       <c r="R6" s="190"/>
-      <c r="S6" s="329" t="s">
+      <c r="S6" s="348" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="330"/>
-      <c r="U6" s="330"/>
-      <c r="V6" s="331"/>
+      <c r="T6" s="349"/>
+      <c r="U6" s="349"/>
+      <c r="V6" s="350"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="244" t="s">
@@ -9249,12 +9345,12 @@
         <v>238</v>
       </c>
       <c r="R8" s="190"/>
-      <c r="S8" s="358" t="s">
+      <c r="S8" s="369" t="s">
         <v>849</v>
       </c>
-      <c r="T8" s="357"/>
-      <c r="U8" s="357"/>
-      <c r="V8" s="357"/>
+      <c r="T8" s="368"/>
+      <c r="U8" s="368"/>
+      <c r="V8" s="368"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="244" t="s">
@@ -11789,30 +11885,30 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="51"/>
-      <c r="C1" s="332" t="s">
+      <c r="C1" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="332" t="s">
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="340" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="332" t="s">
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="342"/>
+      <c r="K1" s="340" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="333"/>
-      <c r="M1" s="333"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="332" t="s">
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="340" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="333"/>
-      <c r="R1" s="334"/>
+      <c r="P1" s="341"/>
+      <c r="Q1" s="341"/>
+      <c r="R1" s="342"/>
       <c r="S1" s="40"/>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
@@ -11910,12 +12006,12 @@
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="36"/>
-      <c r="S3" s="336" t="s">
+      <c r="S3" s="343" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="337"/>
-      <c r="U3" s="337"/>
-      <c r="V3" s="340"/>
+      <c r="T3" s="344"/>
+      <c r="U3" s="344"/>
+      <c r="V3" s="345"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="51" t="s">
@@ -11980,12 +12076,12 @@
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
       <c r="R5" s="36"/>
-      <c r="S5" s="329" t="s">
+      <c r="S5" s="348" t="s">
         <v>236</v>
       </c>
-      <c r="T5" s="330"/>
-      <c r="U5" s="330"/>
-      <c r="V5" s="331"/>
+      <c r="T5" s="349"/>
+      <c r="U5" s="349"/>
+      <c r="V5" s="350"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="51" t="s">
@@ -12015,12 +12111,12 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
       <c r="R6" s="36"/>
-      <c r="S6" s="329" t="s">
+      <c r="S6" s="348" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="330"/>
-      <c r="U6" s="330"/>
-      <c r="V6" s="331"/>
+      <c r="T6" s="349"/>
+      <c r="U6" s="349"/>
+      <c r="V6" s="350"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="51" t="s">
@@ -12087,12 +12183,12 @@
         <v>238</v>
       </c>
       <c r="R8" s="36"/>
-      <c r="S8" s="358" t="s">
+      <c r="S8" s="369" t="s">
         <v>331</v>
       </c>
-      <c r="T8" s="357"/>
-      <c r="U8" s="357"/>
-      <c r="V8" s="357"/>
+      <c r="T8" s="368"/>
+      <c r="U8" s="368"/>
+      <c r="V8" s="368"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" s="51" t="s">
@@ -14576,36 +14672,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="18"/>
-      <c r="C1" s="332" t="s">
+      <c r="C1" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="335" t="s">
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="351" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="333"/>
-      <c r="K1" s="332" t="s">
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="340" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="333"/>
-      <c r="M1" s="333"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="332" t="s">
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="340" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="333"/>
-      <c r="R1" s="334"/>
-      <c r="Z1" s="332" t="s">
+      <c r="P1" s="341"/>
+      <c r="Q1" s="341"/>
+      <c r="R1" s="342"/>
+      <c r="Z1" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="333"/>
-      <c r="AB1" s="333"/>
-      <c r="AC1" s="334"/>
+      <c r="AA1" s="341"/>
+      <c r="AB1" s="341"/>
+      <c r="AC1" s="342"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18"/>
@@ -14674,33 +14770,33 @@
       <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="336" t="s">
+      <c r="C3" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="340"/>
-      <c r="G3" s="336"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="340"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="345"/>
+      <c r="G3" s="343"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="345"/>
       <c r="K3" s="188"/>
       <c r="O3" s="188"/>
       <c r="P3" s="189"/>
       <c r="Q3" s="189"/>
       <c r="R3" s="190"/>
-      <c r="S3" s="336" t="s">
+      <c r="S3" s="343" t="s">
         <v>355</v>
       </c>
-      <c r="T3" s="337"/>
-      <c r="U3" s="337"/>
-      <c r="V3" s="340"/>
-      <c r="Z3" s="336" t="s">
+      <c r="T3" s="344"/>
+      <c r="U3" s="344"/>
+      <c r="V3" s="345"/>
+      <c r="Z3" s="343" t="s">
         <v>219</v>
       </c>
-      <c r="AA3" s="337"/>
-      <c r="AB3" s="337"/>
-      <c r="AC3" s="340"/>
+      <c r="AA3" s="344"/>
+      <c r="AB3" s="344"/>
+      <c r="AC3" s="345"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="34" t="s">
@@ -14757,12 +14853,12 @@
       <c r="P5" s="189"/>
       <c r="Q5" s="189"/>
       <c r="R5" s="190"/>
-      <c r="S5" s="329" t="s">
+      <c r="S5" s="348" t="s">
         <v>455</v>
       </c>
-      <c r="T5" s="330"/>
-      <c r="U5" s="330"/>
-      <c r="V5" s="331"/>
+      <c r="T5" s="349"/>
+      <c r="U5" s="349"/>
+      <c r="V5" s="350"/>
       <c r="W5" s="67" t="s">
         <v>457</v>
       </c>
@@ -14792,12 +14888,12 @@
       <c r="P6" s="189"/>
       <c r="Q6" s="189"/>
       <c r="R6" s="190"/>
-      <c r="S6" s="329" t="s">
+      <c r="S6" s="348" t="s">
         <v>372</v>
       </c>
-      <c r="T6" s="330"/>
-      <c r="U6" s="330"/>
-      <c r="V6" s="331"/>
+      <c r="T6" s="349"/>
+      <c r="U6" s="349"/>
+      <c r="V6" s="350"/>
       <c r="Z6" s="188"/>
       <c r="AA6" s="189"/>
       <c r="AB6" s="189"/>
@@ -16156,17 +16252,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16201,57 +16297,57 @@
       <c r="A1" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="332" t="s">
+      <c r="B1" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="335" t="s">
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="351" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="332" t="s">
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="340" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="333"/>
-      <c r="L1" s="333"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="332" t="s">
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="340" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="333"/>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="334"/>
-      <c r="R1" s="336" t="s">
+      <c r="O1" s="341"/>
+      <c r="P1" s="341"/>
+      <c r="Q1" s="342"/>
+      <c r="R1" s="343" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="337"/>
-      <c r="T1" s="337"/>
+      <c r="S1" s="344"/>
+      <c r="T1" s="344"/>
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="187"/>
-      <c r="B2" s="332" t="s">
+      <c r="B2" s="340" t="s">
         <v>547</v>
       </c>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="332" t="s">
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="340" t="s">
         <v>548</v>
       </c>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333"/>
-      <c r="I2" s="334"/>
-      <c r="J2" s="332" t="s">
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="342"/>
+      <c r="J2" s="340" t="s">
         <v>691</v>
       </c>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
-      <c r="M2" s="334"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="342"/>
       <c r="N2" s="39"/>
       <c r="O2" s="191"/>
       <c r="P2" s="191"/>
@@ -16350,12 +16446,12 @@
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="29"/>
-      <c r="R4" s="326" t="s">
+      <c r="R4" s="337" t="s">
         <v>236</v>
       </c>
-      <c r="S4" s="327"/>
-      <c r="T4" s="327"/>
-      <c r="U4" s="328"/>
+      <c r="S4" s="346"/>
+      <c r="T4" s="346"/>
+      <c r="U4" s="347"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="187" t="s">
@@ -16378,12 +16474,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="329" t="s">
+      <c r="R5" s="348" t="s">
         <v>769</v>
       </c>
-      <c r="S5" s="330"/>
-      <c r="T5" s="330"/>
-      <c r="U5" s="331"/>
+      <c r="S5" s="349"/>
+      <c r="T5" s="349"/>
+      <c r="U5" s="350"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="187" t="s">
@@ -18053,11 +18149,11 @@
       <c r="K93" s="185"/>
       <c r="L93" s="195"/>
       <c r="M93" s="195"/>
-      <c r="R93" s="336" t="s">
+      <c r="R93" s="343" t="s">
         <v>213</v>
       </c>
-      <c r="S93" s="337"/>
-      <c r="T93" s="337"/>
+      <c r="S93" s="344"/>
+      <c r="T93" s="344"/>
       <c r="U93" s="37"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -18146,7 +18242,7 @@
       <c r="K96" s="64"/>
       <c r="L96" s="64"/>
       <c r="M96" s="65"/>
-      <c r="R96" s="326" t="s">
+      <c r="R96" s="337" t="s">
         <v>51</v>
       </c>
       <c r="S96" s="338"/>
@@ -18173,12 +18269,12 @@
       <c r="K97" s="64"/>
       <c r="L97" s="64"/>
       <c r="M97" s="65"/>
-      <c r="R97" s="336" t="s">
+      <c r="R97" s="343" t="s">
         <v>769</v>
       </c>
-      <c r="S97" s="337"/>
-      <c r="T97" s="337"/>
-      <c r="U97" s="340"/>
+      <c r="S97" s="344"/>
+      <c r="T97" s="344"/>
+      <c r="U97" s="345"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="187" t="s">
@@ -18230,11 +18326,11 @@
       <c r="K100" s="64"/>
       <c r="L100" s="64"/>
       <c r="M100" s="65"/>
-      <c r="R100" s="336" t="s">
+      <c r="R100" s="343" t="s">
         <v>770</v>
       </c>
-      <c r="S100" s="337"/>
-      <c r="T100" s="337"/>
+      <c r="S100" s="344"/>
+      <c r="T100" s="344"/>
       <c r="U100" s="37"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -18330,7 +18426,7 @@
       <c r="M103" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="R103" s="326" t="s">
+      <c r="R103" s="337" t="s">
         <v>236</v>
       </c>
       <c r="S103" s="338"/>
@@ -18352,12 +18448,12 @@
       <c r="L104" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="R104" s="336" t="s">
+      <c r="R104" s="343" t="s">
         <v>769</v>
       </c>
-      <c r="S104" s="337"/>
-      <c r="T104" s="337"/>
-      <c r="U104" s="340"/>
+      <c r="S104" s="344"/>
+      <c r="T104" s="344"/>
+      <c r="U104" s="345"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="187" t="s">
@@ -18707,12 +18803,12 @@
       <c r="L124" s="29" t="s">
         <v>674</v>
       </c>
-      <c r="R124" s="336" t="s">
+      <c r="R124" s="343" t="s">
         <v>781</v>
       </c>
-      <c r="S124" s="337"/>
-      <c r="T124" s="337"/>
-      <c r="U124" s="340"/>
+      <c r="S124" s="344"/>
+      <c r="T124" s="344"/>
+      <c r="U124" s="345"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="187" t="s">
@@ -18788,7 +18884,7 @@
       <c r="G127" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="R127" s="326" t="s">
+      <c r="R127" s="337" t="s">
         <v>773</v>
       </c>
       <c r="S127" s="338"/>
@@ -18799,12 +18895,12 @@
       <c r="A128" s="187" t="s">
         <v>782</v>
       </c>
-      <c r="R128" s="332" t="s">
+      <c r="R128" s="340" t="s">
         <v>769</v>
       </c>
-      <c r="S128" s="333"/>
-      <c r="T128" s="333"/>
-      <c r="U128" s="334"/>
+      <c r="S128" s="341"/>
+      <c r="T128" s="341"/>
+      <c r="U128" s="342"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="187" t="s">
@@ -18859,12 +18955,12 @@
       <c r="F135" s="63" t="s">
         <v>750</v>
       </c>
-      <c r="R135" s="336" t="s">
+      <c r="R135" s="343" t="s">
         <v>801</v>
       </c>
-      <c r="S135" s="337"/>
-      <c r="T135" s="337"/>
-      <c r="U135" s="340"/>
+      <c r="S135" s="344"/>
+      <c r="T135" s="344"/>
+      <c r="U135" s="345"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="187" t="s">
@@ -18916,7 +19012,7 @@
       <c r="A138" s="187" t="s">
         <v>758</v>
       </c>
-      <c r="R138" s="326" t="s">
+      <c r="R138" s="337" t="s">
         <v>773</v>
       </c>
       <c r="S138" s="338"/>
@@ -18927,12 +19023,12 @@
       <c r="A139" s="187" t="s">
         <v>759</v>
       </c>
-      <c r="R139" s="332" t="s">
+      <c r="R139" s="340" t="s">
         <v>812</v>
       </c>
-      <c r="S139" s="333"/>
-      <c r="T139" s="333"/>
-      <c r="U139" s="334"/>
+      <c r="S139" s="341"/>
+      <c r="T139" s="341"/>
+      <c r="U139" s="342"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="187" t="s">
@@ -18981,12 +19077,12 @@
       <c r="F145" s="59" t="s">
         <v>743</v>
       </c>
-      <c r="R145" s="336" t="s">
+      <c r="R145" s="343" t="s">
         <v>811</v>
       </c>
-      <c r="S145" s="337"/>
-      <c r="T145" s="337"/>
-      <c r="U145" s="340"/>
+      <c r="S145" s="344"/>
+      <c r="T145" s="344"/>
+      <c r="U145" s="345"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="187" t="s">
@@ -19038,7 +19134,7 @@
       <c r="A148" s="187" t="s">
         <v>783</v>
       </c>
-      <c r="R148" s="326" t="s">
+      <c r="R148" s="337" t="s">
         <v>773</v>
       </c>
       <c r="S148" s="338"/>
@@ -19053,12 +19149,12 @@
       <c r="Q149" s="59" t="s">
         <v>774</v>
       </c>
-      <c r="R149" s="332" t="s">
+      <c r="R149" s="340" t="s">
         <v>812</v>
       </c>
-      <c r="S149" s="333"/>
-      <c r="T149" s="333"/>
-      <c r="U149" s="334"/>
+      <c r="S149" s="341"/>
+      <c r="T149" s="341"/>
+      <c r="U149" s="342"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="187" t="s">
@@ -19167,21 +19263,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="R127:U127"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="B1:E1"/>
@@ -19192,6 +19273,21 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="R127:U127"/>
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19222,30 +19318,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18"/>
-      <c r="B1" s="332" t="s">
+      <c r="B1" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="335" t="s">
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="351" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="332" t="s">
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="340" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="333"/>
-      <c r="L1" s="333"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="332" t="s">
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="340" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="333"/>
-      <c r="P1" s="333"/>
-      <c r="Q1" s="334"/>
+      <c r="O1" s="341"/>
+      <c r="P1" s="341"/>
+      <c r="Q1" s="342"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -19332,12 +19428,12 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="336" t="s">
+      <c r="R3" s="343" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="337"/>
-      <c r="T3" s="337"/>
-      <c r="U3" s="340"/>
+      <c r="S3" s="344"/>
+      <c r="T3" s="344"/>
+      <c r="U3" s="345"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
@@ -19390,12 +19486,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="329" t="s">
+      <c r="R5" s="348" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="330"/>
-      <c r="T5" s="330"/>
-      <c r="U5" s="331"/>
+      <c r="S5" s="349"/>
+      <c r="T5" s="349"/>
+      <c r="U5" s="350"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
@@ -19417,12 +19513,12 @@
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="29"/>
-      <c r="R6" s="329" t="s">
+      <c r="R6" s="348" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="330"/>
-      <c r="T6" s="330"/>
-      <c r="U6" s="331"/>
+      <c r="S6" s="349"/>
+      <c r="T6" s="349"/>
+      <c r="U6" s="350"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
@@ -20661,18 +20757,18 @@
       <c r="AB1" s="247"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B2" s="325" t="s">
+      <c r="B2" s="336" t="s">
         <v>598</v>
       </c>
-      <c r="C2" s="325"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="325"/>
-      <c r="G2" s="325"/>
-      <c r="H2" s="325"/>
-      <c r="I2" s="325"/>
-      <c r="J2" s="325"/>
-      <c r="K2" s="325"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
@@ -21055,15 +21151,15 @@
       <c r="O18" s="18">
         <v>1</v>
       </c>
-      <c r="V18" s="325" t="s">
+      <c r="V18" s="336" t="s">
         <v>954</v>
       </c>
-      <c r="W18" s="325"/>
-      <c r="X18" s="325"/>
-      <c r="Y18" s="325"/>
-      <c r="Z18" s="325"/>
-      <c r="AA18" s="325"/>
-      <c r="AB18" s="325"/>
+      <c r="W18" s="336"/>
+      <c r="X18" s="336"/>
+      <c r="Y18" s="336"/>
+      <c r="Z18" s="336"/>
+      <c r="AA18" s="336"/>
+      <c r="AB18" s="336"/>
       <c r="AC18" s="169"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.4">
@@ -23072,18 +23168,18 @@
       <c r="A89" s="256" t="s">
         <v>913</v>
       </c>
-      <c r="B89" s="336" t="s">
+      <c r="B89" s="343" t="s">
         <v>914</v>
       </c>
-      <c r="C89" s="337"/>
-      <c r="D89" s="337"/>
-      <c r="E89" s="340"/>
-      <c r="G89" s="341" t="s">
+      <c r="C89" s="344"/>
+      <c r="D89" s="344"/>
+      <c r="E89" s="345"/>
+      <c r="G89" s="352" t="s">
         <v>915</v>
       </c>
-      <c r="H89" s="342"/>
-      <c r="I89" s="342"/>
-      <c r="J89" s="343"/>
+      <c r="H89" s="353"/>
+      <c r="I89" s="353"/>
+      <c r="J89" s="354"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B90" s="28" t="s">
@@ -25783,11 +25879,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="336" t="s">
+      <c r="D1" s="343" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
       <c r="G1" s="37"/>
       <c r="H1" s="45"/>
       <c r="I1" s="71"/>
@@ -25829,12 +25925,12 @@
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D3" s="329" t="s">
+      <c r="D3" s="348" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="331"/>
+      <c r="E3" s="349"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="350"/>
       <c r="H3" s="88"/>
       <c r="I3" s="90"/>
       <c r="J3" s="90"/>
@@ -25843,12 +25939,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="332" t="s">
+      <c r="D6" s="340" t="s">
         <v>547</v>
       </c>
-      <c r="E6" s="333"/>
-      <c r="F6" s="333"/>
-      <c r="G6" s="334"/>
+      <c r="E6" s="341"/>
+      <c r="F6" s="341"/>
+      <c r="G6" s="342"/>
       <c r="H6" s="91"/>
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
@@ -25857,27 +25953,27 @@
       <c r="M6" s="73"/>
       <c r="N6" s="73"/>
       <c r="O6" s="73"/>
-      <c r="P6" s="332" t="s">
+      <c r="P6" s="340" t="s">
         <v>548</v>
       </c>
-      <c r="Q6" s="333"/>
-      <c r="R6" s="333"/>
-      <c r="S6" s="334"/>
-      <c r="AF6" s="332" t="s">
+      <c r="Q6" s="341"/>
+      <c r="R6" s="341"/>
+      <c r="S6" s="342"/>
+      <c r="AF6" s="340" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="333"/>
-      <c r="AH6" s="333"/>
-      <c r="AI6" s="334"/>
+      <c r="AG6" s="341"/>
+      <c r="AH6" s="341"/>
+      <c r="AI6" s="342"/>
       <c r="AJ6" s="122"/>
-      <c r="AK6" s="332" t="s">
+      <c r="AK6" s="340" t="s">
         <v>546</v>
       </c>
-      <c r="AL6" s="333"/>
-      <c r="AM6" s="333"/>
-      <c r="AN6" s="333"/>
-      <c r="AO6" s="333"/>
-      <c r="AP6" s="334"/>
+      <c r="AL6" s="341"/>
+      <c r="AM6" s="341"/>
+      <c r="AN6" s="341"/>
+      <c r="AO6" s="341"/>
+      <c r="AP6" s="342"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="39" t="s">
@@ -25955,11 +26051,11 @@
       <c r="J8" s="73"/>
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
-      <c r="M8" s="344" t="s">
+      <c r="M8" s="356" t="s">
         <v>472</v>
       </c>
-      <c r="N8" s="344"/>
-      <c r="O8" s="344"/>
+      <c r="N8" s="356"/>
+      <c r="O8" s="356"/>
       <c r="P8" s="87"/>
       <c r="Q8" s="88"/>
       <c r="R8" s="88"/>
@@ -25980,12 +26076,12 @@
       <c r="AL8" s="123"/>
       <c r="AM8" s="123"/>
       <c r="AN8" s="123"/>
-      <c r="AQ8" s="329" t="s">
+      <c r="AQ8" s="348" t="s">
         <v>17</v>
       </c>
-      <c r="AR8" s="330"/>
-      <c r="AS8" s="330"/>
-      <c r="AT8" s="331"/>
+      <c r="AR8" s="349"/>
+      <c r="AS8" s="349"/>
+      <c r="AT8" s="350"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="251"/>
@@ -25997,11 +26093,11 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="90"/>
-      <c r="M9" s="346" t="s">
+      <c r="M9" s="358" t="s">
         <v>473</v>
       </c>
-      <c r="N9" s="346"/>
-      <c r="O9" s="345"/>
+      <c r="N9" s="358"/>
+      <c r="O9" s="357"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="88"/>
       <c r="R9" s="88"/>
@@ -26043,9 +26139,9 @@
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
       <c r="L10" s="90"/>
-      <c r="M10" s="347"/>
-      <c r="N10" s="347"/>
-      <c r="O10" s="347"/>
+      <c r="M10" s="355"/>
+      <c r="N10" s="355"/>
+      <c r="O10" s="355"/>
       <c r="P10" s="87"/>
       <c r="Q10" s="88"/>
       <c r="R10" s="88"/>
@@ -26070,12 +26166,12 @@
       <c r="AL10" s="123"/>
       <c r="AM10" s="123"/>
       <c r="AN10" s="123"/>
-      <c r="AQ10" s="329" t="s">
+      <c r="AQ10" s="348" t="s">
         <v>51</v>
       </c>
-      <c r="AR10" s="330"/>
-      <c r="AS10" s="330"/>
-      <c r="AT10" s="331"/>
+      <c r="AR10" s="349"/>
+      <c r="AS10" s="349"/>
+      <c r="AT10" s="350"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="251"/>
@@ -26111,12 +26207,12 @@
       <c r="AL11" s="123"/>
       <c r="AM11" s="123"/>
       <c r="AN11" s="123"/>
-      <c r="AQ11" s="329" t="s">
+      <c r="AQ11" s="348" t="s">
         <v>545</v>
       </c>
-      <c r="AR11" s="330"/>
-      <c r="AS11" s="330"/>
-      <c r="AT11" s="331"/>
+      <c r="AR11" s="349"/>
+      <c r="AS11" s="349"/>
+      <c r="AT11" s="350"/>
       <c r="AU11" s="23" t="s">
         <v>217</v>
       </c>
@@ -26142,11 +26238,11 @@
       <c r="J12" s="73"/>
       <c r="K12" s="73"/>
       <c r="L12" s="73"/>
-      <c r="M12" s="348" t="s">
+      <c r="M12" s="359" t="s">
         <v>471</v>
       </c>
-      <c r="N12" s="348"/>
-      <c r="O12" s="348"/>
+      <c r="N12" s="359"/>
+      <c r="O12" s="359"/>
       <c r="P12" s="87"/>
       <c r="Q12" s="88"/>
       <c r="R12" s="88"/>
@@ -26160,12 +26256,12 @@
       <c r="AL12" s="123"/>
       <c r="AM12" s="123"/>
       <c r="AN12" s="123"/>
-      <c r="AQ12" s="329" t="s">
+      <c r="AQ12" s="348" t="s">
         <v>470</v>
       </c>
-      <c r="AR12" s="330"/>
-      <c r="AS12" s="330"/>
-      <c r="AT12" s="331"/>
+      <c r="AR12" s="349"/>
+      <c r="AS12" s="349"/>
+      <c r="AT12" s="350"/>
       <c r="AV12" s="18" t="s">
         <v>541</v>
       </c>
@@ -26181,12 +26277,12 @@
         <v>467</v>
       </c>
       <c r="C13" s="100"/>
-      <c r="D13" s="332" t="s">
+      <c r="D13" s="340" t="s">
         <v>474</v>
       </c>
-      <c r="E13" s="333"/>
-      <c r="F13" s="333"/>
-      <c r="G13" s="334"/>
+      <c r="E13" s="341"/>
+      <c r="F13" s="341"/>
+      <c r="G13" s="342"/>
       <c r="H13" s="136" t="s">
         <v>559</v>
       </c>
@@ -26209,11 +26305,11 @@
       <c r="O13" s="149" t="s">
         <v>563</v>
       </c>
-      <c r="P13" s="332" t="s">
+      <c r="P13" s="340" t="s">
         <v>1010</v>
       </c>
-      <c r="Q13" s="333"/>
-      <c r="R13" s="333"/>
+      <c r="Q13" s="341"/>
+      <c r="R13" s="341"/>
       <c r="S13" s="125"/>
       <c r="T13" s="139" t="s">
         <v>584</v>
@@ -26249,18 +26345,18 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="122"/>
-      <c r="AK13" s="329" t="s">
+      <c r="AK13" s="348" t="s">
         <v>474</v>
       </c>
-      <c r="AL13" s="330"/>
-      <c r="AM13" s="330"/>
-      <c r="AN13" s="330"/>
-      <c r="AQ13" s="329" t="s">
+      <c r="AL13" s="349"/>
+      <c r="AM13" s="349"/>
+      <c r="AN13" s="349"/>
+      <c r="AQ13" s="348" t="s">
         <v>538</v>
       </c>
-      <c r="AR13" s="325"/>
-      <c r="AS13" s="325"/>
-      <c r="AT13" s="325"/>
+      <c r="AR13" s="336"/>
+      <c r="AS13" s="336"/>
+      <c r="AT13" s="336"/>
       <c r="AV13" s="18" t="s">
         <v>542</v>
       </c>
@@ -26954,8 +27050,8 @@
       </c>
       <c r="AO30" s="128"/>
       <c r="AP30" s="130"/>
-      <c r="AR30" s="345"/>
-      <c r="AS30" s="345"/>
+      <c r="AR30" s="357"/>
+      <c r="AS30" s="357"/>
     </row>
     <row r="31" spans="1:52" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="166" t="s">
@@ -27403,8 +27499,8 @@
         <v>85</v>
       </c>
       <c r="AO40" s="128"/>
-      <c r="AR40" s="347"/>
-      <c r="AS40" s="347"/>
+      <c r="AR40" s="355"/>
+      <c r="AS40" s="355"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="120" t="s">
@@ -27636,8 +27732,8 @@
         <v>561</v>
       </c>
       <c r="AP46" s="130"/>
-      <c r="AR46" s="347"/>
-      <c r="AS46" s="347"/>
+      <c r="AR46" s="355"/>
+      <c r="AS46" s="355"/>
     </row>
     <row r="47" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="120" t="s">
@@ -27687,12 +27783,12 @@
         <v>469</v>
       </c>
       <c r="C48" s="147"/>
-      <c r="D48" s="332" t="s">
+      <c r="D48" s="340" t="s">
         <v>474</v>
       </c>
-      <c r="E48" s="333"/>
-      <c r="F48" s="333"/>
-      <c r="G48" s="334"/>
+      <c r="E48" s="341"/>
+      <c r="F48" s="341"/>
+      <c r="G48" s="342"/>
       <c r="H48" s="136" t="s">
         <v>559</v>
       </c>
@@ -27715,11 +27811,11 @@
       <c r="O48" s="149" t="s">
         <v>563</v>
       </c>
-      <c r="P48" s="332" t="s">
+      <c r="P48" s="340" t="s">
         <v>475</v>
       </c>
-      <c r="Q48" s="333"/>
-      <c r="R48" s="333"/>
+      <c r="Q48" s="341"/>
+      <c r="R48" s="341"/>
       <c r="S48" s="157"/>
       <c r="T48" s="139" t="s">
         <v>584</v>
@@ -29059,13 +29155,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="AR46:AS46"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AR40:AS40"/>
-    <mergeCell ref="AQ11:AT11"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="D6:G6"/>
@@ -29082,6 +29171,13 @@
     <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="AQ10:AT10"/>
     <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="AQ11:AT11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29139,17 +29235,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="336" t="s">
+      <c r="B1" s="343" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
       <c r="E1" s="37"/>
-      <c r="F1" s="336" t="s">
+      <c r="F1" s="343" t="s">
         <v>851</v>
       </c>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -29192,61 +29288,61 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="326" t="s">
+      <c r="B4" s="337" t="s">
         <v>850</v>
       </c>
-      <c r="C4" s="327"/>
-      <c r="D4" s="327"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="326" t="s">
+      <c r="C4" s="346"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="337" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="327"/>
-      <c r="H4" s="327"/>
-      <c r="I4" s="328"/>
+      <c r="G4" s="346"/>
+      <c r="H4" s="346"/>
+      <c r="I4" s="347"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="329" t="s">
+      <c r="B5" s="348" t="s">
         <v>769</v>
       </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="329" t="s">
+      <c r="C5" s="349"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="350"/>
+      <c r="F5" s="348" t="s">
         <v>769</v>
       </c>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="331"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="350"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="332" t="s">
+      <c r="B6" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="333"/>
-      <c r="D6" s="333"/>
-      <c r="E6" s="334"/>
-      <c r="F6" s="335" t="s">
+      <c r="C6" s="341"/>
+      <c r="D6" s="341"/>
+      <c r="E6" s="342"/>
+      <c r="F6" s="351" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="333"/>
-      <c r="H6" s="333"/>
-      <c r="I6" s="333"/>
-      <c r="J6" s="332" t="s">
+      <c r="G6" s="341"/>
+      <c r="H6" s="341"/>
+      <c r="I6" s="341"/>
+      <c r="J6" s="340" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="333"/>
-      <c r="L6" s="333"/>
-      <c r="M6" s="334"/>
-      <c r="N6" s="332" t="s">
+      <c r="K6" s="341"/>
+      <c r="L6" s="341"/>
+      <c r="M6" s="342"/>
+      <c r="N6" s="340" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="333"/>
-      <c r="P6" s="333"/>
-      <c r="Q6" s="334"/>
+      <c r="O6" s="341"/>
+      <c r="P6" s="341"/>
+      <c r="Q6" s="342"/>
       <c r="V6" s="41"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
@@ -29275,24 +29371,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="173"/>
-      <c r="B7" s="332" t="s">
+      <c r="B7" s="340" t="s">
         <v>547</v>
       </c>
-      <c r="C7" s="333"/>
-      <c r="D7" s="333"/>
-      <c r="E7" s="334"/>
-      <c r="F7" s="332" t="s">
+      <c r="C7" s="341"/>
+      <c r="D7" s="341"/>
+      <c r="E7" s="342"/>
+      <c r="F7" s="340" t="s">
         <v>548</v>
       </c>
-      <c r="G7" s="333"/>
-      <c r="H7" s="333"/>
-      <c r="I7" s="334"/>
-      <c r="J7" s="332" t="s">
+      <c r="G7" s="341"/>
+      <c r="H7" s="341"/>
+      <c r="I7" s="342"/>
+      <c r="J7" s="340" t="s">
         <v>691</v>
       </c>
-      <c r="K7" s="333"/>
-      <c r="L7" s="333"/>
-      <c r="M7" s="334"/>
+      <c r="K7" s="341"/>
+      <c r="L7" s="341"/>
+      <c r="M7" s="342"/>
       <c r="N7" s="170"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
@@ -32984,11 +33080,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:E4"/>
@@ -32997,6 +33088,11 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33007,7 +33103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EEE4AC-A0CA-4CB6-8EA7-5A80EBEB6836}">
   <dimension ref="A1:BF108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -33058,32 +33154,32 @@
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
       <c r="B1" s="225"/>
       <c r="C1" s="225"/>
-      <c r="D1" s="367"/>
-      <c r="E1" s="336" t="s">
+      <c r="D1" s="333"/>
+      <c r="E1" s="343" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
       <c r="H1" s="37"/>
       <c r="I1" s="101"/>
-      <c r="J1" s="336" t="s">
+      <c r="J1" s="343" t="s">
         <v>851</v>
       </c>
-      <c r="K1" s="337"/>
-      <c r="L1" s="337"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
       <c r="M1" s="47"/>
       <c r="N1" s="289"/>
-      <c r="O1" s="336" t="s">
+      <c r="O1" s="343" t="s">
         <v>901</v>
       </c>
-      <c r="P1" s="337"/>
-      <c r="Q1" s="337"/>
+      <c r="P1" s="344"/>
+      <c r="Q1" s="344"/>
       <c r="R1" s="37"/>
-      <c r="S1" s="336" t="s">
+      <c r="S1" s="343" t="s">
         <v>904</v>
       </c>
-      <c r="T1" s="337"/>
-      <c r="U1" s="337"/>
+      <c r="T1" s="344"/>
+      <c r="U1" s="344"/>
       <c r="V1" s="47"/>
       <c r="W1" s="286"/>
       <c r="X1" s="245"/>
@@ -33092,11 +33188,11 @@
       <c r="AA1" s="279"/>
       <c r="AB1" s="279"/>
       <c r="AC1" s="279"/>
-      <c r="AD1" s="336" t="s">
+      <c r="AD1" s="343" t="s">
         <v>905</v>
       </c>
-      <c r="AE1" s="337"/>
-      <c r="AF1" s="337"/>
+      <c r="AE1" s="344"/>
+      <c r="AF1" s="344"/>
       <c r="AG1" s="47"/>
       <c r="AH1" s="278"/>
       <c r="AI1" s="42"/>
@@ -33200,72 +33296,72 @@
       </c>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E4" s="326" t="s">
+      <c r="E4" s="337" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="327"/>
-      <c r="G4" s="327"/>
-      <c r="H4" s="328"/>
+      <c r="F4" s="346"/>
+      <c r="G4" s="346"/>
+      <c r="H4" s="347"/>
       <c r="I4" s="73"/>
-      <c r="J4" s="326" t="s">
+      <c r="J4" s="337" t="s">
         <v>236</v>
       </c>
-      <c r="K4" s="327"/>
-      <c r="L4" s="327"/>
-      <c r="M4" s="328"/>
+      <c r="K4" s="346"/>
+      <c r="L4" s="346"/>
+      <c r="M4" s="347"/>
       <c r="N4" s="212"/>
-      <c r="O4" s="326" t="s">
+      <c r="O4" s="337" t="s">
         <v>773</v>
       </c>
-      <c r="P4" s="327"/>
-      <c r="Q4" s="327"/>
-      <c r="R4" s="328"/>
-      <c r="S4" s="326" t="s">
+      <c r="P4" s="346"/>
+      <c r="Q4" s="346"/>
+      <c r="R4" s="347"/>
+      <c r="S4" s="337" t="s">
         <v>773</v>
       </c>
-      <c r="T4" s="327"/>
-      <c r="U4" s="327"/>
-      <c r="V4" s="328"/>
-      <c r="AD4" s="326" t="s">
+      <c r="T4" s="346"/>
+      <c r="U4" s="346"/>
+      <c r="V4" s="347"/>
+      <c r="AD4" s="337" t="s">
         <v>773</v>
       </c>
-      <c r="AE4" s="327"/>
-      <c r="AF4" s="327"/>
-      <c r="AG4" s="328"/>
+      <c r="AE4" s="346"/>
+      <c r="AF4" s="346"/>
+      <c r="AG4" s="347"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E5" s="329" t="s">
+      <c r="E5" s="348" t="s">
         <v>769</v>
       </c>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="331"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="350"/>
       <c r="I5" s="280"/>
-      <c r="J5" s="329" t="s">
+      <c r="J5" s="348" t="s">
         <v>769</v>
       </c>
-      <c r="K5" s="330"/>
-      <c r="L5" s="330"/>
-      <c r="M5" s="331"/>
+      <c r="K5" s="349"/>
+      <c r="L5" s="349"/>
+      <c r="M5" s="350"/>
       <c r="N5" s="74"/>
-      <c r="O5" s="329" t="s">
+      <c r="O5" s="348" t="s">
         <v>769</v>
       </c>
-      <c r="P5" s="330"/>
-      <c r="Q5" s="330"/>
-      <c r="R5" s="331"/>
-      <c r="S5" s="329" t="s">
+      <c r="P5" s="349"/>
+      <c r="Q5" s="349"/>
+      <c r="R5" s="350"/>
+      <c r="S5" s="348" t="s">
         <v>812</v>
       </c>
-      <c r="T5" s="330"/>
-      <c r="U5" s="330"/>
-      <c r="V5" s="331"/>
-      <c r="AD5" s="329" t="s">
+      <c r="T5" s="349"/>
+      <c r="U5" s="349"/>
+      <c r="V5" s="350"/>
+      <c r="AD5" s="348" t="s">
         <v>812</v>
       </c>
-      <c r="AE5" s="330"/>
-      <c r="AF5" s="330"/>
-      <c r="AG5" s="331"/>
+      <c r="AE5" s="349"/>
+      <c r="AF5" s="349"/>
+      <c r="AG5" s="350"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="173" t="s">
@@ -33273,25 +33369,25 @@
       </c>
       <c r="B6" s="225"/>
       <c r="C6" s="225"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="332" t="s">
+      <c r="D6" s="333"/>
+      <c r="E6" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="333"/>
-      <c r="G6" s="333"/>
-      <c r="H6" s="334"/>
+      <c r="F6" s="341"/>
+      <c r="G6" s="341"/>
+      <c r="H6" s="342"/>
       <c r="I6" s="279"/>
       <c r="J6" s="41"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="292"/>
-      <c r="O6" s="335" t="s">
+      <c r="O6" s="351" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="333"/>
-      <c r="Q6" s="333"/>
-      <c r="R6" s="333"/>
+      <c r="P6" s="341"/>
+      <c r="Q6" s="341"/>
+      <c r="R6" s="341"/>
       <c r="S6" s="41"/>
       <c r="T6" s="42"/>
       <c r="U6" s="42"/>
@@ -33303,23 +33399,23 @@
       <c r="AA6" s="279"/>
       <c r="AB6" s="279"/>
       <c r="AC6" s="279"/>
-      <c r="AD6" s="332" t="s">
+      <c r="AD6" s="340" t="s">
         <v>945</v>
       </c>
-      <c r="AE6" s="333"/>
-      <c r="AF6" s="333"/>
-      <c r="AG6" s="334"/>
+      <c r="AE6" s="341"/>
+      <c r="AF6" s="341"/>
+      <c r="AG6" s="342"/>
       <c r="AH6" s="278"/>
       <c r="AI6" s="42"/>
       <c r="AJ6" s="42"/>
       <c r="AK6" s="42"/>
       <c r="AL6" s="43"/>
-      <c r="AM6" s="332" t="s">
+      <c r="AM6" s="340" t="s">
         <v>181</v>
       </c>
-      <c r="AN6" s="333"/>
-      <c r="AO6" s="333"/>
-      <c r="AP6" s="334"/>
+      <c r="AN6" s="341"/>
+      <c r="AO6" s="341"/>
+      <c r="AP6" s="342"/>
       <c r="AQ6" s="177"/>
       <c r="AR6" s="178"/>
       <c r="AS6" s="178"/>
@@ -33336,45 +33432,45 @@
       <c r="D7" s="319" t="s">
         <v>1064</v>
       </c>
-      <c r="E7" s="332" t="s">
+      <c r="E7" s="340" t="s">
         <v>547</v>
       </c>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="334"/>
+      <c r="F7" s="341"/>
+      <c r="G7" s="341"/>
+      <c r="H7" s="342"/>
       <c r="I7" s="116"/>
-      <c r="J7" s="332" t="s">
+      <c r="J7" s="340" t="s">
         <v>735</v>
       </c>
-      <c r="K7" s="333"/>
-      <c r="L7" s="333"/>
-      <c r="M7" s="334"/>
+      <c r="K7" s="341"/>
+      <c r="L7" s="341"/>
+      <c r="M7" s="342"/>
       <c r="N7" s="293"/>
-      <c r="O7" s="332" t="s">
+      <c r="O7" s="340" t="s">
         <v>548</v>
       </c>
-      <c r="P7" s="333"/>
-      <c r="Q7" s="333"/>
-      <c r="R7" s="334"/>
-      <c r="S7" s="332"/>
-      <c r="T7" s="333"/>
-      <c r="U7" s="333"/>
-      <c r="V7" s="334"/>
-      <c r="W7" s="351" t="s">
+      <c r="P7" s="341"/>
+      <c r="Q7" s="341"/>
+      <c r="R7" s="342"/>
+      <c r="S7" s="340"/>
+      <c r="T7" s="341"/>
+      <c r="U7" s="341"/>
+      <c r="V7" s="342"/>
+      <c r="W7" s="362" t="s">
         <v>946</v>
       </c>
-      <c r="X7" s="352"/>
-      <c r="Y7" s="352"/>
-      <c r="Z7" s="353"/>
+      <c r="X7" s="363"/>
+      <c r="Y7" s="363"/>
+      <c r="Z7" s="364"/>
       <c r="AA7" s="116"/>
       <c r="AB7" s="116"/>
       <c r="AC7" s="116"/>
-      <c r="AD7" s="332" t="s">
+      <c r="AD7" s="340" t="s">
         <v>903</v>
       </c>
-      <c r="AE7" s="333"/>
-      <c r="AF7" s="333"/>
-      <c r="AG7" s="334"/>
+      <c r="AE7" s="341"/>
+      <c r="AF7" s="341"/>
+      <c r="AG7" s="342"/>
       <c r="AH7" s="39"/>
       <c r="AI7" s="25"/>
       <c r="AJ7" s="25"/>
@@ -33384,12 +33480,12 @@
       <c r="AN7" s="180"/>
       <c r="AO7" s="180"/>
       <c r="AP7" s="181"/>
-      <c r="AQ7" s="332" t="s">
+      <c r="AQ7" s="340" t="s">
         <v>736</v>
       </c>
-      <c r="AR7" s="333"/>
-      <c r="AS7" s="333"/>
-      <c r="AT7" s="334"/>
+      <c r="AR7" s="341"/>
+      <c r="AS7" s="341"/>
+      <c r="AT7" s="342"/>
     </row>
     <row r="8" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="173">
@@ -33399,7 +33495,7 @@
         <v>828</v>
       </c>
       <c r="C8" s="227"/>
-      <c r="D8" s="368"/>
+      <c r="D8" s="334"/>
       <c r="E8" s="39" t="s">
         <v>35</v>
       </c>
@@ -33541,12 +33637,12 @@
       <c r="G9" s="252"/>
       <c r="H9" s="253"/>
       <c r="I9" s="280"/>
-      <c r="J9" s="349" t="s">
+      <c r="J9" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="K9" s="350"/>
-      <c r="L9" s="350"/>
-      <c r="M9" s="350"/>
+      <c r="K9" s="361"/>
+      <c r="L9" s="361"/>
+      <c r="M9" s="361"/>
       <c r="N9" s="294" t="s">
         <v>1034</v>
       </c>
@@ -33554,12 +33650,12 @@
       <c r="P9" s="252"/>
       <c r="Q9" s="252"/>
       <c r="R9" s="252"/>
-      <c r="S9" s="349" t="s">
+      <c r="S9" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="T9" s="350"/>
-      <c r="U9" s="350"/>
-      <c r="V9" s="350"/>
+      <c r="T9" s="361"/>
+      <c r="U9" s="361"/>
+      <c r="V9" s="361"/>
       <c r="AD9" s="251"/>
       <c r="AE9" s="252"/>
       <c r="AF9" s="252"/>
@@ -33725,7 +33821,7 @@
       <c r="C14" s="228">
         <v>1</v>
       </c>
-      <c r="D14" s="369"/>
+      <c r="D14" s="335"/>
       <c r="E14" s="145"/>
       <c r="F14" s="64"/>
       <c r="G14" s="23"/>
@@ -33774,12 +33870,12 @@
         <v>504</v>
       </c>
       <c r="I15" s="64"/>
-      <c r="J15" s="349" t="s">
+      <c r="J15" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="K15" s="350"/>
-      <c r="L15" s="350"/>
-      <c r="M15" s="350"/>
+      <c r="K15" s="361"/>
+      <c r="L15" s="361"/>
+      <c r="M15" s="361"/>
       <c r="N15" s="110" t="s">
         <v>1062</v>
       </c>
@@ -33791,12 +33887,12 @@
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="18"/>
-      <c r="S15" s="349" t="s">
+      <c r="S15" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="T15" s="350"/>
-      <c r="U15" s="350"/>
-      <c r="V15" s="350"/>
+      <c r="T15" s="361"/>
+      <c r="U15" s="361"/>
+      <c r="V15" s="361"/>
       <c r="AD15" s="145"/>
       <c r="AE15" s="64"/>
       <c r="AF15" s="9"/>
@@ -34112,12 +34208,12 @@
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="64"/>
-      <c r="J23" s="349" t="s">
+      <c r="J23" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="K23" s="350"/>
-      <c r="L23" s="350"/>
-      <c r="M23" s="350"/>
+      <c r="K23" s="361"/>
+      <c r="L23" s="361"/>
+      <c r="M23" s="361"/>
       <c r="N23" s="110" t="s">
         <v>1063</v>
       </c>
@@ -34130,12 +34226,12 @@
       <c r="R23" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="S23" s="349" t="s">
+      <c r="S23" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="T23" s="350"/>
-      <c r="U23" s="350"/>
-      <c r="V23" s="350"/>
+      <c r="T23" s="361"/>
+      <c r="U23" s="361"/>
+      <c r="V23" s="361"/>
       <c r="Y23" s="29"/>
       <c r="Z23" s="29" t="s">
         <v>423</v>
@@ -34438,12 +34534,12 @@
       <c r="G31" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="J31" s="349" t="s">
+      <c r="J31" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="K31" s="350"/>
-      <c r="L31" s="350"/>
-      <c r="M31" s="350"/>
+      <c r="K31" s="361"/>
+      <c r="L31" s="361"/>
+      <c r="M31" s="361"/>
       <c r="N31" s="133"/>
       <c r="P31" s="61" t="s">
         <v>211</v>
@@ -34454,12 +34550,12 @@
       <c r="R31" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="S31" s="349" t="s">
+      <c r="S31" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="T31" s="350"/>
-      <c r="U31" s="350"/>
-      <c r="V31" s="350"/>
+      <c r="T31" s="361"/>
+      <c r="U31" s="361"/>
+      <c r="V31" s="361"/>
       <c r="Y31" s="29"/>
       <c r="Z31" s="29" t="s">
         <v>661</v>
@@ -34748,12 +34844,12 @@
       <c r="G39" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="J39" s="349" t="s">
+      <c r="J39" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="K39" s="350"/>
-      <c r="L39" s="350"/>
-      <c r="M39" s="350"/>
+      <c r="K39" s="361"/>
+      <c r="L39" s="361"/>
+      <c r="M39" s="361"/>
       <c r="N39" s="133"/>
       <c r="O39" s="9"/>
       <c r="P39" s="61" t="s">
@@ -34761,12 +34857,12 @@
       </c>
       <c r="Q39" s="64"/>
       <c r="R39" s="64"/>
-      <c r="S39" s="349" t="s">
+      <c r="S39" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="T39" s="350"/>
-      <c r="U39" s="350"/>
-      <c r="V39" s="350"/>
+      <c r="T39" s="361"/>
+      <c r="U39" s="361"/>
+      <c r="V39" s="361"/>
       <c r="Y39" s="29"/>
       <c r="Z39" s="29" t="s">
         <v>665</v>
@@ -35012,12 +35108,12 @@
       </c>
       <c r="H47" s="65"/>
       <c r="I47" s="64"/>
-      <c r="J47" s="349" t="s">
+      <c r="J47" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="K47" s="350"/>
-      <c r="L47" s="350"/>
-      <c r="M47" s="350"/>
+      <c r="K47" s="361"/>
+      <c r="L47" s="361"/>
+      <c r="M47" s="361"/>
       <c r="N47" s="296"/>
       <c r="O47" s="64"/>
       <c r="P47" s="56" t="s">
@@ -35213,12 +35309,12 @@
       <c r="B59" s="133">
         <v>1</v>
       </c>
-      <c r="J59" s="349" t="s">
+      <c r="J59" s="360" t="s">
         <v>900</v>
       </c>
-      <c r="K59" s="350"/>
-      <c r="L59" s="350"/>
-      <c r="M59" s="350"/>
+      <c r="K59" s="361"/>
+      <c r="L59" s="361"/>
+      <c r="M59" s="361"/>
       <c r="N59" s="296"/>
       <c r="AF59" s="59" t="s">
         <v>805</v>
@@ -35614,31 +35710,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AM6:AP6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W7:Z7"/>
     <mergeCell ref="J59:M59"/>
     <mergeCell ref="J47:M47"/>
     <mergeCell ref="S1:U1"/>
@@ -35652,6 +35723,31 @@
     <mergeCell ref="J23:M23"/>
     <mergeCell ref="J31:M31"/>
     <mergeCell ref="J39:M39"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35662,9 +35758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6F30D8-4F74-43CF-B0A2-082294AF7E0E}">
   <dimension ref="A1:AJ68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G45" sqref="G45"/>
+      <selection pane="topRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -35672,7 +35768,7 @@
     <col min="2" max="2" width="10.796875" style="308" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.46484375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.73046875" style="308" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.796875" style="308" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.59765625" style="318" bestFit="1" customWidth="1"/>
@@ -35696,39 +35792,39 @@
   <sheetData>
     <row r="1" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18"/>
-      <c r="C1" s="332" t="s">
+      <c r="C1" s="340" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="335" t="s">
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="342"/>
+      <c r="J1" s="351" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="333"/>
-      <c r="L1" s="333"/>
-      <c r="M1" s="333"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
       <c r="N1" s="310"/>
       <c r="O1" s="309"/>
       <c r="P1" s="310"/>
       <c r="Q1" s="311"/>
-      <c r="R1" s="332" t="s">
+      <c r="R1" s="340" t="s">
         <v>395</v>
       </c>
-      <c r="S1" s="333"/>
-      <c r="T1" s="333"/>
-      <c r="U1" s="334"/>
+      <c r="S1" s="341"/>
+      <c r="T1" s="341"/>
+      <c r="U1" s="342"/>
       <c r="V1" s="310"/>
       <c r="W1" s="310"/>
-      <c r="X1" s="332" t="s">
+      <c r="X1" s="340" t="s">
         <v>863</v>
       </c>
-      <c r="Y1" s="333"/>
-      <c r="Z1" s="333"/>
-      <c r="AA1" s="334"/>
+      <c r="Y1" s="341"/>
+      <c r="Z1" s="341"/>
+      <c r="AA1" s="342"/>
     </row>
     <row r="2" spans="1:36" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -35817,10 +35913,10 @@
       <c r="I3" s="313" t="s">
         <v>1058</v>
       </c>
-      <c r="J3" s="336"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="337"/>
-      <c r="M3" s="340"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="344"/>
+      <c r="M3" s="345"/>
       <c r="N3" s="312" t="s">
         <v>1044</v>
       </c>
@@ -35863,8 +35959,8 @@
       <c r="E4" s="45"/>
       <c r="F4" s="38"/>
       <c r="G4" s="262"/>
-      <c r="H4" s="359"/>
-      <c r="I4" s="359"/>
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
       <c r="J4" s="317"/>
       <c r="K4" s="317"/>
       <c r="L4" s="317"/>
@@ -35872,10 +35968,10 @@
       <c r="N4" s="317"/>
       <c r="O4" s="262"/>
       <c r="P4" s="262"/>
-      <c r="Q4" s="359"/>
+      <c r="Q4" s="325"/>
       <c r="R4" s="317"/>
       <c r="V4" s="262"/>
-      <c r="W4" s="359"/>
+      <c r="W4" s="325"/>
       <c r="X4" s="316"/>
       <c r="Y4" s="317"/>
       <c r="Z4" s="317"/>
@@ -36028,7 +36124,7 @@
       </c>
       <c r="L8" s="33"/>
       <c r="M8" s="33"/>
-      <c r="N8" s="363" t="s">
+      <c r="N8" s="329" t="s">
         <v>356</v>
       </c>
       <c r="O8" s="316" t="s">
@@ -36075,7 +36171,7 @@
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
-      <c r="N9" s="363" t="s">
+      <c r="N9" s="329" t="s">
         <v>357</v>
       </c>
       <c r="O9" s="316" t="s">
@@ -36115,7 +36211,7 @@
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
-      <c r="N10" s="363" t="s">
+      <c r="N10" s="329" t="s">
         <v>358</v>
       </c>
       <c r="P10" s="316">
@@ -36144,7 +36240,7 @@
       </c>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
-      <c r="N11" s="363" t="s">
+      <c r="N11" s="329" t="s">
         <v>359</v>
       </c>
       <c r="O11" s="316"/>
@@ -36178,12 +36274,12 @@
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
       <c r="M12" s="33"/>
-      <c r="N12" s="363" t="s">
+      <c r="N12" s="329" t="s">
         <v>360</v>
       </c>
-      <c r="O12" s="364"/>
-      <c r="P12" s="365"/>
-      <c r="Q12" s="359"/>
+      <c r="O12" s="330"/>
+      <c r="P12" s="331"/>
+      <c r="Q12" s="325"/>
       <c r="R12" s="317"/>
       <c r="AB12" s="18" t="s">
         <v>281</v>
@@ -36231,7 +36327,7 @@
       <c r="B14" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="360" t="s">
+      <c r="C14" s="326" t="s">
         <v>1030</v>
       </c>
       <c r="G14" s="308" t="s">
@@ -36264,17 +36360,17 @@
       <c r="B15" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="360" t="s">
+      <c r="C15" s="326" t="s">
         <v>1031</v>
       </c>
-      <c r="D15" s="361" t="s">
+      <c r="D15" s="327" t="s">
         <v>1011</v>
       </c>
       <c r="E15" s="23"/>
       <c r="G15" s="308" t="s">
         <v>1036</v>
       </c>
-      <c r="H15" s="359"/>
+      <c r="H15" s="325"/>
       <c r="I15" s="318" t="s">
         <v>1059</v>
       </c>
@@ -36306,13 +36402,13 @@
       <c r="B16" s="308" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="360" t="s">
+      <c r="C16" s="326" t="s">
         <v>1032</v>
       </c>
-      <c r="D16" s="361" t="s">
+      <c r="D16" s="327" t="s">
         <v>1012</v>
       </c>
-      <c r="E16" s="361" t="s">
+      <c r="E16" s="327" t="s">
         <v>1013</v>
       </c>
       <c r="G16" s="308" t="s">
@@ -36349,15 +36445,15 @@
         <v>13</v>
       </c>
       <c r="C17" s="152" t="s">
-        <v>821</v>
-      </c>
-      <c r="D17" s="361" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D17" s="327" t="s">
         <v>1014</v>
       </c>
-      <c r="E17" s="361" t="s">
+      <c r="E17" s="327" t="s">
         <v>1015</v>
       </c>
-      <c r="F17" s="362" t="s">
+      <c r="F17" s="328" t="s">
         <v>1016</v>
       </c>
       <c r="G17" s="308" t="s">
@@ -36393,15 +36489,15 @@
         <v>1047</v>
       </c>
       <c r="C18" s="152" t="s">
-        <v>822</v>
+        <v>1067</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="E18" s="361" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E18" s="327" t="s">
         <v>1017</v>
       </c>
-      <c r="F18" s="362" t="s">
+      <c r="F18" s="328" t="s">
         <v>1018</v>
       </c>
       <c r="H18" s="321"/>
@@ -36435,12 +36531,12 @@
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="59" t="s">
-        <v>367</v>
+        <v>1069</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>368</v>
-      </c>
-      <c r="F19" s="362" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F19" s="328" t="s">
         <v>1019</v>
       </c>
       <c r="G19" s="257"/>
@@ -36476,10 +36572,10 @@
       </c>
       <c r="C20" s="28"/>
       <c r="E20" s="57" t="s">
-        <v>369</v>
+        <v>1071</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>370</v>
+        <v>1072</v>
       </c>
       <c r="G20" s="308" t="s">
         <v>1040</v>
@@ -36510,7 +36606,7 @@
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="59" t="s">
-        <v>371</v>
+        <v>1073</v>
       </c>
       <c r="G21" s="308" t="s">
         <v>1041</v>
@@ -36551,7 +36647,7 @@
       <c r="G22" s="308" t="s">
         <v>1042</v>
       </c>
-      <c r="H22" s="359"/>
+      <c r="H22" s="325"/>
       <c r="I22" s="318" t="s">
         <v>1060</v>
       </c>
@@ -36632,7 +36728,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="152" t="s">
-        <v>379</v>
+        <v>1080</v>
       </c>
       <c r="D24" s="61" t="s">
         <v>199</v>
@@ -36695,10 +36791,10 @@
         <v>0</v>
       </c>
       <c r="C25" s="152" t="s">
-        <v>380</v>
+        <v>1081</v>
       </c>
       <c r="D25" s="59" t="s">
-        <v>377</v>
+        <v>1078</v>
       </c>
       <c r="E25" s="61" t="s">
         <v>197</v>
@@ -36751,10 +36847,10 @@
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="59" t="s">
-        <v>378</v>
+        <v>1079</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>375</v>
+        <v>1076</v>
       </c>
       <c r="F26" s="60" t="s">
         <v>194</v>
@@ -36799,10 +36895,10 @@
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="57" t="s">
-        <v>376</v>
+        <v>1077</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>373</v>
+        <v>1074</v>
       </c>
       <c r="G27" s="308" t="s">
         <v>1048</v>
@@ -36839,7 +36935,7 @@
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="59" t="s">
-        <v>374</v>
+        <v>1075</v>
       </c>
       <c r="G28" s="308" t="s">
         <v>1049</v>
@@ -36984,7 +37080,7 @@
         <v>13</v>
       </c>
       <c r="C31" s="152" t="s">
-        <v>387</v>
+        <v>1082</v>
       </c>
       <c r="D31" s="61" t="s">
         <v>211</v>
@@ -37039,10 +37135,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="152" t="s">
-        <v>388</v>
+        <v>1083</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>389</v>
+        <v>1084</v>
       </c>
       <c r="E32" s="61" t="s">
         <v>209</v>
@@ -37090,10 +37186,10 @@
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="59" t="s">
-        <v>390</v>
+        <v>1085</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>391</v>
+        <v>1086</v>
       </c>
       <c r="F33" s="60" t="s">
         <v>206</v>
@@ -37140,10 +37236,10 @@
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="59" t="s">
-        <v>392</v>
+        <v>1087</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>393</v>
+        <v>1088</v>
       </c>
       <c r="G34" s="308" t="s">
         <v>1054</v>
@@ -37174,12 +37270,12 @@
       <c r="B35" s="308" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="366" t="s">
+      <c r="C35" s="332" t="s">
         <v>424</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="59" t="s">
-        <v>394</v>
+        <v>1089</v>
       </c>
       <c r="G35" s="308" t="s">
         <v>1055</v>
@@ -37210,7 +37306,7 @@
       <c r="B36" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="366" t="s">
+      <c r="C36" s="332" t="s">
         <v>425</v>
       </c>
       <c r="D36" s="186" t="s">
@@ -37248,7 +37344,7 @@
       <c r="B37" s="308" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="366" t="s">
+      <c r="C37" s="332" t="s">
         <v>426</v>
       </c>
       <c r="D37" s="186" t="s">
@@ -37283,8 +37379,8 @@
       <c r="B38" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="366" t="s">
-        <v>412</v>
+      <c r="C38" s="332" t="s">
+        <v>1096</v>
       </c>
       <c r="D38" s="186" t="s">
         <v>423</v>
@@ -37319,11 +37415,11 @@
       <c r="A39" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C39" s="366" t="s">
-        <v>414</v>
+      <c r="C39" s="332" t="s">
+        <v>1097</v>
       </c>
       <c r="D39" s="186" t="s">
-        <v>408</v>
+        <v>1094</v>
       </c>
       <c r="E39" s="60" t="s">
         <v>420</v>
@@ -37353,10 +37449,10 @@
         <v>288</v>
       </c>
       <c r="D40" s="186" t="s">
-        <v>410</v>
+        <v>1095</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>404</v>
+        <v>1090</v>
       </c>
       <c r="F40" s="60" t="s">
         <v>218</v>
@@ -37379,10 +37475,10 @@
         <v>289</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>406</v>
+        <v>1091</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>400</v>
+        <v>1092</v>
       </c>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
@@ -37395,7 +37491,7 @@
         <v>290</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>402</v>
+        <v>1093</v>
       </c>
       <c r="V42" s="257"/>
       <c r="W42" s="318" t="s">

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942C771D-AC2A-4C13-8C1C-137111C6FFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDCA582-A67D-47B3-BAF9-FAC2F2684549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="5948" windowWidth="16200" windowHeight="9404" firstSheet="1" activeTab="8" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="9" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4829" uniqueCount="1122">
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3970,6 +3970,14 @@
   </si>
   <si>
     <t>K_t+8</t>
+  </si>
+  <si>
+    <t>base+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_HT+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4426,7 +4434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5513,51 +5521,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5567,18 +5590,18 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5608,18 +5631,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5945,11 +5956,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="361" t="s">
+      <c r="W1" s="366" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="361"/>
-      <c r="Y1" s="361"/>
+      <c r="X1" s="366"/>
+      <c r="Y1" s="366"/>
       <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5964,11 +5975,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="361" t="s">
+      <c r="W3" s="366" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="361"/>
-      <c r="Y3" s="361"/>
+      <c r="X3" s="366"/>
+      <c r="Y3" s="366"/>
       <c r="Z3" s="21" t="s">
         <v>52</v>
       </c>
@@ -6720,2439 +6731,2533 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96E198-A134-4E8D-93D2-A301FB776858}">
-  <dimension ref="A1:W163"/>
+  <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="340"/>
-    <col min="2" max="2" width="9.06640625" style="220"/>
-    <col min="3" max="3" width="20.1328125" style="331" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="333" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="237" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="240" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.3984375" style="221" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.3984375" style="220" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="339" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" style="237"/>
-    <col min="15" max="15" width="9.06640625" style="240"/>
-    <col min="16" max="16" width="9.06640625" style="49"/>
-    <col min="17" max="17" width="9.06640625" style="243"/>
-    <col min="18" max="18" width="13.6640625" style="322" customWidth="1"/>
-    <col min="19" max="19" width="10.796875" style="333" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.06640625" style="221"/>
+    <col min="2" max="2" width="9.06640625" style="361"/>
+    <col min="3" max="3" width="9.06640625" style="362"/>
+    <col min="4" max="4" width="20.1328125" style="331" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" style="333" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="237" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="240" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" style="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.3984375" style="221" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.3984375" style="220" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="339" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.06640625" style="237"/>
+    <col min="16" max="16" width="9.06640625" style="240"/>
+    <col min="17" max="17" width="9.06640625" style="49"/>
+    <col min="18" max="18" width="9.06640625" style="243"/>
+    <col min="19" max="19" width="13.6640625" style="322" customWidth="1"/>
+    <col min="20" max="20" width="10.796875" style="333" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.06640625" style="221"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="241"/>
-      <c r="B1"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="365" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="361"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="366"/>
-      <c r="G1" s="366"/>
-      <c r="H1" s="367"/>
-      <c r="I1" s="365" t="s">
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="375"/>
+      <c r="J1" s="373" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="366"/>
-      <c r="K1" s="366"/>
-      <c r="L1" s="367"/>
-      <c r="M1" s="323"/>
-      <c r="N1" s="365" t="s">
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="375"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="373" t="s">
         <v>383</v>
       </c>
-      <c r="O1" s="366"/>
-      <c r="P1" s="366"/>
-      <c r="Q1" s="367"/>
-      <c r="R1" s="324"/>
+      <c r="P1" s="374"/>
+      <c r="Q1" s="374"/>
+      <c r="R1" s="375"/>
       <c r="S1" s="324"/>
-    </row>
-    <row r="2" spans="1:23" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T1" s="324"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="241"/>
-      <c r="B2"/>
-      <c r="E2" s="232" t="s">
+      <c r="B2" s="241" t="s">
+        <v>676</v>
+      </c>
+      <c r="C2" s="361" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D2" s="326" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E2" s="328" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F2" s="232" t="s">
         <v>811</v>
       </c>
-      <c r="F2" s="233" t="s">
+      <c r="G2" s="233" t="s">
         <v>812</v>
       </c>
-      <c r="G2" s="233" t="s">
+      <c r="H2" s="233" t="s">
         <v>813</v>
       </c>
-      <c r="H2" s="234" t="s">
+      <c r="I2" s="234" t="s">
         <v>814</v>
       </c>
-      <c r="I2" s="233" t="s">
+      <c r="J2" s="233" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="233" t="s">
+      <c r="K2" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="233" t="s">
+      <c r="L2" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="233" t="s">
+      <c r="M2" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="232" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="232" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="233" t="s">
+      <c r="P2" s="233" t="s">
         <v>180</v>
       </c>
-      <c r="P2" s="233" t="s">
+      <c r="Q2" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="234" t="s">
+      <c r="R2" s="234" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="241">
         <v>0</v>
       </c>
-      <c r="B3" s="397" t="s">
+      <c r="B3" s="241">
+        <v>0</v>
+      </c>
+      <c r="C3" s="164" t="s">
         <v>1116</v>
       </c>
-      <c r="C3" s="326" t="s">
+      <c r="E3" s="333" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F3" s="229" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="230" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="230" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="231" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="230" t="s">
+        <v>831</v>
+      </c>
+      <c r="K3" s="230" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="230" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="230" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="326" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="327" t="s">
         <v>1007</v>
       </c>
-      <c r="D3" s="328" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E3" s="229" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="230" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="230" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="231" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" s="230" t="s">
-        <v>831</v>
-      </c>
-      <c r="J3" s="230" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3" s="230" t="s">
-        <v>138</v>
-      </c>
-      <c r="L3" s="230" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" s="326" t="s">
-        <v>1026</v>
-      </c>
-      <c r="P3" s="240"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="327" t="s">
-        <v>1007</v>
-      </c>
-      <c r="S3" s="328" t="s">
+      <c r="T3" s="328" t="s">
         <v>932</v>
       </c>
-      <c r="T3" s="369" t="s">
+      <c r="U3" s="378" t="s">
         <v>832</v>
       </c>
-      <c r="U3" s="369"/>
-      <c r="V3" s="369"/>
-      <c r="W3" s="370"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+      <c r="V3" s="378"/>
+      <c r="W3" s="378"/>
+      <c r="X3" s="381"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="241" t="s">
         <v>107</v>
       </c>
-      <c r="B4"/>
-      <c r="C4" s="342" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="336"/>
-      <c r="E4" s="342"/>
-      <c r="F4" s="343"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="361">
+        <v>1</v>
+      </c>
+      <c r="D4" s="342" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E4" s="336"/>
+      <c r="F4" s="342"/>
       <c r="G4" s="343"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="343"/>
+      <c r="H4" s="343"/>
+      <c r="I4" s="344"/>
       <c r="J4" s="343"/>
       <c r="K4" s="343"/>
       <c r="L4" s="343"/>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="343"/>
+      <c r="N4" s="75" t="s">
         <v>827</v>
       </c>
-      <c r="N4" s="348"/>
-      <c r="O4" s="347"/>
+      <c r="O4" s="348"/>
       <c r="P4" s="347"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="218" t="s">
+      <c r="Q4" s="347"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="259"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="218" t="s">
         <v>234</v>
       </c>
-      <c r="U4" s="218" t="s">
+      <c r="V4" s="218" t="s">
         <v>140</v>
       </c>
-      <c r="V4" s="218" t="s">
+      <c r="W4" s="218" t="s">
         <v>142</v>
       </c>
-      <c r="W4" s="219"/>
-    </row>
-    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+      <c r="X4" s="219"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="241" t="s">
         <v>6</v>
       </c>
-      <c r="B5"/>
-      <c r="C5" s="342" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="229" t="s">
+      <c r="B5" s="241"/>
+      <c r="C5" s="361">
+        <v>2</v>
+      </c>
+      <c r="D5" s="342" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F5" s="229" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="230"/>
       <c r="G5" s="230"/>
-      <c r="I5" s="75" t="s">
+      <c r="H5" s="230"/>
+      <c r="J5" s="75" t="s">
         <v>827</v>
       </c>
-      <c r="J5" s="230"/>
       <c r="K5" s="230"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="75" t="s">
+      <c r="L5" s="230"/>
+      <c r="M5" s="240"/>
+      <c r="N5" s="75" t="s">
         <v>828</v>
       </c>
-      <c r="P5" s="240"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="332"/>
-      <c r="T5" s="374" t="s">
+      <c r="Q5" s="240"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="332"/>
+      <c r="U5" s="371" t="s">
         <v>761</v>
       </c>
-      <c r="U5" s="374"/>
-      <c r="V5" s="374"/>
-      <c r="W5" s="375"/>
-    </row>
-    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+      <c r="V5" s="371"/>
+      <c r="W5" s="371"/>
+      <c r="X5" s="372"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="B6"/>
-      <c r="C6" s="342"/>
-      <c r="E6" s="229" t="s">
+      <c r="B6" s="241"/>
+      <c r="C6" s="361">
+        <v>3</v>
+      </c>
+      <c r="D6" s="342"/>
+      <c r="F6" s="229" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="230" t="s">
+      <c r="G6" s="230" t="s">
         <v>228</v>
       </c>
-      <c r="G6" s="240"/>
-      <c r="I6" s="75" t="s">
+      <c r="H6" s="240"/>
+      <c r="J6" s="75" t="s">
         <v>828</v>
       </c>
-      <c r="J6" s="75" t="s">
+      <c r="K6" s="75" t="s">
         <v>829</v>
       </c>
-      <c r="K6" s="240"/>
       <c r="L6" s="240"/>
-      <c r="M6" s="335"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="49"/>
-      <c r="T6" s="374" t="s">
+      <c r="M6" s="240"/>
+      <c r="N6" s="335"/>
+      <c r="Q6" s="240"/>
+      <c r="R6" s="49"/>
+      <c r="U6" s="371" t="s">
         <v>833</v>
       </c>
-      <c r="U6" s="374"/>
-      <c r="V6" s="374"/>
-      <c r="W6" s="375"/>
-    </row>
-    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+      <c r="V6" s="371"/>
+      <c r="W6" s="371"/>
+      <c r="X6" s="372"/>
+    </row>
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="241" t="s">
         <v>9</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" s="342"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="230" t="s">
+      <c r="B7" s="241">
+        <v>1</v>
+      </c>
+      <c r="C7" s="361">
+        <v>0</v>
+      </c>
+      <c r="D7" s="342"/>
+      <c r="E7" s="333" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F7" s="229"/>
+      <c r="G7" s="230" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="230" t="s">
+      <c r="H7" s="230" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="230"/>
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="230"/>
+      <c r="K7" s="75" t="s">
         <v>830</v>
       </c>
-      <c r="K7" s="230"/>
-      <c r="L7" s="240"/>
-      <c r="M7" s="335"/>
-      <c r="P7" s="240"/>
-      <c r="Q7" s="49"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218" t="s">
+      <c r="L7" s="230"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="335"/>
+      <c r="Q7" s="240"/>
+      <c r="R7" s="49"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="218" t="s">
         <v>217</v>
       </c>
-      <c r="V7" s="218"/>
-      <c r="W7" s="219"/>
-    </row>
-    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+      <c r="W7" s="218"/>
+      <c r="X7" s="219"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="B8"/>
-      <c r="C8" s="342" t="s">
-        <v>247</v>
-      </c>
-      <c r="E8" s="229"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230" t="s">
+      <c r="B8" s="241"/>
+      <c r="C8" s="361">
+        <v>1</v>
+      </c>
+      <c r="D8" s="362" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F8" s="229"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="230" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="231" t="s">
+      <c r="I8" s="231" t="s">
         <v>232</v>
       </c>
-      <c r="I8" s="230"/>
       <c r="J8" s="230"/>
       <c r="K8" s="230"/>
       <c r="L8" s="230"/>
-      <c r="M8" s="335"/>
-      <c r="P8" s="240"/>
-      <c r="Q8" s="49"/>
-      <c r="S8" s="333" t="s">
+      <c r="M8" s="230"/>
+      <c r="N8" s="335"/>
+      <c r="Q8" s="240"/>
+      <c r="R8" s="49"/>
+      <c r="T8" s="333" t="s">
         <v>1088</v>
       </c>
-      <c r="T8" s="391"/>
-      <c r="U8" s="392"/>
-      <c r="V8" s="392"/>
-      <c r="W8" s="392"/>
-    </row>
-    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+      <c r="U8" s="396"/>
+      <c r="V8" s="397"/>
+      <c r="W8" s="397"/>
+      <c r="X8" s="397"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" s="342" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="229" t="s">
+      <c r="B9" s="241"/>
+      <c r="C9" s="361">
+        <v>2</v>
+      </c>
+      <c r="D9" s="362" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F9" s="229" t="s">
         <v>247</v>
       </c>
-      <c r="F9" s="230"/>
       <c r="G9" s="230"/>
-      <c r="H9" s="344" t="s">
+      <c r="H9" s="230"/>
+      <c r="I9" s="344" t="s">
         <v>233</v>
       </c>
-      <c r="I9" s="230"/>
       <c r="J9" s="230"/>
       <c r="K9" s="230"/>
       <c r="L9" s="230"/>
-      <c r="M9" s="335"/>
-      <c r="P9" s="240"/>
-      <c r="Q9" s="49"/>
-      <c r="S9" s="333" t="s">
+      <c r="M9" s="230"/>
+      <c r="N9" s="335"/>
+      <c r="Q9" s="240"/>
+      <c r="R9" s="49"/>
+      <c r="T9" s="333" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" s="342"/>
-      <c r="E10" s="229" t="s">
+      <c r="B10" s="241"/>
+      <c r="C10" s="361">
+        <v>3</v>
+      </c>
+      <c r="D10" s="342"/>
+      <c r="F10" s="229" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="230" t="s">
+      <c r="G10" s="230" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="240"/>
-      <c r="I10" s="230"/>
+      <c r="H10" s="240"/>
       <c r="J10" s="230"/>
       <c r="K10" s="230"/>
       <c r="L10" s="230"/>
-      <c r="M10" s="335"/>
-      <c r="P10" s="240"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="322" t="s">
+      <c r="M10" s="230"/>
+      <c r="N10" s="335"/>
+      <c r="Q10" s="240"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="322" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="241" t="s">
         <v>53</v>
       </c>
-      <c r="B11"/>
-      <c r="C11" s="348"/>
-      <c r="D11" s="358"/>
-      <c r="E11" s="229"/>
-      <c r="F11" s="230" t="s">
+      <c r="B11" s="241">
+        <v>2</v>
+      </c>
+      <c r="C11" s="361">
+        <v>0</v>
+      </c>
+      <c r="D11" s="348"/>
+      <c r="E11" s="358" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F11" s="229"/>
+      <c r="G11" s="230" t="s">
         <v>251</v>
       </c>
-      <c r="G11" s="230" t="s">
+      <c r="H11" s="230" t="s">
         <v>250</v>
       </c>
-      <c r="H11" s="231"/>
-      <c r="I11" s="230"/>
+      <c r="I11" s="231"/>
       <c r="J11" s="230"/>
       <c r="K11" s="230"/>
       <c r="L11" s="230"/>
-      <c r="M11" s="227"/>
-      <c r="N11" s="229" t="s">
+      <c r="M11" s="230"/>
+      <c r="N11" s="227"/>
+      <c r="O11" s="229" t="s">
         <v>220</v>
       </c>
-      <c r="O11" s="230"/>
       <c r="P11" s="230"/>
-      <c r="Q11" s="49"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q11" s="230"/>
+      <c r="R11" s="49"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="B12"/>
-      <c r="C12" s="342" t="s">
-        <v>435</v>
-      </c>
-      <c r="G12" s="230" t="s">
+      <c r="B12" s="241"/>
+      <c r="C12" s="361">
+        <v>1</v>
+      </c>
+      <c r="D12" s="362" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H12" s="230" t="s">
         <v>253</v>
       </c>
-      <c r="H12" s="231" t="s">
+      <c r="I12" s="231" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="230"/>
       <c r="J12" s="230"/>
       <c r="K12" s="230"/>
       <c r="L12" s="230"/>
-      <c r="M12" s="335"/>
-      <c r="N12" s="342"/>
-      <c r="O12" s="230" t="s">
+      <c r="M12" s="230"/>
+      <c r="N12" s="335"/>
+      <c r="O12" s="342"/>
+      <c r="P12" s="230" t="s">
         <v>222</v>
       </c>
-      <c r="P12" s="240"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="322" t="s">
+      <c r="Q12" s="240"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="322" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="241" t="s">
         <v>57</v>
       </c>
-      <c r="B13"/>
-      <c r="C13" s="342" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13" s="229" t="s">
+      <c r="B13" s="241"/>
+      <c r="C13" s="361">
+        <v>2</v>
+      </c>
+      <c r="D13" s="362" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F13" s="229" t="s">
         <v>435</v>
       </c>
-      <c r="F13" s="230"/>
       <c r="G13" s="230"/>
-      <c r="H13" s="344" t="s">
+      <c r="H13" s="230"/>
+      <c r="I13" s="344" t="s">
         <v>254</v>
       </c>
-      <c r="I13" s="230"/>
       <c r="J13" s="230"/>
       <c r="K13" s="230"/>
       <c r="L13" s="230"/>
-      <c r="M13" s="227"/>
-      <c r="N13" s="229" t="s">
+      <c r="M13" s="230"/>
+      <c r="N13" s="227"/>
+      <c r="O13" s="229" t="s">
         <v>221</v>
       </c>
-      <c r="O13" s="343"/>
-      <c r="P13" s="230" t="s">
+      <c r="P13" s="343"/>
+      <c r="Q13" s="230" t="s">
         <v>223</v>
       </c>
-      <c r="Q13" s="231"/>
-      <c r="S13" s="336" t="s">
+      <c r="R13" s="231"/>
+      <c r="T13" s="336" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="B14"/>
-      <c r="E14" s="229" t="s">
+      <c r="B14" s="241"/>
+      <c r="C14" s="361">
+        <v>3</v>
+      </c>
+      <c r="F14" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="230" t="s">
+      <c r="G14" s="230" t="s">
         <v>266</v>
       </c>
-      <c r="G14" s="240"/>
-      <c r="I14" s="230"/>
+      <c r="H14" s="240"/>
       <c r="J14" s="230"/>
       <c r="K14" s="230"/>
       <c r="L14" s="230"/>
-      <c r="M14" s="227"/>
-      <c r="N14" s="229"/>
-      <c r="O14" s="230" t="s">
+      <c r="M14" s="230"/>
+      <c r="N14" s="227"/>
+      <c r="O14" s="229"/>
+      <c r="P14" s="230" t="s">
         <v>187</v>
       </c>
-      <c r="P14" s="343"/>
-      <c r="Q14" s="231" t="s">
+      <c r="Q14" s="343"/>
+      <c r="R14" s="231" t="s">
         <v>188</v>
       </c>
-      <c r="R14" s="340" t="s">
+      <c r="S14" s="340" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="241" t="s">
         <v>61</v>
       </c>
-      <c r="B15"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="230" t="s">
+      <c r="B15" s="241"/>
+      <c r="C15" s="361"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="230" t="s">
         <v>269</v>
       </c>
-      <c r="G15" s="230" t="s">
+      <c r="H15" s="230" t="s">
         <v>264</v>
       </c>
-      <c r="H15" s="231"/>
-      <c r="I15" s="230"/>
+      <c r="I15" s="231"/>
       <c r="J15" s="230"/>
       <c r="K15" s="230"/>
       <c r="L15" s="230"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="231" t="s">
+      <c r="M15" s="230"/>
+      <c r="N15" s="227"/>
+      <c r="O15" s="231" t="s">
         <v>239</v>
       </c>
-      <c r="P15" s="230" t="s">
+      <c r="Q15" s="230" t="s">
         <v>224</v>
       </c>
-      <c r="Q15" s="344"/>
-      <c r="R15" s="340"/>
-    </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+      <c r="R15" s="344"/>
+      <c r="S15" s="340"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="241" t="s">
         <v>63</v>
       </c>
-      <c r="B16"/>
-      <c r="G16" s="230" t="s">
+      <c r="B16" s="241"/>
+      <c r="C16" s="361"/>
+      <c r="H16" s="230" t="s">
         <v>267</v>
       </c>
-      <c r="H16" s="231" t="s">
+      <c r="I16" s="231" t="s">
         <v>263</v>
       </c>
-      <c r="I16" s="230"/>
       <c r="J16" s="230"/>
       <c r="K16" s="230"/>
       <c r="L16" s="230"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="344"/>
-      <c r="O16" s="230" t="s">
+      <c r="M16" s="230"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="344"/>
+      <c r="P16" s="230" t="s">
         <v>241</v>
       </c>
-      <c r="P16" s="230"/>
-      <c r="Q16" s="231" t="s">
+      <c r="Q16" s="230"/>
+      <c r="R16" s="231" t="s">
         <v>225</v>
       </c>
-      <c r="R16" s="340" t="s">
+      <c r="S16" s="340" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="241" t="s">
         <v>79</v>
       </c>
-      <c r="B17"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="231" t="s">
+      <c r="B17" s="241"/>
+      <c r="C17" s="361"/>
+      <c r="H17" s="230"/>
+      <c r="I17" s="231" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="230"/>
       <c r="J17" s="230"/>
       <c r="K17" s="230"/>
       <c r="L17" s="230"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="231" t="s">
+      <c r="M17" s="230"/>
+      <c r="N17" s="227"/>
+      <c r="O17" s="231" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="343"/>
-      <c r="P17" s="230" t="s">
+      <c r="P17" s="343"/>
+      <c r="Q17" s="230" t="s">
         <v>243</v>
       </c>
-      <c r="S17" s="336" t="s">
+      <c r="T17" s="336" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="241" t="s">
         <v>77</v>
       </c>
-      <c r="B18"/>
-      <c r="I18" s="230"/>
+      <c r="B18" s="241"/>
+      <c r="C18" s="361"/>
       <c r="J18" s="230"/>
       <c r="K18" s="230"/>
-      <c r="L18" s="240"/>
-      <c r="M18" s="227"/>
-      <c r="O18" s="230" t="s">
+      <c r="L18" s="230"/>
+      <c r="M18" s="240"/>
+      <c r="N18" s="227"/>
+      <c r="P18" s="230" t="s">
         <v>242</v>
       </c>
-      <c r="P18" s="343"/>
-      <c r="Q18" s="229" t="s">
+      <c r="Q18" s="343"/>
+      <c r="R18" s="229" t="s">
         <v>245</v>
       </c>
-      <c r="R18" s="340" t="s">
+      <c r="S18" s="340" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="241" t="s">
         <v>81</v>
       </c>
-      <c r="B19"/>
-      <c r="I19" s="230"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="361"/>
       <c r="J19" s="230"/>
-      <c r="K19" s="240"/>
+      <c r="K19" s="230"/>
       <c r="L19" s="240"/>
-      <c r="M19" s="227"/>
-      <c r="N19" s="229" t="s">
+      <c r="M19" s="240"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="229" t="s">
         <v>255</v>
       </c>
-      <c r="P19" s="230" t="s">
+      <c r="Q19" s="230" t="s">
         <v>244</v>
       </c>
-      <c r="Q19" s="342"/>
-      <c r="R19" s="340"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="R19" s="342"/>
+      <c r="S19" s="340"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="241" t="s">
         <v>83</v>
       </c>
-      <c r="B20"/>
-      <c r="G20" s="240"/>
-      <c r="I20" s="230"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="361"/>
+      <c r="H20" s="240"/>
       <c r="J20" s="230"/>
       <c r="K20" s="230"/>
       <c r="L20" s="230"/>
-      <c r="M20" s="227"/>
-      <c r="N20" s="342"/>
-      <c r="O20" s="230" t="s">
+      <c r="M20" s="230"/>
+      <c r="N20" s="227"/>
+      <c r="O20" s="342"/>
+      <c r="P20" s="230" t="s">
         <v>257</v>
       </c>
-      <c r="Q20" s="229" t="s">
+      <c r="R20" s="229" t="s">
         <v>246</v>
       </c>
-      <c r="R20" s="340" t="s">
+      <c r="S20" s="340" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="241" t="s">
         <v>94</v>
       </c>
-      <c r="B21"/>
-      <c r="G21" s="240"/>
-      <c r="I21" s="240"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="361"/>
+      <c r="H21" s="240"/>
       <c r="J21" s="240"/>
-      <c r="K21" s="230"/>
+      <c r="K21" s="240"/>
       <c r="L21" s="230"/>
-      <c r="M21" s="227"/>
-      <c r="N21" s="229" t="s">
+      <c r="M21" s="230"/>
+      <c r="N21" s="227"/>
+      <c r="O21" s="229" t="s">
         <v>256</v>
       </c>
-      <c r="O21" s="343"/>
-      <c r="P21" s="230" t="s">
+      <c r="P21" s="343"/>
+      <c r="Q21" s="230" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="241" t="s">
         <v>96</v>
       </c>
-      <c r="B22"/>
-      <c r="C22" s="331" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D22" s="333" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G22" s="240"/>
-      <c r="I22" s="240"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="361"/>
+      <c r="H22" s="240"/>
       <c r="J22" s="240"/>
       <c r="K22" s="240"/>
-      <c r="L22" s="230"/>
-      <c r="M22" s="227"/>
-      <c r="O22" s="230" t="s">
+      <c r="L22" s="240"/>
+      <c r="M22" s="230"/>
+      <c r="N22" s="227"/>
+      <c r="P22" s="230" t="s">
         <v>258</v>
       </c>
-      <c r="P22" s="343"/>
-      <c r="Q22" s="231" t="s">
+      <c r="Q22" s="343"/>
+      <c r="R22" s="231" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="241" t="s">
         <v>98</v>
       </c>
-      <c r="B23"/>
-      <c r="C23" s="331" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E23" s="229"/>
-      <c r="F23" s="230"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="361"/>
+      <c r="F23" s="229"/>
       <c r="G23" s="230"/>
-      <c r="I23" s="230"/>
+      <c r="H23" s="230"/>
       <c r="J23" s="230"/>
       <c r="K23" s="230"/>
-      <c r="L23" s="240"/>
-      <c r="M23" s="335"/>
-      <c r="O23" s="230"/>
-      <c r="P23" s="230" t="s">
+      <c r="L23" s="230"/>
+      <c r="M23" s="240"/>
+      <c r="N23" s="335"/>
+      <c r="P23" s="230"/>
+      <c r="Q23" s="230" t="s">
         <v>260</v>
       </c>
-      <c r="Q23" s="344"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="R23" s="344"/>
+    </row>
+    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="241" t="s">
         <v>100</v>
       </c>
-      <c r="B24"/>
-      <c r="C24" s="331" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E24" s="229"/>
-      <c r="F24" s="230"/>
-      <c r="G24" s="240"/>
-      <c r="I24" s="230"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="361"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="240"/>
       <c r="J24" s="230"/>
-      <c r="K24" s="240"/>
+      <c r="K24" s="230"/>
       <c r="L24" s="240"/>
-      <c r="M24" s="335"/>
-      <c r="P24" s="240"/>
-      <c r="Q24" s="231" t="s">
+      <c r="M24" s="240"/>
+      <c r="N24" s="335"/>
+      <c r="Q24" s="240"/>
+      <c r="R24" s="231" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="241" t="s">
         <v>102</v>
       </c>
-      <c r="B25"/>
-      <c r="C25" s="331" t="s">
-        <v>523</v>
-      </c>
-      <c r="D25" s="336"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="230"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="361"/>
+      <c r="E25" s="336"/>
+      <c r="F25" s="229"/>
       <c r="G25" s="230"/>
-      <c r="I25" s="230"/>
+      <c r="H25" s="230"/>
       <c r="J25" s="230"/>
       <c r="K25" s="230"/>
-      <c r="L25" s="240"/>
-      <c r="M25" s="335"/>
-      <c r="Q25" s="231"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="L25" s="230"/>
+      <c r="M25" s="240"/>
+      <c r="N25" s="335"/>
+      <c r="R25" s="231"/>
+    </row>
+    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="241" t="s">
         <v>108</v>
       </c>
-      <c r="B26"/>
-      <c r="C26" s="331" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G26" s="230"/>
-      <c r="H26" s="231"/>
-      <c r="I26" s="240"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="361"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="231"/>
       <c r="J26" s="240"/>
-      <c r="K26" s="230"/>
+      <c r="K26" s="240"/>
       <c r="L26" s="230"/>
-      <c r="M26" s="335"/>
-      <c r="N26" s="229"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="M26" s="230"/>
+      <c r="N26" s="335"/>
+      <c r="O26" s="229"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="241" t="s">
         <v>109</v>
       </c>
-      <c r="B27"/>
-      <c r="G27" s="230"/>
-      <c r="H27" s="231"/>
-      <c r="I27" s="240"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="361"/>
+      <c r="H27" s="230"/>
+      <c r="I27" s="231"/>
       <c r="J27" s="240"/>
-      <c r="K27" s="230"/>
+      <c r="K27" s="240"/>
       <c r="L27" s="230"/>
-      <c r="M27" s="335"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="M27" s="230"/>
+      <c r="N27" s="335"/>
+    </row>
+    <row r="28" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="241" t="s">
         <v>110</v>
       </c>
-      <c r="B28"/>
-      <c r="C28" s="335"/>
-      <c r="D28" s="336"/>
-      <c r="G28" s="240"/>
-      <c r="I28" s="240"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="361"/>
+      <c r="D28" s="335"/>
+      <c r="E28" s="336"/>
+      <c r="H28" s="240"/>
       <c r="J28" s="240"/>
       <c r="K28" s="240"/>
       <c r="L28" s="240"/>
-      <c r="M28" s="335"/>
-      <c r="P28" s="230"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="M28" s="240"/>
+      <c r="N28" s="335"/>
+      <c r="Q28" s="230"/>
+    </row>
+    <row r="29" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="241" t="s">
         <v>158</v>
       </c>
-      <c r="B29"/>
-      <c r="C29" s="331" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D29" s="333" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="361"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="335"/>
-      <c r="N29" s="238"/>
-      <c r="O29" s="235"/>
-      <c r="P29" s="226"/>
-      <c r="Q29" s="239"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="M29" s="3"/>
+      <c r="N29" s="335"/>
+      <c r="O29" s="238"/>
+      <c r="P29" s="235"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="239"/>
+    </row>
+    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="241" t="s">
         <v>159</v>
       </c>
-      <c r="B30"/>
-      <c r="C30" s="331" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="361"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="335"/>
-      <c r="P30" s="230"/>
-      <c r="Q30" s="231"/>
-      <c r="S30" s="336"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="M30" s="3"/>
+      <c r="N30" s="335"/>
+      <c r="Q30" s="230"/>
+      <c r="R30" s="231"/>
+      <c r="T30" s="336"/>
+    </row>
+    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="241" t="s">
         <v>160</v>
       </c>
-      <c r="B31"/>
-      <c r="C31" s="331" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E31" s="229"/>
-      <c r="F31" s="230"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="361"/>
+      <c r="F31" s="229"/>
       <c r="G31" s="230"/>
-      <c r="I31" s="230"/>
+      <c r="H31" s="230"/>
       <c r="J31" s="230"/>
       <c r="K31" s="230"/>
-      <c r="L31" s="240"/>
-      <c r="M31" s="335"/>
-      <c r="P31" s="240"/>
-      <c r="Q31" s="231"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.4">
+      <c r="L31" s="230"/>
+      <c r="M31" s="240"/>
+      <c r="N31" s="335"/>
+      <c r="Q31" s="240"/>
+      <c r="R31" s="231"/>
+    </row>
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="241" t="s">
         <v>161</v>
       </c>
-      <c r="B32"/>
-      <c r="C32" s="331" t="s">
-        <v>523</v>
-      </c>
-      <c r="D32" s="336"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="230"/>
-      <c r="G32" s="240"/>
-      <c r="I32" s="230"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="361"/>
+      <c r="E32" s="336"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="230"/>
+      <c r="H32" s="240"/>
       <c r="J32" s="230"/>
-      <c r="K32" s="240"/>
+      <c r="K32" s="230"/>
       <c r="L32" s="240"/>
-      <c r="M32" s="335"/>
-      <c r="P32" s="240"/>
-      <c r="Q32" s="49"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M32" s="240"/>
+      <c r="N32" s="335"/>
+      <c r="Q32" s="240"/>
+      <c r="R32" s="49"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="241" t="s">
         <v>162</v>
       </c>
-      <c r="B33"/>
-      <c r="C33" s="331" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E33" s="229"/>
-      <c r="F33" s="230"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="361"/>
+      <c r="F33" s="229"/>
       <c r="G33" s="230"/>
-      <c r="H33" s="231"/>
-      <c r="I33" s="230"/>
+      <c r="H33" s="230"/>
+      <c r="I33" s="231"/>
       <c r="J33" s="230"/>
       <c r="K33" s="230"/>
       <c r="L33" s="230"/>
-      <c r="M33" s="335"/>
-      <c r="P33" s="240"/>
-      <c r="Q33" s="49"/>
-    </row>
-    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M33" s="230"/>
+      <c r="N33" s="335"/>
+      <c r="Q33" s="240"/>
+      <c r="R33" s="49"/>
+    </row>
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="241" t="s">
         <v>163</v>
       </c>
-      <c r="B34"/>
-      <c r="G34" s="230"/>
-      <c r="H34" s="231"/>
-      <c r="I34" s="240"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="361"/>
+      <c r="H34" s="230"/>
+      <c r="I34" s="231"/>
       <c r="J34" s="240"/>
-      <c r="K34" s="230"/>
+      <c r="K34" s="240"/>
       <c r="L34" s="230"/>
-      <c r="M34" s="335"/>
-      <c r="P34" s="240"/>
-      <c r="Q34" s="49"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M34" s="230"/>
+      <c r="N34" s="335"/>
+      <c r="Q34" s="240"/>
+      <c r="R34" s="49"/>
+    </row>
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="241" t="s">
         <v>164</v>
       </c>
-      <c r="B35"/>
-      <c r="C35" s="335"/>
-      <c r="G35" s="240"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="240"/>
+      <c r="B35" s="241"/>
+      <c r="C35" s="361"/>
+      <c r="D35" s="335"/>
+      <c r="H35" s="240"/>
+      <c r="I35" s="231"/>
       <c r="J35" s="240"/>
       <c r="K35" s="240"/>
-      <c r="L35" s="230"/>
-      <c r="M35" s="335"/>
-      <c r="P35" s="240"/>
-      <c r="Q35" s="49"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="L35" s="240"/>
+      <c r="M35" s="230"/>
+      <c r="N35" s="335"/>
+      <c r="Q35" s="240"/>
+      <c r="R35" s="49"/>
+    </row>
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="241" t="s">
         <v>165</v>
       </c>
-      <c r="B36"/>
-      <c r="C36" s="331" t="s">
+      <c r="B36" s="241"/>
+      <c r="C36" s="361"/>
+      <c r="D36" s="331" t="s">
         <v>1029</v>
       </c>
-      <c r="D36" s="333" t="s">
+      <c r="E36" s="333" t="s">
         <v>916</v>
       </c>
-      <c r="G36" s="240"/>
-      <c r="I36" s="230"/>
+      <c r="H36" s="240"/>
       <c r="J36" s="230"/>
       <c r="K36" s="230"/>
       <c r="L36" s="230"/>
-      <c r="M36" s="335"/>
-      <c r="P36" s="240"/>
-      <c r="Q36" s="49"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M36" s="230"/>
+      <c r="N36" s="335"/>
+      <c r="Q36" s="240"/>
+      <c r="R36" s="49"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="241" t="s">
         <v>166</v>
       </c>
-      <c r="B37"/>
-      <c r="C37" s="331" t="s">
+      <c r="B37" s="241"/>
+      <c r="C37" s="361"/>
+      <c r="D37" s="331" t="s">
         <v>1030</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="335"/>
-      <c r="P37" s="240"/>
-      <c r="Q37" s="49"/>
-    </row>
-    <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M37" s="3"/>
+      <c r="N37" s="335"/>
+      <c r="Q37" s="240"/>
+      <c r="R37" s="49"/>
+    </row>
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="241" t="s">
         <v>167</v>
       </c>
-      <c r="B38"/>
-      <c r="C38" s="331" t="s">
+      <c r="B38" s="241"/>
+      <c r="C38" s="361"/>
+      <c r="D38" s="331" t="s">
         <v>1031</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="335"/>
-      <c r="N38" s="238"/>
-      <c r="O38" s="226"/>
-      <c r="P38" s="235"/>
-      <c r="Q38" s="76"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M38" s="3"/>
+      <c r="N38" s="335"/>
+      <c r="O38" s="238"/>
+      <c r="P38" s="226"/>
+      <c r="Q38" s="235"/>
+      <c r="R38" s="76"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="241" t="s">
         <v>287</v>
       </c>
-      <c r="B39"/>
-      <c r="C39" s="331" t="s">
+      <c r="B39" s="241"/>
+      <c r="C39" s="361"/>
+      <c r="D39" s="331" t="s">
         <v>1099</v>
       </c>
-      <c r="E39" s="229"/>
-      <c r="F39" s="230"/>
+      <c r="F39" s="229"/>
       <c r="G39" s="230"/>
-      <c r="H39" s="231"/>
-      <c r="I39" s="230"/>
+      <c r="H39" s="230"/>
+      <c r="I39" s="231"/>
       <c r="J39" s="230"/>
       <c r="K39" s="230"/>
-      <c r="L39" s="240"/>
-      <c r="M39" s="335"/>
-      <c r="N39" s="227"/>
-      <c r="O39" s="235"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="239"/>
-    </row>
-    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="L39" s="230"/>
+      <c r="M39" s="240"/>
+      <c r="N39" s="335"/>
+      <c r="O39" s="227"/>
+      <c r="P39" s="235"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="239"/>
+    </row>
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="241" t="s">
         <v>288</v>
       </c>
-      <c r="B40"/>
-      <c r="C40" s="331" t="s">
+      <c r="B40" s="241"/>
+      <c r="C40" s="361"/>
+      <c r="D40" s="331" t="s">
         <v>1032</v>
       </c>
-      <c r="E40" s="229"/>
-      <c r="F40" s="230"/>
+      <c r="F40" s="229"/>
       <c r="G40" s="230"/>
-      <c r="H40" s="231"/>
-      <c r="I40" s="230"/>
+      <c r="H40" s="230"/>
+      <c r="I40" s="231"/>
       <c r="J40" s="230"/>
-      <c r="K40" s="240"/>
+      <c r="K40" s="230"/>
       <c r="L40" s="240"/>
-      <c r="M40" s="335"/>
-      <c r="N40" s="238"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="235"/>
-      <c r="Q40" s="239"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M40" s="240"/>
+      <c r="N40" s="335"/>
+      <c r="O40" s="238"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="235"/>
+      <c r="R40" s="239"/>
+    </row>
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="241" t="s">
         <v>289</v>
       </c>
-      <c r="B41"/>
-      <c r="E41" s="229"/>
-      <c r="F41" s="230"/>
+      <c r="B41" s="241"/>
+      <c r="C41" s="361"/>
+      <c r="F41" s="229"/>
       <c r="G41" s="230"/>
-      <c r="H41" s="231"/>
-      <c r="I41" s="230"/>
+      <c r="H41" s="230"/>
+      <c r="I41" s="231"/>
       <c r="J41" s="230"/>
       <c r="K41" s="230"/>
       <c r="L41" s="230"/>
-      <c r="M41" s="335"/>
-      <c r="P41" s="240"/>
-      <c r="Q41" s="49"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M41" s="230"/>
+      <c r="N41" s="335"/>
+      <c r="Q41" s="240"/>
+      <c r="R41" s="49"/>
+    </row>
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="241" t="s">
         <v>290</v>
       </c>
-      <c r="B42"/>
-      <c r="C42" s="335"/>
-      <c r="E42" s="229"/>
-      <c r="F42" s="230"/>
+      <c r="B42" s="241"/>
+      <c r="C42" s="361"/>
+      <c r="D42" s="335"/>
+      <c r="F42" s="229"/>
       <c r="G42" s="230"/>
-      <c r="H42" s="231"/>
-      <c r="I42" s="240"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="231"/>
       <c r="J42" s="240"/>
-      <c r="K42" s="230"/>
+      <c r="K42" s="240"/>
       <c r="L42" s="230"/>
-      <c r="M42" s="335"/>
-      <c r="P42" s="240"/>
-      <c r="Q42" s="49"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M42" s="230"/>
+      <c r="N42" s="335"/>
+      <c r="Q42" s="240"/>
+      <c r="R42" s="49"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="241" t="s">
         <v>291</v>
       </c>
-      <c r="B43"/>
-      <c r="C43" s="331" t="s">
+      <c r="B43" s="241"/>
+      <c r="C43" s="361"/>
+      <c r="D43" s="331" t="s">
         <v>1034</v>
       </c>
-      <c r="D43" s="333" t="s">
+      <c r="E43" s="333" t="s">
         <v>1033</v>
       </c>
-      <c r="E43" s="229"/>
-      <c r="G43" s="230"/>
-      <c r="H43" s="231"/>
-      <c r="I43" s="240"/>
+      <c r="F43" s="229"/>
+      <c r="H43" s="230"/>
+      <c r="I43" s="231"/>
       <c r="J43" s="240"/>
-      <c r="K43" s="230"/>
+      <c r="K43" s="240"/>
       <c r="L43" s="230"/>
-      <c r="M43" s="335"/>
-      <c r="P43" s="240"/>
-      <c r="Q43" s="49"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M43" s="230"/>
+      <c r="N43" s="335"/>
+      <c r="Q43" s="240"/>
+      <c r="R43" s="49"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="241" t="s">
         <v>292</v>
       </c>
-      <c r="B44"/>
-      <c r="C44" s="331" t="s">
+      <c r="B44" s="241"/>
+      <c r="C44" s="361"/>
+      <c r="D44" s="331" t="s">
         <v>1035</v>
       </c>
-      <c r="E44" s="229"/>
-      <c r="F44" s="230"/>
+      <c r="F44" s="229"/>
       <c r="G44" s="230"/>
-      <c r="I44" s="240"/>
+      <c r="H44" s="230"/>
       <c r="J44" s="240"/>
       <c r="K44" s="240"/>
       <c r="L44" s="240"/>
-      <c r="P44" s="240"/>
-      <c r="Q44" s="49"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M44" s="240"/>
+      <c r="Q44" s="240"/>
+      <c r="R44" s="49"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="241" t="s">
         <v>293</v>
       </c>
-      <c r="B45"/>
-      <c r="C45" s="331" t="s">
+      <c r="B45" s="241"/>
+      <c r="C45" s="361"/>
+      <c r="D45" s="331" t="s">
         <v>1036</v>
       </c>
-      <c r="E45" s="229"/>
-      <c r="F45" s="230"/>
-      <c r="G45" s="240"/>
-      <c r="I45" s="3"/>
+      <c r="F45" s="229"/>
+      <c r="G45" s="230"/>
+      <c r="H45" s="240"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="P45" s="240"/>
-      <c r="Q45" s="49"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M45" s="3"/>
+      <c r="Q45" s="240"/>
+      <c r="R45" s="49"/>
+    </row>
+    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="241" t="s">
         <v>294</v>
       </c>
-      <c r="B46"/>
-      <c r="C46" s="331" t="s">
+      <c r="B46" s="241"/>
+      <c r="C46" s="361"/>
+      <c r="D46" s="331" t="s">
         <v>1099</v>
       </c>
-      <c r="E46" s="229"/>
-      <c r="F46" s="230"/>
+      <c r="F46" s="229"/>
       <c r="G46" s="230"/>
-      <c r="H46" s="231"/>
-      <c r="I46" s="3"/>
+      <c r="H46" s="230"/>
+      <c r="I46" s="231"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="P46" s="240"/>
-      <c r="Q46" s="49"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M46" s="3"/>
+      <c r="Q46" s="240"/>
+      <c r="R46" s="49"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="241" t="s">
         <v>295</v>
       </c>
-      <c r="B47"/>
-      <c r="C47" s="331" t="s">
+      <c r="B47" s="241"/>
+      <c r="C47" s="361"/>
+      <c r="D47" s="331" t="s">
         <v>1032</v>
       </c>
-      <c r="G47" s="230"/>
-      <c r="H47" s="231"/>
-      <c r="I47" s="3"/>
+      <c r="H47" s="230"/>
+      <c r="I47" s="231"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="P47" s="240"/>
-      <c r="Q47" s="49"/>
-    </row>
-    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M47" s="3"/>
+      <c r="Q47" s="240"/>
+      <c r="R47" s="49"/>
+    </row>
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="241" t="s">
         <v>296</v>
       </c>
-      <c r="B48"/>
-      <c r="G48" s="240"/>
-      <c r="H48" s="231"/>
-      <c r="I48" s="3"/>
+      <c r="B48" s="241"/>
+      <c r="C48" s="361"/>
+      <c r="H48" s="240"/>
+      <c r="I48" s="231"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="P48" s="240"/>
-      <c r="Q48" s="49"/>
-    </row>
-    <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M48" s="3"/>
+      <c r="Q48" s="240"/>
+      <c r="R48" s="49"/>
+    </row>
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="241" t="s">
         <v>297</v>
       </c>
-      <c r="B49"/>
-      <c r="E49" s="229"/>
-      <c r="F49" s="230"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="3"/>
+      <c r="B49" s="241"/>
+      <c r="C49" s="361"/>
+      <c r="F49" s="229"/>
+      <c r="G49" s="230"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="4"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="P49" s="240"/>
-      <c r="Q49" s="49"/>
-    </row>
-    <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M49" s="3"/>
+      <c r="Q49" s="240"/>
+      <c r="R49" s="49"/>
+    </row>
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="241" t="s">
         <v>298</v>
       </c>
-      <c r="B50"/>
-      <c r="C50" s="331" t="s">
+      <c r="B50" s="241"/>
+      <c r="C50" s="361"/>
+      <c r="D50" s="331" t="s">
         <v>1008</v>
       </c>
-      <c r="E50" s="229"/>
-      <c r="F50" s="230"/>
+      <c r="F50" s="229"/>
       <c r="G50" s="230"/>
-      <c r="H50" s="231"/>
-      <c r="I50" s="240"/>
+      <c r="H50" s="230"/>
+      <c r="I50" s="231"/>
       <c r="J50" s="240"/>
       <c r="K50" s="240"/>
       <c r="L50" s="240"/>
-      <c r="P50" s="240"/>
-      <c r="Q50" s="49"/>
-    </row>
-    <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M50" s="240"/>
+      <c r="Q50" s="240"/>
+      <c r="R50" s="49"/>
+    </row>
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="241" t="s">
         <v>299</v>
       </c>
-      <c r="B51"/>
-      <c r="C51" s="331" t="s">
+      <c r="B51" s="241"/>
+      <c r="C51" s="361"/>
+      <c r="D51" s="331" t="s">
         <v>1009</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="230"/>
-      <c r="H51" s="231"/>
-      <c r="I51" s="240"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="230"/>
+      <c r="I51" s="231"/>
       <c r="J51" s="240"/>
       <c r="K51" s="240"/>
       <c r="L51" s="240"/>
-      <c r="P51" s="240"/>
-      <c r="Q51" s="49"/>
-    </row>
-    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M51" s="240"/>
+      <c r="Q51" s="240"/>
+      <c r="R51" s="49"/>
+    </row>
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="241" t="s">
         <v>300</v>
       </c>
-      <c r="B52"/>
-      <c r="C52" s="331" t="s">
+      <c r="B52" s="241"/>
+      <c r="C52" s="361"/>
+      <c r="D52" s="331" t="s">
         <v>1010</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="231"/>
-      <c r="I52" s="240"/>
+      <c r="F52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="231"/>
       <c r="J52" s="240"/>
       <c r="K52" s="240"/>
       <c r="L52" s="240"/>
-      <c r="P52" s="240"/>
-      <c r="Q52" s="49"/>
-    </row>
-    <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M52" s="240"/>
+      <c r="Q52" s="240"/>
+      <c r="R52" s="49"/>
+    </row>
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="241" t="s">
         <v>301</v>
       </c>
-      <c r="B53"/>
-      <c r="C53" s="331" t="s">
+      <c r="B53" s="241"/>
+      <c r="C53" s="361"/>
+      <c r="D53" s="331" t="s">
         <v>1011</v>
       </c>
-      <c r="E53" s="229"/>
-      <c r="G53" s="240"/>
-      <c r="I53" s="240"/>
+      <c r="F53" s="229"/>
+      <c r="H53" s="240"/>
       <c r="J53" s="240"/>
       <c r="K53" s="240"/>
       <c r="L53" s="240"/>
-      <c r="P53" s="240"/>
-      <c r="Q53" s="49"/>
-    </row>
-    <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M53" s="240"/>
+      <c r="Q53" s="240"/>
+      <c r="R53" s="49"/>
+    </row>
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="241" t="s">
         <v>302</v>
       </c>
-      <c r="B54"/>
-      <c r="C54" s="331" t="s">
+      <c r="B54" s="241"/>
+      <c r="C54" s="361"/>
+      <c r="D54" s="331" t="s">
         <v>1012</v>
       </c>
-      <c r="E54" s="229"/>
-      <c r="F54" s="230"/>
+      <c r="F54" s="229"/>
       <c r="G54" s="230"/>
-      <c r="H54" s="231"/>
-      <c r="I54" s="230"/>
+      <c r="H54" s="230"/>
+      <c r="I54" s="231"/>
       <c r="J54" s="230"/>
-      <c r="K54" s="240"/>
+      <c r="K54" s="230"/>
       <c r="L54" s="240"/>
-      <c r="P54" s="240"/>
-      <c r="Q54" s="49"/>
-    </row>
-    <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M54" s="240"/>
+      <c r="Q54" s="240"/>
+      <c r="R54" s="49"/>
+    </row>
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="241" t="s">
         <v>303</v>
       </c>
-      <c r="B55"/>
-      <c r="E55" s="229"/>
-      <c r="F55" s="230"/>
+      <c r="B55" s="241"/>
+      <c r="C55" s="361"/>
+      <c r="F55" s="229"/>
       <c r="G55" s="230"/>
-      <c r="H55" s="231"/>
-      <c r="I55" s="230"/>
+      <c r="H55" s="230"/>
+      <c r="I55" s="231"/>
       <c r="J55" s="230"/>
-      <c r="K55" s="240"/>
+      <c r="K55" s="230"/>
       <c r="L55" s="240"/>
-      <c r="P55" s="240"/>
-      <c r="Q55" s="49"/>
-    </row>
-    <row r="56" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M55" s="240"/>
+      <c r="Q55" s="240"/>
+      <c r="R55" s="49"/>
+    </row>
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="241" t="s">
         <v>304</v>
       </c>
-      <c r="B56"/>
-      <c r="E56" s="229"/>
-      <c r="F56" s="230"/>
+      <c r="B56" s="241"/>
+      <c r="C56" s="361"/>
+      <c r="F56" s="229"/>
       <c r="G56" s="230"/>
-      <c r="H56" s="231"/>
-      <c r="I56" s="230"/>
+      <c r="H56" s="230"/>
+      <c r="I56" s="231"/>
       <c r="J56" s="230"/>
       <c r="K56" s="230"/>
-      <c r="L56" s="240"/>
-      <c r="P56" s="240"/>
-      <c r="Q56" s="49"/>
-    </row>
-    <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="L56" s="230"/>
+      <c r="M56" s="240"/>
+      <c r="Q56" s="240"/>
+      <c r="R56" s="49"/>
+    </row>
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="241" t="s">
         <v>305</v>
       </c>
-      <c r="B57"/>
-      <c r="E57" s="229"/>
-      <c r="F57" s="230"/>
+      <c r="B57" s="241"/>
+      <c r="C57" s="361"/>
+      <c r="F57" s="229"/>
       <c r="G57" s="230"/>
-      <c r="H57" s="231"/>
-      <c r="I57" s="240"/>
+      <c r="H57" s="230"/>
+      <c r="I57" s="231"/>
       <c r="J57" s="240"/>
-      <c r="K57" s="230"/>
+      <c r="K57" s="240"/>
       <c r="L57" s="230"/>
-      <c r="P57" s="240"/>
-      <c r="Q57" s="49"/>
-    </row>
-    <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M57" s="230"/>
+      <c r="Q57" s="240"/>
+      <c r="R57" s="49"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="241" t="s">
         <v>306</v>
       </c>
-      <c r="B58"/>
-      <c r="E58" s="229"/>
-      <c r="G58" s="230"/>
-      <c r="H58" s="231"/>
-      <c r="I58" s="240"/>
+      <c r="B58" s="241"/>
+      <c r="C58" s="361"/>
+      <c r="F58" s="229"/>
+      <c r="H58" s="230"/>
+      <c r="I58" s="231"/>
       <c r="J58" s="240"/>
       <c r="K58" s="240"/>
-      <c r="L58" s="230"/>
-      <c r="P58" s="240"/>
-      <c r="Q58" s="49"/>
-    </row>
-    <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="L58" s="240"/>
+      <c r="M58" s="230"/>
+      <c r="Q58" s="240"/>
+      <c r="R58" s="49"/>
+    </row>
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="241" t="s">
         <v>307</v>
       </c>
-      <c r="B59"/>
-      <c r="G59" s="240"/>
-      <c r="I59" s="230"/>
+      <c r="B59" s="241"/>
+      <c r="C59" s="361"/>
+      <c r="H59" s="240"/>
       <c r="J59" s="230"/>
       <c r="K59" s="230"/>
       <c r="L59" s="230"/>
-      <c r="P59" s="240"/>
-      <c r="Q59" s="49"/>
-    </row>
-    <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M59" s="230"/>
+      <c r="Q59" s="240"/>
+      <c r="R59" s="49"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="241" t="s">
         <v>308</v>
       </c>
-      <c r="B60"/>
-      <c r="G60" s="240"/>
-      <c r="I60" s="240"/>
+      <c r="B60" s="241"/>
+      <c r="C60" s="361"/>
+      <c r="H60" s="240"/>
       <c r="J60" s="240"/>
       <c r="K60" s="240"/>
       <c r="L60" s="240"/>
-      <c r="P60" s="240"/>
-      <c r="Q60" s="49"/>
-    </row>
-    <row r="61" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M60" s="240"/>
+      <c r="Q60" s="240"/>
+      <c r="R60" s="49"/>
+    </row>
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="241" t="s">
         <v>309</v>
       </c>
-      <c r="B61"/>
-      <c r="G61" s="240"/>
-      <c r="I61" s="240"/>
+      <c r="B61" s="241"/>
+      <c r="C61" s="361"/>
+      <c r="H61" s="240"/>
       <c r="J61" s="240"/>
       <c r="K61" s="240"/>
       <c r="L61" s="240"/>
-      <c r="P61" s="240"/>
-      <c r="Q61" s="231"/>
-    </row>
-    <row r="62" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M61" s="240"/>
+      <c r="Q61" s="240"/>
+      <c r="R61" s="231"/>
+    </row>
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="241" t="s">
         <v>310</v>
       </c>
-      <c r="B62"/>
-      <c r="G62" s="240"/>
-      <c r="I62" s="240"/>
+      <c r="B62" s="241"/>
+      <c r="C62" s="361"/>
+      <c r="H62" s="240"/>
       <c r="J62" s="240"/>
       <c r="K62" s="240"/>
       <c r="L62" s="240"/>
-      <c r="P62" s="230"/>
-      <c r="Q62" s="231"/>
-    </row>
-    <row r="63" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M62" s="240"/>
+      <c r="Q62" s="230"/>
+      <c r="R62" s="231"/>
+    </row>
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="241" t="s">
         <v>311</v>
       </c>
-      <c r="B63"/>
-      <c r="G63" s="240"/>
-      <c r="I63" s="240"/>
+      <c r="B63" s="241"/>
+      <c r="C63" s="361"/>
+      <c r="H63" s="240"/>
       <c r="J63" s="240"/>
       <c r="K63" s="240"/>
       <c r="L63" s="240"/>
-      <c r="O63" s="230"/>
+      <c r="M63" s="240"/>
       <c r="P63" s="230"/>
-      <c r="Q63" s="231"/>
-    </row>
-    <row r="64" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q63" s="230"/>
+      <c r="R63" s="231"/>
+    </row>
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="241" t="s">
         <v>312</v>
       </c>
-      <c r="B64"/>
-      <c r="G64" s="240"/>
-      <c r="I64" s="240"/>
+      <c r="B64" s="241"/>
+      <c r="C64" s="361"/>
+      <c r="H64" s="240"/>
       <c r="J64" s="240"/>
       <c r="K64" s="240"/>
       <c r="L64" s="240"/>
-      <c r="N64" s="229"/>
-      <c r="O64" s="230"/>
+      <c r="M64" s="240"/>
+      <c r="O64" s="229"/>
       <c r="P64" s="230"/>
-      <c r="Q64" s="231"/>
-    </row>
-    <row r="65" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q64" s="230"/>
+      <c r="R64" s="231"/>
+    </row>
+    <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="241" t="s">
         <v>313</v>
       </c>
-      <c r="B65"/>
-      <c r="G65" s="240"/>
-      <c r="I65" s="240"/>
+      <c r="B65" s="241"/>
+      <c r="C65" s="361"/>
+      <c r="H65" s="240"/>
       <c r="J65" s="240"/>
       <c r="K65" s="240"/>
       <c r="L65" s="240"/>
-      <c r="N65" s="229"/>
-      <c r="O65" s="230"/>
+      <c r="M65" s="240"/>
+      <c r="O65" s="229"/>
       <c r="P65" s="230"/>
-      <c r="Q65" s="231"/>
-    </row>
-    <row r="66" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q65" s="230"/>
+      <c r="R65" s="231"/>
+    </row>
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="241" t="s">
         <v>314</v>
       </c>
-      <c r="B66"/>
-      <c r="E66" s="229"/>
-      <c r="G66" s="240"/>
-      <c r="I66" s="240"/>
+      <c r="B66" s="241"/>
+      <c r="C66" s="361"/>
+      <c r="F66" s="229"/>
+      <c r="H66" s="240"/>
       <c r="J66" s="240"/>
       <c r="K66" s="240"/>
       <c r="L66" s="240"/>
-      <c r="N66" s="229"/>
-      <c r="O66" s="230"/>
+      <c r="M66" s="240"/>
+      <c r="O66" s="229"/>
       <c r="P66" s="230"/>
-      <c r="Q66" s="231"/>
-    </row>
-    <row r="67" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q66" s="230"/>
+      <c r="R66" s="231"/>
+    </row>
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="241" t="s">
         <v>315</v>
       </c>
-      <c r="B67"/>
-      <c r="E67" s="229"/>
-      <c r="F67" s="230"/>
+      <c r="B67" s="241"/>
+      <c r="C67" s="361"/>
+      <c r="F67" s="229"/>
       <c r="G67" s="230"/>
-      <c r="H67" s="231"/>
-      <c r="I67" s="230"/>
+      <c r="H67" s="230"/>
+      <c r="I67" s="231"/>
       <c r="J67" s="230"/>
-      <c r="K67" s="240"/>
+      <c r="K67" s="230"/>
       <c r="L67" s="240"/>
-      <c r="N67" s="229"/>
-      <c r="O67" s="230"/>
+      <c r="M67" s="240"/>
+      <c r="O67" s="229"/>
       <c r="P67" s="230"/>
-      <c r="Q67" s="231"/>
-    </row>
-    <row r="68" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q67" s="230"/>
+      <c r="R67" s="231"/>
+    </row>
+    <row r="68" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="241" t="s">
         <v>316</v>
       </c>
-      <c r="B68"/>
-      <c r="E68" s="229"/>
-      <c r="F68" s="230"/>
+      <c r="B68" s="241"/>
+      <c r="C68" s="361"/>
+      <c r="F68" s="229"/>
       <c r="G68" s="230"/>
-      <c r="H68" s="231"/>
-      <c r="I68" s="230"/>
+      <c r="H68" s="230"/>
+      <c r="I68" s="231"/>
       <c r="J68" s="230"/>
-      <c r="K68" s="240"/>
+      <c r="K68" s="230"/>
       <c r="L68" s="240"/>
-      <c r="N68" s="229"/>
-      <c r="O68" s="230"/>
+      <c r="M68" s="240"/>
+      <c r="O68" s="229"/>
       <c r="P68" s="230"/>
-      <c r="Q68" s="49"/>
-    </row>
-    <row r="69" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q68" s="230"/>
+      <c r="R68" s="49"/>
+    </row>
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="241" t="s">
         <v>317</v>
       </c>
-      <c r="B69"/>
-      <c r="E69" s="229"/>
-      <c r="F69" s="230"/>
+      <c r="B69" s="241"/>
+      <c r="C69" s="361"/>
+      <c r="F69" s="229"/>
       <c r="G69" s="230"/>
-      <c r="H69" s="231"/>
-      <c r="I69" s="230"/>
+      <c r="H69" s="230"/>
+      <c r="I69" s="231"/>
       <c r="J69" s="230"/>
       <c r="K69" s="230"/>
-      <c r="L69" s="240"/>
-      <c r="P69" s="240"/>
-      <c r="Q69" s="49"/>
-    </row>
-    <row r="70" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="L69" s="230"/>
+      <c r="M69" s="240"/>
+      <c r="Q69" s="240"/>
+      <c r="R69" s="49"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="241" t="s">
         <v>318</v>
       </c>
-      <c r="B70"/>
-      <c r="E70" s="229"/>
-      <c r="F70" s="230"/>
+      <c r="B70" s="241"/>
+      <c r="C70" s="361"/>
+      <c r="F70" s="229"/>
       <c r="G70" s="230"/>
-      <c r="H70" s="231"/>
-      <c r="I70" s="240"/>
+      <c r="H70" s="230"/>
+      <c r="I70" s="231"/>
       <c r="J70" s="240"/>
-      <c r="K70" s="230"/>
+      <c r="K70" s="240"/>
       <c r="L70" s="230"/>
-      <c r="P70" s="240"/>
-      <c r="Q70" s="49"/>
-    </row>
-    <row r="71" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M70" s="230"/>
+      <c r="Q70" s="240"/>
+      <c r="R70" s="49"/>
+    </row>
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="241" t="s">
         <v>319</v>
       </c>
-      <c r="B71"/>
-      <c r="E71" s="229"/>
-      <c r="G71" s="230"/>
-      <c r="H71" s="231"/>
-      <c r="I71" s="240"/>
+      <c r="B71" s="241"/>
+      <c r="C71" s="361"/>
+      <c r="F71" s="229"/>
+      <c r="H71" s="230"/>
+      <c r="I71" s="231"/>
       <c r="J71" s="240"/>
       <c r="K71" s="240"/>
-      <c r="L71" s="230"/>
-      <c r="P71" s="240"/>
-      <c r="Q71" s="49"/>
-    </row>
-    <row r="72" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="L71" s="240"/>
+      <c r="M71" s="230"/>
+      <c r="Q71" s="240"/>
+      <c r="R71" s="49"/>
+    </row>
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="241" t="s">
         <v>320</v>
       </c>
-      <c r="B72"/>
-      <c r="G72" s="240"/>
-      <c r="I72" s="230"/>
+      <c r="B72" s="241"/>
+      <c r="C72" s="361"/>
+      <c r="H72" s="240"/>
       <c r="J72" s="230"/>
       <c r="K72" s="230"/>
       <c r="L72" s="230"/>
-      <c r="P72" s="240"/>
-      <c r="Q72" s="49"/>
-    </row>
-    <row r="73" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M72" s="230"/>
+      <c r="Q72" s="240"/>
+      <c r="R72" s="49"/>
+    </row>
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="241" t="s">
         <v>321</v>
       </c>
-      <c r="B73"/>
-      <c r="G73" s="240"/>
-      <c r="I73" s="240"/>
+      <c r="B73" s="241"/>
+      <c r="C73" s="361"/>
+      <c r="H73" s="240"/>
       <c r="J73" s="240"/>
       <c r="K73" s="240"/>
       <c r="L73" s="240"/>
-      <c r="P73" s="240"/>
-      <c r="Q73" s="49"/>
-    </row>
-    <row r="74" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M73" s="240"/>
+      <c r="Q73" s="240"/>
+      <c r="R73" s="49"/>
+    </row>
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="241" t="s">
         <v>322</v>
       </c>
-      <c r="B74"/>
-      <c r="G74" s="240"/>
-      <c r="I74" s="240"/>
+      <c r="B74" s="241"/>
+      <c r="C74" s="361"/>
+      <c r="H74" s="240"/>
       <c r="J74" s="240"/>
       <c r="K74" s="240"/>
       <c r="L74" s="240"/>
-      <c r="P74" s="240"/>
-      <c r="Q74" s="231"/>
-    </row>
-    <row r="75" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M74" s="240"/>
+      <c r="Q74" s="240"/>
+      <c r="R74" s="231"/>
+    </row>
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="241" t="s">
         <v>323</v>
       </c>
-      <c r="B75"/>
-      <c r="G75" s="240"/>
-      <c r="I75" s="240"/>
+      <c r="B75" s="241"/>
+      <c r="C75" s="361"/>
+      <c r="H75" s="240"/>
       <c r="J75" s="240"/>
       <c r="K75" s="240"/>
       <c r="L75" s="240"/>
-      <c r="P75" s="230"/>
-      <c r="Q75" s="231"/>
-    </row>
-    <row r="76" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M75" s="240"/>
+      <c r="Q75" s="230"/>
+      <c r="R75" s="231"/>
+    </row>
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="241" t="s">
         <v>324</v>
       </c>
-      <c r="B76"/>
-      <c r="G76" s="240"/>
-      <c r="I76" s="240"/>
+      <c r="B76" s="241"/>
+      <c r="C76" s="361"/>
+      <c r="H76" s="240"/>
       <c r="J76" s="240"/>
       <c r="K76" s="240"/>
       <c r="L76" s="240"/>
-      <c r="O76" s="230"/>
+      <c r="M76" s="240"/>
       <c r="P76" s="230"/>
-      <c r="Q76" s="231"/>
-    </row>
-    <row r="77" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q76" s="230"/>
+      <c r="R76" s="231"/>
+    </row>
+    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="241" t="s">
         <v>325</v>
       </c>
-      <c r="B77"/>
-      <c r="G77" s="240"/>
-      <c r="I77" s="240"/>
+      <c r="B77" s="241"/>
+      <c r="C77" s="361"/>
+      <c r="H77" s="240"/>
       <c r="J77" s="240"/>
       <c r="K77" s="240"/>
       <c r="L77" s="240"/>
-      <c r="N77" s="229"/>
-      <c r="O77" s="230"/>
+      <c r="M77" s="240"/>
+      <c r="O77" s="229"/>
       <c r="P77" s="230"/>
-      <c r="Q77" s="231"/>
-    </row>
-    <row r="78" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q77" s="230"/>
+      <c r="R77" s="231"/>
+    </row>
+    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="241" t="s">
         <v>326</v>
       </c>
-      <c r="B78"/>
-      <c r="G78" s="240"/>
-      <c r="I78" s="240"/>
+      <c r="B78" s="241"/>
+      <c r="C78" s="361"/>
+      <c r="H78" s="240"/>
       <c r="J78" s="240"/>
       <c r="K78" s="240"/>
       <c r="L78" s="240"/>
-      <c r="N78" s="229"/>
-      <c r="O78" s="230"/>
+      <c r="M78" s="240"/>
+      <c r="O78" s="229"/>
       <c r="P78" s="230"/>
-      <c r="Q78" s="231"/>
-    </row>
-    <row r="79" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q78" s="230"/>
+      <c r="R78" s="231"/>
+    </row>
+    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="241" t="s">
         <v>327</v>
       </c>
-      <c r="B79"/>
-      <c r="E79" s="229"/>
-      <c r="G79" s="240"/>
-      <c r="I79" s="240"/>
+      <c r="B79" s="241"/>
+      <c r="C79" s="361"/>
+      <c r="F79" s="229"/>
+      <c r="H79" s="240"/>
       <c r="J79" s="240"/>
       <c r="K79" s="240"/>
       <c r="L79" s="240"/>
-      <c r="N79" s="229"/>
-      <c r="O79" s="230"/>
+      <c r="M79" s="240"/>
+      <c r="O79" s="229"/>
       <c r="P79" s="230"/>
-      <c r="Q79" s="231"/>
-    </row>
-    <row r="80" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q79" s="230"/>
+      <c r="R79" s="231"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="241" t="s">
         <v>328</v>
       </c>
-      <c r="B80"/>
-      <c r="E80" s="229"/>
-      <c r="F80" s="230"/>
+      <c r="B80" s="241"/>
+      <c r="C80" s="361"/>
+      <c r="F80" s="229"/>
       <c r="G80" s="230"/>
-      <c r="H80" s="231"/>
-      <c r="I80" s="230"/>
+      <c r="H80" s="230"/>
+      <c r="I80" s="231"/>
       <c r="J80" s="230"/>
-      <c r="K80" s="240"/>
+      <c r="K80" s="230"/>
       <c r="L80" s="240"/>
-      <c r="N80" s="229"/>
-      <c r="O80" s="230"/>
+      <c r="M80" s="240"/>
+      <c r="O80" s="229"/>
       <c r="P80" s="230"/>
-      <c r="Q80" s="231"/>
-    </row>
-    <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="Q80" s="230"/>
+      <c r="R80" s="231"/>
+    </row>
+    <row r="81" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="241"/>
-      <c r="B81"/>
-      <c r="E81" s="229"/>
-      <c r="F81" s="230"/>
+      <c r="B81" s="241"/>
+      <c r="C81" s="361"/>
+      <c r="F81" s="229"/>
       <c r="G81" s="230"/>
-      <c r="H81" s="231"/>
-      <c r="I81" s="230"/>
+      <c r="H81" s="230"/>
+      <c r="I81" s="231"/>
       <c r="J81" s="230"/>
-      <c r="K81" s="240"/>
+      <c r="K81" s="230"/>
       <c r="L81" s="240"/>
-      <c r="P81" s="240"/>
-      <c r="Q81" s="49"/>
-    </row>
-    <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M81" s="240"/>
+      <c r="Q81" s="240"/>
+      <c r="R81" s="49"/>
+    </row>
+    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="241"/>
-      <c r="B82"/>
-      <c r="E82" s="229"/>
-      <c r="F82" s="230"/>
+      <c r="B82" s="241"/>
+      <c r="C82" s="361"/>
+      <c r="F82" s="229"/>
       <c r="G82" s="230"/>
-      <c r="H82" s="231"/>
-      <c r="I82" s="230"/>
+      <c r="H82" s="230"/>
+      <c r="I82" s="231"/>
       <c r="J82" s="230"/>
       <c r="K82" s="230"/>
-      <c r="L82" s="240"/>
-      <c r="P82" s="240"/>
-      <c r="Q82" s="49"/>
-    </row>
-    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="L82" s="230"/>
+      <c r="M82" s="240"/>
+      <c r="Q82" s="240"/>
+      <c r="R82" s="49"/>
+    </row>
+    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="241"/>
-      <c r="B83"/>
-      <c r="E83" s="229"/>
-      <c r="F83" s="230"/>
+      <c r="B83" s="241"/>
+      <c r="C83" s="361"/>
+      <c r="F83" s="229"/>
       <c r="G83" s="230"/>
-      <c r="H83" s="231"/>
-      <c r="I83" s="240"/>
+      <c r="H83" s="230"/>
+      <c r="I83" s="231"/>
       <c r="J83" s="240"/>
-      <c r="K83" s="230"/>
+      <c r="K83" s="240"/>
       <c r="L83" s="230"/>
-      <c r="P83" s="240"/>
-      <c r="Q83" s="49"/>
-    </row>
-    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M83" s="230"/>
+      <c r="Q83" s="240"/>
+      <c r="R83" s="49"/>
+    </row>
+    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="241"/>
-      <c r="B84"/>
-      <c r="E84" s="229"/>
-      <c r="G84" s="230"/>
-      <c r="H84" s="231"/>
-      <c r="I84" s="240"/>
+      <c r="B84" s="241"/>
+      <c r="C84" s="361"/>
+      <c r="F84" s="229"/>
+      <c r="H84" s="230"/>
+      <c r="I84" s="231"/>
       <c r="J84" s="240"/>
       <c r="K84" s="240"/>
-      <c r="L84" s="230"/>
-      <c r="P84" s="240"/>
-      <c r="Q84" s="49"/>
-    </row>
-    <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="L84" s="240"/>
+      <c r="M84" s="230"/>
+      <c r="Q84" s="240"/>
+      <c r="R84" s="49"/>
+    </row>
+    <row r="85" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="241"/>
-      <c r="B85"/>
-      <c r="G85" s="240"/>
-      <c r="I85" s="230"/>
+      <c r="B85" s="241"/>
+      <c r="C85" s="361"/>
+      <c r="H85" s="240"/>
       <c r="J85" s="230"/>
       <c r="K85" s="230"/>
       <c r="L85" s="230"/>
-      <c r="P85" s="240"/>
-      <c r="Q85" s="49"/>
-    </row>
-    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M85" s="230"/>
+      <c r="Q85" s="240"/>
+      <c r="R85" s="49"/>
+    </row>
+    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="241"/>
-      <c r="B86"/>
-      <c r="G86" s="240"/>
-      <c r="I86" s="240"/>
+      <c r="B86" s="241"/>
+      <c r="C86" s="361"/>
+      <c r="H86" s="240"/>
       <c r="J86" s="240"/>
       <c r="K86" s="240"/>
       <c r="L86" s="240"/>
-      <c r="P86" s="240"/>
-      <c r="Q86" s="49"/>
-    </row>
-    <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M86" s="240"/>
+      <c r="Q86" s="240"/>
+      <c r="R86" s="49"/>
+    </row>
+    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="241"/>
-      <c r="B87"/>
-      <c r="G87" s="240"/>
-      <c r="I87" s="240"/>
+      <c r="B87" s="241"/>
+      <c r="C87" s="361"/>
+      <c r="H87" s="240"/>
       <c r="J87" s="240"/>
       <c r="K87" s="240"/>
       <c r="L87" s="240"/>
-      <c r="P87" s="240"/>
-      <c r="Q87" s="231"/>
-    </row>
-    <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M87" s="240"/>
+      <c r="Q87" s="240"/>
+      <c r="R87" s="231"/>
+    </row>
+    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="241"/>
-      <c r="B88"/>
-      <c r="G88" s="240"/>
-      <c r="I88" s="240"/>
+      <c r="B88" s="241"/>
+      <c r="C88" s="361"/>
+      <c r="H88" s="240"/>
       <c r="J88" s="240"/>
       <c r="K88" s="240"/>
       <c r="L88" s="240"/>
-      <c r="P88" s="230"/>
-      <c r="Q88" s="231"/>
-    </row>
-    <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.4">
+      <c r="M88" s="240"/>
+      <c r="Q88" s="230"/>
+      <c r="R88" s="231"/>
+    </row>
+    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="241"/>
-      <c r="B89"/>
-      <c r="G89" s="240"/>
-      <c r="I89" s="240"/>
+      <c r="B89" s="241"/>
+      <c r="C89" s="361"/>
+      <c r="H89" s="240"/>
       <c r="J89" s="240"/>
       <c r="K89" s="240"/>
       <c r="L89" s="240"/>
-      <c r="O89" s="230"/>
+      <c r="M89" s="240"/>
       <c r="P89" s="230"/>
-      <c r="Q89" s="231"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="G90" s="240"/>
-      <c r="I90" s="240"/>
+      <c r="Q89" s="230"/>
+      <c r="R89" s="231"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H90" s="240"/>
       <c r="J90" s="240"/>
       <c r="K90" s="240"/>
       <c r="L90" s="240"/>
-      <c r="N90" s="229"/>
-      <c r="O90" s="230"/>
+      <c r="M90" s="240"/>
+      <c r="O90" s="229"/>
       <c r="P90" s="230"/>
-      <c r="Q90" s="231"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="G91" s="240"/>
-      <c r="I91" s="240"/>
+      <c r="Q90" s="230"/>
+      <c r="R90" s="231"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H91" s="240"/>
       <c r="J91" s="240"/>
       <c r="K91" s="240"/>
       <c r="L91" s="240"/>
-      <c r="N91" s="229"/>
-      <c r="O91" s="230"/>
+      <c r="M91" s="240"/>
+      <c r="O91" s="229"/>
       <c r="P91" s="230"/>
-      <c r="Q91" s="231"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="G92" s="240"/>
-      <c r="I92" s="240"/>
+      <c r="Q91" s="230"/>
+      <c r="R91" s="231"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H92" s="240"/>
       <c r="J92" s="240"/>
       <c r="K92" s="240"/>
       <c r="L92" s="240"/>
-      <c r="N92" s="229"/>
-      <c r="O92" s="230"/>
+      <c r="M92" s="240"/>
+      <c r="O92" s="229"/>
       <c r="P92" s="230"/>
-      <c r="Q92" s="231"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="G93" s="240"/>
-      <c r="I93" s="240"/>
+      <c r="Q92" s="230"/>
+      <c r="R92" s="231"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H93" s="240"/>
       <c r="J93" s="240"/>
       <c r="K93" s="240"/>
       <c r="L93" s="240"/>
-      <c r="N93" s="229"/>
-      <c r="O93" s="230"/>
+      <c r="M93" s="240"/>
+      <c r="O93" s="229"/>
       <c r="P93" s="230"/>
-      <c r="Q93" s="231"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="G94" s="240"/>
-      <c r="I94" s="240"/>
+      <c r="Q93" s="230"/>
+      <c r="R93" s="231"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H94" s="240"/>
       <c r="J94" s="240"/>
       <c r="K94" s="240"/>
       <c r="L94" s="240"/>
-      <c r="P94" s="240"/>
-      <c r="Q94" s="49"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="G95" s="240"/>
-      <c r="I95" s="240"/>
+      <c r="M94" s="240"/>
+      <c r="Q94" s="240"/>
+      <c r="R94" s="49"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H95" s="240"/>
       <c r="J95" s="240"/>
       <c r="K95" s="240"/>
       <c r="L95" s="240"/>
-      <c r="P95" s="240"/>
-      <c r="Q95" s="49"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="G96" s="240"/>
-      <c r="I96" s="240"/>
+      <c r="M95" s="240"/>
+      <c r="Q95" s="240"/>
+      <c r="R95" s="49"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H96" s="240"/>
       <c r="J96" s="240"/>
       <c r="K96" s="240"/>
       <c r="L96" s="240"/>
-      <c r="P96" s="240"/>
-      <c r="Q96" s="49"/>
-    </row>
-    <row r="97" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G97" s="240"/>
-      <c r="I97" s="240"/>
+      <c r="M96" s="240"/>
+      <c r="Q96" s="240"/>
+      <c r="R96" s="49"/>
+    </row>
+    <row r="97" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H97" s="240"/>
       <c r="J97" s="240"/>
       <c r="K97" s="240"/>
       <c r="L97" s="240"/>
-      <c r="P97" s="240"/>
-      <c r="Q97" s="49"/>
-    </row>
-    <row r="98" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G98" s="240"/>
-      <c r="I98" s="240"/>
+      <c r="M97" s="240"/>
+      <c r="Q97" s="240"/>
+      <c r="R97" s="49"/>
+    </row>
+    <row r="98" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H98" s="240"/>
       <c r="J98" s="240"/>
       <c r="K98" s="240"/>
       <c r="L98" s="240"/>
-      <c r="P98" s="240"/>
-      <c r="Q98" s="49"/>
-    </row>
-    <row r="99" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G99" s="240"/>
-      <c r="I99" s="240"/>
+      <c r="M98" s="240"/>
+      <c r="Q98" s="240"/>
+      <c r="R98" s="49"/>
+    </row>
+    <row r="99" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H99" s="240"/>
       <c r="J99" s="240"/>
       <c r="K99" s="240"/>
       <c r="L99" s="240"/>
-      <c r="P99" s="240"/>
-      <c r="Q99" s="49"/>
-    </row>
-    <row r="100" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G100" s="240"/>
-      <c r="I100" s="240"/>
+      <c r="M99" s="240"/>
+      <c r="Q99" s="240"/>
+      <c r="R99" s="49"/>
+    </row>
+    <row r="100" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H100" s="240"/>
       <c r="J100" s="240"/>
       <c r="K100" s="240"/>
       <c r="L100" s="240"/>
-      <c r="P100" s="240"/>
-      <c r="Q100" s="49"/>
-    </row>
-    <row r="101" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G101" s="240"/>
-      <c r="I101" s="240"/>
+      <c r="M100" s="240"/>
+      <c r="Q100" s="240"/>
+      <c r="R100" s="49"/>
+    </row>
+    <row r="101" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H101" s="240"/>
       <c r="J101" s="240"/>
       <c r="K101" s="240"/>
       <c r="L101" s="240"/>
-      <c r="P101" s="240"/>
-      <c r="Q101" s="49"/>
-    </row>
-    <row r="102" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G102" s="240"/>
-      <c r="I102" s="240"/>
+      <c r="M101" s="240"/>
+      <c r="Q101" s="240"/>
+      <c r="R101" s="49"/>
+    </row>
+    <row r="102" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H102" s="240"/>
       <c r="J102" s="240"/>
       <c r="K102" s="240"/>
       <c r="L102" s="240"/>
-      <c r="P102" s="240"/>
-      <c r="Q102" s="49"/>
-    </row>
-    <row r="103" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G103" s="240"/>
-      <c r="I103" s="240"/>
+      <c r="M102" s="240"/>
+      <c r="Q102" s="240"/>
+      <c r="R102" s="49"/>
+    </row>
+    <row r="103" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H103" s="240"/>
       <c r="J103" s="240"/>
       <c r="K103" s="240"/>
       <c r="L103" s="240"/>
-      <c r="P103" s="240"/>
-      <c r="Q103" s="49"/>
-    </row>
-    <row r="104" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G104" s="240"/>
-      <c r="I104" s="240"/>
+      <c r="M103" s="240"/>
+      <c r="Q103" s="240"/>
+      <c r="R103" s="49"/>
+    </row>
+    <row r="104" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H104" s="240"/>
       <c r="J104" s="240"/>
       <c r="K104" s="240"/>
       <c r="L104" s="240"/>
-      <c r="P104" s="240"/>
-      <c r="Q104" s="49"/>
-    </row>
-    <row r="105" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G105" s="240"/>
-      <c r="I105" s="240"/>
+      <c r="M104" s="240"/>
+      <c r="Q104" s="240"/>
+      <c r="R104" s="49"/>
+    </row>
+    <row r="105" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H105" s="240"/>
       <c r="J105" s="240"/>
       <c r="K105" s="240"/>
       <c r="L105" s="240"/>
-      <c r="P105" s="240"/>
-      <c r="Q105" s="49"/>
-    </row>
-    <row r="106" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G106" s="240"/>
-      <c r="I106" s="240"/>
+      <c r="M105" s="240"/>
+      <c r="Q105" s="240"/>
+      <c r="R105" s="49"/>
+    </row>
+    <row r="106" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H106" s="240"/>
       <c r="J106" s="240"/>
       <c r="K106" s="240"/>
       <c r="L106" s="240"/>
-      <c r="P106" s="240"/>
-      <c r="Q106" s="49"/>
-    </row>
-    <row r="107" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G107" s="240"/>
-      <c r="I107" s="240"/>
+      <c r="M106" s="240"/>
+      <c r="Q106" s="240"/>
+      <c r="R106" s="49"/>
+    </row>
+    <row r="107" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H107" s="240"/>
       <c r="J107" s="240"/>
       <c r="K107" s="240"/>
       <c r="L107" s="240"/>
-      <c r="P107" s="240"/>
-      <c r="Q107" s="49"/>
-    </row>
-    <row r="108" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G108" s="240"/>
-      <c r="I108" s="240"/>
+      <c r="M107" s="240"/>
+      <c r="Q107" s="240"/>
+      <c r="R107" s="49"/>
+    </row>
+    <row r="108" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H108" s="240"/>
       <c r="J108" s="240"/>
       <c r="K108" s="240"/>
       <c r="L108" s="240"/>
-      <c r="P108" s="240"/>
-      <c r="Q108" s="49"/>
-    </row>
-    <row r="109" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G109" s="240"/>
-      <c r="I109" s="240"/>
+      <c r="M108" s="240"/>
+      <c r="Q108" s="240"/>
+      <c r="R108" s="49"/>
+    </row>
+    <row r="109" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H109" s="240"/>
       <c r="J109" s="240"/>
       <c r="K109" s="240"/>
       <c r="L109" s="240"/>
-      <c r="P109" s="240"/>
-      <c r="Q109" s="49"/>
-    </row>
-    <row r="110" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G110" s="240"/>
-      <c r="I110" s="240"/>
+      <c r="M109" s="240"/>
+      <c r="Q109" s="240"/>
+      <c r="R109" s="49"/>
+    </row>
+    <row r="110" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H110" s="240"/>
       <c r="J110" s="240"/>
       <c r="K110" s="240"/>
       <c r="L110" s="240"/>
-      <c r="P110" s="240"/>
-      <c r="Q110" s="49"/>
-    </row>
-    <row r="111" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G111" s="240"/>
-      <c r="I111" s="240"/>
+      <c r="M110" s="240"/>
+      <c r="Q110" s="240"/>
+      <c r="R110" s="49"/>
+    </row>
+    <row r="111" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H111" s="240"/>
       <c r="J111" s="240"/>
       <c r="K111" s="240"/>
       <c r="L111" s="240"/>
-      <c r="P111" s="240"/>
-      <c r="Q111" s="49"/>
-    </row>
-    <row r="112" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G112" s="240"/>
-      <c r="I112" s="240"/>
+      <c r="M111" s="240"/>
+      <c r="Q111" s="240"/>
+      <c r="R111" s="49"/>
+    </row>
+    <row r="112" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H112" s="240"/>
       <c r="J112" s="240"/>
       <c r="K112" s="240"/>
       <c r="L112" s="240"/>
-      <c r="P112" s="240"/>
-      <c r="Q112" s="49"/>
-    </row>
-    <row r="113" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G113" s="240"/>
-      <c r="I113" s="240"/>
+      <c r="M112" s="240"/>
+      <c r="Q112" s="240"/>
+      <c r="R112" s="49"/>
+    </row>
+    <row r="113" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H113" s="240"/>
       <c r="J113" s="240"/>
       <c r="K113" s="240"/>
       <c r="L113" s="240"/>
-      <c r="P113" s="240"/>
-      <c r="Q113" s="49"/>
-    </row>
-    <row r="114" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G114" s="240"/>
-      <c r="I114" s="240"/>
+      <c r="M113" s="240"/>
+      <c r="Q113" s="240"/>
+      <c r="R113" s="49"/>
+    </row>
+    <row r="114" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H114" s="240"/>
       <c r="J114" s="240"/>
       <c r="K114" s="240"/>
       <c r="L114" s="240"/>
-      <c r="P114" s="240"/>
-      <c r="Q114" s="49"/>
-    </row>
-    <row r="115" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G115" s="240"/>
-      <c r="I115" s="240"/>
+      <c r="M114" s="240"/>
+      <c r="Q114" s="240"/>
+      <c r="R114" s="49"/>
+    </row>
+    <row r="115" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H115" s="240"/>
       <c r="J115" s="240"/>
       <c r="K115" s="240"/>
       <c r="L115" s="240"/>
-      <c r="P115" s="240"/>
-      <c r="Q115" s="49"/>
-    </row>
-    <row r="116" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G116" s="240"/>
-      <c r="I116" s="240"/>
+      <c r="M115" s="240"/>
+      <c r="Q115" s="240"/>
+      <c r="R115" s="49"/>
+    </row>
+    <row r="116" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H116" s="240"/>
       <c r="J116" s="240"/>
       <c r="K116" s="240"/>
       <c r="L116" s="240"/>
-      <c r="P116" s="240"/>
-      <c r="Q116" s="49"/>
-    </row>
-    <row r="117" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G117" s="240"/>
-      <c r="I117" s="240"/>
+      <c r="M116" s="240"/>
+      <c r="Q116" s="240"/>
+      <c r="R116" s="49"/>
+    </row>
+    <row r="117" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H117" s="240"/>
       <c r="J117" s="240"/>
       <c r="K117" s="240"/>
       <c r="L117" s="240"/>
-      <c r="P117" s="240"/>
-      <c r="Q117" s="49"/>
-    </row>
-    <row r="118" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G118" s="240"/>
-      <c r="I118" s="240"/>
+      <c r="M117" s="240"/>
+      <c r="Q117" s="240"/>
+      <c r="R117" s="49"/>
+    </row>
+    <row r="118" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H118" s="240"/>
       <c r="J118" s="240"/>
       <c r="K118" s="240"/>
       <c r="L118" s="240"/>
-      <c r="P118" s="240"/>
-      <c r="Q118" s="49"/>
-    </row>
-    <row r="119" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G119" s="240"/>
-      <c r="I119" s="240"/>
+      <c r="M118" s="240"/>
+      <c r="Q118" s="240"/>
+      <c r="R118" s="49"/>
+    </row>
+    <row r="119" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H119" s="240"/>
       <c r="J119" s="240"/>
       <c r="K119" s="240"/>
       <c r="L119" s="240"/>
-      <c r="P119" s="240"/>
-      <c r="Q119" s="49"/>
-    </row>
-    <row r="120" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G120" s="240"/>
-      <c r="I120" s="240"/>
+      <c r="M119" s="240"/>
+      <c r="Q119" s="240"/>
+      <c r="R119" s="49"/>
+    </row>
+    <row r="120" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H120" s="240"/>
       <c r="J120" s="240"/>
       <c r="K120" s="240"/>
       <c r="L120" s="240"/>
-      <c r="P120" s="240"/>
-      <c r="Q120" s="49"/>
-    </row>
-    <row r="121" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G121" s="240"/>
-      <c r="I121" s="240"/>
+      <c r="M120" s="240"/>
+      <c r="Q120" s="240"/>
+      <c r="R120" s="49"/>
+    </row>
+    <row r="121" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H121" s="240"/>
       <c r="J121" s="240"/>
       <c r="K121" s="240"/>
       <c r="L121" s="240"/>
-      <c r="P121" s="240"/>
-      <c r="Q121" s="49"/>
-    </row>
-    <row r="122" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G122" s="240"/>
-      <c r="I122" s="240"/>
+      <c r="M121" s="240"/>
+      <c r="Q121" s="240"/>
+      <c r="R121" s="49"/>
+    </row>
+    <row r="122" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H122" s="240"/>
       <c r="J122" s="240"/>
       <c r="K122" s="240"/>
       <c r="L122" s="240"/>
-      <c r="P122" s="240"/>
-      <c r="Q122" s="49"/>
-    </row>
-    <row r="123" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G123" s="240"/>
-      <c r="I123" s="240"/>
+      <c r="M122" s="240"/>
+      <c r="Q122" s="240"/>
+      <c r="R122" s="49"/>
+    </row>
+    <row r="123" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H123" s="240"/>
       <c r="J123" s="240"/>
       <c r="K123" s="240"/>
       <c r="L123" s="240"/>
-      <c r="P123" s="240"/>
-      <c r="Q123" s="49"/>
-    </row>
-    <row r="124" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G124" s="240"/>
-      <c r="I124" s="240"/>
+      <c r="M123" s="240"/>
+      <c r="Q123" s="240"/>
+      <c r="R123" s="49"/>
+    </row>
+    <row r="124" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H124" s="240"/>
       <c r="J124" s="240"/>
       <c r="K124" s="240"/>
       <c r="L124" s="240"/>
-      <c r="P124" s="240"/>
-      <c r="Q124" s="49"/>
-    </row>
-    <row r="125" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G125" s="240"/>
-      <c r="I125" s="240"/>
+      <c r="M124" s="240"/>
+      <c r="Q124" s="240"/>
+      <c r="R124" s="49"/>
+    </row>
+    <row r="125" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H125" s="240"/>
       <c r="J125" s="240"/>
       <c r="K125" s="240"/>
       <c r="L125" s="240"/>
-      <c r="P125" s="240"/>
-      <c r="Q125" s="49"/>
-    </row>
-    <row r="126" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G126" s="240"/>
-      <c r="I126" s="240"/>
+      <c r="M125" s="240"/>
+      <c r="Q125" s="240"/>
+      <c r="R125" s="49"/>
+    </row>
+    <row r="126" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H126" s="240"/>
       <c r="J126" s="240"/>
       <c r="K126" s="240"/>
       <c r="L126" s="240"/>
-      <c r="P126" s="240"/>
-      <c r="Q126" s="49"/>
-    </row>
-    <row r="127" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G127" s="240"/>
-      <c r="I127" s="240"/>
+      <c r="M126" s="240"/>
+      <c r="Q126" s="240"/>
+      <c r="R126" s="49"/>
+    </row>
+    <row r="127" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H127" s="240"/>
       <c r="J127" s="240"/>
       <c r="K127" s="240"/>
       <c r="L127" s="240"/>
-      <c r="P127" s="240"/>
-      <c r="Q127" s="49"/>
-    </row>
-    <row r="128" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G128" s="240"/>
-      <c r="I128" s="240"/>
+      <c r="M127" s="240"/>
+      <c r="Q127" s="240"/>
+      <c r="R127" s="49"/>
+    </row>
+    <row r="128" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H128" s="240"/>
       <c r="J128" s="240"/>
       <c r="K128" s="240"/>
       <c r="L128" s="240"/>
-      <c r="P128" s="240"/>
-      <c r="Q128" s="49"/>
-    </row>
-    <row r="129" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G129" s="240"/>
-      <c r="I129" s="240"/>
+      <c r="M128" s="240"/>
+      <c r="Q128" s="240"/>
+      <c r="R128" s="49"/>
+    </row>
+    <row r="129" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H129" s="240"/>
       <c r="J129" s="240"/>
       <c r="K129" s="240"/>
       <c r="L129" s="240"/>
-      <c r="P129" s="240"/>
-      <c r="Q129" s="49"/>
-    </row>
-    <row r="130" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G130" s="240"/>
-      <c r="I130" s="240"/>
+      <c r="M129" s="240"/>
+      <c r="Q129" s="240"/>
+      <c r="R129" s="49"/>
+    </row>
+    <row r="130" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H130" s="240"/>
       <c r="J130" s="240"/>
       <c r="K130" s="240"/>
       <c r="L130" s="240"/>
-      <c r="P130" s="240"/>
-      <c r="Q130" s="49"/>
-    </row>
-    <row r="131" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G131" s="240"/>
-      <c r="I131" s="240"/>
+      <c r="M130" s="240"/>
+      <c r="Q130" s="240"/>
+      <c r="R130" s="49"/>
+    </row>
+    <row r="131" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H131" s="240"/>
       <c r="J131" s="240"/>
       <c r="K131" s="240"/>
       <c r="L131" s="240"/>
-      <c r="P131" s="240"/>
-      <c r="Q131" s="49"/>
-    </row>
-    <row r="132" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G132" s="240"/>
-      <c r="I132" s="240"/>
+      <c r="M131" s="240"/>
+      <c r="Q131" s="240"/>
+      <c r="R131" s="49"/>
+    </row>
+    <row r="132" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H132" s="240"/>
       <c r="J132" s="240"/>
       <c r="K132" s="240"/>
       <c r="L132" s="240"/>
-      <c r="P132" s="240"/>
-      <c r="Q132" s="49"/>
-    </row>
-    <row r="133" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G133" s="240"/>
-      <c r="I133" s="240"/>
+      <c r="M132" s="240"/>
+      <c r="Q132" s="240"/>
+      <c r="R132" s="49"/>
+    </row>
+    <row r="133" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H133" s="240"/>
       <c r="J133" s="240"/>
       <c r="K133" s="240"/>
       <c r="L133" s="240"/>
-      <c r="P133" s="240"/>
-      <c r="Q133" s="49"/>
-    </row>
-    <row r="134" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G134" s="240"/>
-      <c r="I134" s="240"/>
+      <c r="M133" s="240"/>
+      <c r="Q133" s="240"/>
+      <c r="R133" s="49"/>
+    </row>
+    <row r="134" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H134" s="240"/>
       <c r="J134" s="240"/>
       <c r="K134" s="240"/>
       <c r="L134" s="240"/>
-      <c r="P134" s="240"/>
-      <c r="Q134" s="49"/>
-    </row>
-    <row r="135" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G135" s="240"/>
-      <c r="I135" s="240"/>
+      <c r="M134" s="240"/>
+      <c r="Q134" s="240"/>
+      <c r="R134" s="49"/>
+    </row>
+    <row r="135" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H135" s="240"/>
       <c r="J135" s="240"/>
       <c r="K135" s="240"/>
       <c r="L135" s="240"/>
-      <c r="P135" s="240"/>
-      <c r="Q135" s="49"/>
-    </row>
-    <row r="136" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G136" s="240"/>
-      <c r="I136" s="240"/>
+      <c r="M135" s="240"/>
+      <c r="Q135" s="240"/>
+      <c r="R135" s="49"/>
+    </row>
+    <row r="136" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H136" s="240"/>
       <c r="J136" s="240"/>
       <c r="K136" s="240"/>
       <c r="L136" s="240"/>
-      <c r="P136" s="240"/>
-      <c r="Q136" s="49"/>
-    </row>
-    <row r="137" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G137" s="240"/>
-      <c r="I137" s="240"/>
+      <c r="M136" s="240"/>
+      <c r="Q136" s="240"/>
+      <c r="R136" s="49"/>
+    </row>
+    <row r="137" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H137" s="240"/>
       <c r="J137" s="240"/>
       <c r="K137" s="240"/>
       <c r="L137" s="240"/>
-      <c r="P137" s="240"/>
-      <c r="Q137" s="49"/>
-    </row>
-    <row r="138" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G138" s="240"/>
-      <c r="I138" s="240"/>
+      <c r="M137" s="240"/>
+      <c r="Q137" s="240"/>
+      <c r="R137" s="49"/>
+    </row>
+    <row r="138" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H138" s="240"/>
       <c r="J138" s="240"/>
       <c r="K138" s="240"/>
       <c r="L138" s="240"/>
-      <c r="P138" s="240"/>
-      <c r="Q138" s="49"/>
-    </row>
-    <row r="139" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G139" s="240"/>
-      <c r="I139" s="240"/>
+      <c r="M138" s="240"/>
+      <c r="Q138" s="240"/>
+      <c r="R138" s="49"/>
+    </row>
+    <row r="139" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H139" s="240"/>
       <c r="J139" s="240"/>
       <c r="K139" s="240"/>
       <c r="L139" s="240"/>
-      <c r="P139" s="240"/>
-      <c r="Q139" s="49"/>
-    </row>
-    <row r="140" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G140" s="240"/>
-      <c r="I140" s="240"/>
+      <c r="M139" s="240"/>
+      <c r="Q139" s="240"/>
+      <c r="R139" s="49"/>
+    </row>
+    <row r="140" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H140" s="240"/>
       <c r="J140" s="240"/>
       <c r="K140" s="240"/>
       <c r="L140" s="240"/>
-      <c r="P140" s="240"/>
-      <c r="Q140" s="49"/>
-    </row>
-    <row r="141" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G141" s="240"/>
-      <c r="I141" s="240"/>
+      <c r="M140" s="240"/>
+      <c r="Q140" s="240"/>
+      <c r="R140" s="49"/>
+    </row>
+    <row r="141" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H141" s="240"/>
       <c r="J141" s="240"/>
       <c r="K141" s="240"/>
       <c r="L141" s="240"/>
-      <c r="P141" s="240"/>
-      <c r="Q141" s="49"/>
-    </row>
-    <row r="142" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G142" s="240"/>
-      <c r="I142" s="240"/>
+      <c r="M141" s="240"/>
+      <c r="Q141" s="240"/>
+      <c r="R141" s="49"/>
+    </row>
+    <row r="142" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H142" s="240"/>
       <c r="J142" s="240"/>
       <c r="K142" s="240"/>
       <c r="L142" s="240"/>
-      <c r="P142" s="240"/>
-      <c r="Q142" s="49"/>
-    </row>
-    <row r="143" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G143" s="240"/>
-      <c r="I143" s="240"/>
+      <c r="M142" s="240"/>
+      <c r="Q142" s="240"/>
+      <c r="R142" s="49"/>
+    </row>
+    <row r="143" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H143" s="240"/>
       <c r="J143" s="240"/>
       <c r="K143" s="240"/>
       <c r="L143" s="240"/>
-      <c r="P143" s="240"/>
-      <c r="Q143" s="49"/>
-    </row>
-    <row r="144" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G144" s="240"/>
-      <c r="I144" s="240"/>
+      <c r="M143" s="240"/>
+      <c r="Q143" s="240"/>
+      <c r="R143" s="49"/>
+    </row>
+    <row r="144" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H144" s="240"/>
       <c r="J144" s="240"/>
       <c r="K144" s="240"/>
       <c r="L144" s="240"/>
-      <c r="P144" s="240"/>
-      <c r="Q144" s="49"/>
-    </row>
-    <row r="145" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G145" s="240"/>
-      <c r="I145" s="240"/>
+      <c r="M144" s="240"/>
+      <c r="Q144" s="240"/>
+      <c r="R144" s="49"/>
+    </row>
+    <row r="145" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H145" s="240"/>
       <c r="J145" s="240"/>
       <c r="K145" s="240"/>
       <c r="L145" s="240"/>
-      <c r="P145" s="240"/>
-      <c r="Q145" s="49"/>
-    </row>
-    <row r="146" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G146" s="240"/>
-      <c r="I146" s="240"/>
+      <c r="M145" s="240"/>
+      <c r="Q145" s="240"/>
+      <c r="R145" s="49"/>
+    </row>
+    <row r="146" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H146" s="240"/>
       <c r="J146" s="240"/>
       <c r="K146" s="240"/>
       <c r="L146" s="240"/>
-      <c r="P146" s="240"/>
-      <c r="Q146" s="49"/>
-    </row>
-    <row r="147" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G147" s="240"/>
-      <c r="I147" s="240"/>
+      <c r="M146" s="240"/>
+      <c r="Q146" s="240"/>
+      <c r="R146" s="49"/>
+    </row>
+    <row r="147" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H147" s="240"/>
       <c r="J147" s="240"/>
       <c r="K147" s="240"/>
       <c r="L147" s="240"/>
-      <c r="P147" s="240"/>
-      <c r="Q147" s="49"/>
-    </row>
-    <row r="148" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G148" s="240"/>
-      <c r="I148" s="240"/>
+      <c r="M147" s="240"/>
+      <c r="Q147" s="240"/>
+      <c r="R147" s="49"/>
+    </row>
+    <row r="148" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H148" s="240"/>
       <c r="J148" s="240"/>
       <c r="K148" s="240"/>
       <c r="L148" s="240"/>
-      <c r="P148" s="240"/>
-      <c r="Q148" s="49"/>
-    </row>
-    <row r="149" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G149" s="240"/>
-      <c r="I149" s="240"/>
+      <c r="M148" s="240"/>
+      <c r="Q148" s="240"/>
+      <c r="R148" s="49"/>
+    </row>
+    <row r="149" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H149" s="240"/>
       <c r="J149" s="240"/>
       <c r="K149" s="240"/>
       <c r="L149" s="240"/>
-      <c r="P149" s="240"/>
-      <c r="Q149" s="49"/>
-    </row>
-    <row r="150" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G150" s="240"/>
-      <c r="I150" s="240"/>
+      <c r="M149" s="240"/>
+      <c r="Q149" s="240"/>
+      <c r="R149" s="49"/>
+    </row>
+    <row r="150" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H150" s="240"/>
       <c r="J150" s="240"/>
       <c r="K150" s="240"/>
       <c r="L150" s="240"/>
-      <c r="P150" s="240"/>
-      <c r="Q150" s="49"/>
-    </row>
-    <row r="151" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G151" s="240"/>
-      <c r="I151" s="240"/>
+      <c r="M150" s="240"/>
+      <c r="Q150" s="240"/>
+      <c r="R150" s="49"/>
+    </row>
+    <row r="151" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H151" s="240"/>
       <c r="J151" s="240"/>
       <c r="K151" s="240"/>
       <c r="L151" s="240"/>
-      <c r="P151" s="240"/>
-      <c r="Q151" s="49"/>
-    </row>
-    <row r="152" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G152" s="240"/>
-      <c r="I152" s="240"/>
+      <c r="M151" s="240"/>
+      <c r="Q151" s="240"/>
+      <c r="R151" s="49"/>
+    </row>
+    <row r="152" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H152" s="240"/>
       <c r="J152" s="240"/>
       <c r="K152" s="240"/>
       <c r="L152" s="240"/>
-      <c r="P152" s="240"/>
-      <c r="Q152" s="49"/>
-    </row>
-    <row r="153" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G153" s="240"/>
-      <c r="I153" s="240"/>
+      <c r="M152" s="240"/>
+      <c r="Q152" s="240"/>
+      <c r="R152" s="49"/>
+    </row>
+    <row r="153" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H153" s="240"/>
       <c r="J153" s="240"/>
       <c r="K153" s="240"/>
       <c r="L153" s="240"/>
-      <c r="P153" s="240"/>
-      <c r="Q153" s="49"/>
-    </row>
-    <row r="154" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G154" s="240"/>
-      <c r="I154" s="240"/>
+      <c r="M153" s="240"/>
+      <c r="Q153" s="240"/>
+      <c r="R153" s="49"/>
+    </row>
+    <row r="154" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H154" s="240"/>
       <c r="J154" s="240"/>
       <c r="K154" s="240"/>
       <c r="L154" s="240"/>
-      <c r="P154" s="240"/>
-      <c r="Q154" s="49"/>
-    </row>
-    <row r="155" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G155" s="240"/>
-      <c r="I155" s="240"/>
+      <c r="M154" s="240"/>
+      <c r="Q154" s="240"/>
+      <c r="R154" s="49"/>
+    </row>
+    <row r="155" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H155" s="240"/>
       <c r="J155" s="240"/>
       <c r="K155" s="240"/>
       <c r="L155" s="240"/>
-      <c r="P155" s="240"/>
-      <c r="Q155" s="49"/>
-    </row>
-    <row r="156" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G156" s="240"/>
-      <c r="I156" s="240"/>
+      <c r="M155" s="240"/>
+      <c r="Q155" s="240"/>
+      <c r="R155" s="49"/>
+    </row>
+    <row r="156" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H156" s="240"/>
       <c r="J156" s="240"/>
       <c r="K156" s="240"/>
       <c r="L156" s="240"/>
-      <c r="P156" s="240"/>
-      <c r="Q156" s="49"/>
-    </row>
-    <row r="157" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G157" s="240"/>
-      <c r="I157" s="240"/>
+      <c r="M156" s="240"/>
+      <c r="Q156" s="240"/>
+      <c r="R156" s="49"/>
+    </row>
+    <row r="157" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H157" s="240"/>
       <c r="J157" s="240"/>
       <c r="K157" s="240"/>
       <c r="L157" s="240"/>
-      <c r="P157" s="240"/>
-      <c r="Q157" s="49"/>
-    </row>
-    <row r="158" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G158" s="240"/>
-      <c r="I158" s="240"/>
+      <c r="M157" s="240"/>
+      <c r="Q157" s="240"/>
+      <c r="R157" s="49"/>
+    </row>
+    <row r="158" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H158" s="240"/>
       <c r="J158" s="240"/>
       <c r="K158" s="240"/>
       <c r="L158" s="240"/>
-      <c r="P158" s="240"/>
-      <c r="Q158" s="49"/>
-    </row>
-    <row r="159" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G159" s="240"/>
-      <c r="I159" s="240"/>
+      <c r="M158" s="240"/>
+      <c r="Q158" s="240"/>
+      <c r="R158" s="49"/>
+    </row>
+    <row r="159" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H159" s="240"/>
       <c r="J159" s="240"/>
       <c r="K159" s="240"/>
       <c r="L159" s="240"/>
-      <c r="P159" s="240"/>
-      <c r="Q159" s="49"/>
-    </row>
-    <row r="160" spans="7:17" x14ac:dyDescent="0.4">
-      <c r="G160" s="240"/>
-      <c r="I160" s="240"/>
+      <c r="M159" s="240"/>
+      <c r="Q159" s="240"/>
+      <c r="R159" s="49"/>
+    </row>
+    <row r="160" spans="8:18" x14ac:dyDescent="0.4">
+      <c r="H160" s="240"/>
       <c r="J160" s="240"/>
       <c r="K160" s="240"/>
       <c r="L160" s="240"/>
-      <c r="P160" s="240"/>
-      <c r="Q160" s="49"/>
-    </row>
-    <row r="161" spans="16:17" x14ac:dyDescent="0.4">
-      <c r="P161" s="240"/>
-      <c r="Q161" s="49"/>
-    </row>
-    <row r="162" spans="16:17" x14ac:dyDescent="0.4">
-      <c r="P162" s="240"/>
-      <c r="Q162" s="49"/>
-    </row>
-    <row r="163" spans="16:17" x14ac:dyDescent="0.4">
-      <c r="P163" s="240"/>
-      <c r="Q163" s="49"/>
+      <c r="M160" s="240"/>
+      <c r="Q160" s="240"/>
+      <c r="R160" s="49"/>
+    </row>
+    <row r="161" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q161" s="240"/>
+      <c r="R161" s="49"/>
+    </row>
+    <row r="162" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q162" s="240"/>
+      <c r="R162" s="49"/>
+    </row>
+    <row r="163" spans="17:18" x14ac:dyDescent="0.4">
+      <c r="Q163" s="240"/>
+      <c r="R163" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="U5:X5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9198,34 +9303,34 @@
     <row r="1" spans="1:33" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" s="349"/>
       <c r="D1" s="351"/>
-      <c r="E1" s="365" t="s">
+      <c r="E1" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="366"/>
-      <c r="G1" s="366"/>
-      <c r="H1" s="367"/>
-      <c r="I1" s="365" t="s">
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="375"/>
+      <c r="I1" s="373" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="366"/>
-      <c r="K1" s="366"/>
-      <c r="L1" s="367"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="375"/>
       <c r="M1" s="323"/>
       <c r="N1" s="325"/>
-      <c r="O1" s="365" t="s">
+      <c r="O1" s="373" t="s">
         <v>383</v>
       </c>
-      <c r="P1" s="366"/>
-      <c r="Q1" s="366"/>
-      <c r="R1" s="367"/>
+      <c r="P1" s="374"/>
+      <c r="Q1" s="374"/>
+      <c r="R1" s="375"/>
       <c r="S1" s="324"/>
       <c r="T1" s="324"/>
-      <c r="U1" s="365" t="s">
+      <c r="U1" s="373" t="s">
         <v>181</v>
       </c>
-      <c r="V1" s="366"/>
-      <c r="W1" s="366"/>
-      <c r="X1" s="367"/>
+      <c r="V1" s="374"/>
+      <c r="W1" s="374"/>
+      <c r="X1" s="375"/>
       <c r="Y1" s="40"/>
       <c r="Z1" s="40"/>
       <c r="AA1" s="40"/>
@@ -9335,12 +9440,12 @@
       <c r="V3" s="33"/>
       <c r="W3" s="33"/>
       <c r="X3" s="36"/>
-      <c r="Y3" s="368" t="s">
+      <c r="Y3" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="369"/>
-      <c r="AA3" s="369"/>
-      <c r="AB3" s="370"/>
+      <c r="Z3" s="378"/>
+      <c r="AA3" s="378"/>
+      <c r="AB3" s="381"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="241" t="s">
@@ -9413,12 +9518,12 @@
       <c r="V5" s="33"/>
       <c r="W5" s="33"/>
       <c r="X5" s="36"/>
-      <c r="Y5" s="373" t="s">
+      <c r="Y5" s="370" t="s">
         <v>236</v>
       </c>
-      <c r="Z5" s="374"/>
-      <c r="AA5" s="374"/>
-      <c r="AB5" s="375"/>
+      <c r="Z5" s="371"/>
+      <c r="AA5" s="371"/>
+      <c r="AB5" s="372"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="241" t="s">
@@ -9451,12 +9556,12 @@
       <c r="V6" s="33"/>
       <c r="W6" s="33"/>
       <c r="X6" s="36"/>
-      <c r="Y6" s="373" t="s">
+      <c r="Y6" s="370" t="s">
         <v>237</v>
       </c>
-      <c r="Z6" s="374"/>
-      <c r="AA6" s="374"/>
-      <c r="AB6" s="375"/>
+      <c r="Z6" s="371"/>
+      <c r="AA6" s="371"/>
+      <c r="AB6" s="372"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="241" t="s">
@@ -9538,12 +9643,12 @@
       </c>
       <c r="W8" s="332"/>
       <c r="X8" s="333"/>
-      <c r="Y8" s="393" t="s">
+      <c r="Y8" s="398" t="s">
         <v>329</v>
       </c>
-      <c r="Z8" s="392"/>
-      <c r="AA8" s="392"/>
-      <c r="AB8" s="392"/>
+      <c r="Z8" s="397"/>
+      <c r="AA8" s="397"/>
+      <c r="AB8" s="397"/>
       <c r="AD8" s="35"/>
       <c r="AE8" s="33"/>
       <c r="AF8" s="33"/>
@@ -11897,30 +12002,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="241"/>
       <c r="B1" s="228"/>
-      <c r="C1" s="365" t="s">
+      <c r="C1" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="366"/>
-      <c r="E1" s="366"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="365" t="s">
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="375"/>
+      <c r="G1" s="373" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="366"/>
-      <c r="I1" s="366"/>
-      <c r="J1" s="367"/>
-      <c r="K1" s="365" t="s">
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="375"/>
+      <c r="K1" s="373" t="s">
         <v>383</v>
       </c>
-      <c r="L1" s="366"/>
-      <c r="M1" s="366"/>
-      <c r="N1" s="367"/>
-      <c r="O1" s="365" t="s">
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
+      <c r="N1" s="375"/>
+      <c r="O1" s="373" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="366"/>
-      <c r="Q1" s="366"/>
-      <c r="R1" s="367"/>
+      <c r="P1" s="374"/>
+      <c r="Q1" s="374"/>
+      <c r="R1" s="375"/>
       <c r="S1" s="191"/>
       <c r="T1" s="191"/>
       <c r="U1" s="191"/>
@@ -12019,12 +12124,12 @@
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
-      <c r="S3" s="368" t="s">
+      <c r="S3" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="369"/>
-      <c r="U3" s="369"/>
-      <c r="V3" s="370"/>
+      <c r="T3" s="378"/>
+      <c r="U3" s="378"/>
+      <c r="V3" s="381"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="241" t="s">
@@ -12093,12 +12198,12 @@
       <c r="P5" s="186"/>
       <c r="Q5" s="186"/>
       <c r="R5" s="187"/>
-      <c r="S5" s="373" t="s">
+      <c r="S5" s="370" t="s">
         <v>236</v>
       </c>
-      <c r="T5" s="374"/>
-      <c r="U5" s="374"/>
-      <c r="V5" s="375"/>
+      <c r="T5" s="371"/>
+      <c r="U5" s="371"/>
+      <c r="V5" s="372"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="241" t="s">
@@ -12129,12 +12234,12 @@
       <c r="P6" s="186"/>
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
-      <c r="S6" s="373" t="s">
+      <c r="S6" s="370" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="374"/>
-      <c r="U6" s="374"/>
-      <c r="V6" s="375"/>
+      <c r="T6" s="371"/>
+      <c r="U6" s="371"/>
+      <c r="V6" s="372"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="241" t="s">
@@ -12202,12 +12307,12 @@
         <v>238</v>
       </c>
       <c r="R8" s="187"/>
-      <c r="S8" s="393" t="s">
+      <c r="S8" s="398" t="s">
         <v>834</v>
       </c>
-      <c r="T8" s="392"/>
-      <c r="U8" s="392"/>
-      <c r="V8" s="392"/>
+      <c r="T8" s="397"/>
+      <c r="U8" s="397"/>
+      <c r="V8" s="397"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="241" t="s">
@@ -14741,36 +14846,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="18"/>
-      <c r="C1" s="365" t="s">
+      <c r="C1" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="366"/>
-      <c r="E1" s="366"/>
-      <c r="F1" s="367"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="375"/>
       <c r="G1" s="376" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="366"/>
-      <c r="I1" s="366"/>
-      <c r="J1" s="366"/>
-      <c r="K1" s="365" t="s">
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="373" t="s">
         <v>383</v>
       </c>
-      <c r="L1" s="366"/>
-      <c r="M1" s="366"/>
-      <c r="N1" s="367"/>
-      <c r="O1" s="365" t="s">
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
+      <c r="N1" s="375"/>
+      <c r="O1" s="373" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="366"/>
-      <c r="Q1" s="366"/>
-      <c r="R1" s="367"/>
-      <c r="Z1" s="365" t="s">
+      <c r="P1" s="374"/>
+      <c r="Q1" s="374"/>
+      <c r="R1" s="375"/>
+      <c r="Z1" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="366"/>
-      <c r="AB1" s="366"/>
-      <c r="AC1" s="367"/>
+      <c r="AA1" s="374"/>
+      <c r="AB1" s="374"/>
+      <c r="AC1" s="375"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18"/>
@@ -14839,33 +14944,33 @@
       <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="368" t="s">
+      <c r="C3" s="377" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="368"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="370"/>
+      <c r="D3" s="378"/>
+      <c r="E3" s="378"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="377"/>
+      <c r="H3" s="378"/>
+      <c r="I3" s="378"/>
+      <c r="J3" s="381"/>
       <c r="K3" s="185"/>
       <c r="O3" s="185"/>
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
-      <c r="S3" s="368" t="s">
+      <c r="S3" s="377" t="s">
         <v>343</v>
       </c>
-      <c r="T3" s="369"/>
-      <c r="U3" s="369"/>
-      <c r="V3" s="370"/>
-      <c r="Z3" s="368" t="s">
+      <c r="T3" s="378"/>
+      <c r="U3" s="378"/>
+      <c r="V3" s="381"/>
+      <c r="Z3" s="377" t="s">
         <v>219</v>
       </c>
-      <c r="AA3" s="369"/>
-      <c r="AB3" s="369"/>
-      <c r="AC3" s="370"/>
+      <c r="AA3" s="378"/>
+      <c r="AB3" s="378"/>
+      <c r="AC3" s="381"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="34" t="s">
@@ -14922,12 +15027,12 @@
       <c r="P5" s="186"/>
       <c r="Q5" s="186"/>
       <c r="R5" s="187"/>
-      <c r="S5" s="373" t="s">
+      <c r="S5" s="370" t="s">
         <v>443</v>
       </c>
-      <c r="T5" s="374"/>
-      <c r="U5" s="374"/>
-      <c r="V5" s="375"/>
+      <c r="T5" s="371"/>
+      <c r="U5" s="371"/>
+      <c r="V5" s="372"/>
       <c r="W5" s="64" t="s">
         <v>445</v>
       </c>
@@ -14957,12 +15062,12 @@
       <c r="P6" s="186"/>
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
-      <c r="S6" s="373" t="s">
+      <c r="S6" s="370" t="s">
         <v>360</v>
       </c>
-      <c r="T6" s="374"/>
-      <c r="U6" s="374"/>
-      <c r="V6" s="375"/>
+      <c r="T6" s="371"/>
+      <c r="U6" s="371"/>
+      <c r="V6" s="372"/>
       <c r="Z6" s="185"/>
       <c r="AA6" s="186"/>
       <c r="AB6" s="186"/>
@@ -16321,17 +16426,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16366,57 +16471,57 @@
       <c r="A1" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="365" t="s">
+      <c r="B1" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="366"/>
-      <c r="D1" s="366"/>
-      <c r="E1" s="367"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="375"/>
       <c r="F1" s="376" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="366"/>
-      <c r="H1" s="366"/>
-      <c r="I1" s="366"/>
-      <c r="J1" s="365" t="s">
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="373" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="366"/>
-      <c r="L1" s="366"/>
-      <c r="M1" s="367"/>
-      <c r="N1" s="365" t="s">
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="375"/>
+      <c r="N1" s="373" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="366"/>
-      <c r="P1" s="366"/>
-      <c r="Q1" s="367"/>
-      <c r="R1" s="368" t="s">
+      <c r="O1" s="374"/>
+      <c r="P1" s="374"/>
+      <c r="Q1" s="375"/>
+      <c r="R1" s="377" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="369"/>
-      <c r="T1" s="369"/>
+      <c r="S1" s="378"/>
+      <c r="T1" s="378"/>
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="184"/>
-      <c r="B2" s="365" t="s">
+      <c r="B2" s="373" t="s">
         <v>535</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="367"/>
-      <c r="F2" s="365" t="s">
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="375"/>
+      <c r="F2" s="373" t="s">
         <v>536</v>
       </c>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="367"/>
-      <c r="J2" s="365" t="s">
+      <c r="G2" s="374"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="375"/>
+      <c r="J2" s="373" t="s">
         <v>679</v>
       </c>
-      <c r="K2" s="366"/>
-      <c r="L2" s="366"/>
-      <c r="M2" s="367"/>
+      <c r="K2" s="374"/>
+      <c r="L2" s="374"/>
+      <c r="M2" s="375"/>
       <c r="N2" s="39"/>
       <c r="O2" s="188"/>
       <c r="P2" s="188"/>
@@ -16515,12 +16620,12 @@
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="29"/>
-      <c r="R4" s="362" t="s">
+      <c r="R4" s="367" t="s">
         <v>236</v>
       </c>
-      <c r="S4" s="371"/>
-      <c r="T4" s="371"/>
-      <c r="U4" s="372"/>
+      <c r="S4" s="368"/>
+      <c r="T4" s="368"/>
+      <c r="U4" s="369"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="184" t="s">
@@ -16543,12 +16648,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="373" t="s">
+      <c r="R5" s="370" t="s">
         <v>757</v>
       </c>
-      <c r="S5" s="374"/>
-      <c r="T5" s="374"/>
-      <c r="U5" s="375"/>
+      <c r="S5" s="371"/>
+      <c r="T5" s="371"/>
+      <c r="U5" s="372"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="184" t="s">
@@ -18218,11 +18323,11 @@
       <c r="K93" s="182"/>
       <c r="L93" s="192"/>
       <c r="M93" s="192"/>
-      <c r="R93" s="368" t="s">
+      <c r="R93" s="377" t="s">
         <v>213</v>
       </c>
-      <c r="S93" s="369"/>
-      <c r="T93" s="369"/>
+      <c r="S93" s="378"/>
+      <c r="T93" s="378"/>
       <c r="U93" s="37"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -18311,12 +18416,12 @@
       <c r="K96" s="61"/>
       <c r="L96" s="61"/>
       <c r="M96" s="62"/>
-      <c r="R96" s="362" t="s">
+      <c r="R96" s="367" t="s">
         <v>51</v>
       </c>
-      <c r="S96" s="363"/>
-      <c r="T96" s="363"/>
-      <c r="U96" s="364"/>
+      <c r="S96" s="379"/>
+      <c r="T96" s="379"/>
+      <c r="U96" s="380"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="184" t="s">
@@ -18338,12 +18443,12 @@
       <c r="K97" s="61"/>
       <c r="L97" s="61"/>
       <c r="M97" s="62"/>
-      <c r="R97" s="368" t="s">
+      <c r="R97" s="377" t="s">
         <v>757</v>
       </c>
-      <c r="S97" s="369"/>
-      <c r="T97" s="369"/>
-      <c r="U97" s="370"/>
+      <c r="S97" s="378"/>
+      <c r="T97" s="378"/>
+      <c r="U97" s="381"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="184" t="s">
@@ -18395,11 +18500,11 @@
       <c r="K100" s="61"/>
       <c r="L100" s="61"/>
       <c r="M100" s="62"/>
-      <c r="R100" s="368" t="s">
+      <c r="R100" s="377" t="s">
         <v>758</v>
       </c>
-      <c r="S100" s="369"/>
-      <c r="T100" s="369"/>
+      <c r="S100" s="378"/>
+      <c r="T100" s="378"/>
       <c r="U100" s="37"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -18495,12 +18600,12 @@
       <c r="M103" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="R103" s="362" t="s">
+      <c r="R103" s="367" t="s">
         <v>236</v>
       </c>
-      <c r="S103" s="363"/>
-      <c r="T103" s="363"/>
-      <c r="U103" s="364"/>
+      <c r="S103" s="379"/>
+      <c r="T103" s="379"/>
+      <c r="U103" s="380"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="184" t="s">
@@ -18517,12 +18622,12 @@
       <c r="L104" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="R104" s="368" t="s">
+      <c r="R104" s="377" t="s">
         <v>757</v>
       </c>
-      <c r="S104" s="369"/>
-      <c r="T104" s="369"/>
-      <c r="U104" s="370"/>
+      <c r="S104" s="378"/>
+      <c r="T104" s="378"/>
+      <c r="U104" s="381"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="184" t="s">
@@ -18872,12 +18977,12 @@
       <c r="L124" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="R124" s="368" t="s">
+      <c r="R124" s="377" t="s">
         <v>769</v>
       </c>
-      <c r="S124" s="369"/>
-      <c r="T124" s="369"/>
-      <c r="U124" s="370"/>
+      <c r="S124" s="378"/>
+      <c r="T124" s="378"/>
+      <c r="U124" s="381"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="184" t="s">
@@ -18953,23 +19058,23 @@
       <c r="G127" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="R127" s="362" t="s">
+      <c r="R127" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="S127" s="363"/>
-      <c r="T127" s="363"/>
-      <c r="U127" s="364"/>
+      <c r="S127" s="379"/>
+      <c r="T127" s="379"/>
+      <c r="U127" s="380"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="184" t="s">
         <v>770</v>
       </c>
-      <c r="R128" s="365" t="s">
+      <c r="R128" s="373" t="s">
         <v>757</v>
       </c>
-      <c r="S128" s="366"/>
-      <c r="T128" s="366"/>
-      <c r="U128" s="367"/>
+      <c r="S128" s="374"/>
+      <c r="T128" s="374"/>
+      <c r="U128" s="375"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="184" t="s">
@@ -19024,12 +19129,12 @@
       <c r="F135" s="60" t="s">
         <v>738</v>
       </c>
-      <c r="R135" s="368" t="s">
+      <c r="R135" s="377" t="s">
         <v>789</v>
       </c>
-      <c r="S135" s="369"/>
-      <c r="T135" s="369"/>
-      <c r="U135" s="370"/>
+      <c r="S135" s="378"/>
+      <c r="T135" s="378"/>
+      <c r="U135" s="381"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="184" t="s">
@@ -19081,23 +19186,23 @@
       <c r="A138" s="184" t="s">
         <v>746</v>
       </c>
-      <c r="R138" s="362" t="s">
+      <c r="R138" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="S138" s="363"/>
-      <c r="T138" s="363"/>
-      <c r="U138" s="364"/>
+      <c r="S138" s="379"/>
+      <c r="T138" s="379"/>
+      <c r="U138" s="380"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="184" t="s">
         <v>747</v>
       </c>
-      <c r="R139" s="365" t="s">
+      <c r="R139" s="373" t="s">
         <v>800</v>
       </c>
-      <c r="S139" s="366"/>
-      <c r="T139" s="366"/>
-      <c r="U139" s="367"/>
+      <c r="S139" s="374"/>
+      <c r="T139" s="374"/>
+      <c r="U139" s="375"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="184" t="s">
@@ -19146,12 +19251,12 @@
       <c r="F145" s="56" t="s">
         <v>731</v>
       </c>
-      <c r="R145" s="368" t="s">
+      <c r="R145" s="377" t="s">
         <v>799</v>
       </c>
-      <c r="S145" s="369"/>
-      <c r="T145" s="369"/>
-      <c r="U145" s="370"/>
+      <c r="S145" s="378"/>
+      <c r="T145" s="378"/>
+      <c r="U145" s="381"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="184" t="s">
@@ -19203,12 +19308,12 @@
       <c r="A148" s="184" t="s">
         <v>771</v>
       </c>
-      <c r="R148" s="362" t="s">
+      <c r="R148" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="S148" s="363"/>
-      <c r="T148" s="363"/>
-      <c r="U148" s="364"/>
+      <c r="S148" s="379"/>
+      <c r="T148" s="379"/>
+      <c r="U148" s="380"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="184" t="s">
@@ -19218,12 +19323,12 @@
       <c r="Q149" s="56" t="s">
         <v>762</v>
       </c>
-      <c r="R149" s="365" t="s">
+      <c r="R149" s="373" t="s">
         <v>800</v>
       </c>
-      <c r="S149" s="366"/>
-      <c r="T149" s="366"/>
-      <c r="U149" s="367"/>
+      <c r="S149" s="374"/>
+      <c r="T149" s="374"/>
+      <c r="U149" s="375"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="184" t="s">
@@ -19332,6 +19437,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="R127:U127"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="B1:E1"/>
@@ -19342,21 +19462,6 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19387,30 +19492,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18"/>
-      <c r="B1" s="365" t="s">
+      <c r="B1" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="366"/>
-      <c r="D1" s="366"/>
-      <c r="E1" s="367"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="375"/>
       <c r="F1" s="376" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="366"/>
-      <c r="H1" s="366"/>
-      <c r="I1" s="366"/>
-      <c r="J1" s="365" t="s">
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="373" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="366"/>
-      <c r="L1" s="366"/>
-      <c r="M1" s="367"/>
-      <c r="N1" s="365" t="s">
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="375"/>
+      <c r="N1" s="373" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="366"/>
-      <c r="P1" s="366"/>
-      <c r="Q1" s="367"/>
+      <c r="O1" s="374"/>
+      <c r="P1" s="374"/>
+      <c r="Q1" s="375"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -19497,12 +19602,12 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="368" t="s">
+      <c r="R3" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="369"/>
-      <c r="T3" s="369"/>
-      <c r="U3" s="370"/>
+      <c r="S3" s="378"/>
+      <c r="T3" s="378"/>
+      <c r="U3" s="381"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
@@ -19555,12 +19660,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="373" t="s">
+      <c r="R5" s="370" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="374"/>
-      <c r="T5" s="374"/>
-      <c r="U5" s="375"/>
+      <c r="S5" s="371"/>
+      <c r="T5" s="371"/>
+      <c r="U5" s="372"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
@@ -19582,12 +19687,12 @@
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="29"/>
-      <c r="R6" s="373" t="s">
+      <c r="R6" s="370" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="374"/>
-      <c r="T6" s="374"/>
-      <c r="U6" s="375"/>
+      <c r="S6" s="371"/>
+      <c r="T6" s="371"/>
+      <c r="U6" s="372"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
@@ -20826,18 +20931,18 @@
       <c r="AB1" s="244"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B2" s="361" t="s">
+      <c r="B2" s="366" t="s">
         <v>586</v>
       </c>
-      <c r="C2" s="361"/>
-      <c r="D2" s="361"/>
-      <c r="E2" s="361"/>
-      <c r="F2" s="361"/>
-      <c r="G2" s="361"/>
-      <c r="H2" s="361"/>
-      <c r="I2" s="361"/>
-      <c r="J2" s="361"/>
-      <c r="K2" s="361"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366"/>
+      <c r="F2" s="366"/>
+      <c r="G2" s="366"/>
+      <c r="H2" s="366"/>
+      <c r="I2" s="366"/>
+      <c r="J2" s="366"/>
+      <c r="K2" s="366"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
@@ -21220,15 +21325,15 @@
       <c r="O18" s="18">
         <v>1</v>
       </c>
-      <c r="V18" s="361" t="s">
+      <c r="V18" s="366" t="s">
         <v>939</v>
       </c>
-      <c r="W18" s="361"/>
-      <c r="X18" s="361"/>
-      <c r="Y18" s="361"/>
-      <c r="Z18" s="361"/>
-      <c r="AA18" s="361"/>
-      <c r="AB18" s="361"/>
+      <c r="W18" s="366"/>
+      <c r="X18" s="366"/>
+      <c r="Y18" s="366"/>
+      <c r="Z18" s="366"/>
+      <c r="AA18" s="366"/>
+      <c r="AB18" s="366"/>
       <c r="AC18" s="166"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.4">
@@ -23237,18 +23342,18 @@
       <c r="A89" s="253" t="s">
         <v>898</v>
       </c>
-      <c r="B89" s="368" t="s">
+      <c r="B89" s="377" t="s">
         <v>899</v>
       </c>
-      <c r="C89" s="369"/>
-      <c r="D89" s="369"/>
-      <c r="E89" s="370"/>
-      <c r="G89" s="377" t="s">
+      <c r="C89" s="378"/>
+      <c r="D89" s="378"/>
+      <c r="E89" s="381"/>
+      <c r="G89" s="382" t="s">
         <v>900</v>
       </c>
-      <c r="H89" s="378"/>
-      <c r="I89" s="378"/>
-      <c r="J89" s="379"/>
+      <c r="H89" s="383"/>
+      <c r="I89" s="383"/>
+      <c r="J89" s="384"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B90" s="28" t="s">
@@ -25948,11 +26053,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="368" t="s">
+      <c r="D1" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="369"/>
-      <c r="F1" s="369"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
       <c r="G1" s="37"/>
       <c r="H1" s="45"/>
       <c r="I1" s="68"/>
@@ -25994,12 +26099,12 @@
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D3" s="373" t="s">
+      <c r="D3" s="370" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374"/>
-      <c r="G3" s="375"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="371"/>
+      <c r="G3" s="372"/>
       <c r="H3" s="85"/>
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
@@ -26008,12 +26113,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="365" t="s">
+      <c r="D6" s="373" t="s">
         <v>535</v>
       </c>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
-      <c r="G6" s="367"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="375"/>
       <c r="H6" s="88"/>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
@@ -26022,27 +26127,27 @@
       <c r="M6" s="70"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
-      <c r="P6" s="365" t="s">
+      <c r="P6" s="373" t="s">
         <v>536</v>
       </c>
-      <c r="Q6" s="366"/>
-      <c r="R6" s="366"/>
-      <c r="S6" s="367"/>
-      <c r="AF6" s="365" t="s">
+      <c r="Q6" s="374"/>
+      <c r="R6" s="374"/>
+      <c r="S6" s="375"/>
+      <c r="AF6" s="373" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="366"/>
-      <c r="AH6" s="366"/>
-      <c r="AI6" s="367"/>
+      <c r="AG6" s="374"/>
+      <c r="AH6" s="374"/>
+      <c r="AI6" s="375"/>
       <c r="AJ6" s="119"/>
-      <c r="AK6" s="365" t="s">
+      <c r="AK6" s="373" t="s">
         <v>534</v>
       </c>
-      <c r="AL6" s="366"/>
-      <c r="AM6" s="366"/>
-      <c r="AN6" s="366"/>
-      <c r="AO6" s="366"/>
-      <c r="AP6" s="367"/>
+      <c r="AL6" s="374"/>
+      <c r="AM6" s="374"/>
+      <c r="AN6" s="374"/>
+      <c r="AO6" s="374"/>
+      <c r="AP6" s="375"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="39" t="s">
@@ -26120,11 +26225,11 @@
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
       <c r="L8" s="70"/>
-      <c r="M8" s="381" t="s">
+      <c r="M8" s="385" t="s">
         <v>460</v>
       </c>
-      <c r="N8" s="381"/>
-      <c r="O8" s="381"/>
+      <c r="N8" s="385"/>
+      <c r="O8" s="385"/>
       <c r="P8" s="84"/>
       <c r="Q8" s="85"/>
       <c r="R8" s="85"/>
@@ -26145,12 +26250,12 @@
       <c r="AL8" s="120"/>
       <c r="AM8" s="120"/>
       <c r="AN8" s="120"/>
-      <c r="AQ8" s="373" t="s">
+      <c r="AQ8" s="370" t="s">
         <v>17</v>
       </c>
-      <c r="AR8" s="374"/>
-      <c r="AS8" s="374"/>
-      <c r="AT8" s="375"/>
+      <c r="AR8" s="371"/>
+      <c r="AS8" s="371"/>
+      <c r="AT8" s="372"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="248"/>
@@ -26162,11 +26267,11 @@
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
       <c r="L9" s="87"/>
-      <c r="M9" s="383" t="s">
+      <c r="M9" s="387" t="s">
         <v>461</v>
       </c>
-      <c r="N9" s="383"/>
-      <c r="O9" s="382"/>
+      <c r="N9" s="387"/>
+      <c r="O9" s="386"/>
       <c r="P9" s="84"/>
       <c r="Q9" s="85"/>
       <c r="R9" s="85"/>
@@ -26208,9 +26313,9 @@
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
       <c r="L10" s="87"/>
-      <c r="M10" s="380"/>
-      <c r="N10" s="380"/>
-      <c r="O10" s="380"/>
+      <c r="M10" s="388"/>
+      <c r="N10" s="388"/>
+      <c r="O10" s="388"/>
       <c r="P10" s="84"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="85"/>
@@ -26235,12 +26340,12 @@
       <c r="AL10" s="120"/>
       <c r="AM10" s="120"/>
       <c r="AN10" s="120"/>
-      <c r="AQ10" s="373" t="s">
+      <c r="AQ10" s="370" t="s">
         <v>51</v>
       </c>
-      <c r="AR10" s="374"/>
-      <c r="AS10" s="374"/>
-      <c r="AT10" s="375"/>
+      <c r="AR10" s="371"/>
+      <c r="AS10" s="371"/>
+      <c r="AT10" s="372"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="248"/>
@@ -26276,12 +26381,12 @@
       <c r="AL11" s="120"/>
       <c r="AM11" s="120"/>
       <c r="AN11" s="120"/>
-      <c r="AQ11" s="373" t="s">
+      <c r="AQ11" s="370" t="s">
         <v>533</v>
       </c>
-      <c r="AR11" s="374"/>
-      <c r="AS11" s="374"/>
-      <c r="AT11" s="375"/>
+      <c r="AR11" s="371"/>
+      <c r="AS11" s="371"/>
+      <c r="AT11" s="372"/>
       <c r="AU11" s="23" t="s">
         <v>217</v>
       </c>
@@ -26307,11 +26412,11 @@
       <c r="J12" s="70"/>
       <c r="K12" s="70"/>
       <c r="L12" s="70"/>
-      <c r="M12" s="384" t="s">
+      <c r="M12" s="389" t="s">
         <v>459</v>
       </c>
-      <c r="N12" s="384"/>
-      <c r="O12" s="384"/>
+      <c r="N12" s="389"/>
+      <c r="O12" s="389"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="85"/>
       <c r="R12" s="85"/>
@@ -26325,12 +26430,12 @@
       <c r="AL12" s="120"/>
       <c r="AM12" s="120"/>
       <c r="AN12" s="120"/>
-      <c r="AQ12" s="373" t="s">
+      <c r="AQ12" s="370" t="s">
         <v>458</v>
       </c>
-      <c r="AR12" s="374"/>
-      <c r="AS12" s="374"/>
-      <c r="AT12" s="375"/>
+      <c r="AR12" s="371"/>
+      <c r="AS12" s="371"/>
+      <c r="AT12" s="372"/>
       <c r="AV12" s="18" t="s">
         <v>529</v>
       </c>
@@ -26346,12 +26451,12 @@
         <v>455</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="365" t="s">
+      <c r="D13" s="373" t="s">
         <v>462</v>
       </c>
-      <c r="E13" s="366"/>
-      <c r="F13" s="366"/>
-      <c r="G13" s="367"/>
+      <c r="E13" s="374"/>
+      <c r="F13" s="374"/>
+      <c r="G13" s="375"/>
       <c r="H13" s="133" t="s">
         <v>547</v>
       </c>
@@ -26374,11 +26479,11 @@
       <c r="O13" s="146" t="s">
         <v>551</v>
       </c>
-      <c r="P13" s="365" t="s">
+      <c r="P13" s="373" t="s">
         <v>993</v>
       </c>
-      <c r="Q13" s="366"/>
-      <c r="R13" s="366"/>
+      <c r="Q13" s="374"/>
+      <c r="R13" s="374"/>
       <c r="S13" s="122"/>
       <c r="T13" s="136" t="s">
         <v>572</v>
@@ -26414,18 +26519,18 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="119"/>
-      <c r="AK13" s="373" t="s">
+      <c r="AK13" s="370" t="s">
         <v>462</v>
       </c>
-      <c r="AL13" s="374"/>
-      <c r="AM13" s="374"/>
-      <c r="AN13" s="374"/>
-      <c r="AQ13" s="373" t="s">
+      <c r="AL13" s="371"/>
+      <c r="AM13" s="371"/>
+      <c r="AN13" s="371"/>
+      <c r="AQ13" s="370" t="s">
         <v>526</v>
       </c>
-      <c r="AR13" s="361"/>
-      <c r="AS13" s="361"/>
-      <c r="AT13" s="361"/>
+      <c r="AR13" s="366"/>
+      <c r="AS13" s="366"/>
+      <c r="AT13" s="366"/>
       <c r="AV13" s="18" t="s">
         <v>530</v>
       </c>
@@ -27089,14 +27194,14 @@
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="394"/>
-      <c r="I30" s="394"/>
-      <c r="J30" s="394"/>
-      <c r="K30" s="394"/>
-      <c r="L30" s="394"/>
-      <c r="M30" s="394"/>
-      <c r="N30" s="394"/>
-      <c r="O30" s="395"/>
+      <c r="H30" s="363"/>
+      <c r="I30" s="363"/>
+      <c r="J30" s="363"/>
+      <c r="K30" s="363"/>
+      <c r="L30" s="363"/>
+      <c r="M30" s="363"/>
+      <c r="N30" s="363"/>
+      <c r="O30" s="364"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
@@ -27121,8 +27226,8 @@
       </c>
       <c r="AO30" s="125"/>
       <c r="AP30" s="127"/>
-      <c r="AR30" s="382"/>
-      <c r="AS30" s="382"/>
+      <c r="AR30" s="386"/>
+      <c r="AS30" s="386"/>
     </row>
     <row r="31" spans="1:52" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="163" t="s">
@@ -27576,8 +27681,8 @@
         <v>85</v>
       </c>
       <c r="AO40" s="125"/>
-      <c r="AR40" s="380"/>
-      <c r="AS40" s="380"/>
+      <c r="AR40" s="388"/>
+      <c r="AS40" s="388"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="117" t="s">
@@ -27805,8 +27910,8 @@
         <v>549</v>
       </c>
       <c r="AP46" s="127"/>
-      <c r="AR46" s="380"/>
-      <c r="AS46" s="380"/>
+      <c r="AR46" s="388"/>
+      <c r="AS46" s="388"/>
     </row>
     <row r="47" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="117" t="s">
@@ -27885,12 +27990,12 @@
         <v>457</v>
       </c>
       <c r="C48" s="144"/>
-      <c r="D48" s="365" t="s">
+      <c r="D48" s="373" t="s">
         <v>462</v>
       </c>
-      <c r="E48" s="366"/>
-      <c r="F48" s="366"/>
-      <c r="G48" s="367"/>
+      <c r="E48" s="374"/>
+      <c r="F48" s="374"/>
+      <c r="G48" s="375"/>
       <c r="H48" s="182"/>
       <c r="I48" s="182"/>
       <c r="J48" s="182"/>
@@ -27899,11 +28004,11 @@
       <c r="M48" s="259"/>
       <c r="N48" s="259"/>
       <c r="O48" s="259"/>
-      <c r="P48" s="365" t="s">
+      <c r="P48" s="373" t="s">
         <v>463</v>
       </c>
-      <c r="Q48" s="366"/>
-      <c r="R48" s="366"/>
+      <c r="Q48" s="374"/>
+      <c r="R48" s="374"/>
       <c r="S48" s="154"/>
       <c r="Z48" s="151" t="s">
         <v>548</v>
@@ -29219,6 +29324,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="AQ11:AT11"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="D6:G6"/>
@@ -29235,13 +29347,6 @@
     <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="AQ10:AT10"/>
     <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="AR46:AS46"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AR40:AS40"/>
-    <mergeCell ref="AQ11:AT11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29299,17 +29404,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="368" t="s">
+      <c r="B1" s="377" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
       <c r="E1" s="37"/>
-      <c r="F1" s="368" t="s">
+      <c r="F1" s="377" t="s">
         <v>836</v>
       </c>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -29352,61 +29457,61 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="362" t="s">
+      <c r="B4" s="367" t="s">
         <v>835</v>
       </c>
-      <c r="C4" s="371"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="372"/>
-      <c r="F4" s="362" t="s">
+      <c r="C4" s="368"/>
+      <c r="D4" s="368"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="367" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="371"/>
-      <c r="H4" s="371"/>
-      <c r="I4" s="372"/>
+      <c r="G4" s="368"/>
+      <c r="H4" s="368"/>
+      <c r="I4" s="369"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="373" t="s">
+      <c r="B5" s="370" t="s">
         <v>757</v>
       </c>
-      <c r="C5" s="374"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="375"/>
-      <c r="F5" s="373" t="s">
+      <c r="C5" s="371"/>
+      <c r="D5" s="371"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="370" t="s">
         <v>757</v>
       </c>
-      <c r="G5" s="374"/>
-      <c r="H5" s="374"/>
-      <c r="I5" s="375"/>
+      <c r="G5" s="371"/>
+      <c r="H5" s="371"/>
+      <c r="I5" s="372"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="365" t="s">
+      <c r="B6" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="366"/>
-      <c r="D6" s="366"/>
-      <c r="E6" s="367"/>
+      <c r="C6" s="374"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="375"/>
       <c r="F6" s="376" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="366"/>
-      <c r="H6" s="366"/>
-      <c r="I6" s="366"/>
-      <c r="J6" s="365" t="s">
+      <c r="G6" s="374"/>
+      <c r="H6" s="374"/>
+      <c r="I6" s="374"/>
+      <c r="J6" s="373" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="366"/>
-      <c r="L6" s="366"/>
-      <c r="M6" s="367"/>
-      <c r="N6" s="365" t="s">
+      <c r="K6" s="374"/>
+      <c r="L6" s="374"/>
+      <c r="M6" s="375"/>
+      <c r="N6" s="373" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="366"/>
-      <c r="P6" s="366"/>
-      <c r="Q6" s="367"/>
+      <c r="O6" s="374"/>
+      <c r="P6" s="374"/>
+      <c r="Q6" s="375"/>
       <c r="V6" s="41"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
@@ -29435,24 +29540,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="170"/>
-      <c r="B7" s="365" t="s">
+      <c r="B7" s="373" t="s">
         <v>535</v>
       </c>
-      <c r="C7" s="366"/>
-      <c r="D7" s="366"/>
-      <c r="E7" s="367"/>
-      <c r="F7" s="365" t="s">
+      <c r="C7" s="374"/>
+      <c r="D7" s="374"/>
+      <c r="E7" s="375"/>
+      <c r="F7" s="373" t="s">
         <v>536</v>
       </c>
-      <c r="G7" s="366"/>
-      <c r="H7" s="366"/>
-      <c r="I7" s="367"/>
-      <c r="J7" s="365" t="s">
+      <c r="G7" s="374"/>
+      <c r="H7" s="374"/>
+      <c r="I7" s="375"/>
+      <c r="J7" s="373" t="s">
         <v>679</v>
       </c>
-      <c r="K7" s="366"/>
-      <c r="L7" s="366"/>
-      <c r="M7" s="367"/>
+      <c r="K7" s="374"/>
+      <c r="L7" s="374"/>
+      <c r="M7" s="375"/>
       <c r="N7" s="167"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
@@ -33144,6 +33249,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:E4"/>
@@ -33152,11 +33262,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33219,31 +33324,31 @@
       <c r="B1" s="222"/>
       <c r="C1" s="222"/>
       <c r="D1" s="319"/>
-      <c r="E1" s="368" t="s">
+      <c r="E1" s="377" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="369"/>
-      <c r="G1" s="369"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="37"/>
       <c r="I1" s="98"/>
-      <c r="J1" s="368" t="s">
+      <c r="J1" s="377" t="s">
         <v>836</v>
       </c>
-      <c r="K1" s="369"/>
-      <c r="L1" s="369"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
       <c r="M1" s="47"/>
       <c r="N1" s="281"/>
-      <c r="O1" s="368" t="s">
+      <c r="O1" s="377" t="s">
         <v>886</v>
       </c>
-      <c r="P1" s="369"/>
-      <c r="Q1" s="369"/>
+      <c r="P1" s="378"/>
+      <c r="Q1" s="378"/>
       <c r="R1" s="37"/>
-      <c r="S1" s="368" t="s">
+      <c r="S1" s="377" t="s">
         <v>889</v>
       </c>
-      <c r="T1" s="369"/>
-      <c r="U1" s="369"/>
+      <c r="T1" s="378"/>
+      <c r="U1" s="378"/>
       <c r="V1" s="47"/>
       <c r="W1" s="279"/>
       <c r="X1" s="242"/>
@@ -33252,11 +33357,11 @@
       <c r="AA1" s="273"/>
       <c r="AB1" s="273"/>
       <c r="AC1" s="273"/>
-      <c r="AD1" s="368" t="s">
+      <c r="AD1" s="377" t="s">
         <v>890</v>
       </c>
-      <c r="AE1" s="369"/>
-      <c r="AF1" s="369"/>
+      <c r="AE1" s="378"/>
+      <c r="AF1" s="378"/>
       <c r="AG1" s="37"/>
       <c r="AH1" s="345"/>
       <c r="AI1" s="42"/>
@@ -33360,72 +33465,72 @@
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E4" s="362" t="s">
+      <c r="E4" s="367" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="371"/>
-      <c r="G4" s="371"/>
-      <c r="H4" s="372"/>
+      <c r="F4" s="368"/>
+      <c r="G4" s="368"/>
+      <c r="H4" s="369"/>
       <c r="I4" s="70"/>
-      <c r="J4" s="362" t="s">
+      <c r="J4" s="367" t="s">
         <v>236</v>
       </c>
-      <c r="K4" s="371"/>
-      <c r="L4" s="371"/>
-      <c r="M4" s="372"/>
+      <c r="K4" s="368"/>
+      <c r="L4" s="368"/>
+      <c r="M4" s="369"/>
       <c r="N4" s="209"/>
-      <c r="O4" s="362" t="s">
+      <c r="O4" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="P4" s="371"/>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="372"/>
-      <c r="S4" s="362" t="s">
+      <c r="P4" s="368"/>
+      <c r="Q4" s="368"/>
+      <c r="R4" s="369"/>
+      <c r="S4" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="T4" s="371"/>
-      <c r="U4" s="371"/>
-      <c r="V4" s="372"/>
-      <c r="AD4" s="362" t="s">
+      <c r="T4" s="368"/>
+      <c r="U4" s="368"/>
+      <c r="V4" s="369"/>
+      <c r="AD4" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="AE4" s="371"/>
-      <c r="AF4" s="371"/>
-      <c r="AG4" s="372"/>
+      <c r="AE4" s="368"/>
+      <c r="AF4" s="368"/>
+      <c r="AG4" s="369"/>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E5" s="373" t="s">
+      <c r="E5" s="370" t="s">
         <v>757</v>
       </c>
-      <c r="F5" s="374"/>
-      <c r="G5" s="374"/>
-      <c r="H5" s="375"/>
+      <c r="F5" s="371"/>
+      <c r="G5" s="371"/>
+      <c r="H5" s="372"/>
       <c r="I5" s="274"/>
-      <c r="J5" s="373" t="s">
+      <c r="J5" s="370" t="s">
         <v>757</v>
       </c>
-      <c r="K5" s="374"/>
-      <c r="L5" s="374"/>
-      <c r="M5" s="375"/>
+      <c r="K5" s="371"/>
+      <c r="L5" s="371"/>
+      <c r="M5" s="372"/>
       <c r="N5" s="71"/>
-      <c r="O5" s="373" t="s">
+      <c r="O5" s="370" t="s">
         <v>757</v>
       </c>
-      <c r="P5" s="374"/>
-      <c r="Q5" s="374"/>
-      <c r="R5" s="375"/>
-      <c r="S5" s="373" t="s">
+      <c r="P5" s="371"/>
+      <c r="Q5" s="371"/>
+      <c r="R5" s="372"/>
+      <c r="S5" s="370" t="s">
         <v>800</v>
       </c>
-      <c r="T5" s="374"/>
-      <c r="U5" s="374"/>
-      <c r="V5" s="375"/>
-      <c r="AD5" s="373" t="s">
+      <c r="T5" s="371"/>
+      <c r="U5" s="371"/>
+      <c r="V5" s="372"/>
+      <c r="AD5" s="370" t="s">
         <v>800</v>
       </c>
-      <c r="AE5" s="374"/>
-      <c r="AF5" s="374"/>
-      <c r="AG5" s="375"/>
+      <c r="AE5" s="371"/>
+      <c r="AF5" s="371"/>
+      <c r="AG5" s="372"/>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="170" t="s">
@@ -33434,12 +33539,12 @@
       <c r="B6" s="222"/>
       <c r="C6" s="222"/>
       <c r="D6" s="319"/>
-      <c r="E6" s="365" t="s">
+      <c r="E6" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="367"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="375"/>
       <c r="I6" s="273"/>
       <c r="J6" s="41"/>
       <c r="K6" s="42"/>
@@ -33449,9 +33554,9 @@
       <c r="O6" s="376" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="366"/>
-      <c r="Q6" s="366"/>
-      <c r="R6" s="366"/>
+      <c r="P6" s="374"/>
+      <c r="Q6" s="374"/>
+      <c r="R6" s="374"/>
       <c r="S6" s="41"/>
       <c r="T6" s="42"/>
       <c r="U6" s="42"/>
@@ -33463,23 +33568,23 @@
       <c r="AA6" s="273"/>
       <c r="AB6" s="273"/>
       <c r="AC6" s="273"/>
-      <c r="AD6" s="365" t="s">
+      <c r="AD6" s="373" t="s">
         <v>930</v>
       </c>
-      <c r="AE6" s="366"/>
-      <c r="AF6" s="366"/>
-      <c r="AG6" s="367"/>
+      <c r="AE6" s="374"/>
+      <c r="AF6" s="374"/>
+      <c r="AG6" s="375"/>
       <c r="AH6" s="345"/>
       <c r="AI6" s="42"/>
       <c r="AJ6" s="42"/>
       <c r="AK6" s="42"/>
       <c r="AL6" s="43"/>
-      <c r="AM6" s="365" t="s">
+      <c r="AM6" s="373" t="s">
         <v>181</v>
       </c>
-      <c r="AN6" s="366"/>
-      <c r="AO6" s="366"/>
-      <c r="AP6" s="367"/>
+      <c r="AN6" s="374"/>
+      <c r="AO6" s="374"/>
+      <c r="AP6" s="375"/>
       <c r="AQ6" s="174"/>
       <c r="AR6" s="175"/>
       <c r="AS6" s="175"/>
@@ -33496,45 +33601,45 @@
       <c r="D7" s="305" t="s">
         <v>1042</v>
       </c>
-      <c r="E7" s="365" t="s">
+      <c r="E7" s="373" t="s">
         <v>535</v>
       </c>
-      <c r="F7" s="366"/>
-      <c r="G7" s="366"/>
-      <c r="H7" s="367"/>
+      <c r="F7" s="374"/>
+      <c r="G7" s="374"/>
+      <c r="H7" s="375"/>
       <c r="I7" s="113"/>
-      <c r="J7" s="365" t="s">
+      <c r="J7" s="373" t="s">
         <v>723</v>
       </c>
-      <c r="K7" s="366"/>
-      <c r="L7" s="366"/>
-      <c r="M7" s="367"/>
+      <c r="K7" s="374"/>
+      <c r="L7" s="374"/>
+      <c r="M7" s="375"/>
       <c r="N7" s="285"/>
-      <c r="O7" s="365" t="s">
+      <c r="O7" s="373" t="s">
         <v>536</v>
       </c>
-      <c r="P7" s="366"/>
-      <c r="Q7" s="366"/>
-      <c r="R7" s="367"/>
-      <c r="S7" s="365"/>
-      <c r="T7" s="366"/>
-      <c r="U7" s="366"/>
-      <c r="V7" s="367"/>
-      <c r="W7" s="387" t="s">
+      <c r="P7" s="374"/>
+      <c r="Q7" s="374"/>
+      <c r="R7" s="375"/>
+      <c r="S7" s="373"/>
+      <c r="T7" s="374"/>
+      <c r="U7" s="374"/>
+      <c r="V7" s="375"/>
+      <c r="W7" s="392" t="s">
         <v>931</v>
       </c>
-      <c r="X7" s="388"/>
-      <c r="Y7" s="388"/>
-      <c r="Z7" s="389"/>
+      <c r="X7" s="393"/>
+      <c r="Y7" s="393"/>
+      <c r="Z7" s="394"/>
       <c r="AA7" s="113"/>
       <c r="AB7" s="113"/>
       <c r="AC7" s="113"/>
-      <c r="AD7" s="365" t="s">
+      <c r="AD7" s="373" t="s">
         <v>888</v>
       </c>
-      <c r="AE7" s="366"/>
-      <c r="AF7" s="366"/>
-      <c r="AG7" s="367"/>
+      <c r="AE7" s="374"/>
+      <c r="AF7" s="374"/>
+      <c r="AG7" s="375"/>
       <c r="AH7" s="341"/>
       <c r="AI7" s="25"/>
       <c r="AJ7" s="25"/>
@@ -33544,12 +33649,12 @@
       <c r="AN7" s="177"/>
       <c r="AO7" s="177"/>
       <c r="AP7" s="178"/>
-      <c r="AQ7" s="365" t="s">
+      <c r="AQ7" s="373" t="s">
         <v>724</v>
       </c>
-      <c r="AR7" s="366"/>
-      <c r="AS7" s="366"/>
-      <c r="AT7" s="367"/>
+      <c r="AR7" s="374"/>
+      <c r="AS7" s="374"/>
+      <c r="AT7" s="375"/>
     </row>
     <row r="8" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="170">
@@ -33900,12 +34005,12 @@
       <c r="I14" s="61" t="s">
         <v>941</v>
       </c>
-      <c r="J14" s="385" t="s">
+      <c r="J14" s="390" t="s">
         <v>885</v>
       </c>
-      <c r="K14" s="386"/>
-      <c r="L14" s="386"/>
-      <c r="M14" s="386"/>
+      <c r="K14" s="391"/>
+      <c r="L14" s="391"/>
+      <c r="M14" s="391"/>
       <c r="N14" s="130"/>
       <c r="O14" s="54" t="s">
         <v>151</v>
@@ -33915,12 +34020,12 @@
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="18"/>
-      <c r="S14" s="385" t="s">
+      <c r="S14" s="390" t="s">
         <v>885</v>
       </c>
-      <c r="T14" s="386"/>
-      <c r="U14" s="386"/>
-      <c r="V14" s="386"/>
+      <c r="T14" s="391"/>
+      <c r="U14" s="391"/>
+      <c r="V14" s="391"/>
       <c r="AD14" s="142"/>
       <c r="AE14" s="61"/>
       <c r="AF14" s="9"/>
@@ -34025,7 +34130,7 @@
       <c r="V16" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="AC16" s="396"/>
+      <c r="AC16" s="365"/>
       <c r="AD16" s="142"/>
       <c r="AE16" s="61"/>
       <c r="AF16" s="9"/>
@@ -34253,12 +34358,12 @@
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="61"/>
-      <c r="J22" s="385" t="s">
+      <c r="J22" s="390" t="s">
         <v>885</v>
       </c>
-      <c r="K22" s="386"/>
-      <c r="L22" s="386"/>
-      <c r="M22" s="386"/>
+      <c r="K22" s="391"/>
+      <c r="L22" s="391"/>
+      <c r="M22" s="391"/>
       <c r="N22" s="130"/>
       <c r="P22" s="58" t="s">
         <v>197</v>
@@ -34269,12 +34374,12 @@
       <c r="R22" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="S22" s="385" t="s">
+      <c r="S22" s="390" t="s">
         <v>885</v>
       </c>
-      <c r="T22" s="386"/>
-      <c r="U22" s="386"/>
-      <c r="V22" s="386"/>
+      <c r="T22" s="391"/>
+      <c r="U22" s="391"/>
+      <c r="V22" s="391"/>
       <c r="Y22" s="29"/>
       <c r="Z22" s="29" t="s">
         <v>411</v>
@@ -34580,12 +34685,12 @@
         <v>493</v>
       </c>
       <c r="I30" s="61"/>
-      <c r="J30" s="385" t="s">
+      <c r="J30" s="390" t="s">
         <v>885</v>
       </c>
-      <c r="K30" s="386"/>
-      <c r="L30" s="386"/>
-      <c r="M30" s="386"/>
+      <c r="K30" s="391"/>
+      <c r="L30" s="391"/>
+      <c r="M30" s="391"/>
       <c r="N30" s="287"/>
       <c r="P30" s="58" t="s">
         <v>211</v>
@@ -34596,12 +34701,12 @@
       <c r="R30" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="S30" s="385" t="s">
+      <c r="S30" s="390" t="s">
         <v>885</v>
       </c>
-      <c r="T30" s="386"/>
-      <c r="U30" s="386"/>
-      <c r="V30" s="386"/>
+      <c r="T30" s="391"/>
+      <c r="U30" s="391"/>
+      <c r="V30" s="391"/>
       <c r="Y30" s="29"/>
       <c r="Z30" s="29" t="s">
         <v>649</v>
@@ -34889,12 +34994,12 @@
         <v>493</v>
       </c>
       <c r="I38" s="61"/>
-      <c r="J38" s="385" t="s">
+      <c r="J38" s="390" t="s">
         <v>885</v>
       </c>
-      <c r="K38" s="386"/>
-      <c r="L38" s="386"/>
-      <c r="M38" s="386"/>
+      <c r="K38" s="391"/>
+      <c r="L38" s="391"/>
+      <c r="M38" s="391"/>
       <c r="N38" s="287"/>
       <c r="O38" s="9"/>
       <c r="P38" s="58" t="s">
@@ -34902,12 +35007,12 @@
       </c>
       <c r="Q38" s="61"/>
       <c r="R38" s="61"/>
-      <c r="S38" s="385" t="s">
+      <c r="S38" s="390" t="s">
         <v>885</v>
       </c>
-      <c r="T38" s="386"/>
-      <c r="U38" s="386"/>
-      <c r="V38" s="386"/>
+      <c r="T38" s="391"/>
+      <c r="U38" s="391"/>
+      <c r="V38" s="391"/>
       <c r="Y38" s="29"/>
       <c r="Z38" s="29" t="s">
         <v>653</v>
@@ -35159,12 +35264,12 @@
       </c>
       <c r="H46" s="62"/>
       <c r="I46" s="61"/>
-      <c r="J46" s="385" t="s">
+      <c r="J46" s="390" t="s">
         <v>885</v>
       </c>
-      <c r="K46" s="386"/>
-      <c r="L46" s="386"/>
-      <c r="M46" s="386"/>
+      <c r="K46" s="391"/>
+      <c r="L46" s="391"/>
+      <c r="M46" s="391"/>
       <c r="O46" s="61"/>
       <c r="P46" s="53" t="s">
         <v>493</v>
@@ -35361,12 +35466,12 @@
       <c r="B58" s="225" t="s">
         <v>839</v>
       </c>
-      <c r="J58" s="385" t="s">
+      <c r="J58" s="390" t="s">
         <v>885</v>
       </c>
-      <c r="K58" s="386"/>
-      <c r="L58" s="386"/>
-      <c r="M58" s="386"/>
+      <c r="K58" s="391"/>
+      <c r="L58" s="391"/>
+      <c r="M58" s="391"/>
       <c r="AF58" s="56" t="s">
         <v>793</v>
       </c>
@@ -35770,6 +35875,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W7:Z7"/>
     <mergeCell ref="J58:M58"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="S1:U1"/>
@@ -35782,30 +35911,6 @@
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="J38:M38"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AM6:AP6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35816,11 +35921,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6F30D8-4F74-43CF-B0A2-082294AF7E0E}">
   <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W54" sqref="W54"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -35863,40 +35968,40 @@
       <c r="D1" s="349"/>
       <c r="E1" s="350"/>
       <c r="F1" s="351"/>
-      <c r="G1" s="365" t="s">
+      <c r="G1" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="366"/>
-      <c r="I1" s="366"/>
-      <c r="J1" s="390"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="395"/>
       <c r="K1" s="376" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="366"/>
-      <c r="M1" s="366"/>
-      <c r="N1" s="366"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
+      <c r="N1" s="374"/>
       <c r="O1" s="296"/>
       <c r="P1" s="295"/>
       <c r="Q1" s="296"/>
       <c r="R1" s="297"/>
-      <c r="S1" s="365" t="s">
+      <c r="S1" s="373" t="s">
         <v>383</v>
       </c>
-      <c r="T1" s="366"/>
-      <c r="U1" s="366"/>
-      <c r="V1" s="367"/>
+      <c r="T1" s="374"/>
+      <c r="U1" s="374"/>
+      <c r="V1" s="375"/>
       <c r="W1" s="296"/>
       <c r="X1" s="296"/>
       <c r="AA1" s="41"/>
       <c r="AB1" s="42"/>
       <c r="AC1" s="42"/>
       <c r="AD1" s="43"/>
-      <c r="AK1" s="365" t="s">
+      <c r="AK1" s="373" t="s">
         <v>848</v>
       </c>
-      <c r="AL1" s="366"/>
-      <c r="AM1" s="366"/>
-      <c r="AN1" s="367"/>
+      <c r="AL1" s="374"/>
+      <c r="AM1" s="374"/>
+      <c r="AN1" s="375"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -35987,10 +36092,10 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="37"/>
-      <c r="K3" s="368"/>
-      <c r="L3" s="369"/>
-      <c r="M3" s="369"/>
-      <c r="N3" s="370"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="378"/>
+      <c r="M3" s="378"/>
+      <c r="N3" s="381"/>
       <c r="O3" s="298" t="s">
         <v>1025</v>
       </c>
@@ -37178,7 +37283,7 @@
         <v>107</v>
       </c>
       <c r="D32" s="331" t="s">
-        <v>523</v>
+        <v>1120</v>
       </c>
       <c r="E32" s="333"/>
       <c r="G32" s="59" t="s">

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDCA582-A67D-47B3-BAF9-FAC2F2684549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC0ADC-7661-4D26-B359-0855AFA29A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="9" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="8" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -5540,6 +5540,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5554,33 +5578,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5590,6 +5590,9 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5598,9 +5601,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6733,8 +6733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96E198-A134-4E8D-93D2-A301FB776858}">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6766,25 +6766,25 @@
       <c r="C1" s="361"/>
       <c r="D1" s="349"/>
       <c r="E1" s="351"/>
-      <c r="F1" s="373" t="s">
+      <c r="F1" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="375"/>
-      <c r="J1" s="373" t="s">
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="370" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="375"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="372"/>
       <c r="N1" s="323"/>
-      <c r="O1" s="373" t="s">
+      <c r="O1" s="370" t="s">
         <v>383</v>
       </c>
-      <c r="P1" s="374"/>
-      <c r="Q1" s="374"/>
-      <c r="R1" s="375"/>
+      <c r="P1" s="371"/>
+      <c r="Q1" s="371"/>
+      <c r="R1" s="372"/>
       <c r="S1" s="324"/>
       <c r="T1" s="324"/>
     </row>
@@ -6888,12 +6888,12 @@
       <c r="T3" s="328" t="s">
         <v>932</v>
       </c>
-      <c r="U3" s="378" t="s">
+      <c r="U3" s="374" t="s">
         <v>832</v>
       </c>
-      <c r="V3" s="378"/>
-      <c r="W3" s="378"/>
-      <c r="X3" s="381"/>
+      <c r="V3" s="374"/>
+      <c r="W3" s="374"/>
+      <c r="X3" s="375"/>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="241" t="s">
@@ -6963,12 +6963,12 @@
       <c r="Q5" s="240"/>
       <c r="R5" s="49"/>
       <c r="S5" s="332"/>
-      <c r="U5" s="371" t="s">
+      <c r="U5" s="379" t="s">
         <v>761</v>
       </c>
-      <c r="V5" s="371"/>
-      <c r="W5" s="371"/>
-      <c r="X5" s="372"/>
+      <c r="V5" s="379"/>
+      <c r="W5" s="379"/>
+      <c r="X5" s="380"/>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="241" t="s">
@@ -6997,12 +6997,12 @@
       <c r="N6" s="335"/>
       <c r="Q6" s="240"/>
       <c r="R6" s="49"/>
-      <c r="U6" s="371" t="s">
+      <c r="U6" s="379" t="s">
         <v>833</v>
       </c>
-      <c r="V6" s="371"/>
-      <c r="W6" s="371"/>
-      <c r="X6" s="372"/>
+      <c r="V6" s="379"/>
+      <c r="W6" s="379"/>
+      <c r="X6" s="380"/>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="241" t="s">
@@ -9303,34 +9303,34 @@
     <row r="1" spans="1:33" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" s="349"/>
       <c r="D1" s="351"/>
-      <c r="E1" s="373" t="s">
+      <c r="E1" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="375"/>
-      <c r="I1" s="373" t="s">
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="370" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="375"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="372"/>
       <c r="M1" s="323"/>
       <c r="N1" s="325"/>
-      <c r="O1" s="373" t="s">
+      <c r="O1" s="370" t="s">
         <v>383</v>
       </c>
-      <c r="P1" s="374"/>
-      <c r="Q1" s="374"/>
-      <c r="R1" s="375"/>
+      <c r="P1" s="371"/>
+      <c r="Q1" s="371"/>
+      <c r="R1" s="372"/>
       <c r="S1" s="324"/>
       <c r="T1" s="324"/>
-      <c r="U1" s="373" t="s">
+      <c r="U1" s="370" t="s">
         <v>181</v>
       </c>
-      <c r="V1" s="374"/>
-      <c r="W1" s="374"/>
-      <c r="X1" s="375"/>
+      <c r="V1" s="371"/>
+      <c r="W1" s="371"/>
+      <c r="X1" s="372"/>
       <c r="Y1" s="40"/>
       <c r="Z1" s="40"/>
       <c r="AA1" s="40"/>
@@ -9440,12 +9440,12 @@
       <c r="V3" s="33"/>
       <c r="W3" s="33"/>
       <c r="X3" s="36"/>
-      <c r="Y3" s="377" t="s">
+      <c r="Y3" s="373" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="378"/>
-      <c r="AA3" s="378"/>
-      <c r="AB3" s="381"/>
+      <c r="Z3" s="374"/>
+      <c r="AA3" s="374"/>
+      <c r="AB3" s="375"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="241" t="s">
@@ -9518,12 +9518,12 @@
       <c r="V5" s="33"/>
       <c r="W5" s="33"/>
       <c r="X5" s="36"/>
-      <c r="Y5" s="370" t="s">
+      <c r="Y5" s="378" t="s">
         <v>236</v>
       </c>
-      <c r="Z5" s="371"/>
-      <c r="AA5" s="371"/>
-      <c r="AB5" s="372"/>
+      <c r="Z5" s="379"/>
+      <c r="AA5" s="379"/>
+      <c r="AB5" s="380"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="241" t="s">
@@ -9556,12 +9556,12 @@
       <c r="V6" s="33"/>
       <c r="W6" s="33"/>
       <c r="X6" s="36"/>
-      <c r="Y6" s="370" t="s">
+      <c r="Y6" s="378" t="s">
         <v>237</v>
       </c>
-      <c r="Z6" s="371"/>
-      <c r="AA6" s="371"/>
-      <c r="AB6" s="372"/>
+      <c r="Z6" s="379"/>
+      <c r="AA6" s="379"/>
+      <c r="AB6" s="380"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="241" t="s">
@@ -12002,30 +12002,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="241"/>
       <c r="B1" s="228"/>
-      <c r="C1" s="373" t="s">
+      <c r="C1" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="375"/>
-      <c r="G1" s="373" t="s">
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="370" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="375"/>
-      <c r="K1" s="373" t="s">
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="370" t="s">
         <v>383</v>
       </c>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="375"/>
-      <c r="O1" s="373" t="s">
+      <c r="L1" s="371"/>
+      <c r="M1" s="371"/>
+      <c r="N1" s="372"/>
+      <c r="O1" s="370" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="374"/>
-      <c r="Q1" s="374"/>
-      <c r="R1" s="375"/>
+      <c r="P1" s="371"/>
+      <c r="Q1" s="371"/>
+      <c r="R1" s="372"/>
       <c r="S1" s="191"/>
       <c r="T1" s="191"/>
       <c r="U1" s="191"/>
@@ -12124,12 +12124,12 @@
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
-      <c r="S3" s="377" t="s">
+      <c r="S3" s="373" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="378"/>
-      <c r="U3" s="378"/>
-      <c r="V3" s="381"/>
+      <c r="T3" s="374"/>
+      <c r="U3" s="374"/>
+      <c r="V3" s="375"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="241" t="s">
@@ -12198,12 +12198,12 @@
       <c r="P5" s="186"/>
       <c r="Q5" s="186"/>
       <c r="R5" s="187"/>
-      <c r="S5" s="370" t="s">
+      <c r="S5" s="378" t="s">
         <v>236</v>
       </c>
-      <c r="T5" s="371"/>
-      <c r="U5" s="371"/>
-      <c r="V5" s="372"/>
+      <c r="T5" s="379"/>
+      <c r="U5" s="379"/>
+      <c r="V5" s="380"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="241" t="s">
@@ -12234,12 +12234,12 @@
       <c r="P6" s="186"/>
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
-      <c r="S6" s="370" t="s">
+      <c r="S6" s="378" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="371"/>
-      <c r="U6" s="371"/>
-      <c r="V6" s="372"/>
+      <c r="T6" s="379"/>
+      <c r="U6" s="379"/>
+      <c r="V6" s="380"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="241" t="s">
@@ -14846,36 +14846,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="18"/>
-      <c r="C1" s="373" t="s">
+      <c r="C1" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="375"/>
-      <c r="G1" s="376" t="s">
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="381" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="373" t="s">
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="370" t="s">
         <v>383</v>
       </c>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="375"/>
-      <c r="O1" s="373" t="s">
+      <c r="L1" s="371"/>
+      <c r="M1" s="371"/>
+      <c r="N1" s="372"/>
+      <c r="O1" s="370" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="374"/>
-      <c r="Q1" s="374"/>
-      <c r="R1" s="375"/>
-      <c r="Z1" s="373" t="s">
+      <c r="P1" s="371"/>
+      <c r="Q1" s="371"/>
+      <c r="R1" s="372"/>
+      <c r="Z1" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="374"/>
-      <c r="AB1" s="374"/>
-      <c r="AC1" s="375"/>
+      <c r="AA1" s="371"/>
+      <c r="AB1" s="371"/>
+      <c r="AC1" s="372"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18"/>
@@ -14944,33 +14944,33 @@
       <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="377" t="s">
+      <c r="C3" s="373" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="378"/>
-      <c r="E3" s="378"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="377"/>
-      <c r="H3" s="378"/>
-      <c r="I3" s="378"/>
-      <c r="J3" s="381"/>
+      <c r="D3" s="374"/>
+      <c r="E3" s="374"/>
+      <c r="F3" s="375"/>
+      <c r="G3" s="373"/>
+      <c r="H3" s="374"/>
+      <c r="I3" s="374"/>
+      <c r="J3" s="375"/>
       <c r="K3" s="185"/>
       <c r="O3" s="185"/>
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
-      <c r="S3" s="377" t="s">
+      <c r="S3" s="373" t="s">
         <v>343</v>
       </c>
-      <c r="T3" s="378"/>
-      <c r="U3" s="378"/>
-      <c r="V3" s="381"/>
-      <c r="Z3" s="377" t="s">
+      <c r="T3" s="374"/>
+      <c r="U3" s="374"/>
+      <c r="V3" s="375"/>
+      <c r="Z3" s="373" t="s">
         <v>219</v>
       </c>
-      <c r="AA3" s="378"/>
-      <c r="AB3" s="378"/>
-      <c r="AC3" s="381"/>
+      <c r="AA3" s="374"/>
+      <c r="AB3" s="374"/>
+      <c r="AC3" s="375"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="34" t="s">
@@ -15027,12 +15027,12 @@
       <c r="P5" s="186"/>
       <c r="Q5" s="186"/>
       <c r="R5" s="187"/>
-      <c r="S5" s="370" t="s">
+      <c r="S5" s="378" t="s">
         <v>443</v>
       </c>
-      <c r="T5" s="371"/>
-      <c r="U5" s="371"/>
-      <c r="V5" s="372"/>
+      <c r="T5" s="379"/>
+      <c r="U5" s="379"/>
+      <c r="V5" s="380"/>
       <c r="W5" s="64" t="s">
         <v>445</v>
       </c>
@@ -15062,12 +15062,12 @@
       <c r="P6" s="186"/>
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
-      <c r="S6" s="370" t="s">
+      <c r="S6" s="378" t="s">
         <v>360</v>
       </c>
-      <c r="T6" s="371"/>
-      <c r="U6" s="371"/>
-      <c r="V6" s="372"/>
+      <c r="T6" s="379"/>
+      <c r="U6" s="379"/>
+      <c r="V6" s="380"/>
       <c r="Z6" s="185"/>
       <c r="AA6" s="186"/>
       <c r="AB6" s="186"/>
@@ -16426,17 +16426,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16471,57 +16471,57 @@
       <c r="A1" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="373" t="s">
+      <c r="B1" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="376" t="s">
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="381" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="373" t="s">
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="370" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="375"/>
-      <c r="N1" s="373" t="s">
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="372"/>
+      <c r="N1" s="370" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="374"/>
-      <c r="P1" s="374"/>
-      <c r="Q1" s="375"/>
-      <c r="R1" s="377" t="s">
+      <c r="O1" s="371"/>
+      <c r="P1" s="371"/>
+      <c r="Q1" s="372"/>
+      <c r="R1" s="373" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="378"/>
-      <c r="T1" s="378"/>
+      <c r="S1" s="374"/>
+      <c r="T1" s="374"/>
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="184"/>
-      <c r="B2" s="373" t="s">
+      <c r="B2" s="370" t="s">
         <v>535</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="375"/>
-      <c r="F2" s="373" t="s">
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="370" t="s">
         <v>536</v>
       </c>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="375"/>
-      <c r="J2" s="373" t="s">
+      <c r="G2" s="371"/>
+      <c r="H2" s="371"/>
+      <c r="I2" s="372"/>
+      <c r="J2" s="370" t="s">
         <v>679</v>
       </c>
-      <c r="K2" s="374"/>
-      <c r="L2" s="374"/>
-      <c r="M2" s="375"/>
+      <c r="K2" s="371"/>
+      <c r="L2" s="371"/>
+      <c r="M2" s="372"/>
       <c r="N2" s="39"/>
       <c r="O2" s="188"/>
       <c r="P2" s="188"/>
@@ -16623,9 +16623,9 @@
       <c r="R4" s="367" t="s">
         <v>236</v>
       </c>
-      <c r="S4" s="368"/>
-      <c r="T4" s="368"/>
-      <c r="U4" s="369"/>
+      <c r="S4" s="376"/>
+      <c r="T4" s="376"/>
+      <c r="U4" s="377"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="184" t="s">
@@ -16648,12 +16648,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="370" t="s">
+      <c r="R5" s="378" t="s">
         <v>757</v>
       </c>
-      <c r="S5" s="371"/>
-      <c r="T5" s="371"/>
-      <c r="U5" s="372"/>
+      <c r="S5" s="379"/>
+      <c r="T5" s="379"/>
+      <c r="U5" s="380"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="184" t="s">
@@ -18323,11 +18323,11 @@
       <c r="K93" s="182"/>
       <c r="L93" s="192"/>
       <c r="M93" s="192"/>
-      <c r="R93" s="377" t="s">
+      <c r="R93" s="373" t="s">
         <v>213</v>
       </c>
-      <c r="S93" s="378"/>
-      <c r="T93" s="378"/>
+      <c r="S93" s="374"/>
+      <c r="T93" s="374"/>
       <c r="U93" s="37"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -18419,9 +18419,9 @@
       <c r="R96" s="367" t="s">
         <v>51</v>
       </c>
-      <c r="S96" s="379"/>
-      <c r="T96" s="379"/>
-      <c r="U96" s="380"/>
+      <c r="S96" s="368"/>
+      <c r="T96" s="368"/>
+      <c r="U96" s="369"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="184" t="s">
@@ -18443,12 +18443,12 @@
       <c r="K97" s="61"/>
       <c r="L97" s="61"/>
       <c r="M97" s="62"/>
-      <c r="R97" s="377" t="s">
+      <c r="R97" s="373" t="s">
         <v>757</v>
       </c>
-      <c r="S97" s="378"/>
-      <c r="T97" s="378"/>
-      <c r="U97" s="381"/>
+      <c r="S97" s="374"/>
+      <c r="T97" s="374"/>
+      <c r="U97" s="375"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="184" t="s">
@@ -18500,11 +18500,11 @@
       <c r="K100" s="61"/>
       <c r="L100" s="61"/>
       <c r="M100" s="62"/>
-      <c r="R100" s="377" t="s">
+      <c r="R100" s="373" t="s">
         <v>758</v>
       </c>
-      <c r="S100" s="378"/>
-      <c r="T100" s="378"/>
+      <c r="S100" s="374"/>
+      <c r="T100" s="374"/>
       <c r="U100" s="37"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -18603,9 +18603,9 @@
       <c r="R103" s="367" t="s">
         <v>236</v>
       </c>
-      <c r="S103" s="379"/>
-      <c r="T103" s="379"/>
-      <c r="U103" s="380"/>
+      <c r="S103" s="368"/>
+      <c r="T103" s="368"/>
+      <c r="U103" s="369"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="184" t="s">
@@ -18622,12 +18622,12 @@
       <c r="L104" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="R104" s="377" t="s">
+      <c r="R104" s="373" t="s">
         <v>757</v>
       </c>
-      <c r="S104" s="378"/>
-      <c r="T104" s="378"/>
-      <c r="U104" s="381"/>
+      <c r="S104" s="374"/>
+      <c r="T104" s="374"/>
+      <c r="U104" s="375"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="184" t="s">
@@ -18977,12 +18977,12 @@
       <c r="L124" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="R124" s="377" t="s">
+      <c r="R124" s="373" t="s">
         <v>769</v>
       </c>
-      <c r="S124" s="378"/>
-      <c r="T124" s="378"/>
-      <c r="U124" s="381"/>
+      <c r="S124" s="374"/>
+      <c r="T124" s="374"/>
+      <c r="U124" s="375"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="184" t="s">
@@ -19061,20 +19061,20 @@
       <c r="R127" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="S127" s="379"/>
-      <c r="T127" s="379"/>
-      <c r="U127" s="380"/>
+      <c r="S127" s="368"/>
+      <c r="T127" s="368"/>
+      <c r="U127" s="369"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="184" t="s">
         <v>770</v>
       </c>
-      <c r="R128" s="373" t="s">
+      <c r="R128" s="370" t="s">
         <v>757</v>
       </c>
-      <c r="S128" s="374"/>
-      <c r="T128" s="374"/>
-      <c r="U128" s="375"/>
+      <c r="S128" s="371"/>
+      <c r="T128" s="371"/>
+      <c r="U128" s="372"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="184" t="s">
@@ -19129,12 +19129,12 @@
       <c r="F135" s="60" t="s">
         <v>738</v>
       </c>
-      <c r="R135" s="377" t="s">
+      <c r="R135" s="373" t="s">
         <v>789</v>
       </c>
-      <c r="S135" s="378"/>
-      <c r="T135" s="378"/>
-      <c r="U135" s="381"/>
+      <c r="S135" s="374"/>
+      <c r="T135" s="374"/>
+      <c r="U135" s="375"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="184" t="s">
@@ -19189,20 +19189,20 @@
       <c r="R138" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="S138" s="379"/>
-      <c r="T138" s="379"/>
-      <c r="U138" s="380"/>
+      <c r="S138" s="368"/>
+      <c r="T138" s="368"/>
+      <c r="U138" s="369"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="184" t="s">
         <v>747</v>
       </c>
-      <c r="R139" s="373" t="s">
+      <c r="R139" s="370" t="s">
         <v>800</v>
       </c>
-      <c r="S139" s="374"/>
-      <c r="T139" s="374"/>
-      <c r="U139" s="375"/>
+      <c r="S139" s="371"/>
+      <c r="T139" s="371"/>
+      <c r="U139" s="372"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="184" t="s">
@@ -19251,12 +19251,12 @@
       <c r="F145" s="56" t="s">
         <v>731</v>
       </c>
-      <c r="R145" s="377" t="s">
+      <c r="R145" s="373" t="s">
         <v>799</v>
       </c>
-      <c r="S145" s="378"/>
-      <c r="T145" s="378"/>
-      <c r="U145" s="381"/>
+      <c r="S145" s="374"/>
+      <c r="T145" s="374"/>
+      <c r="U145" s="375"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="184" t="s">
@@ -19311,9 +19311,9 @@
       <c r="R148" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="S148" s="379"/>
-      <c r="T148" s="379"/>
-      <c r="U148" s="380"/>
+      <c r="S148" s="368"/>
+      <c r="T148" s="368"/>
+      <c r="U148" s="369"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="184" t="s">
@@ -19323,12 +19323,12 @@
       <c r="Q149" s="56" t="s">
         <v>762</v>
       </c>
-      <c r="R149" s="373" t="s">
+      <c r="R149" s="370" t="s">
         <v>800</v>
       </c>
-      <c r="S149" s="374"/>
-      <c r="T149" s="374"/>
-      <c r="U149" s="375"/>
+      <c r="S149" s="371"/>
+      <c r="T149" s="371"/>
+      <c r="U149" s="372"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="184" t="s">
@@ -19437,21 +19437,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="R127:U127"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="B1:E1"/>
@@ -19462,6 +19447,21 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="R127:U127"/>
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19492,30 +19492,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18"/>
-      <c r="B1" s="373" t="s">
+      <c r="B1" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="376" t="s">
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="381" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="373" t="s">
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="370" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="375"/>
-      <c r="N1" s="373" t="s">
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="372"/>
+      <c r="N1" s="370" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="374"/>
-      <c r="P1" s="374"/>
-      <c r="Q1" s="375"/>
+      <c r="O1" s="371"/>
+      <c r="P1" s="371"/>
+      <c r="Q1" s="372"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -19602,12 +19602,12 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="377" t="s">
+      <c r="R3" s="373" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="378"/>
-      <c r="T3" s="378"/>
-      <c r="U3" s="381"/>
+      <c r="S3" s="374"/>
+      <c r="T3" s="374"/>
+      <c r="U3" s="375"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
@@ -19660,12 +19660,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="370" t="s">
+      <c r="R5" s="378" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="371"/>
-      <c r="T5" s="371"/>
-      <c r="U5" s="372"/>
+      <c r="S5" s="379"/>
+      <c r="T5" s="379"/>
+      <c r="U5" s="380"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
@@ -19687,12 +19687,12 @@
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="29"/>
-      <c r="R6" s="370" t="s">
+      <c r="R6" s="378" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="371"/>
-      <c r="T6" s="371"/>
-      <c r="U6" s="372"/>
+      <c r="S6" s="379"/>
+      <c r="T6" s="379"/>
+      <c r="U6" s="380"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
@@ -23342,12 +23342,12 @@
       <c r="A89" s="253" t="s">
         <v>898</v>
       </c>
-      <c r="B89" s="377" t="s">
+      <c r="B89" s="373" t="s">
         <v>899</v>
       </c>
-      <c r="C89" s="378"/>
-      <c r="D89" s="378"/>
-      <c r="E89" s="381"/>
+      <c r="C89" s="374"/>
+      <c r="D89" s="374"/>
+      <c r="E89" s="375"/>
       <c r="G89" s="382" t="s">
         <v>900</v>
       </c>
@@ -26053,11 +26053,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="377" t="s">
+      <c r="D1" s="373" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="378"/>
-      <c r="F1" s="378"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
       <c r="G1" s="37"/>
       <c r="H1" s="45"/>
       <c r="I1" s="68"/>
@@ -26099,12 +26099,12 @@
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D3" s="370" t="s">
+      <c r="D3" s="378" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="371"/>
-      <c r="F3" s="371"/>
-      <c r="G3" s="372"/>
+      <c r="E3" s="379"/>
+      <c r="F3" s="379"/>
+      <c r="G3" s="380"/>
       <c r="H3" s="85"/>
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
@@ -26113,12 +26113,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="373" t="s">
+      <c r="D6" s="370" t="s">
         <v>535</v>
       </c>
-      <c r="E6" s="374"/>
-      <c r="F6" s="374"/>
-      <c r="G6" s="375"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
+      <c r="G6" s="372"/>
       <c r="H6" s="88"/>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
@@ -26127,27 +26127,27 @@
       <c r="M6" s="70"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
-      <c r="P6" s="373" t="s">
+      <c r="P6" s="370" t="s">
         <v>536</v>
       </c>
-      <c r="Q6" s="374"/>
-      <c r="R6" s="374"/>
-      <c r="S6" s="375"/>
-      <c r="AF6" s="373" t="s">
+      <c r="Q6" s="371"/>
+      <c r="R6" s="371"/>
+      <c r="S6" s="372"/>
+      <c r="AF6" s="370" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="374"/>
-      <c r="AH6" s="374"/>
-      <c r="AI6" s="375"/>
+      <c r="AG6" s="371"/>
+      <c r="AH6" s="371"/>
+      <c r="AI6" s="372"/>
       <c r="AJ6" s="119"/>
-      <c r="AK6" s="373" t="s">
+      <c r="AK6" s="370" t="s">
         <v>534</v>
       </c>
-      <c r="AL6" s="374"/>
-      <c r="AM6" s="374"/>
-      <c r="AN6" s="374"/>
-      <c r="AO6" s="374"/>
-      <c r="AP6" s="375"/>
+      <c r="AL6" s="371"/>
+      <c r="AM6" s="371"/>
+      <c r="AN6" s="371"/>
+      <c r="AO6" s="371"/>
+      <c r="AP6" s="372"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="39" t="s">
@@ -26225,11 +26225,11 @@
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
       <c r="L8" s="70"/>
-      <c r="M8" s="385" t="s">
+      <c r="M8" s="386" t="s">
         <v>460</v>
       </c>
-      <c r="N8" s="385"/>
-      <c r="O8" s="385"/>
+      <c r="N8" s="386"/>
+      <c r="O8" s="386"/>
       <c r="P8" s="84"/>
       <c r="Q8" s="85"/>
       <c r="R8" s="85"/>
@@ -26250,12 +26250,12 @@
       <c r="AL8" s="120"/>
       <c r="AM8" s="120"/>
       <c r="AN8" s="120"/>
-      <c r="AQ8" s="370" t="s">
+      <c r="AQ8" s="378" t="s">
         <v>17</v>
       </c>
-      <c r="AR8" s="371"/>
-      <c r="AS8" s="371"/>
-      <c r="AT8" s="372"/>
+      <c r="AR8" s="379"/>
+      <c r="AS8" s="379"/>
+      <c r="AT8" s="380"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="248"/>
@@ -26267,11 +26267,11 @@
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
       <c r="L9" s="87"/>
-      <c r="M9" s="387" t="s">
+      <c r="M9" s="388" t="s">
         <v>461</v>
       </c>
-      <c r="N9" s="387"/>
-      <c r="O9" s="386"/>
+      <c r="N9" s="388"/>
+      <c r="O9" s="387"/>
       <c r="P9" s="84"/>
       <c r="Q9" s="85"/>
       <c r="R9" s="85"/>
@@ -26313,9 +26313,9 @@
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
       <c r="L10" s="87"/>
-      <c r="M10" s="388"/>
-      <c r="N10" s="388"/>
-      <c r="O10" s="388"/>
+      <c r="M10" s="385"/>
+      <c r="N10" s="385"/>
+      <c r="O10" s="385"/>
       <c r="P10" s="84"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="85"/>
@@ -26340,12 +26340,12 @@
       <c r="AL10" s="120"/>
       <c r="AM10" s="120"/>
       <c r="AN10" s="120"/>
-      <c r="AQ10" s="370" t="s">
+      <c r="AQ10" s="378" t="s">
         <v>51</v>
       </c>
-      <c r="AR10" s="371"/>
-      <c r="AS10" s="371"/>
-      <c r="AT10" s="372"/>
+      <c r="AR10" s="379"/>
+      <c r="AS10" s="379"/>
+      <c r="AT10" s="380"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="248"/>
@@ -26381,12 +26381,12 @@
       <c r="AL11" s="120"/>
       <c r="AM11" s="120"/>
       <c r="AN11" s="120"/>
-      <c r="AQ11" s="370" t="s">
+      <c r="AQ11" s="378" t="s">
         <v>533</v>
       </c>
-      <c r="AR11" s="371"/>
-      <c r="AS11" s="371"/>
-      <c r="AT11" s="372"/>
+      <c r="AR11" s="379"/>
+      <c r="AS11" s="379"/>
+      <c r="AT11" s="380"/>
       <c r="AU11" s="23" t="s">
         <v>217</v>
       </c>
@@ -26430,12 +26430,12 @@
       <c r="AL12" s="120"/>
       <c r="AM12" s="120"/>
       <c r="AN12" s="120"/>
-      <c r="AQ12" s="370" t="s">
+      <c r="AQ12" s="378" t="s">
         <v>458</v>
       </c>
-      <c r="AR12" s="371"/>
-      <c r="AS12" s="371"/>
-      <c r="AT12" s="372"/>
+      <c r="AR12" s="379"/>
+      <c r="AS12" s="379"/>
+      <c r="AT12" s="380"/>
       <c r="AV12" s="18" t="s">
         <v>529</v>
       </c>
@@ -26451,12 +26451,12 @@
         <v>455</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="373" t="s">
+      <c r="D13" s="370" t="s">
         <v>462</v>
       </c>
-      <c r="E13" s="374"/>
-      <c r="F13" s="374"/>
-      <c r="G13" s="375"/>
+      <c r="E13" s="371"/>
+      <c r="F13" s="371"/>
+      <c r="G13" s="372"/>
       <c r="H13" s="133" t="s">
         <v>547</v>
       </c>
@@ -26479,11 +26479,11 @@
       <c r="O13" s="146" t="s">
         <v>551</v>
       </c>
-      <c r="P13" s="373" t="s">
+      <c r="P13" s="370" t="s">
         <v>993</v>
       </c>
-      <c r="Q13" s="374"/>
-      <c r="R13" s="374"/>
+      <c r="Q13" s="371"/>
+      <c r="R13" s="371"/>
       <c r="S13" s="122"/>
       <c r="T13" s="136" t="s">
         <v>572</v>
@@ -26519,13 +26519,13 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="119"/>
-      <c r="AK13" s="370" t="s">
+      <c r="AK13" s="378" t="s">
         <v>462</v>
       </c>
-      <c r="AL13" s="371"/>
-      <c r="AM13" s="371"/>
-      <c r="AN13" s="371"/>
-      <c r="AQ13" s="370" t="s">
+      <c r="AL13" s="379"/>
+      <c r="AM13" s="379"/>
+      <c r="AN13" s="379"/>
+      <c r="AQ13" s="378" t="s">
         <v>526</v>
       </c>
       <c r="AR13" s="366"/>
@@ -27226,8 +27226,8 @@
       </c>
       <c r="AO30" s="125"/>
       <c r="AP30" s="127"/>
-      <c r="AR30" s="386"/>
-      <c r="AS30" s="386"/>
+      <c r="AR30" s="387"/>
+      <c r="AS30" s="387"/>
     </row>
     <row r="31" spans="1:52" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="163" t="s">
@@ -27681,8 +27681,8 @@
         <v>85</v>
       </c>
       <c r="AO40" s="125"/>
-      <c r="AR40" s="388"/>
-      <c r="AS40" s="388"/>
+      <c r="AR40" s="385"/>
+      <c r="AS40" s="385"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="117" t="s">
@@ -27910,8 +27910,8 @@
         <v>549</v>
       </c>
       <c r="AP46" s="127"/>
-      <c r="AR46" s="388"/>
-      <c r="AS46" s="388"/>
+      <c r="AR46" s="385"/>
+      <c r="AS46" s="385"/>
     </row>
     <row r="47" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="117" t="s">
@@ -27990,12 +27990,12 @@
         <v>457</v>
       </c>
       <c r="C48" s="144"/>
-      <c r="D48" s="373" t="s">
+      <c r="D48" s="370" t="s">
         <v>462</v>
       </c>
-      <c r="E48" s="374"/>
-      <c r="F48" s="374"/>
-      <c r="G48" s="375"/>
+      <c r="E48" s="371"/>
+      <c r="F48" s="371"/>
+      <c r="G48" s="372"/>
       <c r="H48" s="182"/>
       <c r="I48" s="182"/>
       <c r="J48" s="182"/>
@@ -28004,11 +28004,11 @@
       <c r="M48" s="259"/>
       <c r="N48" s="259"/>
       <c r="O48" s="259"/>
-      <c r="P48" s="373" t="s">
+      <c r="P48" s="370" t="s">
         <v>463</v>
       </c>
-      <c r="Q48" s="374"/>
-      <c r="R48" s="374"/>
+      <c r="Q48" s="371"/>
+      <c r="R48" s="371"/>
       <c r="S48" s="154"/>
       <c r="Z48" s="151" t="s">
         <v>548</v>
@@ -29324,13 +29324,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="AR46:AS46"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AR40:AS40"/>
-    <mergeCell ref="AQ11:AT11"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="D6:G6"/>
@@ -29347,6 +29340,13 @@
     <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="AQ10:AT10"/>
     <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="AQ11:AT11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29404,17 +29404,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="377" t="s">
+      <c r="B1" s="373" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="378"/>
-      <c r="D1" s="378"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
       <c r="E1" s="37"/>
-      <c r="F1" s="377" t="s">
+      <c r="F1" s="373" t="s">
         <v>836</v>
       </c>
-      <c r="G1" s="378"/>
-      <c r="H1" s="378"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -29460,58 +29460,58 @@
       <c r="B4" s="367" t="s">
         <v>835</v>
       </c>
-      <c r="C4" s="368"/>
-      <c r="D4" s="368"/>
-      <c r="E4" s="369"/>
+      <c r="C4" s="376"/>
+      <c r="D4" s="376"/>
+      <c r="E4" s="377"/>
       <c r="F4" s="367" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="368"/>
-      <c r="H4" s="368"/>
-      <c r="I4" s="369"/>
+      <c r="G4" s="376"/>
+      <c r="H4" s="376"/>
+      <c r="I4" s="377"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="370" t="s">
+      <c r="B5" s="378" t="s">
         <v>757</v>
       </c>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="370" t="s">
+      <c r="C5" s="379"/>
+      <c r="D5" s="379"/>
+      <c r="E5" s="380"/>
+      <c r="F5" s="378" t="s">
         <v>757</v>
       </c>
-      <c r="G5" s="371"/>
-      <c r="H5" s="371"/>
-      <c r="I5" s="372"/>
+      <c r="G5" s="379"/>
+      <c r="H5" s="379"/>
+      <c r="I5" s="380"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="373" t="s">
+      <c r="B6" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="374"/>
-      <c r="D6" s="374"/>
-      <c r="E6" s="375"/>
-      <c r="F6" s="376" t="s">
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="372"/>
+      <c r="F6" s="381" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="374"/>
-      <c r="H6" s="374"/>
-      <c r="I6" s="374"/>
-      <c r="J6" s="373" t="s">
+      <c r="G6" s="371"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="371"/>
+      <c r="J6" s="370" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="374"/>
-      <c r="L6" s="374"/>
-      <c r="M6" s="375"/>
-      <c r="N6" s="373" t="s">
+      <c r="K6" s="371"/>
+      <c r="L6" s="371"/>
+      <c r="M6" s="372"/>
+      <c r="N6" s="370" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="374"/>
-      <c r="P6" s="374"/>
-      <c r="Q6" s="375"/>
+      <c r="O6" s="371"/>
+      <c r="P6" s="371"/>
+      <c r="Q6" s="372"/>
       <c r="V6" s="41"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
@@ -29540,24 +29540,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="170"/>
-      <c r="B7" s="373" t="s">
+      <c r="B7" s="370" t="s">
         <v>535</v>
       </c>
-      <c r="C7" s="374"/>
-      <c r="D7" s="374"/>
-      <c r="E7" s="375"/>
-      <c r="F7" s="373" t="s">
+      <c r="C7" s="371"/>
+      <c r="D7" s="371"/>
+      <c r="E7" s="372"/>
+      <c r="F7" s="370" t="s">
         <v>536</v>
       </c>
-      <c r="G7" s="374"/>
-      <c r="H7" s="374"/>
-      <c r="I7" s="375"/>
-      <c r="J7" s="373" t="s">
+      <c r="G7" s="371"/>
+      <c r="H7" s="371"/>
+      <c r="I7" s="372"/>
+      <c r="J7" s="370" t="s">
         <v>679</v>
       </c>
-      <c r="K7" s="374"/>
-      <c r="L7" s="374"/>
-      <c r="M7" s="375"/>
+      <c r="K7" s="371"/>
+      <c r="L7" s="371"/>
+      <c r="M7" s="372"/>
       <c r="N7" s="167"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
@@ -33249,11 +33249,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:E4"/>
@@ -33262,6 +33257,11 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33324,31 +33324,31 @@
       <c r="B1" s="222"/>
       <c r="C1" s="222"/>
       <c r="D1" s="319"/>
-      <c r="E1" s="377" t="s">
+      <c r="E1" s="373" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="378"/>
-      <c r="G1" s="378"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
       <c r="H1" s="37"/>
       <c r="I1" s="98"/>
-      <c r="J1" s="377" t="s">
+      <c r="J1" s="373" t="s">
         <v>836</v>
       </c>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
       <c r="M1" s="47"/>
       <c r="N1" s="281"/>
-      <c r="O1" s="377" t="s">
+      <c r="O1" s="373" t="s">
         <v>886</v>
       </c>
-      <c r="P1" s="378"/>
-      <c r="Q1" s="378"/>
+      <c r="P1" s="374"/>
+      <c r="Q1" s="374"/>
       <c r="R1" s="37"/>
-      <c r="S1" s="377" t="s">
+      <c r="S1" s="373" t="s">
         <v>889</v>
       </c>
-      <c r="T1" s="378"/>
-      <c r="U1" s="378"/>
+      <c r="T1" s="374"/>
+      <c r="U1" s="374"/>
       <c r="V1" s="47"/>
       <c r="W1" s="279"/>
       <c r="X1" s="242"/>
@@ -33357,11 +33357,11 @@
       <c r="AA1" s="273"/>
       <c r="AB1" s="273"/>
       <c r="AC1" s="273"/>
-      <c r="AD1" s="377" t="s">
+      <c r="AD1" s="373" t="s">
         <v>890</v>
       </c>
-      <c r="AE1" s="378"/>
-      <c r="AF1" s="378"/>
+      <c r="AE1" s="374"/>
+      <c r="AF1" s="374"/>
       <c r="AG1" s="37"/>
       <c r="AH1" s="345"/>
       <c r="AI1" s="42"/>
@@ -33468,69 +33468,69 @@
       <c r="E4" s="367" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="368"/>
-      <c r="G4" s="368"/>
-      <c r="H4" s="369"/>
+      <c r="F4" s="376"/>
+      <c r="G4" s="376"/>
+      <c r="H4" s="377"/>
       <c r="I4" s="70"/>
       <c r="J4" s="367" t="s">
         <v>236</v>
       </c>
-      <c r="K4" s="368"/>
-      <c r="L4" s="368"/>
-      <c r="M4" s="369"/>
+      <c r="K4" s="376"/>
+      <c r="L4" s="376"/>
+      <c r="M4" s="377"/>
       <c r="N4" s="209"/>
       <c r="O4" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="P4" s="368"/>
-      <c r="Q4" s="368"/>
-      <c r="R4" s="369"/>
+      <c r="P4" s="376"/>
+      <c r="Q4" s="376"/>
+      <c r="R4" s="377"/>
       <c r="S4" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="T4" s="368"/>
-      <c r="U4" s="368"/>
-      <c r="V4" s="369"/>
+      <c r="T4" s="376"/>
+      <c r="U4" s="376"/>
+      <c r="V4" s="377"/>
       <c r="AD4" s="367" t="s">
         <v>761</v>
       </c>
-      <c r="AE4" s="368"/>
-      <c r="AF4" s="368"/>
-      <c r="AG4" s="369"/>
+      <c r="AE4" s="376"/>
+      <c r="AF4" s="376"/>
+      <c r="AG4" s="377"/>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E5" s="370" t="s">
+      <c r="E5" s="378" t="s">
         <v>757</v>
       </c>
-      <c r="F5" s="371"/>
-      <c r="G5" s="371"/>
-      <c r="H5" s="372"/>
+      <c r="F5" s="379"/>
+      <c r="G5" s="379"/>
+      <c r="H5" s="380"/>
       <c r="I5" s="274"/>
-      <c r="J5" s="370" t="s">
+      <c r="J5" s="378" t="s">
         <v>757</v>
       </c>
-      <c r="K5" s="371"/>
-      <c r="L5" s="371"/>
-      <c r="M5" s="372"/>
+      <c r="K5" s="379"/>
+      <c r="L5" s="379"/>
+      <c r="M5" s="380"/>
       <c r="N5" s="71"/>
-      <c r="O5" s="370" t="s">
+      <c r="O5" s="378" t="s">
         <v>757</v>
       </c>
-      <c r="P5" s="371"/>
-      <c r="Q5" s="371"/>
-      <c r="R5" s="372"/>
-      <c r="S5" s="370" t="s">
+      <c r="P5" s="379"/>
+      <c r="Q5" s="379"/>
+      <c r="R5" s="380"/>
+      <c r="S5" s="378" t="s">
         <v>800</v>
       </c>
-      <c r="T5" s="371"/>
-      <c r="U5" s="371"/>
-      <c r="V5" s="372"/>
-      <c r="AD5" s="370" t="s">
+      <c r="T5" s="379"/>
+      <c r="U5" s="379"/>
+      <c r="V5" s="380"/>
+      <c r="AD5" s="378" t="s">
         <v>800</v>
       </c>
-      <c r="AE5" s="371"/>
-      <c r="AF5" s="371"/>
-      <c r="AG5" s="372"/>
+      <c r="AE5" s="379"/>
+      <c r="AF5" s="379"/>
+      <c r="AG5" s="380"/>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="170" t="s">
@@ -33539,24 +33539,24 @@
       <c r="B6" s="222"/>
       <c r="C6" s="222"/>
       <c r="D6" s="319"/>
-      <c r="E6" s="373" t="s">
+      <c r="E6" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="374"/>
-      <c r="G6" s="374"/>
-      <c r="H6" s="375"/>
+      <c r="F6" s="371"/>
+      <c r="G6" s="371"/>
+      <c r="H6" s="372"/>
       <c r="I6" s="273"/>
       <c r="J6" s="41"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="284"/>
-      <c r="O6" s="376" t="s">
+      <c r="O6" s="381" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="374"/>
-      <c r="Q6" s="374"/>
-      <c r="R6" s="374"/>
+      <c r="P6" s="371"/>
+      <c r="Q6" s="371"/>
+      <c r="R6" s="371"/>
       <c r="S6" s="41"/>
       <c r="T6" s="42"/>
       <c r="U6" s="42"/>
@@ -33568,23 +33568,23 @@
       <c r="AA6" s="273"/>
       <c r="AB6" s="273"/>
       <c r="AC6" s="273"/>
-      <c r="AD6" s="373" t="s">
+      <c r="AD6" s="370" t="s">
         <v>930</v>
       </c>
-      <c r="AE6" s="374"/>
-      <c r="AF6" s="374"/>
-      <c r="AG6" s="375"/>
+      <c r="AE6" s="371"/>
+      <c r="AF6" s="371"/>
+      <c r="AG6" s="372"/>
       <c r="AH6" s="345"/>
       <c r="AI6" s="42"/>
       <c r="AJ6" s="42"/>
       <c r="AK6" s="42"/>
       <c r="AL6" s="43"/>
-      <c r="AM6" s="373" t="s">
+      <c r="AM6" s="370" t="s">
         <v>181</v>
       </c>
-      <c r="AN6" s="374"/>
-      <c r="AO6" s="374"/>
-      <c r="AP6" s="375"/>
+      <c r="AN6" s="371"/>
+      <c r="AO6" s="371"/>
+      <c r="AP6" s="372"/>
       <c r="AQ6" s="174"/>
       <c r="AR6" s="175"/>
       <c r="AS6" s="175"/>
@@ -33601,30 +33601,30 @@
       <c r="D7" s="305" t="s">
         <v>1042</v>
       </c>
-      <c r="E7" s="373" t="s">
+      <c r="E7" s="370" t="s">
         <v>535</v>
       </c>
-      <c r="F7" s="374"/>
-      <c r="G7" s="374"/>
-      <c r="H7" s="375"/>
+      <c r="F7" s="371"/>
+      <c r="G7" s="371"/>
+      <c r="H7" s="372"/>
       <c r="I7" s="113"/>
-      <c r="J7" s="373" t="s">
+      <c r="J7" s="370" t="s">
         <v>723</v>
       </c>
-      <c r="K7" s="374"/>
-      <c r="L7" s="374"/>
-      <c r="M7" s="375"/>
+      <c r="K7" s="371"/>
+      <c r="L7" s="371"/>
+      <c r="M7" s="372"/>
       <c r="N7" s="285"/>
-      <c r="O7" s="373" t="s">
+      <c r="O7" s="370" t="s">
         <v>536</v>
       </c>
-      <c r="P7" s="374"/>
-      <c r="Q7" s="374"/>
-      <c r="R7" s="375"/>
-      <c r="S7" s="373"/>
-      <c r="T7" s="374"/>
-      <c r="U7" s="374"/>
-      <c r="V7" s="375"/>
+      <c r="P7" s="371"/>
+      <c r="Q7" s="371"/>
+      <c r="R7" s="372"/>
+      <c r="S7" s="370"/>
+      <c r="T7" s="371"/>
+      <c r="U7" s="371"/>
+      <c r="V7" s="372"/>
       <c r="W7" s="392" t="s">
         <v>931</v>
       </c>
@@ -33634,12 +33634,12 @@
       <c r="AA7" s="113"/>
       <c r="AB7" s="113"/>
       <c r="AC7" s="113"/>
-      <c r="AD7" s="373" t="s">
+      <c r="AD7" s="370" t="s">
         <v>888</v>
       </c>
-      <c r="AE7" s="374"/>
-      <c r="AF7" s="374"/>
-      <c r="AG7" s="375"/>
+      <c r="AE7" s="371"/>
+      <c r="AF7" s="371"/>
+      <c r="AG7" s="372"/>
       <c r="AH7" s="341"/>
       <c r="AI7" s="25"/>
       <c r="AJ7" s="25"/>
@@ -33649,12 +33649,12 @@
       <c r="AN7" s="177"/>
       <c r="AO7" s="177"/>
       <c r="AP7" s="178"/>
-      <c r="AQ7" s="373" t="s">
+      <c r="AQ7" s="370" t="s">
         <v>724</v>
       </c>
-      <c r="AR7" s="374"/>
-      <c r="AS7" s="374"/>
-      <c r="AT7" s="375"/>
+      <c r="AR7" s="371"/>
+      <c r="AS7" s="371"/>
+      <c r="AT7" s="372"/>
     </row>
     <row r="8" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="170">
@@ -35875,30 +35875,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AM6:AP6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W7:Z7"/>
     <mergeCell ref="J58:M58"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="S1:U1"/>
@@ -35911,6 +35887,30 @@
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="J38:M38"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35921,11 +35921,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6F30D8-4F74-43CF-B0A2-082294AF7E0E}">
   <dimension ref="A1:AN64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32:D33"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -35968,40 +35968,40 @@
       <c r="D1" s="349"/>
       <c r="E1" s="350"/>
       <c r="F1" s="351"/>
-      <c r="G1" s="373" t="s">
+      <c r="G1" s="370" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
       <c r="J1" s="395"/>
-      <c r="K1" s="376" t="s">
+      <c r="K1" s="381" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="374"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="371"/>
+      <c r="N1" s="371"/>
       <c r="O1" s="296"/>
       <c r="P1" s="295"/>
       <c r="Q1" s="296"/>
       <c r="R1" s="297"/>
-      <c r="S1" s="373" t="s">
+      <c r="S1" s="370" t="s">
         <v>383</v>
       </c>
-      <c r="T1" s="374"/>
-      <c r="U1" s="374"/>
-      <c r="V1" s="375"/>
+      <c r="T1" s="371"/>
+      <c r="U1" s="371"/>
+      <c r="V1" s="372"/>
       <c r="W1" s="296"/>
       <c r="X1" s="296"/>
       <c r="AA1" s="41"/>
       <c r="AB1" s="42"/>
       <c r="AC1" s="42"/>
       <c r="AD1" s="43"/>
-      <c r="AK1" s="373" t="s">
+      <c r="AK1" s="370" t="s">
         <v>848</v>
       </c>
-      <c r="AL1" s="374"/>
-      <c r="AM1" s="374"/>
-      <c r="AN1" s="375"/>
+      <c r="AL1" s="371"/>
+      <c r="AM1" s="371"/>
+      <c r="AN1" s="372"/>
     </row>
     <row r="2" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -36092,10 +36092,10 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="37"/>
-      <c r="K3" s="377"/>
-      <c r="L3" s="378"/>
-      <c r="M3" s="378"/>
-      <c r="N3" s="381"/>
+      <c r="K3" s="373"/>
+      <c r="L3" s="374"/>
+      <c r="M3" s="374"/>
+      <c r="N3" s="375"/>
       <c r="O3" s="298" t="s">
         <v>1025</v>
       </c>
@@ -36141,14 +36141,18 @@
       <c r="F4" s="336"/>
       <c r="G4" s="44"/>
       <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="I4" s="352" t="s">
+        <v>951</v>
+      </c>
       <c r="J4" s="38"/>
       <c r="K4" s="303"/>
       <c r="L4" s="303"/>
       <c r="M4" s="303"/>
       <c r="N4" s="303"/>
       <c r="O4" s="303"/>
-      <c r="P4" s="259"/>
+      <c r="P4" s="302" t="s">
+        <v>1008</v>
+      </c>
       <c r="Q4" s="259"/>
       <c r="R4" s="311"/>
       <c r="S4" s="303"/>
@@ -36180,16 +36184,20 @@
       <c r="G5" s="44"/>
       <c r="H5" s="45"/>
       <c r="I5" s="352" t="s">
-        <v>951</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="303"/>
-      <c r="L5" s="303"/>
-      <c r="M5" s="303"/>
-      <c r="N5" s="303"/>
+        <v>116</v>
+      </c>
+      <c r="J5" s="352" t="s">
+        <v>952</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="303"/>
       <c r="P5" s="302" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="Q5" s="303"/>
       <c r="R5" s="304"/>
@@ -36219,22 +36227,26 @@
       <c r="G6" s="302"/>
       <c r="H6" s="303"/>
       <c r="I6" s="352" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="J6" s="352" t="s">
-        <v>952</v>
+        <v>114</v>
       </c>
       <c r="K6" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="L6" s="18"/>
+        <v>345</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>349</v>
+      </c>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
       <c r="O6" s="303"/>
       <c r="P6" s="302" t="s">
-        <v>1009</v>
-      </c>
-      <c r="Q6" s="303"/>
+        <v>1010</v>
+      </c>
+      <c r="Q6" s="302">
+        <v>0</v>
+      </c>
       <c r="R6" s="304"/>
       <c r="S6" s="303"/>
       <c r="AB6" s="23" t="s">
@@ -36270,25 +36282,27 @@
       <c r="G7" s="302"/>
       <c r="H7" s="303"/>
       <c r="I7" s="352" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J7" s="352" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="K7" s="60" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L7" s="60" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="303"/>
+      <c r="O7" s="315" t="s">
+        <v>344</v>
+      </c>
       <c r="P7" s="302" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q7" s="302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="304"/>
       <c r="S7" s="303"/>
@@ -36327,27 +36341,27 @@
       <c r="G8" s="302"/>
       <c r="H8" s="303"/>
       <c r="I8" s="352" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="J8" s="352" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K8" s="60" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L8" s="60" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
       <c r="O8" s="315" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P8" s="302" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Q8" s="302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" s="304"/>
       <c r="S8" s="149" t="s">
@@ -36388,27 +36402,24 @@
       <c r="G9" s="302"/>
       <c r="H9" s="303"/>
       <c r="I9" s="352" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J9" s="352" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="K9" s="60" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L9" s="60" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
       <c r="O9" s="315" t="s">
-        <v>345</v>
-      </c>
-      <c r="P9" s="302" t="s">
-        <v>1012</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R9" s="304"/>
       <c r="S9" s="149" t="s">
@@ -36445,24 +36456,22 @@
       </c>
       <c r="E10" s="333"/>
       <c r="I10" s="352" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J10" s="352" t="s">
-        <v>283</v>
-      </c>
-      <c r="K10" s="60" t="s">
-        <v>348</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="K10" s="18"/>
       <c r="L10" s="60" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
       <c r="O10" s="315" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="302">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" s="304"/>
       <c r="S10" s="28"/>
@@ -36480,7 +36489,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="34" t="s">
         <v>53</v>
       </c>
@@ -36492,24 +36501,19 @@
         <v>1085</v>
       </c>
       <c r="I11" s="352" t="s">
-        <v>273</v>
-      </c>
-      <c r="J11" s="352" t="s">
-        <v>281</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="60" t="s">
-        <v>353</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="J11" s="312" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="315" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P11" s="302"/>
-      <c r="Q11" s="302">
-        <v>4</v>
-      </c>
       <c r="R11" s="304"/>
       <c r="S11" s="28"/>
       <c r="U11" s="54" t="s">
@@ -36531,23 +36535,13 @@
       <c r="AG11" s="47"/>
       <c r="AH11" s="37"/>
     </row>
-    <row r="12" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A12" s="34" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="322"/>
-      <c r="I12" s="352" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J12" s="312" t="s">
-        <v>282</v>
-      </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="315" t="s">
-        <v>348</v>
+      <c r="J12" s="352" t="s">
+        <v>953</v>
       </c>
       <c r="P12" s="316"/>
       <c r="Q12" s="317"/>
@@ -36573,9 +36567,6 @@
         <v>57</v>
       </c>
       <c r="B13" s="322"/>
-      <c r="J13" s="352" t="s">
-        <v>953</v>
-      </c>
       <c r="Q13" s="303"/>
       <c r="R13" s="29"/>
       <c r="S13" s="23"/>

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC0ADC-7661-4D26-B359-0855AFA29A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5B67E1-CFA0-4CCD-846F-1916F1BF34A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="8" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
@@ -21,12 +21,13 @@
     <sheet name="PRD" sheetId="8" r:id="rId6"/>
     <sheet name="NEW_1" sheetId="6" r:id="rId7"/>
     <sheet name="NEW_Ctrl" sheetId="19" r:id="rId8"/>
-    <sheet name="UPD" sheetId="10" r:id="rId9"/>
-    <sheet name="UPD_K" sheetId="22" r:id="rId10"/>
-    <sheet name="UPD_LAST" sheetId="13" r:id="rId11"/>
-    <sheet name="UPD_LAST_REV" sheetId="12" r:id="rId12"/>
-    <sheet name="Associate" sheetId="23" r:id="rId13"/>
-    <sheet name="UPD_old" sheetId="21" r:id="rId14"/>
+    <sheet name="UPD_tran" sheetId="24" r:id="rId9"/>
+    <sheet name="UPD" sheetId="10" r:id="rId10"/>
+    <sheet name="UPD_K" sheetId="22" r:id="rId11"/>
+    <sheet name="UPD_LAST" sheetId="13" r:id="rId12"/>
+    <sheet name="UPD_LAST_REV" sheetId="12" r:id="rId13"/>
+    <sheet name="Associate" sheetId="23" r:id="rId14"/>
+    <sheet name="UPD_old" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4829" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4992" uniqueCount="1132">
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3978,6 +3979,38 @@
   <si>
     <t>cov_HT+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_HT+4*l_k_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cov_HT+4*l_k_group+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONS0</t>
+  </si>
+  <si>
+    <t>CONS1</t>
+  </si>
+  <si>
+    <t>CONS2</t>
+  </si>
+  <si>
+    <t>CONS3</t>
+  </si>
+  <si>
+    <t>B_out_map0</t>
+  </si>
+  <si>
+    <t>B_out_map1</t>
+  </si>
+  <si>
+    <t>B_out_map2</t>
+  </si>
+  <si>
+    <t>B_out_map3</t>
   </si>
 </sst>
 </file>
@@ -4434,7 +4467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5536,51 +5569,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5590,17 +5659,17 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5956,11 +6025,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="366" t="s">
+      <c r="W1" s="378" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="366"/>
-      <c r="Y1" s="366"/>
+      <c r="X1" s="378"/>
+      <c r="Y1" s="378"/>
       <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -5975,11 +6044,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="366" t="s">
+      <c r="W3" s="378" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="366"/>
-      <c r="Y3" s="366"/>
+      <c r="X3" s="378"/>
+      <c r="Y3" s="378"/>
       <c r="Z3" s="21" t="s">
         <v>52</v>
       </c>
@@ -6730,6 +6799,2723 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6F30D8-4F74-43CF-B0A2-082294AF7E0E}">
+  <dimension ref="A1:AN84"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" style="338" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="294" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" style="331" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" style="332" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="333" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.73046875" style="309" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="310" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" style="308" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.06640625" style="4"/>
+    <col min="19" max="19" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="294" customWidth="1"/>
+    <col min="24" max="24" width="10.796875" style="304" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="332" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.86328125" style="332" customWidth="1"/>
+    <col min="27" max="27" width="9.796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="10.59765625" customWidth="1"/>
+    <col min="37" max="37" width="11.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.19921875" style="3" customWidth="1"/>
+    <col min="40" max="40" width="11.19921875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18"/>
+      <c r="B1" s="322"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="385" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="407"/>
+      <c r="K1" s="388" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="386"/>
+      <c r="M1" s="386"/>
+      <c r="N1" s="386"/>
+      <c r="O1" s="296"/>
+      <c r="P1" s="295"/>
+      <c r="Q1" s="296"/>
+      <c r="R1" s="297"/>
+      <c r="S1" s="385" t="s">
+        <v>383</v>
+      </c>
+      <c r="T1" s="386"/>
+      <c r="U1" s="386"/>
+      <c r="V1" s="387"/>
+      <c r="W1" s="296"/>
+      <c r="X1" s="296"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="43"/>
+      <c r="AK1" s="385" t="s">
+        <v>848</v>
+      </c>
+      <c r="AL1" s="386"/>
+      <c r="AM1" s="386"/>
+      <c r="AN1" s="387"/>
+    </row>
+    <row r="2" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="18"/>
+      <c r="B2" s="322"/>
+      <c r="D2" s="326" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E2" s="328" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F2" s="328" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="300" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="300" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="301" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="300"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="300"/>
+      <c r="R2" s="301"/>
+      <c r="S2" s="300" t="s">
+        <v>956</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>957</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>958</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="AA2" s="39" t="s">
+        <v>947</v>
+      </c>
+      <c r="AB2" s="329" t="s">
+        <v>948</v>
+      </c>
+      <c r="AC2" s="329" t="s">
+        <v>949</v>
+      </c>
+      <c r="AD2" s="330" t="s">
+        <v>950</v>
+      </c>
+      <c r="AK2" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>944</v>
+      </c>
+      <c r="AM2" s="31" t="s">
+        <v>945</v>
+      </c>
+      <c r="AN2" s="32" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
+        <v>0</v>
+      </c>
+      <c r="B3" s="322"/>
+      <c r="C3" s="164" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G3" s="292"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="389"/>
+      <c r="L3" s="390"/>
+      <c r="M3" s="390"/>
+      <c r="N3" s="393"/>
+      <c r="O3" s="298" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P3" s="298" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q3" s="298" t="s">
+        <v>1027</v>
+      </c>
+      <c r="R3" s="299" t="s">
+        <v>932</v>
+      </c>
+      <c r="S3" s="303"/>
+      <c r="W3" s="298" t="s">
+        <v>1007</v>
+      </c>
+      <c r="X3" s="299" t="s">
+        <v>932</v>
+      </c>
+      <c r="AE3" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="37"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="36"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A4" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="322"/>
+      <c r="C4" s="294" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="335" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E4" s="336"/>
+      <c r="F4" s="336"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="352" t="s">
+        <v>951</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="303"/>
+      <c r="M4" s="303"/>
+      <c r="N4" s="303"/>
+      <c r="O4" s="303"/>
+      <c r="P4" s="302" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Q4" s="259"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="303"/>
+      <c r="W4" s="259"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="259"/>
+      <c r="Z4" s="259"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="38"/>
+      <c r="AK4" s="302"/>
+      <c r="AL4" s="303"/>
+      <c r="AM4" s="303"/>
+      <c r="AN4" s="304"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="322"/>
+      <c r="C5" s="294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="335" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E5" s="333"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="352" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="352" t="s">
+        <v>952</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="303"/>
+      <c r="P5" s="302" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q5" s="303"/>
+      <c r="R5" s="304"/>
+      <c r="S5" s="303"/>
+      <c r="W5" s="303"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="38"/>
+      <c r="AK5" s="302"/>
+      <c r="AL5" s="303"/>
+      <c r="AM5" s="303"/>
+      <c r="AN5" s="304"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="322"/>
+      <c r="C6" s="294" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="335" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E6" s="333"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="352" t="s">
+        <v>196</v>
+      </c>
+      <c r="J6" s="352" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="303"/>
+      <c r="P6" s="302" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q6" s="302">
+        <v>0</v>
+      </c>
+      <c r="R6" s="304"/>
+      <c r="S6" s="303"/>
+      <c r="AB6" s="23" t="s">
+        <v>951</v>
+      </c>
+      <c r="AE6" s="332" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF6" s="289" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG6" s="289" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH6" s="29"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="33"/>
+      <c r="AN6" s="36"/>
+    </row>
+    <row r="7" spans="1:40" ht="15" x14ac:dyDescent="0.4">
+      <c r="A7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="322"/>
+      <c r="C7" s="294" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="335" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E7" s="333"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="303"/>
+      <c r="I7" s="352" t="s">
+        <v>199</v>
+      </c>
+      <c r="J7" s="352" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="315" t="s">
+        <v>344</v>
+      </c>
+      <c r="P7" s="302" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Q7" s="302">
+        <v>1</v>
+      </c>
+      <c r="R7" s="304"/>
+      <c r="S7" s="303"/>
+      <c r="AA7" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE7" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="36"/>
+    </row>
+    <row r="8" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="322"/>
+      <c r="C8" s="294" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="335" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E8" s="333"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="303"/>
+      <c r="I8" s="352" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" s="352" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="315" t="s">
+        <v>345</v>
+      </c>
+      <c r="P8" s="302" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q8" s="302">
+        <v>2</v>
+      </c>
+      <c r="R8" s="304"/>
+      <c r="S8" s="149" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="196"/>
+      <c r="AA8" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB8" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE8" s="45" t="s">
+        <v>826</v>
+      </c>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="38"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="36"/>
+    </row>
+    <row r="9" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="322"/>
+      <c r="C9" s="294" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="335" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E9" s="333"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="303"/>
+      <c r="I9" s="352" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="352" t="s">
+        <v>283</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="315" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q9" s="302">
+        <v>3</v>
+      </c>
+      <c r="R9" s="304"/>
+      <c r="S9" s="149" t="s">
+        <v>1045</v>
+      </c>
+      <c r="T9" s="56" t="s">
+        <v>1046</v>
+      </c>
+      <c r="U9" s="79"/>
+      <c r="V9" s="196"/>
+      <c r="AA9" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB9" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="29"/>
+    </row>
+    <row r="10" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="322"/>
+      <c r="C10" s="294" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="335" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E10" s="333"/>
+      <c r="I10" s="352" t="s">
+        <v>273</v>
+      </c>
+      <c r="J10" s="352" t="s">
+        <v>281</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="315" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q10" s="302">
+        <v>4</v>
+      </c>
+      <c r="R10" s="304"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="56" t="s">
+        <v>1047</v>
+      </c>
+      <c r="U10" s="54" t="s">
+        <v>1048</v>
+      </c>
+      <c r="V10" s="196"/>
+      <c r="AA10" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB10" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="322"/>
+      <c r="D11" s="335" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E11" s="204" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I11" s="352" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J11" s="312" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="315" t="s">
+        <v>348</v>
+      </c>
+      <c r="P11" s="302"/>
+      <c r="R11" s="304"/>
+      <c r="S11" s="28"/>
+      <c r="U11" s="54" t="s">
+        <v>1049</v>
+      </c>
+      <c r="V11" s="56" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AA11" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE11" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="37"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A12" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="322"/>
+      <c r="J12" s="352" t="s">
+        <v>953</v>
+      </c>
+      <c r="P12" s="316"/>
+      <c r="Q12" s="317"/>
+      <c r="R12" s="311"/>
+      <c r="S12" s="142"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="56" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AA12" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB12" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="38"/>
+    </row>
+    <row r="13" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="322"/>
+      <c r="Q13" s="303"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="29"/>
+      <c r="AA13" s="261" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="38"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A14" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="322"/>
+      <c r="Q14" s="303"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="56" t="s">
+        <v>1052</v>
+      </c>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="62"/>
+      <c r="AA14" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE14" s="332" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF14" s="332" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG14" s="332" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH14" s="29"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A15" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="322"/>
+      <c r="Q15" s="303"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="56" t="s">
+        <v>1053</v>
+      </c>
+      <c r="T15" s="54" t="s">
+        <v>1054</v>
+      </c>
+      <c r="U15" s="61"/>
+      <c r="V15" s="62"/>
+      <c r="AA15" s="28" t="s">
+        <v>953</v>
+      </c>
+      <c r="AE15" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="38"/>
+      <c r="AK15" s="56" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="322"/>
+      <c r="Q16" s="303"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="54" t="s">
+        <v>1055</v>
+      </c>
+      <c r="U16" s="56" t="s">
+        <v>1056</v>
+      </c>
+      <c r="V16" s="62"/>
+      <c r="AE16" s="45" t="s">
+        <v>826</v>
+      </c>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="38"/>
+      <c r="AK16" s="56" t="s">
+        <v>810</v>
+      </c>
+      <c r="AL16" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="AM16" s="23"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A17" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="322"/>
+      <c r="Q17" s="303"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="2"/>
+      <c r="U17" s="56" t="s">
+        <v>1057</v>
+      </c>
+      <c r="V17" s="149" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="29"/>
+      <c r="AL17" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="AM17" s="54" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="322"/>
+      <c r="Q18" s="303"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="142"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="149" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AK18" s="302"/>
+      <c r="AM18" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="AN18" s="54" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A19" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="322"/>
+      <c r="Q19" s="303"/>
+      <c r="R19" s="29"/>
+      <c r="U19" s="23"/>
+      <c r="AE19" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="37"/>
+      <c r="AK19" s="28"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A20" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="322" t="s">
+        <v>676</v>
+      </c>
+      <c r="F20" s="333" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q20" s="303"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="38"/>
+      <c r="AK20" s="28"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A21" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="322">
+        <v>0</v>
+      </c>
+      <c r="C21" s="164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E21" s="333" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F21" s="333" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q21" s="303"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="23"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="38"/>
+      <c r="AK21" s="28"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A22" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="322"/>
+      <c r="C22" s="294" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="331" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E22" s="333"/>
+      <c r="G22" s="302"/>
+      <c r="H22" s="303"/>
+      <c r="I22" s="303"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="294"/>
+      <c r="P22" s="302">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="303"/>
+      <c r="R22" s="29"/>
+      <c r="AE22" s="332" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF22" s="332" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG22" s="332" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH22" s="29"/>
+      <c r="AK22" s="56" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="322"/>
+      <c r="C23" s="294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="331" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E23" s="333"/>
+      <c r="G23" s="312" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K23" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="294"/>
+      <c r="P23" s="302">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="303"/>
+      <c r="R23" s="29"/>
+      <c r="AE23" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="38"/>
+      <c r="AK23" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL23" s="54" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="322"/>
+      <c r="C24" s="164" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D24" s="331" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E24" s="336"/>
+      <c r="G24" s="312" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H24" s="313" t="s">
+        <v>994</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="K24" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="L24" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="294"/>
+      <c r="P24" s="302">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="303"/>
+      <c r="R24" s="29"/>
+      <c r="AE24" s="45" t="s">
+        <v>826</v>
+      </c>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="291"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM24" s="56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="322"/>
+      <c r="C25" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="331" t="s">
+        <v>523</v>
+      </c>
+      <c r="E25" s="333"/>
+      <c r="G25" s="312" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H25" s="313" t="s">
+        <v>995</v>
+      </c>
+      <c r="I25" s="313" t="s">
+        <v>996</v>
+      </c>
+      <c r="K25" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="L25" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="294"/>
+      <c r="P25" s="302">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="303"/>
+      <c r="R25" s="29"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="29"/>
+      <c r="AM25" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN25" s="54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="322"/>
+      <c r="C26" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="331" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E26" s="333"/>
+      <c r="G26" s="149" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H26" s="313" t="s">
+        <v>997</v>
+      </c>
+      <c r="I26" s="313" t="s">
+        <v>998</v>
+      </c>
+      <c r="J26" s="314" t="s">
+        <v>999</v>
+      </c>
+      <c r="K26" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="L26" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="294"/>
+      <c r="P26" s="302">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="303"/>
+      <c r="R26" s="29"/>
+      <c r="AA26" s="28" t="s">
+        <v>954</v>
+      </c>
+      <c r="AN26" s="54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="322"/>
+      <c r="C27" s="322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="336"/>
+      <c r="G27" s="149" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I27" s="313" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="314" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K27" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="L27" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="294"/>
+      <c r="P27" s="302"/>
+      <c r="Q27" s="303"/>
+      <c r="R27" s="29"/>
+      <c r="Y27" s="334"/>
+      <c r="Z27" s="334"/>
+      <c r="AA27" s="28" t="s">
+        <v>955</v>
+      </c>
+      <c r="AB27" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE27" s="47" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="37"/>
+    </row>
+    <row r="28" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="322">
+        <v>1</v>
+      </c>
+      <c r="C28" s="164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D28" s="335"/>
+      <c r="E28" s="333" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="56" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J28" s="314" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="294"/>
+      <c r="P28" s="254"/>
+      <c r="Q28" s="303"/>
+      <c r="R28" s="29"/>
+      <c r="AB28" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC28" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE28" s="332" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF28" s="332" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG28" s="332" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH28" s="29"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A29" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="322"/>
+      <c r="C29" s="294" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="331" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E29" s="333"/>
+      <c r="G29" s="28"/>
+      <c r="I29" s="54" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J29" s="56" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="294"/>
+      <c r="P29" s="302">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="303"/>
+      <c r="R29" s="29"/>
+      <c r="X29" s="304" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y29" s="322" t="s">
+        <v>676</v>
+      </c>
+      <c r="Z29" s="322"/>
+      <c r="AC29" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD29" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE29" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
+      <c r="AH29" s="38"/>
+      <c r="AK29" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="29"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A30" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="322"/>
+      <c r="C30" s="294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="331" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E30" s="333"/>
+      <c r="G30" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="56" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K30" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="294"/>
+      <c r="P30" s="302">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="303"/>
+      <c r="R30" s="29"/>
+      <c r="X30" s="304" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Y30" s="322">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AD30" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE30" s="45" t="s">
+        <v>826</v>
+      </c>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
+      <c r="AH30" s="38"/>
+      <c r="AK30" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL30" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="AM30" s="23"/>
+      <c r="AN30" s="29"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A31" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="322"/>
+      <c r="C31" s="164" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D31" s="331" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E31" s="336"/>
+      <c r="F31" s="336" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="L31" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="294"/>
+      <c r="P31" s="302">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="303"/>
+      <c r="R31" s="29"/>
+      <c r="W31" s="294" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y31" s="322"/>
+      <c r="Z31" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="29"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="AM31" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="AN31" s="29"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A32" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="322"/>
+      <c r="C32" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="331" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E32" s="333"/>
+      <c r="G32" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="L32" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="294"/>
+      <c r="P32" s="302">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="303"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="V32" s="29"/>
+      <c r="Y32" s="322"/>
+      <c r="Z32" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="AN32" s="56" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A33" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="322"/>
+      <c r="C33" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="331" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E33" s="333"/>
+      <c r="G33" s="149" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="K33" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="L33" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="294"/>
+      <c r="P33" s="302">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="303"/>
+      <c r="R33" s="29"/>
+      <c r="T33" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="322" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Y33" s="322"/>
+      <c r="Z33" s="164" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AA33" s="28" t="s">
+        <v>960</v>
+      </c>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A34" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="322"/>
+      <c r="C34" s="322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="333"/>
+      <c r="G34" s="149" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H34" s="56" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I34" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="J34" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="K34" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="L34" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="294"/>
+      <c r="P34" s="302"/>
+      <c r="Q34" s="303"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="U34" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="V34" s="61"/>
+      <c r="Y34" s="322"/>
+      <c r="Z34" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA34" s="28" t="s">
+        <v>961</v>
+      </c>
+      <c r="AB34" s="23" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A35" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="322">
+        <v>2</v>
+      </c>
+      <c r="C35" s="164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D35" s="335"/>
+      <c r="E35" s="333" t="s">
+        <v>916</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="56" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J35" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="294"/>
+      <c r="P35" s="254"/>
+      <c r="Q35" s="303"/>
+      <c r="R35" s="29"/>
+      <c r="T35" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="V35" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y35" s="322"/>
+      <c r="Z35" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB35" s="23" t="s">
+        <v>963</v>
+      </c>
+      <c r="AC35" s="23" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A36" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="322"/>
+      <c r="C36" s="294" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="331" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E36" s="333"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="54" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J36" s="56" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="294"/>
+      <c r="P36" s="302">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="303"/>
+      <c r="R36" s="29"/>
+      <c r="U36" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y36" s="322"/>
+      <c r="Z36" s="322" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC36" s="23" t="s">
+        <v>965</v>
+      </c>
+      <c r="AD36" s="29" t="s">
+        <v>966</v>
+      </c>
+      <c r="AK36" s="56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A37" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="322"/>
+      <c r="C37" s="294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="331" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E37" s="333"/>
+      <c r="G37" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="56" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K37" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="294"/>
+      <c r="P37" s="302">
+        <v>1</v>
+      </c>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="X37" s="307" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Y37" s="322">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AD37" s="29" t="s">
+        <v>967</v>
+      </c>
+      <c r="AK37" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL37" s="56" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A38" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="322"/>
+      <c r="C38" s="164" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D38" s="331" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E38" s="333"/>
+      <c r="F38" s="336" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G38" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="H38" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="J38" s="29"/>
+      <c r="K38" s="83" t="s">
+        <v>345</v>
+      </c>
+      <c r="L38" s="83" t="s">
+        <v>349</v>
+      </c>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="294"/>
+      <c r="P38" s="302">
+        <v>2</v>
+      </c>
+      <c r="S38" s="302"/>
+      <c r="T38" s="303"/>
+      <c r="U38" s="303"/>
+      <c r="V38" s="304"/>
+      <c r="W38" s="322" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y38" s="322"/>
+      <c r="Z38" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM38" s="54" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A39" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" s="322"/>
+      <c r="C39" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="331" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E39" s="333"/>
+      <c r="G39" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="I39" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="294"/>
+      <c r="P39" s="302">
+        <v>3</v>
+      </c>
+      <c r="S39" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y39" s="322"/>
+      <c r="Z39" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM39" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN39" s="54" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A40" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" s="322"/>
+      <c r="C40" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="331" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E40" s="333"/>
+      <c r="G40" s="353" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="I40" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="J40" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="294"/>
+      <c r="P40" s="302">
+        <v>4</v>
+      </c>
+      <c r="T40" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="W40" s="322" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Y40" s="322"/>
+      <c r="Z40" s="164" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AN40" s="54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A41" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" s="322"/>
+      <c r="C41" s="322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="333"/>
+      <c r="G41" s="354" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H41" s="355" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I41" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J41" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="K41" s="83" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="294"/>
+      <c r="P41" s="302"/>
+      <c r="S41" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="U41" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y41" s="322"/>
+      <c r="Z41" s="322" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A42" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" s="322">
+        <v>3</v>
+      </c>
+      <c r="C42" s="164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D42" s="335"/>
+      <c r="E42" s="333" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="356" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I42" s="355" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J42" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="294"/>
+      <c r="P42" s="302"/>
+      <c r="T42" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="V42" s="56" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y42" s="322"/>
+      <c r="Z42" s="322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A43" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="B43" s="322"/>
+      <c r="C43" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="331" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F43" s="336" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H43" s="23"/>
+      <c r="I43" s="356" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J43" s="355" t="s">
+        <v>1066</v>
+      </c>
+      <c r="U43" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y43" s="322"/>
+      <c r="Z43" s="322" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK43" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="29"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A44" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" s="322"/>
+      <c r="C44" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="331" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G44" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="356" t="s">
+        <v>1067</v>
+      </c>
+      <c r="V44" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="X44" s="336" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Y44" s="322">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="164" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AK44" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL44" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="29"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A45" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="B45" s="322"/>
+      <c r="C45" s="164" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D45" s="331" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G45" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="H45" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="J45" s="29"/>
+      <c r="W45" s="322" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y45" s="322"/>
+      <c r="Z45" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL45" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="AM45" s="56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A46" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="322"/>
+      <c r="C46" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="331" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G46" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="H46" s="57" t="s">
+        <v>407</v>
+      </c>
+      <c r="I46" s="183" t="s">
+        <v>409</v>
+      </c>
+      <c r="S46" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y46" s="322"/>
+      <c r="Z46" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM46" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN46" s="56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A47" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="322"/>
+      <c r="C47" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="331" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G47" s="355" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>408</v>
+      </c>
+      <c r="I47" s="183" t="s">
+        <v>410</v>
+      </c>
+      <c r="J47" s="318" t="s">
+        <v>412</v>
+      </c>
+      <c r="T47" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="W47" s="322" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Y47" s="322"/>
+      <c r="Z47" s="164" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AN47" s="56" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A48" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" s="322"/>
+      <c r="C48" s="322" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="356" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H48" s="355" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I48" s="183" t="s">
+        <v>411</v>
+      </c>
+      <c r="J48" s="318" t="s">
+        <v>413</v>
+      </c>
+      <c r="S48" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="U48" s="56" t="s">
+        <v>439</v>
+      </c>
+      <c r="V48" s="29"/>
+      <c r="Y48" s="322"/>
+      <c r="Z48" s="322" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A49" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" s="322"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="356" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I49" s="183" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J49" s="318" t="s">
+        <v>414</v>
+      </c>
+      <c r="T49" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="V49" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y49" s="322"/>
+      <c r="Z49" s="322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A50" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="B50" s="322"/>
+      <c r="C50" s="164" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F50" s="333" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I50" s="183" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J50" s="318" t="s">
+        <v>1074</v>
+      </c>
+      <c r="T50" s="23"/>
+      <c r="U50" s="56" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y50" s="322"/>
+      <c r="Z50" s="322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A51" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" s="322"/>
+      <c r="C51" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="331" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J51" s="318" t="s">
+        <v>1075</v>
+      </c>
+      <c r="V51" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="X51" s="336" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Y51" s="322">
+        <v>3</v>
+      </c>
+      <c r="Z51" s="164" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A52" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="331" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G52" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="W52" s="322" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y52" s="322"/>
+      <c r="Z52" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK52" s="260" t="s">
+        <v>415</v>
+      </c>
+      <c r="AM52" s="23"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A53" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C53" s="322" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="331" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G53" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="H53" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="S53" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y53" s="322"/>
+      <c r="Z53" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK53" s="260" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL53" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="AN53" s="29"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A54" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" s="322" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="372" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G54" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="H54" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="I54" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="T54" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="W54" s="322" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Y54" s="322"/>
+      <c r="Z54" s="164" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AK54" s="260" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL54" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM54" s="57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A55" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C55" s="322" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="H55" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="I55" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="S55" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="U55" s="183" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y55" s="322"/>
+      <c r="Z55" s="322" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK55" s="149" t="s">
+        <v>418</v>
+      </c>
+      <c r="AL55" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM55" s="57" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN55" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A56" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" s="322" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="I56" s="183" t="s">
+        <v>450</v>
+      </c>
+      <c r="T56" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="V56" s="183" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y56" s="322"/>
+      <c r="Z56" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK56" s="149" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL56" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM56" s="57" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN56" s="57" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A57" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" s="322" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="183" t="s">
+        <v>451</v>
+      </c>
+      <c r="J57" s="183" t="s">
+        <v>452</v>
+      </c>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="183" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y57" s="322"/>
+      <c r="Z57" s="322" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL57" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="AM57" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="AN57" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A58" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C58" s="366" t="s">
+        <v>53</v>
+      </c>
+      <c r="J58" s="183" t="s">
+        <v>453</v>
+      </c>
+      <c r="V58" s="183" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y58" s="322"/>
+      <c r="Z58" s="164" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AM58" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN58" s="56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A59" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C59" s="366" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN59" s="56" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A60" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C60" s="366" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="S60" s="75" t="s">
+        <v>827</v>
+      </c>
+      <c r="T60" s="332"/>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A61" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="366" t="s">
+        <v>59</v>
+      </c>
+      <c r="S61" s="75" t="s">
+        <v>828</v>
+      </c>
+      <c r="T61" s="75" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A62" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" s="366" t="s">
+        <v>61</v>
+      </c>
+      <c r="S62" s="332"/>
+      <c r="T62" s="75" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A63" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C63" s="366" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A64" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64" s="366" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="366" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" s="366" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67" s="366" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C68" s="366" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C69" s="366" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C70" s="366" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="331" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C71" s="366" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="331" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G71" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="H71" s="18"/>
+      <c r="K71" s="357" t="s">
+        <v>374</v>
+      </c>
+      <c r="L71" s="18"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="366" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="331" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G72" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="H72" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="I72" s="23"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="357" t="s">
+        <v>372</v>
+      </c>
+      <c r="L72" s="357" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" s="366" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="331" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G73" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="H73" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="J73" s="29"/>
+      <c r="K73" s="357" t="s">
+        <v>370</v>
+      </c>
+      <c r="L73" s="357" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C74" s="366" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="331" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G74" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="H74" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="K74" s="357" t="s">
+        <v>446</v>
+      </c>
+      <c r="L74" s="357" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" s="366" t="s">
+        <v>110</v>
+      </c>
+      <c r="G75" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="H75" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="K75" s="357" t="s">
+        <v>448</v>
+      </c>
+      <c r="L75" s="357" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C76" s="366" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="18"/>
+      <c r="H76" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="K76" s="18"/>
+      <c r="L76" s="357" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C77" s="366" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C78" s="366" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C79" s="366" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" s="34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" s="34" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" s="34" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" s="34" t="s">
+        <v>498</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="S1:V1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE96E198-A134-4E8D-93D2-A301FB776858}">
   <dimension ref="A1:X163"/>
   <sheetViews>
@@ -6766,25 +9552,25 @@
       <c r="C1" s="361"/>
       <c r="D1" s="349"/>
       <c r="E1" s="351"/>
-      <c r="F1" s="370" t="s">
+      <c r="F1" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="372"/>
-      <c r="J1" s="370" t="s">
+      <c r="G1" s="386"/>
+      <c r="H1" s="386"/>
+      <c r="I1" s="387"/>
+      <c r="J1" s="385" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
-      <c r="M1" s="372"/>
+      <c r="K1" s="386"/>
+      <c r="L1" s="386"/>
+      <c r="M1" s="387"/>
       <c r="N1" s="323"/>
-      <c r="O1" s="370" t="s">
+      <c r="O1" s="385" t="s">
         <v>383</v>
       </c>
-      <c r="P1" s="371"/>
-      <c r="Q1" s="371"/>
-      <c r="R1" s="372"/>
+      <c r="P1" s="386"/>
+      <c r="Q1" s="386"/>
+      <c r="R1" s="387"/>
       <c r="S1" s="324"/>
       <c r="T1" s="324"/>
     </row>
@@ -6888,12 +9674,12 @@
       <c r="T3" s="328" t="s">
         <v>932</v>
       </c>
-      <c r="U3" s="374" t="s">
+      <c r="U3" s="390" t="s">
         <v>832</v>
       </c>
-      <c r="V3" s="374"/>
-      <c r="W3" s="374"/>
-      <c r="X3" s="375"/>
+      <c r="V3" s="390"/>
+      <c r="W3" s="390"/>
+      <c r="X3" s="393"/>
     </row>
     <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="241" t="s">
@@ -6963,12 +9749,12 @@
       <c r="Q5" s="240"/>
       <c r="R5" s="49"/>
       <c r="S5" s="332"/>
-      <c r="U5" s="379" t="s">
+      <c r="U5" s="383" t="s">
         <v>761</v>
       </c>
-      <c r="V5" s="379"/>
-      <c r="W5" s="379"/>
-      <c r="X5" s="380"/>
+      <c r="V5" s="383"/>
+      <c r="W5" s="383"/>
+      <c r="X5" s="384"/>
     </row>
     <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="241" t="s">
@@ -6997,12 +9783,12 @@
       <c r="N6" s="335"/>
       <c r="Q6" s="240"/>
       <c r="R6" s="49"/>
-      <c r="U6" s="379" t="s">
+      <c r="U6" s="383" t="s">
         <v>833</v>
       </c>
-      <c r="V6" s="379"/>
-      <c r="W6" s="379"/>
-      <c r="X6" s="380"/>
+      <c r="V6" s="383"/>
+      <c r="W6" s="383"/>
+      <c r="X6" s="384"/>
     </row>
     <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="241" t="s">
@@ -7070,10 +9856,10 @@
       <c r="T8" s="333" t="s">
         <v>1088</v>
       </c>
-      <c r="U8" s="396"/>
-      <c r="V8" s="397"/>
-      <c r="W8" s="397"/>
-      <c r="X8" s="397"/>
+      <c r="U8" s="408"/>
+      <c r="V8" s="409"/>
+      <c r="W8" s="409"/>
+      <c r="X8" s="409"/>
     </row>
     <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="241" t="s">
@@ -9264,7 +12050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97200EA5-E29D-4EB9-BD19-A2256CE43B13}">
   <dimension ref="A1:AG89"/>
   <sheetViews>
@@ -9303,34 +12089,34 @@
     <row r="1" spans="1:33" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" s="349"/>
       <c r="D1" s="351"/>
-      <c r="E1" s="370" t="s">
+      <c r="E1" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
-      <c r="H1" s="372"/>
-      <c r="I1" s="370" t="s">
+      <c r="F1" s="386"/>
+      <c r="G1" s="386"/>
+      <c r="H1" s="387"/>
+      <c r="I1" s="385" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="372"/>
+      <c r="J1" s="386"/>
+      <c r="K1" s="386"/>
+      <c r="L1" s="387"/>
       <c r="M1" s="323"/>
       <c r="N1" s="325"/>
-      <c r="O1" s="370" t="s">
+      <c r="O1" s="385" t="s">
         <v>383</v>
       </c>
-      <c r="P1" s="371"/>
-      <c r="Q1" s="371"/>
-      <c r="R1" s="372"/>
+      <c r="P1" s="386"/>
+      <c r="Q1" s="386"/>
+      <c r="R1" s="387"/>
       <c r="S1" s="324"/>
       <c r="T1" s="324"/>
-      <c r="U1" s="370" t="s">
+      <c r="U1" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="V1" s="371"/>
-      <c r="W1" s="371"/>
-      <c r="X1" s="372"/>
+      <c r="V1" s="386"/>
+      <c r="W1" s="386"/>
+      <c r="X1" s="387"/>
       <c r="Y1" s="40"/>
       <c r="Z1" s="40"/>
       <c r="AA1" s="40"/>
@@ -9440,12 +12226,12 @@
       <c r="V3" s="33"/>
       <c r="W3" s="33"/>
       <c r="X3" s="36"/>
-      <c r="Y3" s="373" t="s">
+      <c r="Y3" s="389" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="374"/>
-      <c r="AA3" s="374"/>
-      <c r="AB3" s="375"/>
+      <c r="Z3" s="390"/>
+      <c r="AA3" s="390"/>
+      <c r="AB3" s="393"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="241" t="s">
@@ -9518,12 +12304,12 @@
       <c r="V5" s="33"/>
       <c r="W5" s="33"/>
       <c r="X5" s="36"/>
-      <c r="Y5" s="378" t="s">
+      <c r="Y5" s="382" t="s">
         <v>236</v>
       </c>
-      <c r="Z5" s="379"/>
-      <c r="AA5" s="379"/>
-      <c r="AB5" s="380"/>
+      <c r="Z5" s="383"/>
+      <c r="AA5" s="383"/>
+      <c r="AB5" s="384"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="241" t="s">
@@ -9556,12 +12342,12 @@
       <c r="V6" s="33"/>
       <c r="W6" s="33"/>
       <c r="X6" s="36"/>
-      <c r="Y6" s="378" t="s">
+      <c r="Y6" s="382" t="s">
         <v>237</v>
       </c>
-      <c r="Z6" s="379"/>
-      <c r="AA6" s="379"/>
-      <c r="AB6" s="380"/>
+      <c r="Z6" s="383"/>
+      <c r="AA6" s="383"/>
+      <c r="AB6" s="384"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="241" t="s">
@@ -9643,12 +12429,12 @@
       </c>
       <c r="W8" s="332"/>
       <c r="X8" s="333"/>
-      <c r="Y8" s="398" t="s">
+      <c r="Y8" s="410" t="s">
         <v>329</v>
       </c>
-      <c r="Z8" s="397"/>
-      <c r="AA8" s="397"/>
-      <c r="AB8" s="397"/>
+      <c r="Z8" s="409"/>
+      <c r="AA8" s="409"/>
+      <c r="AB8" s="409"/>
       <c r="AD8" s="35"/>
       <c r="AE8" s="33"/>
       <c r="AF8" s="33"/>
@@ -11971,7 +14757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D08606B-AA92-41E2-AB37-358CADF18961}">
   <dimension ref="A1:V89"/>
   <sheetViews>
@@ -12002,30 +14788,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="241"/>
       <c r="B1" s="228"/>
-      <c r="C1" s="370" t="s">
+      <c r="C1" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="372"/>
-      <c r="G1" s="370" t="s">
+      <c r="D1" s="386"/>
+      <c r="E1" s="386"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="385" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="372"/>
-      <c r="K1" s="370" t="s">
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="387"/>
+      <c r="K1" s="385" t="s">
         <v>383</v>
       </c>
-      <c r="L1" s="371"/>
-      <c r="M1" s="371"/>
-      <c r="N1" s="372"/>
-      <c r="O1" s="370" t="s">
+      <c r="L1" s="386"/>
+      <c r="M1" s="386"/>
+      <c r="N1" s="387"/>
+      <c r="O1" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="371"/>
-      <c r="Q1" s="371"/>
-      <c r="R1" s="372"/>
+      <c r="P1" s="386"/>
+      <c r="Q1" s="386"/>
+      <c r="R1" s="387"/>
       <c r="S1" s="191"/>
       <c r="T1" s="191"/>
       <c r="U1" s="191"/>
@@ -12124,12 +14910,12 @@
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
-      <c r="S3" s="373" t="s">
+      <c r="S3" s="389" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="374"/>
-      <c r="U3" s="374"/>
-      <c r="V3" s="375"/>
+      <c r="T3" s="390"/>
+      <c r="U3" s="390"/>
+      <c r="V3" s="393"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="241" t="s">
@@ -12198,12 +14984,12 @@
       <c r="P5" s="186"/>
       <c r="Q5" s="186"/>
       <c r="R5" s="187"/>
-      <c r="S5" s="378" t="s">
+      <c r="S5" s="382" t="s">
         <v>236</v>
       </c>
-      <c r="T5" s="379"/>
-      <c r="U5" s="379"/>
-      <c r="V5" s="380"/>
+      <c r="T5" s="383"/>
+      <c r="U5" s="383"/>
+      <c r="V5" s="384"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="241" t="s">
@@ -12234,12 +15020,12 @@
       <c r="P6" s="186"/>
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
-      <c r="S6" s="378" t="s">
+      <c r="S6" s="382" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="379"/>
-      <c r="U6" s="379"/>
-      <c r="V6" s="380"/>
+      <c r="T6" s="383"/>
+      <c r="U6" s="383"/>
+      <c r="V6" s="384"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="241" t="s">
@@ -12307,12 +15093,12 @@
         <v>238</v>
       </c>
       <c r="R8" s="187"/>
-      <c r="S8" s="398" t="s">
+      <c r="S8" s="410" t="s">
         <v>834</v>
       </c>
-      <c r="T8" s="397"/>
-      <c r="U8" s="397"/>
-      <c r="V8" s="397"/>
+      <c r="T8" s="409"/>
+      <c r="U8" s="409"/>
+      <c r="V8" s="409"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="241" t="s">
@@ -14618,7 +17404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0308FE05-318F-4754-9DD5-50D0105D6ADD}">
   <dimension ref="B1:E21"/>
   <sheetViews>
@@ -14817,7 +17603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6FB3D3-CAC1-4C5F-9F30-14BF071472B6}">
   <dimension ref="A1:AC51"/>
   <sheetViews>
@@ -14846,36 +17632,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="18"/>
-      <c r="C1" s="370" t="s">
+      <c r="C1" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="372"/>
-      <c r="G1" s="381" t="s">
+      <c r="D1" s="386"/>
+      <c r="E1" s="386"/>
+      <c r="F1" s="387"/>
+      <c r="G1" s="388" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="370" t="s">
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="386"/>
+      <c r="K1" s="385" t="s">
         <v>383</v>
       </c>
-      <c r="L1" s="371"/>
-      <c r="M1" s="371"/>
-      <c r="N1" s="372"/>
-      <c r="O1" s="370" t="s">
+      <c r="L1" s="386"/>
+      <c r="M1" s="386"/>
+      <c r="N1" s="387"/>
+      <c r="O1" s="385" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="371"/>
-      <c r="Q1" s="371"/>
-      <c r="R1" s="372"/>
-      <c r="Z1" s="370" t="s">
+      <c r="P1" s="386"/>
+      <c r="Q1" s="386"/>
+      <c r="R1" s="387"/>
+      <c r="Z1" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="371"/>
-      <c r="AB1" s="371"/>
-      <c r="AC1" s="372"/>
+      <c r="AA1" s="386"/>
+      <c r="AB1" s="386"/>
+      <c r="AC1" s="387"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18"/>
@@ -14944,33 +17730,33 @@
       <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="373" t="s">
+      <c r="C3" s="389" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="375"/>
-      <c r="G3" s="373"/>
-      <c r="H3" s="374"/>
-      <c r="I3" s="374"/>
-      <c r="J3" s="375"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="393"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="393"/>
       <c r="K3" s="185"/>
       <c r="O3" s="185"/>
       <c r="P3" s="186"/>
       <c r="Q3" s="186"/>
       <c r="R3" s="187"/>
-      <c r="S3" s="373" t="s">
+      <c r="S3" s="389" t="s">
         <v>343</v>
       </c>
-      <c r="T3" s="374"/>
-      <c r="U3" s="374"/>
-      <c r="V3" s="375"/>
-      <c r="Z3" s="373" t="s">
+      <c r="T3" s="390"/>
+      <c r="U3" s="390"/>
+      <c r="V3" s="393"/>
+      <c r="Z3" s="389" t="s">
         <v>219</v>
       </c>
-      <c r="AA3" s="374"/>
-      <c r="AB3" s="374"/>
-      <c r="AC3" s="375"/>
+      <c r="AA3" s="390"/>
+      <c r="AB3" s="390"/>
+      <c r="AC3" s="393"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="34" t="s">
@@ -15027,12 +17813,12 @@
       <c r="P5" s="186"/>
       <c r="Q5" s="186"/>
       <c r="R5" s="187"/>
-      <c r="S5" s="378" t="s">
+      <c r="S5" s="382" t="s">
         <v>443</v>
       </c>
-      <c r="T5" s="379"/>
-      <c r="U5" s="379"/>
-      <c r="V5" s="380"/>
+      <c r="T5" s="383"/>
+      <c r="U5" s="383"/>
+      <c r="V5" s="384"/>
       <c r="W5" s="64" t="s">
         <v>445</v>
       </c>
@@ -15062,12 +17848,12 @@
       <c r="P6" s="186"/>
       <c r="Q6" s="186"/>
       <c r="R6" s="187"/>
-      <c r="S6" s="378" t="s">
+      <c r="S6" s="382" t="s">
         <v>360</v>
       </c>
-      <c r="T6" s="379"/>
-      <c r="U6" s="379"/>
-      <c r="V6" s="380"/>
+      <c r="T6" s="383"/>
+      <c r="U6" s="383"/>
+      <c r="V6" s="384"/>
       <c r="Z6" s="185"/>
       <c r="AA6" s="186"/>
       <c r="AB6" s="186"/>
@@ -16426,17 +19212,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16471,57 +19257,57 @@
       <c r="A1" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="370" t="s">
+      <c r="B1" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="372"/>
-      <c r="F1" s="381" t="s">
+      <c r="C1" s="386"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="388" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="370" t="s">
+      <c r="G1" s="386"/>
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="385" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
-      <c r="M1" s="372"/>
-      <c r="N1" s="370" t="s">
+      <c r="K1" s="386"/>
+      <c r="L1" s="386"/>
+      <c r="M1" s="387"/>
+      <c r="N1" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="371"/>
-      <c r="P1" s="371"/>
-      <c r="Q1" s="372"/>
-      <c r="R1" s="373" t="s">
+      <c r="O1" s="386"/>
+      <c r="P1" s="386"/>
+      <c r="Q1" s="387"/>
+      <c r="R1" s="389" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="374"/>
-      <c r="T1" s="374"/>
+      <c r="S1" s="390"/>
+      <c r="T1" s="390"/>
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="184"/>
-      <c r="B2" s="370" t="s">
+      <c r="B2" s="385" t="s">
         <v>535</v>
       </c>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="370" t="s">
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="385" t="s">
         <v>536</v>
       </c>
-      <c r="G2" s="371"/>
-      <c r="H2" s="371"/>
-      <c r="I2" s="372"/>
-      <c r="J2" s="370" t="s">
+      <c r="G2" s="386"/>
+      <c r="H2" s="386"/>
+      <c r="I2" s="387"/>
+      <c r="J2" s="385" t="s">
         <v>679</v>
       </c>
-      <c r="K2" s="371"/>
-      <c r="L2" s="371"/>
-      <c r="M2" s="372"/>
+      <c r="K2" s="386"/>
+      <c r="L2" s="386"/>
+      <c r="M2" s="387"/>
       <c r="N2" s="39"/>
       <c r="O2" s="188"/>
       <c r="P2" s="188"/>
@@ -16620,12 +19406,12 @@
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="29"/>
-      <c r="R4" s="367" t="s">
+      <c r="R4" s="379" t="s">
         <v>236</v>
       </c>
-      <c r="S4" s="376"/>
-      <c r="T4" s="376"/>
-      <c r="U4" s="377"/>
+      <c r="S4" s="380"/>
+      <c r="T4" s="380"/>
+      <c r="U4" s="381"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="184" t="s">
@@ -16648,12 +19434,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="378" t="s">
+      <c r="R5" s="382" t="s">
         <v>757</v>
       </c>
-      <c r="S5" s="379"/>
-      <c r="T5" s="379"/>
-      <c r="U5" s="380"/>
+      <c r="S5" s="383"/>
+      <c r="T5" s="383"/>
+      <c r="U5" s="384"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="184" t="s">
@@ -18323,11 +21109,11 @@
       <c r="K93" s="182"/>
       <c r="L93" s="192"/>
       <c r="M93" s="192"/>
-      <c r="R93" s="373" t="s">
+      <c r="R93" s="389" t="s">
         <v>213</v>
       </c>
-      <c r="S93" s="374"/>
-      <c r="T93" s="374"/>
+      <c r="S93" s="390"/>
+      <c r="T93" s="390"/>
       <c r="U93" s="37"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -18416,12 +21202,12 @@
       <c r="K96" s="61"/>
       <c r="L96" s="61"/>
       <c r="M96" s="62"/>
-      <c r="R96" s="367" t="s">
+      <c r="R96" s="379" t="s">
         <v>51</v>
       </c>
-      <c r="S96" s="368"/>
-      <c r="T96" s="368"/>
-      <c r="U96" s="369"/>
+      <c r="S96" s="391"/>
+      <c r="T96" s="391"/>
+      <c r="U96" s="392"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="184" t="s">
@@ -18443,12 +21229,12 @@
       <c r="K97" s="61"/>
       <c r="L97" s="61"/>
       <c r="M97" s="62"/>
-      <c r="R97" s="373" t="s">
+      <c r="R97" s="389" t="s">
         <v>757</v>
       </c>
-      <c r="S97" s="374"/>
-      <c r="T97" s="374"/>
-      <c r="U97" s="375"/>
+      <c r="S97" s="390"/>
+      <c r="T97" s="390"/>
+      <c r="U97" s="393"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="184" t="s">
@@ -18500,11 +21286,11 @@
       <c r="K100" s="61"/>
       <c r="L100" s="61"/>
       <c r="M100" s="62"/>
-      <c r="R100" s="373" t="s">
+      <c r="R100" s="389" t="s">
         <v>758</v>
       </c>
-      <c r="S100" s="374"/>
-      <c r="T100" s="374"/>
+      <c r="S100" s="390"/>
+      <c r="T100" s="390"/>
       <c r="U100" s="37"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -18600,12 +21386,12 @@
       <c r="M103" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="R103" s="367" t="s">
+      <c r="R103" s="379" t="s">
         <v>236</v>
       </c>
-      <c r="S103" s="368"/>
-      <c r="T103" s="368"/>
-      <c r="U103" s="369"/>
+      <c r="S103" s="391"/>
+      <c r="T103" s="391"/>
+      <c r="U103" s="392"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="184" t="s">
@@ -18622,12 +21408,12 @@
       <c r="L104" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="R104" s="373" t="s">
+      <c r="R104" s="389" t="s">
         <v>757</v>
       </c>
-      <c r="S104" s="374"/>
-      <c r="T104" s="374"/>
-      <c r="U104" s="375"/>
+      <c r="S104" s="390"/>
+      <c r="T104" s="390"/>
+      <c r="U104" s="393"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="184" t="s">
@@ -18977,12 +21763,12 @@
       <c r="L124" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="R124" s="373" t="s">
+      <c r="R124" s="389" t="s">
         <v>769</v>
       </c>
-      <c r="S124" s="374"/>
-      <c r="T124" s="374"/>
-      <c r="U124" s="375"/>
+      <c r="S124" s="390"/>
+      <c r="T124" s="390"/>
+      <c r="U124" s="393"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="184" t="s">
@@ -19058,23 +21844,23 @@
       <c r="G127" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="R127" s="367" t="s">
+      <c r="R127" s="379" t="s">
         <v>761</v>
       </c>
-      <c r="S127" s="368"/>
-      <c r="T127" s="368"/>
-      <c r="U127" s="369"/>
+      <c r="S127" s="391"/>
+      <c r="T127" s="391"/>
+      <c r="U127" s="392"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="184" t="s">
         <v>770</v>
       </c>
-      <c r="R128" s="370" t="s">
+      <c r="R128" s="385" t="s">
         <v>757</v>
       </c>
-      <c r="S128" s="371"/>
-      <c r="T128" s="371"/>
-      <c r="U128" s="372"/>
+      <c r="S128" s="386"/>
+      <c r="T128" s="386"/>
+      <c r="U128" s="387"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="184" t="s">
@@ -19129,12 +21915,12 @@
       <c r="F135" s="60" t="s">
         <v>738</v>
       </c>
-      <c r="R135" s="373" t="s">
+      <c r="R135" s="389" t="s">
         <v>789</v>
       </c>
-      <c r="S135" s="374"/>
-      <c r="T135" s="374"/>
-      <c r="U135" s="375"/>
+      <c r="S135" s="390"/>
+      <c r="T135" s="390"/>
+      <c r="U135" s="393"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="184" t="s">
@@ -19186,23 +21972,23 @@
       <c r="A138" s="184" t="s">
         <v>746</v>
       </c>
-      <c r="R138" s="367" t="s">
+      <c r="R138" s="379" t="s">
         <v>761</v>
       </c>
-      <c r="S138" s="368"/>
-      <c r="T138" s="368"/>
-      <c r="U138" s="369"/>
+      <c r="S138" s="391"/>
+      <c r="T138" s="391"/>
+      <c r="U138" s="392"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="184" t="s">
         <v>747</v>
       </c>
-      <c r="R139" s="370" t="s">
+      <c r="R139" s="385" t="s">
         <v>800</v>
       </c>
-      <c r="S139" s="371"/>
-      <c r="T139" s="371"/>
-      <c r="U139" s="372"/>
+      <c r="S139" s="386"/>
+      <c r="T139" s="386"/>
+      <c r="U139" s="387"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="184" t="s">
@@ -19251,12 +22037,12 @@
       <c r="F145" s="56" t="s">
         <v>731</v>
       </c>
-      <c r="R145" s="373" t="s">
+      <c r="R145" s="389" t="s">
         <v>799</v>
       </c>
-      <c r="S145" s="374"/>
-      <c r="T145" s="374"/>
-      <c r="U145" s="375"/>
+      <c r="S145" s="390"/>
+      <c r="T145" s="390"/>
+      <c r="U145" s="393"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="184" t="s">
@@ -19308,12 +22094,12 @@
       <c r="A148" s="184" t="s">
         <v>771</v>
       </c>
-      <c r="R148" s="367" t="s">
+      <c r="R148" s="379" t="s">
         <v>761</v>
       </c>
-      <c r="S148" s="368"/>
-      <c r="T148" s="368"/>
-      <c r="U148" s="369"/>
+      <c r="S148" s="391"/>
+      <c r="T148" s="391"/>
+      <c r="U148" s="392"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="184" t="s">
@@ -19323,12 +22109,12 @@
       <c r="Q149" s="56" t="s">
         <v>762</v>
       </c>
-      <c r="R149" s="370" t="s">
+      <c r="R149" s="385" t="s">
         <v>800</v>
       </c>
-      <c r="S149" s="371"/>
-      <c r="T149" s="371"/>
-      <c r="U149" s="372"/>
+      <c r="S149" s="386"/>
+      <c r="T149" s="386"/>
+      <c r="U149" s="387"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="184" t="s">
@@ -19437,6 +22223,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="R127:U127"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="B1:E1"/>
@@ -19447,21 +22248,6 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19492,30 +22278,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18"/>
-      <c r="B1" s="370" t="s">
+      <c r="B1" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="372"/>
-      <c r="F1" s="381" t="s">
+      <c r="C1" s="386"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="387"/>
+      <c r="F1" s="388" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="370" t="s">
+      <c r="G1" s="386"/>
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="385" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
-      <c r="M1" s="372"/>
-      <c r="N1" s="370" t="s">
+      <c r="K1" s="386"/>
+      <c r="L1" s="386"/>
+      <c r="M1" s="387"/>
+      <c r="N1" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="371"/>
-      <c r="P1" s="371"/>
-      <c r="Q1" s="372"/>
+      <c r="O1" s="386"/>
+      <c r="P1" s="386"/>
+      <c r="Q1" s="387"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -19602,12 +22388,12 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="373" t="s">
+      <c r="R3" s="389" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="374"/>
-      <c r="T3" s="374"/>
-      <c r="U3" s="375"/>
+      <c r="S3" s="390"/>
+      <c r="T3" s="390"/>
+      <c r="U3" s="393"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
@@ -19660,12 +22446,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="378" t="s">
+      <c r="R5" s="382" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="379"/>
-      <c r="T5" s="379"/>
-      <c r="U5" s="380"/>
+      <c r="S5" s="383"/>
+      <c r="T5" s="383"/>
+      <c r="U5" s="384"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
@@ -19687,12 +22473,12 @@
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="29"/>
-      <c r="R6" s="378" t="s">
+      <c r="R6" s="382" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="379"/>
-      <c r="T6" s="379"/>
-      <c r="U6" s="380"/>
+      <c r="S6" s="383"/>
+      <c r="T6" s="383"/>
+      <c r="U6" s="384"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
@@ -20931,18 +23717,18 @@
       <c r="AB1" s="244"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B2" s="366" t="s">
+      <c r="B2" s="378" t="s">
         <v>586</v>
       </c>
-      <c r="C2" s="366"/>
-      <c r="D2" s="366"/>
-      <c r="E2" s="366"/>
-      <c r="F2" s="366"/>
-      <c r="G2" s="366"/>
-      <c r="H2" s="366"/>
-      <c r="I2" s="366"/>
-      <c r="J2" s="366"/>
-      <c r="K2" s="366"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="378"/>
+      <c r="I2" s="378"/>
+      <c r="J2" s="378"/>
+      <c r="K2" s="378"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
@@ -21325,15 +24111,15 @@
       <c r="O18" s="18">
         <v>1</v>
       </c>
-      <c r="V18" s="366" t="s">
+      <c r="V18" s="378" t="s">
         <v>939</v>
       </c>
-      <c r="W18" s="366"/>
-      <c r="X18" s="366"/>
-      <c r="Y18" s="366"/>
-      <c r="Z18" s="366"/>
-      <c r="AA18" s="366"/>
-      <c r="AB18" s="366"/>
+      <c r="W18" s="378"/>
+      <c r="X18" s="378"/>
+      <c r="Y18" s="378"/>
+      <c r="Z18" s="378"/>
+      <c r="AA18" s="378"/>
+      <c r="AB18" s="378"/>
       <c r="AC18" s="166"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.4">
@@ -23342,18 +26128,18 @@
       <c r="A89" s="253" t="s">
         <v>898</v>
       </c>
-      <c r="B89" s="373" t="s">
+      <c r="B89" s="389" t="s">
         <v>899</v>
       </c>
-      <c r="C89" s="374"/>
-      <c r="D89" s="374"/>
-      <c r="E89" s="375"/>
-      <c r="G89" s="382" t="s">
+      <c r="C89" s="390"/>
+      <c r="D89" s="390"/>
+      <c r="E89" s="393"/>
+      <c r="G89" s="394" t="s">
         <v>900</v>
       </c>
-      <c r="H89" s="383"/>
-      <c r="I89" s="383"/>
-      <c r="J89" s="384"/>
+      <c r="H89" s="395"/>
+      <c r="I89" s="395"/>
+      <c r="J89" s="396"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B90" s="28" t="s">
@@ -26053,11 +28839,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="373" t="s">
+      <c r="D1" s="389" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
+      <c r="E1" s="390"/>
+      <c r="F1" s="390"/>
       <c r="G1" s="37"/>
       <c r="H1" s="45"/>
       <c r="I1" s="68"/>
@@ -26099,12 +28885,12 @@
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D3" s="378" t="s">
+      <c r="D3" s="382" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="379"/>
-      <c r="F3" s="379"/>
-      <c r="G3" s="380"/>
+      <c r="E3" s="383"/>
+      <c r="F3" s="383"/>
+      <c r="G3" s="384"/>
       <c r="H3" s="85"/>
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
@@ -26113,12 +28899,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="370" t="s">
+      <c r="D6" s="385" t="s">
         <v>535</v>
       </c>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
-      <c r="G6" s="372"/>
+      <c r="E6" s="386"/>
+      <c r="F6" s="386"/>
+      <c r="G6" s="387"/>
       <c r="H6" s="88"/>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
@@ -26127,27 +28913,27 @@
       <c r="M6" s="70"/>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
-      <c r="P6" s="370" t="s">
+      <c r="P6" s="385" t="s">
         <v>536</v>
       </c>
-      <c r="Q6" s="371"/>
-      <c r="R6" s="371"/>
-      <c r="S6" s="372"/>
-      <c r="AF6" s="370" t="s">
+      <c r="Q6" s="386"/>
+      <c r="R6" s="386"/>
+      <c r="S6" s="387"/>
+      <c r="AF6" s="385" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="371"/>
-      <c r="AH6" s="371"/>
-      <c r="AI6" s="372"/>
+      <c r="AG6" s="386"/>
+      <c r="AH6" s="386"/>
+      <c r="AI6" s="387"/>
       <c r="AJ6" s="119"/>
-      <c r="AK6" s="370" t="s">
+      <c r="AK6" s="385" t="s">
         <v>534</v>
       </c>
-      <c r="AL6" s="371"/>
-      <c r="AM6" s="371"/>
-      <c r="AN6" s="371"/>
-      <c r="AO6" s="371"/>
-      <c r="AP6" s="372"/>
+      <c r="AL6" s="386"/>
+      <c r="AM6" s="386"/>
+      <c r="AN6" s="386"/>
+      <c r="AO6" s="386"/>
+      <c r="AP6" s="387"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="39" t="s">
@@ -26225,11 +29011,11 @@
       <c r="J8" s="70"/>
       <c r="K8" s="70"/>
       <c r="L8" s="70"/>
-      <c r="M8" s="386" t="s">
+      <c r="M8" s="397" t="s">
         <v>460</v>
       </c>
-      <c r="N8" s="386"/>
-      <c r="O8" s="386"/>
+      <c r="N8" s="397"/>
+      <c r="O8" s="397"/>
       <c r="P8" s="84"/>
       <c r="Q8" s="85"/>
       <c r="R8" s="85"/>
@@ -26250,12 +29036,12 @@
       <c r="AL8" s="120"/>
       <c r="AM8" s="120"/>
       <c r="AN8" s="120"/>
-      <c r="AQ8" s="378" t="s">
+      <c r="AQ8" s="382" t="s">
         <v>17</v>
       </c>
-      <c r="AR8" s="379"/>
-      <c r="AS8" s="379"/>
-      <c r="AT8" s="380"/>
+      <c r="AR8" s="383"/>
+      <c r="AS8" s="383"/>
+      <c r="AT8" s="384"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="248"/>
@@ -26267,11 +29053,11 @@
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
       <c r="L9" s="87"/>
-      <c r="M9" s="388" t="s">
+      <c r="M9" s="399" t="s">
         <v>461</v>
       </c>
-      <c r="N9" s="388"/>
-      <c r="O9" s="387"/>
+      <c r="N9" s="399"/>
+      <c r="O9" s="398"/>
       <c r="P9" s="84"/>
       <c r="Q9" s="85"/>
       <c r="R9" s="85"/>
@@ -26313,9 +29099,9 @@
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
       <c r="L10" s="87"/>
-      <c r="M10" s="385"/>
-      <c r="N10" s="385"/>
-      <c r="O10" s="385"/>
+      <c r="M10" s="400"/>
+      <c r="N10" s="400"/>
+      <c r="O10" s="400"/>
       <c r="P10" s="84"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="85"/>
@@ -26340,12 +29126,12 @@
       <c r="AL10" s="120"/>
       <c r="AM10" s="120"/>
       <c r="AN10" s="120"/>
-      <c r="AQ10" s="378" t="s">
+      <c r="AQ10" s="382" t="s">
         <v>51</v>
       </c>
-      <c r="AR10" s="379"/>
-      <c r="AS10" s="379"/>
-      <c r="AT10" s="380"/>
+      <c r="AR10" s="383"/>
+      <c r="AS10" s="383"/>
+      <c r="AT10" s="384"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="248"/>
@@ -26381,12 +29167,12 @@
       <c r="AL11" s="120"/>
       <c r="AM11" s="120"/>
       <c r="AN11" s="120"/>
-      <c r="AQ11" s="378" t="s">
+      <c r="AQ11" s="382" t="s">
         <v>533</v>
       </c>
-      <c r="AR11" s="379"/>
-      <c r="AS11" s="379"/>
-      <c r="AT11" s="380"/>
+      <c r="AR11" s="383"/>
+      <c r="AS11" s="383"/>
+      <c r="AT11" s="384"/>
       <c r="AU11" s="23" t="s">
         <v>217</v>
       </c>
@@ -26412,11 +29198,11 @@
       <c r="J12" s="70"/>
       <c r="K12" s="70"/>
       <c r="L12" s="70"/>
-      <c r="M12" s="389" t="s">
+      <c r="M12" s="401" t="s">
         <v>459</v>
       </c>
-      <c r="N12" s="389"/>
-      <c r="O12" s="389"/>
+      <c r="N12" s="401"/>
+      <c r="O12" s="401"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="85"/>
       <c r="R12" s="85"/>
@@ -26430,12 +29216,12 @@
       <c r="AL12" s="120"/>
       <c r="AM12" s="120"/>
       <c r="AN12" s="120"/>
-      <c r="AQ12" s="378" t="s">
+      <c r="AQ12" s="382" t="s">
         <v>458</v>
       </c>
-      <c r="AR12" s="379"/>
-      <c r="AS12" s="379"/>
-      <c r="AT12" s="380"/>
+      <c r="AR12" s="383"/>
+      <c r="AS12" s="383"/>
+      <c r="AT12" s="384"/>
       <c r="AV12" s="18" t="s">
         <v>529</v>
       </c>
@@ -26451,12 +29237,12 @@
         <v>455</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="370" t="s">
+      <c r="D13" s="385" t="s">
         <v>462</v>
       </c>
-      <c r="E13" s="371"/>
-      <c r="F13" s="371"/>
-      <c r="G13" s="372"/>
+      <c r="E13" s="386"/>
+      <c r="F13" s="386"/>
+      <c r="G13" s="387"/>
       <c r="H13" s="133" t="s">
         <v>547</v>
       </c>
@@ -26479,11 +29265,11 @@
       <c r="O13" s="146" t="s">
         <v>551</v>
       </c>
-      <c r="P13" s="370" t="s">
+      <c r="P13" s="385" t="s">
         <v>993</v>
       </c>
-      <c r="Q13" s="371"/>
-      <c r="R13" s="371"/>
+      <c r="Q13" s="386"/>
+      <c r="R13" s="386"/>
       <c r="S13" s="122"/>
       <c r="T13" s="136" t="s">
         <v>572</v>
@@ -26519,18 +29305,18 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="119"/>
-      <c r="AK13" s="378" t="s">
+      <c r="AK13" s="382" t="s">
         <v>462</v>
       </c>
-      <c r="AL13" s="379"/>
-      <c r="AM13" s="379"/>
-      <c r="AN13" s="379"/>
-      <c r="AQ13" s="378" t="s">
+      <c r="AL13" s="383"/>
+      <c r="AM13" s="383"/>
+      <c r="AN13" s="383"/>
+      <c r="AQ13" s="382" t="s">
         <v>526</v>
       </c>
-      <c r="AR13" s="366"/>
-      <c r="AS13" s="366"/>
-      <c r="AT13" s="366"/>
+      <c r="AR13" s="378"/>
+      <c r="AS13" s="378"/>
+      <c r="AT13" s="378"/>
       <c r="AV13" s="18" t="s">
         <v>530</v>
       </c>
@@ -27226,8 +30012,8 @@
       </c>
       <c r="AO30" s="125"/>
       <c r="AP30" s="127"/>
-      <c r="AR30" s="387"/>
-      <c r="AS30" s="387"/>
+      <c r="AR30" s="398"/>
+      <c r="AS30" s="398"/>
     </row>
     <row r="31" spans="1:52" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="163" t="s">
@@ -27681,8 +30467,8 @@
         <v>85</v>
       </c>
       <c r="AO40" s="125"/>
-      <c r="AR40" s="385"/>
-      <c r="AS40" s="385"/>
+      <c r="AR40" s="400"/>
+      <c r="AS40" s="400"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="117" t="s">
@@ -27910,8 +30696,8 @@
         <v>549</v>
       </c>
       <c r="AP46" s="127"/>
-      <c r="AR46" s="385"/>
-      <c r="AS46" s="385"/>
+      <c r="AR46" s="400"/>
+      <c r="AS46" s="400"/>
     </row>
     <row r="47" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="117" t="s">
@@ -27990,12 +30776,12 @@
         <v>457</v>
       </c>
       <c r="C48" s="144"/>
-      <c r="D48" s="370" t="s">
+      <c r="D48" s="385" t="s">
         <v>462</v>
       </c>
-      <c r="E48" s="371"/>
-      <c r="F48" s="371"/>
-      <c r="G48" s="372"/>
+      <c r="E48" s="386"/>
+      <c r="F48" s="386"/>
+      <c r="G48" s="387"/>
       <c r="H48" s="182"/>
       <c r="I48" s="182"/>
       <c r="J48" s="182"/>
@@ -28004,11 +30790,11 @@
       <c r="M48" s="259"/>
       <c r="N48" s="259"/>
       <c r="O48" s="259"/>
-      <c r="P48" s="370" t="s">
+      <c r="P48" s="385" t="s">
         <v>463</v>
       </c>
-      <c r="Q48" s="371"/>
-      <c r="R48" s="371"/>
+      <c r="Q48" s="386"/>
+      <c r="R48" s="386"/>
       <c r="S48" s="154"/>
       <c r="Z48" s="151" t="s">
         <v>548</v>
@@ -29324,6 +32110,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="AQ11:AT11"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="D6:G6"/>
@@ -29340,13 +32133,6 @@
     <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="AQ10:AT10"/>
     <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="AR46:AS46"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AR40:AS40"/>
-    <mergeCell ref="AQ11:AT11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29404,17 +32190,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="373" t="s">
+      <c r="B1" s="389" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
+      <c r="C1" s="390"/>
+      <c r="D1" s="390"/>
       <c r="E1" s="37"/>
-      <c r="F1" s="373" t="s">
+      <c r="F1" s="389" t="s">
         <v>836</v>
       </c>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -29457,61 +32243,61 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="367" t="s">
+      <c r="B4" s="379" t="s">
         <v>835</v>
       </c>
-      <c r="C4" s="376"/>
-      <c r="D4" s="376"/>
-      <c r="E4" s="377"/>
-      <c r="F4" s="367" t="s">
+      <c r="C4" s="380"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="381"/>
+      <c r="F4" s="379" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="376"/>
-      <c r="H4" s="376"/>
-      <c r="I4" s="377"/>
+      <c r="G4" s="380"/>
+      <c r="H4" s="380"/>
+      <c r="I4" s="381"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="378" t="s">
+      <c r="B5" s="382" t="s">
         <v>757</v>
       </c>
-      <c r="C5" s="379"/>
-      <c r="D5" s="379"/>
-      <c r="E5" s="380"/>
-      <c r="F5" s="378" t="s">
+      <c r="C5" s="383"/>
+      <c r="D5" s="383"/>
+      <c r="E5" s="384"/>
+      <c r="F5" s="382" t="s">
         <v>757</v>
       </c>
-      <c r="G5" s="379"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="380"/>
+      <c r="G5" s="383"/>
+      <c r="H5" s="383"/>
+      <c r="I5" s="384"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="370" t="s">
+      <c r="B6" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="372"/>
-      <c r="F6" s="381" t="s">
+      <c r="C6" s="386"/>
+      <c r="D6" s="386"/>
+      <c r="E6" s="387"/>
+      <c r="F6" s="388" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="371"/>
-      <c r="H6" s="371"/>
-      <c r="I6" s="371"/>
-      <c r="J6" s="370" t="s">
+      <c r="G6" s="386"/>
+      <c r="H6" s="386"/>
+      <c r="I6" s="386"/>
+      <c r="J6" s="385" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="371"/>
-      <c r="L6" s="371"/>
-      <c r="M6" s="372"/>
-      <c r="N6" s="370" t="s">
+      <c r="K6" s="386"/>
+      <c r="L6" s="386"/>
+      <c r="M6" s="387"/>
+      <c r="N6" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="371"/>
-      <c r="P6" s="371"/>
-      <c r="Q6" s="372"/>
+      <c r="O6" s="386"/>
+      <c r="P6" s="386"/>
+      <c r="Q6" s="387"/>
       <c r="V6" s="41"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
@@ -29540,24 +32326,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="170"/>
-      <c r="B7" s="370" t="s">
+      <c r="B7" s="385" t="s">
         <v>535</v>
       </c>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="372"/>
-      <c r="F7" s="370" t="s">
+      <c r="C7" s="386"/>
+      <c r="D7" s="386"/>
+      <c r="E7" s="387"/>
+      <c r="F7" s="385" t="s">
         <v>536</v>
       </c>
-      <c r="G7" s="371"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="372"/>
-      <c r="J7" s="370" t="s">
+      <c r="G7" s="386"/>
+      <c r="H7" s="386"/>
+      <c r="I7" s="387"/>
+      <c r="J7" s="385" t="s">
         <v>679</v>
       </c>
-      <c r="K7" s="371"/>
-      <c r="L7" s="371"/>
-      <c r="M7" s="372"/>
+      <c r="K7" s="386"/>
+      <c r="L7" s="386"/>
+      <c r="M7" s="387"/>
       <c r="N7" s="167"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
@@ -33249,6 +36035,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:E4"/>
@@ -33257,11 +36048,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33273,7 +36059,7 @@
   <dimension ref="A1:BF108"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="AD2" sqref="AD1:AG1048576"/>
@@ -33324,31 +36110,31 @@
       <c r="B1" s="222"/>
       <c r="C1" s="222"/>
       <c r="D1" s="319"/>
-      <c r="E1" s="373" t="s">
+      <c r="E1" s="389" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
+      <c r="F1" s="390"/>
+      <c r="G1" s="390"/>
       <c r="H1" s="37"/>
       <c r="I1" s="98"/>
-      <c r="J1" s="373" t="s">
+      <c r="J1" s="389" t="s">
         <v>836</v>
       </c>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
+      <c r="K1" s="390"/>
+      <c r="L1" s="390"/>
       <c r="M1" s="47"/>
       <c r="N1" s="281"/>
-      <c r="O1" s="373" t="s">
+      <c r="O1" s="389" t="s">
         <v>886</v>
       </c>
-      <c r="P1" s="374"/>
-      <c r="Q1" s="374"/>
+      <c r="P1" s="390"/>
+      <c r="Q1" s="390"/>
       <c r="R1" s="37"/>
-      <c r="S1" s="373" t="s">
+      <c r="S1" s="389" t="s">
         <v>889</v>
       </c>
-      <c r="T1" s="374"/>
-      <c r="U1" s="374"/>
+      <c r="T1" s="390"/>
+      <c r="U1" s="390"/>
       <c r="V1" s="47"/>
       <c r="W1" s="279"/>
       <c r="X1" s="242"/>
@@ -33357,11 +36143,11 @@
       <c r="AA1" s="273"/>
       <c r="AB1" s="273"/>
       <c r="AC1" s="273"/>
-      <c r="AD1" s="373" t="s">
+      <c r="AD1" s="389" t="s">
         <v>890</v>
       </c>
-      <c r="AE1" s="374"/>
-      <c r="AF1" s="374"/>
+      <c r="AE1" s="390"/>
+      <c r="AF1" s="390"/>
       <c r="AG1" s="37"/>
       <c r="AH1" s="345"/>
       <c r="AI1" s="42"/>
@@ -33465,72 +36251,72 @@
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E4" s="367" t="s">
+      <c r="E4" s="379" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="376"/>
-      <c r="G4" s="376"/>
-      <c r="H4" s="377"/>
+      <c r="F4" s="380"/>
+      <c r="G4" s="380"/>
+      <c r="H4" s="381"/>
       <c r="I4" s="70"/>
-      <c r="J4" s="367" t="s">
+      <c r="J4" s="379" t="s">
         <v>236</v>
       </c>
-      <c r="K4" s="376"/>
-      <c r="L4" s="376"/>
-      <c r="M4" s="377"/>
+      <c r="K4" s="380"/>
+      <c r="L4" s="380"/>
+      <c r="M4" s="381"/>
       <c r="N4" s="209"/>
-      <c r="O4" s="367" t="s">
+      <c r="O4" s="379" t="s">
         <v>761</v>
       </c>
-      <c r="P4" s="376"/>
-      <c r="Q4" s="376"/>
-      <c r="R4" s="377"/>
-      <c r="S4" s="367" t="s">
+      <c r="P4" s="380"/>
+      <c r="Q4" s="380"/>
+      <c r="R4" s="381"/>
+      <c r="S4" s="379" t="s">
         <v>761</v>
       </c>
-      <c r="T4" s="376"/>
-      <c r="U4" s="376"/>
-      <c r="V4" s="377"/>
-      <c r="AD4" s="367" t="s">
+      <c r="T4" s="380"/>
+      <c r="U4" s="380"/>
+      <c r="V4" s="381"/>
+      <c r="AD4" s="379" t="s">
         <v>761</v>
       </c>
-      <c r="AE4" s="376"/>
-      <c r="AF4" s="376"/>
-      <c r="AG4" s="377"/>
+      <c r="AE4" s="380"/>
+      <c r="AF4" s="380"/>
+      <c r="AG4" s="381"/>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E5" s="378" t="s">
+      <c r="E5" s="382" t="s">
         <v>757</v>
       </c>
-      <c r="F5" s="379"/>
-      <c r="G5" s="379"/>
-      <c r="H5" s="380"/>
+      <c r="F5" s="383"/>
+      <c r="G5" s="383"/>
+      <c r="H5" s="384"/>
       <c r="I5" s="274"/>
-      <c r="J5" s="378" t="s">
+      <c r="J5" s="382" t="s">
         <v>757</v>
       </c>
-      <c r="K5" s="379"/>
-      <c r="L5" s="379"/>
-      <c r="M5" s="380"/>
+      <c r="K5" s="383"/>
+      <c r="L5" s="383"/>
+      <c r="M5" s="384"/>
       <c r="N5" s="71"/>
-      <c r="O5" s="378" t="s">
+      <c r="O5" s="382" t="s">
         <v>757</v>
       </c>
-      <c r="P5" s="379"/>
-      <c r="Q5" s="379"/>
-      <c r="R5" s="380"/>
-      <c r="S5" s="378" t="s">
+      <c r="P5" s="383"/>
+      <c r="Q5" s="383"/>
+      <c r="R5" s="384"/>
+      <c r="S5" s="382" t="s">
         <v>800</v>
       </c>
-      <c r="T5" s="379"/>
-      <c r="U5" s="379"/>
-      <c r="V5" s="380"/>
-      <c r="AD5" s="378" t="s">
+      <c r="T5" s="383"/>
+      <c r="U5" s="383"/>
+      <c r="V5" s="384"/>
+      <c r="AD5" s="382" t="s">
         <v>800</v>
       </c>
-      <c r="AE5" s="379"/>
-      <c r="AF5" s="379"/>
-      <c r="AG5" s="380"/>
+      <c r="AE5" s="383"/>
+      <c r="AF5" s="383"/>
+      <c r="AG5" s="384"/>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="170" t="s">
@@ -33539,24 +36325,24 @@
       <c r="B6" s="222"/>
       <c r="C6" s="222"/>
       <c r="D6" s="319"/>
-      <c r="E6" s="370" t="s">
+      <c r="E6" s="385" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="371"/>
-      <c r="G6" s="371"/>
-      <c r="H6" s="372"/>
+      <c r="F6" s="386"/>
+      <c r="G6" s="386"/>
+      <c r="H6" s="387"/>
       <c r="I6" s="273"/>
       <c r="J6" s="41"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="284"/>
-      <c r="O6" s="381" t="s">
+      <c r="O6" s="388" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="371"/>
-      <c r="Q6" s="371"/>
-      <c r="R6" s="371"/>
+      <c r="P6" s="386"/>
+      <c r="Q6" s="386"/>
+      <c r="R6" s="386"/>
       <c r="S6" s="41"/>
       <c r="T6" s="42"/>
       <c r="U6" s="42"/>
@@ -33568,23 +36354,23 @@
       <c r="AA6" s="273"/>
       <c r="AB6" s="273"/>
       <c r="AC6" s="273"/>
-      <c r="AD6" s="370" t="s">
+      <c r="AD6" s="385" t="s">
         <v>930</v>
       </c>
-      <c r="AE6" s="371"/>
-      <c r="AF6" s="371"/>
-      <c r="AG6" s="372"/>
+      <c r="AE6" s="386"/>
+      <c r="AF6" s="386"/>
+      <c r="AG6" s="387"/>
       <c r="AH6" s="345"/>
       <c r="AI6" s="42"/>
       <c r="AJ6" s="42"/>
       <c r="AK6" s="42"/>
       <c r="AL6" s="43"/>
-      <c r="AM6" s="370" t="s">
+      <c r="AM6" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="AN6" s="371"/>
-      <c r="AO6" s="371"/>
-      <c r="AP6" s="372"/>
+      <c r="AN6" s="386"/>
+      <c r="AO6" s="386"/>
+      <c r="AP6" s="387"/>
       <c r="AQ6" s="174"/>
       <c r="AR6" s="175"/>
       <c r="AS6" s="175"/>
@@ -33601,45 +36387,45 @@
       <c r="D7" s="305" t="s">
         <v>1042</v>
       </c>
-      <c r="E7" s="370" t="s">
+      <c r="E7" s="385" t="s">
         <v>535</v>
       </c>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="372"/>
+      <c r="F7" s="386"/>
+      <c r="G7" s="386"/>
+      <c r="H7" s="387"/>
       <c r="I7" s="113"/>
-      <c r="J7" s="370" t="s">
+      <c r="J7" s="385" t="s">
         <v>723</v>
       </c>
-      <c r="K7" s="371"/>
-      <c r="L7" s="371"/>
-      <c r="M7" s="372"/>
+      <c r="K7" s="386"/>
+      <c r="L7" s="386"/>
+      <c r="M7" s="387"/>
       <c r="N7" s="285"/>
-      <c r="O7" s="370" t="s">
+      <c r="O7" s="385" t="s">
         <v>536</v>
       </c>
-      <c r="P7" s="371"/>
-      <c r="Q7" s="371"/>
-      <c r="R7" s="372"/>
-      <c r="S7" s="370"/>
-      <c r="T7" s="371"/>
-      <c r="U7" s="371"/>
-      <c r="V7" s="372"/>
-      <c r="W7" s="392" t="s">
+      <c r="P7" s="386"/>
+      <c r="Q7" s="386"/>
+      <c r="R7" s="387"/>
+      <c r="S7" s="385"/>
+      <c r="T7" s="386"/>
+      <c r="U7" s="386"/>
+      <c r="V7" s="387"/>
+      <c r="W7" s="404" t="s">
         <v>931</v>
       </c>
-      <c r="X7" s="393"/>
-      <c r="Y7" s="393"/>
-      <c r="Z7" s="394"/>
+      <c r="X7" s="405"/>
+      <c r="Y7" s="405"/>
+      <c r="Z7" s="406"/>
       <c r="AA7" s="113"/>
       <c r="AB7" s="113"/>
       <c r="AC7" s="113"/>
-      <c r="AD7" s="370" t="s">
+      <c r="AD7" s="385" t="s">
         <v>888</v>
       </c>
-      <c r="AE7" s="371"/>
-      <c r="AF7" s="371"/>
-      <c r="AG7" s="372"/>
+      <c r="AE7" s="386"/>
+      <c r="AF7" s="386"/>
+      <c r="AG7" s="387"/>
       <c r="AH7" s="341"/>
       <c r="AI7" s="25"/>
       <c r="AJ7" s="25"/>
@@ -33649,12 +36435,12 @@
       <c r="AN7" s="177"/>
       <c r="AO7" s="177"/>
       <c r="AP7" s="178"/>
-      <c r="AQ7" s="370" t="s">
+      <c r="AQ7" s="385" t="s">
         <v>724</v>
       </c>
-      <c r="AR7" s="371"/>
-      <c r="AS7" s="371"/>
-      <c r="AT7" s="372"/>
+      <c r="AR7" s="386"/>
+      <c r="AS7" s="386"/>
+      <c r="AT7" s="387"/>
     </row>
     <row r="8" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="170">
@@ -34005,12 +36791,12 @@
       <c r="I14" s="61" t="s">
         <v>941</v>
       </c>
-      <c r="J14" s="390" t="s">
+      <c r="J14" s="402" t="s">
         <v>885</v>
       </c>
-      <c r="K14" s="391"/>
-      <c r="L14" s="391"/>
-      <c r="M14" s="391"/>
+      <c r="K14" s="403"/>
+      <c r="L14" s="403"/>
+      <c r="M14" s="403"/>
       <c r="N14" s="130"/>
       <c r="O14" s="54" t="s">
         <v>151</v>
@@ -34020,12 +36806,12 @@
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="18"/>
-      <c r="S14" s="390" t="s">
+      <c r="S14" s="402" t="s">
         <v>885</v>
       </c>
-      <c r="T14" s="391"/>
-      <c r="U14" s="391"/>
-      <c r="V14" s="391"/>
+      <c r="T14" s="403"/>
+      <c r="U14" s="403"/>
+      <c r="V14" s="403"/>
       <c r="AD14" s="142"/>
       <c r="AE14" s="61"/>
       <c r="AF14" s="9"/>
@@ -34358,12 +37144,12 @@
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="61"/>
-      <c r="J22" s="390" t="s">
+      <c r="J22" s="402" t="s">
         <v>885</v>
       </c>
-      <c r="K22" s="391"/>
-      <c r="L22" s="391"/>
-      <c r="M22" s="391"/>
+      <c r="K22" s="403"/>
+      <c r="L22" s="403"/>
+      <c r="M22" s="403"/>
       <c r="N22" s="130"/>
       <c r="P22" s="58" t="s">
         <v>197</v>
@@ -34374,12 +37160,12 @@
       <c r="R22" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="S22" s="390" t="s">
+      <c r="S22" s="402" t="s">
         <v>885</v>
       </c>
-      <c r="T22" s="391"/>
-      <c r="U22" s="391"/>
-      <c r="V22" s="391"/>
+      <c r="T22" s="403"/>
+      <c r="U22" s="403"/>
+      <c r="V22" s="403"/>
       <c r="Y22" s="29"/>
       <c r="Z22" s="29" t="s">
         <v>411</v>
@@ -34685,12 +37471,12 @@
         <v>493</v>
       </c>
       <c r="I30" s="61"/>
-      <c r="J30" s="390" t="s">
+      <c r="J30" s="402" t="s">
         <v>885</v>
       </c>
-      <c r="K30" s="391"/>
-      <c r="L30" s="391"/>
-      <c r="M30" s="391"/>
+      <c r="K30" s="403"/>
+      <c r="L30" s="403"/>
+      <c r="M30" s="403"/>
       <c r="N30" s="287"/>
       <c r="P30" s="58" t="s">
         <v>211</v>
@@ -34701,12 +37487,12 @@
       <c r="R30" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="S30" s="390" t="s">
+      <c r="S30" s="402" t="s">
         <v>885</v>
       </c>
-      <c r="T30" s="391"/>
-      <c r="U30" s="391"/>
-      <c r="V30" s="391"/>
+      <c r="T30" s="403"/>
+      <c r="U30" s="403"/>
+      <c r="V30" s="403"/>
       <c r="Y30" s="29"/>
       <c r="Z30" s="29" t="s">
         <v>649</v>
@@ -34994,12 +37780,12 @@
         <v>493</v>
       </c>
       <c r="I38" s="61"/>
-      <c r="J38" s="390" t="s">
+      <c r="J38" s="402" t="s">
         <v>885</v>
       </c>
-      <c r="K38" s="391"/>
-      <c r="L38" s="391"/>
-      <c r="M38" s="391"/>
+      <c r="K38" s="403"/>
+      <c r="L38" s="403"/>
+      <c r="M38" s="403"/>
       <c r="N38" s="287"/>
       <c r="O38" s="9"/>
       <c r="P38" s="58" t="s">
@@ -35007,12 +37793,12 @@
       </c>
       <c r="Q38" s="61"/>
       <c r="R38" s="61"/>
-      <c r="S38" s="390" t="s">
+      <c r="S38" s="402" t="s">
         <v>885</v>
       </c>
-      <c r="T38" s="391"/>
-      <c r="U38" s="391"/>
-      <c r="V38" s="391"/>
+      <c r="T38" s="403"/>
+      <c r="U38" s="403"/>
+      <c r="V38" s="403"/>
       <c r="Y38" s="29"/>
       <c r="Z38" s="29" t="s">
         <v>653</v>
@@ -35264,12 +38050,12 @@
       </c>
       <c r="H46" s="62"/>
       <c r="I46" s="61"/>
-      <c r="J46" s="390" t="s">
+      <c r="J46" s="402" t="s">
         <v>885</v>
       </c>
-      <c r="K46" s="391"/>
-      <c r="L46" s="391"/>
-      <c r="M46" s="391"/>
+      <c r="K46" s="403"/>
+      <c r="L46" s="403"/>
+      <c r="M46" s="403"/>
       <c r="O46" s="61"/>
       <c r="P46" s="53" t="s">
         <v>493</v>
@@ -35466,12 +38252,12 @@
       <c r="B58" s="225" t="s">
         <v>839</v>
       </c>
-      <c r="J58" s="390" t="s">
+      <c r="J58" s="402" t="s">
         <v>885</v>
       </c>
-      <c r="K58" s="391"/>
-      <c r="L58" s="391"/>
-      <c r="M58" s="391"/>
+      <c r="K58" s="403"/>
+      <c r="L58" s="403"/>
+      <c r="M58" s="403"/>
       <c r="AF58" s="56" t="s">
         <v>793</v>
       </c>
@@ -35875,6 +38661,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W7:Z7"/>
     <mergeCell ref="J58:M58"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="S1:U1"/>
@@ -35887,30 +38697,6 @@
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="J38:M38"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AM6:AP6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35918,2490 +38704,546 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6F30D8-4F74-43CF-B0A2-082294AF7E0E}">
-  <dimension ref="A1:AN64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597BBB59-6323-453E-A254-55B17D79805D}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" style="338" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="294" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1328125" style="331" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" style="332" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="333" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.46484375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.46484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.73046875" style="309" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="310" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" style="308" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.06640625" style="4"/>
-    <col min="19" max="19" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" style="294" customWidth="1"/>
-    <col min="24" max="24" width="10.796875" style="304" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="332" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.86328125" style="332" customWidth="1"/>
-    <col min="27" max="27" width="9.796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.796875" style="29" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="10.59765625" customWidth="1"/>
-    <col min="37" max="37" width="11.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.19921875" style="3" customWidth="1"/>
-    <col min="40" max="40" width="11.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.53125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.53125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18"/>
-      <c r="B1" s="322"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="370" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="395"/>
-      <c r="K1" s="381" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="371"/>
-      <c r="M1" s="371"/>
-      <c r="N1" s="371"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="295"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="297"/>
-      <c r="S1" s="370" t="s">
-        <v>383</v>
-      </c>
-      <c r="T1" s="371"/>
-      <c r="U1" s="371"/>
-      <c r="V1" s="372"/>
-      <c r="W1" s="296"/>
-      <c r="X1" s="296"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="43"/>
-      <c r="AK1" s="370" t="s">
-        <v>848</v>
-      </c>
-      <c r="AL1" s="371"/>
-      <c r="AM1" s="371"/>
-      <c r="AN1" s="372"/>
-    </row>
-    <row r="2" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18"/>
-      <c r="B2" s="322"/>
-      <c r="G2" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="300" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="300" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="301" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="31" t="s">
+    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="371" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1" s="371" t="s">
+        <v>932</v>
+      </c>
+      <c r="D1" s="367" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="E1" s="368" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="F1" s="368" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="G1" s="369" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="300"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="300"/>
-      <c r="R2" s="301"/>
-      <c r="S2" s="300" t="s">
-        <v>956</v>
-      </c>
-      <c r="T2" s="31" t="s">
-        <v>957</v>
-      </c>
-      <c r="U2" s="31" t="s">
-        <v>958</v>
-      </c>
-      <c r="V2" s="32" t="s">
-        <v>959</v>
-      </c>
-      <c r="AA2" s="39" t="s">
-        <v>947</v>
-      </c>
-      <c r="AB2" s="329" t="s">
-        <v>948</v>
-      </c>
-      <c r="AC2" s="329" t="s">
-        <v>949</v>
-      </c>
-      <c r="AD2" s="330" t="s">
-        <v>950</v>
-      </c>
-      <c r="AK2" s="30" t="s">
-        <v>943</v>
-      </c>
-      <c r="AL2" s="31" t="s">
-        <v>944</v>
-      </c>
-      <c r="AM2" s="31" t="s">
-        <v>945</v>
-      </c>
-      <c r="AN2" s="32" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A3" s="18">
+      <c r="H1" s="367" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I1" s="368" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J1" s="368" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K1" s="369" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L1" s="368"/>
+      <c r="M1" s="367" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N1" s="368" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O1" s="368" t="s">
+        <v>1126</v>
+      </c>
+      <c r="P1" s="369" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Q1" s="371" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="164" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D2" s="389"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="393"/>
+      <c r="L2" s="373"/>
+      <c r="M2" s="370" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N2" s="373"/>
+      <c r="O2" s="373"/>
+      <c r="P2" s="374"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="366" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="372" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C3" s="259"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373"/>
+      <c r="G3" s="374"/>
+      <c r="L3" s="373"/>
+      <c r="M3" s="372"/>
+      <c r="N3" s="373"/>
+      <c r="O3" s="373"/>
+      <c r="P3" s="374"/>
+      <c r="Q3" s="259"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="366" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="372" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C4" s="373"/>
+      <c r="D4" s="210" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="373"/>
+      <c r="G4" s="374"/>
+      <c r="L4" s="373"/>
+      <c r="M4" s="372"/>
+      <c r="N4" s="373"/>
+      <c r="O4" s="373"/>
+      <c r="P4" s="374"/>
+      <c r="Q4" s="373"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="366" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="372" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C5" s="373"/>
+      <c r="D5" s="210" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="373"/>
+      <c r="G5" s="374"/>
+      <c r="L5" s="373"/>
+      <c r="M5" s="372"/>
+      <c r="N5" s="373"/>
+      <c r="O5" s="373"/>
+      <c r="P5" s="374"/>
+      <c r="Q5" s="373">
         <v>0</v>
       </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="164" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D3" s="326" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E3" s="328" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F3" s="328" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G3" s="292"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="373"/>
-      <c r="L3" s="374"/>
-      <c r="M3" s="374"/>
-      <c r="N3" s="375"/>
-      <c r="O3" s="298" t="s">
-        <v>1025</v>
-      </c>
-      <c r="P3" s="298" t="s">
-        <v>1026</v>
-      </c>
-      <c r="Q3" s="298" t="s">
-        <v>1027</v>
-      </c>
-      <c r="R3" s="299" t="s">
-        <v>932</v>
-      </c>
-      <c r="S3" s="303"/>
-      <c r="W3" s="298" t="s">
-        <v>1007</v>
-      </c>
-      <c r="X3" s="299" t="s">
-        <v>932</v>
-      </c>
-      <c r="AE3" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="37"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="36"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A4" s="34" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="372" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C6" s="373"/>
+      <c r="D6" s="210" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="373"/>
+      <c r="G6" s="374"/>
+      <c r="L6" s="373"/>
+      <c r="M6" s="335" t="s">
+        <v>344</v>
+      </c>
+      <c r="N6" s="375"/>
+      <c r="O6" s="375"/>
+      <c r="P6" s="336"/>
+      <c r="Q6" s="373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="366" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="372" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C7" s="373"/>
+      <c r="D7" s="210" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="373"/>
+      <c r="G7" s="374"/>
+      <c r="L7" s="373"/>
+      <c r="M7" s="335" t="s">
+        <v>345</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="O7" s="375"/>
+      <c r="P7" s="336"/>
+      <c r="Q7" s="373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="366" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="377"/>
+      <c r="C8" s="373"/>
+      <c r="D8" s="210" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="373"/>
+      <c r="G8" s="374"/>
+      <c r="L8" s="373"/>
+      <c r="M8" s="335" t="s">
+        <v>346</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="O8" s="375"/>
+      <c r="P8" s="336"/>
+      <c r="Q8" s="373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="366" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="377"/>
+      <c r="C9" s="373"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" s="373"/>
+      <c r="G9" s="374"/>
+      <c r="L9" s="373"/>
+      <c r="M9" s="335" t="s">
+        <v>347</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="O9" s="375"/>
+      <c r="P9" s="336"/>
+      <c r="Q9" s="373">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B10" s="372"/>
+      <c r="C10" s="373"/>
+      <c r="D10" s="372"/>
+      <c r="E10" s="373"/>
+      <c r="F10" s="373"/>
+      <c r="G10" s="374"/>
+      <c r="L10" s="373"/>
+      <c r="M10" s="335" t="s">
+        <v>348</v>
+      </c>
+      <c r="N10" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="O10" s="375"/>
+      <c r="P10" s="336"/>
+      <c r="Q10" s="376"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B11" s="316"/>
+      <c r="C11" s="259"/>
+      <c r="M11" s="377"/>
+      <c r="N11" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="O11" s="376"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="317"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="F13" s="9"/>
+      <c r="G13" s="76"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="164" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C14" s="373"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="372"/>
+      <c r="N14" s="373"/>
+      <c r="O14" s="373"/>
+      <c r="P14" s="374"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="366" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="322"/>
-      <c r="C4" s="294" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="335" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E4" s="336"/>
-      <c r="F4" s="336"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="352" t="s">
-        <v>951</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303"/>
-      <c r="O4" s="303"/>
-      <c r="P4" s="302" t="s">
-        <v>1008</v>
-      </c>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="303"/>
-      <c r="W4" s="259"/>
-      <c r="X4" s="311"/>
-      <c r="Y4" s="259"/>
-      <c r="Z4" s="259"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="38"/>
-      <c r="AK4" s="302"/>
-      <c r="AL4" s="303"/>
-      <c r="AM4" s="303"/>
-      <c r="AN4" s="304"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
+      <c r="B15" s="372" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C15" s="373"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="62"/>
+      <c r="L15" s="61"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="366" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="322"/>
-      <c r="C5" s="294" t="s">
+      <c r="B16" s="372" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C16" s="373"/>
+      <c r="D16" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" s="366" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="372" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C17" s="373"/>
+      <c r="D17" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="H17" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" s="366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="372" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C18" s="373"/>
+      <c r="D18" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="374">
+        <v>2</v>
+      </c>
+      <c r="M18" s="335" t="s">
+        <v>374</v>
+      </c>
+      <c r="N18" s="375"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" s="366" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="373"/>
+      <c r="D19" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="G19" s="183" t="s">
+        <v>330</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="J19" s="56" t="s">
+        <v>370</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="374">
+        <v>3</v>
+      </c>
+      <c r="M19" s="335" t="s">
+        <v>372</v>
+      </c>
+      <c r="N19" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="O19" s="373"/>
+      <c r="P19" s="374"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" s="366" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="373"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="F20" s="183" t="s">
+        <v>450</v>
+      </c>
+      <c r="G20" s="183" t="s">
+        <v>369</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="I20" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="J20" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="336">
+        <v>4</v>
+      </c>
+      <c r="M20" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="N20" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="O20" s="373"/>
+      <c r="P20" s="374"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" s="366" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="373"/>
+      <c r="F21" s="183" t="s">
+        <v>451</v>
+      </c>
+      <c r="G21" s="183" t="s">
+        <v>452</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="J21" s="183" t="s">
+        <v>450</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="336">
+        <v>5</v>
+      </c>
+      <c r="M21" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="N21" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="O21" s="373"/>
+      <c r="P21" s="374"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" s="366" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="373"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="183" t="s">
+        <v>453</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="183" t="s">
+        <v>451</v>
+      </c>
+      <c r="K22" s="183" t="s">
+        <v>452</v>
+      </c>
+      <c r="L22" s="375">
         <v>6</v>
       </c>
-      <c r="D5" s="335" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E5" s="333"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="352" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="352" t="s">
-        <v>952</v>
-      </c>
-      <c r="K5" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="303"/>
-      <c r="P5" s="302" t="s">
-        <v>1009</v>
-      </c>
-      <c r="Q5" s="303"/>
-      <c r="R5" s="304"/>
-      <c r="S5" s="303"/>
-      <c r="W5" s="303"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="38"/>
-      <c r="AK5" s="302"/>
-      <c r="AL5" s="303"/>
-      <c r="AM5" s="303"/>
-      <c r="AN5" s="304"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="322"/>
-      <c r="C6" s="294" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="335" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E6" s="333"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="352" t="s">
-        <v>196</v>
-      </c>
-      <c r="J6" s="352" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="303"/>
-      <c r="P6" s="302" t="s">
-        <v>1010</v>
-      </c>
-      <c r="Q6" s="302">
-        <v>0</v>
-      </c>
-      <c r="R6" s="304"/>
-      <c r="S6" s="303"/>
-      <c r="AB6" s="23" t="s">
-        <v>951</v>
-      </c>
-      <c r="AE6" s="332" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF6" s="289" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG6" s="289" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH6" s="29"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="36"/>
-    </row>
-    <row r="7" spans="1:40" ht="15" x14ac:dyDescent="0.4">
-      <c r="A7" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="322"/>
-      <c r="C7" s="294" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="335" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E7" s="333"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="352" t="s">
-        <v>199</v>
-      </c>
-      <c r="J7" s="352" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="L7" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="315" t="s">
-        <v>344</v>
-      </c>
-      <c r="P7" s="302" t="s">
-        <v>1011</v>
-      </c>
-      <c r="Q7" s="302">
-        <v>1</v>
-      </c>
-      <c r="R7" s="304"/>
-      <c r="S7" s="303"/>
-      <c r="AA7" s="28" t="s">
-        <v>952</v>
-      </c>
-      <c r="AB7" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE7" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="36"/>
-    </row>
-    <row r="8" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="322"/>
-      <c r="C8" s="294" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="335" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E8" s="333"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="303"/>
-      <c r="I8" s="352" t="s">
-        <v>285</v>
-      </c>
-      <c r="J8" s="352" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="L8" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="315" t="s">
-        <v>345</v>
-      </c>
-      <c r="P8" s="302" t="s">
-        <v>1012</v>
-      </c>
-      <c r="Q8" s="302">
-        <v>2</v>
-      </c>
-      <c r="R8" s="304"/>
-      <c r="S8" s="149" t="s">
-        <v>1044</v>
-      </c>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="196"/>
-      <c r="AA8" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB8" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE8" s="45" t="s">
-        <v>826</v>
-      </c>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="38"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="36"/>
-    </row>
-    <row r="9" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="322"/>
-      <c r="C9" s="294" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="335" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E9" s="333"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="303"/>
-      <c r="I9" s="352" t="s">
-        <v>279</v>
-      </c>
-      <c r="J9" s="352" t="s">
-        <v>283</v>
-      </c>
-      <c r="K9" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="315" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q9" s="302">
-        <v>3</v>
-      </c>
-      <c r="R9" s="304"/>
-      <c r="S9" s="149" t="s">
-        <v>1045</v>
-      </c>
-      <c r="T9" s="56" t="s">
-        <v>1046</v>
-      </c>
-      <c r="U9" s="79"/>
-      <c r="V9" s="196"/>
-      <c r="AA9" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB9" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="29"/>
-    </row>
-    <row r="10" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="322"/>
-      <c r="C10" s="294" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="335" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E10" s="333"/>
-      <c r="I10" s="352" t="s">
-        <v>273</v>
-      </c>
-      <c r="J10" s="352" t="s">
-        <v>281</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="315" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q10" s="302">
-        <v>4</v>
-      </c>
-      <c r="R10" s="304"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="56" t="s">
-        <v>1047</v>
-      </c>
-      <c r="U10" s="54" t="s">
-        <v>1048</v>
-      </c>
-      <c r="V10" s="196"/>
-      <c r="AA10" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB10" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="322"/>
-      <c r="D11" s="335" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E11" s="204" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I11" s="352" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J11" s="312" t="s">
-        <v>282</v>
-      </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="315" t="s">
-        <v>348</v>
-      </c>
-      <c r="P11" s="302"/>
-      <c r="R11" s="304"/>
-      <c r="S11" s="28"/>
-      <c r="U11" s="54" t="s">
-        <v>1049</v>
-      </c>
-      <c r="V11" s="56" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AA11" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB11" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE11" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="37"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A12" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="322"/>
-      <c r="J12" s="352" t="s">
-        <v>953</v>
-      </c>
-      <c r="P12" s="316"/>
-      <c r="Q12" s="317"/>
-      <c r="R12" s="311"/>
-      <c r="S12" s="142"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="56" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AA12" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB12" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="38"/>
-    </row>
-    <row r="13" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="322"/>
-      <c r="Q13" s="303"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="29"/>
-      <c r="AA13" s="261" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="38"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A14" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="322"/>
-      <c r="Q14" s="303"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="56" t="s">
-        <v>1052</v>
-      </c>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="62"/>
-      <c r="AA14" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="AE14" s="332" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF14" s="332" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG14" s="332" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH14" s="29"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A15" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="322"/>
-      <c r="Q15" s="303"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="56" t="s">
-        <v>1053</v>
-      </c>
-      <c r="T15" s="54" t="s">
-        <v>1054</v>
-      </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="62"/>
-      <c r="AA15" s="28" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE15" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="38"/>
-      <c r="AK15" s="56" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A16" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="322"/>
-      <c r="Q16" s="303"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="54" t="s">
-        <v>1055</v>
-      </c>
-      <c r="U16" s="56" t="s">
-        <v>1056</v>
-      </c>
-      <c r="V16" s="62"/>
-      <c r="AE16" s="45" t="s">
-        <v>826</v>
-      </c>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="38"/>
-      <c r="AK16" s="56" t="s">
-        <v>810</v>
-      </c>
-      <c r="AL16" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="AM16" s="23"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A17" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="322"/>
-      <c r="Q17" s="303"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="2"/>
-      <c r="U17" s="56" t="s">
-        <v>1057</v>
-      </c>
-      <c r="V17" s="149" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="29"/>
-      <c r="AL17" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="AM17" s="54" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="322"/>
-      <c r="Q18" s="303"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="142"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="149" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AK18" s="302"/>
-      <c r="AM18" s="54" t="s">
-        <v>357</v>
-      </c>
-      <c r="AN18" s="54" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A19" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="322"/>
-      <c r="Q19" s="303"/>
-      <c r="R19" s="29"/>
-      <c r="U19" s="23"/>
-      <c r="AE19" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="37"/>
-      <c r="AK19" s="28"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="54" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A20" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="322" t="s">
-        <v>676</v>
-      </c>
-      <c r="F20" s="333" t="s">
-        <v>1091</v>
-      </c>
-      <c r="Q20" s="303"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="38"/>
-      <c r="AK20" s="28"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A21" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="322">
-        <v>0</v>
-      </c>
-      <c r="C21" s="164" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E21" s="333" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F21" s="333" t="s">
-        <v>1092</v>
-      </c>
-      <c r="Q21" s="303"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="23"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="38"/>
-      <c r="AK21" s="28"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A22" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="322"/>
-      <c r="C22" s="294" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="331" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E22" s="333"/>
-      <c r="G22" s="302"/>
-      <c r="H22" s="303"/>
-      <c r="I22" s="303"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="294"/>
-      <c r="P22" s="302">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="303"/>
-      <c r="R22" s="29"/>
-      <c r="AE22" s="332" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF22" s="332" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG22" s="332" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH22" s="29"/>
-      <c r="AK22" s="56" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="322"/>
-      <c r="C23" s="294" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="331" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E23" s="333"/>
-      <c r="G23" s="312" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K23" s="83" t="s">
-        <v>344</v>
-      </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="294"/>
-      <c r="P23" s="302">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="303"/>
-      <c r="R23" s="29"/>
-      <c r="AE23" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="38"/>
-      <c r="AK23" s="56" t="s">
-        <v>368</v>
-      </c>
-      <c r="AL23" s="54" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="322"/>
-      <c r="C24" s="164" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D24" s="331" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E24" s="336"/>
-      <c r="G24" s="312" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H24" s="313" t="s">
-        <v>994</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="K24" s="83" t="s">
-        <v>345</v>
-      </c>
-      <c r="L24" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="294"/>
-      <c r="P24" s="302">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="303"/>
-      <c r="R24" s="29"/>
-      <c r="AE24" s="45" t="s">
-        <v>826</v>
-      </c>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="291"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="54" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM24" s="56" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="322"/>
-      <c r="C25" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="331" t="s">
-        <v>523</v>
-      </c>
-      <c r="E25" s="333"/>
-      <c r="G25" s="312" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H25" s="313" t="s">
-        <v>995</v>
-      </c>
-      <c r="I25" s="313" t="s">
-        <v>996</v>
-      </c>
-      <c r="K25" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="L25" s="83" t="s">
-        <v>350</v>
-      </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="294"/>
-      <c r="P25" s="302">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="303"/>
-      <c r="R25" s="29"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="29"/>
-      <c r="AM25" s="56" t="s">
-        <v>366</v>
-      </c>
-      <c r="AN25" s="54" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="322"/>
-      <c r="C26" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="331" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E26" s="333"/>
-      <c r="G26" s="149" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H26" s="313" t="s">
-        <v>997</v>
-      </c>
-      <c r="I26" s="313" t="s">
-        <v>998</v>
-      </c>
-      <c r="J26" s="314" t="s">
-        <v>999</v>
-      </c>
-      <c r="K26" s="83" t="s">
-        <v>347</v>
-      </c>
-      <c r="L26" s="83" t="s">
-        <v>351</v>
-      </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="294"/>
-      <c r="P26" s="302">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="303"/>
-      <c r="R26" s="29"/>
-      <c r="AA26" s="28" t="s">
-        <v>954</v>
-      </c>
-      <c r="AN26" s="54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="322"/>
-      <c r="C27" s="322" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="336"/>
-      <c r="G27" s="149" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I27" s="313" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J27" s="314" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K27" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="L27" s="83" t="s">
-        <v>352</v>
-      </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="294"/>
-      <c r="P27" s="302"/>
-      <c r="Q27" s="303"/>
-      <c r="R27" s="29"/>
-      <c r="Y27" s="334"/>
-      <c r="Z27" s="334"/>
-      <c r="AA27" s="28" t="s">
-        <v>955</v>
-      </c>
-      <c r="AB27" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="AE27" s="47" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="37"/>
-    </row>
-    <row r="28" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="322">
-        <v>1</v>
-      </c>
-      <c r="C28" s="164" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D28" s="335"/>
-      <c r="E28" s="333" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="56" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I28" s="54" t="s">
-        <v>1048</v>
-      </c>
-      <c r="J28" s="314" t="s">
-        <v>1002</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="294"/>
-      <c r="P28" s="254"/>
-      <c r="Q28" s="303"/>
-      <c r="R28" s="29"/>
-      <c r="AB28" s="23" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC28" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="AE28" s="332" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF28" s="332" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG28" s="332" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH28" s="29"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A29" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="322"/>
-      <c r="C29" s="294" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="331" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E29" s="333"/>
-      <c r="G29" s="28"/>
-      <c r="I29" s="54" t="s">
-        <v>1049</v>
-      </c>
-      <c r="J29" s="56" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="294"/>
-      <c r="P29" s="302">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="303"/>
-      <c r="R29" s="29"/>
-      <c r="X29" s="304" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Y29" s="322" t="s">
-        <v>676</v>
-      </c>
-      <c r="Z29" s="322"/>
-      <c r="AC29" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD29" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="AE29" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="38"/>
-      <c r="AK29" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="23"/>
-      <c r="AN29" s="29"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A30" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="322"/>
-      <c r="C30" s="294" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="331" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E30" s="333"/>
-      <c r="G30" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="56" t="s">
-        <v>1051</v>
-      </c>
-      <c r="K30" s="83" t="s">
-        <v>344</v>
-      </c>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="294"/>
-      <c r="P30" s="302">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="303"/>
-      <c r="R30" s="29"/>
-      <c r="X30" s="304" t="s">
-        <v>1090</v>
-      </c>
-      <c r="Y30" s="322">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="164" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AD30" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="AE30" s="45" t="s">
-        <v>826</v>
-      </c>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="38"/>
-      <c r="AK30" s="56" t="s">
-        <v>376</v>
-      </c>
-      <c r="AL30" s="56" t="s">
-        <v>377</v>
-      </c>
-      <c r="AM30" s="23"/>
-      <c r="AN30" s="29"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A31" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="322"/>
-      <c r="C31" s="164" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D31" s="331" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E31" s="336"/>
-      <c r="F31" s="336" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="K31" s="83" t="s">
-        <v>345</v>
-      </c>
-      <c r="L31" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="294"/>
-      <c r="P31" s="302">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="303"/>
-      <c r="R31" s="29"/>
-      <c r="W31" s="294" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Y31" s="322"/>
-      <c r="Z31" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG31" s="23"/>
-      <c r="AH31" s="29"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="AM31" s="56" t="s">
-        <v>379</v>
-      </c>
-      <c r="AN31" s="29"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A32" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="322"/>
-      <c r="C32" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="331" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E32" s="333"/>
-      <c r="G32" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="H32" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="I32" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="K32" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="L32" s="83" t="s">
-        <v>350</v>
-      </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="294"/>
-      <c r="P32" s="302">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="303"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="56" t="s">
-        <v>374</v>
-      </c>
-      <c r="V32" s="29"/>
-      <c r="Y32" s="322"/>
-      <c r="Z32" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="23"/>
-      <c r="AM32" s="56" t="s">
-        <v>380</v>
-      </c>
-      <c r="AN32" s="56" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A33" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="322"/>
-      <c r="C33" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="331" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E33" s="333"/>
-      <c r="G33" s="149" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H33" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="J33" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="K33" s="83" t="s">
-        <v>347</v>
-      </c>
-      <c r="L33" s="83" t="s">
-        <v>351</v>
-      </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="294"/>
-      <c r="P33" s="302">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="303"/>
-      <c r="R33" s="29"/>
-      <c r="T33" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="U33" s="23"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="322" t="s">
-        <v>1089</v>
-      </c>
-      <c r="Y33" s="322"/>
-      <c r="Z33" s="164" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AA33" s="28" t="s">
-        <v>960</v>
-      </c>
-      <c r="AK33" s="28"/>
-      <c r="AL33" s="23"/>
-      <c r="AM33" s="23"/>
-      <c r="AN33" s="56" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A34" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="322"/>
-      <c r="C34" s="322" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="333"/>
-      <c r="G34" s="149" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H34" s="56" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I34" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="J34" s="57" t="s">
-        <v>198</v>
-      </c>
-      <c r="K34" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="L34" s="83" t="s">
-        <v>352</v>
-      </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="294"/>
-      <c r="P34" s="302"/>
-      <c r="Q34" s="303"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="U34" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="V34" s="61"/>
-      <c r="Y34" s="322"/>
-      <c r="Z34" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA34" s="28" t="s">
-        <v>961</v>
-      </c>
-      <c r="AB34" s="23" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A35" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="322">
-        <v>2</v>
-      </c>
-      <c r="C35" s="164" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D35" s="335"/>
-      <c r="E35" s="333" t="s">
-        <v>916</v>
-      </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="56" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I35" s="54" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J35" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="294"/>
-      <c r="P35" s="254"/>
-      <c r="Q35" s="303"/>
-      <c r="R35" s="29"/>
-      <c r="T35" s="56" t="s">
-        <v>373</v>
-      </c>
-      <c r="V35" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y35" s="322"/>
-      <c r="Z35" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB35" s="23" t="s">
-        <v>963</v>
-      </c>
-      <c r="AC35" s="23" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A36" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="322"/>
-      <c r="C36" s="294" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="331" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E36" s="333"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="54" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J36" s="56" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="294"/>
-      <c r="P36" s="302">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="303"/>
-      <c r="R36" s="29"/>
-      <c r="U36" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y36" s="322"/>
-      <c r="Z36" s="322" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC36" s="23" t="s">
-        <v>965</v>
-      </c>
-      <c r="AD36" s="29" t="s">
-        <v>966</v>
-      </c>
-      <c r="AK36" s="56" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A37" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="322"/>
-      <c r="C37" s="294" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="331" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E37" s="333"/>
-      <c r="G37" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="56" t="s">
-        <v>1059</v>
-      </c>
-      <c r="K37" s="83" t="s">
-        <v>344</v>
-      </c>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="294"/>
-      <c r="P37" s="302">
-        <v>1</v>
-      </c>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="56" t="s">
-        <v>369</v>
-      </c>
-      <c r="X37" s="307" t="s">
-        <v>1094</v>
-      </c>
-      <c r="Y37" s="322">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="164" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AD37" s="29" t="s">
-        <v>967</v>
-      </c>
-      <c r="AK37" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="AL37" s="56" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A38" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="322"/>
-      <c r="C38" s="164" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D38" s="331" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E38" s="333"/>
-      <c r="F38" s="336" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G38" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="H38" s="58" t="s">
-        <v>204</v>
-      </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="83" t="s">
-        <v>345</v>
-      </c>
-      <c r="L38" s="83" t="s">
-        <v>349</v>
-      </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="294"/>
-      <c r="P38" s="302">
-        <v>2</v>
-      </c>
-      <c r="S38" s="302"/>
-      <c r="T38" s="303"/>
-      <c r="U38" s="303"/>
-      <c r="V38" s="304"/>
-      <c r="W38" s="322" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Y38" s="322"/>
-      <c r="Z38" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK38" s="28"/>
-      <c r="AL38" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="AM38" s="54" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A39" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="B39" s="322"/>
-      <c r="C39" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="331" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E39" s="333"/>
-      <c r="G39" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="H39" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="I39" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="K39" s="83" t="s">
-        <v>346</v>
-      </c>
-      <c r="L39" s="83" t="s">
-        <v>350</v>
-      </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="294"/>
-      <c r="P39" s="302">
-        <v>3</v>
-      </c>
-      <c r="S39" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y39" s="322"/>
-      <c r="Z39" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM39" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="AN39" s="54" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A40" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="B40" s="322"/>
-      <c r="C40" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="331" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E40" s="333"/>
-      <c r="G40" s="353" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H40" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="I40" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="J40" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="K40" s="83" t="s">
-        <v>347</v>
-      </c>
-      <c r="L40" s="83" t="s">
-        <v>351</v>
-      </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="294"/>
-      <c r="P40" s="302">
-        <v>4</v>
-      </c>
-      <c r="T40" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="W40" s="322" t="s">
-        <v>1089</v>
-      </c>
-      <c r="Y40" s="322"/>
-      <c r="Z40" s="164" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AN40" s="54" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A41" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="B41" s="322"/>
-      <c r="C41" s="322" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="333"/>
-      <c r="G41" s="354" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H41" s="355" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I41" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J41" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="K41" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="L41" s="83" t="s">
-        <v>352</v>
-      </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="294"/>
-      <c r="P41" s="302"/>
-      <c r="S41" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="U41" s="56" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y41" s="322"/>
-      <c r="Z41" s="322" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A42" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="B42" s="322">
-        <v>3</v>
-      </c>
-      <c r="C42" s="164" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D42" s="335"/>
-      <c r="E42" s="333" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="356" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I42" s="355" t="s">
-        <v>1064</v>
-      </c>
-      <c r="J42" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="294"/>
-      <c r="P42" s="302"/>
-      <c r="T42" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="V42" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y42" s="322"/>
-      <c r="Z42" s="322" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A43" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="B43" s="322"/>
-      <c r="C43" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="331" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F43" s="336" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="356" t="s">
-        <v>1065</v>
-      </c>
-      <c r="J43" s="355" t="s">
-        <v>1066</v>
-      </c>
-      <c r="U43" s="56" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y43" s="322"/>
-      <c r="Z43" s="322" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK43" s="56" t="s">
-        <v>418</v>
-      </c>
-      <c r="AL43" s="23"/>
-      <c r="AM43" s="23"/>
-      <c r="AN43" s="29"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A44" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44" s="322"/>
-      <c r="C44" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="331" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G44" s="57" t="s">
-        <v>404</v>
-      </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="356" t="s">
-        <v>1067</v>
-      </c>
-      <c r="V44" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="X44" s="336" t="s">
-        <v>1095</v>
-      </c>
-      <c r="Y44" s="322">
-        <v>2</v>
-      </c>
-      <c r="Z44" s="164" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AK44" s="56" t="s">
-        <v>419</v>
-      </c>
-      <c r="AL44" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="AM44" s="23"/>
-      <c r="AN44" s="29"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A45" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="B45" s="322"/>
-      <c r="C45" s="164" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D45" s="331" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G45" s="57" t="s">
-        <v>405</v>
-      </c>
-      <c r="H45" s="57" t="s">
-        <v>406</v>
-      </c>
-      <c r="J45" s="29"/>
-      <c r="W45" s="322" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Y45" s="322"/>
-      <c r="Z45" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL45" s="56" t="s">
-        <v>424</v>
-      </c>
-      <c r="AM45" s="56" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A46" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="322"/>
-      <c r="C46" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="331" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G46" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="H46" s="57" t="s">
-        <v>407</v>
-      </c>
-      <c r="I46" s="183" t="s">
-        <v>409</v>
-      </c>
-      <c r="S46" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y46" s="322"/>
-      <c r="Z46" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM46" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="AN46" s="56" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A47" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="B47" s="322"/>
-      <c r="C47" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="331" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G47" s="355" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H47" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="I47" s="183" t="s">
-        <v>410</v>
-      </c>
-      <c r="J47" s="318" t="s">
-        <v>412</v>
-      </c>
-      <c r="T47" s="56" t="s">
-        <v>437</v>
-      </c>
-      <c r="W47" s="322" t="s">
-        <v>1089</v>
-      </c>
-      <c r="Y47" s="322"/>
-      <c r="Z47" s="164" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AN47" s="56" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A48" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="B48" s="322"/>
-      <c r="C48" s="322" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="356" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H48" s="355" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I48" s="183" t="s">
-        <v>411</v>
-      </c>
-      <c r="J48" s="318" t="s">
-        <v>413</v>
-      </c>
-      <c r="S48" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="U48" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="V48" s="29"/>
-      <c r="Y48" s="322"/>
-      <c r="Z48" s="322" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A49" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="B49" s="322"/>
-      <c r="C49" s="164" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="356" t="s">
-        <v>1069</v>
-      </c>
-      <c r="I49" s="183" t="s">
-        <v>1072</v>
-      </c>
-      <c r="J49" s="318" t="s">
-        <v>414</v>
-      </c>
-      <c r="T49" s="56" t="s">
-        <v>438</v>
-      </c>
-      <c r="V49" s="56" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y49" s="322"/>
-      <c r="Z49" s="322" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A50" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" s="322"/>
-      <c r="C50" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="331" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I50" s="183" t="s">
-        <v>1073</v>
-      </c>
-      <c r="J50" s="318" t="s">
-        <v>1074</v>
-      </c>
-      <c r="T50" s="23"/>
-      <c r="U50" s="56" t="s">
-        <v>440</v>
-      </c>
-      <c r="Y50" s="322"/>
-      <c r="Z50" s="322" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A51" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="B51" s="322"/>
-      <c r="C51" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="331" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G51" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="H51" s="18"/>
-      <c r="J51" s="318" t="s">
-        <v>1075</v>
-      </c>
-      <c r="K51" s="357" t="s">
-        <v>374</v>
-      </c>
-      <c r="L51" s="18"/>
-      <c r="V51" s="56" t="s">
-        <v>442</v>
-      </c>
-      <c r="X51" s="336" t="s">
-        <v>1096</v>
-      </c>
-      <c r="Y51" s="322">
-        <v>3</v>
-      </c>
-      <c r="Z51" s="164" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A52" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="C52" s="322" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="331" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G52" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="H52" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="357" t="s">
-        <v>372</v>
-      </c>
-      <c r="L52" s="357" t="s">
-        <v>227</v>
-      </c>
-      <c r="W52" s="322" t="s">
-        <v>1088</v>
-      </c>
-      <c r="Y52" s="322"/>
-      <c r="Z52" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK52" s="260" t="s">
-        <v>415</v>
-      </c>
-      <c r="AM52" s="23"/>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A53" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="C53" s="322" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="331" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G53" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="H53" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="J53" s="29"/>
-      <c r="K53" s="357" t="s">
-        <v>370</v>
-      </c>
-      <c r="L53" s="357" t="s">
-        <v>229</v>
-      </c>
-      <c r="S53" s="56" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y53" s="322"/>
-      <c r="Z53" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK53" s="260" t="s">
-        <v>416</v>
-      </c>
-      <c r="AL53" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="AN53" s="29"/>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A54" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="C54" s="322" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="331" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G54" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="H54" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="K54" s="357" t="s">
-        <v>446</v>
-      </c>
-      <c r="L54" s="357" t="s">
-        <v>231</v>
-      </c>
-      <c r="T54" s="56" t="s">
+      <c r="M22" s="62" t="s">
         <v>448</v>
       </c>
-      <c r="W54" s="322" t="s">
-        <v>1089</v>
-      </c>
-      <c r="Y54" s="322"/>
-      <c r="Z54" s="164" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AK54" s="260" t="s">
-        <v>417</v>
-      </c>
-      <c r="AL54" s="57" t="s">
-        <v>421</v>
-      </c>
-      <c r="AM54" s="57" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A55" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="C55" s="322" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="H55" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="K55" s="357" t="s">
-        <v>448</v>
-      </c>
-      <c r="L55" s="357" t="s">
-        <v>1100</v>
-      </c>
-      <c r="S55" s="56" t="s">
+      <c r="N22" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="U55" s="183" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y55" s="322"/>
-      <c r="Z55" s="322" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK55" s="149" t="s">
-        <v>418</v>
-      </c>
-      <c r="AL55" s="57" t="s">
-        <v>422</v>
-      </c>
-      <c r="AM55" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="AN55" s="57" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A56" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C56" s="322" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="357" t="s">
-        <v>1101</v>
-      </c>
-      <c r="T56" s="56" t="s">
+      <c r="O22" s="373"/>
+      <c r="P22" s="374"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="183" t="s">
+        <v>453</v>
+      </c>
+      <c r="M23" s="80"/>
+      <c r="N23" s="62" t="s">
         <v>449</v>
       </c>
-      <c r="V56" s="183" t="s">
-        <v>452</v>
-      </c>
-      <c r="Y56" s="322"/>
-      <c r="Z56" s="322" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK56" s="149" t="s">
-        <v>419</v>
-      </c>
-      <c r="AL56" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="AM56" s="57" t="s">
-        <v>427</v>
-      </c>
-      <c r="AN56" s="57" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A57" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="183" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y57" s="322"/>
-      <c r="Z57" s="322" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL57" s="56" t="s">
-        <v>424</v>
-      </c>
-      <c r="AM57" s="56" t="s">
-        <v>428</v>
-      </c>
-      <c r="AN57" s="57" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A58" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="V58" s="183" t="s">
-        <v>453</v>
-      </c>
-      <c r="Y58" s="322"/>
-      <c r="Z58" s="164" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AM58" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="AN58" s="56" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A59" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="AN59" s="56" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A60" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="S60" s="75" t="s">
-        <v>827</v>
-      </c>
-      <c r="T60" s="332"/>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A61" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="S61" s="75" t="s">
-        <v>828</v>
-      </c>
-      <c r="T61" s="75" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A62" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="S62" s="332"/>
-      <c r="T62" s="75" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A63" s="34" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.4">
-      <c r="A64" s="34" t="s">
-        <v>312</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="S1:V1"/>
+  <mergeCells count="1">
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C539FEB2-CF72-424E-9E3E-D16B82DAB7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529BABEA-B114-41B4-B653-24AE0B5DAAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -5836,6 +5836,21 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5843,47 +5858,47 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5893,18 +5908,18 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5923,6 +5938,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5941,15 +5965,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5960,21 +5975,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6301,11 +6301,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="400" t="s">
+      <c r="W1" s="405" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="400"/>
-      <c r="Y1" s="400"/>
+      <c r="X1" s="405"/>
+      <c r="Y1" s="405"/>
       <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -6320,11 +6320,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="400" t="s">
+      <c r="W3" s="405" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="400"/>
-      <c r="Y3" s="400"/>
+      <c r="X3" s="405"/>
+      <c r="Y3" s="405"/>
       <c r="Z3" s="21" t="s">
         <v>52</v>
       </c>
@@ -7078,7 +7078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597BBB59-6323-453E-A254-55B17D79805D}">
   <dimension ref="A1:AQ54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7103,24 +7103,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D1" s="429" t="s">
+      <c r="D1" s="437" t="s">
         <v>555</v>
       </c>
-      <c r="E1" s="430"/>
-      <c r="F1" s="430"/>
-      <c r="G1" s="431"/>
-      <c r="H1" s="429" t="s">
+      <c r="E1" s="438"/>
+      <c r="F1" s="438"/>
+      <c r="G1" s="439"/>
+      <c r="H1" s="437" t="s">
         <v>1126</v>
       </c>
-      <c r="I1" s="430"/>
-      <c r="J1" s="430"/>
-      <c r="K1" s="431"/>
-      <c r="N1" s="432" t="s">
+      <c r="I1" s="438"/>
+      <c r="J1" s="438"/>
+      <c r="K1" s="439"/>
+      <c r="N1" s="440" t="s">
         <v>1154</v>
       </c>
-      <c r="O1" s="433"/>
-      <c r="P1" s="433"/>
-      <c r="Q1" s="434"/>
+      <c r="O1" s="441"/>
+      <c r="P1" s="441"/>
+      <c r="Q1" s="442"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="348" t="s">
@@ -7179,10 +7179,10 @@
       <c r="A3" s="154" t="s">
         <v>984</v>
       </c>
-      <c r="D3" s="407"/>
-      <c r="E3" s="408"/>
-      <c r="F3" s="408"/>
-      <c r="G3" s="409"/>
+      <c r="D3" s="416"/>
+      <c r="E3" s="417"/>
+      <c r="F3" s="417"/>
+      <c r="G3" s="420"/>
       <c r="L3" s="343"/>
       <c r="N3" s="367"/>
       <c r="O3" s="369"/>
@@ -7877,10 +7877,10 @@
       <c r="A41" s="154" t="s">
         <v>1156</v>
       </c>
-      <c r="D41" s="407"/>
-      <c r="E41" s="408"/>
-      <c r="F41" s="408"/>
-      <c r="G41" s="409"/>
+      <c r="D41" s="416"/>
+      <c r="E41" s="417"/>
+      <c r="F41" s="417"/>
+      <c r="G41" s="420"/>
       <c r="L41" s="352"/>
       <c r="N41" s="367"/>
       <c r="O41" s="369"/>
@@ -8151,33 +8151,33 @@
       <c r="D1" s="326"/>
       <c r="E1" s="327"/>
       <c r="F1" s="328"/>
-      <c r="G1" s="404" t="s">
+      <c r="G1" s="412" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="405"/>
-      <c r="I1" s="405"/>
-      <c r="J1" s="438"/>
+      <c r="H1" s="413"/>
+      <c r="I1" s="413"/>
+      <c r="J1" s="443"/>
       <c r="K1" s="415" t="s">
         <v>1138</v>
       </c>
-      <c r="L1" s="405"/>
-      <c r="M1" s="405"/>
-      <c r="N1" s="405"/>
+      <c r="L1" s="413"/>
+      <c r="M1" s="413"/>
+      <c r="N1" s="413"/>
       <c r="O1" s="284"/>
-      <c r="P1" s="404" t="s">
+      <c r="P1" s="412" t="s">
         <v>555</v>
       </c>
-      <c r="Q1" s="405"/>
-      <c r="R1" s="405"/>
-      <c r="S1" s="406"/>
+      <c r="Q1" s="413"/>
+      <c r="R1" s="413"/>
+      <c r="S1" s="414"/>
       <c r="T1" s="285"/>
       <c r="U1" s="285"/>
-      <c r="AD1" s="404" t="s">
+      <c r="AD1" s="412" t="s">
         <v>845</v>
       </c>
-      <c r="AE1" s="405"/>
-      <c r="AF1" s="405"/>
-      <c r="AG1" s="406"/>
+      <c r="AE1" s="413"/>
+      <c r="AF1" s="413"/>
+      <c r="AG1" s="414"/>
     </row>
     <row r="2" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -8274,12 +8274,12 @@
         <v>995</v>
       </c>
       <c r="P3" s="28"/>
-      <c r="X3" s="408" t="s">
+      <c r="X3" s="417" t="s">
         <v>1174</v>
       </c>
-      <c r="Y3" s="408"/>
-      <c r="Z3" s="408"/>
-      <c r="AA3" s="409"/>
+      <c r="Y3" s="417"/>
+      <c r="Z3" s="417"/>
+      <c r="AA3" s="420"/>
       <c r="AD3" s="35"/>
       <c r="AE3" s="33"/>
       <c r="AF3" s="33"/>
@@ -8344,12 +8344,12 @@
       <c r="O5" s="288">
         <v>1</v>
       </c>
-      <c r="X5" s="412" t="s">
+      <c r="X5" s="409" t="s">
         <v>760</v>
       </c>
-      <c r="Y5" s="413"/>
-      <c r="Z5" s="413"/>
-      <c r="AA5" s="414"/>
+      <c r="Y5" s="410"/>
+      <c r="Z5" s="410"/>
+      <c r="AA5" s="411"/>
       <c r="AD5" s="288"/>
       <c r="AE5" s="289"/>
       <c r="AF5" s="289"/>
@@ -8388,12 +8388,12 @@
       <c r="O6" s="288">
         <v>2</v>
       </c>
-      <c r="X6" s="412" t="s">
+      <c r="X6" s="409" t="s">
         <v>1171</v>
       </c>
-      <c r="Y6" s="413"/>
-      <c r="Z6" s="413"/>
-      <c r="AA6" s="414"/>
+      <c r="Y6" s="410"/>
+      <c r="Z6" s="410"/>
+      <c r="AA6" s="411"/>
       <c r="AD6" s="35"/>
       <c r="AE6" s="33"/>
       <c r="AF6" s="33"/>
@@ -8431,12 +8431,12 @@
       <c r="O7" s="288">
         <v>3</v>
       </c>
-      <c r="X7" s="412" t="s">
+      <c r="X7" s="409" t="s">
         <v>1172</v>
       </c>
-      <c r="Y7" s="413"/>
-      <c r="Z7" s="413"/>
-      <c r="AA7" s="414"/>
+      <c r="Y7" s="410"/>
+      <c r="Z7" s="410"/>
+      <c r="AA7" s="411"/>
       <c r="AB7" s="64" t="s">
         <v>444</v>
       </c>
@@ -8483,12 +8483,12 @@
       <c r="O8" s="288">
         <v>4</v>
       </c>
-      <c r="X8" s="412" t="s">
+      <c r="X8" s="409" t="s">
         <v>1173</v>
       </c>
-      <c r="Y8" s="413"/>
-      <c r="Z8" s="413"/>
-      <c r="AA8" s="414"/>
+      <c r="Y8" s="410"/>
+      <c r="Z8" s="410"/>
+      <c r="AA8" s="411"/>
       <c r="AD8" s="35"/>
       <c r="AE8" s="33"/>
       <c r="AF8" s="33"/>
@@ -8526,12 +8526,12 @@
       <c r="O9" s="288"/>
       <c r="V9" s="312"/>
       <c r="W9" s="312"/>
-      <c r="X9" s="412" t="s">
+      <c r="X9" s="409" t="s">
         <v>1136</v>
       </c>
-      <c r="Y9" s="413"/>
-      <c r="Z9" s="413"/>
-      <c r="AA9" s="414"/>
+      <c r="Y9" s="410"/>
+      <c r="Z9" s="410"/>
+      <c r="AA9" s="411"/>
     </row>
     <row r="10" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="34" t="s">
@@ -8567,12 +8567,12 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="244"/>
-      <c r="X10" s="412" t="s">
+      <c r="X10" s="409" t="s">
         <v>1137</v>
       </c>
-      <c r="Y10" s="413"/>
-      <c r="Z10" s="413"/>
-      <c r="AA10" s="414"/>
+      <c r="Y10" s="410"/>
+      <c r="Z10" s="410"/>
+      <c r="AA10" s="411"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="34" t="s">
@@ -10336,17 +10336,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="X3:AA3"/>
     <mergeCell ref="X10:AA10"/>
     <mergeCell ref="X5:AA5"/>
     <mergeCell ref="X6:AA6"/>
     <mergeCell ref="X7:AA7"/>
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10392,25 +10392,25 @@
       <c r="C1" s="335"/>
       <c r="D1" s="326"/>
       <c r="E1" s="328"/>
-      <c r="F1" s="404" t="s">
+      <c r="F1" s="412" t="s">
         <v>556</v>
       </c>
-      <c r="G1" s="405"/>
-      <c r="H1" s="405"/>
-      <c r="I1" s="406"/>
+      <c r="G1" s="413"/>
+      <c r="H1" s="413"/>
+      <c r="I1" s="414"/>
       <c r="J1" s="415" t="s">
         <v>1138</v>
       </c>
-      <c r="K1" s="405"/>
-      <c r="L1" s="405"/>
-      <c r="M1" s="405"/>
+      <c r="K1" s="413"/>
+      <c r="L1" s="413"/>
+      <c r="M1" s="413"/>
       <c r="N1" s="304"/>
-      <c r="O1" s="404" t="s">
+      <c r="O1" s="412" t="s">
         <v>555</v>
       </c>
-      <c r="P1" s="405"/>
-      <c r="Q1" s="405"/>
-      <c r="R1" s="406"/>
+      <c r="P1" s="413"/>
+      <c r="Q1" s="413"/>
+      <c r="R1" s="414"/>
       <c r="S1" s="305"/>
       <c r="T1" s="305"/>
       <c r="U1" s="231"/>
@@ -10522,12 +10522,12 @@
       </c>
       <c r="Q3" s="230"/>
       <c r="R3" s="49"/>
-      <c r="W3" s="408" t="s">
+      <c r="W3" s="417" t="s">
         <v>1174</v>
       </c>
-      <c r="X3" s="408"/>
-      <c r="Y3" s="408"/>
-      <c r="Z3" s="409"/>
+      <c r="X3" s="417"/>
+      <c r="Y3" s="417"/>
+      <c r="Z3" s="420"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="231" t="s">
@@ -10597,12 +10597,12 @@
       <c r="Q5" s="230"/>
       <c r="R5" s="49"/>
       <c r="S5" s="310"/>
-      <c r="W5" s="412" t="s">
+      <c r="W5" s="409" t="s">
         <v>760</v>
       </c>
-      <c r="X5" s="413"/>
-      <c r="Y5" s="413"/>
-      <c r="Z5" s="414"/>
+      <c r="X5" s="410"/>
+      <c r="Y5" s="410"/>
+      <c r="Z5" s="411"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="231" t="s">
@@ -10631,12 +10631,12 @@
       <c r="N6" s="313"/>
       <c r="Q6" s="230"/>
       <c r="R6" s="49"/>
-      <c r="W6" s="412" t="s">
+      <c r="W6" s="409" t="s">
         <v>1171</v>
       </c>
-      <c r="X6" s="413"/>
-      <c r="Y6" s="413"/>
-      <c r="Z6" s="414"/>
+      <c r="X6" s="410"/>
+      <c r="Y6" s="410"/>
+      <c r="Z6" s="411"/>
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="231" t="s">
@@ -10668,12 +10668,12 @@
       <c r="N7" s="313"/>
       <c r="Q7" s="230"/>
       <c r="R7" s="49"/>
-      <c r="W7" s="412" t="s">
+      <c r="W7" s="409" t="s">
         <v>1172</v>
       </c>
-      <c r="X7" s="413"/>
-      <c r="Y7" s="413"/>
-      <c r="Z7" s="414"/>
+      <c r="X7" s="410"/>
+      <c r="Y7" s="410"/>
+      <c r="Z7" s="411"/>
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="231" t="s">
@@ -10701,12 +10701,12 @@
       <c r="N8" s="313"/>
       <c r="Q8" s="230"/>
       <c r="R8" s="49"/>
-      <c r="W8" s="412" t="s">
+      <c r="W8" s="409" t="s">
         <v>1173</v>
       </c>
-      <c r="X8" s="413"/>
-      <c r="Y8" s="413"/>
-      <c r="Z8" s="414"/>
+      <c r="X8" s="410"/>
+      <c r="Y8" s="410"/>
+      <c r="Z8" s="411"/>
     </row>
     <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="231" t="s">
@@ -10734,12 +10734,12 @@
       <c r="N9" s="313"/>
       <c r="Q9" s="230"/>
       <c r="R9" s="49"/>
-      <c r="W9" s="412" t="s">
+      <c r="W9" s="409" t="s">
         <v>1136</v>
       </c>
-      <c r="X9" s="413"/>
-      <c r="Y9" s="413"/>
-      <c r="Z9" s="414"/>
+      <c r="X9" s="410"/>
+      <c r="Y9" s="410"/>
+      <c r="Z9" s="411"/>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="231" t="s">
@@ -10764,12 +10764,12 @@
       <c r="N10" s="313"/>
       <c r="Q10" s="230"/>
       <c r="R10" s="49"/>
-      <c r="W10" s="412" t="s">
+      <c r="W10" s="409" t="s">
         <v>1137</v>
       </c>
-      <c r="X10" s="413"/>
-      <c r="Y10" s="413"/>
-      <c r="Z10" s="414"/>
+      <c r="X10" s="410"/>
+      <c r="Y10" s="410"/>
+      <c r="Z10" s="411"/>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="231" t="s">
@@ -13305,12 +13305,12 @@
       <c r="S3" s="352"/>
       <c r="T3" s="352"/>
       <c r="U3" s="353"/>
-      <c r="AD3" s="407" t="s">
+      <c r="AD3" s="416" t="s">
         <v>1133</v>
       </c>
-      <c r="AE3" s="408"/>
-      <c r="AF3" s="408"/>
-      <c r="AG3" s="409"/>
+      <c r="AE3" s="417"/>
+      <c r="AF3" s="417"/>
+      <c r="AG3" s="420"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4" s="378" t="s">
@@ -13388,12 +13388,12 @@
       <c r="T5" s="352"/>
       <c r="U5" s="353"/>
       <c r="Z5" s="314"/>
-      <c r="AD5" s="412" t="s">
+      <c r="AD5" s="409" t="s">
         <v>236</v>
       </c>
-      <c r="AE5" s="413"/>
-      <c r="AF5" s="413"/>
-      <c r="AG5" s="414"/>
+      <c r="AE5" s="410"/>
+      <c r="AF5" s="410"/>
+      <c r="AG5" s="411"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6" s="378" t="s">
@@ -13429,12 +13429,12 @@
       <c r="T6" s="352"/>
       <c r="U6" s="353"/>
       <c r="Z6" s="314"/>
-      <c r="AD6" s="412" t="s">
+      <c r="AD6" s="409" t="s">
         <v>1132</v>
       </c>
-      <c r="AE6" s="413"/>
-      <c r="AF6" s="413"/>
-      <c r="AG6" s="414"/>
+      <c r="AE6" s="410"/>
+      <c r="AF6" s="410"/>
+      <c r="AG6" s="411"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7" s="378" t="s">
@@ -13472,12 +13472,12 @@
       <c r="T7" s="352"/>
       <c r="U7" s="353"/>
       <c r="Z7" s="314"/>
-      <c r="AD7" s="412" t="s">
+      <c r="AD7" s="409" t="s">
         <v>1130</v>
       </c>
-      <c r="AE7" s="413"/>
-      <c r="AF7" s="413"/>
-      <c r="AG7" s="414"/>
+      <c r="AE7" s="410"/>
+      <c r="AF7" s="410"/>
+      <c r="AG7" s="411"/>
       <c r="AI7" s="351"/>
       <c r="AJ7" s="352"/>
       <c r="AK7" s="352"/>
@@ -13519,12 +13519,12 @@
       <c r="T8" s="352"/>
       <c r="U8" s="353"/>
       <c r="Z8" s="314"/>
-      <c r="AD8" s="412" t="s">
+      <c r="AD8" s="409" t="s">
         <v>1131</v>
       </c>
-      <c r="AE8" s="413"/>
-      <c r="AF8" s="413"/>
-      <c r="AG8" s="414"/>
+      <c r="AE8" s="410"/>
+      <c r="AF8" s="410"/>
+      <c r="AG8" s="411"/>
       <c r="AI8" s="351"/>
       <c r="AJ8" s="352"/>
       <c r="AK8" s="352"/>
@@ -13566,12 +13566,12 @@
       <c r="T9" s="352"/>
       <c r="U9" s="353"/>
       <c r="Z9" s="314"/>
-      <c r="AD9" s="412" t="s">
+      <c r="AD9" s="409" t="s">
         <v>1129</v>
       </c>
-      <c r="AE9" s="413"/>
-      <c r="AF9" s="413"/>
-      <c r="AG9" s="414"/>
+      <c r="AE9" s="410"/>
+      <c r="AF9" s="410"/>
+      <c r="AG9" s="411"/>
       <c r="AI9" s="351"/>
       <c r="AJ9" s="352"/>
       <c r="AK9" s="74" t="s">
@@ -13609,12 +13609,12 @@
       </c>
       <c r="U10" s="353"/>
       <c r="Z10" s="314"/>
-      <c r="AD10" s="412" t="s">
+      <c r="AD10" s="409" t="s">
         <v>1136</v>
       </c>
-      <c r="AE10" s="413"/>
-      <c r="AF10" s="413"/>
-      <c r="AG10" s="414"/>
+      <c r="AE10" s="410"/>
+      <c r="AF10" s="410"/>
+      <c r="AG10" s="411"/>
       <c r="AI10" s="351"/>
       <c r="AJ10" s="74" t="s">
         <v>580</v>
@@ -13674,12 +13674,12 @@
       <c r="AC11" s="348" t="s">
         <v>1135</v>
       </c>
-      <c r="AD11" s="439" t="s">
+      <c r="AD11" s="444" t="s">
         <v>1137</v>
       </c>
-      <c r="AE11" s="410"/>
-      <c r="AF11" s="410"/>
-      <c r="AG11" s="411"/>
+      <c r="AE11" s="407"/>
+      <c r="AF11" s="407"/>
+      <c r="AG11" s="408"/>
       <c r="AI11" s="75" t="s">
         <v>581</v>
       </c>
@@ -16685,30 +16685,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="231"/>
       <c r="B1" s="218"/>
-      <c r="C1" s="404" t="s">
+      <c r="C1" s="412" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="405"/>
-      <c r="E1" s="405"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="404" t="s">
+      <c r="D1" s="413"/>
+      <c r="E1" s="413"/>
+      <c r="F1" s="414"/>
+      <c r="G1" s="412" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="405"/>
-      <c r="I1" s="405"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="404" t="s">
+      <c r="H1" s="413"/>
+      <c r="I1" s="413"/>
+      <c r="J1" s="414"/>
+      <c r="K1" s="412" t="s">
         <v>382</v>
       </c>
-      <c r="L1" s="405"/>
-      <c r="M1" s="405"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="404" t="s">
+      <c r="L1" s="413"/>
+      <c r="M1" s="413"/>
+      <c r="N1" s="414"/>
+      <c r="O1" s="412" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="405"/>
-      <c r="Q1" s="405"/>
-      <c r="R1" s="406"/>
+      <c r="P1" s="413"/>
+      <c r="Q1" s="413"/>
+      <c r="R1" s="414"/>
       <c r="S1" s="181"/>
       <c r="T1" s="181"/>
       <c r="U1" s="181"/>
@@ -16807,12 +16807,12 @@
       <c r="P3" s="176"/>
       <c r="Q3" s="176"/>
       <c r="R3" s="177"/>
-      <c r="S3" s="407" t="s">
+      <c r="S3" s="416" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="408"/>
-      <c r="U3" s="408"/>
-      <c r="V3" s="409"/>
+      <c r="T3" s="417"/>
+      <c r="U3" s="417"/>
+      <c r="V3" s="420"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="231" t="s">
@@ -16881,12 +16881,12 @@
       <c r="P5" s="176"/>
       <c r="Q5" s="176"/>
       <c r="R5" s="177"/>
-      <c r="S5" s="412" t="s">
+      <c r="S5" s="409" t="s">
         <v>236</v>
       </c>
-      <c r="T5" s="413"/>
-      <c r="U5" s="413"/>
-      <c r="V5" s="414"/>
+      <c r="T5" s="410"/>
+      <c r="U5" s="410"/>
+      <c r="V5" s="411"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="231" t="s">
@@ -16917,12 +16917,12 @@
       <c r="P6" s="176"/>
       <c r="Q6" s="176"/>
       <c r="R6" s="177"/>
-      <c r="S6" s="412" t="s">
+      <c r="S6" s="409" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="413"/>
-      <c r="U6" s="413"/>
-      <c r="V6" s="414"/>
+      <c r="T6" s="410"/>
+      <c r="U6" s="410"/>
+      <c r="V6" s="411"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="231" t="s">
@@ -16990,12 +16990,12 @@
         <v>238</v>
       </c>
       <c r="R8" s="177"/>
-      <c r="S8" s="440" t="s">
+      <c r="S8" s="445" t="s">
         <v>831</v>
       </c>
-      <c r="T8" s="441"/>
-      <c r="U8" s="441"/>
-      <c r="V8" s="441"/>
+      <c r="T8" s="446"/>
+      <c r="U8" s="446"/>
+      <c r="V8" s="446"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="231" t="s">
@@ -19529,36 +19529,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="18"/>
-      <c r="C1" s="404" t="s">
+      <c r="C1" s="412" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="405"/>
-      <c r="E1" s="405"/>
-      <c r="F1" s="406"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="413"/>
+      <c r="F1" s="414"/>
       <c r="G1" s="415" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="405"/>
-      <c r="I1" s="405"/>
-      <c r="J1" s="405"/>
-      <c r="K1" s="404" t="s">
+      <c r="H1" s="413"/>
+      <c r="I1" s="413"/>
+      <c r="J1" s="413"/>
+      <c r="K1" s="412" t="s">
         <v>382</v>
       </c>
-      <c r="L1" s="405"/>
-      <c r="M1" s="405"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="404" t="s">
+      <c r="L1" s="413"/>
+      <c r="M1" s="413"/>
+      <c r="N1" s="414"/>
+      <c r="O1" s="412" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="405"/>
-      <c r="Q1" s="405"/>
-      <c r="R1" s="406"/>
-      <c r="Z1" s="404" t="s">
+      <c r="P1" s="413"/>
+      <c r="Q1" s="413"/>
+      <c r="R1" s="414"/>
+      <c r="Z1" s="412" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="405"/>
-      <c r="AB1" s="405"/>
-      <c r="AC1" s="406"/>
+      <c r="AA1" s="413"/>
+      <c r="AB1" s="413"/>
+      <c r="AC1" s="414"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18"/>
@@ -19627,33 +19627,33 @@
       <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="407" t="s">
+      <c r="C3" s="416" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="408"/>
-      <c r="E3" s="408"/>
-      <c r="F3" s="409"/>
-      <c r="G3" s="407"/>
-      <c r="H3" s="408"/>
-      <c r="I3" s="408"/>
-      <c r="J3" s="409"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="417"/>
+      <c r="F3" s="420"/>
+      <c r="G3" s="416"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="420"/>
       <c r="K3" s="175"/>
       <c r="O3" s="175"/>
       <c r="P3" s="176"/>
       <c r="Q3" s="176"/>
       <c r="R3" s="177"/>
-      <c r="S3" s="407" t="s">
+      <c r="S3" s="416" t="s">
         <v>342</v>
       </c>
-      <c r="T3" s="408"/>
-      <c r="U3" s="408"/>
-      <c r="V3" s="409"/>
-      <c r="Z3" s="407" t="s">
+      <c r="T3" s="417"/>
+      <c r="U3" s="417"/>
+      <c r="V3" s="420"/>
+      <c r="Z3" s="416" t="s">
         <v>219</v>
       </c>
-      <c r="AA3" s="408"/>
-      <c r="AB3" s="408"/>
-      <c r="AC3" s="409"/>
+      <c r="AA3" s="417"/>
+      <c r="AB3" s="417"/>
+      <c r="AC3" s="420"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="34" t="s">
@@ -19710,12 +19710,12 @@
       <c r="P5" s="176"/>
       <c r="Q5" s="176"/>
       <c r="R5" s="177"/>
-      <c r="S5" s="412" t="s">
+      <c r="S5" s="409" t="s">
         <v>442</v>
       </c>
-      <c r="T5" s="413"/>
-      <c r="U5" s="413"/>
-      <c r="V5" s="414"/>
+      <c r="T5" s="410"/>
+      <c r="U5" s="410"/>
+      <c r="V5" s="411"/>
       <c r="W5" s="64" t="s">
         <v>444</v>
       </c>
@@ -19745,12 +19745,12 @@
       <c r="P6" s="176"/>
       <c r="Q6" s="176"/>
       <c r="R6" s="177"/>
-      <c r="S6" s="412" t="s">
+      <c r="S6" s="409" t="s">
         <v>359</v>
       </c>
-      <c r="T6" s="413"/>
-      <c r="U6" s="413"/>
-      <c r="V6" s="414"/>
+      <c r="T6" s="410"/>
+      <c r="U6" s="410"/>
+      <c r="V6" s="411"/>
       <c r="Z6" s="175"/>
       <c r="AA6" s="176"/>
       <c r="AB6" s="176"/>
@@ -21109,17 +21109,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21154,57 +21154,57 @@
       <c r="A1" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="404" t="s">
+      <c r="B1" s="412" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="405"/>
-      <c r="D1" s="405"/>
-      <c r="E1" s="406"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="414"/>
       <c r="F1" s="415" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="405"/>
-      <c r="H1" s="405"/>
-      <c r="I1" s="405"/>
-      <c r="J1" s="404" t="s">
+      <c r="G1" s="413"/>
+      <c r="H1" s="413"/>
+      <c r="I1" s="413"/>
+      <c r="J1" s="412" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="405"/>
-      <c r="L1" s="405"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="404" t="s">
+      <c r="K1" s="413"/>
+      <c r="L1" s="413"/>
+      <c r="M1" s="414"/>
+      <c r="N1" s="412" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="405"/>
-      <c r="P1" s="405"/>
-      <c r="Q1" s="406"/>
-      <c r="R1" s="407" t="s">
+      <c r="O1" s="413"/>
+      <c r="P1" s="413"/>
+      <c r="Q1" s="414"/>
+      <c r="R1" s="416" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="408"/>
-      <c r="T1" s="408"/>
+      <c r="S1" s="417"/>
+      <c r="T1" s="417"/>
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="174"/>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="412" t="s">
         <v>534</v>
       </c>
-      <c r="C2" s="405"/>
-      <c r="D2" s="405"/>
-      <c r="E2" s="406"/>
-      <c r="F2" s="404" t="s">
+      <c r="C2" s="413"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="412" t="s">
         <v>535</v>
       </c>
-      <c r="G2" s="405"/>
-      <c r="H2" s="405"/>
-      <c r="I2" s="406"/>
-      <c r="J2" s="404" t="s">
+      <c r="G2" s="413"/>
+      <c r="H2" s="413"/>
+      <c r="I2" s="414"/>
+      <c r="J2" s="412" t="s">
         <v>678</v>
       </c>
-      <c r="K2" s="405"/>
-      <c r="L2" s="405"/>
-      <c r="M2" s="406"/>
+      <c r="K2" s="413"/>
+      <c r="L2" s="413"/>
+      <c r="M2" s="414"/>
       <c r="N2" s="39"/>
       <c r="O2" s="178"/>
       <c r="P2" s="178"/>
@@ -21303,12 +21303,12 @@
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="29"/>
-      <c r="R4" s="401" t="s">
+      <c r="R4" s="406" t="s">
         <v>236</v>
       </c>
-      <c r="S4" s="410"/>
-      <c r="T4" s="410"/>
-      <c r="U4" s="411"/>
+      <c r="S4" s="407"/>
+      <c r="T4" s="407"/>
+      <c r="U4" s="408"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="174" t="s">
@@ -21331,12 +21331,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="412" t="s">
+      <c r="R5" s="409" t="s">
         <v>756</v>
       </c>
-      <c r="S5" s="413"/>
-      <c r="T5" s="413"/>
-      <c r="U5" s="414"/>
+      <c r="S5" s="410"/>
+      <c r="T5" s="410"/>
+      <c r="U5" s="411"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="174" t="s">
@@ -23006,11 +23006,11 @@
       <c r="K93" s="172"/>
       <c r="L93" s="182"/>
       <c r="M93" s="182"/>
-      <c r="R93" s="407" t="s">
+      <c r="R93" s="416" t="s">
         <v>213</v>
       </c>
-      <c r="S93" s="408"/>
-      <c r="T93" s="408"/>
+      <c r="S93" s="417"/>
+      <c r="T93" s="417"/>
       <c r="U93" s="37"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -23099,12 +23099,12 @@
       <c r="K96" s="61"/>
       <c r="L96" s="61"/>
       <c r="M96" s="62"/>
-      <c r="R96" s="401" t="s">
+      <c r="R96" s="406" t="s">
         <v>51</v>
       </c>
-      <c r="S96" s="402"/>
-      <c r="T96" s="402"/>
-      <c r="U96" s="403"/>
+      <c r="S96" s="418"/>
+      <c r="T96" s="418"/>
+      <c r="U96" s="419"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="174" t="s">
@@ -23126,12 +23126,12 @@
       <c r="K97" s="61"/>
       <c r="L97" s="61"/>
       <c r="M97" s="62"/>
-      <c r="R97" s="407" t="s">
+      <c r="R97" s="416" t="s">
         <v>756</v>
       </c>
-      <c r="S97" s="408"/>
-      <c r="T97" s="408"/>
-      <c r="U97" s="409"/>
+      <c r="S97" s="417"/>
+      <c r="T97" s="417"/>
+      <c r="U97" s="420"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="174" t="s">
@@ -23183,11 +23183,11 @@
       <c r="K100" s="61"/>
       <c r="L100" s="61"/>
       <c r="M100" s="62"/>
-      <c r="R100" s="407" t="s">
+      <c r="R100" s="416" t="s">
         <v>757</v>
       </c>
-      <c r="S100" s="408"/>
-      <c r="T100" s="408"/>
+      <c r="S100" s="417"/>
+      <c r="T100" s="417"/>
       <c r="U100" s="37"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -23283,12 +23283,12 @@
       <c r="M103" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="R103" s="401" t="s">
+      <c r="R103" s="406" t="s">
         <v>236</v>
       </c>
-      <c r="S103" s="402"/>
-      <c r="T103" s="402"/>
-      <c r="U103" s="403"/>
+      <c r="S103" s="418"/>
+      <c r="T103" s="418"/>
+      <c r="U103" s="419"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="174" t="s">
@@ -23305,12 +23305,12 @@
       <c r="L104" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="R104" s="407" t="s">
+      <c r="R104" s="416" t="s">
         <v>756</v>
       </c>
-      <c r="S104" s="408"/>
-      <c r="T104" s="408"/>
-      <c r="U104" s="409"/>
+      <c r="S104" s="417"/>
+      <c r="T104" s="417"/>
+      <c r="U104" s="420"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="174" t="s">
@@ -23660,12 +23660,12 @@
       <c r="L124" s="29" t="s">
         <v>661</v>
       </c>
-      <c r="R124" s="407" t="s">
+      <c r="R124" s="416" t="s">
         <v>768</v>
       </c>
-      <c r="S124" s="408"/>
-      <c r="T124" s="408"/>
-      <c r="U124" s="409"/>
+      <c r="S124" s="417"/>
+      <c r="T124" s="417"/>
+      <c r="U124" s="420"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="174" t="s">
@@ -23741,23 +23741,23 @@
       <c r="G127" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="R127" s="401" t="s">
+      <c r="R127" s="406" t="s">
         <v>760</v>
       </c>
-      <c r="S127" s="402"/>
-      <c r="T127" s="402"/>
-      <c r="U127" s="403"/>
+      <c r="S127" s="418"/>
+      <c r="T127" s="418"/>
+      <c r="U127" s="419"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="174" t="s">
         <v>769</v>
       </c>
-      <c r="R128" s="404" t="s">
+      <c r="R128" s="412" t="s">
         <v>756</v>
       </c>
-      <c r="S128" s="405"/>
-      <c r="T128" s="405"/>
-      <c r="U128" s="406"/>
+      <c r="S128" s="413"/>
+      <c r="T128" s="413"/>
+      <c r="U128" s="414"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="174" t="s">
@@ -23812,12 +23812,12 @@
       <c r="F135" s="60" t="s">
         <v>737</v>
       </c>
-      <c r="R135" s="407" t="s">
+      <c r="R135" s="416" t="s">
         <v>788</v>
       </c>
-      <c r="S135" s="408"/>
-      <c r="T135" s="408"/>
-      <c r="U135" s="409"/>
+      <c r="S135" s="417"/>
+      <c r="T135" s="417"/>
+      <c r="U135" s="420"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="174" t="s">
@@ -23869,23 +23869,23 @@
       <c r="A138" s="174" t="s">
         <v>745</v>
       </c>
-      <c r="R138" s="401" t="s">
+      <c r="R138" s="406" t="s">
         <v>760</v>
       </c>
-      <c r="S138" s="402"/>
-      <c r="T138" s="402"/>
-      <c r="U138" s="403"/>
+      <c r="S138" s="418"/>
+      <c r="T138" s="418"/>
+      <c r="U138" s="419"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="174" t="s">
         <v>746</v>
       </c>
-      <c r="R139" s="404" t="s">
+      <c r="R139" s="412" t="s">
         <v>799</v>
       </c>
-      <c r="S139" s="405"/>
-      <c r="T139" s="405"/>
-      <c r="U139" s="406"/>
+      <c r="S139" s="413"/>
+      <c r="T139" s="413"/>
+      <c r="U139" s="414"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="174" t="s">
@@ -23934,12 +23934,12 @@
       <c r="F145" s="56" t="s">
         <v>730</v>
       </c>
-      <c r="R145" s="407" t="s">
+      <c r="R145" s="416" t="s">
         <v>798</v>
       </c>
-      <c r="S145" s="408"/>
-      <c r="T145" s="408"/>
-      <c r="U145" s="409"/>
+      <c r="S145" s="417"/>
+      <c r="T145" s="417"/>
+      <c r="U145" s="420"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="174" t="s">
@@ -23991,12 +23991,12 @@
       <c r="A148" s="174" t="s">
         <v>770</v>
       </c>
-      <c r="R148" s="401" t="s">
+      <c r="R148" s="406" t="s">
         <v>760</v>
       </c>
-      <c r="S148" s="402"/>
-      <c r="T148" s="402"/>
-      <c r="U148" s="403"/>
+      <c r="S148" s="418"/>
+      <c r="T148" s="418"/>
+      <c r="U148" s="419"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="174" t="s">
@@ -24006,12 +24006,12 @@
       <c r="Q149" s="56" t="s">
         <v>761</v>
       </c>
-      <c r="R149" s="404" t="s">
+      <c r="R149" s="412" t="s">
         <v>799</v>
       </c>
-      <c r="S149" s="405"/>
-      <c r="T149" s="405"/>
-      <c r="U149" s="406"/>
+      <c r="S149" s="413"/>
+      <c r="T149" s="413"/>
+      <c r="U149" s="414"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="174" t="s">
@@ -24120,6 +24120,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="R127:U127"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="B1:E1"/>
@@ -24130,21 +24145,6 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24175,30 +24175,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18"/>
-      <c r="B1" s="404" t="s">
+      <c r="B1" s="412" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="405"/>
-      <c r="D1" s="405"/>
-      <c r="E1" s="406"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="414"/>
       <c r="F1" s="415" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="405"/>
-      <c r="H1" s="405"/>
-      <c r="I1" s="405"/>
-      <c r="J1" s="404" t="s">
+      <c r="G1" s="413"/>
+      <c r="H1" s="413"/>
+      <c r="I1" s="413"/>
+      <c r="J1" s="412" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="405"/>
-      <c r="L1" s="405"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="404" t="s">
+      <c r="K1" s="413"/>
+      <c r="L1" s="413"/>
+      <c r="M1" s="414"/>
+      <c r="N1" s="412" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="405"/>
-      <c r="P1" s="405"/>
-      <c r="Q1" s="406"/>
+      <c r="O1" s="413"/>
+      <c r="P1" s="413"/>
+      <c r="Q1" s="414"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -24285,12 +24285,12 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="407" t="s">
+      <c r="R3" s="416" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="408"/>
-      <c r="T3" s="408"/>
-      <c r="U3" s="409"/>
+      <c r="S3" s="417"/>
+      <c r="T3" s="417"/>
+      <c r="U3" s="420"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
@@ -24343,12 +24343,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="412" t="s">
+      <c r="R5" s="409" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="413"/>
-      <c r="T5" s="413"/>
-      <c r="U5" s="414"/>
+      <c r="S5" s="410"/>
+      <c r="T5" s="410"/>
+      <c r="U5" s="411"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
@@ -24370,12 +24370,12 @@
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="29"/>
-      <c r="R6" s="412" t="s">
+      <c r="R6" s="409" t="s">
         <v>216</v>
       </c>
-      <c r="S6" s="413"/>
-      <c r="T6" s="413"/>
-      <c r="U6" s="414"/>
+      <c r="S6" s="410"/>
+      <c r="T6" s="410"/>
+      <c r="U6" s="411"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="34" t="s">
@@ -25614,18 +25614,18 @@
       <c r="AB1" s="234"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B2" s="400" t="s">
+      <c r="B2" s="405" t="s">
         <v>585</v>
       </c>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="405"/>
+      <c r="E2" s="405"/>
+      <c r="F2" s="405"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="405"/>
+      <c r="K2" s="405"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B3" s="18" t="s">
@@ -26008,15 +26008,15 @@
       <c r="O18" s="18">
         <v>1</v>
       </c>
-      <c r="V18" s="400" t="s">
+      <c r="V18" s="405" t="s">
         <v>935</v>
       </c>
-      <c r="W18" s="400"/>
-      <c r="X18" s="400"/>
-      <c r="Y18" s="400"/>
-      <c r="Z18" s="400"/>
-      <c r="AA18" s="400"/>
-      <c r="AB18" s="400"/>
+      <c r="W18" s="405"/>
+      <c r="X18" s="405"/>
+      <c r="Y18" s="405"/>
+      <c r="Z18" s="405"/>
+      <c r="AA18" s="405"/>
+      <c r="AB18" s="405"/>
       <c r="AC18" s="156"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.4">
@@ -28025,18 +28025,18 @@
       <c r="A89" s="243" t="s">
         <v>895</v>
       </c>
-      <c r="B89" s="407" t="s">
+      <c r="B89" s="416" t="s">
         <v>896</v>
       </c>
-      <c r="C89" s="408"/>
-      <c r="D89" s="408"/>
-      <c r="E89" s="409"/>
-      <c r="G89" s="416" t="s">
+      <c r="C89" s="417"/>
+      <c r="D89" s="417"/>
+      <c r="E89" s="420"/>
+      <c r="G89" s="421" t="s">
         <v>897</v>
       </c>
-      <c r="H89" s="417"/>
-      <c r="I89" s="417"/>
-      <c r="J89" s="418"/>
+      <c r="H89" s="422"/>
+      <c r="I89" s="422"/>
+      <c r="J89" s="423"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B90" s="28" t="s">
@@ -30736,11 +30736,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D1" s="407" t="s">
+      <c r="D1" s="416" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
+      <c r="E1" s="417"/>
+      <c r="F1" s="417"/>
       <c r="G1" s="37"/>
       <c r="H1" s="45"/>
       <c r="I1" s="65"/>
@@ -30782,12 +30782,12 @@
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="D3" s="412" t="s">
+      <c r="D3" s="409" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="413"/>
-      <c r="F3" s="413"/>
-      <c r="G3" s="414"/>
+      <c r="E3" s="410"/>
+      <c r="F3" s="410"/>
+      <c r="G3" s="411"/>
       <c r="H3" s="81"/>
       <c r="I3" s="82"/>
       <c r="J3" s="82"/>
@@ -30796,12 +30796,12 @@
     </row>
     <row r="5" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="412" t="s">
         <v>534</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="406"/>
+      <c r="E6" s="413"/>
+      <c r="F6" s="413"/>
+      <c r="G6" s="414"/>
       <c r="H6" s="83"/>
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
@@ -30810,27 +30810,27 @@
       <c r="M6" s="67"/>
       <c r="N6" s="67"/>
       <c r="O6" s="67"/>
-      <c r="P6" s="404" t="s">
+      <c r="P6" s="412" t="s">
         <v>535</v>
       </c>
-      <c r="Q6" s="405"/>
-      <c r="R6" s="405"/>
-      <c r="S6" s="406"/>
-      <c r="AF6" s="404" t="s">
+      <c r="Q6" s="413"/>
+      <c r="R6" s="413"/>
+      <c r="S6" s="414"/>
+      <c r="AF6" s="412" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="405"/>
-      <c r="AH6" s="405"/>
-      <c r="AI6" s="406"/>
+      <c r="AG6" s="413"/>
+      <c r="AH6" s="413"/>
+      <c r="AI6" s="414"/>
       <c r="AJ6" s="112"/>
-      <c r="AK6" s="404" t="s">
+      <c r="AK6" s="412" t="s">
         <v>533</v>
       </c>
-      <c r="AL6" s="405"/>
-      <c r="AM6" s="405"/>
-      <c r="AN6" s="405"/>
-      <c r="AO6" s="405"/>
-      <c r="AP6" s="406"/>
+      <c r="AL6" s="413"/>
+      <c r="AM6" s="413"/>
+      <c r="AN6" s="413"/>
+      <c r="AO6" s="413"/>
+      <c r="AP6" s="414"/>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D7" s="39" t="s">
@@ -30908,11 +30908,11 @@
       <c r="J8" s="67"/>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
-      <c r="M8" s="420" t="s">
+      <c r="M8" s="424" t="s">
         <v>459</v>
       </c>
-      <c r="N8" s="420"/>
-      <c r="O8" s="420"/>
+      <c r="N8" s="424"/>
+      <c r="O8" s="424"/>
       <c r="T8" s="112"/>
       <c r="U8" s="114"/>
       <c r="V8" s="112"/>
@@ -30929,12 +30929,12 @@
       <c r="AL8" s="113"/>
       <c r="AM8" s="113"/>
       <c r="AN8" s="113"/>
-      <c r="AQ8" s="412" t="s">
+      <c r="AQ8" s="409" t="s">
         <v>17</v>
       </c>
-      <c r="AR8" s="413"/>
-      <c r="AS8" s="413"/>
-      <c r="AT8" s="414"/>
+      <c r="AR8" s="410"/>
+      <c r="AS8" s="410"/>
+      <c r="AT8" s="411"/>
     </row>
     <row r="9" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D9" s="238"/>
@@ -30946,11 +30946,11 @@
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
       <c r="L9" s="82"/>
-      <c r="M9" s="422" t="s">
+      <c r="M9" s="426" t="s">
         <v>460</v>
       </c>
-      <c r="N9" s="422"/>
-      <c r="O9" s="421"/>
+      <c r="N9" s="426"/>
+      <c r="O9" s="425"/>
       <c r="T9" s="112"/>
       <c r="U9" s="114"/>
       <c r="V9" s="112"/>
@@ -30988,9 +30988,9 @@
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
       <c r="L10" s="82"/>
-      <c r="M10" s="419"/>
-      <c r="N10" s="419"/>
-      <c r="O10" s="419"/>
+      <c r="M10" s="427"/>
+      <c r="N10" s="427"/>
+      <c r="O10" s="427"/>
       <c r="T10" s="126"/>
       <c r="U10" s="119"/>
       <c r="V10" s="126"/>
@@ -31011,12 +31011,12 @@
       <c r="AL10" s="113"/>
       <c r="AM10" s="113"/>
       <c r="AN10" s="113"/>
-      <c r="AQ10" s="412" t="s">
+      <c r="AQ10" s="409" t="s">
         <v>51</v>
       </c>
-      <c r="AR10" s="413"/>
-      <c r="AS10" s="413"/>
-      <c r="AT10" s="414"/>
+      <c r="AR10" s="410"/>
+      <c r="AS10" s="410"/>
+      <c r="AT10" s="411"/>
     </row>
     <row r="11" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="238"/>
@@ -31048,12 +31048,12 @@
       <c r="AL11" s="113"/>
       <c r="AM11" s="113"/>
       <c r="AN11" s="113"/>
-      <c r="AQ11" s="412" t="s">
+      <c r="AQ11" s="409" t="s">
         <v>532</v>
       </c>
-      <c r="AR11" s="413"/>
-      <c r="AS11" s="413"/>
-      <c r="AT11" s="414"/>
+      <c r="AR11" s="410"/>
+      <c r="AS11" s="410"/>
+      <c r="AT11" s="411"/>
       <c r="AU11" s="23" t="s">
         <v>217</v>
       </c>
@@ -31079,11 +31079,11 @@
       <c r="J12" s="67"/>
       <c r="K12" s="67"/>
       <c r="L12" s="67"/>
-      <c r="M12" s="423" t="s">
+      <c r="M12" s="428" t="s">
         <v>458</v>
       </c>
-      <c r="N12" s="423"/>
-      <c r="O12" s="423"/>
+      <c r="N12" s="428"/>
+      <c r="O12" s="428"/>
       <c r="AF12" s="85"/>
       <c r="AG12" s="86"/>
       <c r="AH12" s="86"/>
@@ -31093,12 +31093,12 @@
       <c r="AL12" s="113"/>
       <c r="AM12" s="113"/>
       <c r="AN12" s="113"/>
-      <c r="AQ12" s="412" t="s">
+      <c r="AQ12" s="409" t="s">
         <v>457</v>
       </c>
-      <c r="AR12" s="413"/>
-      <c r="AS12" s="413"/>
-      <c r="AT12" s="414"/>
+      <c r="AR12" s="410"/>
+      <c r="AS12" s="410"/>
+      <c r="AT12" s="411"/>
       <c r="AV12" s="18" t="s">
         <v>528</v>
       </c>
@@ -31114,12 +31114,12 @@
         <v>454</v>
       </c>
       <c r="C13" s="91"/>
-      <c r="D13" s="404" t="s">
+      <c r="D13" s="412" t="s">
         <v>461</v>
       </c>
-      <c r="E13" s="405"/>
-      <c r="F13" s="405"/>
-      <c r="G13" s="406"/>
+      <c r="E13" s="413"/>
+      <c r="F13" s="413"/>
+      <c r="G13" s="414"/>
       <c r="H13" s="125" t="s">
         <v>546</v>
       </c>
@@ -31142,11 +31142,11 @@
       <c r="O13" s="137" t="s">
         <v>550</v>
       </c>
-      <c r="P13" s="404" t="s">
+      <c r="P13" s="412" t="s">
         <v>971</v>
       </c>
-      <c r="Q13" s="405"/>
-      <c r="R13" s="405"/>
+      <c r="Q13" s="413"/>
+      <c r="R13" s="413"/>
       <c r="S13" s="388"/>
       <c r="T13" s="127" t="s">
         <v>571</v>
@@ -31182,18 +31182,18 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="112"/>
-      <c r="AK13" s="412" t="s">
+      <c r="AK13" s="409" t="s">
         <v>461</v>
       </c>
-      <c r="AL13" s="413"/>
-      <c r="AM13" s="413"/>
-      <c r="AN13" s="413"/>
-      <c r="AQ13" s="412" t="s">
+      <c r="AL13" s="410"/>
+      <c r="AM13" s="410"/>
+      <c r="AN13" s="410"/>
+      <c r="AQ13" s="409" t="s">
         <v>525</v>
       </c>
-      <c r="AR13" s="400"/>
-      <c r="AS13" s="400"/>
-      <c r="AT13" s="400"/>
+      <c r="AR13" s="405"/>
+      <c r="AS13" s="405"/>
+      <c r="AT13" s="405"/>
       <c r="AV13" s="18" t="s">
         <v>529</v>
       </c>
@@ -31880,8 +31880,8 @@
       </c>
       <c r="AO30" s="117"/>
       <c r="AP30" s="119"/>
-      <c r="AR30" s="421"/>
-      <c r="AS30" s="421"/>
+      <c r="AR30" s="425"/>
+      <c r="AS30" s="425"/>
     </row>
     <row r="31" spans="1:52" s="23" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="153" t="s">
@@ -32129,7 +32129,7 @@
       <c r="M36" s="136"/>
       <c r="N36" s="136"/>
       <c r="O36" s="123"/>
-      <c r="P36" s="442" t="s">
+      <c r="P36" s="400" t="s">
         <v>800</v>
       </c>
       <c r="T36" s="129"/>
@@ -32177,10 +32177,10 @@
         <v>889</v>
       </c>
       <c r="O37" s="139"/>
-      <c r="P37" s="442" t="s">
+      <c r="P37" s="400" t="s">
         <v>801</v>
       </c>
-      <c r="Q37" s="442" t="s">
+      <c r="Q37" s="400" t="s">
         <v>802</v>
       </c>
       <c r="T37" s="132"/>
@@ -32226,13 +32226,13 @@
       <c r="M38" s="134"/>
       <c r="N38" s="134"/>
       <c r="O38" s="139"/>
-      <c r="P38" s="442" t="s">
+      <c r="P38" s="400" t="s">
         <v>803</v>
       </c>
-      <c r="Q38" s="442" t="s">
+      <c r="Q38" s="400" t="s">
         <v>804</v>
       </c>
-      <c r="R38" s="443" t="s">
+      <c r="R38" s="401" t="s">
         <v>568</v>
       </c>
       <c r="T38" s="129" t="s">
@@ -32277,10 +32277,10 @@
       </c>
       <c r="O39" s="139"/>
       <c r="P39" s="386"/>
-      <c r="Q39" s="444" t="s">
+      <c r="Q39" s="402" t="s">
         <v>805</v>
       </c>
-      <c r="R39" s="445" t="s">
+      <c r="R39" s="403" t="s">
         <v>569</v>
       </c>
       <c r="T39" s="132"/>
@@ -32317,7 +32317,7 @@
       <c r="N40" s="134"/>
       <c r="O40" s="139"/>
       <c r="P40" s="386"/>
-      <c r="R40" s="444" t="s">
+      <c r="R40" s="402" t="s">
         <v>570</v>
       </c>
       <c r="S40" s="386"/>
@@ -32336,8 +32336,8 @@
         <v>85</v>
       </c>
       <c r="AO40" s="117"/>
-      <c r="AR40" s="419"/>
-      <c r="AS40" s="419"/>
+      <c r="AR40" s="427"/>
+      <c r="AS40" s="427"/>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A41" s="110" t="s">
@@ -32568,8 +32568,8 @@
         <v>548</v>
       </c>
       <c r="AP46" s="119"/>
-      <c r="AR46" s="419"/>
-      <c r="AS46" s="419"/>
+      <c r="AR46" s="427"/>
+      <c r="AS46" s="427"/>
     </row>
     <row r="47" spans="1:45" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="110" t="s">
@@ -32648,12 +32648,12 @@
         <v>456</v>
       </c>
       <c r="C48" s="135"/>
-      <c r="D48" s="404" t="s">
+      <c r="D48" s="412" t="s">
         <v>461</v>
       </c>
-      <c r="E48" s="405"/>
-      <c r="F48" s="405"/>
-      <c r="G48" s="406"/>
+      <c r="E48" s="413"/>
+      <c r="F48" s="413"/>
+      <c r="G48" s="414"/>
       <c r="H48" s="172"/>
       <c r="I48" s="172"/>
       <c r="J48" s="172"/>
@@ -32662,11 +32662,11 @@
       <c r="M48" s="249"/>
       <c r="N48" s="249"/>
       <c r="O48" s="249"/>
-      <c r="P48" s="404" t="s">
+      <c r="P48" s="412" t="s">
         <v>462</v>
       </c>
-      <c r="Q48" s="405"/>
-      <c r="R48" s="405"/>
+      <c r="Q48" s="413"/>
+      <c r="R48" s="413"/>
       <c r="S48" s="388"/>
       <c r="Z48" s="142" t="s">
         <v>547</v>
@@ -32919,7 +32919,7 @@
       <c r="M54" s="124"/>
       <c r="N54" s="95"/>
       <c r="O54" s="95"/>
-      <c r="P54" s="446" t="s">
+      <c r="P54" s="404" t="s">
         <v>800</v>
       </c>
       <c r="V54" s="129"/>
@@ -32967,10 +32967,10 @@
       </c>
       <c r="N55" s="103"/>
       <c r="O55" s="103"/>
-      <c r="P55" s="446" t="s">
+      <c r="P55" s="404" t="s">
         <v>801</v>
       </c>
-      <c r="Q55" s="442" t="s">
+      <c r="Q55" s="400" t="s">
         <v>802</v>
       </c>
       <c r="AA55" s="132"/>
@@ -33014,13 +33014,13 @@
       </c>
       <c r="N56" s="103"/>
       <c r="O56" s="103"/>
-      <c r="P56" s="446" t="s">
+      <c r="P56" s="404" t="s">
         <v>803</v>
       </c>
-      <c r="Q56" s="442" t="s">
+      <c r="Q56" s="400" t="s">
         <v>804</v>
       </c>
-      <c r="R56" s="443" t="s">
+      <c r="R56" s="401" t="s">
         <v>568</v>
       </c>
       <c r="AA56" s="147"/>
@@ -33063,10 +33063,10 @@
       </c>
       <c r="N57" s="103"/>
       <c r="O57" s="103"/>
-      <c r="Q57" s="442" t="s">
+      <c r="Q57" s="400" t="s">
         <v>805</v>
       </c>
-      <c r="R57" s="443" t="s">
+      <c r="R57" s="401" t="s">
         <v>569</v>
       </c>
       <c r="AA57" s="147"/>
@@ -33113,7 +33113,7 @@
       <c r="M58" s="101"/>
       <c r="N58" s="103"/>
       <c r="O58" s="103"/>
-      <c r="R58" s="443" t="s">
+      <c r="R58" s="401" t="s">
         <v>570</v>
       </c>
       <c r="AA58" s="147"/>
@@ -33190,7 +33190,7 @@
       <c r="M60" s="124"/>
       <c r="N60" s="103"/>
       <c r="O60" s="103"/>
-      <c r="P60" s="446" t="s">
+      <c r="P60" s="404" t="s">
         <v>800</v>
       </c>
       <c r="AA60" s="147"/>
@@ -33242,10 +33242,10 @@
       </c>
       <c r="N61" s="103"/>
       <c r="O61" s="103"/>
-      <c r="P61" s="446" t="s">
+      <c r="P61" s="404" t="s">
         <v>801</v>
       </c>
-      <c r="Q61" s="442" t="s">
+      <c r="Q61" s="400" t="s">
         <v>802</v>
       </c>
       <c r="AA61" s="126"/>
@@ -33298,13 +33298,13 @@
       </c>
       <c r="N62" s="103"/>
       <c r="O62" s="103"/>
-      <c r="P62" s="446" t="s">
+      <c r="P62" s="404" t="s">
         <v>803</v>
       </c>
-      <c r="Q62" s="442" t="s">
+      <c r="Q62" s="400" t="s">
         <v>804</v>
       </c>
-      <c r="R62" s="443" t="s">
+      <c r="R62" s="401" t="s">
         <v>568</v>
       </c>
       <c r="AA62" s="126"/>
@@ -33359,10 +33359,10 @@
       </c>
       <c r="N63" s="103"/>
       <c r="O63" s="103"/>
-      <c r="Q63" s="442" t="s">
+      <c r="Q63" s="400" t="s">
         <v>805</v>
       </c>
-      <c r="R63" s="443" t="s">
+      <c r="R63" s="401" t="s">
         <v>569</v>
       </c>
       <c r="AA63" s="146"/>
@@ -33421,7 +33421,7 @@
       <c r="M64" s="101"/>
       <c r="N64" s="103"/>
       <c r="O64" s="103"/>
-      <c r="R64" s="443" t="s">
+      <c r="R64" s="401" t="s">
         <v>570</v>
       </c>
       <c r="AA64" s="146"/>
@@ -33524,7 +33524,7 @@
       <c r="M66" s="124"/>
       <c r="N66" s="104"/>
       <c r="O66" s="104"/>
-      <c r="P66" s="446" t="s">
+      <c r="P66" s="404" t="s">
         <v>800</v>
       </c>
       <c r="AA66" s="146"/>
@@ -33572,10 +33572,10 @@
       <c r="G67" s="62"/>
       <c r="H67" s="58"/>
       <c r="O67" s="82"/>
-      <c r="P67" s="446" t="s">
+      <c r="P67" s="404" t="s">
         <v>801</v>
       </c>
-      <c r="Q67" s="442" t="s">
+      <c r="Q67" s="400" t="s">
         <v>802</v>
       </c>
       <c r="AA67" s="146"/>
@@ -33624,13 +33624,13 @@
       <c r="F68" s="61"/>
       <c r="G68" s="62"/>
       <c r="O68" s="82"/>
-      <c r="P68" s="446" t="s">
+      <c r="P68" s="404" t="s">
         <v>803</v>
       </c>
-      <c r="Q68" s="442" t="s">
+      <c r="Q68" s="400" t="s">
         <v>804</v>
       </c>
-      <c r="R68" s="443" t="s">
+      <c r="R68" s="401" t="s">
         <v>568</v>
       </c>
       <c r="AC68" s="95" t="s">
@@ -33678,10 +33678,10 @@
       <c r="G69" s="62"/>
       <c r="L69" s="18"/>
       <c r="O69" s="82"/>
-      <c r="Q69" s="442" t="s">
+      <c r="Q69" s="400" t="s">
         <v>805</v>
       </c>
-      <c r="R69" s="443" t="s">
+      <c r="R69" s="401" t="s">
         <v>569</v>
       </c>
       <c r="AB69" s="95" t="s">
@@ -33724,7 +33724,7 @@
       <c r="M70" s="84"/>
       <c r="N70" s="111"/>
       <c r="O70" s="18"/>
-      <c r="R70" s="443" t="s">
+      <c r="R70" s="401" t="s">
         <v>570</v>
       </c>
       <c r="AC70" s="95" t="s">
@@ -33982,6 +33982,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="AR46:AS46"/>
+    <mergeCell ref="AF6:AI6"/>
+    <mergeCell ref="AR40:AS40"/>
+    <mergeCell ref="AQ11:AT11"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="D6:G6"/>
@@ -33998,13 +34005,6 @@
     <mergeCell ref="AK13:AN13"/>
     <mergeCell ref="AQ10:AT10"/>
     <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="AR46:AS46"/>
-    <mergeCell ref="AF6:AI6"/>
-    <mergeCell ref="AR40:AS40"/>
-    <mergeCell ref="AQ11:AT11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34062,17 +34062,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="B1" s="407" t="s">
+      <c r="B1" s="416" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
+      <c r="C1" s="417"/>
+      <c r="D1" s="417"/>
       <c r="E1" s="37"/>
-      <c r="F1" s="407" t="s">
+      <c r="F1" s="416" t="s">
         <v>833</v>
       </c>
-      <c r="G1" s="408"/>
-      <c r="H1" s="408"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.4">
@@ -34115,61 +34115,61 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="401" t="s">
+      <c r="B4" s="406" t="s">
         <v>832</v>
       </c>
-      <c r="C4" s="410"/>
-      <c r="D4" s="410"/>
-      <c r="E4" s="411"/>
-      <c r="F4" s="401" t="s">
+      <c r="C4" s="407"/>
+      <c r="D4" s="407"/>
+      <c r="E4" s="408"/>
+      <c r="F4" s="406" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="410"/>
-      <c r="H4" s="410"/>
-      <c r="I4" s="411"/>
+      <c r="G4" s="407"/>
+      <c r="H4" s="407"/>
+      <c r="I4" s="408"/>
     </row>
     <row r="5" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="412" t="s">
+      <c r="B5" s="409" t="s">
         <v>756</v>
       </c>
-      <c r="C5" s="413"/>
-      <c r="D5" s="413"/>
-      <c r="E5" s="414"/>
-      <c r="F5" s="412" t="s">
+      <c r="C5" s="410"/>
+      <c r="D5" s="410"/>
+      <c r="E5" s="411"/>
+      <c r="F5" s="409" t="s">
         <v>756</v>
       </c>
-      <c r="G5" s="413"/>
-      <c r="H5" s="413"/>
-      <c r="I5" s="414"/>
+      <c r="G5" s="410"/>
+      <c r="H5" s="410"/>
+      <c r="I5" s="411"/>
     </row>
     <row r="6" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="404" t="s">
+      <c r="B6" s="412" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="405"/>
-      <c r="D6" s="405"/>
-      <c r="E6" s="406"/>
+      <c r="C6" s="413"/>
+      <c r="D6" s="413"/>
+      <c r="E6" s="414"/>
       <c r="F6" s="415" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="405"/>
-      <c r="H6" s="405"/>
-      <c r="I6" s="405"/>
-      <c r="J6" s="404" t="s">
+      <c r="G6" s="413"/>
+      <c r="H6" s="413"/>
+      <c r="I6" s="413"/>
+      <c r="J6" s="412" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="405"/>
-      <c r="L6" s="405"/>
-      <c r="M6" s="406"/>
-      <c r="N6" s="404" t="s">
+      <c r="K6" s="413"/>
+      <c r="L6" s="413"/>
+      <c r="M6" s="414"/>
+      <c r="N6" s="412" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="406"/>
+      <c r="O6" s="413"/>
+      <c r="P6" s="413"/>
+      <c r="Q6" s="414"/>
       <c r="V6" s="41"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
@@ -34198,24 +34198,24 @@
     </row>
     <row r="7" spans="1:46" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="160"/>
-      <c r="B7" s="404" t="s">
+      <c r="B7" s="412" t="s">
         <v>534</v>
       </c>
-      <c r="C7" s="405"/>
-      <c r="D7" s="405"/>
-      <c r="E7" s="406"/>
-      <c r="F7" s="404" t="s">
+      <c r="C7" s="413"/>
+      <c r="D7" s="413"/>
+      <c r="E7" s="414"/>
+      <c r="F7" s="412" t="s">
         <v>535</v>
       </c>
-      <c r="G7" s="405"/>
-      <c r="H7" s="405"/>
-      <c r="I7" s="406"/>
-      <c r="J7" s="404" t="s">
+      <c r="G7" s="413"/>
+      <c r="H7" s="413"/>
+      <c r="I7" s="414"/>
+      <c r="J7" s="412" t="s">
         <v>678</v>
       </c>
-      <c r="K7" s="405"/>
-      <c r="L7" s="405"/>
-      <c r="M7" s="406"/>
+      <c r="K7" s="413"/>
+      <c r="L7" s="413"/>
+      <c r="M7" s="414"/>
       <c r="N7" s="157"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
@@ -37907,6 +37907,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B4:E4"/>
@@ -37915,11 +37920,6 @@
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37982,31 +37982,31 @@
       <c r="B1" s="212"/>
       <c r="C1" s="212"/>
       <c r="D1" s="300"/>
-      <c r="E1" s="407" t="s">
+      <c r="E1" s="416" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="408"/>
-      <c r="G1" s="408"/>
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
       <c r="H1" s="37"/>
       <c r="I1" s="92"/>
-      <c r="J1" s="407" t="s">
+      <c r="J1" s="416" t="s">
         <v>833</v>
       </c>
-      <c r="K1" s="408"/>
-      <c r="L1" s="408"/>
+      <c r="K1" s="417"/>
+      <c r="L1" s="417"/>
       <c r="M1" s="47"/>
       <c r="N1" s="271"/>
-      <c r="O1" s="407" t="s">
+      <c r="O1" s="416" t="s">
         <v>883</v>
       </c>
-      <c r="P1" s="408"/>
-      <c r="Q1" s="408"/>
+      <c r="P1" s="417"/>
+      <c r="Q1" s="417"/>
       <c r="R1" s="37"/>
-      <c r="S1" s="407" t="s">
+      <c r="S1" s="416" t="s">
         <v>886</v>
       </c>
-      <c r="T1" s="408"/>
-      <c r="U1" s="408"/>
+      <c r="T1" s="417"/>
+      <c r="U1" s="417"/>
       <c r="V1" s="47"/>
       <c r="W1" s="269"/>
       <c r="X1" s="232"/>
@@ -38015,11 +38015,11 @@
       <c r="AA1" s="263"/>
       <c r="AB1" s="263"/>
       <c r="AC1" s="263"/>
-      <c r="AD1" s="407" t="s">
+      <c r="AD1" s="416" t="s">
         <v>887</v>
       </c>
-      <c r="AE1" s="408"/>
-      <c r="AF1" s="408"/>
+      <c r="AE1" s="417"/>
+      <c r="AF1" s="417"/>
       <c r="AG1" s="37"/>
       <c r="AH1" s="322"/>
       <c r="AI1" s="42"/>
@@ -38123,72 +38123,72 @@
       </c>
     </row>
     <row r="4" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E4" s="401" t="s">
+      <c r="E4" s="406" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="410"/>
-      <c r="G4" s="410"/>
-      <c r="H4" s="411"/>
+      <c r="F4" s="407"/>
+      <c r="G4" s="407"/>
+      <c r="H4" s="408"/>
       <c r="I4" s="67"/>
-      <c r="J4" s="401" t="s">
+      <c r="J4" s="406" t="s">
         <v>236</v>
       </c>
-      <c r="K4" s="410"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="411"/>
+      <c r="K4" s="407"/>
+      <c r="L4" s="407"/>
+      <c r="M4" s="408"/>
       <c r="N4" s="199"/>
-      <c r="O4" s="401" t="s">
+      <c r="O4" s="406" t="s">
         <v>760</v>
       </c>
-      <c r="P4" s="410"/>
-      <c r="Q4" s="410"/>
-      <c r="R4" s="411"/>
-      <c r="S4" s="401" t="s">
+      <c r="P4" s="407"/>
+      <c r="Q4" s="407"/>
+      <c r="R4" s="408"/>
+      <c r="S4" s="406" t="s">
         <v>760</v>
       </c>
-      <c r="T4" s="410"/>
-      <c r="U4" s="410"/>
-      <c r="V4" s="411"/>
-      <c r="AD4" s="401" t="s">
+      <c r="T4" s="407"/>
+      <c r="U4" s="407"/>
+      <c r="V4" s="408"/>
+      <c r="AD4" s="406" t="s">
         <v>760</v>
       </c>
-      <c r="AE4" s="410"/>
-      <c r="AF4" s="410"/>
-      <c r="AG4" s="411"/>
+      <c r="AE4" s="407"/>
+      <c r="AF4" s="407"/>
+      <c r="AG4" s="408"/>
     </row>
     <row r="5" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E5" s="412" t="s">
+      <c r="E5" s="409" t="s">
         <v>756</v>
       </c>
-      <c r="F5" s="413"/>
-      <c r="G5" s="413"/>
-      <c r="H5" s="414"/>
+      <c r="F5" s="410"/>
+      <c r="G5" s="410"/>
+      <c r="H5" s="411"/>
       <c r="I5" s="264"/>
-      <c r="J5" s="412" t="s">
+      <c r="J5" s="409" t="s">
         <v>756</v>
       </c>
-      <c r="K5" s="413"/>
-      <c r="L5" s="413"/>
-      <c r="M5" s="414"/>
+      <c r="K5" s="410"/>
+      <c r="L5" s="410"/>
+      <c r="M5" s="411"/>
       <c r="N5" s="68"/>
-      <c r="O5" s="412" t="s">
+      <c r="O5" s="409" t="s">
         <v>756</v>
       </c>
-      <c r="P5" s="413"/>
-      <c r="Q5" s="413"/>
-      <c r="R5" s="414"/>
-      <c r="S5" s="412" t="s">
+      <c r="P5" s="410"/>
+      <c r="Q5" s="410"/>
+      <c r="R5" s="411"/>
+      <c r="S5" s="409" t="s">
         <v>799</v>
       </c>
-      <c r="T5" s="413"/>
-      <c r="U5" s="413"/>
-      <c r="V5" s="414"/>
-      <c r="AD5" s="412" t="s">
+      <c r="T5" s="410"/>
+      <c r="U5" s="410"/>
+      <c r="V5" s="411"/>
+      <c r="AD5" s="409" t="s">
         <v>799</v>
       </c>
-      <c r="AE5" s="413"/>
-      <c r="AF5" s="413"/>
-      <c r="AG5" s="414"/>
+      <c r="AE5" s="410"/>
+      <c r="AF5" s="410"/>
+      <c r="AG5" s="411"/>
     </row>
     <row r="6" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="160" t="s">
@@ -38197,12 +38197,12 @@
       <c r="B6" s="212"/>
       <c r="C6" s="212"/>
       <c r="D6" s="300"/>
-      <c r="E6" s="404" t="s">
+      <c r="E6" s="412" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="406"/>
+      <c r="F6" s="413"/>
+      <c r="G6" s="413"/>
+      <c r="H6" s="414"/>
       <c r="I6" s="263"/>
       <c r="J6" s="41"/>
       <c r="K6" s="42"/>
@@ -38212,9 +38212,9 @@
       <c r="O6" s="415" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="405"/>
-      <c r="R6" s="405"/>
+      <c r="P6" s="413"/>
+      <c r="Q6" s="413"/>
+      <c r="R6" s="413"/>
       <c r="S6" s="41"/>
       <c r="T6" s="42"/>
       <c r="U6" s="42"/>
@@ -38226,23 +38226,23 @@
       <c r="AA6" s="263"/>
       <c r="AB6" s="263"/>
       <c r="AC6" s="263"/>
-      <c r="AD6" s="404" t="s">
+      <c r="AD6" s="412" t="s">
         <v>927</v>
       </c>
-      <c r="AE6" s="405"/>
-      <c r="AF6" s="405"/>
-      <c r="AG6" s="406"/>
+      <c r="AE6" s="413"/>
+      <c r="AF6" s="413"/>
+      <c r="AG6" s="414"/>
       <c r="AH6" s="322"/>
       <c r="AI6" s="42"/>
       <c r="AJ6" s="42"/>
       <c r="AK6" s="42"/>
       <c r="AL6" s="43"/>
-      <c r="AM6" s="404" t="s">
+      <c r="AM6" s="412" t="s">
         <v>181</v>
       </c>
-      <c r="AN6" s="405"/>
-      <c r="AO6" s="405"/>
-      <c r="AP6" s="406"/>
+      <c r="AN6" s="413"/>
+      <c r="AO6" s="413"/>
+      <c r="AP6" s="414"/>
       <c r="AQ6" s="164"/>
       <c r="AR6" s="165"/>
       <c r="AS6" s="165"/>
@@ -38259,45 +38259,45 @@
       <c r="D7" s="291" t="s">
         <v>1019</v>
       </c>
-      <c r="E7" s="404" t="s">
+      <c r="E7" s="412" t="s">
         <v>534</v>
       </c>
-      <c r="F7" s="405"/>
-      <c r="G7" s="405"/>
-      <c r="H7" s="406"/>
+      <c r="F7" s="413"/>
+      <c r="G7" s="413"/>
+      <c r="H7" s="414"/>
       <c r="I7" s="106"/>
-      <c r="J7" s="404" t="s">
+      <c r="J7" s="412" t="s">
         <v>722</v>
       </c>
-      <c r="K7" s="405"/>
-      <c r="L7" s="405"/>
-      <c r="M7" s="406"/>
+      <c r="K7" s="413"/>
+      <c r="L7" s="413"/>
+      <c r="M7" s="414"/>
       <c r="N7" s="275"/>
-      <c r="O7" s="404" t="s">
+      <c r="O7" s="412" t="s">
         <v>535</v>
       </c>
-      <c r="P7" s="405"/>
-      <c r="Q7" s="405"/>
-      <c r="R7" s="406"/>
-      <c r="S7" s="404"/>
-      <c r="T7" s="405"/>
-      <c r="U7" s="405"/>
-      <c r="V7" s="406"/>
-      <c r="W7" s="426" t="s">
+      <c r="P7" s="413"/>
+      <c r="Q7" s="413"/>
+      <c r="R7" s="414"/>
+      <c r="S7" s="412"/>
+      <c r="T7" s="413"/>
+      <c r="U7" s="413"/>
+      <c r="V7" s="414"/>
+      <c r="W7" s="431" t="s">
         <v>928</v>
       </c>
-      <c r="X7" s="427"/>
-      <c r="Y7" s="427"/>
-      <c r="Z7" s="428"/>
+      <c r="X7" s="432"/>
+      <c r="Y7" s="432"/>
+      <c r="Z7" s="433"/>
       <c r="AA7" s="106"/>
       <c r="AB7" s="106"/>
       <c r="AC7" s="106"/>
-      <c r="AD7" s="404" t="s">
+      <c r="AD7" s="412" t="s">
         <v>885</v>
       </c>
-      <c r="AE7" s="405"/>
-      <c r="AF7" s="405"/>
-      <c r="AG7" s="406"/>
+      <c r="AE7" s="413"/>
+      <c r="AF7" s="413"/>
+      <c r="AG7" s="414"/>
       <c r="AH7" s="318"/>
       <c r="AI7" s="25"/>
       <c r="AJ7" s="25"/>
@@ -38307,12 +38307,12 @@
       <c r="AN7" s="167"/>
       <c r="AO7" s="167"/>
       <c r="AP7" s="168"/>
-      <c r="AQ7" s="404" t="s">
+      <c r="AQ7" s="412" t="s">
         <v>723</v>
       </c>
-      <c r="AR7" s="405"/>
-      <c r="AS7" s="405"/>
-      <c r="AT7" s="406"/>
+      <c r="AR7" s="413"/>
+      <c r="AS7" s="413"/>
+      <c r="AT7" s="414"/>
     </row>
     <row r="8" spans="1:47" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="160">
@@ -38658,12 +38658,12 @@
       <c r="I14" s="61" t="s">
         <v>937</v>
       </c>
-      <c r="J14" s="424" t="s">
+      <c r="J14" s="429" t="s">
         <v>882</v>
       </c>
-      <c r="K14" s="425"/>
-      <c r="L14" s="425"/>
-      <c r="M14" s="425"/>
+      <c r="K14" s="430"/>
+      <c r="L14" s="430"/>
+      <c r="M14" s="430"/>
       <c r="N14" s="122"/>
       <c r="O14" s="58" t="s">
         <v>1161</v>
@@ -38673,12 +38673,12 @@
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="18"/>
-      <c r="S14" s="424" t="s">
+      <c r="S14" s="429" t="s">
         <v>882</v>
       </c>
-      <c r="T14" s="425"/>
-      <c r="U14" s="425"/>
-      <c r="V14" s="425"/>
+      <c r="T14" s="430"/>
+      <c r="U14" s="430"/>
+      <c r="V14" s="430"/>
       <c r="AD14" s="133"/>
       <c r="AE14" s="61"/>
       <c r="AF14" s="9"/>
@@ -39005,12 +39005,12 @@
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="61"/>
-      <c r="J22" s="424" t="s">
+      <c r="J22" s="429" t="s">
         <v>882</v>
       </c>
-      <c r="K22" s="425"/>
-      <c r="L22" s="425"/>
-      <c r="M22" s="425"/>
+      <c r="K22" s="430"/>
+      <c r="L22" s="430"/>
+      <c r="M22" s="430"/>
       <c r="N22" s="122"/>
       <c r="P22" s="58" t="s">
         <v>197</v>
@@ -39021,12 +39021,12 @@
       <c r="R22" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="S22" s="424" t="s">
+      <c r="S22" s="429" t="s">
         <v>882</v>
       </c>
-      <c r="T22" s="425"/>
-      <c r="U22" s="425"/>
-      <c r="V22" s="425"/>
+      <c r="T22" s="430"/>
+      <c r="U22" s="430"/>
+      <c r="V22" s="430"/>
       <c r="Y22" s="29"/>
       <c r="Z22" s="29" t="s">
         <v>409</v>
@@ -39332,12 +39332,12 @@
         <v>492</v>
       </c>
       <c r="I30" s="61"/>
-      <c r="J30" s="424" t="s">
+      <c r="J30" s="429" t="s">
         <v>882</v>
       </c>
-      <c r="K30" s="425"/>
-      <c r="L30" s="425"/>
-      <c r="M30" s="425"/>
+      <c r="K30" s="430"/>
+      <c r="L30" s="430"/>
+      <c r="M30" s="430"/>
       <c r="N30" s="277"/>
       <c r="P30" s="58" t="s">
         <v>211</v>
@@ -39348,12 +39348,12 @@
       <c r="R30" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="S30" s="424" t="s">
+      <c r="S30" s="429" t="s">
         <v>882</v>
       </c>
-      <c r="T30" s="425"/>
-      <c r="U30" s="425"/>
-      <c r="V30" s="425"/>
+      <c r="T30" s="430"/>
+      <c r="U30" s="430"/>
+      <c r="V30" s="430"/>
       <c r="Y30" s="29"/>
       <c r="Z30" s="29" t="s">
         <v>648</v>
@@ -39641,12 +39641,12 @@
         <v>492</v>
       </c>
       <c r="I38" s="61"/>
-      <c r="J38" s="424" t="s">
+      <c r="J38" s="429" t="s">
         <v>882</v>
       </c>
-      <c r="K38" s="425"/>
-      <c r="L38" s="425"/>
-      <c r="M38" s="425"/>
+      <c r="K38" s="430"/>
+      <c r="L38" s="430"/>
+      <c r="M38" s="430"/>
       <c r="N38" s="277"/>
       <c r="O38" s="9"/>
       <c r="P38" s="58" t="s">
@@ -39654,12 +39654,12 @@
       </c>
       <c r="Q38" s="61"/>
       <c r="R38" s="61"/>
-      <c r="S38" s="424" t="s">
+      <c r="S38" s="429" t="s">
         <v>882</v>
       </c>
-      <c r="T38" s="425"/>
-      <c r="U38" s="425"/>
-      <c r="V38" s="425"/>
+      <c r="T38" s="430"/>
+      <c r="U38" s="430"/>
+      <c r="V38" s="430"/>
       <c r="Y38" s="29"/>
       <c r="Z38" s="29" t="s">
         <v>652</v>
@@ -39911,12 +39911,12 @@
       </c>
       <c r="H46" s="62"/>
       <c r="I46" s="61"/>
-      <c r="J46" s="424" t="s">
+      <c r="J46" s="429" t="s">
         <v>882</v>
       </c>
-      <c r="K46" s="425"/>
-      <c r="L46" s="425"/>
-      <c r="M46" s="425"/>
+      <c r="K46" s="430"/>
+      <c r="L46" s="430"/>
+      <c r="M46" s="430"/>
       <c r="O46" s="61"/>
       <c r="P46" s="53" t="s">
         <v>492</v>
@@ -40113,12 +40113,12 @@
       <c r="B58" s="215" t="s">
         <v>836</v>
       </c>
-      <c r="J58" s="424" t="s">
+      <c r="J58" s="429" t="s">
         <v>882</v>
       </c>
-      <c r="K58" s="425"/>
-      <c r="L58" s="425"/>
-      <c r="M58" s="425"/>
+      <c r="K58" s="430"/>
+      <c r="L58" s="430"/>
+      <c r="M58" s="430"/>
       <c r="AF58" s="56" t="s">
         <v>792</v>
       </c>
@@ -40522,6 +40522,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AM6:AP6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="W7:Z7"/>
     <mergeCell ref="J58:M58"/>
     <mergeCell ref="J46:M46"/>
     <mergeCell ref="S1:U1"/>
@@ -40534,30 +40558,6 @@
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="J38:M38"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AM6:AP6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="O6:R6"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40568,8 +40568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6D41B-A83C-4B0F-AB4E-45A43C474451}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="R6" sqref="R6:R7"/>
     </sheetView>
   </sheetViews>
@@ -40597,30 +40597,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E1" s="435" t="s">
+      <c r="E1" s="434" t="s">
         <v>1101</v>
       </c>
-      <c r="F1" s="436"/>
-      <c r="G1" s="436"/>
-      <c r="H1" s="437"/>
-      <c r="I1" s="435" t="s">
+      <c r="F1" s="435"/>
+      <c r="G1" s="435"/>
+      <c r="H1" s="436"/>
+      <c r="I1" s="434" t="s">
         <v>1102</v>
       </c>
-      <c r="J1" s="436"/>
-      <c r="K1" s="436"/>
-      <c r="L1" s="437"/>
-      <c r="N1" s="435" t="s">
+      <c r="J1" s="435"/>
+      <c r="K1" s="435"/>
+      <c r="L1" s="436"/>
+      <c r="N1" s="434" t="s">
         <v>1103</v>
       </c>
-      <c r="O1" s="436"/>
-      <c r="P1" s="436"/>
-      <c r="Q1" s="437"/>
-      <c r="U1" s="435" t="s">
+      <c r="O1" s="435"/>
+      <c r="P1" s="435"/>
+      <c r="Q1" s="436"/>
+      <c r="U1" s="434" t="s">
         <v>1105</v>
       </c>
-      <c r="V1" s="436"/>
-      <c r="W1" s="436"/>
-      <c r="X1" s="437"/>
+      <c r="V1" s="435"/>
+      <c r="W1" s="435"/>
+      <c r="X1" s="436"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="348" t="s">
@@ -40709,10 +40709,10 @@
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
       <c r="H3" s="37"/>
-      <c r="I3" s="407"/>
-      <c r="J3" s="408"/>
-      <c r="K3" s="408"/>
-      <c r="L3" s="409"/>
+      <c r="I3" s="416"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="420"/>
       <c r="M3" s="358"/>
       <c r="N3" s="351"/>
       <c r="R3" s="154" t="s">

--- a/EKF-SLAM时序图.xlsx
+++ b/EKF-SLAM时序图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DigitalLAB\A_EKF_SLAM\EKF_SLAM_RTL\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529BABEA-B114-41B4-B653-24AE0B5DAAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9BACD5-5AF8-41E9-B233-0A2C80866032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3585" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="2" activeTab="10" xr2:uid="{95158FA3-8CE8-4C65-B2CC-718C905F7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="PRD1,2" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5070" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="1175">
   <si>
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4635,7 +4635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5854,10 +5854,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5872,33 +5899,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5908,6 +5911,9 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5917,9 +5923,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5975,6 +5978,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6301,11 +6313,11 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W1" s="405" t="s">
+      <c r="W1" s="406" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="405"/>
-      <c r="Y1" s="405"/>
+      <c r="X1" s="406"/>
+      <c r="Y1" s="406"/>
       <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
@@ -6320,11 +6332,11 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="W3" s="405" t="s">
+      <c r="W3" s="406" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="405"/>
-      <c r="Y3" s="405"/>
+      <c r="X3" s="406"/>
+      <c r="Y3" s="406"/>
       <c r="Z3" s="21" t="s">
         <v>52</v>
       </c>
@@ -7078,11 +7090,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597BBB59-6323-453E-A254-55B17D79805D}">
   <dimension ref="A1:AQ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M49" sqref="M49"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7103,24 +7115,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D1" s="437" t="s">
+      <c r="D1" s="438" t="s">
         <v>555</v>
       </c>
-      <c r="E1" s="438"/>
-      <c r="F1" s="438"/>
-      <c r="G1" s="439"/>
-      <c r="H1" s="437" t="s">
+      <c r="E1" s="439"/>
+      <c r="F1" s="439"/>
+      <c r="G1" s="440"/>
+      <c r="H1" s="438" t="s">
         <v>1126</v>
       </c>
-      <c r="I1" s="438"/>
-      <c r="J1" s="438"/>
-      <c r="K1" s="439"/>
-      <c r="N1" s="440" t="s">
+      <c r="I1" s="439"/>
+      <c r="J1" s="439"/>
+      <c r="K1" s="440"/>
+      <c r="N1" s="441" t="s">
         <v>1154</v>
       </c>
-      <c r="O1" s="441"/>
-      <c r="P1" s="441"/>
-      <c r="Q1" s="442"/>
+      <c r="O1" s="442"/>
+      <c r="P1" s="442"/>
+      <c r="Q1" s="443"/>
     </row>
     <row r="2" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="348" t="s">
@@ -7179,10 +7191,10 @@
       <c r="A3" s="154" t="s">
         <v>984</v>
       </c>
-      <c r="D3" s="416"/>
-      <c r="E3" s="417"/>
-      <c r="F3" s="417"/>
-      <c r="G3" s="420"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="414"/>
+      <c r="G3" s="415"/>
       <c r="L3" s="343"/>
       <c r="N3" s="367"/>
       <c r="O3" s="369"/>
@@ -7683,6 +7695,9 @@
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A25" s="154" t="s">
+        <v>1093</v>
+      </c>
       <c r="N25" s="396"/>
       <c r="O25" s="395" t="s">
         <v>448</v>
@@ -7692,6 +7707,9 @@
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A26" s="405" t="s">
+        <v>107</v>
+      </c>
       <c r="B26" s="368" t="s">
         <v>1067</v>
       </c>
@@ -7699,6 +7717,9 @@
       <c r="O26" s="397"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A27" s="405" t="s">
+        <v>6</v>
+      </c>
       <c r="B27" s="368" t="s">
         <v>1098</v>
       </c>
@@ -7713,6 +7734,9 @@
       <c r="O27" s="397"/>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A28" s="405" t="s">
+        <v>7</v>
+      </c>
       <c r="D28" s="140" t="s">
         <v>227</v>
       </c>
@@ -7734,6 +7758,9 @@
       <c r="O28" s="397"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A29" s="405" t="s">
+        <v>9</v>
+      </c>
       <c r="E29" s="56" t="s">
         <v>372</v>
       </c>
@@ -7759,6 +7786,9 @@
       <c r="O29" s="394"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A30" s="405" t="s">
+        <v>11</v>
+      </c>
       <c r="B30" s="368" t="s">
         <v>1099</v>
       </c>
@@ -7788,6 +7818,9 @@
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A31" s="405" t="s">
+        <v>13</v>
+      </c>
       <c r="B31" s="368" t="s">
         <v>1100</v>
       </c>
@@ -7814,6 +7847,9 @@
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.4">
+      <c r="A32" s="405" t="s">
+        <v>15</v>
+      </c>
       <c r="F32" s="140" t="s">
         <v>450</v>
       </c>
@@ -7837,6 +7873,9 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="405" t="s">
+        <v>53</v>
+      </c>
       <c r="G33" s="56" t="s">
         <v>452</v>
       </c>
@@ -7857,6 +7896,9 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="154" t="s">
+        <v>1141</v>
+      </c>
       <c r="K34" s="56" t="s">
         <v>452</v>
       </c>
@@ -7868,8 +7910,16 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="405" t="s">
+        <v>107</v>
+      </c>
       <c r="O35" s="395" t="s">
         <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="405" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -7877,10 +7927,10 @@
       <c r="A41" s="154" t="s">
         <v>1156</v>
       </c>
-      <c r="D41" s="416"/>
-      <c r="E41" s="417"/>
-      <c r="F41" s="417"/>
-      <c r="G41" s="420"/>
+      <c r="D41" s="413"/>
+      <c r="E41" s="414"/>
+      <c r="F41" s="414"/>
+      <c r="G41" s="415"/>
       <c r="L41" s="352"/>
       <c r="N41" s="367"/>
       <c r="O41" s="369"/>
@@ -8110,8 +8160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6F30D8-4F74-43CF-B0A2-082294AF7E0E}">
   <dimension ref="A1:BB84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A65" sqref="A65:XFD65"/>
@@ -8151,33 +8201,33 @@
       <c r="D1" s="326"/>
       <c r="E1" s="327"/>
       <c r="F1" s="328"/>
-      <c r="G1" s="412" t="s">
+      <c r="G1" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="413"/>
-      <c r="I1" s="413"/>
-      <c r="J1" s="443"/>
-      <c r="K1" s="415" t="s">
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="444"/>
+      <c r="K1" s="421" t="s">
         <v>1138</v>
       </c>
-      <c r="L1" s="413"/>
-      <c r="M1" s="413"/>
-      <c r="N1" s="413"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="411"/>
       <c r="O1" s="284"/>
-      <c r="P1" s="412" t="s">
+      <c r="P1" s="410" t="s">
         <v>555</v>
       </c>
-      <c r="Q1" s="413"/>
-      <c r="R1" s="413"/>
-      <c r="S1" s="414"/>
+      <c r="Q1" s="411"/>
+      <c r="R1" s="411"/>
+      <c r="S1" s="412"/>
       <c r="T1" s="285"/>
       <c r="U1" s="285"/>
-      <c r="AD1" s="412" t="s">
+      <c r="AD1" s="410" t="s">
         <v>845</v>
       </c>
-      <c r="AE1" s="413"/>
-      <c r="AF1" s="413"/>
-      <c r="AG1" s="414"/>
+      <c r="AE1" s="411"/>
+      <c r="AF1" s="411"/>
+      <c r="AG1" s="412"/>
     </row>
     <row r="2" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -8274,12 +8324,12 @@
         <v>995</v>
       </c>
       <c r="P3" s="28"/>
-      <c r="X3" s="417" t="s">
+      <c r="X3" s="414" t="s">
         <v>1174</v>
       </c>
-      <c r="Y3" s="417"/>
-      <c r="Z3" s="417"/>
-      <c r="AA3" s="420"/>
+      <c r="Y3" s="414"/>
+      <c r="Z3" s="414"/>
+      <c r="AA3" s="415"/>
       <c r="AD3" s="35"/>
       <c r="AE3" s="33"/>
       <c r="AF3" s="33"/>
@@ -8344,12 +8394,12 @@
       <c r="O5" s="288">
         <v>1</v>
       </c>
-      <c r="X5" s="409" t="s">
+      <c r="X5" s="418" t="s">
         <v>760</v>
       </c>
-      <c r="Y5" s="410"/>
-      <c r="Z5" s="410"/>
-      <c r="AA5" s="411"/>
+      <c r="Y5" s="419"/>
+      <c r="Z5" s="419"/>
+      <c r="AA5" s="420"/>
       <c r="AD5" s="288"/>
       <c r="AE5" s="289"/>
       <c r="AF5" s="289"/>
@@ -8388,12 +8438,12 @@
       <c r="O6" s="288">
         <v>2</v>
       </c>
-      <c r="X6" s="409" t="s">
+      <c r="X6" s="418" t="s">
         <v>1171</v>
       </c>
-      <c r="Y6" s="410"/>
-      <c r="Z6" s="410"/>
-      <c r="AA6" s="411"/>
+      <c r="Y6" s="419"/>
+      <c r="Z6" s="419"/>
+      <c r="AA6" s="420"/>
       <c r="AD6" s="35"/>
       <c r="AE6" s="33"/>
       <c r="AF6" s="33"/>
@@ -8431,12 +8481,12 @@
       <c r="O7" s="288">
         <v>3</v>
       </c>
-      <c r="X7" s="409" t="s">
+      <c r="X7" s="418" t="s">
         <v>1172</v>
       </c>
-      <c r="Y7" s="410"/>
-      <c r="Z7" s="410"/>
-      <c r="AA7" s="411"/>
+      <c r="Y7" s="419"/>
+      <c r="Z7" s="419"/>
+      <c r="AA7" s="420"/>
       <c r="AB7" s="64" t="s">
         <v>444</v>
       </c>
@@ -8483,12 +8533,12 @@
       <c r="O8" s="288">
         <v>4</v>
       </c>
-      <c r="X8" s="409" t="s">
+      <c r="X8" s="418" t="s">
         <v>1173</v>
       </c>
-      <c r="Y8" s="410"/>
-      <c r="Z8" s="410"/>
-      <c r="AA8" s="411"/>
+      <c r="Y8" s="419"/>
+      <c r="Z8" s="419"/>
+      <c r="AA8" s="420"/>
       <c r="AD8" s="35"/>
       <c r="AE8" s="33"/>
       <c r="AF8" s="33"/>
@@ -8526,12 +8576,12 @@
       <c r="O9" s="288"/>
       <c r="V9" s="312"/>
       <c r="W9" s="312"/>
-      <c r="X9" s="409" t="s">
+      <c r="X9" s="418" t="s">
         <v>1136</v>
       </c>
-      <c r="Y9" s="410"/>
-      <c r="Z9" s="410"/>
-      <c r="AA9" s="411"/>
+      <c r="Y9" s="419"/>
+      <c r="Z9" s="419"/>
+      <c r="AA9" s="420"/>
     </row>
     <row r="10" spans="1:33" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="34" t="s">
@@ -8567,12 +8617,12 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="244"/>
-      <c r="X10" s="409" t="s">
+      <c r="X10" s="418" t="s">
         <v>1137</v>
       </c>
-      <c r="Y10" s="410"/>
-      <c r="Z10" s="410"/>
-      <c r="AA10" s="411"/>
+      <c r="Y10" s="419"/>
+      <c r="Z10" s="419"/>
+      <c r="AA10" s="420"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="34" t="s">
@@ -9757,7 +9807,7 @@
       <c r="A40" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="340" t="s">
+      <c r="C40" s="405" t="s">
         <v>53</v>
       </c>
       <c r="H40" s="56" t="s">
@@ -9784,8 +9834,8 @@
       <c r="A41" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="C41" s="340" t="s">
-        <v>55</v>
+      <c r="C41" s="154" t="s">
+        <v>1141</v>
       </c>
       <c r="Q41" s="56" t="s">
         <v>448</v>
@@ -9802,10 +9852,12 @@
       <c r="A42" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C42" s="340" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="3"/>
+      <c r="C42" s="382" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="309" t="s">
+        <v>986</v>
+      </c>
       <c r="P42" s="28"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="173" t="s">
@@ -9820,9 +9872,20 @@
       <c r="A43" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C43" s="340" t="s">
-        <v>59</v>
-      </c>
+      <c r="C43" s="382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="309" t="s">
+        <v>987</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="K43" s="333" t="s">
+        <v>373</v>
+      </c>
+      <c r="L43" s="18"/>
       <c r="S43" s="173" t="s">
         <v>452</v>
       </c>
@@ -9841,8 +9904,25 @@
       <c r="A44" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="C44" s="340" t="s">
-        <v>61</v>
+      <c r="C44" s="382" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="309" t="s">
+        <v>988</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="333" t="s">
+        <v>371</v>
+      </c>
+      <c r="L44" s="333" t="s">
+        <v>227</v>
       </c>
       <c r="AD44" s="56" t="s">
         <v>418</v>
@@ -9857,8 +9937,24 @@
       <c r="A45" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="C45" s="340" t="s">
-        <v>63</v>
+      <c r="C45" s="382" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="309" t="s">
+        <v>989</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="J45" s="29"/>
+      <c r="K45" s="333" t="s">
+        <v>369</v>
+      </c>
+      <c r="L45" s="333" t="s">
+        <v>229</v>
       </c>
       <c r="AE45" s="56" t="s">
         <v>423</v>
@@ -9871,8 +9967,23 @@
       <c r="A46" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="C46" s="340" t="s">
-        <v>79</v>
+      <c r="C46" s="382" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="309" t="s">
+        <v>990</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="K46" s="333" t="s">
+        <v>445</v>
+      </c>
+      <c r="L46" s="333" t="s">
+        <v>231</v>
       </c>
       <c r="AF46" s="56" t="s">
         <v>428</v>
@@ -9885,8 +9996,20 @@
       <c r="A47" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C47" s="340" t="s">
-        <v>77</v>
+      <c r="C47" s="382" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="K47" s="333" t="s">
+        <v>447</v>
+      </c>
+      <c r="L47" s="333" t="s">
+        <v>1077</v>
       </c>
       <c r="AG47" s="56" t="s">
         <v>433</v>
@@ -9896,32 +10019,40 @@
       <c r="A48" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="C48" s="340" t="s">
-        <v>81</v>
+      <c r="C48" s="382" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" s="18"/>
+      <c r="L48" s="333" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A49" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="C49" s="340" t="s">
-        <v>83</v>
+      <c r="C49" s="382" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A50" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="C50" s="340" t="s">
-        <v>94</v>
+      <c r="C50" s="382" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A51" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="C51" s="154" t="s">
-        <v>1141</v>
+      <c r="C51" s="382" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.4">
@@ -9929,10 +10060,7 @@
         <v>300</v>
       </c>
       <c r="C52" s="382" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="309" t="s">
-        <v>986</v>
+        <v>59</v>
       </c>
       <c r="AD52" s="250" t="s">
         <v>414</v>
@@ -9944,19 +10072,8 @@
         <v>301</v>
       </c>
       <c r="C53" s="382" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="309" t="s">
-        <v>987</v>
-      </c>
-      <c r="G53" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="H53" s="18"/>
-      <c r="K53" s="333" t="s">
-        <v>373</v>
-      </c>
-      <c r="L53" s="18"/>
+        <v>61</v>
+      </c>
       <c r="AD53" s="250" t="s">
         <v>415</v>
       </c>
@@ -9969,25 +10086,11 @@
       <c r="A54" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C54" s="382" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="309" t="s">
-        <v>988</v>
-      </c>
-      <c r="G54" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="H54" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="333" t="s">
-        <v>371</v>
-      </c>
-      <c r="L54" s="333" t="s">
-        <v>227</v>
+      <c r="C54" s="405" t="s">
+        <v>63</v>
+      </c>
+      <c r="T54" s="134" t="s">
+        <v>826</v>
       </c>
       <c r="AD54" s="250" t="s">
         <v>416</v>
@@ -10003,24 +10106,15 @@
       <c r="A55" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="C55" s="382" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="309" t="s">
-        <v>989</v>
-      </c>
-      <c r="G55" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="H55" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="J55" s="29"/>
-      <c r="K55" s="333" t="s">
-        <v>369</v>
-      </c>
-      <c r="L55" s="333" t="s">
-        <v>229</v>
+      <c r="C55" s="154" t="s">
+        <v>1156</v>
+      </c>
+      <c r="P55" s="134" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q55" s="352"/>
+      <c r="T55" s="134" t="s">
+        <v>827</v>
       </c>
       <c r="AD55" s="140" t="s">
         <v>417</v>
@@ -10039,23 +10133,20 @@
       <c r="A56" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="C56" s="382" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="309" t="s">
-        <v>990</v>
-      </c>
-      <c r="G56" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="H56" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="K56" s="333" t="s">
-        <v>445</v>
-      </c>
-      <c r="L56" s="333" t="s">
-        <v>231</v>
+      <c r="C56" s="405" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="385" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F56" s="249"/>
+      <c r="G56" s="385"/>
+      <c r="H56" s="386"/>
+      <c r="P56" s="134" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q56" s="72" t="s">
+        <v>828</v>
       </c>
       <c r="AD56" s="140" t="s">
         <v>418</v>
@@ -10074,20 +10165,20 @@
       <c r="A57" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="C57" s="382" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="K57" s="333" t="s">
-        <v>447</v>
-      </c>
-      <c r="L57" s="333" t="s">
-        <v>1077</v>
+      <c r="C57" s="405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="385" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F57" s="386"/>
+      <c r="G57" s="200" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H57" s="23"/>
+      <c r="P57" s="351"/>
+      <c r="Q57" s="72" t="s">
+        <v>829</v>
       </c>
       <c r="AE57" s="56" t="s">
         <v>423</v>
@@ -10103,16 +10194,16 @@
       <c r="A58" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="C58" s="382" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="K58" s="18"/>
-      <c r="L58" s="333" t="s">
-        <v>1078</v>
+      <c r="C58" s="405" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="385"/>
+      <c r="F58" s="386"/>
+      <c r="G58" s="200" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>1152</v>
       </c>
       <c r="AF58" s="56" t="s">
         <v>428</v>
@@ -10125,8 +10216,14 @@
       <c r="A59" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="C59" s="382" t="s">
-        <v>53</v>
+      <c r="C59" s="405" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="385"/>
+      <c r="F59" s="386"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="54" t="s">
+        <v>1153</v>
       </c>
       <c r="AG59" s="56" t="s">
         <v>443</v>
@@ -10136,35 +10233,42 @@
       <c r="A60" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="C60" s="382" t="s">
-        <v>55</v>
+      <c r="C60" s="405" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A61" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="C61" s="382" t="s">
-        <v>57</v>
+      <c r="C61" s="405" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A62" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="C62" s="382" t="s">
-        <v>59</v>
+      <c r="C62" s="405" t="s">
+        <v>15</v>
+      </c>
+      <c r="T62" s="450">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A63" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="C63" s="382" t="s">
-        <v>61</v>
-      </c>
-      <c r="T63" s="134" t="s">
-        <v>826</v>
+      <c r="C63" s="405" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" s="448" t="s">
+        <v>1150</v>
+      </c>
+      <c r="Q63" s="23"/>
+      <c r="T63" s="450">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.4">
@@ -10172,73 +10276,47 @@
         <v>312</v>
       </c>
       <c r="C64" s="154" t="s">
-        <v>1156</v>
-      </c>
-      <c r="P64" s="134" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q64" s="352"/>
-      <c r="T64" s="134" t="s">
-        <v>827</v>
+        <v>1167</v>
+      </c>
+      <c r="P64" s="448" t="s">
+        <v>1151</v>
+      </c>
+      <c r="Q64" s="449" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="D65" s="385" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F65" s="249"/>
-      <c r="G65" s="385"/>
-      <c r="H65" s="386"/>
-      <c r="P65" s="134" t="s">
-        <v>827</v>
-      </c>
-      <c r="Q65" s="72" t="s">
-        <v>828</v>
+      <c r="C65" s="405" t="s">
+        <v>107</v>
+      </c>
+      <c r="P65" s="133"/>
+      <c r="Q65" s="449" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="D66" s="385" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F66" s="386"/>
-      <c r="G66" s="200" t="s">
-        <v>1150</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="P66" s="351"/>
-      <c r="Q66" s="72" t="s">
-        <v>829</v>
+      <c r="C66" s="405" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="D67" s="385"/>
-      <c r="F67" s="386"/>
-      <c r="G67" s="200" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H67" s="54" t="s">
-        <v>1152</v>
+      <c r="C67" s="405" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="E68" s="385"/>
-      <c r="F68" s="386"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="54" t="s">
-        <v>1153</v>
-      </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69" s="34" t="s">
@@ -10336,17 +10414,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="X3:AA3"/>
     <mergeCell ref="X10:AA10"/>
     <mergeCell ref="X5:AA5"/>
     <mergeCell ref="X6:AA6"/>
     <mergeCell ref="X7:AA7"/>
     <mergeCell ref="X8:AA8"/>
     <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="X3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10392,25 +10470,25 @@
       <c r="C1" s="335"/>
       <c r="D1" s="326"/>
       <c r="E1" s="328"/>
-      <c r="F1" s="412" t="s">
+      <c r="F1" s="410" t="s">
         <v>556</v>
       </c>
-      <c r="G1" s="413"/>
-      <c r="H1" s="413"/>
-      <c r="I1" s="414"/>
-      <c r="J1" s="415" t="s">
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="412"/>
+      <c r="J1" s="421" t="s">
         <v>1138</v>
       </c>
-      <c r="K1" s="413"/>
-      <c r="L1" s="413"/>
-      <c r="M1" s="413"/>
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
       <c r="N1" s="304"/>
-      <c r="O1" s="412" t="s">
+      <c r="O1" s="410" t="s">
         <v>555</v>
       </c>
-      <c r="P1" s="413"/>
-      <c r="Q1" s="413"/>
-      <c r="R1" s="414"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="411"/>
+      <c r="R1" s="412"/>
       <c r="S1" s="305"/>
       <c r="T1" s="305"/>
       <c r="U1" s="231"/>
@@ -10522,12 +10600,12 @@
       </c>
       <c r="Q3" s="230"/>
       <c r="R3" s="49"/>
-      <c r="W3" s="417" t="s">
+      <c r="W3" s="414" t="s">
         <v>1174</v>
       </c>
-      <c r="X3" s="417"/>
-      <c r="Y3" s="417"/>
-      <c r="Z3" s="420"/>
+      <c r="X3" s="414"/>
+      <c r="Y3" s="414"/>
+      <c r="Z3" s="415"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="231" t="s">
@@ -10597,12 +10675,12 @@
       <c r="Q5" s="230"/>
       <c r="R5" s="49"/>
       <c r="S5" s="310"/>
-      <c r="W5" s="409" t="s">
+      <c r="W5" s="418" t="s">
         <v>760</v>
       </c>
-      <c r="X5" s="410"/>
-      <c r="Y5" s="410"/>
-      <c r="Z5" s="411"/>
+      <c r="X5" s="419"/>
+      <c r="Y5" s="419"/>
+      <c r="Z5" s="420"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="231" t="s">
@@ -10631,12 +10709,12 @@
       <c r="N6" s="313"/>
       <c r="Q6" s="230"/>
       <c r="R6" s="49"/>
-      <c r="W6" s="409" t="s">
+      <c r="W6" s="418" t="s">
         <v>1171</v>
       </c>
-      <c r="X6" s="410"/>
-      <c r="Y6" s="410"/>
-      <c r="Z6" s="411"/>
+      <c r="X6" s="419"/>
+      <c r="Y6" s="419"/>
+      <c r="Z6" s="420"/>
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="231" t="s">
@@ -10668,12 +10746,12 @@
       <c r="N7" s="313"/>
       <c r="Q7" s="230"/>
       <c r="R7" s="49"/>
-      <c r="W7" s="409" t="s">
+      <c r="W7" s="418" t="s">
         <v>1172</v>
       </c>
-      <c r="X7" s="410"/>
-      <c r="Y7" s="410"/>
-      <c r="Z7" s="411"/>
+      <c r="X7" s="419"/>
+      <c r="Y7" s="419"/>
+      <c r="Z7" s="420"/>
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="231" t="s">
@@ -10701,12 +10779,12 @@
       <c r="N8" s="313"/>
       <c r="Q8" s="230"/>
       <c r="R8" s="49"/>
-      <c r="W8" s="409" t="s">
+      <c r="W8" s="418" t="s">
         <v>1173</v>
       </c>
-      <c r="X8" s="410"/>
-      <c r="Y8" s="410"/>
-      <c r="Z8" s="411"/>
+      <c r="X8" s="419"/>
+      <c r="Y8" s="419"/>
+      <c r="Z8" s="420"/>
     </row>
     <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="231" t="s">
@@ -10734,12 +10812,12 @@
       <c r="N9" s="313"/>
       <c r="Q9" s="230"/>
       <c r="R9" s="49"/>
-      <c r="W9" s="409" t="s">
+      <c r="W9" s="418" t="s">
         <v>1136</v>
       </c>
-      <c r="X9" s="410"/>
-      <c r="Y9" s="410"/>
-      <c r="Z9" s="411"/>
+      <c r="X9" s="419"/>
+      <c r="Y9" s="419"/>
+      <c r="Z9" s="420"/>
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="231" t="s">
@@ -10764,12 +10842,12 @@
       <c r="N10" s="313"/>
       <c r="Q10" s="230"/>
       <c r="R10" s="49"/>
-      <c r="W10" s="409" t="s">
+      <c r="W10" s="418" t="s">
         <v>1137</v>
       </c>
-      <c r="X10" s="410"/>
-      <c r="Y10" s="410"/>
-      <c r="Z10" s="411"/>
+      <c r="X10" s="419"/>
+      <c r="Y10" s="419"/>
+      <c r="Z10" s="420"/>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="231" t="s">
@@ -13305,12 +13383,12 @@
       <c r="S3" s="352"/>
       <c r="T3" s="352"/>
       <c r="U3" s="353"/>
-      <c r="AD3" s="416" t="s">
+      <c r="AD3" s="413" t="s">
         <v>1133</v>
       </c>
-      <c r="AE3" s="417"/>
-      <c r="AF3" s="417"/>
-      <c r="AG3" s="420"/>
+      <c r="AE3" s="414"/>
+      <c r="AF3" s="414"/>
+      <c r="AG3" s="415"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A4" s="378" t="s">
@@ -13388,12 +13466,12 @@
       <c r="T5" s="352"/>
       <c r="U5" s="353"/>
       <c r="Z5" s="314"/>
-      <c r="AD5" s="409" t="s">
+      <c r="AD5" s="418" t="s">
         <v>236</v>
       </c>
-      <c r="AE5" s="410"/>
-      <c r="AF5" s="410"/>
-      <c r="AG5" s="411"/>
+      <c r="AE5" s="419"/>
+      <c r="AF5" s="419"/>
+      <c r="AG5" s="420"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A6" s="378" t="s">
@@ -13429,12 +13507,12 @@
       <c r="T6" s="352"/>
       <c r="U6" s="353"/>
       <c r="Z6" s="314"/>
-      <c r="AD6" s="409" t="s">
+      <c r="AD6" s="418" t="s">
         <v>1132</v>
       </c>
-      <c r="AE6" s="410"/>
-      <c r="AF6" s="410"/>
-      <c r="AG6" s="411"/>
+      <c r="AE6" s="419"/>
+      <c r="AF6" s="419"/>
+      <c r="AG6" s="420"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A7" s="378" t="s">
@@ -13472,12 +13550,12 @@
       <c r="T7" s="352"/>
       <c r="U7" s="353"/>
       <c r="Z7" s="314"/>
-      <c r="AD7" s="409" t="s">
+      <c r="AD7" s="418" t="s">
         <v>1130</v>
       </c>
-      <c r="AE7" s="410"/>
-      <c r="AF7" s="410"/>
-      <c r="AG7" s="411"/>
+      <c r="AE7" s="419"/>
+      <c r="AF7" s="419"/>
+      <c r="AG7" s="420"/>
       <c r="AI7" s="351"/>
       <c r="AJ7" s="352"/>
       <c r="AK7" s="352"/>
@@ -13519,12 +13597,12 @@
       <c r="T8" s="352"/>
       <c r="U8" s="353"/>
       <c r="Z8" s="314"/>
-      <c r="AD8" s="409" t="s">
+      <c r="AD8" s="418" t="s">
         <v>1131</v>
       </c>
-      <c r="AE8" s="410"/>
-      <c r="AF8" s="410"/>
-      <c r="AG8" s="411"/>
+      <c r="AE8" s="419"/>
+      <c r="AF8" s="419"/>
+      <c r="AG8" s="420"/>
       <c r="AI8" s="351"/>
       <c r="AJ8" s="352"/>
       <c r="AK8" s="352"/>
@@ -13566,12 +13644,12 @@
       <c r="T9" s="352"/>
       <c r="U9" s="353"/>
       <c r="Z9" s="314"/>
-      <c r="AD9" s="409" t="s">
+      <c r="AD9" s="418" t="s">
         <v>1129</v>
       </c>
-      <c r="AE9" s="410"/>
-      <c r="AF9" s="410"/>
-      <c r="AG9" s="411"/>
+      <c r="AE9" s="419"/>
+      <c r="AF9" s="419"/>
+      <c r="AG9" s="420"/>
       <c r="AI9" s="351"/>
       <c r="AJ9" s="352"/>
       <c r="AK9" s="74" t="s">
@@ -13609,12 +13687,12 @@
       </c>
       <c r="U10" s="353"/>
       <c r="Z10" s="314"/>
-      <c r="AD10" s="409" t="s">
+      <c r="AD10" s="418" t="s">
         <v>1136</v>
       </c>
-      <c r="AE10" s="410"/>
-      <c r="AF10" s="410"/>
-      <c r="AG10" s="411"/>
+      <c r="AE10" s="419"/>
+      <c r="AF10" s="419"/>
+      <c r="AG10" s="420"/>
       <c r="AI10" s="351"/>
       <c r="AJ10" s="74" t="s">
         <v>580</v>
@@ -13674,12 +13752,12 @@
       <c r="AC11" s="348" t="s">
         <v>1135</v>
       </c>
-      <c r="AD11" s="444" t="s">
+      <c r="AD11" s="445" t="s">
         <v>1137</v>
       </c>
-      <c r="AE11" s="407"/>
-      <c r="AF11" s="407"/>
-      <c r="AG11" s="408"/>
+      <c r="AE11" s="416"/>
+      <c r="AF11" s="416"/>
+      <c r="AG11" s="417"/>
       <c r="AI11" s="75" t="s">
         <v>581</v>
       </c>
@@ -16685,30 +16763,30 @@
     <row r="1" spans="1:22" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="231"/>
       <c r="B1" s="218"/>
-      <c r="C1" s="412" t="s">
+      <c r="C1" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="413"/>
-      <c r="E1" s="413"/>
-      <c r="F1" s="414"/>
-      <c r="G1" s="412" t="s">
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="412"/>
+      <c r="G1" s="410" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="413"/>
-      <c r="I1" s="413"/>
-      <c r="J1" s="414"/>
-      <c r="K1" s="412" t="s">
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="412"/>
+      <c r="K1" s="410" t="s">
         <v>382</v>
       </c>
-      <c r="L1" s="413"/>
-      <c r="M1" s="413"/>
-      <c r="N1" s="414"/>
-      <c r="O1" s="412" t="s">
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="412"/>
+      <c r="O1" s="410" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="413"/>
-      <c r="Q1" s="413"/>
-      <c r="R1" s="414"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="411"/>
+      <c r="R1" s="412"/>
       <c r="S1" s="181"/>
       <c r="T1" s="181"/>
       <c r="U1" s="181"/>
@@ -16807,12 +16885,12 @@
       <c r="P3" s="176"/>
       <c r="Q3" s="176"/>
       <c r="R3" s="177"/>
-      <c r="S3" s="416" t="s">
+      <c r="S3" s="413" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="417"/>
-      <c r="U3" s="417"/>
-      <c r="V3" s="420"/>
+      <c r="T3" s="414"/>
+      <c r="U3" s="414"/>
+      <c r="V3" s="415"/>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="231" t="s">
@@ -16881,12 +16959,12 @@
       <c r="P5" s="176"/>
       <c r="Q5" s="176"/>
       <c r="R5" s="177"/>
-      <c r="S5" s="409" t="s">
+      <c r="S5" s="418" t="s">
         <v>236</v>
       </c>
-      <c r="T5" s="410"/>
-      <c r="U5" s="410"/>
-      <c r="V5" s="411"/>
+      <c r="T5" s="419"/>
+      <c r="U5" s="419"/>
+      <c r="V5" s="420"/>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="231" t="s">
@@ -16917,12 +16995,12 @@
       <c r="P6" s="176"/>
       <c r="Q6" s="176"/>
       <c r="R6" s="177"/>
-      <c r="S6" s="409" t="s">
+      <c r="S6" s="418" t="s">
         <v>237</v>
       </c>
-      <c r="T6" s="410"/>
-      <c r="U6" s="410"/>
-      <c r="V6" s="411"/>
+      <c r="T6" s="419"/>
+      <c r="U6" s="419"/>
+      <c r="V6" s="420"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="231" t="s">
@@ -16990,12 +17068,12 @@
         <v>238</v>
       </c>
       <c r="R8" s="177"/>
-      <c r="S8" s="445" t="s">
+      <c r="S8" s="446" t="s">
         <v>831</v>
       </c>
-      <c r="T8" s="446"/>
-      <c r="U8" s="446"/>
-      <c r="V8" s="446"/>
+      <c r="T8" s="447"/>
+      <c r="U8" s="447"/>
+      <c r="V8" s="447"/>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="231" t="s">
@@ -19529,36 +19607,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="18"/>
-      <c r="C1" s="412" t="s">
+      <c r="C1" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="413"/>
-      <c r="E1" s="413"/>
-      <c r="F1" s="414"/>
-      <c r="G1" s="415" t="s">
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="412"/>
+      <c r="G1" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="413"/>
-      <c r="I1" s="413"/>
-      <c r="J1" s="413"/>
-      <c r="K1" s="412" t="s">
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="411"/>
+      <c r="K1" s="410" t="s">
         <v>382</v>
       </c>
-      <c r="L1" s="413"/>
-      <c r="M1" s="413"/>
-      <c r="N1" s="414"/>
-      <c r="O1" s="412" t="s">
+      <c r="L1" s="411"/>
+      <c r="M1" s="411"/>
+      <c r="N1" s="412"/>
+      <c r="O1" s="410" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="413"/>
-      <c r="Q1" s="413"/>
-      <c r="R1" s="414"/>
-      <c r="Z1" s="412" t="s">
+      <c r="P1" s="411"/>
+      <c r="Q1" s="411"/>
+      <c r="R1" s="412"/>
+      <c r="Z1" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="AA1" s="413"/>
-      <c r="AB1" s="413"/>
-      <c r="AC1" s="414"/>
+      <c r="AA1" s="411"/>
+      <c r="AB1" s="411"/>
+      <c r="AC1" s="412"/>
     </row>
     <row r="2" spans="2:29" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="18"/>
@@ -19627,33 +19705,33 @@
       <c r="B3" s="18">
         <v>0</v>
       </c>
-      <c r="C3" s="416" t="s">
+      <c r="C3" s="413" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="417"/>
-      <c r="E3" s="417"/>
-      <c r="F3" s="420"/>
-      <c r="G3" s="416"/>
-      <c r="H3" s="417"/>
-      <c r="I3" s="417"/>
-      <c r="J3" s="420"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="415"/>
+      <c r="G3" s="413"/>
+      <c r="H3" s="414"/>
+      <c r="I3" s="414"/>
+      <c r="J3" s="415"/>
       <c r="K3" s="175"/>
       <c r="O3" s="175"/>
       <c r="P3" s="176"/>
       <c r="Q3" s="176"/>
       <c r="R3" s="177"/>
-      <c r="S3" s="416" t="s">
+      <c r="S3" s="413" t="s">
         <v>342</v>
       </c>
-      <c r="T3" s="417"/>
-      <c r="U3" s="417"/>
-      <c r="V3" s="420"/>
-      <c r="Z3" s="416" t="s">
+      <c r="T3" s="414"/>
+      <c r="U3" s="414"/>
+      <c r="V3" s="415"/>
+      <c r="Z3" s="413" t="s">
         <v>219</v>
       </c>
-      <c r="AA3" s="417"/>
-      <c r="AB3" s="417"/>
-      <c r="AC3" s="420"/>
+      <c r="AA3" s="414"/>
+      <c r="AB3" s="414"/>
+      <c r="AC3" s="415"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="34" t="s">
@@ -19710,12 +19788,12 @@
       <c r="P5" s="176"/>
       <c r="Q5" s="176"/>
       <c r="R5" s="177"/>
-      <c r="S5" s="409" t="s">
+      <c r="S5" s="418" t="s">
         <v>442</v>
       </c>
-      <c r="T5" s="410"/>
-      <c r="U5" s="410"/>
-      <c r="V5" s="411"/>
+      <c r="T5" s="419"/>
+      <c r="U5" s="419"/>
+      <c r="V5" s="420"/>
       <c r="W5" s="64" t="s">
         <v>444</v>
       </c>
@@ -19745,12 +19823,12 @@
       <c r="P6" s="176"/>
       <c r="Q6" s="176"/>
       <c r="R6" s="177"/>
-      <c r="S6" s="409" t="s">
+      <c r="S6" s="418" t="s">
         <v>359</v>
       </c>
-      <c r="T6" s="410"/>
-      <c r="U6" s="410"/>
-      <c r="V6" s="411"/>
+      <c r="T6" s="419"/>
+      <c r="U6" s="419"/>
+      <c r="V6" s="420"/>
       <c r="Z6" s="175"/>
       <c r="AA6" s="176"/>
       <c r="AB6" s="176"/>
@@ -21109,17 +21187,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="Z3:AC3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21154,57 +21232,57 @@
       <c r="A1" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="412" t="s">
+      <c r="B1" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="413"/>
-      <c r="D1" s="413"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="415" t="s">
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="412"/>
+      <c r="F1" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="413"/>
-      <c r="H1" s="413"/>
-      <c r="I1" s="413"/>
-      <c r="J1" s="412" t="s">
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="410" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="413"/>
-      <c r="L1" s="413"/>
-      <c r="M1" s="414"/>
-      <c r="N1" s="412" t="s">
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="412"/>
+      <c r="N1" s="410" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="413"/>
-      <c r="P1" s="413"/>
-      <c r="Q1" s="414"/>
-      <c r="R1" s="416" t="s">
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="412"/>
+      <c r="R1" s="413" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="417"/>
-      <c r="T1" s="417"/>
+      <c r="S1" s="414"/>
+      <c r="T1" s="414"/>
       <c r="U1" s="37"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="174"/>
-      <c r="B2" s="412" t="s">
+      <c r="B2" s="410" t="s">
         <v>534</v>
       </c>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="412" t="s">
+      <c r="C2" s="411"/>
+      <c r="D2" s="411"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="410" t="s">
         <v>535</v>
       </c>
-      <c r="G2" s="413"/>
-      <c r="H2" s="413"/>
-      <c r="I2" s="414"/>
-      <c r="J2" s="412" t="s">
+      <c r="G2" s="411"/>
+      <c r="H2" s="411"/>
+      <c r="I2" s="412"/>
+      <c r="J2" s="410" t="s">
         <v>678</v>
       </c>
-      <c r="K2" s="413"/>
-      <c r="L2" s="413"/>
-      <c r="M2" s="414"/>
+      <c r="K2" s="411"/>
+      <c r="L2" s="411"/>
+      <c r="M2" s="412"/>
       <c r="N2" s="39"/>
       <c r="O2" s="178"/>
       <c r="P2" s="178"/>
@@ -21303,12 +21381,12 @@
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="29"/>
-      <c r="R4" s="406" t="s">
+      <c r="R4" s="407" t="s">
         <v>236</v>
       </c>
-      <c r="S4" s="407"/>
-      <c r="T4" s="407"/>
-      <c r="U4" s="408"/>
+      <c r="S4" s="416"/>
+      <c r="T4" s="416"/>
+      <c r="U4" s="417"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="174" t="s">
@@ -21331,12 +21409,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="409" t="s">
+      <c r="R5" s="418" t="s">
         <v>756</v>
       </c>
-      <c r="S5" s="410"/>
-      <c r="T5" s="410"/>
-      <c r="U5" s="411"/>
+      <c r="S5" s="419"/>
+      <c r="T5" s="419"/>
+      <c r="U5" s="420"/>
     </row>
     <row r="6" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="174" t="s">
@@ -23006,11 +23084,11 @@
       <c r="K93" s="172"/>
       <c r="L93" s="182"/>
       <c r="M93" s="182"/>
-      <c r="R93" s="416" t="s">
+      <c r="R93" s="413" t="s">
         <v>213</v>
       </c>
-      <c r="S93" s="417"/>
-      <c r="T93" s="417"/>
+      <c r="S93" s="414"/>
+      <c r="T93" s="414"/>
       <c r="U93" s="37"/>
     </row>
     <row r="94" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -23099,12 +23177,12 @@
       <c r="K96" s="61"/>
       <c r="L96" s="61"/>
       <c r="M96" s="62"/>
-      <c r="R96" s="406" t="s">
+      <c r="R96" s="407" t="s">
         <v>51</v>
       </c>
-      <c r="S96" s="418"/>
-      <c r="T96" s="418"/>
-      <c r="U96" s="419"/>
+      <c r="S96" s="408"/>
+      <c r="T96" s="408"/>
+      <c r="U96" s="409"/>
     </row>
     <row r="97" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="174" t="s">
@@ -23126,12 +23204,12 @@
       <c r="K97" s="61"/>
       <c r="L97" s="61"/>
       <c r="M97" s="62"/>
-      <c r="R97" s="416" t="s">
+      <c r="R97" s="413" t="s">
         <v>756</v>
       </c>
-      <c r="S97" s="417"/>
-      <c r="T97" s="417"/>
-      <c r="U97" s="420"/>
+      <c r="S97" s="414"/>
+      <c r="T97" s="414"/>
+      <c r="U97" s="415"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="174" t="s">
@@ -23183,11 +23261,11 @@
       <c r="K100" s="61"/>
       <c r="L100" s="61"/>
       <c r="M100" s="62"/>
-      <c r="R100" s="416" t="s">
+      <c r="R100" s="413" t="s">
         <v>757</v>
       </c>
-      <c r="S100" s="417"/>
-      <c r="T100" s="417"/>
+      <c r="S100" s="414"/>
+      <c r="T100" s="414"/>
       <c r="U100" s="37"/>
     </row>
     <row r="101" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -23283,12 +23361,12 @@
       <c r="M103" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="R103" s="406" t="s">
+      <c r="R103" s="407" t="s">
         <v>236</v>
       </c>
-      <c r="S103" s="418"/>
-      <c r="T103" s="418"/>
-      <c r="U103" s="419"/>
+      <c r="S103" s="408"/>
+      <c r="T103" s="408"/>
+      <c r="U103" s="409"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A104" s="174" t="s">
@@ -23305,12 +23383,12 @@
       <c r="L104" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="R104" s="416" t="s">
+      <c r="R104" s="413" t="s">
         <v>756</v>
       </c>
-      <c r="S104" s="417"/>
-      <c r="T104" s="417"/>
-      <c r="U104" s="420"/>
+      <c r="S104" s="414"/>
+      <c r="T104" s="414"/>
+      <c r="U104" s="415"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A105" s="174" t="s">
@@ -23660,12 +23738,12 @@
       <c r="L124" s="29" t="s">
         <v>661</v>
       </c>
-      <c r="R124" s="416" t="s">
+      <c r="R124" s="413" t="s">
         <v>768</v>
       </c>
-      <c r="S124" s="417"/>
-      <c r="T124" s="417"/>
-      <c r="U124" s="420"/>
+      <c r="S124" s="414"/>
+      <c r="T124" s="414"/>
+      <c r="U124" s="415"/>
     </row>
     <row r="125" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="174" t="s">
@@ -23741,23 +23819,23 @@
       <c r="G127" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="R127" s="406" t="s">
+      <c r="R127" s="407" t="s">
         <v>760</v>
       </c>
-      <c r="S127" s="418"/>
-      <c r="T127" s="418"/>
-      <c r="U127" s="419"/>
+      <c r="S127" s="408"/>
+      <c r="T127" s="408"/>
+      <c r="U127" s="409"/>
     </row>
     <row r="128" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="174" t="s">
         <v>769</v>
       </c>
-      <c r="R128" s="412" t="s">
+      <c r="R128" s="410" t="s">
         <v>756</v>
       </c>
-      <c r="S128" s="413"/>
-      <c r="T128" s="413"/>
-      <c r="U128" s="414"/>
+      <c r="S128" s="411"/>
+      <c r="T128" s="411"/>
+      <c r="U128" s="412"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A129" s="174" t="s">
@@ -23812,12 +23890,12 @@
       <c r="F135" s="60" t="s">
         <v>737</v>
       </c>
-      <c r="R135" s="416" t="s">
+      <c r="R135" s="413" t="s">
         <v>788</v>
       </c>
-      <c r="S135" s="417"/>
-      <c r="T135" s="417"/>
-      <c r="U135" s="420"/>
+      <c r="S135" s="414"/>
+      <c r="T135" s="414"/>
+      <c r="U135" s="415"/>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A136" s="174" t="s">
@@ -23869,23 +23947,23 @@
       <c r="A138" s="174" t="s">
         <v>745</v>
       </c>
-      <c r="R138" s="406" t="s">
+      <c r="R138" s="407" t="s">
         <v>760</v>
       </c>
-      <c r="S138" s="418"/>
-      <c r="T138" s="418"/>
-      <c r="U138" s="419"/>
+      <c r="S138" s="408"/>
+      <c r="T138" s="408"/>
+      <c r="U138" s="409"/>
     </row>
     <row r="139" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="174" t="s">
         <v>746</v>
       </c>
-      <c r="R139" s="412" t="s">
+      <c r="R139" s="410" t="s">
         <v>799</v>
       </c>
-      <c r="S139" s="413"/>
-      <c r="T139" s="413"/>
-      <c r="U139" s="414"/>
+      <c r="S139" s="411"/>
+      <c r="T139" s="411"/>
+      <c r="U139" s="412"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A140" s="174" t="s">
@@ -23934,12 +24012,12 @@
       <c r="F145" s="56" t="s">
         <v>730</v>
       </c>
-      <c r="R145" s="416" t="s">
+      <c r="R145" s="413" t="s">
         <v>798</v>
       </c>
-      <c r="S145" s="417"/>
-      <c r="T145" s="417"/>
-      <c r="U145" s="420"/>
+      <c r="S145" s="414"/>
+      <c r="T145" s="414"/>
+      <c r="U145" s="415"/>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A146" s="174" t="s">
@@ -23991,12 +24069,12 @@
       <c r="A148" s="174" t="s">
         <v>770</v>
       </c>
-      <c r="R148" s="406" t="s">
+      <c r="R148" s="407" t="s">
         <v>760</v>
       </c>
-      <c r="S148" s="418"/>
-      <c r="T148" s="418"/>
-      <c r="U148" s="419"/>
+      <c r="S148" s="408"/>
+      <c r="T148" s="408"/>
+      <c r="U148" s="409"/>
     </row>
     <row r="149" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="174" t="s">
@@ -24006,12 +24084,12 @@
       <c r="Q149" s="56" t="s">
         <v>761</v>
       </c>
-      <c r="R149" s="412" t="s">
+      <c r="R149" s="410" t="s">
         <v>799</v>
       </c>
-      <c r="S149" s="413"/>
-      <c r="T149" s="413"/>
-      <c r="U149" s="414"/>
+      <c r="S149" s="411"/>
+      <c r="T149" s="411"/>
+      <c r="U149" s="412"/>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A150" s="174" t="s">
@@ -24120,21 +24198,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R138:U138"/>
-    <mergeCell ref="R139:U139"/>
-    <mergeCell ref="R148:U148"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="R145:U145"/>
-    <mergeCell ref="R128:U128"/>
-    <mergeCell ref="R93:T93"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R100:T100"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R124:U124"/>
-    <mergeCell ref="R127:U127"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="B1:E1"/>
@@ -24145,6 +24208,21 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R128:U128"/>
+    <mergeCell ref="R93:T93"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R100:T100"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R124:U124"/>
+    <mergeCell ref="R127:U127"/>
+    <mergeCell ref="R138:U138"/>
+    <mergeCell ref="R139:U139"/>
+    <mergeCell ref="R148:U148"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="R145:U145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24175,30 +24253,30 @@
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18"/>
-      <c r="B1" s="412" t="s">
+      <c r="B1" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="413"/>
-      <c r="D1" s="413"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="415" t="s">
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="412"/>
+      <c r="F1" s="421" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="413"/>
-      <c r="H1" s="413"/>
-      <c r="I1" s="413"/>
-      <c r="J1" s="412" t="s">
+      <c r="G1" s="411"/>
+      <c r="H1" s="411"/>
+      <c r="I1" s="411"/>
+      <c r="J1" s="410" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="413"/>
-      <c r="L1" s="413"/>
-      <c r="M1" s="414"/>
-      <c r="N1" s="412" t="s">
+      <c r="K1" s="411"/>
+      <c r="L1" s="411"/>
+      <c r="M1" s="412"/>
+      <c r="N1" s="410" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="413"/>
-      <c r="P1" s="413"/>
-      <c r="Q1" s="414"/>
+      <c r="O1" s="411"/>
+      <c r="P1" s="411"/>
+      <c r="Q1" s="412"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18"/>
@@ -24285,12 +24363,12 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="36"/>
-      <c r="R3" s="416" t="s">
+      <c r="R3" s="413" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="417"/>
-      <c r="T3" s="417"/>
-      <c r="U3" s="420"/>
+      <c r="S3" s="414"/>
+      <c r="T3" s="414"/>
+      <c r="U3" s="415"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
@@ -24343,12 +24421,12 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="29"/>
-      <c r="R5" s="409" t="s">
+      <c r="R5" s="